--- a/MIACADA Ledger.xlsx
+++ b/MIACADA Ledger.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admcches\Desktop\MIACADA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admcches\Documents\GitHub\MIACADA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="358">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -1234,7 +1234,21 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1607,11 +1621,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="686621840"/>
-        <c:axId val="686622960"/>
+        <c:axId val="702531616"/>
+        <c:axId val="702533856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="686621840"/>
+        <c:axId val="702531616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,7 +1668,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686622960"/>
+        <c:crossAx val="702533856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1662,7 +1676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="686622960"/>
+        <c:axId val="702533856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,7 +1727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686621840"/>
+        <c:crossAx val="702531616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2628,7 +2642,7 @@
     <dataField name="Sum of Cost" fld="0" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="16">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -5495,10 +5509,10 @@
   </sheetData>
   <autoFilter ref="E1:E71"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="1" stopIfTrue="1">
       <formula>D1="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>NOT(ISBLANK(E1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6801,18 +6815,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E32">
-    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="3" stopIfTrue="1">
       <formula>D2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>NOT(ISBLANK(E2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E77">
-    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>D40="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>NOT(ISBLANK(E40))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6826,7 +6840,7 @@
   <dimension ref="A1:M786"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6898,7 +6912,7 @@
       </c>
       <c r="K2" s="3">
         <f>SUM(J2:J35)</f>
-        <v>808.12</v>
+        <v>1048.25</v>
       </c>
       <c r="M2" s="3"/>
     </row>
@@ -7027,6 +7041,9 @@
         <f t="shared" si="0"/>
         <v>8580.5000000000018</v>
       </c>
+      <c r="J7" s="3">
+        <v>240.13</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
@@ -7161,15 +7178,26 @@
       <c r="K13" s="23"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E14" s="3"/>
+      <c r="A14" s="28">
+        <v>43126</v>
+      </c>
+      <c r="B14">
+        <v>1348</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="E14" s="3">
+        <v>240.13</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3" t="str">
+      <c r="G14" s="3">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H14" s="3" t="str">
+        <v>7617.8100000000022</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8666.0600000000031</v>
       </c>
       <c r="L14" s="3"/>
     </row>
@@ -14898,59 +14926,67 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="15" stopIfTrue="1">
       <formula>D1="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>NOT(ISBLANK(E1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M4">
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>L2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>NOT(ISBLANK(M2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>L5="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>NOT(ISBLANK(M5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>E14="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>NOT(ISBLANK(F14))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J4">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>I2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>NOT(ISBLANK(J2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>I5="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>NOT(ISBLANK(J5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>I6="c"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>NOT(ISBLANK(J6))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>I7="c"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="2" priority="2">
-      <formula>NOT(ISBLANK(J6))</formula>
+      <formula>NOT(ISBLANK(J7))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MIACADA Ledger.xlsx
+++ b/MIACADA Ledger.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="358">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -1234,21 +1234,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -1621,11 +1607,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="702531616"/>
-        <c:axId val="702533856"/>
+        <c:axId val="702891696"/>
+        <c:axId val="702892256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="702531616"/>
+        <c:axId val="702891696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1668,7 +1654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702533856"/>
+        <c:crossAx val="702892256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1676,7 +1662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="702533856"/>
+        <c:axId val="702892256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1727,7 +1713,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702531616"/>
+        <c:crossAx val="702891696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2642,7 +2628,7 @@
     <dataField name="Sum of Cost" fld="0" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="18">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4172,8 +4158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5161,6 +5147,9 @@
       <c r="C52" s="20" t="s">
         <v>325</v>
       </c>
+      <c r="D52" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E52" s="3">
         <v>70.7</v>
       </c>
@@ -5509,10 +5498,10 @@
   </sheetData>
   <autoFilter ref="E1:E71"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="expression" dxfId="24" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
       <formula>D1="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>NOT(ISBLANK(E1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6815,18 +6804,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E32">
-    <cfRule type="expression" dxfId="22" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
       <formula>D2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>NOT(ISBLANK(E2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E77">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
       <formula>D40="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>NOT(ISBLANK(E40))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6840,7 +6829,7 @@
   <dimension ref="A1:M786"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6905,14 +6894,12 @@
         <v>8256.4599999999991</v>
       </c>
       <c r="H2" s="24">
-        <v>8577.16</v>
-      </c>
-      <c r="J2" s="3">
-        <v>70.7</v>
-      </c>
+        <v>8506.4599999999991</v>
+      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="3">
         <f>SUM(J2:J35)</f>
-        <v>1048.25</v>
+        <v>490.13</v>
       </c>
       <c r="M2" s="3"/>
     </row>
@@ -6939,7 +6926,7 @@
       </c>
       <c r="H3" s="3">
         <f>IF(D3="C",H2-E3+F3,H2+F3)</f>
-        <v>8452.16</v>
+        <v>8381.4599999999991</v>
       </c>
       <c r="J3" s="3">
         <v>125</v>
@@ -6964,7 +6951,7 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4:H9" si="0">IF(D4="C",H3-E4+F4,H3+F4)</f>
-        <v>8466.42</v>
+        <v>8395.7199999999993</v>
       </c>
       <c r="J4" s="3">
         <v>125</v>
@@ -6989,11 +6976,9 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>8494.94</v>
-      </c>
-      <c r="J5" s="3">
-        <v>394.06</v>
-      </c>
+        <v>8424.24</v>
+      </c>
+      <c r="J5" s="3"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -7014,11 +6999,9 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>8537.7200000000012</v>
-      </c>
-      <c r="J6" s="24">
-        <v>93.36</v>
-      </c>
+        <v>8467.02</v>
+      </c>
+      <c r="J6" s="24"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -7039,7 +7022,7 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>8580.5000000000018</v>
+        <v>8509.8000000000011</v>
       </c>
       <c r="J7" s="3">
         <v>240.13</v>
@@ -7063,7 +7046,7 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>8609.0200000000023</v>
+        <v>8538.3200000000015</v>
       </c>
       <c r="M8" s="3"/>
     </row>
@@ -7085,7 +7068,7 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>8623.2800000000025</v>
+        <v>8552.5800000000017</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -7098,7 +7081,9 @@
       <c r="C10" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E10" s="3">
         <v>394.06</v>
       </c>
@@ -7109,7 +7094,7 @@
       </c>
       <c r="H10" s="3">
         <f>IF(D10="C",H9-E10+F10,H9+F10)</f>
-        <v>8623.2800000000025</v>
+        <v>8158.5200000000013</v>
       </c>
       <c r="M10" s="3"/>
     </row>
@@ -7129,7 +7114,7 @@
       </c>
       <c r="H11" s="3">
         <f>IF(D11="C",H10-E11+F11,H10+F11)</f>
-        <v>8637.5400000000027</v>
+        <v>8172.7800000000016</v>
       </c>
       <c r="J11" s="3"/>
       <c r="M11" s="3"/>
@@ -7150,7 +7135,7 @@
       </c>
       <c r="H12" s="3">
         <f>IF(G12="","",IF(D12="C",H11-E12+F12,H11+F12))</f>
-        <v>8666.0600000000031</v>
+        <v>8201.3000000000011</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -7163,6 +7148,9 @@
       <c r="C13" s="20" t="s">
         <v>333</v>
       </c>
+      <c r="D13" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E13" s="24">
         <v>93.36</v>
       </c>
@@ -7172,7 +7160,7 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" ref="H13:H76" si="3">IF(G13="","",IF(D13="C",H12-E13+F13,H12+F13))</f>
-        <v>8666.0600000000031</v>
+        <v>8107.9400000000014</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
@@ -7197,29 +7185,46 @@
       </c>
       <c r="H14" s="3">
         <f t="shared" si="3"/>
-        <v>8666.0600000000031</v>
+        <v>8107.9400000000014</v>
       </c>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G15" s="3" t="str">
+      <c r="A15" s="28">
+        <v>43131</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F15">
+        <v>14.26</v>
+      </c>
+      <c r="G15" s="3">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H15" s="3" t="str">
+        <v>7632.0700000000024</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8122.2000000000016</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="str">
+      <c r="A16" s="28">
+        <v>43133</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" s="3">
+        <v>14.26</v>
+      </c>
+      <c r="G16" s="3">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H16" s="3" t="str">
+        <v>7646.3300000000027</v>
+      </c>
+      <c r="H16" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8136.4600000000019</v>
       </c>
     </row>
     <row r="17" spans="6:11" x14ac:dyDescent="0.2">
@@ -14926,66 +14931,66 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="expression" dxfId="17" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
       <formula>D1="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>NOT(ISBLANK(E1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M4">
-    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
       <formula>L2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>NOT(ISBLANK(M2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
       <formula>L5="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>NOT(ISBLANK(M5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>E14="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>NOT(ISBLANK(F14))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J4">
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>I2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>NOT(ISBLANK(J2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>I5="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>NOT(ISBLANK(J5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>I6="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>NOT(ISBLANK(J6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>I7="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>NOT(ISBLANK(J7))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MIACADA Ledger.xlsx
+++ b/MIACADA Ledger.xlsx
@@ -31,13 +31,13 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId14"/>
+    <pivotCache cacheId="1" r:id="rId14"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="358">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -1607,11 +1607,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="702891696"/>
-        <c:axId val="702892256"/>
+        <c:axId val="784364128"/>
+        <c:axId val="784365248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="702891696"/>
+        <c:axId val="784364128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,7 +1654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702892256"/>
+        <c:crossAx val="784365248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1662,7 +1662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="702892256"/>
+        <c:axId val="784365248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,7 +1713,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702891696"/>
+        <c:crossAx val="784364128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2571,7 +2571,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Category">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Category">
   <location ref="A80:B89" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" numFmtId="164" showAll="0" defaultSubtotal="0"/>
@@ -4158,8 +4158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5383,6 +5383,9 @@
       </c>
       <c r="C66" s="20" t="s">
         <v>327</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E66" s="3">
         <v>125</v>
@@ -6829,7 +6832,7 @@
   <dimension ref="A1:M786"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6893,13 +6896,13 @@
       <c r="G2" s="3">
         <v>8256.4599999999991</v>
       </c>
-      <c r="H2" s="24">
-        <v>8506.4599999999991</v>
+      <c r="H2" s="3">
+        <v>8381.4599999999991</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3">
         <f>SUM(J2:J35)</f>
-        <v>490.13</v>
+        <v>125</v>
       </c>
       <c r="M2" s="3"/>
     </row>
@@ -6926,11 +6929,9 @@
       </c>
       <c r="H3" s="3">
         <f>IF(D3="C",H2-E3+F3,H2+F3)</f>
-        <v>8381.4599999999991</v>
-      </c>
-      <c r="J3" s="3">
-        <v>125</v>
-      </c>
+        <v>8256.4599999999991</v>
+      </c>
+      <c r="J3" s="3"/>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -6951,7 +6952,7 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4:H9" si="0">IF(D4="C",H3-E4+F4,H3+F4)</f>
-        <v>8395.7199999999993</v>
+        <v>8270.7199999999993</v>
       </c>
       <c r="J4" s="3">
         <v>125</v>
@@ -6976,7 +6977,7 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>8424.24</v>
+        <v>8299.24</v>
       </c>
       <c r="J5" s="3"/>
       <c r="M5" s="3"/>
@@ -6999,7 +7000,7 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>8467.02</v>
+        <v>8342.02</v>
       </c>
       <c r="J6" s="24"/>
       <c r="M6" s="3"/>
@@ -7022,11 +7023,9 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>8509.8000000000011</v>
-      </c>
-      <c r="J7" s="3">
-        <v>240.13</v>
-      </c>
+        <v>8384.8000000000011</v>
+      </c>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
@@ -7046,7 +7045,7 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>8538.3200000000015</v>
+        <v>8413.3200000000015</v>
       </c>
       <c r="M8" s="3"/>
     </row>
@@ -7068,7 +7067,7 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>8552.5800000000017</v>
+        <v>8427.5800000000017</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -7094,7 +7093,7 @@
       </c>
       <c r="H10" s="3">
         <f>IF(D10="C",H9-E10+F10,H9+F10)</f>
-        <v>8158.5200000000013</v>
+        <v>8033.5200000000013</v>
       </c>
       <c r="M10" s="3"/>
     </row>
@@ -7114,7 +7113,7 @@
       </c>
       <c r="H11" s="3">
         <f>IF(D11="C",H10-E11+F11,H10+F11)</f>
-        <v>8172.7800000000016</v>
+        <v>8047.7800000000016</v>
       </c>
       <c r="J11" s="3"/>
       <c r="M11" s="3"/>
@@ -7135,7 +7134,7 @@
       </c>
       <c r="H12" s="3">
         <f>IF(G12="","",IF(D12="C",H11-E12+F12,H11+F12))</f>
-        <v>8201.3000000000011</v>
+        <v>8076.300000000002</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -7160,7 +7159,7 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" ref="H13:H76" si="3">IF(G13="","",IF(D13="C",H12-E13+F13,H12+F13))</f>
-        <v>8107.9400000000014</v>
+        <v>7982.9400000000023</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
@@ -7174,6 +7173,9 @@
       </c>
       <c r="C14" s="20" t="s">
         <v>272</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E14" s="3">
         <v>240.13</v>
@@ -7185,7 +7187,7 @@
       </c>
       <c r="H14" s="3">
         <f t="shared" si="3"/>
-        <v>8107.9400000000014</v>
+        <v>7742.8100000000022</v>
       </c>
       <c r="L14" s="3"/>
     </row>
@@ -7205,7 +7207,7 @@
       </c>
       <c r="H15" s="3">
         <f t="shared" si="3"/>
-        <v>8122.2000000000016</v>
+        <v>7757.0700000000024</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -7224,7 +7226,7 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" si="3"/>
-        <v>8136.4600000000019</v>
+        <v>7771.3300000000027</v>
       </c>
     </row>
     <row r="17" spans="6:11" x14ac:dyDescent="0.2">

--- a/MIACADA Ledger.xlsx
+++ b/MIACADA Ledger.xlsx
@@ -31,13 +31,13 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId14"/>
+    <pivotCache cacheId="0" r:id="rId14"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="359">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -1111,6 +1111,9 @@
   </si>
   <si>
     <t>BLANK3</t>
+  </si>
+  <si>
+    <t>4imprint, bag order for conference</t>
   </si>
 </sst>
 </file>
@@ -1607,11 +1610,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="784364128"/>
-        <c:axId val="784365248"/>
+        <c:axId val="828772688"/>
+        <c:axId val="828774928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="784364128"/>
+        <c:axId val="828772688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,7 +1657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="784365248"/>
+        <c:crossAx val="828774928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1662,7 +1665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="784365248"/>
+        <c:axId val="828774928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,7 +1716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="784364128"/>
+        <c:crossAx val="828772688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2571,7 +2574,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Category">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Category">
   <location ref="A80:B89" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" numFmtId="164" showAll="0" defaultSubtotal="0"/>
@@ -6832,7 +6835,7 @@
   <dimension ref="A1:M786"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6899,10 +6902,12 @@
       <c r="H2" s="3">
         <v>8381.4599999999991</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3">
+        <v>555.41</v>
+      </c>
       <c r="K2" s="3">
         <f>SUM(J2:J35)</f>
-        <v>125</v>
+        <v>680.41</v>
       </c>
       <c r="M2" s="3"/>
     </row>
@@ -7229,48 +7234,83 @@
         <v>7771.3300000000027</v>
       </c>
     </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.2">
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="str">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="28">
+        <v>43144</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="3">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H17" s="3" t="str">
+        <v>7661.3300000000027</v>
+      </c>
+      <c r="H17" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.2">
-      <c r="G18" s="3" t="str">
+        <v>7786.3300000000027</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="28">
+        <v>43145</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18">
+        <v>14.26</v>
+      </c>
+      <c r="G18" s="3">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H18" s="3" t="str">
+        <v>7675.5900000000029</v>
+      </c>
+      <c r="H18" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.2">
-      <c r="G19" s="3" t="str">
+        <v>7800.5900000000029</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="28">
+        <v>43147</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19">
+        <v>14.26</v>
+      </c>
+      <c r="G19" s="3">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H19" s="3" t="str">
+        <v>7689.8500000000031</v>
+      </c>
+      <c r="H19" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.2">
-      <c r="G20" s="3" t="str">
+        <v>7814.8500000000031</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="28">
+        <v>43150</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="E20">
+        <v>555.41</v>
+      </c>
+      <c r="G20" s="3">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H20" s="3" t="str">
+        <v>7134.4400000000032</v>
+      </c>
+      <c r="H20" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.2">
+        <v>7814.8500000000031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G21" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7280,7 +7320,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G22" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7290,7 +7330,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G23" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7301,7 +7341,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G24" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7311,7 +7351,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G25" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7321,7 +7361,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G26" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7331,7 +7371,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G27" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7341,7 +7381,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G28" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7351,7 +7391,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G29" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7361,7 +7401,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G30" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7371,7 +7411,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G31" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7381,7 +7421,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G32" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>

--- a/MIACADA Ledger.xlsx
+++ b/MIACADA Ledger.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="359">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -1237,7 +1237,35 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1610,11 +1638,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="828772688"/>
-        <c:axId val="828774928"/>
+        <c:axId val="697531424"/>
+        <c:axId val="697533104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="828772688"/>
+        <c:axId val="697531424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,7 +1685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="828774928"/>
+        <c:crossAx val="697533104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1665,7 +1693,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="828774928"/>
+        <c:axId val="697533104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,7 +1744,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="828772688"/>
+        <c:crossAx val="697531424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2631,7 +2659,7 @@
     <dataField name="Sum of Cost" fld="0" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="16">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -5504,10 +5532,10 @@
   </sheetData>
   <autoFilter ref="E1:E71"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="1" stopIfTrue="1">
       <formula>D1="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>NOT(ISBLANK(E1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6810,18 +6838,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E32">
-    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
       <formula>D2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>NOT(ISBLANK(E2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E77">
-    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
       <formula>D40="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>NOT(ISBLANK(E40))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6835,7 +6863,7 @@
   <dimension ref="A1:M786"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6902,12 +6930,10 @@
       <c r="H2" s="3">
         <v>8381.4599999999991</v>
       </c>
-      <c r="J2" s="3">
-        <v>555.41</v>
-      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="3">
         <f>SUM(J2:J35)</f>
-        <v>680.41</v>
+        <v>125</v>
       </c>
       <c r="M2" s="3"/>
     </row>
@@ -7295,8 +7321,14 @@
       <c r="A20" s="28">
         <v>43150</v>
       </c>
+      <c r="B20">
+        <v>1349</v>
+      </c>
       <c r="C20" s="20" t="s">
         <v>358</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E20">
         <v>555.41</v>
@@ -7307,27 +7339,45 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" si="3"/>
-        <v>7814.8500000000031</v>
+        <v>7259.4400000000032</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G21" s="3" t="str">
+      <c r="A21" s="28">
+        <v>43152</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F21">
+        <v>14.26</v>
+      </c>
+      <c r="G21" s="3">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H21" s="3" t="str">
+        <v>7148.7000000000035</v>
+      </c>
+      <c r="H21" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>7273.7000000000035</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G22" s="3" t="str">
+      <c r="A22" s="28">
+        <v>43154</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F22">
+        <v>14.26</v>
+      </c>
+      <c r="G22" s="3">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H22" s="3" t="str">
+        <v>7162.9600000000037</v>
+      </c>
+      <c r="H22" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>7287.9600000000037</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -14972,68 +15022,76 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="E1:E20 E23:E1048576">
+    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
       <formula>D1="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>NOT(ISBLANK(E1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M4">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="15" stopIfTrue="1">
       <formula>L2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>NOT(ISBLANK(M2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="13" stopIfTrue="1">
       <formula>L5="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>NOT(ISBLANK(M5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>E14="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>NOT(ISBLANK(F14))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J4">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>I2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>NOT(ISBLANK(J2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>I5="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>NOT(ISBLANK(J5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>I6="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>NOT(ISBLANK(J6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>I7="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>NOT(ISBLANK(J7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:E22">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>D21="c"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>NOT(ISBLANK(E21))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MIACADA Ledger.xlsx
+++ b/MIACADA Ledger.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="373">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -1141,6 +1141,21 @@
   </si>
   <si>
     <t>Rachel Pawlikowski awards expenses reimbursement</t>
+  </si>
+  <si>
+    <t>ACE Spirit for volunteer shirts</t>
+  </si>
+  <si>
+    <t>John Cebelak MIACADA grant reimbursement</t>
+  </si>
+  <si>
+    <t>Laura Hetzler NACADA grant reimbursement</t>
+  </si>
+  <si>
+    <t>Tyrone Green MIACADA grant</t>
+  </si>
+  <si>
+    <t>Maya Calloway various conference reimbursements</t>
   </si>
 </sst>
 </file>
@@ -1392,6 +1407,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -1432,9 +1450,6 @@
           <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1651,11 +1666,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="698484000"/>
-        <c:axId val="698485680"/>
+        <c:axId val="287074448"/>
+        <c:axId val="287076128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="698484000"/>
+        <c:axId val="287074448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +1713,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="698485680"/>
+        <c:crossAx val="287076128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1706,7 +1721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="698485680"/>
+        <c:axId val="287076128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,7 +1772,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="698484000"/>
+        <c:crossAx val="287074448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2672,7 +2687,7 @@
     <dataField name="Sum of Cost" fld="0" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="24">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -5548,10 +5563,10 @@
   </sheetData>
   <autoFilter ref="E1:E71"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="1" stopIfTrue="1">
       <formula>D1="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>NOT(ISBLANK(E1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6854,18 +6869,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E32">
-    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="3" stopIfTrue="1">
       <formula>D2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>NOT(ISBLANK(E2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E77">
-    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>D40="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>NOT(ISBLANK(E40))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6878,14 +6893,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M789"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="58.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
@@ -6990,7 +7005,6 @@
         <v>274</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>14.26</v>
       </c>
@@ -6999,7 +7013,7 @@
         <v>8335.67</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H9" si="0">IF(D4="C",H3-E4+F4,H3+F4)</f>
+        <f t="shared" ref="H4" si="0">IF(D4="C",H3-E4+F4,H3+F4)</f>
         <v>8335.67</v>
       </c>
       <c r="J4" s="3"/>
@@ -7013,7 +7027,6 @@
         <v>274</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>28.52</v>
       </c>
@@ -7036,7 +7049,6 @@
         <v>274</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>42.78</v>
       </c>
@@ -7059,7 +7071,6 @@
         <v>274</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="3"/>
       <c r="F7" s="3">
         <v>42.78</v>
       </c>
@@ -7081,7 +7092,6 @@
         <v>274</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="3"/>
       <c r="F8" s="3">
         <v>28.52</v>
       </c>
@@ -7103,7 +7113,6 @@
         <v>274</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="3"/>
       <c r="F9" s="3">
         <v>14.26</v>
       </c>
@@ -7158,7 +7167,7 @@
         <v>8112.7300000000023</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" ref="H11:H74" si="2">IF(D11="C",H10-E11+F11,H10+F11)</f>
+        <f t="shared" ref="H11:H69" si="2">IF(D11="C",H10-E11+F11,H10+F11)</f>
         <v>8112.7300000000023</v>
       </c>
       <c r="J11" s="3"/>
@@ -7196,7 +7205,7 @@
       <c r="D13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="3">
         <v>93.36</v>
       </c>
       <c r="G13" s="3">
@@ -7345,7 +7354,7 @@
       <c r="D20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>555.41</v>
       </c>
       <c r="G20" s="3">
@@ -7466,7 +7475,7 @@
       <c r="D26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>140</v>
       </c>
       <c r="G26" s="3">
@@ -7491,7 +7500,7 @@
       <c r="D27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>100</v>
       </c>
       <c r="G27" s="3">
@@ -7516,7 +7525,7 @@
       <c r="D28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>140</v>
       </c>
       <c r="G28" s="3">
@@ -7652,7 +7661,7 @@
       <c r="D35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>140</v>
       </c>
       <c r="G35" s="3">
@@ -7734,7 +7743,7 @@
       <c r="D39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>65</v>
       </c>
       <c r="G39" s="3">
@@ -8117,7 +8126,10 @@
       <c r="C59" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="E59">
+      <c r="D59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="3">
         <v>250</v>
       </c>
       <c r="G59" s="3">
@@ -8126,7 +8138,7 @@
       </c>
       <c r="H59" s="3">
         <f t="shared" si="2"/>
-        <v>12704.020000000004</v>
+        <v>12454.020000000004</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -8145,7 +8157,7 @@
       </c>
       <c r="H60" s="3">
         <f t="shared" si="2"/>
-        <v>13521.170000000004</v>
+        <v>13271.170000000004</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -8164,7 +8176,7 @@
       </c>
       <c r="H61" s="3">
         <f t="shared" si="2"/>
-        <v>13709.300000000003</v>
+        <v>13459.300000000003</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -8183,7 +8195,7 @@
       </c>
       <c r="H62" s="3">
         <f t="shared" si="2"/>
-        <v>14609.600000000002</v>
+        <v>14359.600000000002</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -8196,7 +8208,10 @@
       <c r="C63" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="E63">
+      <c r="D63" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="3">
         <v>250</v>
       </c>
       <c r="G63" s="3">
@@ -8205,7 +8220,7 @@
       </c>
       <c r="H63" s="3">
         <f t="shared" si="2"/>
-        <v>14609.600000000002</v>
+        <v>14109.600000000002</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -8218,7 +8233,10 @@
       <c r="C64" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="E64">
+      <c r="D64" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="3">
         <v>133.80000000000001</v>
       </c>
       <c r="G64" s="3">
@@ -8227,7 +8245,7 @@
       </c>
       <c r="H64" s="3">
         <f t="shared" si="2"/>
-        <v>14609.600000000002</v>
+        <v>13975.800000000003</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -8246,7 +8264,7 @@
       </c>
       <c r="H65" s="3">
         <f t="shared" si="2"/>
-        <v>14686.670000000002</v>
+        <v>14052.870000000003</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -8265,7 +8283,7 @@
       </c>
       <c r="H66" s="3">
         <f t="shared" si="2"/>
-        <v>15000.420000000002</v>
+        <v>14366.620000000003</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -8284,7 +8302,7 @@
       </c>
       <c r="H67" s="3">
         <f t="shared" si="2"/>
-        <v>15426.450000000003</v>
+        <v>14792.650000000003</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -8303,7 +8321,7 @@
       </c>
       <c r="H68" s="3">
         <f t="shared" si="2"/>
-        <v>15488.960000000003</v>
+        <v>14855.160000000003</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -8316,7 +8334,10 @@
       <c r="C69" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="E69">
+      <c r="D69" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="3">
         <v>76.8</v>
       </c>
       <c r="G69" s="3">
@@ -8325,160 +8346,307 @@
       </c>
       <c r="H69" s="3">
         <f t="shared" si="2"/>
-        <v>15488.960000000003</v>
+        <v>14778.360000000004</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G70" s="3" t="str">
+      <c r="A70" s="28">
+        <v>43227</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F70">
+        <v>111.06</v>
+      </c>
+      <c r="G70" s="3">
         <f>IF(ISBLANK(A70),"",'2018'!G69-E70+F70)</f>
-        <v/>
-      </c>
-      <c r="H70" s="3" t="str">
-        <f>IF(ISBLANK(B70),"",IF(D70="C",H69-E70+F70,H69+F70))</f>
-        <v/>
+        <v>14889.420000000004</v>
+      </c>
+      <c r="H70" s="3">
+        <f>IF(ISBLANK(A70),"",IF(D70="C",H69-E70+F70,H69+F70))</f>
+        <v>14889.420000000004</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G71" s="3" t="str">
+      <c r="A71" s="28">
+        <v>43227</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F71">
+        <v>182.66</v>
+      </c>
+      <c r="G71" s="3">
         <f>IF(ISBLANK(A71),"",'2018'!G70-E71+F71)</f>
-        <v/>
-      </c>
-      <c r="H71" s="3" t="str">
-        <f t="shared" ref="H71:H134" si="3">IF(ISBLANK(B71),"",IF(D71="C",H70-E71+F71,H70+F71))</f>
-        <v/>
+        <v>15072.080000000004</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" ref="H71:H110" si="3">IF(ISBLANK(A71),"",IF(D71="C",H70-E71+F71,H70+F71))</f>
+        <v>15072.080000000004</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G72" s="3" t="str">
+      <c r="A72" s="28">
+        <v>43228</v>
+      </c>
+      <c r="B72">
+        <v>1359</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="E72" s="3">
+        <v>460</v>
+      </c>
+      <c r="G72" s="3">
         <f>IF(ISBLANK(A72),"",'2018'!G71-E72+F72)</f>
-        <v/>
-      </c>
-      <c r="H72" s="3" t="str">
+        <v>14612.080000000004</v>
+      </c>
+      <c r="H72" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>15072.080000000004</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G73" s="3" t="str">
+      <c r="A73" s="28">
+        <v>43228</v>
+      </c>
+      <c r="B73">
+        <v>1360</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="3">
+        <v>65</v>
+      </c>
+      <c r="G73" s="3">
         <f>IF(ISBLANK(A73),"",'2018'!G72-E73+F73)</f>
-        <v/>
-      </c>
-      <c r="H73" s="3" t="str">
+        <v>14547.080000000004</v>
+      </c>
+      <c r="H73" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>15007.080000000004</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G74" s="3" t="str">
+      <c r="A74" s="28">
+        <v>43229</v>
+      </c>
+      <c r="B74">
+        <v>1361</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E74" s="3">
+        <v>140</v>
+      </c>
+      <c r="G74" s="3">
         <f>IF(ISBLANK(A74),"",'2018'!G73-E74+F74)</f>
-        <v/>
-      </c>
-      <c r="H74" s="3" t="str">
+        <v>14407.080000000004</v>
+      </c>
+      <c r="H74" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>15007.080000000004</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G75" s="3" t="str">
+      <c r="A75" s="28">
+        <v>43229</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F75">
+        <v>313.75</v>
+      </c>
+      <c r="G75" s="3">
         <f>IF(ISBLANK(A75),"",'2018'!G74-E75+F75)</f>
-        <v/>
-      </c>
-      <c r="H75" s="3" t="str">
+        <v>14720.830000000004</v>
+      </c>
+      <c r="H75" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>15320.830000000004</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G76" s="3" t="str">
+      <c r="A76" s="28">
+        <v>43231</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F76">
+        <v>188.43</v>
+      </c>
+      <c r="G76" s="3">
         <f>IF(ISBLANK(A76),"",'2018'!G75-E76+F76)</f>
-        <v/>
-      </c>
-      <c r="H76" s="3" t="str">
+        <v>14909.260000000004</v>
+      </c>
+      <c r="H76" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>15509.260000000004</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G77" s="3" t="str">
+      <c r="A77" s="28">
+        <v>43234</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F77">
+        <v>1323.29</v>
+      </c>
+      <c r="G77" s="3">
         <f>IF(ISBLANK(A77),"",'2018'!G76-E77+F77)</f>
-        <v/>
-      </c>
-      <c r="H77" s="3" t="str">
+        <v>16232.550000000003</v>
+      </c>
+      <c r="H77" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>16832.550000000003</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G78" s="3" t="str">
+      <c r="A78" s="28">
+        <v>43234</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F78">
+        <v>125.32</v>
+      </c>
+      <c r="G78" s="3">
         <f>IF(ISBLANK(A78),"",'2018'!G77-E78+F78)</f>
-        <v/>
-      </c>
-      <c r="H78" s="3" t="str">
+        <v>16357.870000000003</v>
+      </c>
+      <c r="H78" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>16957.870000000003</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G79" s="3" t="str">
+      <c r="A79" s="28">
+        <v>43235</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F79">
+        <v>390</v>
+      </c>
+      <c r="G79" s="3">
         <f>IF(ISBLANK(A79),"",'2018'!G78-E79+F79)</f>
-        <v/>
-      </c>
-      <c r="H79" s="3" t="str">
+        <v>16747.870000000003</v>
+      </c>
+      <c r="H79" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>17347.870000000003</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G80" s="3" t="str">
+      <c r="A80" s="28">
+        <v>43235</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="E80" s="3">
+        <v>50</v>
+      </c>
+      <c r="G80" s="3">
         <f>IF(ISBLANK(A80),"",'2018'!G79-E80+F80)</f>
-        <v/>
-      </c>
-      <c r="H80" s="3" t="str">
+        <v>16697.870000000003</v>
+      </c>
+      <c r="H80" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G81" s="3" t="str">
+        <v>17347.870000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="28">
+        <v>43236</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="E81" s="3">
+        <v>555.42999999999995</v>
+      </c>
+      <c r="G81" s="3">
         <f>IF(ISBLANK(A81),"",'2018'!G80-E81+F81)</f>
-        <v/>
-      </c>
-      <c r="H81" s="3" t="str">
+        <v>16142.440000000002</v>
+      </c>
+      <c r="H81" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G82" s="3" t="str">
+        <v>17347.870000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="28">
+        <v>43236</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F82">
+        <v>318.92</v>
+      </c>
+      <c r="G82" s="3">
         <f>IF(ISBLANK(A82),"",'2018'!G81-E82+F82)</f>
-        <v/>
-      </c>
-      <c r="H82" s="3" t="str">
+        <v>16461.36</v>
+      </c>
+      <c r="H82" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G83" s="3" t="str">
+        <v>17666.79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="28">
+        <v>43236</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F83">
+        <v>1020</v>
+      </c>
+      <c r="G83" s="3">
         <f>IF(ISBLANK(A83),"",'2018'!G82-E83+F83)</f>
-        <v/>
-      </c>
-      <c r="H83" s="3" t="str">
+        <v>17481.36</v>
+      </c>
+      <c r="H83" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G84" s="3" t="str">
+        <v>18686.79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="28">
+        <v>43237</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F84">
+        <v>314.67</v>
+      </c>
+      <c r="G84" s="3">
         <f>IF(ISBLANK(A84),"",'2018'!G83-E84+F84)</f>
-        <v/>
-      </c>
-      <c r="H84" s="3" t="str">
+        <v>17796.03</v>
+      </c>
+      <c r="H84" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.2">
+        <v>19001.46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G85" s="3" t="str">
         <f>IF(ISBLANK(A85),"",'2018'!G84-E85+F85)</f>
         <v/>
@@ -8488,7 +8656,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G86" s="3" t="str">
         <f>IF(ISBLANK(A86),"",'2018'!G85-E86+F86)</f>
         <v/>
@@ -8498,7 +8666,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G87" s="3" t="str">
         <f>IF(ISBLANK(A87),"",'2018'!G86-E87+F87)</f>
         <v/>
@@ -8508,7 +8676,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G88" s="3" t="str">
         <f>IF(ISBLANK(A88),"",'2018'!G87-E88+F88)</f>
         <v/>
@@ -8518,7 +8686,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G89" s="3" t="str">
         <f>IF(ISBLANK(A89),"",'2018'!G88-E89+F89)</f>
         <v/>
@@ -8528,7 +8696,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G90" s="3" t="str">
         <f>IF(ISBLANK(A90),"",'2018'!G89-E90+F90)</f>
         <v/>
@@ -8538,7 +8706,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G91" s="3" t="str">
         <f>IF(ISBLANK(A91),"",'2018'!G90-E91+F91)</f>
         <v/>
@@ -8548,7 +8716,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G92" s="3" t="str">
         <f>IF(ISBLANK(A92),"",'2018'!G91-E92+F92)</f>
         <v/>
@@ -8558,7 +8726,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G93" s="3" t="str">
         <f>IF(ISBLANK(A93),"",'2018'!G92-E93+F93)</f>
         <v/>
@@ -8568,7 +8736,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G94" s="3" t="str">
         <f>IF(ISBLANK(A94),"",'2018'!G93-E94+F94)</f>
         <v/>
@@ -8578,7 +8746,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G95" s="3" t="str">
         <f>IF(ISBLANK(A95),"",'2018'!G94-E95+F95)</f>
         <v/>
@@ -8588,7 +8756,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G96" s="3" t="str">
         <f>IF(ISBLANK(A96),"",'2018'!G95-E96+F96)</f>
         <v/>
@@ -8744,7 +8912,7 @@
         <v/>
       </c>
       <c r="H111" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H71:H134" si="4">IF(ISBLANK(B111),"",IF(D111="C",H110-E111+F111,H110+F111))</f>
         <v/>
       </c>
     </row>
@@ -8754,7 +8922,7 @@
         <v/>
       </c>
       <c r="H112" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8764,7 +8932,7 @@
         <v/>
       </c>
       <c r="H113" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8774,7 +8942,7 @@
         <v/>
       </c>
       <c r="H114" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8784,7 +8952,7 @@
         <v/>
       </c>
       <c r="H115" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8794,7 +8962,7 @@
         <v/>
       </c>
       <c r="H116" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8804,7 +8972,7 @@
         <v/>
       </c>
       <c r="H117" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8814,7 +8982,7 @@
         <v/>
       </c>
       <c r="H118" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8824,7 +8992,7 @@
         <v/>
       </c>
       <c r="H119" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8834,7 +9002,7 @@
         <v/>
       </c>
       <c r="H120" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8844,7 +9012,7 @@
         <v/>
       </c>
       <c r="H121" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8854,7 +9022,7 @@
         <v/>
       </c>
       <c r="H122" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8864,7 +9032,7 @@
         <v/>
       </c>
       <c r="H123" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8874,7 +9042,7 @@
         <v/>
       </c>
       <c r="H124" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8884,7 +9052,7 @@
         <v/>
       </c>
       <c r="H125" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8894,7 +9062,7 @@
         <v/>
       </c>
       <c r="H126" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8904,7 +9072,7 @@
         <v/>
       </c>
       <c r="H127" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8914,7 +9082,7 @@
         <v/>
       </c>
       <c r="H128" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8924,7 +9092,7 @@
         <v/>
       </c>
       <c r="H129" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8934,7 +9102,7 @@
         <v/>
       </c>
       <c r="H130" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8944,7 +9112,7 @@
         <v/>
       </c>
       <c r="H131" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8954,7 +9122,7 @@
         <v/>
       </c>
       <c r="H132" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8964,7 +9132,7 @@
         <v/>
       </c>
       <c r="H133" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8974,7 +9142,7 @@
         <v/>
       </c>
       <c r="H134" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8984,7 +9152,7 @@
         <v/>
       </c>
       <c r="H135" s="3" t="str">
-        <f t="shared" ref="H135:H198" si="4">IF(ISBLANK(B135),"",IF(D135="C",H134-E135+F135,H134+F135))</f>
+        <f t="shared" ref="H135:H198" si="5">IF(ISBLANK(B135),"",IF(D135="C",H134-E135+F135,H134+F135))</f>
         <v/>
       </c>
     </row>
@@ -8994,7 +9162,7 @@
         <v/>
       </c>
       <c r="H136" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9004,7 +9172,7 @@
         <v/>
       </c>
       <c r="H137" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9014,7 +9182,7 @@
         <v/>
       </c>
       <c r="H138" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9024,7 +9192,7 @@
         <v/>
       </c>
       <c r="H139" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9034,7 +9202,7 @@
         <v/>
       </c>
       <c r="H140" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9044,7 +9212,7 @@
         <v/>
       </c>
       <c r="H141" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9054,7 +9222,7 @@
         <v/>
       </c>
       <c r="H142" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9064,7 +9232,7 @@
         <v/>
       </c>
       <c r="H143" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9074,7 +9242,7 @@
         <v/>
       </c>
       <c r="H144" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9084,7 +9252,7 @@
         <v/>
       </c>
       <c r="H145" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9094,7 +9262,7 @@
         <v/>
       </c>
       <c r="H146" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9104,7 +9272,7 @@
         <v/>
       </c>
       <c r="H147" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9114,7 +9282,7 @@
         <v/>
       </c>
       <c r="H148" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9124,7 +9292,7 @@
         <v/>
       </c>
       <c r="H149" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9134,7 +9302,7 @@
         <v/>
       </c>
       <c r="H150" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9144,7 +9312,7 @@
         <v/>
       </c>
       <c r="H151" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9154,7 +9322,7 @@
         <v/>
       </c>
       <c r="H152" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9164,7 +9332,7 @@
         <v/>
       </c>
       <c r="H153" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9174,7 +9342,7 @@
         <v/>
       </c>
       <c r="H154" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9184,7 +9352,7 @@
         <v/>
       </c>
       <c r="H155" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9194,7 +9362,7 @@
         <v/>
       </c>
       <c r="H156" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9204,7 +9372,7 @@
         <v/>
       </c>
       <c r="H157" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9214,7 +9382,7 @@
         <v/>
       </c>
       <c r="H158" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9224,7 +9392,7 @@
         <v/>
       </c>
       <c r="H159" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9234,7 +9402,7 @@
         <v/>
       </c>
       <c r="H160" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9244,7 +9412,7 @@
         <v/>
       </c>
       <c r="H161" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9254,7 +9422,7 @@
         <v/>
       </c>
       <c r="H162" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9264,7 +9432,7 @@
         <v/>
       </c>
       <c r="H163" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9274,7 +9442,7 @@
         <v/>
       </c>
       <c r="H164" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9284,7 +9452,7 @@
         <v/>
       </c>
       <c r="H165" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9294,7 +9462,7 @@
         <v/>
       </c>
       <c r="H166" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9304,7 +9472,7 @@
         <v/>
       </c>
       <c r="H167" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9314,7 +9482,7 @@
         <v/>
       </c>
       <c r="H168" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9324,7 +9492,7 @@
         <v/>
       </c>
       <c r="H169" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9334,7 +9502,7 @@
         <v/>
       </c>
       <c r="H170" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9344,7 +9512,7 @@
         <v/>
       </c>
       <c r="H171" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9354,7 +9522,7 @@
         <v/>
       </c>
       <c r="H172" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9364,7 +9532,7 @@
         <v/>
       </c>
       <c r="H173" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9374,7 +9542,7 @@
         <v/>
       </c>
       <c r="H174" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9384,7 +9552,7 @@
         <v/>
       </c>
       <c r="H175" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9394,7 +9562,7 @@
         <v/>
       </c>
       <c r="H176" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9404,7 +9572,7 @@
         <v/>
       </c>
       <c r="H177" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9414,7 +9582,7 @@
         <v/>
       </c>
       <c r="H178" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9424,7 +9592,7 @@
         <v/>
       </c>
       <c r="H179" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9434,7 +9602,7 @@
         <v/>
       </c>
       <c r="H180" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9444,7 +9612,7 @@
         <v/>
       </c>
       <c r="H181" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9454,7 +9622,7 @@
         <v/>
       </c>
       <c r="H182" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9464,7 +9632,7 @@
         <v/>
       </c>
       <c r="H183" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9474,7 +9642,7 @@
         <v/>
       </c>
       <c r="H184" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9484,7 +9652,7 @@
         <v/>
       </c>
       <c r="H185" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9494,7 +9662,7 @@
         <v/>
       </c>
       <c r="H186" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9504,7 +9672,7 @@
         <v/>
       </c>
       <c r="H187" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9514,7 +9682,7 @@
         <v/>
       </c>
       <c r="H188" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9524,7 +9692,7 @@
         <v/>
       </c>
       <c r="H189" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9534,7 +9702,7 @@
         <v/>
       </c>
       <c r="H190" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9544,7 +9712,7 @@
         <v/>
       </c>
       <c r="H191" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9554,7 +9722,7 @@
         <v/>
       </c>
       <c r="H192" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9564,7 +9732,7 @@
         <v/>
       </c>
       <c r="H193" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9574,7 +9742,7 @@
         <v/>
       </c>
       <c r="H194" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9584,7 +9752,7 @@
         <v/>
       </c>
       <c r="H195" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9594,7 +9762,7 @@
         <v/>
       </c>
       <c r="H196" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9604,7 +9772,7 @@
         <v/>
       </c>
       <c r="H197" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9614,7 +9782,7 @@
         <v/>
       </c>
       <c r="H198" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9624,7 +9792,7 @@
         <v/>
       </c>
       <c r="H199" s="3" t="str">
-        <f t="shared" ref="H199:H255" si="5">IF(ISBLANK(B199),"",IF(D199="C",H198-E199+F199,H198+F199))</f>
+        <f t="shared" ref="H199:H255" si="6">IF(ISBLANK(B199),"",IF(D199="C",H198-E199+F199,H198+F199))</f>
         <v/>
       </c>
     </row>
@@ -9634,7 +9802,7 @@
         <v/>
       </c>
       <c r="H200" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9644,7 +9812,7 @@
         <v/>
       </c>
       <c r="H201" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9654,7 +9822,7 @@
         <v/>
       </c>
       <c r="H202" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9664,7 +9832,7 @@
         <v/>
       </c>
       <c r="H203" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9674,7 +9842,7 @@
         <v/>
       </c>
       <c r="H204" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9684,7 +9852,7 @@
         <v/>
       </c>
       <c r="H205" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9694,7 +9862,7 @@
         <v/>
       </c>
       <c r="H206" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9704,7 +9872,7 @@
         <v/>
       </c>
       <c r="H207" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9714,7 +9882,7 @@
         <v/>
       </c>
       <c r="H208" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9724,7 +9892,7 @@
         <v/>
       </c>
       <c r="H209" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9734,7 +9902,7 @@
         <v/>
       </c>
       <c r="H210" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9744,7 +9912,7 @@
         <v/>
       </c>
       <c r="H211" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9754,7 +9922,7 @@
         <v/>
       </c>
       <c r="H212" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9764,7 +9932,7 @@
         <v/>
       </c>
       <c r="H213" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9774,7 +9942,7 @@
         <v/>
       </c>
       <c r="H214" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9784,7 +9952,7 @@
         <v/>
       </c>
       <c r="H215" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9794,7 +9962,7 @@
         <v/>
       </c>
       <c r="H216" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9804,7 +9972,7 @@
         <v/>
       </c>
       <c r="H217" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9814,7 +9982,7 @@
         <v/>
       </c>
       <c r="H218" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9824,7 +9992,7 @@
         <v/>
       </c>
       <c r="H219" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9834,7 +10002,7 @@
         <v/>
       </c>
       <c r="H220" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9844,7 +10012,7 @@
         <v/>
       </c>
       <c r="H221" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9854,7 +10022,7 @@
         <v/>
       </c>
       <c r="H222" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9864,7 +10032,7 @@
         <v/>
       </c>
       <c r="H223" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9874,7 +10042,7 @@
         <v/>
       </c>
       <c r="H224" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9884,7 +10052,7 @@
         <v/>
       </c>
       <c r="H225" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9894,7 +10062,7 @@
         <v/>
       </c>
       <c r="H226" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9904,7 +10072,7 @@
         <v/>
       </c>
       <c r="H227" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9914,7 +10082,7 @@
         <v/>
       </c>
       <c r="H228" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9924,7 +10092,7 @@
         <v/>
       </c>
       <c r="H229" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9934,7 +10102,7 @@
         <v/>
       </c>
       <c r="H230" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9944,7 +10112,7 @@
         <v/>
       </c>
       <c r="H231" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9954,7 +10122,7 @@
         <v/>
       </c>
       <c r="H232" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9964,7 +10132,7 @@
         <v/>
       </c>
       <c r="H233" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9974,7 +10142,7 @@
         <v/>
       </c>
       <c r="H234" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9984,7 +10152,7 @@
         <v/>
       </c>
       <c r="H235" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -9994,7 +10162,7 @@
         <v/>
       </c>
       <c r="H236" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10004,7 +10172,7 @@
         <v/>
       </c>
       <c r="H237" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10014,7 +10182,7 @@
         <v/>
       </c>
       <c r="H238" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10024,7 +10192,7 @@
         <v/>
       </c>
       <c r="H239" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10034,7 +10202,7 @@
         <v/>
       </c>
       <c r="H240" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10044,7 +10212,7 @@
         <v/>
       </c>
       <c r="H241" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10054,7 +10222,7 @@
         <v/>
       </c>
       <c r="H242" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10064,7 +10232,7 @@
         <v/>
       </c>
       <c r="H243" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10074,7 +10242,7 @@
         <v/>
       </c>
       <c r="H244" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10084,7 +10252,7 @@
         <v/>
       </c>
       <c r="H245" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10094,7 +10262,7 @@
         <v/>
       </c>
       <c r="H246" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10104,7 +10272,7 @@
         <v/>
       </c>
       <c r="H247" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10114,7 +10282,7 @@
         <v/>
       </c>
       <c r="H248" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10124,7 +10292,7 @@
         <v/>
       </c>
       <c r="H249" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10134,7 +10302,7 @@
         <v/>
       </c>
       <c r="H250" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10144,7 +10312,7 @@
         <v/>
       </c>
       <c r="H251" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10154,7 +10322,7 @@
         <v/>
       </c>
       <c r="H252" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10164,7 +10332,7 @@
         <v/>
       </c>
       <c r="H253" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10174,7 +10342,7 @@
         <v/>
       </c>
       <c r="H254" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10184,7 +10352,7 @@
         <v/>
       </c>
       <c r="H255" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>

--- a/MIACADA Ledger.xlsx
+++ b/MIACADA Ledger.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admcches\Documents\GitHub\MIACADA\"/>
@@ -25,19 +25,22 @@
     <sheet name="2017" sheetId="6" r:id="rId11"/>
     <sheet name="2017 Summary" sheetId="14" r:id="rId12"/>
     <sheet name="2018" sheetId="5" r:id="rId13"/>
+    <sheet name="2018 Summary" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'2017'!$E$1:$E$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'2018'!$E$1:$E$789</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId14"/>
+    <pivotCache cacheId="0" r:id="rId15"/>
+    <pivotCache cacheId="1" r:id="rId16"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="383">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -1156,6 +1159,36 @@
   </si>
   <si>
     <t>Maya Calloway various conference reimbursements</t>
+  </si>
+  <si>
+    <t>Non Conference</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Sum of  Payment Amount</t>
+  </si>
+  <si>
+    <t>Non-conference</t>
+  </si>
+  <si>
+    <t>Park Place Catering, conference meals</t>
+  </si>
+  <si>
+    <t>Henry Ford College, conference programs</t>
+  </si>
+  <si>
+    <t>Erin Yanke, various conference expenses</t>
+  </si>
+  <si>
+    <t>Adam McChesney, OC Networking sponsorship reimbursement</t>
+  </si>
+  <si>
+    <t>Adam McChesney, 100 stamps</t>
+  </si>
+  <si>
+    <t>Joe Murray website fees</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1274,12 +1307,20 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1666,11 +1707,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="287074448"/>
-        <c:axId val="287076128"/>
+        <c:axId val="296596080"/>
+        <c:axId val="296598320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287074448"/>
+        <c:axId val="296596080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,7 +1754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287076128"/>
+        <c:crossAx val="296598320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1721,7 +1762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287076128"/>
+        <c:axId val="296598320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1772,7 +1813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287074448"/>
+        <c:crossAx val="296596080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1863,7 +1904,400 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[MIACADA Ledger.xlsx]2018 Summary!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2018 Summary'!$B$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2018 Summary'!$A$91:$A$96</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Awards</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Conference</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Grant</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>President</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Webinar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2018 Summary'!$B$91:$B$96</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>633.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2298.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="296601680"/>
+        <c:axId val="390602320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="296601680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390602320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="390602320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="296601680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2406,6 +2840,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2420,6 +3357,41 @@
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2461,6 +3433,45 @@
         <s v="NACADA"/>
         <s v="Conference"/>
         <s v="Best of conference" u="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Adam D. McChesney" refreshedDate="43237.472821296295" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="20">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A66:F86" sheet="2018 Summary"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Date " numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-01-04T00:00:00" maxDate="2018-05-17T00:00:00"/>
+    </cacheField>
+    <cacheField name="Check Number " numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1344" maxValue="1361"/>
+    </cacheField>
+    <cacheField name="Transaction Description" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Cleared" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name=" Payment Amount" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="50" maxValue="555.42999999999995"/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Webinar"/>
+        <s v="Conference"/>
+        <s v="Grant"/>
+        <s v="Awards"/>
+        <s v="President"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2629,6 +3640,171 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
+  <r>
+    <d v="2018-01-04T00:00:00"/>
+    <n v="1344"/>
+    <s v="Western Michigan University webinar reimbursement"/>
+    <s v="c"/>
+    <n v="125"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-04T00:00:00"/>
+    <n v="1345"/>
+    <s v="Paul Beasley - webinar reimbursement for Davenport Traverse City"/>
+    <s v="c"/>
+    <n v="125"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2018-01-23T00:00:00"/>
+    <n v="1346"/>
+    <s v="Anne London - MIACADA Conference giveaways"/>
+    <s v="c"/>
+    <n v="394.06"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-01-26T00:00:00"/>
+    <n v="1347"/>
+    <s v="Anne London - MIACADA Conference giveaways"/>
+    <s v="c"/>
+    <n v="93.36"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-01-26T00:00:00"/>
+    <n v="1348"/>
+    <s v="LogoWorks - MIACADA ribbons"/>
+    <s v="c"/>
+    <n v="240.13"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-02-19T00:00:00"/>
+    <n v="1349"/>
+    <s v="4imprint, bag order for conference"/>
+    <s v="c"/>
+    <n v="555.41"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-03-08T00:00:00"/>
+    <n v="1350"/>
+    <s v="NACADA Region V Grant Winner Erika Trigg Crews"/>
+    <s v="c"/>
+    <n v="140"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-08T00:00:00"/>
+    <n v="1351"/>
+    <s v="NACADA Region V Grant Winner Nicholas Scobey"/>
+    <s v="c"/>
+    <n v="100"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-08T00:00:00"/>
+    <n v="1352"/>
+    <s v="NACADA Region V Grant Winner  Andrew Murray"/>
+    <s v="c"/>
+    <n v="140"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-19T00:00:00"/>
+    <m/>
+    <s v="NACADA Region V Grant Winner Gayle Cohen"/>
+    <s v="c"/>
+    <n v="140"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-03-24T00:00:00"/>
+    <n v="1354"/>
+    <s v="MIACADA Grant Winnter Monika Saladiak"/>
+    <s v="c"/>
+    <n v="65"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-04-25T00:00:00"/>
+    <n v="1355"/>
+    <s v="James Fortune MIACADA best of reimbursement"/>
+    <s v="c"/>
+    <n v="250"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2018-04-27T00:00:00"/>
+    <n v="1356"/>
+    <s v="Rachel Pawlikowski MIACADA best of reimbursement"/>
+    <s v="c"/>
+    <n v="250"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2018-04-27T00:00:00"/>
+    <n v="1357"/>
+    <s v="Rachel Pawlikowski awards expenses reimbursement"/>
+    <s v="c"/>
+    <n v="133.80000000000001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2018-05-04T00:00:00"/>
+    <n v="1358"/>
+    <s v="Chris Strychalski, president gift reimbursement"/>
+    <s v="c"/>
+    <n v="76.8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2018-05-08T00:00:00"/>
+    <n v="1360"/>
+    <s v="John Cebelak MIACADA grant reimbursement"/>
+    <s v="c"/>
+    <n v="65"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-05-08T00:00:00"/>
+    <n v="1359"/>
+    <s v="ACE Spirit for volunteer shirts"/>
+    <m/>
+    <n v="460"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2018-05-09T00:00:00"/>
+    <n v="1361"/>
+    <s v="Laura Hetzler NACADA grant reimbursement"/>
+    <m/>
+    <n v="140"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-05-15T00:00:00"/>
+    <m/>
+    <s v="Tyrone Green MIACADA grant"/>
+    <m/>
+    <n v="50"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2018-05-16T00:00:00"/>
+    <m/>
+    <s v="Maya Calloway various conference reimbursements"/>
+    <m/>
+    <n v="555.42999999999995"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Category">
   <location ref="A80:B89" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
@@ -2687,7 +3863,7 @@
     <dataField name="Sum of Cost" fld="0" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="18">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2711,6 +3887,80 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A90:B96" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of  Payment Amount" fld="4" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5563,10 +6813,10 @@
   </sheetData>
   <autoFilter ref="E1:E71"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="expression" dxfId="24" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="1" stopIfTrue="1">
       <formula>D1="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>NOT(ISBLANK(E1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5576,10 +6826,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6867,20 +8117,29 @@
         <v>18332.370000000003</v>
       </c>
     </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="B92" s="27">
+        <f>SUM(B83:B88,GETPIVOTDATA("Cost",$A$80,"Category","Awards"))</f>
+        <v>8785.3799999999992</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E32">
-    <cfRule type="expression" dxfId="22" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="3" stopIfTrue="1">
       <formula>D2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>NOT(ISBLANK(E2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E77">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="1" stopIfTrue="1">
       <formula>D40="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>NOT(ISBLANK(E40))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6893,8 +8152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M789"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8397,6 +9656,9 @@
       <c r="C72" s="20" t="s">
         <v>368</v>
       </c>
+      <c r="D72" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E72" s="3">
         <v>460</v>
       </c>
@@ -8406,7 +9668,7 @@
       </c>
       <c r="H72" s="3">
         <f t="shared" si="3"/>
-        <v>15072.080000000004</v>
+        <v>14612.080000000004</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -8431,7 +9693,7 @@
       </c>
       <c r="H73" s="3">
         <f t="shared" si="3"/>
-        <v>15007.080000000004</v>
+        <v>14547.080000000004</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -8453,7 +9715,7 @@
       </c>
       <c r="H74" s="3">
         <f t="shared" si="3"/>
-        <v>15007.080000000004</v>
+        <v>14547.080000000004</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -8472,7 +9734,7 @@
       </c>
       <c r="H75" s="3">
         <f t="shared" si="3"/>
-        <v>15320.830000000004</v>
+        <v>14860.830000000004</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -8491,7 +9753,7 @@
       </c>
       <c r="H76" s="3">
         <f t="shared" si="3"/>
-        <v>15509.260000000004</v>
+        <v>15049.260000000004</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -8510,7 +9772,7 @@
       </c>
       <c r="H77" s="3">
         <f t="shared" si="3"/>
-        <v>16832.550000000003</v>
+        <v>16372.550000000003</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -8529,7 +9791,7 @@
       </c>
       <c r="H78" s="3">
         <f t="shared" si="3"/>
-        <v>16957.870000000003</v>
+        <v>16497.870000000003</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -8548,13 +9810,16 @@
       </c>
       <c r="H79" s="3">
         <f t="shared" si="3"/>
-        <v>17347.870000000003</v>
+        <v>16887.870000000003</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="28">
         <v>43235</v>
       </c>
+      <c r="B80">
+        <v>1362</v>
+      </c>
       <c r="C80" s="20" t="s">
         <v>371</v>
       </c>
@@ -8567,26 +9832,32 @@
       </c>
       <c r="H80" s="3">
         <f t="shared" si="3"/>
-        <v>17347.870000000003</v>
+        <v>16887.870000000003</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="28">
         <v>43236</v>
       </c>
+      <c r="B81">
+        <v>1363</v>
+      </c>
       <c r="C81" s="20" t="s">
         <v>372</v>
       </c>
+      <c r="D81" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E81" s="3">
-        <v>555.42999999999995</v>
+        <v>555.92999999999995</v>
       </c>
       <c r="G81" s="3">
         <f>IF(ISBLANK(A81),"",'2018'!G80-E81+F81)</f>
-        <v>16142.440000000002</v>
+        <v>16141.940000000002</v>
       </c>
       <c r="H81" s="3">
         <f t="shared" si="3"/>
-        <v>17347.870000000003</v>
+        <v>16331.940000000002</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -8601,11 +9872,11 @@
       </c>
       <c r="G82" s="3">
         <f>IF(ISBLANK(A82),"",'2018'!G81-E82+F82)</f>
-        <v>16461.36</v>
+        <v>16460.86</v>
       </c>
       <c r="H82" s="3">
         <f t="shared" si="3"/>
-        <v>17666.79</v>
+        <v>16650.86</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -8620,11 +9891,11 @@
       </c>
       <c r="G83" s="3">
         <f>IF(ISBLANK(A83),"",'2018'!G82-E83+F83)</f>
-        <v>17481.36</v>
+        <v>17480.86</v>
       </c>
       <c r="H83" s="3">
         <f t="shared" si="3"/>
-        <v>18686.79</v>
+        <v>17670.86</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -8639,121 +9910,244 @@
       </c>
       <c r="G84" s="3">
         <f>IF(ISBLANK(A84),"",'2018'!G83-E84+F84)</f>
-        <v>17796.03</v>
+        <v>17795.53</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" si="3"/>
-        <v>19001.46</v>
+        <v>17985.53</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G85" s="3" t="str">
+      <c r="A85" s="28">
+        <v>43238</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F85">
+        <v>440.29</v>
+      </c>
+      <c r="G85" s="3">
         <f>IF(ISBLANK(A85),"",'2018'!G84-E85+F85)</f>
-        <v/>
-      </c>
-      <c r="H85" s="3" t="str">
+        <v>18235.82</v>
+      </c>
+      <c r="H85" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>18425.82</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G86" s="3" t="str">
+      <c r="A86" s="28">
+        <v>43241</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F86">
+        <v>153.84</v>
+      </c>
+      <c r="G86" s="3">
         <f>IF(ISBLANK(A86),"",'2018'!G85-E86+F86)</f>
-        <v/>
-      </c>
-      <c r="H86" s="3" t="str">
+        <v>18389.66</v>
+      </c>
+      <c r="H86" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>18579.66</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G87" s="3" t="str">
+      <c r="A87" s="28">
+        <v>43245</v>
+      </c>
+      <c r="B87">
+        <v>1364</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="E87" s="3">
+        <v>5250</v>
+      </c>
+      <c r="G87" s="3">
         <f>IF(ISBLANK(A87),"",'2018'!G86-E87+F87)</f>
-        <v/>
-      </c>
-      <c r="H87" s="3" t="str">
+        <v>13139.66</v>
+      </c>
+      <c r="H87" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>18579.66</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G88" s="3" t="str">
+      <c r="A88" s="28">
+        <v>43245</v>
+      </c>
+      <c r="B88">
+        <v>1365</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="E88" s="3">
+        <v>600</v>
+      </c>
+      <c r="G88" s="3">
         <f>IF(ISBLANK(A88),"",'2018'!G87-E88+F88)</f>
-        <v/>
-      </c>
-      <c r="H88" s="3" t="str">
+        <v>12539.66</v>
+      </c>
+      <c r="H88" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>18579.66</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G89" s="3" t="str">
+      <c r="A89" s="28">
+        <v>43245</v>
+      </c>
+      <c r="B89">
+        <v>1366</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="E89" s="3">
+        <v>756.81</v>
+      </c>
+      <c r="G89" s="3">
         <f>IF(ISBLANK(A89),"",'2018'!G88-E89+F89)</f>
-        <v/>
-      </c>
-      <c r="H89" s="3" t="str">
+        <v>11782.85</v>
+      </c>
+      <c r="H89" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>18579.66</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G90" s="3" t="str">
+      <c r="A90" s="28">
+        <v>43245</v>
+      </c>
+      <c r="B90">
+        <v>1367</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="3">
+        <v>200</v>
+      </c>
+      <c r="G90" s="3">
         <f>IF(ISBLANK(A90),"",'2018'!G89-E90+F90)</f>
-        <v/>
-      </c>
-      <c r="H90" s="3" t="str">
+        <v>11582.85</v>
+      </c>
+      <c r="H90" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>18379.66</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G91" s="3" t="str">
+      <c r="A91" s="28">
+        <v>43245</v>
+      </c>
+      <c r="B91">
+        <v>1268</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="3">
+        <v>50</v>
+      </c>
+      <c r="G91" s="3">
         <f>IF(ISBLANK(A91),"",'2018'!G90-E91+F91)</f>
-        <v/>
-      </c>
-      <c r="H91" s="3" t="str">
+        <v>11532.85</v>
+      </c>
+      <c r="H91" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>18329.66</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G92" s="3" t="str">
+      <c r="A92" s="28">
+        <v>43245</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F92">
+        <v>42.78</v>
+      </c>
+      <c r="G92" s="3">
         <f>IF(ISBLANK(A92),"",'2018'!G91-E92+F92)</f>
-        <v/>
-      </c>
-      <c r="H92" s="3" t="str">
+        <v>11575.630000000001</v>
+      </c>
+      <c r="H92" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>18372.439999999999</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G93" s="3" t="str">
+      <c r="A93" s="28">
+        <v>43249</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F93">
+        <v>14.26</v>
+      </c>
+      <c r="G93" s="3">
         <f>IF(ISBLANK(A93),"",'2018'!G92-E93+F93)</f>
-        <v/>
-      </c>
-      <c r="H93" s="3" t="str">
+        <v>11589.890000000001</v>
+      </c>
+      <c r="H93" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>18386.699999999997</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G94" s="3" t="str">
+      <c r="A94" s="28">
+        <v>43249</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F94">
+        <v>520</v>
+      </c>
+      <c r="G94" s="3">
         <f>IF(ISBLANK(A94),"",'2018'!G93-E94+F94)</f>
-        <v/>
-      </c>
-      <c r="H94" s="3" t="str">
+        <v>12109.890000000001</v>
+      </c>
+      <c r="H94" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>18906.699999999997</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G95" s="3" t="str">
+      <c r="A95" s="28">
+        <v>43250</v>
+      </c>
+      <c r="B95">
+        <v>1369</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="E95" s="3">
+        <v>500</v>
+      </c>
+      <c r="G95" s="3">
         <f>IF(ISBLANK(A95),"",'2018'!G94-E95+F95)</f>
-        <v/>
-      </c>
-      <c r="H95" s="3" t="str">
+        <v>11609.890000000001</v>
+      </c>
+      <c r="H95" s="3">
         <f t="shared" si="3"/>
-        <v/>
+        <v>18906.699999999997</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -8912,7 +10306,7 @@
         <v/>
       </c>
       <c r="H111" s="3" t="str">
-        <f t="shared" ref="H71:H134" si="4">IF(ISBLANK(B111),"",IF(D111="C",H110-E111+F111,H110+F111))</f>
+        <f t="shared" ref="H111:H134" si="4">IF(ISBLANK(B111),"",IF(D111="C",H110-E111+F111,H110+F111))</f>
         <v/>
       </c>
     </row>
@@ -12493,79 +13887,1297 @@
       <c r="H789" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="E1:E789"/>
   <conditionalFormatting sqref="E1:E20 E23:E1048576">
-    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="17" stopIfTrue="1">
       <formula>D1="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>NOT(ISBLANK(E1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M4">
-    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
       <formula>L2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>NOT(ISBLANK(M2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
       <formula>L5="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>NOT(ISBLANK(M5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="11" stopIfTrue="1">
       <formula>E14="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>NOT(ISBLANK(F14))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J4">
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
       <formula>I2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>NOT(ISBLANK(J2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>I5="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>NOT(ISBLANK(J5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
       <formula>I6="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>NOT(ISBLANK(J6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>I7="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>NOT(ISBLANK(J7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E22">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>D21="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>NOT(ISBLANK(E21))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F107"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>43116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2" s="30">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>43117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" s="30">
+        <v>28.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>43118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" s="30">
+        <v>42.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>43119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5" s="30">
+        <v>42.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>43122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="30">
+        <v>28.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>43123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7" s="30">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>43124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F8" s="30">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>43125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F9" s="30">
+        <v>28.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>43131</v>
+      </c>
+      <c r="C10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" s="30">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>43133</v>
+      </c>
+      <c r="C11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="30">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>43144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F12" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>43145</v>
+      </c>
+      <c r="C13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" s="30">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>43147</v>
+      </c>
+      <c r="C14" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="30">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>43152</v>
+      </c>
+      <c r="C15" t="s">
+        <v>274</v>
+      </c>
+      <c r="F15" s="30">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>43154</v>
+      </c>
+      <c r="C16" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" s="30">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>43164</v>
+      </c>
+      <c r="C17" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="30">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>43165</v>
+      </c>
+      <c r="C18" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18" s="30">
+        <v>173.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>43166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" s="30">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>43171</v>
+      </c>
+      <c r="C20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F20" s="30">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>43172</v>
+      </c>
+      <c r="C21" t="s">
+        <v>274</v>
+      </c>
+      <c r="F21" s="30">
+        <v>433.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>43174</v>
+      </c>
+      <c r="C22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F22" s="30">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>43175</v>
+      </c>
+      <c r="C23" t="s">
+        <v>274</v>
+      </c>
+      <c r="F23" s="30">
+        <v>182.66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>43178</v>
+      </c>
+      <c r="C24" t="s">
+        <v>274</v>
+      </c>
+      <c r="F24" s="30">
+        <v>91.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>43178</v>
+      </c>
+      <c r="C25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" s="30">
+        <v>28.52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>43180</v>
+      </c>
+      <c r="C26" t="s">
+        <v>274</v>
+      </c>
+      <c r="F26" s="30">
+        <v>125.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>43181</v>
+      </c>
+      <c r="C27" t="s">
+        <v>274</v>
+      </c>
+      <c r="F27" s="30">
+        <v>111.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>43182</v>
+      </c>
+      <c r="C28" t="s">
+        <v>274</v>
+      </c>
+      <c r="F28" s="30">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>43185</v>
+      </c>
+      <c r="C29" t="s">
+        <v>274</v>
+      </c>
+      <c r="F29" s="30">
+        <v>42.78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>43185</v>
+      </c>
+      <c r="C30" t="s">
+        <v>274</v>
+      </c>
+      <c r="F30" s="30">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>43185</v>
+      </c>
+      <c r="C31" t="s">
+        <v>274</v>
+      </c>
+      <c r="F31" s="30">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>43186</v>
+      </c>
+      <c r="C32" t="s">
+        <v>274</v>
+      </c>
+      <c r="F32" s="30">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>43187</v>
+      </c>
+      <c r="C33" t="s">
+        <v>274</v>
+      </c>
+      <c r="F33" s="30">
+        <v>125.62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>43188</v>
+      </c>
+      <c r="C34" t="s">
+        <v>274</v>
+      </c>
+      <c r="F34" s="30">
+        <v>139.88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>43189</v>
+      </c>
+      <c r="C35" t="s">
+        <v>274</v>
+      </c>
+      <c r="F35" s="30">
+        <v>110.76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>43192</v>
+      </c>
+      <c r="C36" t="s">
+        <v>274</v>
+      </c>
+      <c r="F36" s="30">
+        <v>77.069999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>43195</v>
+      </c>
+      <c r="C37" t="s">
+        <v>274</v>
+      </c>
+      <c r="F37" s="30">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>43199</v>
+      </c>
+      <c r="C38" t="s">
+        <v>274</v>
+      </c>
+      <c r="F38" s="30">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>43201</v>
+      </c>
+      <c r="C39" t="s">
+        <v>274</v>
+      </c>
+      <c r="F39" s="30">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>43202</v>
+      </c>
+      <c r="C40" t="s">
+        <v>274</v>
+      </c>
+      <c r="F40" s="30">
+        <v>152.62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>43203</v>
+      </c>
+      <c r="C41" t="s">
+        <v>274</v>
+      </c>
+      <c r="F41" s="30">
+        <v>328.31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>43206</v>
+      </c>
+      <c r="C42" t="s">
+        <v>274</v>
+      </c>
+      <c r="F42" s="30">
+        <v>139.88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>43209</v>
+      </c>
+      <c r="C43" t="s">
+        <v>274</v>
+      </c>
+      <c r="F43" s="30">
+        <v>377.78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43210</v>
+      </c>
+      <c r="C44" t="s">
+        <v>274</v>
+      </c>
+      <c r="F44" s="30">
+        <v>251.24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>43213</v>
+      </c>
+      <c r="C45" t="s">
+        <v>274</v>
+      </c>
+      <c r="F45" s="30">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>43213</v>
+      </c>
+      <c r="C46" t="s">
+        <v>274</v>
+      </c>
+      <c r="F46" s="30">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>43214</v>
+      </c>
+      <c r="C47" t="s">
+        <v>274</v>
+      </c>
+      <c r="F47" s="30">
+        <v>111.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>43215</v>
+      </c>
+      <c r="C48" t="s">
+        <v>274</v>
+      </c>
+      <c r="F48" s="30">
+        <v>817.15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>43216</v>
+      </c>
+      <c r="C49" t="s">
+        <v>274</v>
+      </c>
+      <c r="F49" s="30">
+        <v>188.13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>43217</v>
+      </c>
+      <c r="C50" t="s">
+        <v>274</v>
+      </c>
+      <c r="F50" s="30">
+        <v>900.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>43220</v>
+      </c>
+      <c r="C51" t="s">
+        <v>274</v>
+      </c>
+      <c r="F51" s="30">
+        <v>77.069999999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>43222</v>
+      </c>
+      <c r="C52" t="s">
+        <v>274</v>
+      </c>
+      <c r="F52" s="30">
+        <v>313.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>43223</v>
+      </c>
+      <c r="C53" t="s">
+        <v>274</v>
+      </c>
+      <c r="F53" s="30">
+        <v>426.03</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>43224</v>
+      </c>
+      <c r="C54" t="s">
+        <v>274</v>
+      </c>
+      <c r="F54" s="30">
+        <v>62.51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>43227</v>
+      </c>
+      <c r="C55" t="s">
+        <v>274</v>
+      </c>
+      <c r="F55" s="30">
+        <v>111.06</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>43227</v>
+      </c>
+      <c r="C56" t="s">
+        <v>274</v>
+      </c>
+      <c r="F56" s="30">
+        <v>182.66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>43229</v>
+      </c>
+      <c r="C57" t="s">
+        <v>274</v>
+      </c>
+      <c r="F57" s="30">
+        <v>313.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>43231</v>
+      </c>
+      <c r="C58" t="s">
+        <v>274</v>
+      </c>
+      <c r="F58" s="30">
+        <v>188.43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>43234</v>
+      </c>
+      <c r="C59" t="s">
+        <v>274</v>
+      </c>
+      <c r="F59" s="30">
+        <v>1323.29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>43234</v>
+      </c>
+      <c r="C60" t="s">
+        <v>274</v>
+      </c>
+      <c r="F60" s="30">
+        <v>125.32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>43235</v>
+      </c>
+      <c r="C61" t="s">
+        <v>274</v>
+      </c>
+      <c r="F61" s="30">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>43236</v>
+      </c>
+      <c r="C62" t="s">
+        <v>274</v>
+      </c>
+      <c r="F62" s="30">
+        <v>318.92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>43236</v>
+      </c>
+      <c r="C63" t="s">
+        <v>274</v>
+      </c>
+      <c r="F63" s="30">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>43237</v>
+      </c>
+      <c r="C64" t="s">
+        <v>274</v>
+      </c>
+      <c r="F64" s="30">
+        <v>314.67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B67">
+        <v>1344</v>
+      </c>
+      <c r="C67" t="s">
+        <v>331</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="30">
+        <v>125</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B68">
+        <v>1345</v>
+      </c>
+      <c r="C68" t="s">
+        <v>332</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="30">
+        <v>125</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B69">
+        <v>1346</v>
+      </c>
+      <c r="C69" t="s">
+        <v>333</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="30">
+        <v>394.06</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B70">
+        <v>1347</v>
+      </c>
+      <c r="C70" t="s">
+        <v>333</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="30">
+        <v>93.36</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B71">
+        <v>1348</v>
+      </c>
+      <c r="C71" t="s">
+        <v>272</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="30">
+        <v>240.13</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>43150</v>
+      </c>
+      <c r="B72">
+        <v>1349</v>
+      </c>
+      <c r="C72" t="s">
+        <v>358</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="30">
+        <v>555.41</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>43167</v>
+      </c>
+      <c r="B73">
+        <v>1350</v>
+      </c>
+      <c r="C73" t="s">
+        <v>361</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="30">
+        <v>140</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>43167</v>
+      </c>
+      <c r="B74">
+        <v>1351</v>
+      </c>
+      <c r="C74" t="s">
+        <v>360</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="30">
+        <v>100</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>43167</v>
+      </c>
+      <c r="B75">
+        <v>1352</v>
+      </c>
+      <c r="C75" t="s">
+        <v>359</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="30">
+        <v>140</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>43178</v>
+      </c>
+      <c r="C76" t="s">
+        <v>362</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="30">
+        <v>140</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>43183</v>
+      </c>
+      <c r="B77">
+        <v>1354</v>
+      </c>
+      <c r="C77" t="s">
+        <v>363</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="30">
+        <v>65</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>43215</v>
+      </c>
+      <c r="B78">
+        <v>1355</v>
+      </c>
+      <c r="C78" t="s">
+        <v>365</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="30">
+        <v>250</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>43217</v>
+      </c>
+      <c r="B79">
+        <v>1356</v>
+      </c>
+      <c r="C79" t="s">
+        <v>366</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="30">
+        <v>250</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>43217</v>
+      </c>
+      <c r="B80">
+        <v>1357</v>
+      </c>
+      <c r="C80" t="s">
+        <v>367</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="30">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>43224</v>
+      </c>
+      <c r="B81">
+        <v>1358</v>
+      </c>
+      <c r="C81" t="s">
+        <v>364</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="30">
+        <v>76.8</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>43228</v>
+      </c>
+      <c r="B82">
+        <v>1360</v>
+      </c>
+      <c r="C82" t="s">
+        <v>369</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="30">
+        <v>65</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>43228</v>
+      </c>
+      <c r="B83">
+        <v>1359</v>
+      </c>
+      <c r="C83" t="s">
+        <v>368</v>
+      </c>
+      <c r="E83" s="30">
+        <v>460</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>43229</v>
+      </c>
+      <c r="B84">
+        <v>1361</v>
+      </c>
+      <c r="C84" t="s">
+        <v>370</v>
+      </c>
+      <c r="E84" s="30">
+        <v>140</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>43235</v>
+      </c>
+      <c r="C85" t="s">
+        <v>371</v>
+      </c>
+      <c r="E85" s="30">
+        <v>50</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>43236</v>
+      </c>
+      <c r="C86" t="s">
+        <v>372</v>
+      </c>
+      <c r="E86" s="30">
+        <v>555.42999999999995</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="B90" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="B91" s="31">
+        <v>633.79999999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="B92" s="31">
+        <v>2298.39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="B93" s="31">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B94" s="31">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="B95" s="31">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="B96" s="31">
+        <v>4098.99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="B99" s="30">
+        <f>SUM(GETPIVOTDATA(" Payment Amount",$A$90,"Category","Awards"),B93:B95)</f>
+        <v>1800.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/MIACADA Ledger.xlsx
+++ b/MIACADA Ledger.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="330" yWindow="735" windowWidth="11355" windowHeight="8250" tabRatio="657" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="330" yWindow="735" windowWidth="11355" windowHeight="8250" tabRatio="657" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,18 +29,18 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'2017'!$E$1:$E$71</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'2018'!$E$1:$E$789</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'2018'!$E$1:$E$790</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId15"/>
-    <pivotCache cacheId="1" r:id="rId16"/>
+    <pivotCache cacheId="4" r:id="rId16"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="386">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -1170,9 +1170,6 @@
     <t>Sum of  Payment Amount</t>
   </si>
   <si>
-    <t>Non-conference</t>
-  </si>
-  <si>
     <t>Park Place Catering, conference meals</t>
   </si>
   <si>
@@ -1189,6 +1186,18 @@
   </si>
   <si>
     <t>Joe Murray website fees</t>
+  </si>
+  <si>
+    <t>Mott CC, conference refund, could not attend medical issues</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Reimbursement</t>
   </si>
 </sst>
 </file>
@@ -1311,15 +1320,76 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="49">
     <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC4D79B"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1448,7 +1518,18 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1492,6 +1573,96 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1524,6 +1695,7 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1707,11 +1879,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="296596080"/>
-        <c:axId val="296598320"/>
+        <c:axId val="300434608"/>
+        <c:axId val="300436848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="296596080"/>
+        <c:axId val="300434608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,7 +1926,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296598320"/>
+        <c:crossAx val="300436848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1762,7 +1934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296598320"/>
+        <c:axId val="300436848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,7 +1985,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296596080"/>
+        <c:crossAx val="300434608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1827,6 +1999,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1967,8 +2140,61 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1982,7 +2208,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2018 Summary'!$B$90</c:f>
+              <c:f>'2018 Summary'!$B$120</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2003,9 +2229,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2018 Summary'!$A$91:$A$96</c:f>
+              <c:f>'2018 Summary'!$A$121:$A$129</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Awards</c:v>
                 </c:pt>
@@ -2016,34 +2242,52 @@
                   <c:v>Grant</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Misc</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>President</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>Reimbursement</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Webinar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Website</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2018 Summary'!$B$91:$B$96</c:f>
+              <c:f>'2018 Summary'!$B$121:$B$129</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>633.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2298.39</c:v>
+                  <c:v>8400.2899999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>840</c:v>
+                  <c:v>1345.4099999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>76.8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2059,11 +2303,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="296601680"/>
-        <c:axId val="390602320"/>
+        <c:axId val="412581856"/>
+        <c:axId val="459997600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="296601680"/>
+        <c:axId val="412581856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2106,7 +2350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390602320"/>
+        <c:crossAx val="459997600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2114,7 +2358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="390602320"/>
+        <c:axId val="459997600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2134,7 +2378,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2165,7 +2409,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296601680"/>
+        <c:crossAx val="412581856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3383,19 +3627,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3445,33 +3689,24 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Adam D. McChesney" refreshedDate="43237.472821296295" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="20">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Adam D. McChesney" refreshedDate="43304.496658217591" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="27">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A66:F86" sheet="2018 Summary"/>
+    <worksheetSource ref="E89:F116" sheet="2018 Summary"/>
   </cacheSource>
-  <cacheFields count="6">
-    <cacheField name="Date " numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2018-01-04T00:00:00" maxDate="2018-05-17T00:00:00"/>
-    </cacheField>
-    <cacheField name="Check Number " numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1344" maxValue="1361"/>
-    </cacheField>
-    <cacheField name="Transaction Description" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Cleared" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name=" Payment Amount" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="50" maxValue="555.42999999999995"/>
+  <cacheFields count="2">
+    <cacheField name=" Payment Amount" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="50" maxValue="5250"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
-      <sharedItems count="5">
+      <sharedItems count="8">
         <s v="Webinar"/>
         <s v="Conference"/>
         <s v="Grant"/>
         <s v="Awards"/>
         <s v="President"/>
+        <s v="Misc"/>
+        <s v="Website"/>
+        <s v="Reimbursement"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -3641,166 +3876,114 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="27">
   <r>
-    <d v="2018-01-04T00:00:00"/>
-    <n v="1344"/>
-    <s v="Western Michigan University webinar reimbursement"/>
-    <s v="c"/>
     <n v="125"/>
     <x v="0"/>
   </r>
   <r>
-    <d v="2018-01-04T00:00:00"/>
-    <n v="1345"/>
-    <s v="Paul Beasley - webinar reimbursement for Davenport Traverse City"/>
-    <s v="c"/>
     <n v="125"/>
     <x v="0"/>
   </r>
   <r>
-    <d v="2018-01-23T00:00:00"/>
-    <n v="1346"/>
-    <s v="Anne London - MIACADA Conference giveaways"/>
-    <s v="c"/>
     <n v="394.06"/>
     <x v="1"/>
   </r>
   <r>
-    <d v="2018-01-26T00:00:00"/>
-    <n v="1347"/>
-    <s v="Anne London - MIACADA Conference giveaways"/>
-    <s v="c"/>
     <n v="93.36"/>
     <x v="1"/>
   </r>
   <r>
-    <d v="2018-01-26T00:00:00"/>
-    <n v="1348"/>
-    <s v="LogoWorks - MIACADA ribbons"/>
-    <s v="c"/>
     <n v="240.13"/>
     <x v="1"/>
   </r>
   <r>
-    <d v="2018-02-19T00:00:00"/>
-    <n v="1349"/>
-    <s v="4imprint, bag order for conference"/>
-    <s v="c"/>
     <n v="555.41"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
-    <d v="2018-03-08T00:00:00"/>
-    <n v="1350"/>
-    <s v="NACADA Region V Grant Winner Erika Trigg Crews"/>
-    <s v="c"/>
     <n v="140"/>
     <x v="2"/>
   </r>
   <r>
-    <d v="2018-03-08T00:00:00"/>
-    <n v="1351"/>
-    <s v="NACADA Region V Grant Winner Nicholas Scobey"/>
-    <s v="c"/>
     <n v="100"/>
     <x v="2"/>
   </r>
   <r>
-    <d v="2018-03-08T00:00:00"/>
-    <n v="1352"/>
-    <s v="NACADA Region V Grant Winner  Andrew Murray"/>
-    <s v="c"/>
     <n v="140"/>
     <x v="2"/>
   </r>
   <r>
-    <d v="2018-03-19T00:00:00"/>
-    <m/>
-    <s v="NACADA Region V Grant Winner Gayle Cohen"/>
-    <s v="c"/>
     <n v="140"/>
     <x v="2"/>
   </r>
   <r>
-    <d v="2018-03-24T00:00:00"/>
-    <n v="1354"/>
-    <s v="MIACADA Grant Winnter Monika Saladiak"/>
-    <s v="c"/>
     <n v="65"/>
     <x v="2"/>
   </r>
   <r>
-    <d v="2018-04-25T00:00:00"/>
-    <n v="1355"/>
-    <s v="James Fortune MIACADA best of reimbursement"/>
-    <s v="c"/>
     <n v="250"/>
     <x v="3"/>
   </r>
   <r>
-    <d v="2018-04-27T00:00:00"/>
-    <n v="1356"/>
-    <s v="Rachel Pawlikowski MIACADA best of reimbursement"/>
-    <s v="c"/>
     <n v="250"/>
     <x v="3"/>
   </r>
   <r>
-    <d v="2018-04-27T00:00:00"/>
-    <n v="1357"/>
-    <s v="Rachel Pawlikowski awards expenses reimbursement"/>
-    <s v="c"/>
     <n v="133.80000000000001"/>
     <x v="3"/>
   </r>
   <r>
-    <d v="2018-05-04T00:00:00"/>
-    <n v="1358"/>
-    <s v="Chris Strychalski, president gift reimbursement"/>
-    <s v="c"/>
     <n v="76.8"/>
     <x v="4"/>
   </r>
   <r>
-    <d v="2018-05-08T00:00:00"/>
-    <n v="1360"/>
-    <s v="John Cebelak MIACADA grant reimbursement"/>
-    <s v="c"/>
+    <n v="460"/>
+    <x v="1"/>
+  </r>
+  <r>
     <n v="65"/>
     <x v="2"/>
   </r>
   <r>
-    <d v="2018-05-08T00:00:00"/>
-    <n v="1359"/>
-    <s v="ACE Spirit for volunteer shirts"/>
-    <m/>
-    <n v="460"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <d v="2018-05-09T00:00:00"/>
-    <n v="1361"/>
-    <s v="Laura Hetzler NACADA grant reimbursement"/>
-    <m/>
     <n v="140"/>
     <x v="2"/>
   </r>
   <r>
-    <d v="2018-05-15T00:00:00"/>
-    <m/>
-    <s v="Tyrone Green MIACADA grant"/>
-    <m/>
     <n v="50"/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
-    <d v="2018-05-16T00:00:00"/>
-    <m/>
-    <s v="Maya Calloway various conference reimbursements"/>
-    <m/>
-    <n v="555.42999999999995"/>
+    <n v="555.92999999999995"/>
     <x v="1"/>
+  </r>
+  <r>
+    <n v="5250"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="600"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="756.81"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="200"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="500"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <x v="7"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -3863,7 +4046,7 @@
     <dataField name="Sum of Cost" fld="0" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="19">
+    <format dxfId="48">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3906,29 +4089,28 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A90:B96" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A120:B129" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+      <items count="9">
         <item x="3"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="5"/>
         <item x="4"/>
+        <item x="7"/>
         <item x="0"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="5"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="9">
     <i>
       <x/>
     </i>
@@ -3944,6 +4126,15 @@
     <i>
       <x v="4"/>
     </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -3952,13 +4143,8 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of  Payment Amount" fld="4" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="Sum of  Payment Amount" fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -6813,10 +6999,10 @@
   </sheetData>
   <autoFilter ref="E1:E71"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="expression" dxfId="25" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="1" stopIfTrue="1">
       <formula>D1="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>NOT(ISBLANK(E1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6829,7 +7015,7 @@
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8128,18 +8314,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E32">
-    <cfRule type="expression" dxfId="23" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="3" stopIfTrue="1">
       <formula>D2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="43" priority="4">
       <formula>NOT(ISBLANK(E2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E77">
-    <cfRule type="expression" dxfId="21" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="1" stopIfTrue="1">
       <formula>D40="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>NOT(ISBLANK(E40))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8150,10 +8336,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M789"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M790"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E103" sqref="A1:E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8256,7 +8443,7 @@
       <c r="J3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>43116</v>
       </c>
@@ -8278,7 +8465,7 @@
       <c r="J4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>43117</v>
       </c>
@@ -8300,7 +8487,7 @@
       <c r="J5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>43118</v>
       </c>
@@ -8322,7 +8509,7 @@
       <c r="J6" s="24"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <v>43119</v>
       </c>
@@ -8343,7 +8530,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>43122</v>
       </c>
@@ -8364,7 +8551,7 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>43123</v>
       </c>
@@ -8411,7 +8598,7 @@
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>43124</v>
       </c>
@@ -8432,7 +8619,7 @@
       <c r="J11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28">
         <v>43125</v>
       </c>
@@ -8505,7 +8692,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28">
         <v>43131</v>
       </c>
@@ -8524,7 +8711,7 @@
         <v>7822.0200000000032</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28">
         <v>43133</v>
       </c>
@@ -8543,7 +8730,7 @@
         <v>7836.2800000000034</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="28">
         <v>43144</v>
       </c>
@@ -8562,7 +8749,7 @@
         <v>7851.2800000000034</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28">
         <v>43145</v>
       </c>
@@ -8581,7 +8768,7 @@
         <v>7865.5400000000036</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28">
         <v>43147</v>
       </c>
@@ -8625,7 +8812,7 @@
         <v>7324.390000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28">
         <v>43152</v>
       </c>
@@ -8644,7 +8831,7 @@
         <v>7338.6500000000042</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28">
         <v>43154</v>
       </c>
@@ -8663,7 +8850,7 @@
         <v>7352.9100000000044</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28">
         <v>43164</v>
       </c>
@@ -8683,7 +8870,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28">
         <v>43165</v>
       </c>
@@ -8702,7 +8889,7 @@
         <v>7589.5900000000047</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28">
         <v>43166</v>
       </c>
@@ -8796,7 +8983,7 @@
         <v>7272.4000000000051</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28">
         <v>43171</v>
       </c>
@@ -8815,7 +9002,7 @@
         <v>7335.2100000000055</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28">
         <v>43172</v>
       </c>
@@ -8834,7 +9021,7 @@
         <v>7769.1100000000051</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28">
         <v>43174</v>
       </c>
@@ -8853,7 +9040,7 @@
         <v>7783.3700000000053</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28">
         <v>43175</v>
       </c>
@@ -8872,7 +9059,7 @@
         <v>7966.0300000000052</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28">
         <v>43178</v>
       </c>
@@ -8891,7 +9078,7 @@
         <v>8057.3600000000051</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28">
         <v>43178</v>
       </c>
@@ -8932,7 +9119,7 @@
         <v>7945.8800000000056</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28">
         <v>43180</v>
       </c>
@@ -8951,7 +9138,7 @@
         <v>8071.2000000000053</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28">
         <v>43181</v>
       </c>
@@ -8970,7 +9157,7 @@
         <v>8182.2600000000057</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28">
         <v>43182</v>
       </c>
@@ -9014,7 +9201,7 @@
         <v>8131.5200000000059</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28">
         <v>43185</v>
       </c>
@@ -9033,7 +9220,7 @@
         <v>8174.3000000000056</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28">
         <v>43185</v>
       </c>
@@ -9052,7 +9239,7 @@
         <v>8237.110000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28">
         <v>43185</v>
       </c>
@@ -9071,7 +9258,7 @@
         <v>8407.110000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="28">
         <v>43186</v>
       </c>
@@ -9090,7 +9277,7 @@
         <v>8469.9200000000055</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28">
         <v>43187</v>
       </c>
@@ -9109,7 +9296,7 @@
         <v>8595.5400000000063</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="28">
         <v>43188</v>
       </c>
@@ -9128,7 +9315,7 @@
         <v>8735.4200000000055</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="28">
         <v>43189</v>
       </c>
@@ -9147,7 +9334,7 @@
         <v>8846.1800000000057</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28">
         <v>43192</v>
       </c>
@@ -9166,7 +9353,7 @@
         <v>8923.2500000000055</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="28">
         <v>43195</v>
       </c>
@@ -9185,7 +9372,7 @@
         <v>9238.2500000000055</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28">
         <v>43199</v>
       </c>
@@ -9204,7 +9391,7 @@
         <v>9252.5100000000057</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28">
         <v>43201</v>
       </c>
@@ -9223,7 +9410,7 @@
         <v>9315.3200000000052</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28">
         <v>43202</v>
       </c>
@@ -9242,7 +9429,7 @@
         <v>9467.940000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="28">
         <v>43203</v>
       </c>
@@ -9261,7 +9448,7 @@
         <v>9796.2500000000055</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="28">
         <v>43206</v>
       </c>
@@ -9280,7 +9467,7 @@
         <v>9936.1300000000047</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="28">
         <v>43209</v>
       </c>
@@ -9299,7 +9486,7 @@
         <v>10313.910000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="28">
         <v>43210</v>
       </c>
@@ -9318,7 +9505,7 @@
         <v>10565.150000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="28">
         <v>43213</v>
       </c>
@@ -9337,7 +9524,7 @@
         <v>10627.960000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="28">
         <v>43213</v>
       </c>
@@ -9356,7 +9543,7 @@
         <v>12592.960000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28">
         <v>43214</v>
       </c>
@@ -9400,7 +9587,7 @@
         <v>12454.020000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="28">
         <v>43215</v>
       </c>
@@ -9419,7 +9606,7 @@
         <v>13271.170000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="28">
         <v>43216</v>
       </c>
@@ -9438,7 +9625,7 @@
         <v>13459.300000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="22">
         <v>43217</v>
       </c>
@@ -9507,7 +9694,7 @@
         <v>13975.800000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="28">
         <v>43220</v>
       </c>
@@ -9526,7 +9713,7 @@
         <v>14052.870000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="28">
         <v>43222</v>
       </c>
@@ -9545,7 +9732,7 @@
         <v>14366.620000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="28">
         <v>43223</v>
       </c>
@@ -9564,7 +9751,7 @@
         <v>14792.650000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="28">
         <v>43224</v>
       </c>
@@ -9608,7 +9795,7 @@
         <v>14778.360000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="28">
         <v>43227</v>
       </c>
@@ -9627,7 +9814,7 @@
         <v>14889.420000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="28">
         <v>43227</v>
       </c>
@@ -9642,7 +9829,7 @@
         <v>15072.080000000004</v>
       </c>
       <c r="H71" s="3">
-        <f t="shared" ref="H71:H110" si="3">IF(ISBLANK(A71),"",IF(D71="C",H70-E71+F71,H70+F71))</f>
+        <f t="shared" ref="H71:H111" si="3">IF(ISBLANK(A71),"",IF(D71="C",H70-E71+F71,H70+F71))</f>
         <v>15072.080000000004</v>
       </c>
     </row>
@@ -9706,6 +9893,9 @@
       <c r="C74" s="20" t="s">
         <v>370</v>
       </c>
+      <c r="D74" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E74" s="3">
         <v>140</v>
       </c>
@@ -9715,10 +9905,10 @@
       </c>
       <c r="H74" s="3">
         <f t="shared" si="3"/>
-        <v>14547.080000000004</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14407.080000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="28">
         <v>43229</v>
       </c>
@@ -9734,10 +9924,10 @@
       </c>
       <c r="H75" s="3">
         <f t="shared" si="3"/>
-        <v>14860.830000000004</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14720.830000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28">
         <v>43231</v>
       </c>
@@ -9753,10 +9943,10 @@
       </c>
       <c r="H76" s="3">
         <f t="shared" si="3"/>
-        <v>15049.260000000004</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14909.260000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="28">
         <v>43234</v>
       </c>
@@ -9772,10 +9962,10 @@
       </c>
       <c r="H77" s="3">
         <f t="shared" si="3"/>
-        <v>16372.550000000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16232.550000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="28">
         <v>43234</v>
       </c>
@@ -9791,10 +9981,10 @@
       </c>
       <c r="H78" s="3">
         <f t="shared" si="3"/>
-        <v>16497.870000000003</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16357.870000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="28">
         <v>43235</v>
       </c>
@@ -9810,7 +10000,7 @@
       </c>
       <c r="H79" s="3">
         <f t="shared" si="3"/>
-        <v>16887.870000000003</v>
+        <v>16747.870000000003</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -9823,6 +10013,9 @@
       <c r="C80" s="20" t="s">
         <v>371</v>
       </c>
+      <c r="D80" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E80" s="3">
         <v>50</v>
       </c>
@@ -9832,7 +10025,7 @@
       </c>
       <c r="H80" s="3">
         <f t="shared" si="3"/>
-        <v>16887.870000000003</v>
+        <v>16697.870000000003</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -9857,10 +10050,10 @@
       </c>
       <c r="H81" s="3">
         <f t="shared" si="3"/>
-        <v>16331.940000000002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16141.940000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="28">
         <v>43236</v>
       </c>
@@ -9876,10 +10069,10 @@
       </c>
       <c r="H82" s="3">
         <f t="shared" si="3"/>
-        <v>16650.86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16460.86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="28">
         <v>43236</v>
       </c>
@@ -9895,10 +10088,10 @@
       </c>
       <c r="H83" s="3">
         <f t="shared" si="3"/>
-        <v>17670.86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17480.86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="28">
         <v>43237</v>
       </c>
@@ -9914,10 +10107,10 @@
       </c>
       <c r="H84" s="3">
         <f t="shared" si="3"/>
-        <v>17985.53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17795.53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="28">
         <v>43238</v>
       </c>
@@ -9933,10 +10126,10 @@
       </c>
       <c r="H85" s="3">
         <f t="shared" si="3"/>
-        <v>18425.82</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18235.82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="28">
         <v>43241</v>
       </c>
@@ -9952,7 +10145,7 @@
       </c>
       <c r="H86" s="3">
         <f t="shared" si="3"/>
-        <v>18579.66</v>
+        <v>18389.66</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -9963,7 +10156,10 @@
         <v>1364</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E87" s="3">
         <v>5250</v>
@@ -9974,7 +10170,7 @@
       </c>
       <c r="H87" s="3">
         <f t="shared" si="3"/>
-        <v>18579.66</v>
+        <v>13139.66</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -9985,7 +10181,10 @@
         <v>1365</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E88" s="3">
         <v>600</v>
@@ -9996,7 +10195,7 @@
       </c>
       <c r="H88" s="3">
         <f t="shared" si="3"/>
-        <v>18579.66</v>
+        <v>12539.66</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -10007,7 +10206,10 @@
         <v>1366</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E89" s="3">
         <v>756.81</v>
@@ -10018,7 +10220,7 @@
       </c>
       <c r="H89" s="3">
         <f t="shared" si="3"/>
-        <v>18579.66</v>
+        <v>11782.85</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -10029,7 +10231,7 @@
         <v>1367</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>14</v>
@@ -10043,7 +10245,7 @@
       </c>
       <c r="H90" s="3">
         <f t="shared" si="3"/>
-        <v>18379.66</v>
+        <v>11582.85</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -10054,7 +10256,7 @@
         <v>1268</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>14</v>
@@ -10068,10 +10270,10 @@
       </c>
       <c r="H91" s="3">
         <f t="shared" si="3"/>
-        <v>18329.66</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11532.85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="28">
         <v>43245</v>
       </c>
@@ -10087,10 +10289,10 @@
       </c>
       <c r="H92" s="3">
         <f t="shared" si="3"/>
-        <v>18372.439999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11575.630000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="28">
         <v>43249</v>
       </c>
@@ -10106,10 +10308,10 @@
       </c>
       <c r="H93" s="3">
         <f t="shared" si="3"/>
-        <v>18386.699999999997</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11589.890000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="28">
         <v>43249</v>
       </c>
@@ -10125,7 +10327,7 @@
       </c>
       <c r="H94" s="3">
         <f t="shared" si="3"/>
-        <v>18906.699999999997</v>
+        <v>12109.890000000001</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -10136,7 +10338,10 @@
         <v>1369</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E95" s="3">
         <v>500</v>
@@ -10147,150 +10352,279 @@
       </c>
       <c r="H95" s="3">
         <f t="shared" si="3"/>
-        <v>18906.699999999997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G96" s="3" t="str">
+        <v>11609.890000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="28">
+        <v>43251</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F96">
+        <v>14.26</v>
+      </c>
+      <c r="G96" s="3">
         <f>IF(ISBLANK(A96),"",'2018'!G95-E96+F96)</f>
-        <v/>
-      </c>
-      <c r="H96" s="3" t="str">
+        <v>11624.150000000001</v>
+      </c>
+      <c r="H96" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G97" s="3" t="str">
+        <v>11624.150000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="28">
+        <v>43252</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F97">
+        <v>14.26</v>
+      </c>
+      <c r="G97" s="3">
         <f>IF(ISBLANK(A97),"",'2018'!G96-E97+F97)</f>
-        <v/>
-      </c>
-      <c r="H97" s="3" t="str">
+        <v>11638.410000000002</v>
+      </c>
+      <c r="H97" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G98" s="3" t="str">
+        <v>11638.410000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="28">
+        <v>43255</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F98">
+        <v>14.26</v>
+      </c>
+      <c r="G98" s="3">
         <f>IF(ISBLANK(A98),"",'2018'!G97-E98+F98)</f>
-        <v/>
-      </c>
-      <c r="H98" s="3" t="str">
+        <v>11652.670000000002</v>
+      </c>
+      <c r="H98" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G99" s="3" t="str">
+        <v>11652.670000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="28">
+        <v>43256</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F99">
+        <v>14.26</v>
+      </c>
+      <c r="G99" s="3">
         <f>IF(ISBLANK(A99),"",'2018'!G98-E99+F99)</f>
-        <v/>
-      </c>
-      <c r="H99" s="3" t="str">
+        <v>11666.930000000002</v>
+      </c>
+      <c r="H99" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G100" s="3" t="str">
+        <v>11666.930000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="28">
+        <v>43262</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F100">
+        <v>14.26</v>
+      </c>
+      <c r="G100" s="3">
         <f>IF(ISBLANK(A100),"",'2018'!G99-E100+F100)</f>
-        <v/>
-      </c>
-      <c r="H100" s="3" t="str">
+        <v>11681.190000000002</v>
+      </c>
+      <c r="H100" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G101" s="3" t="str">
+        <v>11681.190000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="28">
+        <v>43266</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F101">
+        <v>14.26</v>
+      </c>
+      <c r="G101" s="3">
         <f>IF(ISBLANK(A101),"",'2018'!G100-E101+F101)</f>
-        <v/>
-      </c>
-      <c r="H101" s="3" t="str">
+        <v>11695.450000000003</v>
+      </c>
+      <c r="H101" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G102" s="3" t="str">
+        <v>11695.450000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="28">
+        <v>43273</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F102">
+        <v>14.26</v>
+      </c>
+      <c r="G102" s="3">
         <f>IF(ISBLANK(A102),"",'2018'!G101-E102+F102)</f>
-        <v/>
-      </c>
-      <c r="H102" s="3" t="str">
+        <v>11709.710000000003</v>
+      </c>
+      <c r="H102" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G103" s="3" t="str">
+        <v>11709.710000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="28">
+        <v>43275</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="3">
+        <v>100</v>
+      </c>
+      <c r="G103" s="3">
         <f>IF(ISBLANK(A103),"",'2018'!G102-E103+F103)</f>
-        <v/>
-      </c>
-      <c r="H103" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G104" s="3" t="str">
+        <v>11609.710000000003</v>
+      </c>
+      <c r="H103" s="3">
+        <f t="shared" ref="H103" si="4">IF(ISBLANK(A103),"",IF(D103="C",H102-E103+F103,H102+F103))</f>
+        <v>11609.710000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="28">
+        <v>43278</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F104">
+        <v>14.26</v>
+      </c>
+      <c r="G104" s="3">
         <f>IF(ISBLANK(A104),"",'2018'!G103-E104+F104)</f>
-        <v/>
-      </c>
-      <c r="H104" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G105" s="3" t="str">
+        <v>11623.970000000003</v>
+      </c>
+      <c r="H104" s="3">
+        <f t="shared" ref="H104:H109" si="5">IF(ISBLANK(A104),"",IF(D104="C",H103-E104+F104,H103+F104))</f>
+        <v>11623.970000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="28">
+        <v>43279</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F105">
+        <v>14.26</v>
+      </c>
+      <c r="G105" s="3">
         <f>IF(ISBLANK(A105),"",'2018'!G104-E105+F105)</f>
-        <v/>
-      </c>
-      <c r="H105" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G106" s="3" t="str">
+        <v>11638.230000000003</v>
+      </c>
+      <c r="H105" s="3">
+        <f t="shared" si="5"/>
+        <v>11638.230000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="28">
+        <v>43279</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F106">
+        <v>285</v>
+      </c>
+      <c r="G106" s="3">
         <f>IF(ISBLANK(A106),"",'2018'!G105-E106+F106)</f>
-        <v/>
-      </c>
-      <c r="H106" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G107" s="3" t="str">
+        <v>11923.230000000003</v>
+      </c>
+      <c r="H106" s="3">
+        <f t="shared" si="5"/>
+        <v>11923.230000000003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="28">
+        <v>43283</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F107">
+        <v>14.26</v>
+      </c>
+      <c r="G107" s="3">
         <f>IF(ISBLANK(A107),"",'2018'!G106-E107+F107)</f>
-        <v/>
-      </c>
-      <c r="H107" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G108" s="3" t="str">
+        <v>11937.490000000003</v>
+      </c>
+      <c r="H107" s="3">
+        <f t="shared" si="5"/>
+        <v>11937.490000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="28">
+        <v>43286</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F108">
+        <v>14.26</v>
+      </c>
+      <c r="G108" s="3">
         <f>IF(ISBLANK(A108),"",'2018'!G107-E108+F108)</f>
-        <v/>
-      </c>
-      <c r="H108" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G109" s="3" t="str">
+        <v>11951.750000000004</v>
+      </c>
+      <c r="H108" s="3">
+        <f t="shared" si="5"/>
+        <v>11951.750000000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="28">
+        <v>43299</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F109">
+        <v>90</v>
+      </c>
+      <c r="G109" s="3">
         <f>IF(ISBLANK(A109),"",'2018'!G108-E109+F109)</f>
-        <v/>
-      </c>
-      <c r="H109" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="7:8" x14ac:dyDescent="0.2">
+        <v>12041.750000000004</v>
+      </c>
+      <c r="H109" s="3">
+        <f t="shared" si="5"/>
+        <v>12041.750000000004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G110" s="3" t="str">
         <f>IF(ISBLANK(A110),"",'2018'!G109-E110+F110)</f>
         <v/>
@@ -10300,3664 +10634,3686 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G111" s="3" t="str">
         <f>IF(ISBLANK(A111),"",'2018'!G110-E111+F111)</f>
         <v/>
       </c>
       <c r="H111" s="3" t="str">
-        <f t="shared" ref="H111:H134" si="4">IF(ISBLANK(B111),"",IF(D111="C",H110-E111+F111,H110+F111))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G112" s="3" t="str">
         <f>IF(ISBLANK(A112),"",'2018'!G111-E112+F112)</f>
         <v/>
       </c>
       <c r="H112" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H112:H135" si="6">IF(ISBLANK(B112),"",IF(D112="C",H111-E112+F112,H111+F112))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G113" s="3" t="str">
         <f>IF(ISBLANK(A113),"",'2018'!G112-E113+F113)</f>
         <v/>
       </c>
       <c r="H113" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G114" s="3" t="str">
         <f>IF(ISBLANK(A114),"",'2018'!G113-E114+F114)</f>
         <v/>
       </c>
       <c r="H114" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G115" s="3" t="str">
         <f>IF(ISBLANK(A115),"",'2018'!G114-E115+F115)</f>
         <v/>
       </c>
       <c r="H115" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G116" s="3" t="str">
         <f>IF(ISBLANK(A116),"",'2018'!G115-E116+F116)</f>
         <v/>
       </c>
       <c r="H116" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G117" s="3" t="str">
         <f>IF(ISBLANK(A117),"",'2018'!G116-E117+F117)</f>
         <v/>
       </c>
       <c r="H117" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G118" s="3" t="str">
         <f>IF(ISBLANK(A118),"",'2018'!G117-E118+F118)</f>
         <v/>
       </c>
       <c r="H118" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G119" s="3" t="str">
         <f>IF(ISBLANK(A119),"",'2018'!G118-E119+F119)</f>
         <v/>
       </c>
       <c r="H119" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G120" s="3" t="str">
         <f>IF(ISBLANK(A120),"",'2018'!G119-E120+F120)</f>
         <v/>
       </c>
       <c r="H120" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G121" s="3" t="str">
         <f>IF(ISBLANK(A121),"",'2018'!G120-E121+F121)</f>
         <v/>
       </c>
       <c r="H121" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G122" s="3" t="str">
         <f>IF(ISBLANK(A122),"",'2018'!G121-E122+F122)</f>
         <v/>
       </c>
       <c r="H122" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G123" s="3" t="str">
         <f>IF(ISBLANK(A123),"",'2018'!G122-E123+F123)</f>
         <v/>
       </c>
       <c r="H123" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G124" s="3" t="str">
         <f>IF(ISBLANK(A124),"",'2018'!G123-E124+F124)</f>
         <v/>
       </c>
       <c r="H124" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G125" s="3" t="str">
         <f>IF(ISBLANK(A125),"",'2018'!G124-E125+F125)</f>
         <v/>
       </c>
       <c r="H125" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G126" s="3" t="str">
         <f>IF(ISBLANK(A126),"",'2018'!G125-E126+F126)</f>
         <v/>
       </c>
       <c r="H126" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G127" s="3" t="str">
         <f>IF(ISBLANK(A127),"",'2018'!G126-E127+F127)</f>
         <v/>
       </c>
       <c r="H127" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G128" s="3" t="str">
         <f>IF(ISBLANK(A128),"",'2018'!G127-E128+F128)</f>
         <v/>
       </c>
       <c r="H128" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G129" s="3" t="str">
         <f>IF(ISBLANK(A129),"",'2018'!G128-E129+F129)</f>
         <v/>
       </c>
       <c r="H129" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G130" s="3" t="str">
         <f>IF(ISBLANK(A130),"",'2018'!G129-E130+F130)</f>
         <v/>
       </c>
       <c r="H130" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G131" s="3" t="str">
         <f>IF(ISBLANK(A131),"",'2018'!G130-E131+F131)</f>
         <v/>
       </c>
       <c r="H131" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G132" s="3" t="str">
         <f>IF(ISBLANK(A132),"",'2018'!G131-E132+F132)</f>
         <v/>
       </c>
       <c r="H132" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G133" s="3" t="str">
         <f>IF(ISBLANK(A133),"",'2018'!G132-E133+F133)</f>
         <v/>
       </c>
       <c r="H133" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G134" s="3" t="str">
         <f>IF(ISBLANK(A134),"",'2018'!G133-E134+F134)</f>
         <v/>
       </c>
       <c r="H134" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G135" s="3" t="str">
         <f>IF(ISBLANK(A135),"",'2018'!G134-E135+F135)</f>
         <v/>
       </c>
       <c r="H135" s="3" t="str">
-        <f t="shared" ref="H135:H198" si="5">IF(ISBLANK(B135),"",IF(D135="C",H134-E135+F135,H134+F135))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G136" s="3" t="str">
         <f>IF(ISBLANK(A136),"",'2018'!G135-E136+F136)</f>
         <v/>
       </c>
       <c r="H136" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H136:H199" si="7">IF(ISBLANK(B136),"",IF(D136="C",H135-E136+F136,H135+F136))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G137" s="3" t="str">
         <f>IF(ISBLANK(A137),"",'2018'!G136-E137+F137)</f>
         <v/>
       </c>
       <c r="H137" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G138" s="3" t="str">
         <f>IF(ISBLANK(A138),"",'2018'!G137-E138+F138)</f>
         <v/>
       </c>
       <c r="H138" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G139" s="3" t="str">
         <f>IF(ISBLANK(A139),"",'2018'!G138-E139+F139)</f>
         <v/>
       </c>
       <c r="H139" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G140" s="3" t="str">
         <f>IF(ISBLANK(A140),"",'2018'!G139-E140+F140)</f>
         <v/>
       </c>
       <c r="H140" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G141" s="3" t="str">
         <f>IF(ISBLANK(A141),"",'2018'!G140-E141+F141)</f>
         <v/>
       </c>
       <c r="H141" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G142" s="3" t="str">
         <f>IF(ISBLANK(A142),"",'2018'!G141-E142+F142)</f>
         <v/>
       </c>
       <c r="H142" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G143" s="3" t="str">
         <f>IF(ISBLANK(A143),"",'2018'!G142-E143+F143)</f>
         <v/>
       </c>
       <c r="H143" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G144" s="3" t="str">
         <f>IF(ISBLANK(A144),"",'2018'!G143-E144+F144)</f>
         <v/>
       </c>
       <c r="H144" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G145" s="3" t="str">
         <f>IF(ISBLANK(A145),"",'2018'!G144-E145+F145)</f>
         <v/>
       </c>
       <c r="H145" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G146" s="3" t="str">
         <f>IF(ISBLANK(A146),"",'2018'!G145-E146+F146)</f>
         <v/>
       </c>
       <c r="H146" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G147" s="3" t="str">
         <f>IF(ISBLANK(A147),"",'2018'!G146-E147+F147)</f>
         <v/>
       </c>
       <c r="H147" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G148" s="3" t="str">
         <f>IF(ISBLANK(A148),"",'2018'!G147-E148+F148)</f>
         <v/>
       </c>
       <c r="H148" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G149" s="3" t="str">
         <f>IF(ISBLANK(A149),"",'2018'!G148-E149+F149)</f>
         <v/>
       </c>
       <c r="H149" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G150" s="3" t="str">
         <f>IF(ISBLANK(A150),"",'2018'!G149-E150+F150)</f>
         <v/>
       </c>
       <c r="H150" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G151" s="3" t="str">
         <f>IF(ISBLANK(A151),"",'2018'!G150-E151+F151)</f>
         <v/>
       </c>
       <c r="H151" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G152" s="3" t="str">
         <f>IF(ISBLANK(A152),"",'2018'!G151-E152+F152)</f>
         <v/>
       </c>
       <c r="H152" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G153" s="3" t="str">
         <f>IF(ISBLANK(A153),"",'2018'!G152-E153+F153)</f>
         <v/>
       </c>
       <c r="H153" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G154" s="3" t="str">
         <f>IF(ISBLANK(A154),"",'2018'!G153-E154+F154)</f>
         <v/>
       </c>
       <c r="H154" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G155" s="3" t="str">
         <f>IF(ISBLANK(A155),"",'2018'!G154-E155+F155)</f>
         <v/>
       </c>
       <c r="H155" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G156" s="3" t="str">
         <f>IF(ISBLANK(A156),"",'2018'!G155-E156+F156)</f>
         <v/>
       </c>
       <c r="H156" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G157" s="3" t="str">
         <f>IF(ISBLANK(A157),"",'2018'!G156-E157+F157)</f>
         <v/>
       </c>
       <c r="H157" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G158" s="3" t="str">
         <f>IF(ISBLANK(A158),"",'2018'!G157-E158+F158)</f>
         <v/>
       </c>
       <c r="H158" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G159" s="3" t="str">
         <f>IF(ISBLANK(A159),"",'2018'!G158-E159+F159)</f>
         <v/>
       </c>
       <c r="H159" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G160" s="3" t="str">
         <f>IF(ISBLANK(A160),"",'2018'!G159-E160+F160)</f>
         <v/>
       </c>
       <c r="H160" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G161" s="3" t="str">
         <f>IF(ISBLANK(A161),"",'2018'!G160-E161+F161)</f>
         <v/>
       </c>
       <c r="H161" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G162" s="3" t="str">
         <f>IF(ISBLANK(A162),"",'2018'!G161-E162+F162)</f>
         <v/>
       </c>
       <c r="H162" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G163" s="3" t="str">
         <f>IF(ISBLANK(A163),"",'2018'!G162-E163+F163)</f>
         <v/>
       </c>
       <c r="H163" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G164" s="3" t="str">
         <f>IF(ISBLANK(A164),"",'2018'!G163-E164+F164)</f>
         <v/>
       </c>
       <c r="H164" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G165" s="3" t="str">
         <f>IF(ISBLANK(A165),"",'2018'!G164-E165+F165)</f>
         <v/>
       </c>
       <c r="H165" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G166" s="3" t="str">
         <f>IF(ISBLANK(A166),"",'2018'!G165-E166+F166)</f>
         <v/>
       </c>
       <c r="H166" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G167" s="3" t="str">
         <f>IF(ISBLANK(A167),"",'2018'!G166-E167+F167)</f>
         <v/>
       </c>
       <c r="H167" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G168" s="3" t="str">
         <f>IF(ISBLANK(A168),"",'2018'!G167-E168+F168)</f>
         <v/>
       </c>
       <c r="H168" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G169" s="3" t="str">
         <f>IF(ISBLANK(A169),"",'2018'!G168-E169+F169)</f>
         <v/>
       </c>
       <c r="H169" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G170" s="3" t="str">
         <f>IF(ISBLANK(A170),"",'2018'!G169-E170+F170)</f>
         <v/>
       </c>
       <c r="H170" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G171" s="3" t="str">
         <f>IF(ISBLANK(A171),"",'2018'!G170-E171+F171)</f>
         <v/>
       </c>
       <c r="H171" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G172" s="3" t="str">
         <f>IF(ISBLANK(A172),"",'2018'!G171-E172+F172)</f>
         <v/>
       </c>
       <c r="H172" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G173" s="3" t="str">
         <f>IF(ISBLANK(A173),"",'2018'!G172-E173+F173)</f>
         <v/>
       </c>
       <c r="H173" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G174" s="3" t="str">
         <f>IF(ISBLANK(A174),"",'2018'!G173-E174+F174)</f>
         <v/>
       </c>
       <c r="H174" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G175" s="3" t="str">
         <f>IF(ISBLANK(A175),"",'2018'!G174-E175+F175)</f>
         <v/>
       </c>
       <c r="H175" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G176" s="3" t="str">
         <f>IF(ISBLANK(A176),"",'2018'!G175-E176+F176)</f>
         <v/>
       </c>
       <c r="H176" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G177" s="3" t="str">
         <f>IF(ISBLANK(A177),"",'2018'!G176-E177+F177)</f>
         <v/>
       </c>
       <c r="H177" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G178" s="3" t="str">
         <f>IF(ISBLANK(A178),"",'2018'!G177-E178+F178)</f>
         <v/>
       </c>
       <c r="H178" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G179" s="3" t="str">
         <f>IF(ISBLANK(A179),"",'2018'!G178-E179+F179)</f>
         <v/>
       </c>
       <c r="H179" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G180" s="3" t="str">
         <f>IF(ISBLANK(A180),"",'2018'!G179-E180+F180)</f>
         <v/>
       </c>
       <c r="H180" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G181" s="3" t="str">
         <f>IF(ISBLANK(A181),"",'2018'!G180-E181+F181)</f>
         <v/>
       </c>
       <c r="H181" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G182" s="3" t="str">
         <f>IF(ISBLANK(A182),"",'2018'!G181-E182+F182)</f>
         <v/>
       </c>
       <c r="H182" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G183" s="3" t="str">
         <f>IF(ISBLANK(A183),"",'2018'!G182-E183+F183)</f>
         <v/>
       </c>
       <c r="H183" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G184" s="3" t="str">
         <f>IF(ISBLANK(A184),"",'2018'!G183-E184+F184)</f>
         <v/>
       </c>
       <c r="H184" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G185" s="3" t="str">
         <f>IF(ISBLANK(A185),"",'2018'!G184-E185+F185)</f>
         <v/>
       </c>
       <c r="H185" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G186" s="3" t="str">
         <f>IF(ISBLANK(A186),"",'2018'!G185-E186+F186)</f>
         <v/>
       </c>
       <c r="H186" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G187" s="3" t="str">
         <f>IF(ISBLANK(A187),"",'2018'!G186-E187+F187)</f>
         <v/>
       </c>
       <c r="H187" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G188" s="3" t="str">
         <f>IF(ISBLANK(A188),"",'2018'!G187-E188+F188)</f>
         <v/>
       </c>
       <c r="H188" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G189" s="3" t="str">
         <f>IF(ISBLANK(A189),"",'2018'!G188-E189+F189)</f>
         <v/>
       </c>
       <c r="H189" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G190" s="3" t="str">
         <f>IF(ISBLANK(A190),"",'2018'!G189-E190+F190)</f>
         <v/>
       </c>
       <c r="H190" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G191" s="3" t="str">
         <f>IF(ISBLANK(A191),"",'2018'!G190-E191+F191)</f>
         <v/>
       </c>
       <c r="H191" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G192" s="3" t="str">
         <f>IF(ISBLANK(A192),"",'2018'!G191-E192+F192)</f>
         <v/>
       </c>
       <c r="H192" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G193" s="3" t="str">
         <f>IF(ISBLANK(A193),"",'2018'!G192-E193+F193)</f>
         <v/>
       </c>
       <c r="H193" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G194" s="3" t="str">
         <f>IF(ISBLANK(A194),"",'2018'!G193-E194+F194)</f>
         <v/>
       </c>
       <c r="H194" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G195" s="3" t="str">
         <f>IF(ISBLANK(A195),"",'2018'!G194-E195+F195)</f>
         <v/>
       </c>
       <c r="H195" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G196" s="3" t="str">
         <f>IF(ISBLANK(A196),"",'2018'!G195-E196+F196)</f>
         <v/>
       </c>
       <c r="H196" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G197" s="3" t="str">
         <f>IF(ISBLANK(A197),"",'2018'!G196-E197+F197)</f>
         <v/>
       </c>
       <c r="H197" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G198" s="3" t="str">
         <f>IF(ISBLANK(A198),"",'2018'!G197-E198+F198)</f>
         <v/>
       </c>
       <c r="H198" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G199" s="3" t="str">
         <f>IF(ISBLANK(A199),"",'2018'!G198-E199+F199)</f>
         <v/>
       </c>
       <c r="H199" s="3" t="str">
-        <f t="shared" ref="H199:H255" si="6">IF(ISBLANK(B199),"",IF(D199="C",H198-E199+F199,H198+F199))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G200" s="3" t="str">
         <f>IF(ISBLANK(A200),"",'2018'!G199-E200+F200)</f>
         <v/>
       </c>
       <c r="H200" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H200:H256" si="8">IF(ISBLANK(B200),"",IF(D200="C",H199-E200+F200,H199+F200))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G201" s="3" t="str">
         <f>IF(ISBLANK(A201),"",'2018'!G200-E201+F201)</f>
         <v/>
       </c>
       <c r="H201" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G202" s="3" t="str">
         <f>IF(ISBLANK(A202),"",'2018'!G201-E202+F202)</f>
         <v/>
       </c>
       <c r="H202" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G203" s="3" t="str">
         <f>IF(ISBLANK(A203),"",'2018'!G202-E203+F203)</f>
         <v/>
       </c>
       <c r="H203" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G204" s="3" t="str">
         <f>IF(ISBLANK(A204),"",'2018'!G203-E204+F204)</f>
         <v/>
       </c>
       <c r="H204" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G205" s="3" t="str">
         <f>IF(ISBLANK(A205),"",'2018'!G204-E205+F205)</f>
         <v/>
       </c>
       <c r="H205" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G206" s="3" t="str">
         <f>IF(ISBLANK(A206),"",'2018'!G205-E206+F206)</f>
         <v/>
       </c>
       <c r="H206" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G207" s="3" t="str">
         <f>IF(ISBLANK(A207),"",'2018'!G206-E207+F207)</f>
         <v/>
       </c>
       <c r="H207" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G208" s="3" t="str">
         <f>IF(ISBLANK(A208),"",'2018'!G207-E208+F208)</f>
         <v/>
       </c>
       <c r="H208" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G209" s="3" t="str">
         <f>IF(ISBLANK(A209),"",'2018'!G208-E209+F209)</f>
         <v/>
       </c>
       <c r="H209" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G210" s="3" t="str">
         <f>IF(ISBLANK(A210),"",'2018'!G209-E210+F210)</f>
         <v/>
       </c>
       <c r="H210" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G211" s="3" t="str">
         <f>IF(ISBLANK(A211),"",'2018'!G210-E211+F211)</f>
         <v/>
       </c>
       <c r="H211" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G212" s="3" t="str">
         <f>IF(ISBLANK(A212),"",'2018'!G211-E212+F212)</f>
         <v/>
       </c>
       <c r="H212" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G213" s="3" t="str">
         <f>IF(ISBLANK(A213),"",'2018'!G212-E213+F213)</f>
         <v/>
       </c>
       <c r="H213" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G214" s="3" t="str">
         <f>IF(ISBLANK(A214),"",'2018'!G213-E214+F214)</f>
         <v/>
       </c>
       <c r="H214" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G215" s="3" t="str">
         <f>IF(ISBLANK(A215),"",'2018'!G214-E215+F215)</f>
         <v/>
       </c>
       <c r="H215" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G216" s="3" t="str">
         <f>IF(ISBLANK(A216),"",'2018'!G215-E216+F216)</f>
         <v/>
       </c>
       <c r="H216" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G217" s="3" t="str">
         <f>IF(ISBLANK(A217),"",'2018'!G216-E217+F217)</f>
         <v/>
       </c>
       <c r="H217" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G218" s="3" t="str">
         <f>IF(ISBLANK(A218),"",'2018'!G217-E218+F218)</f>
         <v/>
       </c>
       <c r="H218" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G219" s="3" t="str">
         <f>IF(ISBLANK(A219),"",'2018'!G218-E219+F219)</f>
         <v/>
       </c>
       <c r="H219" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G220" s="3" t="str">
         <f>IF(ISBLANK(A220),"",'2018'!G219-E220+F220)</f>
         <v/>
       </c>
       <c r="H220" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G221" s="3" t="str">
         <f>IF(ISBLANK(A221),"",'2018'!G220-E221+F221)</f>
         <v/>
       </c>
       <c r="H221" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G222" s="3" t="str">
         <f>IF(ISBLANK(A222),"",'2018'!G221-E222+F222)</f>
         <v/>
       </c>
       <c r="H222" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G223" s="3" t="str">
         <f>IF(ISBLANK(A223),"",'2018'!G222-E223+F223)</f>
         <v/>
       </c>
       <c r="H223" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G224" s="3" t="str">
         <f>IF(ISBLANK(A224),"",'2018'!G223-E224+F224)</f>
         <v/>
       </c>
       <c r="H224" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G225" s="3" t="str">
         <f>IF(ISBLANK(A225),"",'2018'!G224-E225+F225)</f>
         <v/>
       </c>
       <c r="H225" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G226" s="3" t="str">
         <f>IF(ISBLANK(A226),"",'2018'!G225-E226+F226)</f>
         <v/>
       </c>
       <c r="H226" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G227" s="3" t="str">
         <f>IF(ISBLANK(A227),"",'2018'!G226-E227+F227)</f>
         <v/>
       </c>
       <c r="H227" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G228" s="3" t="str">
         <f>IF(ISBLANK(A228),"",'2018'!G227-E228+F228)</f>
         <v/>
       </c>
       <c r="H228" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G229" s="3" t="str">
         <f>IF(ISBLANK(A229),"",'2018'!G228-E229+F229)</f>
         <v/>
       </c>
       <c r="H229" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G230" s="3" t="str">
         <f>IF(ISBLANK(A230),"",'2018'!G229-E230+F230)</f>
         <v/>
       </c>
       <c r="H230" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G231" s="3" t="str">
         <f>IF(ISBLANK(A231),"",'2018'!G230-E231+F231)</f>
         <v/>
       </c>
       <c r="H231" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G232" s="3" t="str">
         <f>IF(ISBLANK(A232),"",'2018'!G231-E232+F232)</f>
         <v/>
       </c>
       <c r="H232" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G233" s="3" t="str">
         <f>IF(ISBLANK(A233),"",'2018'!G232-E233+F233)</f>
         <v/>
       </c>
       <c r="H233" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G234" s="3" t="str">
         <f>IF(ISBLANK(A234),"",'2018'!G233-E234+F234)</f>
         <v/>
       </c>
       <c r="H234" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G235" s="3" t="str">
         <f>IF(ISBLANK(A235),"",'2018'!G234-E235+F235)</f>
         <v/>
       </c>
       <c r="H235" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G236" s="3" t="str">
         <f>IF(ISBLANK(A236),"",'2018'!G235-E236+F236)</f>
         <v/>
       </c>
       <c r="H236" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G237" s="3" t="str">
         <f>IF(ISBLANK(A237),"",'2018'!G236-E237+F237)</f>
         <v/>
       </c>
       <c r="H237" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G238" s="3" t="str">
         <f>IF(ISBLANK(A238),"",'2018'!G237-E238+F238)</f>
         <v/>
       </c>
       <c r="H238" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G239" s="3" t="str">
         <f>IF(ISBLANK(A239),"",'2018'!G238-E239+F239)</f>
         <v/>
       </c>
       <c r="H239" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G240" s="3" t="str">
         <f>IF(ISBLANK(A240),"",'2018'!G239-E240+F240)</f>
         <v/>
       </c>
       <c r="H240" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G241" s="3" t="str">
         <f>IF(ISBLANK(A241),"",'2018'!G240-E241+F241)</f>
         <v/>
       </c>
       <c r="H241" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G242" s="3" t="str">
         <f>IF(ISBLANK(A242),"",'2018'!G241-E242+F242)</f>
         <v/>
       </c>
       <c r="H242" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G243" s="3" t="str">
         <f>IF(ISBLANK(A243),"",'2018'!G242-E243+F243)</f>
         <v/>
       </c>
       <c r="H243" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G244" s="3" t="str">
         <f>IF(ISBLANK(A244),"",'2018'!G243-E244+F244)</f>
         <v/>
       </c>
       <c r="H244" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G245" s="3" t="str">
         <f>IF(ISBLANK(A245),"",'2018'!G244-E245+F245)</f>
         <v/>
       </c>
       <c r="H245" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G246" s="3" t="str">
         <f>IF(ISBLANK(A246),"",'2018'!G245-E246+F246)</f>
         <v/>
       </c>
       <c r="H246" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G247" s="3" t="str">
         <f>IF(ISBLANK(A247),"",'2018'!G246-E247+F247)</f>
         <v/>
       </c>
       <c r="H247" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G248" s="3" t="str">
         <f>IF(ISBLANK(A248),"",'2018'!G247-E248+F248)</f>
         <v/>
       </c>
       <c r="H248" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G249" s="3" t="str">
         <f>IF(ISBLANK(A249),"",'2018'!G248-E249+F249)</f>
         <v/>
       </c>
       <c r="H249" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G250" s="3" t="str">
         <f>IF(ISBLANK(A250),"",'2018'!G249-E250+F250)</f>
         <v/>
       </c>
       <c r="H250" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G251" s="3" t="str">
         <f>IF(ISBLANK(A251),"",'2018'!G250-E251+F251)</f>
         <v/>
       </c>
       <c r="H251" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G252" s="3" t="str">
         <f>IF(ISBLANK(A252),"",'2018'!G251-E252+F252)</f>
         <v/>
       </c>
       <c r="H252" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G253" s="3" t="str">
         <f>IF(ISBLANK(A253),"",'2018'!G252-E253+F253)</f>
         <v/>
       </c>
       <c r="H253" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G254" s="3" t="str">
         <f>IF(ISBLANK(A254),"",'2018'!G253-E254+F254)</f>
         <v/>
       </c>
       <c r="H254" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G255" s="3" t="str">
         <f>IF(ISBLANK(A255),"",'2018'!G254-E255+F255)</f>
         <v/>
       </c>
       <c r="H255" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G256" s="3"/>
-      <c r="H256" s="3"/>
-    </row>
-    <row r="257" spans="7:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G256" s="3" t="str">
+        <f>IF(ISBLANK(A256),"",'2018'!G255-E256+F256)</f>
+        <v/>
+      </c>
+      <c r="H256" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
     </row>
-    <row r="258" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
     </row>
-    <row r="259" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
     </row>
-    <row r="260" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
     </row>
-    <row r="261" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
     </row>
-    <row r="262" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
     </row>
-    <row r="263" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
     </row>
-    <row r="264" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
     </row>
-    <row r="265" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
     </row>
-    <row r="266" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
     </row>
-    <row r="267" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
     </row>
-    <row r="268" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
     </row>
-    <row r="269" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
     </row>
-    <row r="270" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
     </row>
-    <row r="271" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
     </row>
-    <row r="272" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
     </row>
-    <row r="273" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
     </row>
-    <row r="274" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
     </row>
-    <row r="275" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
     </row>
-    <row r="276" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
     </row>
-    <row r="277" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
     </row>
-    <row r="278" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
     </row>
-    <row r="279" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
     </row>
-    <row r="280" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
     </row>
-    <row r="281" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
     </row>
-    <row r="282" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
     </row>
-    <row r="283" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
     </row>
-    <row r="284" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
     </row>
-    <row r="285" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
     </row>
-    <row r="286" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
     </row>
-    <row r="287" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
     </row>
-    <row r="288" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
     </row>
-    <row r="289" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
     </row>
-    <row r="290" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
     </row>
-    <row r="291" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
     </row>
-    <row r="292" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
     </row>
-    <row r="293" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
     </row>
-    <row r="294" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
     </row>
-    <row r="295" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
     </row>
-    <row r="296" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
     </row>
-    <row r="297" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
     </row>
-    <row r="298" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
     </row>
-    <row r="299" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
     </row>
-    <row r="300" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
     </row>
-    <row r="301" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
     </row>
-    <row r="302" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
     </row>
-    <row r="303" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
     </row>
-    <row r="304" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
     </row>
-    <row r="305" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
     </row>
-    <row r="306" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
     </row>
-    <row r="307" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
     </row>
-    <row r="308" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
     </row>
-    <row r="309" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
     </row>
-    <row r="310" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
     </row>
-    <row r="311" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
     </row>
-    <row r="312" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
     </row>
-    <row r="313" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
     </row>
-    <row r="314" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
     </row>
-    <row r="315" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
     </row>
-    <row r="316" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
     </row>
-    <row r="317" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
     </row>
-    <row r="318" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
     </row>
-    <row r="319" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
     </row>
-    <row r="320" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
     </row>
-    <row r="321" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
     </row>
-    <row r="322" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G322" s="3"/>
       <c r="H322" s="3"/>
     </row>
-    <row r="323" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
     </row>
-    <row r="324" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G324" s="3"/>
       <c r="H324" s="3"/>
     </row>
-    <row r="325" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
     </row>
-    <row r="326" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G326" s="3"/>
       <c r="H326" s="3"/>
     </row>
-    <row r="327" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
     </row>
-    <row r="328" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G328" s="3"/>
       <c r="H328" s="3"/>
     </row>
-    <row r="329" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
     </row>
-    <row r="330" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
     </row>
-    <row r="331" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
     </row>
-    <row r="332" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G332" s="3"/>
       <c r="H332" s="3"/>
     </row>
-    <row r="333" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
     </row>
-    <row r="334" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
     </row>
-    <row r="335" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
     </row>
-    <row r="336" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
     </row>
-    <row r="337" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
     </row>
-    <row r="338" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
     </row>
-    <row r="339" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
     </row>
-    <row r="340" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
     </row>
-    <row r="341" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
     </row>
-    <row r="342" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
     </row>
-    <row r="343" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
     </row>
-    <row r="344" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
     </row>
-    <row r="345" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
     </row>
-    <row r="346" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
     </row>
-    <row r="347" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
     </row>
-    <row r="348" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
     </row>
-    <row r="349" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
     </row>
-    <row r="350" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
     </row>
-    <row r="351" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
     </row>
-    <row r="352" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
     </row>
-    <row r="353" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
     </row>
-    <row r="354" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
     </row>
-    <row r="355" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
     </row>
-    <row r="356" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
     </row>
-    <row r="357" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
     </row>
-    <row r="358" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
     </row>
-    <row r="359" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
     </row>
-    <row r="360" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
     </row>
-    <row r="361" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
     </row>
-    <row r="362" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
     </row>
-    <row r="363" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
     </row>
-    <row r="364" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
     </row>
-    <row r="365" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
     </row>
-    <row r="366" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
     </row>
-    <row r="367" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
     </row>
-    <row r="368" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
     </row>
-    <row r="369" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
     </row>
-    <row r="370" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
     </row>
-    <row r="371" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
     </row>
-    <row r="372" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
     </row>
-    <row r="373" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
     </row>
-    <row r="374" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
     </row>
-    <row r="375" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
     </row>
-    <row r="376" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
     </row>
-    <row r="377" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
     </row>
-    <row r="378" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
     </row>
-    <row r="379" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
     </row>
-    <row r="380" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
     </row>
-    <row r="381" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
     </row>
-    <row r="382" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
     </row>
-    <row r="383" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G383" s="3"/>
       <c r="H383" s="3"/>
     </row>
-    <row r="384" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
     </row>
-    <row r="385" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
     </row>
-    <row r="386" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
     </row>
-    <row r="387" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
     </row>
-    <row r="388" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
     </row>
-    <row r="389" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
     </row>
-    <row r="390" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
     </row>
-    <row r="391" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
     </row>
-    <row r="392" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
     </row>
-    <row r="393" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
     </row>
-    <row r="394" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
     </row>
-    <row r="395" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
     </row>
-    <row r="396" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
     </row>
-    <row r="397" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
     </row>
-    <row r="398" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
     </row>
-    <row r="399" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
     </row>
-    <row r="400" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
     </row>
-    <row r="401" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
     </row>
-    <row r="402" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
     </row>
-    <row r="403" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
     </row>
-    <row r="404" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
     </row>
-    <row r="405" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
     </row>
-    <row r="406" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
     </row>
-    <row r="407" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
     </row>
-    <row r="408" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
     </row>
-    <row r="409" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
     </row>
-    <row r="410" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
     </row>
-    <row r="411" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
     </row>
-    <row r="412" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="412" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
     </row>
-    <row r="413" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
     </row>
-    <row r="414" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
     </row>
-    <row r="415" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
     </row>
-    <row r="416" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
     </row>
-    <row r="417" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
     </row>
-    <row r="418" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
     </row>
-    <row r="419" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
     </row>
-    <row r="420" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
     </row>
-    <row r="421" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
     </row>
-    <row r="422" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
     </row>
-    <row r="423" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
     </row>
-    <row r="424" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
     </row>
-    <row r="425" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
     </row>
-    <row r="426" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
     </row>
-    <row r="427" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
     </row>
-    <row r="428" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
     </row>
-    <row r="429" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
     </row>
-    <row r="430" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
     </row>
-    <row r="431" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
     </row>
-    <row r="432" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G432" s="3"/>
       <c r="H432" s="3"/>
     </row>
-    <row r="433" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
     </row>
-    <row r="434" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="434" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G434" s="3"/>
       <c r="H434" s="3"/>
     </row>
-    <row r="435" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="435" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
     </row>
-    <row r="436" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="436" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G436" s="3"/>
       <c r="H436" s="3"/>
     </row>
-    <row r="437" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="437" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
     </row>
-    <row r="438" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G438" s="3"/>
       <c r="H438" s="3"/>
     </row>
-    <row r="439" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="439" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
     </row>
-    <row r="440" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G440" s="3"/>
       <c r="H440" s="3"/>
     </row>
-    <row r="441" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="441" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
     </row>
-    <row r="442" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="442" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
     </row>
-    <row r="443" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
     </row>
-    <row r="444" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="444" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G444" s="3"/>
       <c r="H444" s="3"/>
     </row>
-    <row r="445" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="445" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
     </row>
-    <row r="446" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="446" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
     </row>
-    <row r="447" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
     </row>
-    <row r="448" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G448" s="3"/>
       <c r="H448" s="3"/>
     </row>
-    <row r="449" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G449" s="3"/>
       <c r="H449" s="3"/>
     </row>
-    <row r="450" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="450" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G450" s="3"/>
       <c r="H450" s="3"/>
     </row>
-    <row r="451" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="451" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
     </row>
-    <row r="452" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="452" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G452" s="3"/>
       <c r="H452" s="3"/>
     </row>
-    <row r="453" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="453" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G453" s="3"/>
       <c r="H453" s="3"/>
     </row>
-    <row r="454" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="454" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G454" s="3"/>
       <c r="H454" s="3"/>
     </row>
-    <row r="455" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G455" s="3"/>
       <c r="H455" s="3"/>
     </row>
-    <row r="456" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="456" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G456" s="3"/>
       <c r="H456" s="3"/>
     </row>
-    <row r="457" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="457" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G457" s="3"/>
       <c r="H457" s="3"/>
     </row>
-    <row r="458" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="458" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G458" s="3"/>
       <c r="H458" s="3"/>
     </row>
-    <row r="459" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="459" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G459" s="3"/>
       <c r="H459" s="3"/>
     </row>
-    <row r="460" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="460" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G460" s="3"/>
       <c r="H460" s="3"/>
     </row>
-    <row r="461" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G461" s="3"/>
       <c r="H461" s="3"/>
     </row>
-    <row r="462" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G462" s="3"/>
       <c r="H462" s="3"/>
     </row>
-    <row r="463" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="463" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G463" s="3"/>
       <c r="H463" s="3"/>
     </row>
-    <row r="464" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="464" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G464" s="3"/>
       <c r="H464" s="3"/>
     </row>
-    <row r="465" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="465" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G465" s="3"/>
       <c r="H465" s="3"/>
     </row>
-    <row r="466" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="466" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G466" s="3"/>
       <c r="H466" s="3"/>
     </row>
-    <row r="467" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G467" s="3"/>
       <c r="H467" s="3"/>
     </row>
-    <row r="468" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G468" s="3"/>
       <c r="H468" s="3"/>
     </row>
-    <row r="469" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G469" s="3"/>
       <c r="H469" s="3"/>
     </row>
-    <row r="470" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G470" s="3"/>
       <c r="H470" s="3"/>
     </row>
-    <row r="471" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G471" s="3"/>
       <c r="H471" s="3"/>
     </row>
-    <row r="472" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G472" s="3"/>
       <c r="H472" s="3"/>
     </row>
-    <row r="473" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G473" s="3"/>
       <c r="H473" s="3"/>
     </row>
-    <row r="474" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G474" s="3"/>
       <c r="H474" s="3"/>
     </row>
-    <row r="475" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G475" s="3"/>
       <c r="H475" s="3"/>
     </row>
-    <row r="476" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G476" s="3"/>
       <c r="H476" s="3"/>
     </row>
-    <row r="477" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G477" s="3"/>
       <c r="H477" s="3"/>
     </row>
-    <row r="478" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G478" s="3"/>
       <c r="H478" s="3"/>
     </row>
-    <row r="479" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G479" s="3"/>
       <c r="H479" s="3"/>
     </row>
-    <row r="480" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G480" s="3"/>
       <c r="H480" s="3"/>
     </row>
-    <row r="481" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="481" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G481" s="3"/>
       <c r="H481" s="3"/>
     </row>
-    <row r="482" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="482" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G482" s="3"/>
       <c r="H482" s="3"/>
     </row>
-    <row r="483" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="483" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G483" s="3"/>
       <c r="H483" s="3"/>
     </row>
-    <row r="484" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="484" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G484" s="3"/>
       <c r="H484" s="3"/>
     </row>
-    <row r="485" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="485" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G485" s="3"/>
       <c r="H485" s="3"/>
     </row>
-    <row r="486" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="486" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G486" s="3"/>
       <c r="H486" s="3"/>
     </row>
-    <row r="487" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="487" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G487" s="3"/>
       <c r="H487" s="3"/>
     </row>
-    <row r="488" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="488" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G488" s="3"/>
       <c r="H488" s="3"/>
     </row>
-    <row r="489" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="489" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G489" s="3"/>
       <c r="H489" s="3"/>
     </row>
-    <row r="490" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="490" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G490" s="3"/>
       <c r="H490" s="3"/>
     </row>
-    <row r="491" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="491" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G491" s="3"/>
       <c r="H491" s="3"/>
     </row>
-    <row r="492" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="492" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G492" s="3"/>
       <c r="H492" s="3"/>
     </row>
-    <row r="493" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="493" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G493" s="3"/>
       <c r="H493" s="3"/>
     </row>
-    <row r="494" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="494" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G494" s="3"/>
       <c r="H494" s="3"/>
     </row>
-    <row r="495" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="495" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G495" s="3"/>
       <c r="H495" s="3"/>
     </row>
-    <row r="496" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="496" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G496" s="3"/>
       <c r="H496" s="3"/>
     </row>
-    <row r="497" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G497" s="3"/>
       <c r="H497" s="3"/>
     </row>
-    <row r="498" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="498" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G498" s="3"/>
       <c r="H498" s="3"/>
     </row>
-    <row r="499" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="499" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G499" s="3"/>
       <c r="H499" s="3"/>
     </row>
-    <row r="500" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G500" s="3"/>
       <c r="H500" s="3"/>
     </row>
-    <row r="501" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="501" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G501" s="3"/>
       <c r="H501" s="3"/>
     </row>
-    <row r="502" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="502" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G502" s="3"/>
       <c r="H502" s="3"/>
     </row>
-    <row r="503" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="503" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G503" s="3"/>
       <c r="H503" s="3"/>
     </row>
-    <row r="504" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="504" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G504" s="3"/>
       <c r="H504" s="3"/>
     </row>
-    <row r="505" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="505" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G505" s="3"/>
       <c r="H505" s="3"/>
     </row>
-    <row r="506" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="506" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G506" s="3"/>
       <c r="H506" s="3"/>
     </row>
-    <row r="507" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="507" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G507" s="3"/>
       <c r="H507" s="3"/>
     </row>
-    <row r="508" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="508" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G508" s="3"/>
       <c r="H508" s="3"/>
     </row>
-    <row r="509" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="509" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G509" s="3"/>
       <c r="H509" s="3"/>
     </row>
-    <row r="510" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="510" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G510" s="3"/>
       <c r="H510" s="3"/>
     </row>
-    <row r="511" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="511" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G511" s="3"/>
       <c r="H511" s="3"/>
     </row>
-    <row r="512" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="512" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G512" s="3"/>
       <c r="H512" s="3"/>
     </row>
-    <row r="513" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="513" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G513" s="3"/>
       <c r="H513" s="3"/>
     </row>
-    <row r="514" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="514" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G514" s="3"/>
       <c r="H514" s="3"/>
     </row>
-    <row r="515" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="515" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G515" s="3"/>
       <c r="H515" s="3"/>
     </row>
-    <row r="516" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="516" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G516" s="3"/>
       <c r="H516" s="3"/>
     </row>
-    <row r="517" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="517" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G517" s="3"/>
       <c r="H517" s="3"/>
     </row>
-    <row r="518" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="518" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G518" s="3"/>
       <c r="H518" s="3"/>
     </row>
-    <row r="519" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="519" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G519" s="3"/>
       <c r="H519" s="3"/>
     </row>
-    <row r="520" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="520" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G520" s="3"/>
       <c r="H520" s="3"/>
     </row>
-    <row r="521" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="521" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G521" s="3"/>
       <c r="H521" s="3"/>
     </row>
-    <row r="522" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="522" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G522" s="3"/>
       <c r="H522" s="3"/>
     </row>
-    <row r="523" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="523" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G523" s="3"/>
       <c r="H523" s="3"/>
     </row>
-    <row r="524" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="524" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G524" s="3"/>
       <c r="H524" s="3"/>
     </row>
-    <row r="525" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="525" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G525" s="3"/>
       <c r="H525" s="3"/>
     </row>
-    <row r="526" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="526" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G526" s="3"/>
       <c r="H526" s="3"/>
     </row>
-    <row r="527" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="527" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G527" s="3"/>
       <c r="H527" s="3"/>
     </row>
-    <row r="528" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="528" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G528" s="3"/>
       <c r="H528" s="3"/>
     </row>
-    <row r="529" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="529" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G529" s="3"/>
       <c r="H529" s="3"/>
     </row>
-    <row r="530" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="530" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G530" s="3"/>
       <c r="H530" s="3"/>
     </row>
-    <row r="531" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="531" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G531" s="3"/>
       <c r="H531" s="3"/>
     </row>
-    <row r="532" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="532" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G532" s="3"/>
       <c r="H532" s="3"/>
     </row>
-    <row r="533" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="533" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G533" s="3"/>
       <c r="H533" s="3"/>
     </row>
-    <row r="534" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="534" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G534" s="3"/>
       <c r="H534" s="3"/>
     </row>
-    <row r="535" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="535" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G535" s="3"/>
       <c r="H535" s="3"/>
     </row>
-    <row r="536" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="536" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G536" s="3"/>
       <c r="H536" s="3"/>
     </row>
-    <row r="537" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="537" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G537" s="3"/>
       <c r="H537" s="3"/>
     </row>
-    <row r="538" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="538" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G538" s="3"/>
       <c r="H538" s="3"/>
     </row>
-    <row r="539" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="539" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G539" s="3"/>
       <c r="H539" s="3"/>
     </row>
-    <row r="540" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="540" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G540" s="3"/>
       <c r="H540" s="3"/>
     </row>
-    <row r="541" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="541" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G541" s="3"/>
       <c r="H541" s="3"/>
     </row>
-    <row r="542" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="542" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G542" s="3"/>
       <c r="H542" s="3"/>
     </row>
-    <row r="543" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="543" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G543" s="3"/>
       <c r="H543" s="3"/>
     </row>
-    <row r="544" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="544" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G544" s="3"/>
       <c r="H544" s="3"/>
     </row>
-    <row r="545" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="545" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G545" s="3"/>
       <c r="H545" s="3"/>
     </row>
-    <row r="546" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="546" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G546" s="3"/>
       <c r="H546" s="3"/>
     </row>
-    <row r="547" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="547" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G547" s="3"/>
       <c r="H547" s="3"/>
     </row>
-    <row r="548" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="548" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G548" s="3"/>
       <c r="H548" s="3"/>
     </row>
-    <row r="549" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="549" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G549" s="3"/>
       <c r="H549" s="3"/>
     </row>
-    <row r="550" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="550" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G550" s="3"/>
       <c r="H550" s="3"/>
     </row>
-    <row r="551" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="551" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G551" s="3"/>
       <c r="H551" s="3"/>
     </row>
-    <row r="552" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="552" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G552" s="3"/>
       <c r="H552" s="3"/>
     </row>
-    <row r="553" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="553" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G553" s="3"/>
       <c r="H553" s="3"/>
     </row>
-    <row r="554" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="554" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G554" s="3"/>
       <c r="H554" s="3"/>
     </row>
-    <row r="555" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="555" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G555" s="3"/>
       <c r="H555" s="3"/>
     </row>
-    <row r="556" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="556" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G556" s="3"/>
       <c r="H556" s="3"/>
     </row>
-    <row r="557" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="557" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G557" s="3"/>
       <c r="H557" s="3"/>
     </row>
-    <row r="558" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="558" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G558" s="3"/>
       <c r="H558" s="3"/>
     </row>
-    <row r="559" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="559" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G559" s="3"/>
       <c r="H559" s="3"/>
     </row>
-    <row r="560" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="560" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G560" s="3"/>
       <c r="H560" s="3"/>
     </row>
-    <row r="561" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="561" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G561" s="3"/>
       <c r="H561" s="3"/>
     </row>
-    <row r="562" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="562" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G562" s="3"/>
       <c r="H562" s="3"/>
     </row>
-    <row r="563" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="563" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G563" s="3"/>
       <c r="H563" s="3"/>
     </row>
-    <row r="564" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="564" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G564" s="3"/>
       <c r="H564" s="3"/>
     </row>
-    <row r="565" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="565" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G565" s="3"/>
       <c r="H565" s="3"/>
     </row>
-    <row r="566" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="566" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G566" s="3"/>
       <c r="H566" s="3"/>
     </row>
-    <row r="567" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="567" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G567" s="3"/>
       <c r="H567" s="3"/>
     </row>
-    <row r="568" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="568" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G568" s="3"/>
       <c r="H568" s="3"/>
     </row>
-    <row r="569" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="569" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G569" s="3"/>
       <c r="H569" s="3"/>
     </row>
-    <row r="570" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="570" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G570" s="3"/>
       <c r="H570" s="3"/>
     </row>
-    <row r="571" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="571" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G571" s="3"/>
       <c r="H571" s="3"/>
     </row>
-    <row r="572" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="572" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G572" s="3"/>
       <c r="H572" s="3"/>
     </row>
-    <row r="573" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="573" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G573" s="3"/>
       <c r="H573" s="3"/>
     </row>
-    <row r="574" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="574" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G574" s="3"/>
       <c r="H574" s="3"/>
     </row>
-    <row r="575" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="575" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G575" s="3"/>
       <c r="H575" s="3"/>
     </row>
-    <row r="576" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="576" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G576" s="3"/>
       <c r="H576" s="3"/>
     </row>
-    <row r="577" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="577" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G577" s="3"/>
       <c r="H577" s="3"/>
     </row>
-    <row r="578" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="578" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G578" s="3"/>
       <c r="H578" s="3"/>
     </row>
-    <row r="579" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="579" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G579" s="3"/>
       <c r="H579" s="3"/>
     </row>
-    <row r="580" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="580" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G580" s="3"/>
       <c r="H580" s="3"/>
     </row>
-    <row r="581" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="581" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G581" s="3"/>
       <c r="H581" s="3"/>
     </row>
-    <row r="582" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="582" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G582" s="3"/>
       <c r="H582" s="3"/>
     </row>
-    <row r="583" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="583" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G583" s="3"/>
       <c r="H583" s="3"/>
     </row>
-    <row r="584" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="584" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G584" s="3"/>
       <c r="H584" s="3"/>
     </row>
-    <row r="585" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="585" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G585" s="3"/>
       <c r="H585" s="3"/>
     </row>
-    <row r="586" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="586" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G586" s="3"/>
       <c r="H586" s="3"/>
     </row>
-    <row r="587" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="587" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G587" s="3"/>
       <c r="H587" s="3"/>
     </row>
-    <row r="588" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="588" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G588" s="3"/>
       <c r="H588" s="3"/>
     </row>
-    <row r="589" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="589" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G589" s="3"/>
       <c r="H589" s="3"/>
     </row>
-    <row r="590" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="590" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G590" s="3"/>
       <c r="H590" s="3"/>
     </row>
-    <row r="591" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="591" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G591" s="3"/>
       <c r="H591" s="3"/>
     </row>
-    <row r="592" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="592" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G592" s="3"/>
       <c r="H592" s="3"/>
     </row>
-    <row r="593" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="593" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G593" s="3"/>
       <c r="H593" s="3"/>
     </row>
-    <row r="594" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="594" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G594" s="3"/>
       <c r="H594" s="3"/>
     </row>
-    <row r="595" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="595" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G595" s="3"/>
       <c r="H595" s="3"/>
     </row>
-    <row r="596" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="596" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G596" s="3"/>
       <c r="H596" s="3"/>
     </row>
-    <row r="597" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="597" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G597" s="3"/>
       <c r="H597" s="3"/>
     </row>
-    <row r="598" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="598" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G598" s="3"/>
       <c r="H598" s="3"/>
     </row>
-    <row r="599" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="599" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G599" s="3"/>
       <c r="H599" s="3"/>
     </row>
-    <row r="600" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="600" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G600" s="3"/>
       <c r="H600" s="3"/>
     </row>
-    <row r="601" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="601" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G601" s="3"/>
       <c r="H601" s="3"/>
     </row>
-    <row r="602" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="602" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G602" s="3"/>
       <c r="H602" s="3"/>
     </row>
-    <row r="603" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="603" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G603" s="3"/>
       <c r="H603" s="3"/>
     </row>
-    <row r="604" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="604" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G604" s="3"/>
       <c r="H604" s="3"/>
     </row>
-    <row r="605" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="605" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G605" s="3"/>
       <c r="H605" s="3"/>
     </row>
-    <row r="606" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="606" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G606" s="3"/>
       <c r="H606" s="3"/>
     </row>
-    <row r="607" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="607" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G607" s="3"/>
       <c r="H607" s="3"/>
     </row>
-    <row r="608" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="608" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G608" s="3"/>
       <c r="H608" s="3"/>
     </row>
-    <row r="609" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="609" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G609" s="3"/>
       <c r="H609" s="3"/>
     </row>
-    <row r="610" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="610" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G610" s="3"/>
       <c r="H610" s="3"/>
     </row>
-    <row r="611" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="611" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G611" s="3"/>
       <c r="H611" s="3"/>
     </row>
-    <row r="612" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="612" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G612" s="3"/>
       <c r="H612" s="3"/>
     </row>
-    <row r="613" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="613" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G613" s="3"/>
       <c r="H613" s="3"/>
     </row>
-    <row r="614" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="614" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G614" s="3"/>
       <c r="H614" s="3"/>
     </row>
-    <row r="615" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="615" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G615" s="3"/>
       <c r="H615" s="3"/>
     </row>
-    <row r="616" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="616" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G616" s="3"/>
       <c r="H616" s="3"/>
     </row>
-    <row r="617" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="617" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G617" s="3"/>
       <c r="H617" s="3"/>
     </row>
-    <row r="618" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="618" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G618" s="3"/>
       <c r="H618" s="3"/>
     </row>
-    <row r="619" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="619" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G619" s="3"/>
       <c r="H619" s="3"/>
     </row>
-    <row r="620" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="620" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G620" s="3"/>
       <c r="H620" s="3"/>
     </row>
-    <row r="621" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="621" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G621" s="3"/>
       <c r="H621" s="3"/>
     </row>
-    <row r="622" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="622" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G622" s="3"/>
       <c r="H622" s="3"/>
     </row>
-    <row r="623" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="623" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G623" s="3"/>
       <c r="H623" s="3"/>
     </row>
-    <row r="624" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="624" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G624" s="3"/>
       <c r="H624" s="3"/>
     </row>
-    <row r="625" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="625" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G625" s="3"/>
       <c r="H625" s="3"/>
     </row>
-    <row r="626" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="626" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G626" s="3"/>
       <c r="H626" s="3"/>
     </row>
-    <row r="627" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="627" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G627" s="3"/>
       <c r="H627" s="3"/>
     </row>
-    <row r="628" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="628" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G628" s="3"/>
       <c r="H628" s="3"/>
     </row>
-    <row r="629" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="629" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G629" s="3"/>
       <c r="H629" s="3"/>
     </row>
-    <row r="630" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="630" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G630" s="3"/>
       <c r="H630" s="3"/>
     </row>
-    <row r="631" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="631" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G631" s="3"/>
       <c r="H631" s="3"/>
     </row>
-    <row r="632" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="632" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G632" s="3"/>
       <c r="H632" s="3"/>
     </row>
-    <row r="633" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="633" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G633" s="3"/>
       <c r="H633" s="3"/>
     </row>
-    <row r="634" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="634" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G634" s="3"/>
       <c r="H634" s="3"/>
     </row>
-    <row r="635" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="635" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G635" s="3"/>
       <c r="H635" s="3"/>
     </row>
-    <row r="636" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="636" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G636" s="3"/>
       <c r="H636" s="3"/>
     </row>
-    <row r="637" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="637" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G637" s="3"/>
       <c r="H637" s="3"/>
     </row>
-    <row r="638" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="638" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G638" s="3"/>
       <c r="H638" s="3"/>
     </row>
-    <row r="639" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="639" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G639" s="3"/>
       <c r="H639" s="3"/>
     </row>
-    <row r="640" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="640" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G640" s="3"/>
       <c r="H640" s="3"/>
     </row>
-    <row r="641" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="641" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G641" s="3"/>
       <c r="H641" s="3"/>
     </row>
-    <row r="642" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="642" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G642" s="3"/>
       <c r="H642" s="3"/>
     </row>
-    <row r="643" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="643" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G643" s="3"/>
       <c r="H643" s="3"/>
     </row>
-    <row r="644" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="644" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G644" s="3"/>
       <c r="H644" s="3"/>
     </row>
-    <row r="645" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="645" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G645" s="3"/>
       <c r="H645" s="3"/>
     </row>
-    <row r="646" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="646" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G646" s="3"/>
       <c r="H646" s="3"/>
     </row>
-    <row r="647" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="647" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G647" s="3"/>
       <c r="H647" s="3"/>
     </row>
-    <row r="648" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="648" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G648" s="3"/>
       <c r="H648" s="3"/>
     </row>
-    <row r="649" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="649" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G649" s="3"/>
       <c r="H649" s="3"/>
     </row>
-    <row r="650" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="650" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G650" s="3"/>
       <c r="H650" s="3"/>
     </row>
-    <row r="651" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="651" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G651" s="3"/>
       <c r="H651" s="3"/>
     </row>
-    <row r="652" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="652" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G652" s="3"/>
       <c r="H652" s="3"/>
     </row>
-    <row r="653" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="653" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G653" s="3"/>
       <c r="H653" s="3"/>
     </row>
-    <row r="654" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="654" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G654" s="3"/>
       <c r="H654" s="3"/>
     </row>
-    <row r="655" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="655" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G655" s="3"/>
       <c r="H655" s="3"/>
     </row>
-    <row r="656" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="656" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G656" s="3"/>
       <c r="H656" s="3"/>
     </row>
-    <row r="657" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="657" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G657" s="3"/>
       <c r="H657" s="3"/>
     </row>
-    <row r="658" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="658" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G658" s="3"/>
       <c r="H658" s="3"/>
     </row>
-    <row r="659" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="659" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G659" s="3"/>
       <c r="H659" s="3"/>
     </row>
-    <row r="660" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="660" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G660" s="3"/>
       <c r="H660" s="3"/>
     </row>
-    <row r="661" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="661" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G661" s="3"/>
       <c r="H661" s="3"/>
     </row>
-    <row r="662" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="662" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G662" s="3"/>
       <c r="H662" s="3"/>
     </row>
-    <row r="663" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="663" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G663" s="3"/>
       <c r="H663" s="3"/>
     </row>
-    <row r="664" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="664" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G664" s="3"/>
       <c r="H664" s="3"/>
     </row>
-    <row r="665" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="665" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G665" s="3"/>
       <c r="H665" s="3"/>
     </row>
-    <row r="666" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="666" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G666" s="3"/>
       <c r="H666" s="3"/>
     </row>
-    <row r="667" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="667" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G667" s="3"/>
       <c r="H667" s="3"/>
     </row>
-    <row r="668" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="668" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G668" s="3"/>
       <c r="H668" s="3"/>
     </row>
-    <row r="669" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="669" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G669" s="3"/>
       <c r="H669" s="3"/>
     </row>
-    <row r="670" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="670" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G670" s="3"/>
       <c r="H670" s="3"/>
     </row>
-    <row r="671" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="671" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G671" s="3"/>
       <c r="H671" s="3"/>
     </row>
-    <row r="672" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="672" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G672" s="3"/>
       <c r="H672" s="3"/>
     </row>
-    <row r="673" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="673" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G673" s="3"/>
       <c r="H673" s="3"/>
     </row>
-    <row r="674" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="674" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G674" s="3"/>
       <c r="H674" s="3"/>
     </row>
-    <row r="675" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="675" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G675" s="3"/>
       <c r="H675" s="3"/>
     </row>
-    <row r="676" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="676" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G676" s="3"/>
       <c r="H676" s="3"/>
     </row>
-    <row r="677" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="677" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G677" s="3"/>
       <c r="H677" s="3"/>
     </row>
-    <row r="678" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="678" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G678" s="3"/>
       <c r="H678" s="3"/>
     </row>
-    <row r="679" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="679" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G679" s="3"/>
       <c r="H679" s="3"/>
     </row>
-    <row r="680" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="680" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G680" s="3"/>
       <c r="H680" s="3"/>
     </row>
-    <row r="681" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="681" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G681" s="3"/>
       <c r="H681" s="3"/>
     </row>
-    <row r="682" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="682" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G682" s="3"/>
       <c r="H682" s="3"/>
     </row>
-    <row r="683" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="683" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G683" s="3"/>
       <c r="H683" s="3"/>
     </row>
-    <row r="684" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="684" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G684" s="3"/>
       <c r="H684" s="3"/>
     </row>
-    <row r="685" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="685" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G685" s="3"/>
       <c r="H685" s="3"/>
     </row>
-    <row r="686" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="686" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G686" s="3"/>
       <c r="H686" s="3"/>
     </row>
-    <row r="687" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="687" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G687" s="3"/>
       <c r="H687" s="3"/>
     </row>
-    <row r="688" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="688" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G688" s="3"/>
       <c r="H688" s="3"/>
     </row>
-    <row r="689" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="689" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G689" s="3"/>
       <c r="H689" s="3"/>
     </row>
-    <row r="690" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="690" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G690" s="3"/>
       <c r="H690" s="3"/>
     </row>
-    <row r="691" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="691" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G691" s="3"/>
       <c r="H691" s="3"/>
     </row>
-    <row r="692" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="692" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G692" s="3"/>
       <c r="H692" s="3"/>
     </row>
-    <row r="693" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="693" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G693" s="3"/>
       <c r="H693" s="3"/>
     </row>
-    <row r="694" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="694" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G694" s="3"/>
       <c r="H694" s="3"/>
     </row>
-    <row r="695" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="695" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G695" s="3"/>
       <c r="H695" s="3"/>
     </row>
-    <row r="696" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="696" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G696" s="3"/>
       <c r="H696" s="3"/>
     </row>
-    <row r="697" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="697" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G697" s="3"/>
       <c r="H697" s="3"/>
     </row>
-    <row r="698" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="698" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G698" s="3"/>
       <c r="H698" s="3"/>
     </row>
-    <row r="699" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="699" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G699" s="3"/>
       <c r="H699" s="3"/>
     </row>
-    <row r="700" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="700" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G700" s="3"/>
       <c r="H700" s="3"/>
     </row>
-    <row r="701" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="701" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G701" s="3"/>
       <c r="H701" s="3"/>
     </row>
-    <row r="702" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="702" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G702" s="3"/>
       <c r="H702" s="3"/>
     </row>
-    <row r="703" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="703" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G703" s="3"/>
       <c r="H703" s="3"/>
     </row>
-    <row r="704" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="704" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G704" s="3"/>
       <c r="H704" s="3"/>
     </row>
-    <row r="705" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="705" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G705" s="3"/>
       <c r="H705" s="3"/>
     </row>
-    <row r="706" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="706" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G706" s="3"/>
       <c r="H706" s="3"/>
     </row>
-    <row r="707" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="707" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G707" s="3"/>
       <c r="H707" s="3"/>
     </row>
-    <row r="708" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="708" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G708" s="3"/>
       <c r="H708" s="3"/>
     </row>
-    <row r="709" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="709" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G709" s="3"/>
       <c r="H709" s="3"/>
     </row>
-    <row r="710" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="710" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G710" s="3"/>
       <c r="H710" s="3"/>
     </row>
-    <row r="711" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="711" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G711" s="3"/>
       <c r="H711" s="3"/>
     </row>
-    <row r="712" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="712" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G712" s="3"/>
       <c r="H712" s="3"/>
     </row>
-    <row r="713" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="713" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G713" s="3"/>
       <c r="H713" s="3"/>
     </row>
-    <row r="714" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="714" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G714" s="3"/>
       <c r="H714" s="3"/>
     </row>
-    <row r="715" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="715" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G715" s="3"/>
       <c r="H715" s="3"/>
     </row>
-    <row r="716" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="716" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G716" s="3"/>
       <c r="H716" s="3"/>
     </row>
-    <row r="717" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="717" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G717" s="3"/>
       <c r="H717" s="3"/>
     </row>
-    <row r="718" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="718" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G718" s="3"/>
       <c r="H718" s="3"/>
     </row>
-    <row r="719" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="719" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G719" s="3"/>
       <c r="H719" s="3"/>
     </row>
-    <row r="720" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="720" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G720" s="3"/>
       <c r="H720" s="3"/>
     </row>
-    <row r="721" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="721" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G721" s="3"/>
       <c r="H721" s="3"/>
     </row>
-    <row r="722" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="722" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G722" s="3"/>
       <c r="H722" s="3"/>
     </row>
-    <row r="723" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="723" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G723" s="3"/>
       <c r="H723" s="3"/>
     </row>
-    <row r="724" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="724" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G724" s="3"/>
       <c r="H724" s="3"/>
     </row>
-    <row r="725" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="725" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G725" s="3"/>
       <c r="H725" s="3"/>
     </row>
-    <row r="726" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="726" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G726" s="3"/>
       <c r="H726" s="3"/>
     </row>
-    <row r="727" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="727" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G727" s="3"/>
       <c r="H727" s="3"/>
     </row>
-    <row r="728" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="728" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G728" s="3"/>
       <c r="H728" s="3"/>
     </row>
-    <row r="729" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="729" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G729" s="3"/>
       <c r="H729" s="3"/>
     </row>
-    <row r="730" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="730" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G730" s="3"/>
       <c r="H730" s="3"/>
     </row>
-    <row r="731" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="731" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G731" s="3"/>
       <c r="H731" s="3"/>
     </row>
-    <row r="732" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="732" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G732" s="3"/>
       <c r="H732" s="3"/>
     </row>
-    <row r="733" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="733" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G733" s="3"/>
       <c r="H733" s="3"/>
     </row>
-    <row r="734" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="734" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G734" s="3"/>
       <c r="H734" s="3"/>
     </row>
-    <row r="735" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="735" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G735" s="3"/>
       <c r="H735" s="3"/>
     </row>
-    <row r="736" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="736" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G736" s="3"/>
       <c r="H736" s="3"/>
     </row>
-    <row r="737" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="737" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G737" s="3"/>
       <c r="H737" s="3"/>
     </row>
-    <row r="738" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="738" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G738" s="3"/>
       <c r="H738" s="3"/>
     </row>
-    <row r="739" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="739" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G739" s="3"/>
       <c r="H739" s="3"/>
     </row>
-    <row r="740" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="740" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G740" s="3"/>
       <c r="H740" s="3"/>
     </row>
-    <row r="741" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="741" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G741" s="3"/>
       <c r="H741" s="3"/>
     </row>
-    <row r="742" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="742" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G742" s="3"/>
       <c r="H742" s="3"/>
     </row>
-    <row r="743" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="743" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G743" s="3"/>
       <c r="H743" s="3"/>
     </row>
-    <row r="744" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="744" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G744" s="3"/>
       <c r="H744" s="3"/>
     </row>
-    <row r="745" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="745" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G745" s="3"/>
       <c r="H745" s="3"/>
     </row>
-    <row r="746" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="746" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G746" s="3"/>
       <c r="H746" s="3"/>
     </row>
-    <row r="747" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="747" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G747" s="3"/>
       <c r="H747" s="3"/>
     </row>
-    <row r="748" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="748" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G748" s="3"/>
       <c r="H748" s="3"/>
     </row>
-    <row r="749" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="749" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G749" s="3"/>
       <c r="H749" s="3"/>
     </row>
-    <row r="750" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="750" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G750" s="3"/>
       <c r="H750" s="3"/>
     </row>
-    <row r="751" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="751" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G751" s="3"/>
       <c r="H751" s="3"/>
     </row>
-    <row r="752" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="752" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G752" s="3"/>
       <c r="H752" s="3"/>
     </row>
-    <row r="753" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="753" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G753" s="3"/>
       <c r="H753" s="3"/>
     </row>
-    <row r="754" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="754" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G754" s="3"/>
       <c r="H754" s="3"/>
     </row>
-    <row r="755" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="755" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G755" s="3"/>
       <c r="H755" s="3"/>
     </row>
-    <row r="756" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="756" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G756" s="3"/>
       <c r="H756" s="3"/>
     </row>
-    <row r="757" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="757" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G757" s="3"/>
       <c r="H757" s="3"/>
     </row>
-    <row r="758" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="758" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G758" s="3"/>
       <c r="H758" s="3"/>
     </row>
-    <row r="759" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="759" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G759" s="3"/>
       <c r="H759" s="3"/>
     </row>
-    <row r="760" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="760" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G760" s="3"/>
       <c r="H760" s="3"/>
     </row>
-    <row r="761" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="761" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G761" s="3"/>
       <c r="H761" s="3"/>
     </row>
-    <row r="762" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="762" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G762" s="3"/>
       <c r="H762" s="3"/>
     </row>
-    <row r="763" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="763" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G763" s="3"/>
       <c r="H763" s="3"/>
     </row>
-    <row r="764" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="764" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G764" s="3"/>
       <c r="H764" s="3"/>
     </row>
-    <row r="765" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="765" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G765" s="3"/>
       <c r="H765" s="3"/>
     </row>
-    <row r="766" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="766" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G766" s="3"/>
       <c r="H766" s="3"/>
     </row>
-    <row r="767" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="767" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G767" s="3"/>
       <c r="H767" s="3"/>
     </row>
-    <row r="768" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="768" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G768" s="3"/>
       <c r="H768" s="3"/>
     </row>
-    <row r="769" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="769" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G769" s="3"/>
       <c r="H769" s="3"/>
     </row>
-    <row r="770" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="770" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G770" s="3"/>
       <c r="H770" s="3"/>
     </row>
-    <row r="771" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="771" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G771" s="3"/>
       <c r="H771" s="3"/>
     </row>
-    <row r="772" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="772" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G772" s="3"/>
       <c r="H772" s="3"/>
     </row>
-    <row r="773" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="773" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G773" s="3"/>
       <c r="H773" s="3"/>
     </row>
-    <row r="774" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="774" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G774" s="3"/>
       <c r="H774" s="3"/>
     </row>
-    <row r="775" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="775" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G775" s="3"/>
       <c r="H775" s="3"/>
     </row>
-    <row r="776" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="776" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G776" s="3"/>
       <c r="H776" s="3"/>
     </row>
-    <row r="777" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="777" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G777" s="3"/>
       <c r="H777" s="3"/>
     </row>
-    <row r="778" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="778" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G778" s="3"/>
       <c r="H778" s="3"/>
     </row>
-    <row r="779" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="779" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G779" s="3"/>
       <c r="H779" s="3"/>
     </row>
-    <row r="780" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="780" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G780" s="3"/>
       <c r="H780" s="3"/>
     </row>
-    <row r="781" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="781" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G781" s="3"/>
       <c r="H781" s="3"/>
     </row>
-    <row r="782" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="782" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G782" s="3"/>
       <c r="H782" s="3"/>
     </row>
-    <row r="783" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="783" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G783" s="3"/>
       <c r="H783" s="3"/>
     </row>
-    <row r="784" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="784" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G784" s="3"/>
       <c r="H784" s="3"/>
     </row>
-    <row r="785" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="785" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G785" s="3"/>
       <c r="H785" s="3"/>
     </row>
-    <row r="786" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="786" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G786" s="3"/>
       <c r="H786" s="3"/>
     </row>
-    <row r="787" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="787" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G787" s="3"/>
       <c r="H787" s="3"/>
     </row>
-    <row r="788" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="788" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G788" s="3"/>
       <c r="H788" s="3"/>
     </row>
-    <row r="789" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="789" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G789" s="3"/>
       <c r="H789" s="3"/>
     </row>
+    <row r="790" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G790" s="3"/>
+      <c r="H790" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:E789"/>
-  <conditionalFormatting sqref="E1:E20 E23:E1048576">
-    <cfRule type="expression" dxfId="18" priority="17" stopIfTrue="1">
+  <autoFilter ref="E1:E790">
+    <filterColumn colId="0">
+      <colorFilter dxfId="8"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="E1:E20 E23:E102 E104:E1048576">
+    <cfRule type="expression" dxfId="40" priority="19" stopIfTrue="1">
       <formula>D1="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="39" priority="20">
       <formula>NOT(ISBLANK(E1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M4">
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="17" stopIfTrue="1">
       <formula>L2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="37" priority="18">
       <formula>NOT(ISBLANK(M2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="15" stopIfTrue="1">
       <formula>L5="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="35" priority="16">
       <formula>NOT(ISBLANK(M5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="12" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="13" stopIfTrue="1">
       <formula>E14="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="33" priority="14">
       <formula>NOT(ISBLANK(F14))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J4">
-    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="11" stopIfTrue="1">
       <formula>I2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="31" priority="12">
       <formula>NOT(ISBLANK(J2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="9" stopIfTrue="1">
       <formula>I5="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="29" priority="10">
       <formula>NOT(ISBLANK(J5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="7" stopIfTrue="1">
       <formula>I6="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="27" priority="8">
       <formula>NOT(ISBLANK(J6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="5" stopIfTrue="1">
       <formula>I7="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="25" priority="6">
       <formula>NOT(ISBLANK(J7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E22">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
       <formula>D21="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>NOT(ISBLANK(E21))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
+      <formula>D103="c"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="2">
+      <formula>NOT(ISBLANK(E103))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13966,1216 +14322,1710 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="1" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="22">
         <v>43116</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F2" s="30">
+      <c r="D2" s="8"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
         <v>14.26</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="22">
         <v>43117</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F3" s="30">
+      <c r="D3" s="8"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <v>28.52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="22">
         <v>43118</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F4" s="30">
+      <c r="D4" s="8"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <v>42.78</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
         <v>43119</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F5" s="30">
+      <c r="D5" s="8"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
         <v>42.78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
         <v>43122</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F6" s="30">
+      <c r="D6" s="8"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
         <v>28.52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
         <v>43123</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F7" s="30">
+      <c r="D7" s="8"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
         <v>14.26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
         <v>43124</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F8" s="30">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <v>14.26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="28">
         <v>43125</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F9" s="30">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
         <v>28.52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="28">
         <v>43131</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F10" s="30">
+      <c r="E10" s="3"/>
+      <c r="F10">
         <v>14.26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="28">
         <v>43133</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F11" s="30">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
         <v>14.26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="28">
         <v>43144</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F12" s="30">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="28">
         <v>43145</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F13" s="30">
+      <c r="E13" s="3"/>
+      <c r="F13">
         <v>14.26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="28">
         <v>43147</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F14" s="30">
+      <c r="E14" s="3"/>
+      <c r="F14">
         <v>14.26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="28">
         <v>43152</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F15" s="30">
+      <c r="E15" s="3"/>
+      <c r="F15">
         <v>14.26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="28">
         <v>43154</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F16" s="30">
+      <c r="E16" s="3"/>
+      <c r="F16">
         <v>14.26</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="28">
         <v>43164</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F17" s="30">
+      <c r="E17" s="3"/>
+      <c r="F17">
         <v>62.81</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="28">
         <v>43165</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F18" s="30">
+      <c r="E18" s="3"/>
+      <c r="F18">
         <v>173.87</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="28">
         <v>43166</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F19" s="30">
+      <c r="E19" s="3"/>
+      <c r="F19">
         <v>62.81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="28">
         <v>43171</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F20" s="30">
+      <c r="E20" s="3"/>
+      <c r="F20">
         <v>62.81</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="28">
         <v>43172</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F21" s="30">
+      <c r="E21" s="3"/>
+      <c r="F21">
         <v>433.9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="28">
         <v>43174</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F22" s="30">
+      <c r="E22" s="3"/>
+      <c r="F22">
         <v>14.26</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="28">
         <v>43175</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F23" s="30">
+      <c r="E23" s="3"/>
+      <c r="F23">
         <v>182.66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="28">
         <v>43178</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F24" s="30">
+      <c r="E24" s="3"/>
+      <c r="F24">
         <v>91.33</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="28">
         <v>43178</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F25" s="30">
+      <c r="E25" s="3"/>
+      <c r="F25">
         <v>28.52</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26" s="28">
         <v>43180</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F26" s="30">
+      <c r="E26" s="3"/>
+      <c r="F26">
         <v>125.32</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27" s="28">
         <v>43181</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F27" s="30">
+      <c r="E27" s="3"/>
+      <c r="F27">
         <v>111.06</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28" s="28">
         <v>43182</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F28" s="30">
+      <c r="E28" s="3"/>
+      <c r="F28">
         <v>14.26</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="28">
         <v>43185</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F29" s="30">
+      <c r="E29" s="3"/>
+      <c r="F29">
         <v>42.78</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30" s="28">
         <v>43185</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F30" s="30">
+      <c r="E30" s="3"/>
+      <c r="F30">
         <v>62.81</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31" s="28">
         <v>43185</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F31" s="30">
+      <c r="E31" s="3"/>
+      <c r="F31">
         <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="28">
         <v>43186</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F32" s="30">
+      <c r="E32" s="3"/>
+      <c r="F32">
         <v>62.81</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33" s="28">
         <v>43187</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F33" s="30">
+      <c r="E33" s="3"/>
+      <c r="F33">
         <v>125.62</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="A34" s="28">
         <v>43188</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F34" s="30">
+      <c r="E34" s="3"/>
+      <c r="F34">
         <v>139.88</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="A35" s="28">
         <v>43189</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F35" s="30">
+      <c r="E35" s="3"/>
+      <c r="F35">
         <v>110.76</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36" s="28">
         <v>43192</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F36" s="30">
+      <c r="E36" s="3"/>
+      <c r="F36">
         <v>77.069999999999993</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="A37" s="28">
         <v>43195</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F37" s="30">
+      <c r="E37" s="3"/>
+      <c r="F37">
         <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="A38" s="28">
         <v>43199</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F38" s="30">
+      <c r="E38" s="3"/>
+      <c r="F38">
         <v>14.26</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="A39" s="28">
         <v>43201</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F39" s="30">
+      <c r="E39" s="3"/>
+      <c r="F39">
         <v>62.81</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="A40" s="28">
         <v>43202</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F40" s="30">
+      <c r="E40" s="3"/>
+      <c r="F40">
         <v>152.62</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="A41" s="28">
         <v>43203</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F41" s="30">
+      <c r="E41" s="3"/>
+      <c r="F41">
         <v>328.31</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="A42" s="28">
         <v>43206</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F42" s="30">
+      <c r="E42" s="3"/>
+      <c r="F42">
         <v>139.88</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="A43" s="28">
         <v>43209</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F43" s="30">
+      <c r="E43" s="3"/>
+      <c r="F43">
         <v>377.78</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="A44" s="28">
         <v>43210</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F44" s="30">
+      <c r="E44" s="3"/>
+      <c r="F44">
         <v>251.24</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="A45" s="28">
         <v>43213</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F45" s="30">
+      <c r="E45" s="3"/>
+      <c r="F45">
         <v>62.81</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="A46" s="28">
         <v>43213</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F46" s="30">
+      <c r="E46" s="3"/>
+      <c r="F46">
         <v>1965</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+      <c r="A47" s="28">
         <v>43214</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F47" s="30">
+      <c r="E47" s="3"/>
+      <c r="F47">
         <v>111.06</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="A48" s="28">
         <v>43215</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F48" s="30">
+      <c r="E48" s="3"/>
+      <c r="F48">
         <v>817.15</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="A49" s="28">
         <v>43216</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F49" s="30">
+      <c r="E49" s="3"/>
+      <c r="F49">
         <v>188.13</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="A50" s="22">
         <v>43217</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F50" s="30">
+      <c r="E50" s="3"/>
+      <c r="F50">
         <v>900.3</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+      <c r="A51" s="28">
         <v>43220</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F51" s="30">
+      <c r="E51" s="3"/>
+      <c r="F51">
         <v>77.069999999999993</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="A52" s="28">
         <v>43222</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F52" s="30">
+      <c r="E52" s="3"/>
+      <c r="F52">
         <v>313.75</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+      <c r="A53" s="28">
         <v>43223</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F53" s="30">
+      <c r="E53" s="3"/>
+      <c r="F53">
         <v>426.03</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+      <c r="A54" s="28">
         <v>43224</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F54" s="30">
+      <c r="E54" s="3"/>
+      <c r="F54">
         <v>62.51</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+      <c r="A55" s="28">
         <v>43227</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F55" s="30">
+      <c r="E55" s="3"/>
+      <c r="F55">
         <v>111.06</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+      <c r="A56" s="28">
         <v>43227</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F56" s="30">
+      <c r="E56" s="3"/>
+      <c r="F56">
         <v>182.66</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+      <c r="A57" s="28">
         <v>43229</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F57" s="30">
+      <c r="E57" s="3"/>
+      <c r="F57">
         <v>313.75</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+      <c r="A58" s="28">
         <v>43231</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F58" s="30">
+      <c r="E58" s="3"/>
+      <c r="F58">
         <v>188.43</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
+      <c r="A59" s="28">
         <v>43234</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F59" s="30">
+      <c r="E59" s="3"/>
+      <c r="F59">
         <v>1323.29</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+      <c r="A60" s="28">
         <v>43234</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F60" s="30">
+      <c r="E60" s="3"/>
+      <c r="F60">
         <v>125.32</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+      <c r="A61" s="28">
         <v>43235</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F61" s="30">
+      <c r="E61" s="3"/>
+      <c r="F61">
         <v>390</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+      <c r="A62" s="28">
         <v>43236</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F62" s="30">
+      <c r="E62" s="3"/>
+      <c r="F62">
         <v>318.92</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+      <c r="A63" s="28">
         <v>43236</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F63" s="30">
+      <c r="E63" s="3"/>
+      <c r="F63">
         <v>1020</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+      <c r="A64" s="28">
         <v>43237</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="F64" s="30">
+      <c r="E64" s="3"/>
+      <c r="F64">
         <v>314.67</v>
       </c>
     </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="28">
+        <v>43238</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65">
+        <v>440.29</v>
+      </c>
+    </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="28">
+        <v>43241</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66">
+        <v>153.84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="28">
+        <v>43245</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67">
+        <v>42.78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="28">
+        <v>43249</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="28">
+        <v>43249</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="28">
+        <v>43251</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="28">
+        <v>43252</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="28">
+        <v>43255</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="28">
+        <v>43256</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="28">
+        <v>43262</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="28">
+        <v>43266</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="28">
+        <v>43273</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="28">
+        <v>43278</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="28">
+        <v>43279</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="28">
+        <v>43279</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="28">
+        <v>43283</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="28">
+        <v>43286</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="28">
+        <v>43299</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B83" s="30"/>
+      <c r="C83" s="8"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B84" s="30"/>
+      <c r="C84" s="8"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B85" s="30"/>
+      <c r="C85" s="8"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B86" s="30"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="F86" s="3">
+        <f>SUM(F2:F82)</f>
+        <v>15026.640000000005</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B89" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C89" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D89" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E89" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F89" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="22">
         <v>43104</v>
       </c>
-      <c r="B67">
+      <c r="B90">
         <v>1344</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C90" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="30">
+      <c r="D90" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="3">
         <v>125</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F90" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="22">
         <v>43104</v>
       </c>
-      <c r="B68">
+      <c r="B91">
         <v>1345</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C91" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="D68" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="30">
+      <c r="D91" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="3">
         <v>125</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F91" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="22">
         <v>43123</v>
       </c>
-      <c r="B69">
+      <c r="B92">
         <v>1346</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C92" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="D69" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="30">
+      <c r="D92" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="3">
         <v>394.06</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F92" s="8" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="28">
         <v>43126</v>
       </c>
-      <c r="B70">
+      <c r="B93">
         <v>1347</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C93" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="D70" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="30">
+      <c r="D93" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="3">
         <v>93.36</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F93" s="8" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="28">
         <v>43126</v>
       </c>
-      <c r="B71">
+      <c r="B94">
         <v>1348</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C94" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="D71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="30">
+      <c r="D94" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="3">
         <v>240.13</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F94" s="8" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="28">
         <v>43150</v>
       </c>
-      <c r="B72">
+      <c r="B95">
         <v>1349</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C95" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="D72" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="30">
+      <c r="D95" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="3">
         <v>555.41</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F95" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="28">
+        <v>43167</v>
+      </c>
+      <c r="B96">
+        <v>1350</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="3">
+        <v>140</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="28">
+        <v>43167</v>
+      </c>
+      <c r="B97">
+        <v>1351</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="3">
+        <v>100</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="28">
+        <v>43167</v>
+      </c>
+      <c r="B98">
+        <v>1352</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="3">
+        <v>140</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="28">
+        <v>43178</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="3">
+        <v>140</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="28">
+        <v>43183</v>
+      </c>
+      <c r="B100">
+        <v>1354</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="3">
+        <v>65</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="28">
+        <v>43215</v>
+      </c>
+      <c r="B101">
+        <v>1355</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="3">
+        <v>250</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="22">
+        <v>43217</v>
+      </c>
+      <c r="B102">
+        <v>1356</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="3">
+        <v>250</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="22">
+        <v>43217</v>
+      </c>
+      <c r="B103">
+        <v>1357</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="3">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="28">
+        <v>43224</v>
+      </c>
+      <c r="B104">
+        <v>1358</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="3">
+        <v>76.8</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="28">
+        <v>43228</v>
+      </c>
+      <c r="B105">
+        <v>1359</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="3">
+        <v>460</v>
+      </c>
+      <c r="F105" s="8" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>43167</v>
-      </c>
-      <c r="B73">
-        <v>1350</v>
-      </c>
-      <c r="C73" t="s">
-        <v>361</v>
-      </c>
-      <c r="D73" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="30">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="28">
+        <v>43228</v>
+      </c>
+      <c r="B106">
+        <v>1360</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="3">
+        <v>65</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="28">
+        <v>43229</v>
+      </c>
+      <c r="B107">
+        <v>1361</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="3">
         <v>140</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F107" s="8" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>43167</v>
-      </c>
-      <c r="B74">
-        <v>1351</v>
-      </c>
-      <c r="C74" t="s">
-        <v>360</v>
-      </c>
-      <c r="D74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="30">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="28">
+        <v>43235</v>
+      </c>
+      <c r="B108">
+        <v>1362</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="3">
+        <v>50</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="28">
+        <v>43236</v>
+      </c>
+      <c r="B109">
+        <v>1363</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="3">
+        <v>555.92999999999995</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="28">
+        <v>43245</v>
+      </c>
+      <c r="B110">
+        <v>1364</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="3">
+        <v>5250</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="28">
+        <v>43245</v>
+      </c>
+      <c r="B111">
+        <v>1365</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="3">
+        <v>600</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="28">
+        <v>43245</v>
+      </c>
+      <c r="B112">
+        <v>1366</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="3">
+        <v>756.81</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="28">
+        <v>43245</v>
+      </c>
+      <c r="B113">
+        <v>1367</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="3">
+        <v>200</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="28">
+        <v>43245</v>
+      </c>
+      <c r="B114">
+        <v>1268</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="3">
+        <v>50</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="28">
+        <v>43250</v>
+      </c>
+      <c r="B115">
+        <v>1369</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="3">
+        <v>500</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="28">
+        <v>43275</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="3">
         <v>100</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F116" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="B120" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="B121" s="31">
+        <v>633.79999999999995</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="B122" s="31">
+        <v>8400.2899999999991</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="26" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
-        <v>43167</v>
-      </c>
-      <c r="B75">
-        <v>1352</v>
-      </c>
-      <c r="C75" t="s">
-        <v>359</v>
-      </c>
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="30">
-        <v>140</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
-        <v>43178</v>
-      </c>
-      <c r="C76" t="s">
-        <v>362</v>
-      </c>
-      <c r="D76" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="30">
-        <v>140</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
-        <v>43183</v>
-      </c>
-      <c r="B77">
-        <v>1354</v>
-      </c>
-      <c r="C77" t="s">
-        <v>363</v>
-      </c>
-      <c r="D77" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="30">
-        <v>65</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
-        <v>43215</v>
-      </c>
-      <c r="B78">
-        <v>1355</v>
-      </c>
-      <c r="C78" t="s">
-        <v>365</v>
-      </c>
-      <c r="D78" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="30">
+      <c r="B123" s="31">
+        <v>1345.4099999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="B124" s="31">
         <v>250</v>
       </c>
-      <c r="F78" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
-        <v>43217</v>
-      </c>
-      <c r="B79">
-        <v>1356</v>
-      </c>
-      <c r="C79" t="s">
-        <v>366</v>
-      </c>
-      <c r="D79" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="30">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B125" s="31">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="B126" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="B127" s="31">
         <v>250</v>
       </c>
-      <c r="F79" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
-        <v>43217</v>
-      </c>
-      <c r="B80">
-        <v>1357</v>
-      </c>
-      <c r="C80" t="s">
-        <v>367</v>
-      </c>
-      <c r="D80" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="30">
-        <v>133.80000000000001</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
-        <v>43224</v>
-      </c>
-      <c r="B81">
-        <v>1358</v>
-      </c>
-      <c r="C81" t="s">
-        <v>364</v>
-      </c>
-      <c r="D81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" s="30">
-        <v>76.8</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
-        <v>43228</v>
-      </c>
-      <c r="B82">
-        <v>1360</v>
-      </c>
-      <c r="C82" t="s">
-        <v>369</v>
-      </c>
-      <c r="D82" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="30">
-        <v>65</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
-        <v>43228</v>
-      </c>
-      <c r="B83">
-        <v>1359</v>
-      </c>
-      <c r="C83" t="s">
-        <v>368</v>
-      </c>
-      <c r="E83" s="30">
-        <v>460</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
-        <v>43229</v>
-      </c>
-      <c r="B84">
-        <v>1361</v>
-      </c>
-      <c r="C84" t="s">
-        <v>370</v>
-      </c>
-      <c r="E84" s="30">
-        <v>140</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>43235</v>
-      </c>
-      <c r="C85" t="s">
-        <v>371</v>
-      </c>
-      <c r="E85" s="30">
-        <v>50</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
-        <v>43236</v>
-      </c>
-      <c r="C86" t="s">
-        <v>372</v>
-      </c>
-      <c r="E86" s="30">
-        <v>555.42999999999995</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="B90" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="B91" s="31">
-        <v>633.79999999999995</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="B92" s="31">
-        <v>2298.39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="B93" s="31">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="B94" s="31">
-        <v>76.8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="B95" s="31">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="26" t="s">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="B128" s="31">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="B96" s="31">
-        <v>4098.99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="B99" s="30">
-        <f>SUM(GETPIVOTDATA(" Payment Amount",$A$90,"Category","Awards"),B93:B95)</f>
-        <v>1800.6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107"/>
+      <c r="B129" s="31">
+        <v>11556.299999999997</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E17:E82 E1:E14">
+    <cfRule type="expression" dxfId="16" priority="7" stopIfTrue="1">
+      <formula>D1="c"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="8">
+      <formula>NOT(ISBLANK(E1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E16">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+      <formula>D15="c"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>NOT(ISBLANK(E15))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89:E115">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>D89="c"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>NOT(ISBLANK(E89))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E116">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>D116="c"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>NOT(ISBLANK(E116))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/MIACADA Ledger.xlsx
+++ b/MIACADA Ledger.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="330" yWindow="735" windowWidth="11355" windowHeight="8250" tabRatio="657" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="330" yWindow="735" windowWidth="11355" windowHeight="8250" tabRatio="657" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,18 +29,18 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'2017'!$E$1:$E$71</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'2018'!$E$1:$E$790</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'2018'!$E$1:$E$794</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId15"/>
-    <pivotCache cacheId="4" r:id="rId16"/>
+    <pivotCache cacheId="1" r:id="rId16"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="398">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -1198,6 +1198,42 @@
   </si>
   <si>
     <t>Reimbursement</t>
+  </si>
+  <si>
+    <t>Rachel Pawlowski, NACADA conference travel</t>
+  </si>
+  <si>
+    <t>NACADA Region 5 Conference Donation</t>
+  </si>
+  <si>
+    <t>MIACADA Grant Winner Julie Catanzartie</t>
+  </si>
+  <si>
+    <t>MIACADA Grant Winner Gary Mason</t>
+  </si>
+  <si>
+    <t>Anne London - reimbursement for board meeting meals</t>
+  </si>
+  <si>
+    <t>Joe Murray website domain name and hosting reimbursment</t>
+  </si>
+  <si>
+    <t>NACADA affiliated member renewal</t>
+  </si>
+  <si>
+    <t>MIACADA Grant Winner Melissa Krzyzaniak</t>
+  </si>
+  <si>
+    <t>Rachel Pawlowski, reimbursement for NACADA silent auction</t>
+  </si>
+  <si>
+    <t>Oakland University for Great Lakes Region Success Conf. Sponsor</t>
+  </si>
+  <si>
+    <t>Webinar, Mid Michigan College</t>
+  </si>
+  <si>
+    <t>NMC, deposit for 2020 state conference</t>
   </si>
 </sst>
 </file>
@@ -1326,71 +1362,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC4D79B"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <fill>
         <patternFill>
@@ -1630,37 +1602,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
@@ -1695,7 +1636,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1879,11 +1819,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="300434608"/>
-        <c:axId val="300436848"/>
+        <c:axId val="307809440"/>
+        <c:axId val="307810000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="300434608"/>
+        <c:axId val="307809440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,7 +1866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300436848"/>
+        <c:crossAx val="307810000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1934,7 +1874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="300436848"/>
+        <c:axId val="307810000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1985,7 +1925,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300434608"/>
+        <c:crossAx val="307809440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1999,7 +1939,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2140,61 +2079,8 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2303,11 +2189,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="412581856"/>
-        <c:axId val="459997600"/>
+        <c:axId val="307813360"/>
+        <c:axId val="307813920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="412581856"/>
+        <c:axId val="307813360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2350,7 +2236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459997600"/>
+        <c:crossAx val="307813920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2358,7 +2244,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="459997600"/>
+        <c:axId val="307813920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2409,7 +2295,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412581856"/>
+        <c:crossAx val="307813360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4046,7 +3932,7 @@
     <dataField name="Sum of Cost" fld="0" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="48">
+    <format dxfId="34">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4089,7 +3975,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A120:B129" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
@@ -6999,10 +6885,10 @@
   </sheetData>
   <autoFilter ref="E1:E71"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="expression" dxfId="46" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="1" stopIfTrue="1">
       <formula>D1="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>NOT(ISBLANK(E1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8314,18 +8200,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E32">
-    <cfRule type="expression" dxfId="44" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="3" stopIfTrue="1">
       <formula>D2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>NOT(ISBLANK(E2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E77">
-    <cfRule type="expression" dxfId="42" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="1" stopIfTrue="1">
       <formula>D40="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>NOT(ISBLANK(E40))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8336,11 +8222,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M790"/>
+  <dimension ref="A1:M794"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E103" sqref="A1:E103"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8443,7 +8328,7 @@
       <c r="J3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>43116</v>
       </c>
@@ -8465,7 +8350,7 @@
       <c r="J4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>43117</v>
       </c>
@@ -8487,7 +8372,7 @@
       <c r="J5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>43118</v>
       </c>
@@ -8509,7 +8394,7 @@
       <c r="J6" s="24"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <v>43119</v>
       </c>
@@ -8530,7 +8415,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>43122</v>
       </c>
@@ -8551,7 +8436,7 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>43123</v>
       </c>
@@ -8598,7 +8483,7 @@
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>43124</v>
       </c>
@@ -8619,7 +8504,7 @@
       <c r="J11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="28">
         <v>43125</v>
       </c>
@@ -8692,7 +8577,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="28">
         <v>43131</v>
       </c>
@@ -8711,7 +8596,7 @@
         <v>7822.0200000000032</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="28">
         <v>43133</v>
       </c>
@@ -8730,7 +8615,7 @@
         <v>7836.2800000000034</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="28">
         <v>43144</v>
       </c>
@@ -8749,7 +8634,7 @@
         <v>7851.2800000000034</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="28">
         <v>43145</v>
       </c>
@@ -8768,7 +8653,7 @@
         <v>7865.5400000000036</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="28">
         <v>43147</v>
       </c>
@@ -8812,7 +8697,7 @@
         <v>7324.390000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="28">
         <v>43152</v>
       </c>
@@ -8831,7 +8716,7 @@
         <v>7338.6500000000042</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="28">
         <v>43154</v>
       </c>
@@ -8850,7 +8735,7 @@
         <v>7352.9100000000044</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="28">
         <v>43164</v>
       </c>
@@ -8870,7 +8755,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="28">
         <v>43165</v>
       </c>
@@ -8889,7 +8774,7 @@
         <v>7589.5900000000047</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="28">
         <v>43166</v>
       </c>
@@ -8983,7 +8868,7 @@
         <v>7272.4000000000051</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="28">
         <v>43171</v>
       </c>
@@ -9002,7 +8887,7 @@
         <v>7335.2100000000055</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="28">
         <v>43172</v>
       </c>
@@ -9021,7 +8906,7 @@
         <v>7769.1100000000051</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="28">
         <v>43174</v>
       </c>
@@ -9040,7 +8925,7 @@
         <v>7783.3700000000053</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="28">
         <v>43175</v>
       </c>
@@ -9059,7 +8944,7 @@
         <v>7966.0300000000052</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="28">
         <v>43178</v>
       </c>
@@ -9078,7 +8963,7 @@
         <v>8057.3600000000051</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="28">
         <v>43178</v>
       </c>
@@ -9119,7 +9004,7 @@
         <v>7945.8800000000056</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="28">
         <v>43180</v>
       </c>
@@ -9138,7 +9023,7 @@
         <v>8071.2000000000053</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="28">
         <v>43181</v>
       </c>
@@ -9157,7 +9042,7 @@
         <v>8182.2600000000057</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="28">
         <v>43182</v>
       </c>
@@ -9201,7 +9086,7 @@
         <v>8131.5200000000059</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="28">
         <v>43185</v>
       </c>
@@ -9220,7 +9105,7 @@
         <v>8174.3000000000056</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="28">
         <v>43185</v>
       </c>
@@ -9239,7 +9124,7 @@
         <v>8237.110000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="28">
         <v>43185</v>
       </c>
@@ -9258,7 +9143,7 @@
         <v>8407.110000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="28">
         <v>43186</v>
       </c>
@@ -9277,7 +9162,7 @@
         <v>8469.9200000000055</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="28">
         <v>43187</v>
       </c>
@@ -9296,7 +9181,7 @@
         <v>8595.5400000000063</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="28">
         <v>43188</v>
       </c>
@@ -9315,7 +9200,7 @@
         <v>8735.4200000000055</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="28">
         <v>43189</v>
       </c>
@@ -9334,7 +9219,7 @@
         <v>8846.1800000000057</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="28">
         <v>43192</v>
       </c>
@@ -9353,7 +9238,7 @@
         <v>8923.2500000000055</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="28">
         <v>43195</v>
       </c>
@@ -9372,7 +9257,7 @@
         <v>9238.2500000000055</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="28">
         <v>43199</v>
       </c>
@@ -9391,7 +9276,7 @@
         <v>9252.5100000000057</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="28">
         <v>43201</v>
       </c>
@@ -9410,7 +9295,7 @@
         <v>9315.3200000000052</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="28">
         <v>43202</v>
       </c>
@@ -9429,7 +9314,7 @@
         <v>9467.940000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="28">
         <v>43203</v>
       </c>
@@ -9448,7 +9333,7 @@
         <v>9796.2500000000055</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="28">
         <v>43206</v>
       </c>
@@ -9467,7 +9352,7 @@
         <v>9936.1300000000047</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="28">
         <v>43209</v>
       </c>
@@ -9486,7 +9371,7 @@
         <v>10313.910000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="28">
         <v>43210</v>
       </c>
@@ -9505,7 +9390,7 @@
         <v>10565.150000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="28">
         <v>43213</v>
       </c>
@@ -9524,7 +9409,7 @@
         <v>10627.960000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="28">
         <v>43213</v>
       </c>
@@ -9543,7 +9428,7 @@
         <v>12592.960000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="28">
         <v>43214</v>
       </c>
@@ -9587,7 +9472,7 @@
         <v>12454.020000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="28">
         <v>43215</v>
       </c>
@@ -9606,7 +9491,7 @@
         <v>13271.170000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="28">
         <v>43216</v>
       </c>
@@ -9625,7 +9510,7 @@
         <v>13459.300000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="22">
         <v>43217</v>
       </c>
@@ -9694,7 +9579,7 @@
         <v>13975.800000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="28">
         <v>43220</v>
       </c>
@@ -9713,7 +9598,7 @@
         <v>14052.870000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="28">
         <v>43222</v>
       </c>
@@ -9732,7 +9617,7 @@
         <v>14366.620000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="28">
         <v>43223</v>
       </c>
@@ -9751,7 +9636,7 @@
         <v>14792.650000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="28">
         <v>43224</v>
       </c>
@@ -9795,7 +9680,7 @@
         <v>14778.360000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="28">
         <v>43227</v>
       </c>
@@ -9814,7 +9699,7 @@
         <v>14889.420000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="28">
         <v>43227</v>
       </c>
@@ -9829,7 +9714,7 @@
         <v>15072.080000000004</v>
       </c>
       <c r="H71" s="3">
-        <f t="shared" ref="H71:H111" si="3">IF(ISBLANK(A71),"",IF(D71="C",H70-E71+F71,H70+F71))</f>
+        <f t="shared" ref="H71:H138" si="3">IF(ISBLANK(A71),"",IF(D71="C",H70-E71+F71,H70+F71))</f>
         <v>15072.080000000004</v>
       </c>
     </row>
@@ -9908,7 +9793,7 @@
         <v>14407.080000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="28">
         <v>43229</v>
       </c>
@@ -9927,7 +9812,7 @@
         <v>14720.830000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="28">
         <v>43231</v>
       </c>
@@ -9946,7 +9831,7 @@
         <v>14909.260000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="28">
         <v>43234</v>
       </c>
@@ -9965,7 +9850,7 @@
         <v>16232.550000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="28">
         <v>43234</v>
       </c>
@@ -9984,7 +9869,7 @@
         <v>16357.870000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="28">
         <v>43235</v>
       </c>
@@ -10053,7 +9938,7 @@
         <v>16141.940000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="28">
         <v>43236</v>
       </c>
@@ -10072,7 +9957,7 @@
         <v>16460.86</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="28">
         <v>43236</v>
       </c>
@@ -10091,7 +9976,7 @@
         <v>17480.86</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="28">
         <v>43237</v>
       </c>
@@ -10110,7 +9995,7 @@
         <v>17795.53</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="28">
         <v>43238</v>
       </c>
@@ -10129,7 +10014,7 @@
         <v>18235.82</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="28">
         <v>43241</v>
       </c>
@@ -10253,7 +10138,7 @@
         <v>43245</v>
       </c>
       <c r="B91">
-        <v>1268</v>
+        <v>1368</v>
       </c>
       <c r="C91" s="20" t="s">
         <v>380</v>
@@ -10273,7 +10158,7 @@
         <v>11532.85</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="28">
         <v>43245</v>
       </c>
@@ -10292,7 +10177,7 @@
         <v>11575.630000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="28">
         <v>43249</v>
       </c>
@@ -10311,7 +10196,7 @@
         <v>11589.890000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="28">
         <v>43249</v>
       </c>
@@ -10355,7 +10240,7 @@
         <v>11609.890000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="28">
         <v>43251</v>
       </c>
@@ -10374,7 +10259,7 @@
         <v>11624.150000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="28">
         <v>43252</v>
       </c>
@@ -10393,7 +10278,7 @@
         <v>11638.410000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="28">
         <v>43255</v>
       </c>
@@ -10412,7 +10297,7 @@
         <v>11652.670000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="28">
         <v>43256</v>
       </c>
@@ -10431,7 +10316,7 @@
         <v>11666.930000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="28">
         <v>43262</v>
       </c>
@@ -10450,7 +10335,7 @@
         <v>11681.190000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="28">
         <v>43266</v>
       </c>
@@ -10469,7 +10354,7 @@
         <v>11695.450000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="28">
         <v>43273</v>
       </c>
@@ -10492,6 +10377,9 @@
       <c r="A103" s="28">
         <v>43275</v>
       </c>
+      <c r="B103">
+        <v>1370</v>
+      </c>
       <c r="C103" s="20" t="s">
         <v>382</v>
       </c>
@@ -10510,7 +10398,7 @@
         <v>11609.710000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="28">
         <v>43278</v>
       </c>
@@ -10525,11 +10413,11 @@
         <v>11623.970000000003</v>
       </c>
       <c r="H104" s="3">
-        <f t="shared" ref="H104:H109" si="5">IF(ISBLANK(A104),"",IF(D104="C",H103-E104+F104,H103+F104))</f>
+        <f t="shared" ref="H104:H140" si="5">IF(ISBLANK(A104),"",IF(D104="C",H103-E104+F104,H103+F104))</f>
         <v>11623.970000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="28">
         <v>43279</v>
       </c>
@@ -10548,7 +10436,7 @@
         <v>11638.230000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="28">
         <v>43279</v>
       </c>
@@ -10567,7 +10455,7 @@
         <v>11923.230000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="28">
         <v>43283</v>
       </c>
@@ -10586,7 +10474,7 @@
         <v>11937.490000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="28">
         <v>43286</v>
       </c>
@@ -10605,7 +10493,7 @@
         <v>11951.750000000004</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="28">
         <v>43299</v>
       </c>
@@ -10624,3695 +10512,4034 @@
         <v>12041.750000000004</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G110" s="3" t="str">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="28">
+        <v>43306</v>
+      </c>
+      <c r="B110">
+        <v>1371</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G110" s="3">
         <f>IF(ISBLANK(A110),"",'2018'!G109-E110+F110)</f>
-        <v/>
-      </c>
-      <c r="H110" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G111" s="3" t="str">
+        <v>10041.750000000004</v>
+      </c>
+      <c r="H110" s="3">
+        <f t="shared" si="5"/>
+        <v>10041.750000000004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="28">
+        <v>43307</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F111">
+        <v>28.52</v>
+      </c>
+      <c r="G111" s="3">
         <f>IF(ISBLANK(A111),"",'2018'!G110-E111+F111)</f>
-        <v/>
-      </c>
-      <c r="H111" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G112" s="3" t="str">
+        <v>10070.270000000004</v>
+      </c>
+      <c r="H111" s="3">
+        <f t="shared" si="5"/>
+        <v>10070.270000000004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="28">
+        <v>43311</v>
+      </c>
+      <c r="B112">
+        <v>1372</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="3">
+        <v>400</v>
+      </c>
+      <c r="G112" s="3">
         <f>IF(ISBLANK(A112),"",'2018'!G111-E112+F112)</f>
-        <v/>
-      </c>
-      <c r="H112" s="3" t="str">
-        <f t="shared" ref="H112:H135" si="6">IF(ISBLANK(B112),"",IF(D112="C",H111-E112+F112,H111+F112))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G113" s="3" t="str">
+        <v>9670.2700000000041</v>
+      </c>
+      <c r="H112" s="3">
+        <f t="shared" si="5"/>
+        <v>9670.2700000000041</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="28">
+        <v>43313</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F113">
+        <v>86.78</v>
+      </c>
+      <c r="G113" s="3">
         <f>IF(ISBLANK(A113),"",'2018'!G112-E113+F113)</f>
-        <v/>
-      </c>
-      <c r="H113" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G114" s="3" t="str">
+        <v>9757.0500000000047</v>
+      </c>
+      <c r="H113" s="3">
+        <f t="shared" si="5"/>
+        <v>9757.0500000000047</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="28">
+        <v>43314</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F114">
+        <v>14.26</v>
+      </c>
+      <c r="G114" s="3">
         <f>IF(ISBLANK(A114),"",'2018'!G113-E114+F114)</f>
-        <v/>
-      </c>
-      <c r="H114" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G115" s="3" t="str">
+        <v>9771.3100000000049</v>
+      </c>
+      <c r="H114" s="3">
+        <f t="shared" si="5"/>
+        <v>9771.3100000000049</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="28">
+        <v>43320</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F115">
+        <v>14.26</v>
+      </c>
+      <c r="G115" s="3">
         <f>IF(ISBLANK(A115),"",'2018'!G114-E115+F115)</f>
-        <v/>
-      </c>
-      <c r="H115" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G116" s="3" t="str">
+        <v>9785.5700000000052</v>
+      </c>
+      <c r="H115" s="3">
+        <f t="shared" si="5"/>
+        <v>9785.5700000000052</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="28">
+        <v>43325</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F116">
+        <v>14.26</v>
+      </c>
+      <c r="G116" s="3">
         <f>IF(ISBLANK(A116),"",'2018'!G115-E116+F116)</f>
-        <v/>
-      </c>
-      <c r="H116" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G117" s="3" t="str">
+        <v>9799.8300000000054</v>
+      </c>
+      <c r="H116" s="3">
+        <f t="shared" si="5"/>
+        <v>9799.8300000000054</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="28">
+        <v>43326</v>
+      </c>
+      <c r="B117">
+        <v>1373</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="3">
+        <v>64</v>
+      </c>
+      <c r="G117" s="3">
         <f>IF(ISBLANK(A117),"",'2018'!G116-E117+F117)</f>
-        <v/>
-      </c>
-      <c r="H117" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G118" s="3" t="str">
+        <v>9735.8300000000054</v>
+      </c>
+      <c r="H117" s="3">
+        <f t="shared" si="5"/>
+        <v>9735.8300000000054</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="28">
+        <v>43327</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F118">
+        <v>30</v>
+      </c>
+      <c r="G118" s="3">
         <f>IF(ISBLANK(A118),"",'2018'!G117-E118+F118)</f>
-        <v/>
-      </c>
-      <c r="H118" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G119" s="3" t="str">
+        <v>9765.8300000000054</v>
+      </c>
+      <c r="H118" s="3">
+        <f t="shared" si="5"/>
+        <v>9765.8300000000054</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="28">
+        <v>43328</v>
+      </c>
+      <c r="B119">
+        <v>1374</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="3">
+        <v>61</v>
+      </c>
+      <c r="G119" s="3">
         <f>IF(ISBLANK(A119),"",'2018'!G118-E119+F119)</f>
-        <v/>
-      </c>
-      <c r="H119" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G120" s="3" t="str">
+        <v>9704.8300000000054</v>
+      </c>
+      <c r="H119" s="3">
+        <f t="shared" si="5"/>
+        <v>9704.8300000000054</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="28">
+        <v>43333</v>
+      </c>
+      <c r="B120">
+        <v>1375</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="3">
+        <v>232.45</v>
+      </c>
+      <c r="G120" s="3">
         <f>IF(ISBLANK(A120),"",'2018'!G119-E120+F120)</f>
-        <v/>
-      </c>
-      <c r="H120" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G121" s="3" t="str">
+        <v>9472.3800000000047</v>
+      </c>
+      <c r="H120" s="3">
+        <f t="shared" si="5"/>
+        <v>9472.3800000000047</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="28">
+        <v>43336</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F121">
+        <v>14.26</v>
+      </c>
+      <c r="G121" s="3">
         <f>IF(ISBLANK(A121),"",'2018'!G120-E121+F121)</f>
-        <v/>
-      </c>
-      <c r="H121" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G122" s="3" t="str">
+        <v>9486.6400000000049</v>
+      </c>
+      <c r="H121" s="3">
+        <f t="shared" si="5"/>
+        <v>9486.6400000000049</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="28">
+        <v>43339</v>
+      </c>
+      <c r="B122">
+        <v>1376</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="3">
+        <v>280.10000000000002</v>
+      </c>
+      <c r="G122" s="3">
         <f>IF(ISBLANK(A122),"",'2018'!G121-E122+F122)</f>
-        <v/>
-      </c>
-      <c r="H122" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G123" s="3" t="str">
+        <v>9206.5400000000045</v>
+      </c>
+      <c r="H122" s="3">
+        <f t="shared" si="5"/>
+        <v>9206.5400000000045</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="28">
+        <v>43339</v>
+      </c>
+      <c r="B123">
+        <v>1377</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="3">
+        <v>500</v>
+      </c>
+      <c r="G123" s="3">
         <f>IF(ISBLANK(A123),"",'2018'!G122-E123+F123)</f>
-        <v/>
-      </c>
-      <c r="H123" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G124" s="3" t="str">
+        <v>8706.5400000000045</v>
+      </c>
+      <c r="H123" s="3">
+        <f t="shared" si="5"/>
+        <v>8706.5400000000045</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="28">
+        <v>43342</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F124">
+        <v>15</v>
+      </c>
+      <c r="G124" s="3">
         <f>IF(ISBLANK(A124),"",'2018'!G123-E124+F124)</f>
-        <v/>
-      </c>
-      <c r="H124" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G125" s="3" t="str">
+        <v>8721.5400000000045</v>
+      </c>
+      <c r="H124" s="3">
+        <f t="shared" si="5"/>
+        <v>8721.5400000000045</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="28">
+        <v>43347</v>
+      </c>
+      <c r="C125" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F125">
+        <v>28.52</v>
+      </c>
+      <c r="G125" s="3">
         <f>IF(ISBLANK(A125),"",'2018'!G124-E125+F125)</f>
-        <v/>
-      </c>
-      <c r="H125" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G126" s="3" t="str">
+        <v>8750.0600000000049</v>
+      </c>
+      <c r="H125" s="3">
+        <f t="shared" si="5"/>
+        <v>8750.0600000000049</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="28">
+        <v>43348</v>
+      </c>
+      <c r="B126">
+        <v>1378</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="3">
+        <v>85</v>
+      </c>
+      <c r="G126" s="3">
         <f>IF(ISBLANK(A126),"",'2018'!G125-E126+F126)</f>
-        <v/>
-      </c>
-      <c r="H126" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G127" s="3" t="str">
+        <v>8665.0600000000049</v>
+      </c>
+      <c r="H126" s="3">
+        <f t="shared" si="5"/>
+        <v>8665.0600000000049</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="28">
+        <v>43349</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F127">
+        <v>14.26</v>
+      </c>
+      <c r="G127" s="3">
         <f>IF(ISBLANK(A127),"",'2018'!G126-E127+F127)</f>
-        <v/>
-      </c>
-      <c r="H127" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G128" s="3" t="str">
+        <v>8679.3200000000052</v>
+      </c>
+      <c r="H127" s="3">
+        <f t="shared" si="5"/>
+        <v>8679.3200000000052</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="28">
+        <v>43349</v>
+      </c>
+      <c r="B128">
+        <v>1379</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="3">
+        <v>59</v>
+      </c>
+      <c r="G128" s="3">
         <f>IF(ISBLANK(A128),"",'2018'!G127-E128+F128)</f>
-        <v/>
-      </c>
-      <c r="H128" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G129" s="3" t="str">
+        <v>8620.3200000000052</v>
+      </c>
+      <c r="H128" s="3">
+        <f t="shared" si="5"/>
+        <v>8620.3200000000052</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="28">
+        <v>43357</v>
+      </c>
+      <c r="B129">
+        <v>1380</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="E129" s="3">
+        <v>814.4</v>
+      </c>
+      <c r="G129" s="3">
         <f>IF(ISBLANK(A129),"",'2018'!G128-E129+F129)</f>
-        <v/>
-      </c>
-      <c r="H129" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G130" s="3" t="str">
+        <v>7805.9200000000055</v>
+      </c>
+      <c r="H129" s="3">
+        <f t="shared" si="5"/>
+        <v>8620.3200000000052</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="28">
+        <v>43360</v>
+      </c>
+      <c r="B130">
+        <v>1381</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="E130" s="3">
+        <v>54.67</v>
+      </c>
+      <c r="G130" s="3">
         <f>IF(ISBLANK(A130),"",'2018'!G129-E130+F130)</f>
-        <v/>
-      </c>
-      <c r="H130" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G131" s="3" t="str">
+        <v>7751.2500000000055</v>
+      </c>
+      <c r="H130" s="3">
+        <f t="shared" si="5"/>
+        <v>8620.3200000000052</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="28">
+        <v>43357</v>
+      </c>
+      <c r="C131" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F131">
+        <v>14.26</v>
+      </c>
+      <c r="G131" s="3">
         <f>IF(ISBLANK(A131),"",'2018'!G130-E131+F131)</f>
-        <v/>
-      </c>
-      <c r="H131" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G132" s="3" t="str">
+        <v>7765.5100000000057</v>
+      </c>
+      <c r="H131" s="3">
+        <f t="shared" si="5"/>
+        <v>8634.5800000000054</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="28">
+        <v>43367</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F132">
+        <v>14.26</v>
+      </c>
+      <c r="G132" s="3">
         <f>IF(ISBLANK(A132),"",'2018'!G131-E132+F132)</f>
-        <v/>
-      </c>
-      <c r="H132" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G133" s="3" t="str">
+        <v>7779.7700000000059</v>
+      </c>
+      <c r="H132" s="3">
+        <f t="shared" si="5"/>
+        <v>8648.8400000000056</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="28">
+        <v>43369</v>
+      </c>
+      <c r="B133">
+        <v>1382</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="E133" s="3">
+        <v>750</v>
+      </c>
+      <c r="G133" s="3">
         <f>IF(ISBLANK(A133),"",'2018'!G132-E133+F133)</f>
-        <v/>
-      </c>
-      <c r="H133" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G134" s="3" t="str">
+        <v>7029.7700000000059</v>
+      </c>
+      <c r="H133" s="3">
+        <f t="shared" si="5"/>
+        <v>8648.8400000000056</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="28">
+        <v>43369</v>
+      </c>
+      <c r="B134">
+        <v>1383</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="E134" s="3">
+        <v>250</v>
+      </c>
+      <c r="G134" s="3">
         <f>IF(ISBLANK(A134),"",'2018'!G133-E134+F134)</f>
-        <v/>
-      </c>
-      <c r="H134" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G135" s="3" t="str">
+        <v>6779.7700000000059</v>
+      </c>
+      <c r="H134" s="3">
+        <f t="shared" si="5"/>
+        <v>8648.8400000000056</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="28">
+        <v>43369</v>
+      </c>
+      <c r="B135">
+        <v>1384</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="E135" s="3">
+        <v>650</v>
+      </c>
+      <c r="G135" s="3">
         <f>IF(ISBLANK(A135),"",'2018'!G134-E135+F135)</f>
-        <v/>
-      </c>
-      <c r="H135" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>6129.7700000000059</v>
+      </c>
+      <c r="H135" s="3">
+        <f t="shared" si="5"/>
+        <v>8648.8400000000056</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G136" s="3" t="str">
         <f>IF(ISBLANK(A136),"",'2018'!G135-E136+F136)</f>
         <v/>
       </c>
       <c r="H136" s="3" t="str">
-        <f t="shared" ref="H136:H199" si="7">IF(ISBLANK(B136),"",IF(D136="C",H135-E136+F136,H135+F136))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G137" s="3" t="str">
         <f>IF(ISBLANK(A137),"",'2018'!G136-E137+F137)</f>
         <v/>
       </c>
       <c r="H137" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G138" s="3" t="str">
         <f>IF(ISBLANK(A138),"",'2018'!G137-E138+F138)</f>
         <v/>
       </c>
       <c r="H138" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G139" s="3" t="str">
         <f>IF(ISBLANK(A139),"",'2018'!G138-E139+F139)</f>
         <v/>
       </c>
       <c r="H139" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G140" s="3" t="str">
         <f>IF(ISBLANK(A140),"",'2018'!G139-E140+F140)</f>
         <v/>
       </c>
       <c r="H140" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G141" s="3" t="str">
         <f>IF(ISBLANK(A141),"",'2018'!G140-E141+F141)</f>
         <v/>
       </c>
       <c r="H141" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H139:H202" si="6">IF(ISBLANK(A141),"",IF(D141="C",H140-E141+F141,H140+F141))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G142" s="3" t="str">
         <f>IF(ISBLANK(A142),"",'2018'!G141-E142+F142)</f>
         <v/>
       </c>
       <c r="H142" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G143" s="3" t="str">
         <f>IF(ISBLANK(A143),"",'2018'!G142-E143+F143)</f>
         <v/>
       </c>
       <c r="H143" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G144" s="3" t="str">
         <f>IF(ISBLANK(A144),"",'2018'!G143-E144+F144)</f>
         <v/>
       </c>
       <c r="H144" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G145" s="3" t="str">
         <f>IF(ISBLANK(A145),"",'2018'!G144-E145+F145)</f>
         <v/>
       </c>
       <c r="H145" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G146" s="3" t="str">
         <f>IF(ISBLANK(A146),"",'2018'!G145-E146+F146)</f>
         <v/>
       </c>
       <c r="H146" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G147" s="3" t="str">
         <f>IF(ISBLANK(A147),"",'2018'!G146-E147+F147)</f>
         <v/>
       </c>
       <c r="H147" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G148" s="3" t="str">
         <f>IF(ISBLANK(A148),"",'2018'!G147-E148+F148)</f>
         <v/>
       </c>
       <c r="H148" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G149" s="3" t="str">
         <f>IF(ISBLANK(A149),"",'2018'!G148-E149+F149)</f>
         <v/>
       </c>
       <c r="H149" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G150" s="3" t="str">
         <f>IF(ISBLANK(A150),"",'2018'!G149-E150+F150)</f>
         <v/>
       </c>
       <c r="H150" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G151" s="3" t="str">
         <f>IF(ISBLANK(A151),"",'2018'!G150-E151+F151)</f>
         <v/>
       </c>
       <c r="H151" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G152" s="3" t="str">
         <f>IF(ISBLANK(A152),"",'2018'!G151-E152+F152)</f>
         <v/>
       </c>
       <c r="H152" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G153" s="3" t="str">
         <f>IF(ISBLANK(A153),"",'2018'!G152-E153+F153)</f>
         <v/>
       </c>
       <c r="H153" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G154" s="3" t="str">
         <f>IF(ISBLANK(A154),"",'2018'!G153-E154+F154)</f>
         <v/>
       </c>
       <c r="H154" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G155" s="3" t="str">
         <f>IF(ISBLANK(A155),"",'2018'!G154-E155+F155)</f>
         <v/>
       </c>
       <c r="H155" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G156" s="3" t="str">
         <f>IF(ISBLANK(A156),"",'2018'!G155-E156+F156)</f>
         <v/>
       </c>
       <c r="H156" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G157" s="3" t="str">
         <f>IF(ISBLANK(A157),"",'2018'!G156-E157+F157)</f>
         <v/>
       </c>
       <c r="H157" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G158" s="3" t="str">
         <f>IF(ISBLANK(A158),"",'2018'!G157-E158+F158)</f>
         <v/>
       </c>
       <c r="H158" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G159" s="3" t="str">
         <f>IF(ISBLANK(A159),"",'2018'!G158-E159+F159)</f>
         <v/>
       </c>
       <c r="H159" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G160" s="3" t="str">
         <f>IF(ISBLANK(A160),"",'2018'!G159-E160+F160)</f>
         <v/>
       </c>
       <c r="H160" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G161" s="3" t="str">
         <f>IF(ISBLANK(A161),"",'2018'!G160-E161+F161)</f>
         <v/>
       </c>
       <c r="H161" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G162" s="3" t="str">
         <f>IF(ISBLANK(A162),"",'2018'!G161-E162+F162)</f>
         <v/>
       </c>
       <c r="H162" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G163" s="3" t="str">
         <f>IF(ISBLANK(A163),"",'2018'!G162-E163+F163)</f>
         <v/>
       </c>
       <c r="H163" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G164" s="3" t="str">
         <f>IF(ISBLANK(A164),"",'2018'!G163-E164+F164)</f>
         <v/>
       </c>
       <c r="H164" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G165" s="3" t="str">
         <f>IF(ISBLANK(A165),"",'2018'!G164-E165+F165)</f>
         <v/>
       </c>
       <c r="H165" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G166" s="3" t="str">
         <f>IF(ISBLANK(A166),"",'2018'!G165-E166+F166)</f>
         <v/>
       </c>
       <c r="H166" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G167" s="3" t="str">
         <f>IF(ISBLANK(A167),"",'2018'!G166-E167+F167)</f>
         <v/>
       </c>
       <c r="H167" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G168" s="3" t="str">
         <f>IF(ISBLANK(A168),"",'2018'!G167-E168+F168)</f>
         <v/>
       </c>
       <c r="H168" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G169" s="3" t="str">
         <f>IF(ISBLANK(A169),"",'2018'!G168-E169+F169)</f>
         <v/>
       </c>
       <c r="H169" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G170" s="3" t="str">
         <f>IF(ISBLANK(A170),"",'2018'!G169-E170+F170)</f>
         <v/>
       </c>
       <c r="H170" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G171" s="3" t="str">
         <f>IF(ISBLANK(A171),"",'2018'!G170-E171+F171)</f>
         <v/>
       </c>
       <c r="H171" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G172" s="3" t="str">
         <f>IF(ISBLANK(A172),"",'2018'!G171-E172+F172)</f>
         <v/>
       </c>
       <c r="H172" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G173" s="3" t="str">
         <f>IF(ISBLANK(A173),"",'2018'!G172-E173+F173)</f>
         <v/>
       </c>
       <c r="H173" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G174" s="3" t="str">
         <f>IF(ISBLANK(A174),"",'2018'!G173-E174+F174)</f>
         <v/>
       </c>
       <c r="H174" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G175" s="3" t="str">
         <f>IF(ISBLANK(A175),"",'2018'!G174-E175+F175)</f>
         <v/>
       </c>
       <c r="H175" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G176" s="3" t="str">
         <f>IF(ISBLANK(A176),"",'2018'!G175-E176+F176)</f>
         <v/>
       </c>
       <c r="H176" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G177" s="3" t="str">
         <f>IF(ISBLANK(A177),"",'2018'!G176-E177+F177)</f>
         <v/>
       </c>
       <c r="H177" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G178" s="3" t="str">
         <f>IF(ISBLANK(A178),"",'2018'!G177-E178+F178)</f>
         <v/>
       </c>
       <c r="H178" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G179" s="3" t="str">
         <f>IF(ISBLANK(A179),"",'2018'!G178-E179+F179)</f>
         <v/>
       </c>
       <c r="H179" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G180" s="3" t="str">
         <f>IF(ISBLANK(A180),"",'2018'!G179-E180+F180)</f>
         <v/>
       </c>
       <c r="H180" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G181" s="3" t="str">
         <f>IF(ISBLANK(A181),"",'2018'!G180-E181+F181)</f>
         <v/>
       </c>
       <c r="H181" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G182" s="3" t="str">
         <f>IF(ISBLANK(A182),"",'2018'!G181-E182+F182)</f>
         <v/>
       </c>
       <c r="H182" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G183" s="3" t="str">
         <f>IF(ISBLANK(A183),"",'2018'!G182-E183+F183)</f>
         <v/>
       </c>
       <c r="H183" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G184" s="3" t="str">
         <f>IF(ISBLANK(A184),"",'2018'!G183-E184+F184)</f>
         <v/>
       </c>
       <c r="H184" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G185" s="3" t="str">
         <f>IF(ISBLANK(A185),"",'2018'!G184-E185+F185)</f>
         <v/>
       </c>
       <c r="H185" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G186" s="3" t="str">
         <f>IF(ISBLANK(A186),"",'2018'!G185-E186+F186)</f>
         <v/>
       </c>
       <c r="H186" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G187" s="3" t="str">
         <f>IF(ISBLANK(A187),"",'2018'!G186-E187+F187)</f>
         <v/>
       </c>
       <c r="H187" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G188" s="3" t="str">
         <f>IF(ISBLANK(A188),"",'2018'!G187-E188+F188)</f>
         <v/>
       </c>
       <c r="H188" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G189" s="3" t="str">
         <f>IF(ISBLANK(A189),"",'2018'!G188-E189+F189)</f>
         <v/>
       </c>
       <c r="H189" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G190" s="3" t="str">
         <f>IF(ISBLANK(A190),"",'2018'!G189-E190+F190)</f>
         <v/>
       </c>
       <c r="H190" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G191" s="3" t="str">
         <f>IF(ISBLANK(A191),"",'2018'!G190-E191+F191)</f>
         <v/>
       </c>
       <c r="H191" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G192" s="3" t="str">
         <f>IF(ISBLANK(A192),"",'2018'!G191-E192+F192)</f>
         <v/>
       </c>
       <c r="H192" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G193" s="3" t="str">
         <f>IF(ISBLANK(A193),"",'2018'!G192-E193+F193)</f>
         <v/>
       </c>
       <c r="H193" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G194" s="3" t="str">
         <f>IF(ISBLANK(A194),"",'2018'!G193-E194+F194)</f>
         <v/>
       </c>
       <c r="H194" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G195" s="3" t="str">
         <f>IF(ISBLANK(A195),"",'2018'!G194-E195+F195)</f>
         <v/>
       </c>
       <c r="H195" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G196" s="3" t="str">
         <f>IF(ISBLANK(A196),"",'2018'!G195-E196+F196)</f>
         <v/>
       </c>
       <c r="H196" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G197" s="3" t="str">
         <f>IF(ISBLANK(A197),"",'2018'!G196-E197+F197)</f>
         <v/>
       </c>
       <c r="H197" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G198" s="3" t="str">
         <f>IF(ISBLANK(A198),"",'2018'!G197-E198+F198)</f>
         <v/>
       </c>
       <c r="H198" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G199" s="3" t="str">
         <f>IF(ISBLANK(A199),"",'2018'!G198-E199+F199)</f>
         <v/>
       </c>
       <c r="H199" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G200" s="3" t="str">
         <f>IF(ISBLANK(A200),"",'2018'!G199-E200+F200)</f>
         <v/>
       </c>
       <c r="H200" s="3" t="str">
-        <f t="shared" ref="H200:H256" si="8">IF(ISBLANK(B200),"",IF(D200="C",H199-E200+F200,H199+F200))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G201" s="3" t="str">
         <f>IF(ISBLANK(A201),"",'2018'!G200-E201+F201)</f>
         <v/>
       </c>
       <c r="H201" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G202" s="3" t="str">
         <f>IF(ISBLANK(A202),"",'2018'!G201-E202+F202)</f>
         <v/>
       </c>
       <c r="H202" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G203" s="3" t="str">
         <f>IF(ISBLANK(A203),"",'2018'!G202-E203+F203)</f>
         <v/>
       </c>
       <c r="H203" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H203:H260" si="7">IF(ISBLANK(A203),"",IF(D203="C",H202-E203+F203,H202+F203))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G204" s="3" t="str">
         <f>IF(ISBLANK(A204),"",'2018'!G203-E204+F204)</f>
         <v/>
       </c>
       <c r="H204" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G205" s="3" t="str">
         <f>IF(ISBLANK(A205),"",'2018'!G204-E205+F205)</f>
         <v/>
       </c>
       <c r="H205" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G206" s="3" t="str">
         <f>IF(ISBLANK(A206),"",'2018'!G205-E206+F206)</f>
         <v/>
       </c>
       <c r="H206" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G207" s="3" t="str">
         <f>IF(ISBLANK(A207),"",'2018'!G206-E207+F207)</f>
         <v/>
       </c>
       <c r="H207" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G208" s="3" t="str">
         <f>IF(ISBLANK(A208),"",'2018'!G207-E208+F208)</f>
         <v/>
       </c>
       <c r="H208" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G209" s="3" t="str">
         <f>IF(ISBLANK(A209),"",'2018'!G208-E209+F209)</f>
         <v/>
       </c>
       <c r="H209" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G210" s="3" t="str">
         <f>IF(ISBLANK(A210),"",'2018'!G209-E210+F210)</f>
         <v/>
       </c>
       <c r="H210" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G211" s="3" t="str">
         <f>IF(ISBLANK(A211),"",'2018'!G210-E211+F211)</f>
         <v/>
       </c>
       <c r="H211" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G212" s="3" t="str">
         <f>IF(ISBLANK(A212),"",'2018'!G211-E212+F212)</f>
         <v/>
       </c>
       <c r="H212" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G213" s="3" t="str">
         <f>IF(ISBLANK(A213),"",'2018'!G212-E213+F213)</f>
         <v/>
       </c>
       <c r="H213" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G214" s="3" t="str">
         <f>IF(ISBLANK(A214),"",'2018'!G213-E214+F214)</f>
         <v/>
       </c>
       <c r="H214" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G215" s="3" t="str">
         <f>IF(ISBLANK(A215),"",'2018'!G214-E215+F215)</f>
         <v/>
       </c>
       <c r="H215" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G216" s="3" t="str">
         <f>IF(ISBLANK(A216),"",'2018'!G215-E216+F216)</f>
         <v/>
       </c>
       <c r="H216" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G217" s="3" t="str">
         <f>IF(ISBLANK(A217),"",'2018'!G216-E217+F217)</f>
         <v/>
       </c>
       <c r="H217" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G218" s="3" t="str">
         <f>IF(ISBLANK(A218),"",'2018'!G217-E218+F218)</f>
         <v/>
       </c>
       <c r="H218" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G219" s="3" t="str">
         <f>IF(ISBLANK(A219),"",'2018'!G218-E219+F219)</f>
         <v/>
       </c>
       <c r="H219" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G220" s="3" t="str">
         <f>IF(ISBLANK(A220),"",'2018'!G219-E220+F220)</f>
         <v/>
       </c>
       <c r="H220" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G221" s="3" t="str">
         <f>IF(ISBLANK(A221),"",'2018'!G220-E221+F221)</f>
         <v/>
       </c>
       <c r="H221" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G222" s="3" t="str">
         <f>IF(ISBLANK(A222),"",'2018'!G221-E222+F222)</f>
         <v/>
       </c>
       <c r="H222" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G223" s="3" t="str">
         <f>IF(ISBLANK(A223),"",'2018'!G222-E223+F223)</f>
         <v/>
       </c>
       <c r="H223" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G224" s="3" t="str">
         <f>IF(ISBLANK(A224),"",'2018'!G223-E224+F224)</f>
         <v/>
       </c>
       <c r="H224" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G225" s="3" t="str">
         <f>IF(ISBLANK(A225),"",'2018'!G224-E225+F225)</f>
         <v/>
       </c>
       <c r="H225" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G226" s="3" t="str">
         <f>IF(ISBLANK(A226),"",'2018'!G225-E226+F226)</f>
         <v/>
       </c>
       <c r="H226" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G227" s="3" t="str">
         <f>IF(ISBLANK(A227),"",'2018'!G226-E227+F227)</f>
         <v/>
       </c>
       <c r="H227" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G228" s="3" t="str">
         <f>IF(ISBLANK(A228),"",'2018'!G227-E228+F228)</f>
         <v/>
       </c>
       <c r="H228" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G229" s="3" t="str">
         <f>IF(ISBLANK(A229),"",'2018'!G228-E229+F229)</f>
         <v/>
       </c>
       <c r="H229" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G230" s="3" t="str">
         <f>IF(ISBLANK(A230),"",'2018'!G229-E230+F230)</f>
         <v/>
       </c>
       <c r="H230" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G231" s="3" t="str">
         <f>IF(ISBLANK(A231),"",'2018'!G230-E231+F231)</f>
         <v/>
       </c>
       <c r="H231" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G232" s="3" t="str">
         <f>IF(ISBLANK(A232),"",'2018'!G231-E232+F232)</f>
         <v/>
       </c>
       <c r="H232" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G233" s="3" t="str">
         <f>IF(ISBLANK(A233),"",'2018'!G232-E233+F233)</f>
         <v/>
       </c>
       <c r="H233" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G234" s="3" t="str">
         <f>IF(ISBLANK(A234),"",'2018'!G233-E234+F234)</f>
         <v/>
       </c>
       <c r="H234" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G235" s="3" t="str">
         <f>IF(ISBLANK(A235),"",'2018'!G234-E235+F235)</f>
         <v/>
       </c>
       <c r="H235" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G236" s="3" t="str">
         <f>IF(ISBLANK(A236),"",'2018'!G235-E236+F236)</f>
         <v/>
       </c>
       <c r="H236" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G237" s="3" t="str">
         <f>IF(ISBLANK(A237),"",'2018'!G236-E237+F237)</f>
         <v/>
       </c>
       <c r="H237" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G238" s="3" t="str">
         <f>IF(ISBLANK(A238),"",'2018'!G237-E238+F238)</f>
         <v/>
       </c>
       <c r="H238" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G239" s="3" t="str">
         <f>IF(ISBLANK(A239),"",'2018'!G238-E239+F239)</f>
         <v/>
       </c>
       <c r="H239" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G240" s="3" t="str">
         <f>IF(ISBLANK(A240),"",'2018'!G239-E240+F240)</f>
         <v/>
       </c>
       <c r="H240" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G241" s="3" t="str">
         <f>IF(ISBLANK(A241),"",'2018'!G240-E241+F241)</f>
         <v/>
       </c>
       <c r="H241" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G242" s="3" t="str">
         <f>IF(ISBLANK(A242),"",'2018'!G241-E242+F242)</f>
         <v/>
       </c>
       <c r="H242" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G243" s="3" t="str">
         <f>IF(ISBLANK(A243),"",'2018'!G242-E243+F243)</f>
         <v/>
       </c>
       <c r="H243" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G244" s="3" t="str">
         <f>IF(ISBLANK(A244),"",'2018'!G243-E244+F244)</f>
         <v/>
       </c>
       <c r="H244" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G245" s="3" t="str">
         <f>IF(ISBLANK(A245),"",'2018'!G244-E245+F245)</f>
         <v/>
       </c>
       <c r="H245" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G246" s="3" t="str">
         <f>IF(ISBLANK(A246),"",'2018'!G245-E246+F246)</f>
         <v/>
       </c>
       <c r="H246" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G247" s="3" t="str">
         <f>IF(ISBLANK(A247),"",'2018'!G246-E247+F247)</f>
         <v/>
       </c>
       <c r="H247" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G248" s="3" t="str">
         <f>IF(ISBLANK(A248),"",'2018'!G247-E248+F248)</f>
         <v/>
       </c>
       <c r="H248" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="249" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G249" s="3" t="str">
         <f>IF(ISBLANK(A249),"",'2018'!G248-E249+F249)</f>
         <v/>
       </c>
       <c r="H249" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="250" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G250" s="3" t="str">
         <f>IF(ISBLANK(A250),"",'2018'!G249-E250+F250)</f>
         <v/>
       </c>
       <c r="H250" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G251" s="3" t="str">
         <f>IF(ISBLANK(A251),"",'2018'!G250-E251+F251)</f>
         <v/>
       </c>
       <c r="H251" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G252" s="3" t="str">
         <f>IF(ISBLANK(A252),"",'2018'!G251-E252+F252)</f>
         <v/>
       </c>
       <c r="H252" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G253" s="3" t="str">
         <f>IF(ISBLANK(A253),"",'2018'!G252-E253+F253)</f>
         <v/>
       </c>
       <c r="H253" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G254" s="3" t="str">
         <f>IF(ISBLANK(A254),"",'2018'!G253-E254+F254)</f>
         <v/>
       </c>
       <c r="H254" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G255" s="3" t="str">
         <f>IF(ISBLANK(A255),"",'2018'!G254-E255+F255)</f>
         <v/>
       </c>
       <c r="H255" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G256" s="3" t="str">
         <f>IF(ISBLANK(A256),"",'2018'!G255-E256+F256)</f>
         <v/>
       </c>
       <c r="H256" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G257" s="3"/>
-      <c r="H257" s="3"/>
-    </row>
-    <row r="258" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G258" s="3"/>
-      <c r="H258" s="3"/>
-    </row>
-    <row r="259" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G259" s="3"/>
-      <c r="H259" s="3"/>
-    </row>
-    <row r="260" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G260" s="3"/>
-      <c r="H260" s="3"/>
-    </row>
-    <row r="261" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G257" s="3" t="str">
+        <f>IF(ISBLANK(A257),"",'2018'!G256-E257+F257)</f>
+        <v/>
+      </c>
+      <c r="H257" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G258" s="3" t="str">
+        <f>IF(ISBLANK(A258),"",'2018'!G257-E258+F258)</f>
+        <v/>
+      </c>
+      <c r="H258" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G259" s="3" t="str">
+        <f>IF(ISBLANK(A259),"",'2018'!G258-E259+F259)</f>
+        <v/>
+      </c>
+      <c r="H259" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G260" s="3" t="str">
+        <f>IF(ISBLANK(A260),"",'2018'!G259-E260+F260)</f>
+        <v/>
+      </c>
+      <c r="H260" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
     </row>
-    <row r="262" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
     </row>
-    <row r="263" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
     </row>
-    <row r="264" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
     </row>
-    <row r="265" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
     </row>
-    <row r="266" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
     </row>
-    <row r="267" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
     </row>
-    <row r="268" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
     </row>
-    <row r="269" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
     </row>
-    <row r="270" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
     </row>
-    <row r="271" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
     </row>
-    <row r="272" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
     </row>
-    <row r="273" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
     </row>
-    <row r="274" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
     </row>
-    <row r="275" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
     </row>
-    <row r="276" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
     </row>
-    <row r="277" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
     </row>
-    <row r="278" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
     </row>
-    <row r="279" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
     </row>
-    <row r="280" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
     </row>
-    <row r="281" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
     </row>
-    <row r="282" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
     </row>
-    <row r="283" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
     </row>
-    <row r="284" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
     </row>
-    <row r="285" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
     </row>
-    <row r="286" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
     </row>
-    <row r="287" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
     </row>
-    <row r="288" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
     </row>
-    <row r="289" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
     </row>
-    <row r="290" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
     </row>
-    <row r="291" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
     </row>
-    <row r="292" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
     </row>
-    <row r="293" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
     </row>
-    <row r="294" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
     </row>
-    <row r="295" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
     </row>
-    <row r="296" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
     </row>
-    <row r="297" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
     </row>
-    <row r="298" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
     </row>
-    <row r="299" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
     </row>
-    <row r="300" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
     </row>
-    <row r="301" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
     </row>
-    <row r="302" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
     </row>
-    <row r="303" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
     </row>
-    <row r="304" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
     </row>
-    <row r="305" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
     </row>
-    <row r="306" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
     </row>
-    <row r="307" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
     </row>
-    <row r="308" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
     </row>
-    <row r="309" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
     </row>
-    <row r="310" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
     </row>
-    <row r="311" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
     </row>
-    <row r="312" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
     </row>
-    <row r="313" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
     </row>
-    <row r="314" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
     </row>
-    <row r="315" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
     </row>
-    <row r="316" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
     </row>
-    <row r="317" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
     </row>
-    <row r="318" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
     </row>
-    <row r="319" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
     </row>
-    <row r="320" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
     </row>
-    <row r="321" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
     </row>
-    <row r="322" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G322" s="3"/>
       <c r="H322" s="3"/>
     </row>
-    <row r="323" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
     </row>
-    <row r="324" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G324" s="3"/>
       <c r="H324" s="3"/>
     </row>
-    <row r="325" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
     </row>
-    <row r="326" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G326" s="3"/>
       <c r="H326" s="3"/>
     </row>
-    <row r="327" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
     </row>
-    <row r="328" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G328" s="3"/>
       <c r="H328" s="3"/>
     </row>
-    <row r="329" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
     </row>
-    <row r="330" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
     </row>
-    <row r="331" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
     </row>
-    <row r="332" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G332" s="3"/>
       <c r="H332" s="3"/>
     </row>
-    <row r="333" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
     </row>
-    <row r="334" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
     </row>
-    <row r="335" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
     </row>
-    <row r="336" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
     </row>
-    <row r="337" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
     </row>
-    <row r="338" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
     </row>
-    <row r="339" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
     </row>
-    <row r="340" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
     </row>
-    <row r="341" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
     </row>
-    <row r="342" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
     </row>
-    <row r="343" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
     </row>
-    <row r="344" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
     </row>
-    <row r="345" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
     </row>
-    <row r="346" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
     </row>
-    <row r="347" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
     </row>
-    <row r="348" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
     </row>
-    <row r="349" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
     </row>
-    <row r="350" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
     </row>
-    <row r="351" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
     </row>
-    <row r="352" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
     </row>
-    <row r="353" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
     </row>
-    <row r="354" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
     </row>
-    <row r="355" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
     </row>
-    <row r="356" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
     </row>
-    <row r="357" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
     </row>
-    <row r="358" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
     </row>
-    <row r="359" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
     </row>
-    <row r="360" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
     </row>
-    <row r="361" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
     </row>
-    <row r="362" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
     </row>
-    <row r="363" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
     </row>
-    <row r="364" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
     </row>
-    <row r="365" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
     </row>
-    <row r="366" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
     </row>
-    <row r="367" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
     </row>
-    <row r="368" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
     </row>
-    <row r="369" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
     </row>
-    <row r="370" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
     </row>
-    <row r="371" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
     </row>
-    <row r="372" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
     </row>
-    <row r="373" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
     </row>
-    <row r="374" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
     </row>
-    <row r="375" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
     </row>
-    <row r="376" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
     </row>
-    <row r="377" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
     </row>
-    <row r="378" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
     </row>
-    <row r="379" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
     </row>
-    <row r="380" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
     </row>
-    <row r="381" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
     </row>
-    <row r="382" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
     </row>
-    <row r="383" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G383" s="3"/>
       <c r="H383" s="3"/>
     </row>
-    <row r="384" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
     </row>
-    <row r="385" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
     </row>
-    <row r="386" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
     </row>
-    <row r="387" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
     </row>
-    <row r="388" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
     </row>
-    <row r="389" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
     </row>
-    <row r="390" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
     </row>
-    <row r="391" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
     </row>
-    <row r="392" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
     </row>
-    <row r="393" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
     </row>
-    <row r="394" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
     </row>
-    <row r="395" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
     </row>
-    <row r="396" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
     </row>
-    <row r="397" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
     </row>
-    <row r="398" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
     </row>
-    <row r="399" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
     </row>
-    <row r="400" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
     </row>
-    <row r="401" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
     </row>
-    <row r="402" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
     </row>
-    <row r="403" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
     </row>
-    <row r="404" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
     </row>
-    <row r="405" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
     </row>
-    <row r="406" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
     </row>
-    <row r="407" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
     </row>
-    <row r="408" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
     </row>
-    <row r="409" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
     </row>
-    <row r="410" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
     </row>
-    <row r="411" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
     </row>
-    <row r="412" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
     </row>
-    <row r="413" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
     </row>
-    <row r="414" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
     </row>
-    <row r="415" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
     </row>
-    <row r="416" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
     </row>
-    <row r="417" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
     </row>
-    <row r="418" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
     </row>
-    <row r="419" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
     </row>
-    <row r="420" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
     </row>
-    <row r="421" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
     </row>
-    <row r="422" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
     </row>
-    <row r="423" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
     </row>
-    <row r="424" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
     </row>
-    <row r="425" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
     </row>
-    <row r="426" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
     </row>
-    <row r="427" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
     </row>
-    <row r="428" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
     </row>
-    <row r="429" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
     </row>
-    <row r="430" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
     </row>
-    <row r="431" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
     </row>
-    <row r="432" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G432" s="3"/>
       <c r="H432" s="3"/>
     </row>
-    <row r="433" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
     </row>
-    <row r="434" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G434" s="3"/>
       <c r="H434" s="3"/>
     </row>
-    <row r="435" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
     </row>
-    <row r="436" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G436" s="3"/>
       <c r="H436" s="3"/>
     </row>
-    <row r="437" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
     </row>
-    <row r="438" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G438" s="3"/>
       <c r="H438" s="3"/>
     </row>
-    <row r="439" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
     </row>
-    <row r="440" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G440" s="3"/>
       <c r="H440" s="3"/>
     </row>
-    <row r="441" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
     </row>
-    <row r="442" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
     </row>
-    <row r="443" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
     </row>
-    <row r="444" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G444" s="3"/>
       <c r="H444" s="3"/>
     </row>
-    <row r="445" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
     </row>
-    <row r="446" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
     </row>
-    <row r="447" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
     </row>
-    <row r="448" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G448" s="3"/>
       <c r="H448" s="3"/>
     </row>
-    <row r="449" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G449" s="3"/>
       <c r="H449" s="3"/>
     </row>
-    <row r="450" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G450" s="3"/>
       <c r="H450" s="3"/>
     </row>
-    <row r="451" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
     </row>
-    <row r="452" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G452" s="3"/>
       <c r="H452" s="3"/>
     </row>
-    <row r="453" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G453" s="3"/>
       <c r="H453" s="3"/>
     </row>
-    <row r="454" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G454" s="3"/>
       <c r="H454" s="3"/>
     </row>
-    <row r="455" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G455" s="3"/>
       <c r="H455" s="3"/>
     </row>
-    <row r="456" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G456" s="3"/>
       <c r="H456" s="3"/>
     </row>
-    <row r="457" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G457" s="3"/>
       <c r="H457" s="3"/>
     </row>
-    <row r="458" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G458" s="3"/>
       <c r="H458" s="3"/>
     </row>
-    <row r="459" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G459" s="3"/>
       <c r="H459" s="3"/>
     </row>
-    <row r="460" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G460" s="3"/>
       <c r="H460" s="3"/>
     </row>
-    <row r="461" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G461" s="3"/>
       <c r="H461" s="3"/>
     </row>
-    <row r="462" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G462" s="3"/>
       <c r="H462" s="3"/>
     </row>
-    <row r="463" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G463" s="3"/>
       <c r="H463" s="3"/>
     </row>
-    <row r="464" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G464" s="3"/>
       <c r="H464" s="3"/>
     </row>
-    <row r="465" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G465" s="3"/>
       <c r="H465" s="3"/>
     </row>
-    <row r="466" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G466" s="3"/>
       <c r="H466" s="3"/>
     </row>
-    <row r="467" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G467" s="3"/>
       <c r="H467" s="3"/>
     </row>
-    <row r="468" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G468" s="3"/>
       <c r="H468" s="3"/>
     </row>
-    <row r="469" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G469" s="3"/>
       <c r="H469" s="3"/>
     </row>
-    <row r="470" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G470" s="3"/>
       <c r="H470" s="3"/>
     </row>
-    <row r="471" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G471" s="3"/>
       <c r="H471" s="3"/>
     </row>
-    <row r="472" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G472" s="3"/>
       <c r="H472" s="3"/>
     </row>
-    <row r="473" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G473" s="3"/>
       <c r="H473" s="3"/>
     </row>
-    <row r="474" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G474" s="3"/>
       <c r="H474" s="3"/>
     </row>
-    <row r="475" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G475" s="3"/>
       <c r="H475" s="3"/>
     </row>
-    <row r="476" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G476" s="3"/>
       <c r="H476" s="3"/>
     </row>
-    <row r="477" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G477" s="3"/>
       <c r="H477" s="3"/>
     </row>
-    <row r="478" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G478" s="3"/>
       <c r="H478" s="3"/>
     </row>
-    <row r="479" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G479" s="3"/>
       <c r="H479" s="3"/>
     </row>
-    <row r="480" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G480" s="3"/>
       <c r="H480" s="3"/>
     </row>
-    <row r="481" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G481" s="3"/>
       <c r="H481" s="3"/>
     </row>
-    <row r="482" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G482" s="3"/>
       <c r="H482" s="3"/>
     </row>
-    <row r="483" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G483" s="3"/>
       <c r="H483" s="3"/>
     </row>
-    <row r="484" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G484" s="3"/>
       <c r="H484" s="3"/>
     </row>
-    <row r="485" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G485" s="3"/>
       <c r="H485" s="3"/>
     </row>
-    <row r="486" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G486" s="3"/>
       <c r="H486" s="3"/>
     </row>
-    <row r="487" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G487" s="3"/>
       <c r="H487" s="3"/>
     </row>
-    <row r="488" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G488" s="3"/>
       <c r="H488" s="3"/>
     </row>
-    <row r="489" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G489" s="3"/>
       <c r="H489" s="3"/>
     </row>
-    <row r="490" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G490" s="3"/>
       <c r="H490" s="3"/>
     </row>
-    <row r="491" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G491" s="3"/>
       <c r="H491" s="3"/>
     </row>
-    <row r="492" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G492" s="3"/>
       <c r="H492" s="3"/>
     </row>
-    <row r="493" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G493" s="3"/>
       <c r="H493" s="3"/>
     </row>
-    <row r="494" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G494" s="3"/>
       <c r="H494" s="3"/>
     </row>
-    <row r="495" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G495" s="3"/>
       <c r="H495" s="3"/>
     </row>
-    <row r="496" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G496" s="3"/>
       <c r="H496" s="3"/>
     </row>
-    <row r="497" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G497" s="3"/>
       <c r="H497" s="3"/>
     </row>
-    <row r="498" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G498" s="3"/>
       <c r="H498" s="3"/>
     </row>
-    <row r="499" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G499" s="3"/>
       <c r="H499" s="3"/>
     </row>
-    <row r="500" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G500" s="3"/>
       <c r="H500" s="3"/>
     </row>
-    <row r="501" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G501" s="3"/>
       <c r="H501" s="3"/>
     </row>
-    <row r="502" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G502" s="3"/>
       <c r="H502" s="3"/>
     </row>
-    <row r="503" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G503" s="3"/>
       <c r="H503" s="3"/>
     </row>
-    <row r="504" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G504" s="3"/>
       <c r="H504" s="3"/>
     </row>
-    <row r="505" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G505" s="3"/>
       <c r="H505" s="3"/>
     </row>
-    <row r="506" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G506" s="3"/>
       <c r="H506" s="3"/>
     </row>
-    <row r="507" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G507" s="3"/>
       <c r="H507" s="3"/>
     </row>
-    <row r="508" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G508" s="3"/>
       <c r="H508" s="3"/>
     </row>
-    <row r="509" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G509" s="3"/>
       <c r="H509" s="3"/>
     </row>
-    <row r="510" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G510" s="3"/>
       <c r="H510" s="3"/>
     </row>
-    <row r="511" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G511" s="3"/>
       <c r="H511" s="3"/>
     </row>
-    <row r="512" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G512" s="3"/>
       <c r="H512" s="3"/>
     </row>
-    <row r="513" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G513" s="3"/>
       <c r="H513" s="3"/>
     </row>
-    <row r="514" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G514" s="3"/>
       <c r="H514" s="3"/>
     </row>
-    <row r="515" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G515" s="3"/>
       <c r="H515" s="3"/>
     </row>
-    <row r="516" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G516" s="3"/>
       <c r="H516" s="3"/>
     </row>
-    <row r="517" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G517" s="3"/>
       <c r="H517" s="3"/>
     </row>
-    <row r="518" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G518" s="3"/>
       <c r="H518" s="3"/>
     </row>
-    <row r="519" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G519" s="3"/>
       <c r="H519" s="3"/>
     </row>
-    <row r="520" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G520" s="3"/>
       <c r="H520" s="3"/>
     </row>
-    <row r="521" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G521" s="3"/>
       <c r="H521" s="3"/>
     </row>
-    <row r="522" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G522" s="3"/>
       <c r="H522" s="3"/>
     </row>
-    <row r="523" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G523" s="3"/>
       <c r="H523" s="3"/>
     </row>
-    <row r="524" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G524" s="3"/>
       <c r="H524" s="3"/>
     </row>
-    <row r="525" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G525" s="3"/>
       <c r="H525" s="3"/>
     </row>
-    <row r="526" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G526" s="3"/>
       <c r="H526" s="3"/>
     </row>
-    <row r="527" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G527" s="3"/>
       <c r="H527" s="3"/>
     </row>
-    <row r="528" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G528" s="3"/>
       <c r="H528" s="3"/>
     </row>
-    <row r="529" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G529" s="3"/>
       <c r="H529" s="3"/>
     </row>
-    <row r="530" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G530" s="3"/>
       <c r="H530" s="3"/>
     </row>
-    <row r="531" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G531" s="3"/>
       <c r="H531" s="3"/>
     </row>
-    <row r="532" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G532" s="3"/>
       <c r="H532" s="3"/>
     </row>
-    <row r="533" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G533" s="3"/>
       <c r="H533" s="3"/>
     </row>
-    <row r="534" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G534" s="3"/>
       <c r="H534" s="3"/>
     </row>
-    <row r="535" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G535" s="3"/>
       <c r="H535" s="3"/>
     </row>
-    <row r="536" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G536" s="3"/>
       <c r="H536" s="3"/>
     </row>
-    <row r="537" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G537" s="3"/>
       <c r="H537" s="3"/>
     </row>
-    <row r="538" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G538" s="3"/>
       <c r="H538" s="3"/>
     </row>
-    <row r="539" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G539" s="3"/>
       <c r="H539" s="3"/>
     </row>
-    <row r="540" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G540" s="3"/>
       <c r="H540" s="3"/>
     </row>
-    <row r="541" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G541" s="3"/>
       <c r="H541" s="3"/>
     </row>
-    <row r="542" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G542" s="3"/>
       <c r="H542" s="3"/>
     </row>
-    <row r="543" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G543" s="3"/>
       <c r="H543" s="3"/>
     </row>
-    <row r="544" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G544" s="3"/>
       <c r="H544" s="3"/>
     </row>
-    <row r="545" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G545" s="3"/>
       <c r="H545" s="3"/>
     </row>
-    <row r="546" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G546" s="3"/>
       <c r="H546" s="3"/>
     </row>
-    <row r="547" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G547" s="3"/>
       <c r="H547" s="3"/>
     </row>
-    <row r="548" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G548" s="3"/>
       <c r="H548" s="3"/>
     </row>
-    <row r="549" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G549" s="3"/>
       <c r="H549" s="3"/>
     </row>
-    <row r="550" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G550" s="3"/>
       <c r="H550" s="3"/>
     </row>
-    <row r="551" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G551" s="3"/>
       <c r="H551" s="3"/>
     </row>
-    <row r="552" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G552" s="3"/>
       <c r="H552" s="3"/>
     </row>
-    <row r="553" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G553" s="3"/>
       <c r="H553" s="3"/>
     </row>
-    <row r="554" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G554" s="3"/>
       <c r="H554" s="3"/>
     </row>
-    <row r="555" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G555" s="3"/>
       <c r="H555" s="3"/>
     </row>
-    <row r="556" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G556" s="3"/>
       <c r="H556" s="3"/>
     </row>
-    <row r="557" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G557" s="3"/>
       <c r="H557" s="3"/>
     </row>
-    <row r="558" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G558" s="3"/>
       <c r="H558" s="3"/>
     </row>
-    <row r="559" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G559" s="3"/>
       <c r="H559" s="3"/>
     </row>
-    <row r="560" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G560" s="3"/>
       <c r="H560" s="3"/>
     </row>
-    <row r="561" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G561" s="3"/>
       <c r="H561" s="3"/>
     </row>
-    <row r="562" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G562" s="3"/>
       <c r="H562" s="3"/>
     </row>
-    <row r="563" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G563" s="3"/>
       <c r="H563" s="3"/>
     </row>
-    <row r="564" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G564" s="3"/>
       <c r="H564" s="3"/>
     </row>
-    <row r="565" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G565" s="3"/>
       <c r="H565" s="3"/>
     </row>
-    <row r="566" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G566" s="3"/>
       <c r="H566" s="3"/>
     </row>
-    <row r="567" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G567" s="3"/>
       <c r="H567" s="3"/>
     </row>
-    <row r="568" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G568" s="3"/>
       <c r="H568" s="3"/>
     </row>
-    <row r="569" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G569" s="3"/>
       <c r="H569" s="3"/>
     </row>
-    <row r="570" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G570" s="3"/>
       <c r="H570" s="3"/>
     </row>
-    <row r="571" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G571" s="3"/>
       <c r="H571" s="3"/>
     </row>
-    <row r="572" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G572" s="3"/>
       <c r="H572" s="3"/>
     </row>
-    <row r="573" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G573" s="3"/>
       <c r="H573" s="3"/>
     </row>
-    <row r="574" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G574" s="3"/>
       <c r="H574" s="3"/>
     </row>
-    <row r="575" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G575" s="3"/>
       <c r="H575" s="3"/>
     </row>
-    <row r="576" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G576" s="3"/>
       <c r="H576" s="3"/>
     </row>
-    <row r="577" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G577" s="3"/>
       <c r="H577" s="3"/>
     </row>
-    <row r="578" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G578" s="3"/>
       <c r="H578" s="3"/>
     </row>
-    <row r="579" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G579" s="3"/>
       <c r="H579" s="3"/>
     </row>
-    <row r="580" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G580" s="3"/>
       <c r="H580" s="3"/>
     </row>
-    <row r="581" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G581" s="3"/>
       <c r="H581" s="3"/>
     </row>
-    <row r="582" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G582" s="3"/>
       <c r="H582" s="3"/>
     </row>
-    <row r="583" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G583" s="3"/>
       <c r="H583" s="3"/>
     </row>
-    <row r="584" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G584" s="3"/>
       <c r="H584" s="3"/>
     </row>
-    <row r="585" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G585" s="3"/>
       <c r="H585" s="3"/>
     </row>
-    <row r="586" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G586" s="3"/>
       <c r="H586" s="3"/>
     </row>
-    <row r="587" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G587" s="3"/>
       <c r="H587" s="3"/>
     </row>
-    <row r="588" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G588" s="3"/>
       <c r="H588" s="3"/>
     </row>
-    <row r="589" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G589" s="3"/>
       <c r="H589" s="3"/>
     </row>
-    <row r="590" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G590" s="3"/>
       <c r="H590" s="3"/>
     </row>
-    <row r="591" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G591" s="3"/>
       <c r="H591" s="3"/>
     </row>
-    <row r="592" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G592" s="3"/>
       <c r="H592" s="3"/>
     </row>
-    <row r="593" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G593" s="3"/>
       <c r="H593" s="3"/>
     </row>
-    <row r="594" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G594" s="3"/>
       <c r="H594" s="3"/>
     </row>
-    <row r="595" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G595" s="3"/>
       <c r="H595" s="3"/>
     </row>
-    <row r="596" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G596" s="3"/>
       <c r="H596" s="3"/>
     </row>
-    <row r="597" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G597" s="3"/>
       <c r="H597" s="3"/>
     </row>
-    <row r="598" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G598" s="3"/>
       <c r="H598" s="3"/>
     </row>
-    <row r="599" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G599" s="3"/>
       <c r="H599" s="3"/>
     </row>
-    <row r="600" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G600" s="3"/>
       <c r="H600" s="3"/>
     </row>
-    <row r="601" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G601" s="3"/>
       <c r="H601" s="3"/>
     </row>
-    <row r="602" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G602" s="3"/>
       <c r="H602" s="3"/>
     </row>
-    <row r="603" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G603" s="3"/>
       <c r="H603" s="3"/>
     </row>
-    <row r="604" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G604" s="3"/>
       <c r="H604" s="3"/>
     </row>
-    <row r="605" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G605" s="3"/>
       <c r="H605" s="3"/>
     </row>
-    <row r="606" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G606" s="3"/>
       <c r="H606" s="3"/>
     </row>
-    <row r="607" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G607" s="3"/>
       <c r="H607" s="3"/>
     </row>
-    <row r="608" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G608" s="3"/>
       <c r="H608" s="3"/>
     </row>
-    <row r="609" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G609" s="3"/>
       <c r="H609" s="3"/>
     </row>
-    <row r="610" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G610" s="3"/>
       <c r="H610" s="3"/>
     </row>
-    <row r="611" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G611" s="3"/>
       <c r="H611" s="3"/>
     </row>
-    <row r="612" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G612" s="3"/>
       <c r="H612" s="3"/>
     </row>
-    <row r="613" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G613" s="3"/>
       <c r="H613" s="3"/>
     </row>
-    <row r="614" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G614" s="3"/>
       <c r="H614" s="3"/>
     </row>
-    <row r="615" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G615" s="3"/>
       <c r="H615" s="3"/>
     </row>
-    <row r="616" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G616" s="3"/>
       <c r="H616" s="3"/>
     </row>
-    <row r="617" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G617" s="3"/>
       <c r="H617" s="3"/>
     </row>
-    <row r="618" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G618" s="3"/>
       <c r="H618" s="3"/>
     </row>
-    <row r="619" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G619" s="3"/>
       <c r="H619" s="3"/>
     </row>
-    <row r="620" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G620" s="3"/>
       <c r="H620" s="3"/>
     </row>
-    <row r="621" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G621" s="3"/>
       <c r="H621" s="3"/>
     </row>
-    <row r="622" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G622" s="3"/>
       <c r="H622" s="3"/>
     </row>
-    <row r="623" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G623" s="3"/>
       <c r="H623" s="3"/>
     </row>
-    <row r="624" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G624" s="3"/>
       <c r="H624" s="3"/>
     </row>
-    <row r="625" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G625" s="3"/>
       <c r="H625" s="3"/>
     </row>
-    <row r="626" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G626" s="3"/>
       <c r="H626" s="3"/>
     </row>
-    <row r="627" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G627" s="3"/>
       <c r="H627" s="3"/>
     </row>
-    <row r="628" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G628" s="3"/>
       <c r="H628" s="3"/>
     </row>
-    <row r="629" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G629" s="3"/>
       <c r="H629" s="3"/>
     </row>
-    <row r="630" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G630" s="3"/>
       <c r="H630" s="3"/>
     </row>
-    <row r="631" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G631" s="3"/>
       <c r="H631" s="3"/>
     </row>
-    <row r="632" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G632" s="3"/>
       <c r="H632" s="3"/>
     </row>
-    <row r="633" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G633" s="3"/>
       <c r="H633" s="3"/>
     </row>
-    <row r="634" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G634" s="3"/>
       <c r="H634" s="3"/>
     </row>
-    <row r="635" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G635" s="3"/>
       <c r="H635" s="3"/>
     </row>
-    <row r="636" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G636" s="3"/>
       <c r="H636" s="3"/>
     </row>
-    <row r="637" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G637" s="3"/>
       <c r="H637" s="3"/>
     </row>
-    <row r="638" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G638" s="3"/>
       <c r="H638" s="3"/>
     </row>
-    <row r="639" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G639" s="3"/>
       <c r="H639" s="3"/>
     </row>
-    <row r="640" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G640" s="3"/>
       <c r="H640" s="3"/>
     </row>
-    <row r="641" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G641" s="3"/>
       <c r="H641" s="3"/>
     </row>
-    <row r="642" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G642" s="3"/>
       <c r="H642" s="3"/>
     </row>
-    <row r="643" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G643" s="3"/>
       <c r="H643" s="3"/>
     </row>
-    <row r="644" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G644" s="3"/>
       <c r="H644" s="3"/>
     </row>
-    <row r="645" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G645" s="3"/>
       <c r="H645" s="3"/>
     </row>
-    <row r="646" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G646" s="3"/>
       <c r="H646" s="3"/>
     </row>
-    <row r="647" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G647" s="3"/>
       <c r="H647" s="3"/>
     </row>
-    <row r="648" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G648" s="3"/>
       <c r="H648" s="3"/>
     </row>
-    <row r="649" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G649" s="3"/>
       <c r="H649" s="3"/>
     </row>
-    <row r="650" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G650" s="3"/>
       <c r="H650" s="3"/>
     </row>
-    <row r="651" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G651" s="3"/>
       <c r="H651" s="3"/>
     </row>
-    <row r="652" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G652" s="3"/>
       <c r="H652" s="3"/>
     </row>
-    <row r="653" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G653" s="3"/>
       <c r="H653" s="3"/>
     </row>
-    <row r="654" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G654" s="3"/>
       <c r="H654" s="3"/>
     </row>
-    <row r="655" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G655" s="3"/>
       <c r="H655" s="3"/>
     </row>
-    <row r="656" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G656" s="3"/>
       <c r="H656" s="3"/>
     </row>
-    <row r="657" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G657" s="3"/>
       <c r="H657" s="3"/>
     </row>
-    <row r="658" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G658" s="3"/>
       <c r="H658" s="3"/>
     </row>
-    <row r="659" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G659" s="3"/>
       <c r="H659" s="3"/>
     </row>
-    <row r="660" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G660" s="3"/>
       <c r="H660" s="3"/>
     </row>
-    <row r="661" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G661" s="3"/>
       <c r="H661" s="3"/>
     </row>
-    <row r="662" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G662" s="3"/>
       <c r="H662" s="3"/>
     </row>
-    <row r="663" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G663" s="3"/>
       <c r="H663" s="3"/>
     </row>
-    <row r="664" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G664" s="3"/>
       <c r="H664" s="3"/>
     </row>
-    <row r="665" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G665" s="3"/>
       <c r="H665" s="3"/>
     </row>
-    <row r="666" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G666" s="3"/>
       <c r="H666" s="3"/>
     </row>
-    <row r="667" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G667" s="3"/>
       <c r="H667" s="3"/>
     </row>
-    <row r="668" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G668" s="3"/>
       <c r="H668" s="3"/>
     </row>
-    <row r="669" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G669" s="3"/>
       <c r="H669" s="3"/>
     </row>
-    <row r="670" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G670" s="3"/>
       <c r="H670" s="3"/>
     </row>
-    <row r="671" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G671" s="3"/>
       <c r="H671" s="3"/>
     </row>
-    <row r="672" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G672" s="3"/>
       <c r="H672" s="3"/>
     </row>
-    <row r="673" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G673" s="3"/>
       <c r="H673" s="3"/>
     </row>
-    <row r="674" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G674" s="3"/>
       <c r="H674" s="3"/>
     </row>
-    <row r="675" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G675" s="3"/>
       <c r="H675" s="3"/>
     </row>
-    <row r="676" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G676" s="3"/>
       <c r="H676" s="3"/>
     </row>
-    <row r="677" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G677" s="3"/>
       <c r="H677" s="3"/>
     </row>
-    <row r="678" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G678" s="3"/>
       <c r="H678" s="3"/>
     </row>
-    <row r="679" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G679" s="3"/>
       <c r="H679" s="3"/>
     </row>
-    <row r="680" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G680" s="3"/>
       <c r="H680" s="3"/>
     </row>
-    <row r="681" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G681" s="3"/>
       <c r="H681" s="3"/>
     </row>
-    <row r="682" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G682" s="3"/>
       <c r="H682" s="3"/>
     </row>
-    <row r="683" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G683" s="3"/>
       <c r="H683" s="3"/>
     </row>
-    <row r="684" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G684" s="3"/>
       <c r="H684" s="3"/>
     </row>
-    <row r="685" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G685" s="3"/>
       <c r="H685" s="3"/>
     </row>
-    <row r="686" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G686" s="3"/>
       <c r="H686" s="3"/>
     </row>
-    <row r="687" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G687" s="3"/>
       <c r="H687" s="3"/>
     </row>
-    <row r="688" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G688" s="3"/>
       <c r="H688" s="3"/>
     </row>
-    <row r="689" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G689" s="3"/>
       <c r="H689" s="3"/>
     </row>
-    <row r="690" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G690" s="3"/>
       <c r="H690" s="3"/>
     </row>
-    <row r="691" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G691" s="3"/>
       <c r="H691" s="3"/>
     </row>
-    <row r="692" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G692" s="3"/>
       <c r="H692" s="3"/>
     </row>
-    <row r="693" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G693" s="3"/>
       <c r="H693" s="3"/>
     </row>
-    <row r="694" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G694" s="3"/>
       <c r="H694" s="3"/>
     </row>
-    <row r="695" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G695" s="3"/>
       <c r="H695" s="3"/>
     </row>
-    <row r="696" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G696" s="3"/>
       <c r="H696" s="3"/>
     </row>
-    <row r="697" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G697" s="3"/>
       <c r="H697" s="3"/>
     </row>
-    <row r="698" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G698" s="3"/>
       <c r="H698" s="3"/>
     </row>
-    <row r="699" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G699" s="3"/>
       <c r="H699" s="3"/>
     </row>
-    <row r="700" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G700" s="3"/>
       <c r="H700" s="3"/>
     </row>
-    <row r="701" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G701" s="3"/>
       <c r="H701" s="3"/>
     </row>
-    <row r="702" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G702" s="3"/>
       <c r="H702" s="3"/>
     </row>
-    <row r="703" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G703" s="3"/>
       <c r="H703" s="3"/>
     </row>
-    <row r="704" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G704" s="3"/>
       <c r="H704" s="3"/>
     </row>
-    <row r="705" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G705" s="3"/>
       <c r="H705" s="3"/>
     </row>
-    <row r="706" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G706" s="3"/>
       <c r="H706" s="3"/>
     </row>
-    <row r="707" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G707" s="3"/>
       <c r="H707" s="3"/>
     </row>
-    <row r="708" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G708" s="3"/>
       <c r="H708" s="3"/>
     </row>
-    <row r="709" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G709" s="3"/>
       <c r="H709" s="3"/>
     </row>
-    <row r="710" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G710" s="3"/>
       <c r="H710" s="3"/>
     </row>
-    <row r="711" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G711" s="3"/>
       <c r="H711" s="3"/>
     </row>
-    <row r="712" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G712" s="3"/>
       <c r="H712" s="3"/>
     </row>
-    <row r="713" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G713" s="3"/>
       <c r="H713" s="3"/>
     </row>
-    <row r="714" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G714" s="3"/>
       <c r="H714" s="3"/>
     </row>
-    <row r="715" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G715" s="3"/>
       <c r="H715" s="3"/>
     </row>
-    <row r="716" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G716" s="3"/>
       <c r="H716" s="3"/>
     </row>
-    <row r="717" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G717" s="3"/>
       <c r="H717" s="3"/>
     </row>
-    <row r="718" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G718" s="3"/>
       <c r="H718" s="3"/>
     </row>
-    <row r="719" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G719" s="3"/>
       <c r="H719" s="3"/>
     </row>
-    <row r="720" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G720" s="3"/>
       <c r="H720" s="3"/>
     </row>
-    <row r="721" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G721" s="3"/>
       <c r="H721" s="3"/>
     </row>
-    <row r="722" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G722" s="3"/>
       <c r="H722" s="3"/>
     </row>
-    <row r="723" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G723" s="3"/>
       <c r="H723" s="3"/>
     </row>
-    <row r="724" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G724" s="3"/>
       <c r="H724" s="3"/>
     </row>
-    <row r="725" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G725" s="3"/>
       <c r="H725" s="3"/>
     </row>
-    <row r="726" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G726" s="3"/>
       <c r="H726" s="3"/>
     </row>
-    <row r="727" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G727" s="3"/>
       <c r="H727" s="3"/>
     </row>
-    <row r="728" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G728" s="3"/>
       <c r="H728" s="3"/>
     </row>
-    <row r="729" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G729" s="3"/>
       <c r="H729" s="3"/>
     </row>
-    <row r="730" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G730" s="3"/>
       <c r="H730" s="3"/>
     </row>
-    <row r="731" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G731" s="3"/>
       <c r="H731" s="3"/>
     </row>
-    <row r="732" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G732" s="3"/>
       <c r="H732" s="3"/>
     </row>
-    <row r="733" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G733" s="3"/>
       <c r="H733" s="3"/>
     </row>
-    <row r="734" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G734" s="3"/>
       <c r="H734" s="3"/>
     </row>
-    <row r="735" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G735" s="3"/>
       <c r="H735" s="3"/>
     </row>
-    <row r="736" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G736" s="3"/>
       <c r="H736" s="3"/>
     </row>
-    <row r="737" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G737" s="3"/>
       <c r="H737" s="3"/>
     </row>
-    <row r="738" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G738" s="3"/>
       <c r="H738" s="3"/>
     </row>
-    <row r="739" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G739" s="3"/>
       <c r="H739" s="3"/>
     </row>
-    <row r="740" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G740" s="3"/>
       <c r="H740" s="3"/>
     </row>
-    <row r="741" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G741" s="3"/>
       <c r="H741" s="3"/>
     </row>
-    <row r="742" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G742" s="3"/>
       <c r="H742" s="3"/>
     </row>
-    <row r="743" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G743" s="3"/>
       <c r="H743" s="3"/>
     </row>
-    <row r="744" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G744" s="3"/>
       <c r="H744" s="3"/>
     </row>
-    <row r="745" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G745" s="3"/>
       <c r="H745" s="3"/>
     </row>
-    <row r="746" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G746" s="3"/>
       <c r="H746" s="3"/>
     </row>
-    <row r="747" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G747" s="3"/>
       <c r="H747" s="3"/>
     </row>
-    <row r="748" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G748" s="3"/>
       <c r="H748" s="3"/>
     </row>
-    <row r="749" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G749" s="3"/>
       <c r="H749" s="3"/>
     </row>
-    <row r="750" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G750" s="3"/>
       <c r="H750" s="3"/>
     </row>
-    <row r="751" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G751" s="3"/>
       <c r="H751" s="3"/>
     </row>
-    <row r="752" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G752" s="3"/>
       <c r="H752" s="3"/>
     </row>
-    <row r="753" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G753" s="3"/>
       <c r="H753" s="3"/>
     </row>
-    <row r="754" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G754" s="3"/>
       <c r="H754" s="3"/>
     </row>
-    <row r="755" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G755" s="3"/>
       <c r="H755" s="3"/>
     </row>
-    <row r="756" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G756" s="3"/>
       <c r="H756" s="3"/>
     </row>
-    <row r="757" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G757" s="3"/>
       <c r="H757" s="3"/>
     </row>
-    <row r="758" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G758" s="3"/>
       <c r="H758" s="3"/>
     </row>
-    <row r="759" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G759" s="3"/>
       <c r="H759" s="3"/>
     </row>
-    <row r="760" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G760" s="3"/>
       <c r="H760" s="3"/>
     </row>
-    <row r="761" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G761" s="3"/>
       <c r="H761" s="3"/>
     </row>
-    <row r="762" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G762" s="3"/>
       <c r="H762" s="3"/>
     </row>
-    <row r="763" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G763" s="3"/>
       <c r="H763" s="3"/>
     </row>
-    <row r="764" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G764" s="3"/>
       <c r="H764" s="3"/>
     </row>
-    <row r="765" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G765" s="3"/>
       <c r="H765" s="3"/>
     </row>
-    <row r="766" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G766" s="3"/>
       <c r="H766" s="3"/>
     </row>
-    <row r="767" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G767" s="3"/>
       <c r="H767" s="3"/>
     </row>
-    <row r="768" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G768" s="3"/>
       <c r="H768" s="3"/>
     </row>
-    <row r="769" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G769" s="3"/>
       <c r="H769" s="3"/>
     </row>
-    <row r="770" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G770" s="3"/>
       <c r="H770" s="3"/>
     </row>
-    <row r="771" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G771" s="3"/>
       <c r="H771" s="3"/>
     </row>
-    <row r="772" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G772" s="3"/>
       <c r="H772" s="3"/>
     </row>
-    <row r="773" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G773" s="3"/>
       <c r="H773" s="3"/>
     </row>
-    <row r="774" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G774" s="3"/>
       <c r="H774" s="3"/>
     </row>
-    <row r="775" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G775" s="3"/>
       <c r="H775" s="3"/>
     </row>
-    <row r="776" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G776" s="3"/>
       <c r="H776" s="3"/>
     </row>
-    <row r="777" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G777" s="3"/>
       <c r="H777" s="3"/>
     </row>
-    <row r="778" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G778" s="3"/>
       <c r="H778" s="3"/>
     </row>
-    <row r="779" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G779" s="3"/>
       <c r="H779" s="3"/>
     </row>
-    <row r="780" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G780" s="3"/>
       <c r="H780" s="3"/>
     </row>
-    <row r="781" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G781" s="3"/>
       <c r="H781" s="3"/>
     </row>
-    <row r="782" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G782" s="3"/>
       <c r="H782" s="3"/>
     </row>
-    <row r="783" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G783" s="3"/>
       <c r="H783" s="3"/>
     </row>
-    <row r="784" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G784" s="3"/>
       <c r="H784" s="3"/>
     </row>
-    <row r="785" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G785" s="3"/>
       <c r="H785" s="3"/>
     </row>
-    <row r="786" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G786" s="3"/>
       <c r="H786" s="3"/>
     </row>
-    <row r="787" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G787" s="3"/>
       <c r="H787" s="3"/>
     </row>
-    <row r="788" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G788" s="3"/>
       <c r="H788" s="3"/>
     </row>
-    <row r="789" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G789" s="3"/>
       <c r="H789" s="3"/>
     </row>
-    <row r="790" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G790" s="3"/>
       <c r="H790" s="3"/>
     </row>
+    <row r="791" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G791" s="3"/>
+      <c r="H791" s="3"/>
+    </row>
+    <row r="792" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G792" s="3"/>
+      <c r="H792" s="3"/>
+    </row>
+    <row r="793" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G793" s="3"/>
+      <c r="H793" s="3"/>
+    </row>
+    <row r="794" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G794" s="3"/>
+      <c r="H794" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:E790">
-    <filterColumn colId="0">
-      <colorFilter dxfId="8"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="E1:E794"/>
   <conditionalFormatting sqref="E1:E20 E23:E102 E104:E1048576">
-    <cfRule type="expression" dxfId="40" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="19" stopIfTrue="1">
       <formula>D1="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="20">
+    <cfRule type="expression" dxfId="26" priority="20">
       <formula>NOT(ISBLANK(E1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M4">
-    <cfRule type="expression" dxfId="38" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="17" stopIfTrue="1">
       <formula>L2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="18">
+    <cfRule type="expression" dxfId="24" priority="18">
       <formula>NOT(ISBLANK(M2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="36" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="15" stopIfTrue="1">
       <formula>L5="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="16">
+    <cfRule type="expression" dxfId="22" priority="16">
       <formula>NOT(ISBLANK(M5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="34" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="13" stopIfTrue="1">
       <formula>E14="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="14">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>NOT(ISBLANK(F14))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J4">
-    <cfRule type="expression" dxfId="32" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
       <formula>I2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="12">
+    <cfRule type="expression" dxfId="18" priority="12">
       <formula>NOT(ISBLANK(J2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="30" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="9" stopIfTrue="1">
       <formula>I5="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>NOT(ISBLANK(J5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="28" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
       <formula>I6="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>NOT(ISBLANK(J6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="26" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
       <formula>I7="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>NOT(ISBLANK(J7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E22">
-    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
       <formula>D21="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>NOT(ISBLANK(E21))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
       <formula>D103="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>NOT(ISBLANK(E103))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14324,7 +14551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
@@ -14336,7 +14563,7 @@
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -15359,7 +15586,7 @@
         <v>15026.640000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>0</v>
       </c>
@@ -15995,34 +16222,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E17:E82 E1:E14">
-    <cfRule type="expression" dxfId="16" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>D1="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>NOT(ISBLANK(E1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E16">
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>D15="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>NOT(ISBLANK(E15))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89:E115">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>D89="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>NOT(ISBLANK(E89))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>D116="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>NOT(ISBLANK(E116))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MIACADA Ledger.xlsx
+++ b/MIACADA Ledger.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="330" yWindow="735" windowWidth="11355" windowHeight="8250" tabRatio="657" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="330" yWindow="735" windowWidth="11355" windowHeight="8250" tabRatio="657" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="1" state="hidden" r:id="rId1"/>
@@ -23,26 +23,26 @@
     <sheet name="2015" sheetId="8" state="hidden" r:id="rId9"/>
     <sheet name="2016" sheetId="7" state="hidden" r:id="rId10"/>
     <sheet name="2017" sheetId="6" r:id="rId11"/>
-    <sheet name="2017 Summary" sheetId="14" r:id="rId12"/>
+    <sheet name="2017 Summary" sheetId="14" state="hidden" r:id="rId12"/>
     <sheet name="2018" sheetId="5" r:id="rId13"/>
-    <sheet name="2018 Summary" sheetId="15" r:id="rId14"/>
-    <sheet name="2018 Summary Oct Board Meeting" sheetId="16" r:id="rId15"/>
+    <sheet name="2018 Summary" sheetId="15" state="hidden" r:id="rId14"/>
+    <sheet name="2018 Summary Oct Board Meeting" sheetId="16" state="hidden" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'2017'!$E$1:$E$71</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'2018'!$E$1:$E$794</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'2018'!$E$1:$E$793</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId16"/>
     <pivotCache cacheId="1" r:id="rId17"/>
-    <pivotCache cacheId="4" r:id="rId18"/>
+    <pivotCache cacheId="2" r:id="rId18"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="410">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -1263,6 +1263,15 @@
   </si>
   <si>
     <t>ANTICIPATED BALANCE:</t>
+  </si>
+  <si>
+    <t>Webinar, Michigan State</t>
+  </si>
+  <si>
+    <t>NACADA Region V Donation</t>
+  </si>
+  <si>
+    <t>Rachl Pawlowski, NACADA conference travel</t>
   </si>
 </sst>
 </file>
@@ -1392,35 +1401,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="43">
     <dxf>
       <fill>
         <patternFill>
@@ -1750,7 +1731,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1934,11 +1914,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="294249184"/>
-        <c:axId val="294249744"/>
+        <c:axId val="306121312"/>
+        <c:axId val="306121872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="294249184"/>
+        <c:axId val="306121312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1981,7 +1961,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294249744"/>
+        <c:crossAx val="306121872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1989,7 +1969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="294249744"/>
+        <c:axId val="306121872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2040,7 +2020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294249184"/>
+        <c:crossAx val="306121312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2054,7 +2034,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2151,7 +2130,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2305,11 +2283,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="294253104"/>
-        <c:axId val="294253664"/>
+        <c:axId val="306125232"/>
+        <c:axId val="306125792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="294253104"/>
+        <c:axId val="306125232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2352,7 +2330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294253664"/>
+        <c:crossAx val="306125792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2360,7 +2338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="294253664"/>
+        <c:axId val="306125792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2411,7 +2389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294253104"/>
+        <c:crossAx val="306125232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2425,7 +2403,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2645,7 +2622,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -2657,6 +2634,104 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -3262,11 +3337,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="482301632"/>
-        <c:axId val="482302192"/>
+        <c:axId val="305532272"/>
+        <c:axId val="305532832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="482301632"/>
+        <c:axId val="305532272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3309,7 +3384,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482302192"/>
+        <c:crossAx val="305532832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3317,7 +3392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="482302192"/>
+        <c:axId val="305532832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3368,7 +3443,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482301632"/>
+        <c:crossAx val="305532272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6582,7 +6657,7 @@
     <dataField name="Sum of Cost" fld="0" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="46">
+    <format dxfId="42">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -6702,7 +6777,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A153:B163" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -6766,7 +6841,7 @@
   <dataFields count="1">
     <dataField name="Sum of  Payment Amount" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="11">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -6805,6 +6880,90 @@
           </reference>
           <reference field="5" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -10990,11 +11149,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M794"/>
+  <dimension ref="A1:M793"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11097,7 +11255,7 @@
       <c r="J3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>43116</v>
       </c>
@@ -11119,7 +11277,7 @@
       <c r="J4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>43117</v>
       </c>
@@ -11141,7 +11299,7 @@
       <c r="J5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>43118</v>
       </c>
@@ -11163,7 +11321,7 @@
       <c r="J6" s="24"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <v>43119</v>
       </c>
@@ -11184,7 +11342,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>43122</v>
       </c>
@@ -11205,7 +11363,7 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>43123</v>
       </c>
@@ -11252,7 +11410,7 @@
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>43124</v>
       </c>
@@ -11273,7 +11431,7 @@
       <c r="J11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="28">
         <v>43125</v>
       </c>
@@ -11346,7 +11504,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="28">
         <v>43131</v>
       </c>
@@ -11365,7 +11523,7 @@
         <v>7822.0200000000032</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="28">
         <v>43133</v>
       </c>
@@ -11384,7 +11542,7 @@
         <v>7836.2800000000034</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="28">
         <v>43144</v>
       </c>
@@ -11403,7 +11561,7 @@
         <v>7851.2800000000034</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="28">
         <v>43145</v>
       </c>
@@ -11422,7 +11580,7 @@
         <v>7865.5400000000036</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="28">
         <v>43147</v>
       </c>
@@ -11466,7 +11624,7 @@
         <v>7324.390000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="28">
         <v>43152</v>
       </c>
@@ -11485,7 +11643,7 @@
         <v>7338.6500000000042</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="28">
         <v>43154</v>
       </c>
@@ -11504,7 +11662,7 @@
         <v>7352.9100000000044</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="28">
         <v>43164</v>
       </c>
@@ -11524,7 +11682,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="28">
         <v>43165</v>
       </c>
@@ -11543,7 +11701,7 @@
         <v>7589.5900000000047</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="28">
         <v>43166</v>
       </c>
@@ -11637,7 +11795,7 @@
         <v>7272.4000000000051</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="28">
         <v>43171</v>
       </c>
@@ -11656,7 +11814,7 @@
         <v>7335.2100000000055</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="28">
         <v>43172</v>
       </c>
@@ -11675,7 +11833,7 @@
         <v>7769.1100000000051</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="28">
         <v>43174</v>
       </c>
@@ -11694,7 +11852,7 @@
         <v>7783.3700000000053</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="28">
         <v>43175</v>
       </c>
@@ -11713,7 +11871,7 @@
         <v>7966.0300000000052</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="28">
         <v>43178</v>
       </c>
@@ -11732,7 +11890,7 @@
         <v>8057.3600000000051</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="28">
         <v>43178</v>
       </c>
@@ -11773,7 +11931,7 @@
         <v>7945.8800000000056</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="28">
         <v>43180</v>
       </c>
@@ -11792,7 +11950,7 @@
         <v>8071.2000000000053</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="28">
         <v>43181</v>
       </c>
@@ -11811,7 +11969,7 @@
         <v>8182.2600000000057</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="28">
         <v>43182</v>
       </c>
@@ -11855,7 +12013,7 @@
         <v>8131.5200000000059</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="28">
         <v>43185</v>
       </c>
@@ -11874,7 +12032,7 @@
         <v>8174.3000000000056</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="28">
         <v>43185</v>
       </c>
@@ -11893,7 +12051,7 @@
         <v>8237.110000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="28">
         <v>43185</v>
       </c>
@@ -11912,7 +12070,7 @@
         <v>8407.110000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="28">
         <v>43186</v>
       </c>
@@ -11931,7 +12089,7 @@
         <v>8469.9200000000055</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="28">
         <v>43187</v>
       </c>
@@ -11950,7 +12108,7 @@
         <v>8595.5400000000063</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="28">
         <v>43188</v>
       </c>
@@ -11969,7 +12127,7 @@
         <v>8735.4200000000055</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="28">
         <v>43189</v>
       </c>
@@ -11988,7 +12146,7 @@
         <v>8846.1800000000057</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="28">
         <v>43192</v>
       </c>
@@ -12007,7 +12165,7 @@
         <v>8923.2500000000055</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="28">
         <v>43195</v>
       </c>
@@ -12026,7 +12184,7 @@
         <v>9238.2500000000055</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="28">
         <v>43199</v>
       </c>
@@ -12045,7 +12203,7 @@
         <v>9252.5100000000057</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="28">
         <v>43201</v>
       </c>
@@ -12064,7 +12222,7 @@
         <v>9315.3200000000052</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="28">
         <v>43202</v>
       </c>
@@ -12083,7 +12241,7 @@
         <v>9467.940000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="28">
         <v>43203</v>
       </c>
@@ -12102,7 +12260,7 @@
         <v>9796.2500000000055</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="28">
         <v>43206</v>
       </c>
@@ -12121,7 +12279,7 @@
         <v>9936.1300000000047</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="28">
         <v>43209</v>
       </c>
@@ -12140,7 +12298,7 @@
         <v>10313.910000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="28">
         <v>43210</v>
       </c>
@@ -12159,7 +12317,7 @@
         <v>10565.150000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="28">
         <v>43213</v>
       </c>
@@ -12178,7 +12336,7 @@
         <v>10627.960000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="28">
         <v>43213</v>
       </c>
@@ -12197,7 +12355,7 @@
         <v>12592.960000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="28">
         <v>43214</v>
       </c>
@@ -12241,7 +12399,7 @@
         <v>12454.020000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="28">
         <v>43215</v>
       </c>
@@ -12260,7 +12418,7 @@
         <v>13271.170000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="28">
         <v>43216</v>
       </c>
@@ -12279,7 +12437,7 @@
         <v>13459.300000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="22">
         <v>43217</v>
       </c>
@@ -12348,7 +12506,7 @@
         <v>13975.800000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="28">
         <v>43220</v>
       </c>
@@ -12367,7 +12525,7 @@
         <v>14052.870000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="28">
         <v>43222</v>
       </c>
@@ -12386,7 +12544,7 @@
         <v>14366.620000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="28">
         <v>43223</v>
       </c>
@@ -12405,7 +12563,7 @@
         <v>14792.650000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="28">
         <v>43224</v>
       </c>
@@ -12449,7 +12607,7 @@
         <v>14778.360000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="28">
         <v>43227</v>
       </c>
@@ -12468,7 +12626,7 @@
         <v>14889.420000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="28">
         <v>43227</v>
       </c>
@@ -12562,7 +12720,7 @@
         <v>14407.080000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="28">
         <v>43229</v>
       </c>
@@ -12581,7 +12739,7 @@
         <v>14720.830000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="28">
         <v>43231</v>
       </c>
@@ -12600,7 +12758,7 @@
         <v>14909.260000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="28">
         <v>43234</v>
       </c>
@@ -12619,7 +12777,7 @@
         <v>16232.550000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="28">
         <v>43234</v>
       </c>
@@ -12638,7 +12796,7 @@
         <v>16357.870000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="28">
         <v>43235</v>
       </c>
@@ -12707,7 +12865,7 @@
         <v>16141.940000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="28">
         <v>43236</v>
       </c>
@@ -12726,7 +12884,7 @@
         <v>16460.86</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="28">
         <v>43236</v>
       </c>
@@ -12745,7 +12903,7 @@
         <v>17480.86</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="28">
         <v>43237</v>
       </c>
@@ -12764,7 +12922,7 @@
         <v>17795.53</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="28">
         <v>43238</v>
       </c>
@@ -12783,7 +12941,7 @@
         <v>18235.82</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="28">
         <v>43241</v>
       </c>
@@ -12927,7 +13085,7 @@
         <v>11532.85</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="28">
         <v>43245</v>
       </c>
@@ -12946,7 +13104,7 @@
         <v>11575.630000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="28">
         <v>43249</v>
       </c>
@@ -12965,7 +13123,7 @@
         <v>11589.890000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="28">
         <v>43249</v>
       </c>
@@ -13009,7 +13167,7 @@
         <v>11609.890000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="28">
         <v>43251</v>
       </c>
@@ -13028,7 +13186,7 @@
         <v>11624.150000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="28">
         <v>43252</v>
       </c>
@@ -13047,7 +13205,7 @@
         <v>11638.410000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="28">
         <v>43255</v>
       </c>
@@ -13066,7 +13224,7 @@
         <v>11652.670000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="28">
         <v>43256</v>
       </c>
@@ -13085,7 +13243,7 @@
         <v>11666.930000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="28">
         <v>43262</v>
       </c>
@@ -13104,7 +13262,7 @@
         <v>11681.190000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="28">
         <v>43266</v>
       </c>
@@ -13123,7 +13281,7 @@
         <v>11695.450000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="28">
         <v>43273</v>
       </c>
@@ -13167,7 +13325,7 @@
         <v>11609.710000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="28">
         <v>43278</v>
       </c>
@@ -13182,11 +13340,11 @@
         <v>11623.970000000003</v>
       </c>
       <c r="H104" s="3">
-        <f t="shared" ref="H104:H140" si="5">IF(ISBLANK(A104),"",IF(D104="C",H103-E104+F104,H103+F104))</f>
+        <f t="shared" ref="H104:H167" si="5">IF(ISBLANK(A104),"",IF(D104="C",H103-E104+F104,H103+F104))</f>
         <v>11623.970000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="28">
         <v>43279</v>
       </c>
@@ -13205,7 +13363,7 @@
         <v>11638.230000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="28">
         <v>43279</v>
       </c>
@@ -13224,7 +13382,7 @@
         <v>11923.230000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="28">
         <v>43283</v>
       </c>
@@ -13243,7 +13401,7 @@
         <v>11937.490000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="28">
         <v>43286</v>
       </c>
@@ -13262,7 +13420,7 @@
         <v>11951.750000000004</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="28">
         <v>43299</v>
       </c>
@@ -13306,7 +13464,7 @@
         <v>10041.750000000004</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="28">
         <v>43307</v>
       </c>
@@ -13350,7 +13508,7 @@
         <v>9670.2700000000041</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="28">
         <v>43313</v>
       </c>
@@ -13369,7 +13527,7 @@
         <v>9757.0500000000047</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="28">
         <v>43314</v>
       </c>
@@ -13388,7 +13546,7 @@
         <v>9771.3100000000049</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="28">
         <v>43320</v>
       </c>
@@ -13407,7 +13565,7 @@
         <v>9785.5700000000052</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="28">
         <v>43325</v>
       </c>
@@ -13451,7 +13609,7 @@
         <v>9735.8300000000054</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="28">
         <v>43327</v>
       </c>
@@ -13520,7 +13678,7 @@
         <v>9472.3800000000047</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="28">
         <v>43336</v>
       </c>
@@ -13589,7 +13747,7 @@
         <v>8706.5400000000045</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="28">
         <v>43342</v>
       </c>
@@ -13608,7 +13766,7 @@
         <v>8721.5400000000045</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="28">
         <v>43347</v>
       </c>
@@ -13652,7 +13810,7 @@
         <v>8665.0600000000049</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="28">
         <v>43349</v>
       </c>
@@ -13748,7 +13906,7 @@
         <v>7751.2500000000055</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="28">
         <v>43357</v>
       </c>
@@ -13767,7 +13925,7 @@
         <v>7765.5100000000057</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="28">
         <v>43367</v>
       </c>
@@ -13821,6 +13979,9 @@
       <c r="C134" s="20" t="s">
         <v>396</v>
       </c>
+      <c r="D134" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E134" s="3">
         <v>250</v>
       </c>
@@ -13830,7 +13991,7 @@
       </c>
       <c r="H134" s="3">
         <f t="shared" si="5"/>
-        <v>7029.7700000000059</v>
+        <v>6779.7700000000059</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -13855,10 +14016,10 @@
       </c>
       <c r="H135" s="3">
         <f t="shared" si="5"/>
-        <v>6379.7700000000059</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>6129.7700000000059</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="28">
         <v>43374</v>
       </c>
@@ -13874,10 +14035,10 @@
       </c>
       <c r="H136" s="3">
         <f t="shared" si="5"/>
-        <v>6394.0300000000061</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>6144.0300000000061</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="28">
         <v>43374</v>
       </c>
@@ -13893,7 +14054,7 @@
       </c>
       <c r="H137" s="3">
         <f t="shared" si="5"/>
-        <v>6408.2900000000063</v>
+        <v>6158.2900000000063</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -13906,6 +14067,9 @@
       <c r="C138" s="20" t="s">
         <v>398</v>
       </c>
+      <c r="D138" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E138" s="3">
         <v>125</v>
       </c>
@@ -13915,10 +14079,10 @@
       </c>
       <c r="H138" s="3">
         <f t="shared" si="5"/>
-        <v>6408.2900000000063</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>6033.2900000000063</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="28">
         <v>43385</v>
       </c>
@@ -13934,300 +14098,369 @@
       </c>
       <c r="H139" s="3">
         <f t="shared" si="5"/>
-        <v>6436.8100000000068</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G140" s="3" t="str">
+        <v>6061.8100000000068</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="28">
+        <v>43397</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F140">
+        <v>28.83</v>
+      </c>
+      <c r="G140" s="3">
         <f>IF(ISBLANK(A140),"",'2018'!G139-E140+F140)</f>
-        <v/>
-      </c>
-      <c r="H140" s="3" t="str">
+        <v>6090.6400000000067</v>
+      </c>
+      <c r="H140" s="3">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G141" s="3" t="str">
+        <v>6090.6400000000067</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="28">
+        <v>43397</v>
+      </c>
+      <c r="B141">
+        <v>1386</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="3">
+        <v>125</v>
+      </c>
+      <c r="G141" s="3">
         <f>IF(ISBLANK(A141),"",'2018'!G140-E141+F141)</f>
-        <v/>
-      </c>
-      <c r="H141" s="3" t="str">
-        <f t="shared" ref="H141:H202" si="6">IF(ISBLANK(A141),"",IF(D141="C",H140-E141+F141,H140+F141))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G142" s="3" t="str">
+        <v>5965.6400000000067</v>
+      </c>
+      <c r="H141" s="3">
+        <f t="shared" si="5"/>
+        <v>5965.6400000000067</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="28">
+        <v>43397</v>
+      </c>
+      <c r="B142">
+        <v>1387</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="3">
+        <v>500</v>
+      </c>
+      <c r="G142" s="3">
         <f>IF(ISBLANK(A142),"",'2018'!G141-E142+F142)</f>
-        <v/>
-      </c>
-      <c r="H142" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G143" s="3" t="str">
+        <v>5465.6400000000067</v>
+      </c>
+      <c r="H142" s="3">
+        <f t="shared" si="5"/>
+        <v>5465.6400000000067</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="28">
+        <v>43402</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F143">
+        <v>14.26</v>
+      </c>
+      <c r="G143" s="3">
         <f>IF(ISBLANK(A143),"",'2018'!G142-E143+F143)</f>
-        <v/>
-      </c>
-      <c r="H143" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G144" s="3" t="str">
+        <v>5479.9000000000069</v>
+      </c>
+      <c r="H143" s="3">
+        <f t="shared" si="5"/>
+        <v>5479.9000000000069</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="28">
+        <v>43403</v>
+      </c>
+      <c r="C144" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F144">
+        <v>14.26</v>
+      </c>
+      <c r="G144" s="3">
         <f>IF(ISBLANK(A144),"",'2018'!G143-E144+F144)</f>
-        <v/>
-      </c>
-      <c r="H144" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G145" s="3" t="str">
+        <v>5494.1600000000071</v>
+      </c>
+      <c r="H144" s="3">
+        <f t="shared" si="5"/>
+        <v>5494.1600000000071</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="28">
+        <v>43418</v>
+      </c>
+      <c r="B145">
+        <v>1388</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="E145" s="3">
+        <v>285.60000000000002</v>
+      </c>
+      <c r="G145" s="3">
         <f>IF(ISBLANK(A145),"",'2018'!G144-E145+F145)</f>
-        <v/>
-      </c>
-      <c r="H145" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>5208.5600000000068</v>
+      </c>
+      <c r="H145" s="3">
+        <f t="shared" si="5"/>
+        <v>5494.1600000000071</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G146" s="3" t="str">
         <f>IF(ISBLANK(A146),"",'2018'!G145-E146+F146)</f>
         <v/>
       </c>
       <c r="H146" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G147" s="3" t="str">
         <f>IF(ISBLANK(A147),"",'2018'!G146-E147+F147)</f>
         <v/>
       </c>
       <c r="H147" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G148" s="3" t="str">
         <f>IF(ISBLANK(A148),"",'2018'!G147-E148+F148)</f>
         <v/>
       </c>
       <c r="H148" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G149" s="3" t="str">
         <f>IF(ISBLANK(A149),"",'2018'!G148-E149+F149)</f>
         <v/>
       </c>
       <c r="H149" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G150" s="3" t="str">
         <f>IF(ISBLANK(A150),"",'2018'!G149-E150+F150)</f>
         <v/>
       </c>
       <c r="H150" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G151" s="3" t="str">
         <f>IF(ISBLANK(A151),"",'2018'!G150-E151+F151)</f>
         <v/>
       </c>
       <c r="H151" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G152" s="3" t="str">
         <f>IF(ISBLANK(A152),"",'2018'!G151-E152+F152)</f>
         <v/>
       </c>
       <c r="H152" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G153" s="3" t="str">
         <f>IF(ISBLANK(A153),"",'2018'!G152-E153+F153)</f>
         <v/>
       </c>
       <c r="H153" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G154" s="3" t="str">
         <f>IF(ISBLANK(A154),"",'2018'!G153-E154+F154)</f>
         <v/>
       </c>
       <c r="H154" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G155" s="3" t="str">
         <f>IF(ISBLANK(A155),"",'2018'!G154-E155+F155)</f>
         <v/>
       </c>
       <c r="H155" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G156" s="3" t="str">
         <f>IF(ISBLANK(A156),"",'2018'!G155-E156+F156)</f>
         <v/>
       </c>
       <c r="H156" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G157" s="3" t="str">
         <f>IF(ISBLANK(A157),"",'2018'!G156-E157+F157)</f>
         <v/>
       </c>
       <c r="H157" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G158" s="3" t="str">
         <f>IF(ISBLANK(A158),"",'2018'!G157-E158+F158)</f>
         <v/>
       </c>
       <c r="H158" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G159" s="3" t="str">
         <f>IF(ISBLANK(A159),"",'2018'!G158-E159+F159)</f>
         <v/>
       </c>
       <c r="H159" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G160" s="3" t="str">
         <f>IF(ISBLANK(A160),"",'2018'!G159-E160+F160)</f>
         <v/>
       </c>
       <c r="H160" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G161" s="3" t="str">
         <f>IF(ISBLANK(A161),"",'2018'!G160-E161+F161)</f>
         <v/>
       </c>
       <c r="H161" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G162" s="3" t="str">
         <f>IF(ISBLANK(A162),"",'2018'!G161-E162+F162)</f>
         <v/>
       </c>
       <c r="H162" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G163" s="3" t="str">
         <f>IF(ISBLANK(A163),"",'2018'!G162-E163+F163)</f>
         <v/>
       </c>
       <c r="H163" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G164" s="3" t="str">
         <f>IF(ISBLANK(A164),"",'2018'!G163-E164+F164)</f>
         <v/>
       </c>
       <c r="H164" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G165" s="3" t="str">
         <f>IF(ISBLANK(A165),"",'2018'!G164-E165+F165)</f>
         <v/>
       </c>
       <c r="H165" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G166" s="3" t="str">
         <f>IF(ISBLANK(A166),"",'2018'!G165-E166+F166)</f>
         <v/>
       </c>
       <c r="H166" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G167" s="3" t="str">
         <f>IF(ISBLANK(A167),"",'2018'!G166-E167+F167)</f>
         <v/>
       </c>
       <c r="H167" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G168" s="3" t="str">
         <f>IF(ISBLANK(A168),"",'2018'!G167-E168+F168)</f>
         <v/>
       </c>
       <c r="H168" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H168:H231" si="6">IF(ISBLANK(A168),"",IF(D168="C",H167-E168+F168,H167+F168))</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G169" s="3" t="str">
         <f>IF(ISBLANK(A169),"",'2018'!G168-E169+F169)</f>
         <v/>
@@ -14237,7 +14470,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G170" s="3" t="str">
         <f>IF(ISBLANK(A170),"",'2018'!G169-E170+F170)</f>
         <v/>
@@ -14247,7 +14480,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G171" s="3" t="str">
         <f>IF(ISBLANK(A171),"",'2018'!G170-E171+F171)</f>
         <v/>
@@ -14257,7 +14490,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G172" s="3" t="str">
         <f>IF(ISBLANK(A172),"",'2018'!G171-E172+F172)</f>
         <v/>
@@ -14267,7 +14500,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G173" s="3" t="str">
         <f>IF(ISBLANK(A173),"",'2018'!G172-E173+F173)</f>
         <v/>
@@ -14277,7 +14510,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G174" s="3" t="str">
         <f>IF(ISBLANK(A174),"",'2018'!G173-E174+F174)</f>
         <v/>
@@ -14287,7 +14520,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G175" s="3" t="str">
         <f>IF(ISBLANK(A175),"",'2018'!G174-E175+F175)</f>
         <v/>
@@ -14297,7 +14530,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G176" s="3" t="str">
         <f>IF(ISBLANK(A176),"",'2018'!G175-E176+F176)</f>
         <v/>
@@ -14307,7 +14540,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G177" s="3" t="str">
         <f>IF(ISBLANK(A177),"",'2018'!G176-E177+F177)</f>
         <v/>
@@ -14317,7 +14550,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G178" s="3" t="str">
         <f>IF(ISBLANK(A178),"",'2018'!G177-E178+F178)</f>
         <v/>
@@ -14327,7 +14560,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G179" s="3" t="str">
         <f>IF(ISBLANK(A179),"",'2018'!G178-E179+F179)</f>
         <v/>
@@ -14337,7 +14570,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G180" s="3" t="str">
         <f>IF(ISBLANK(A180),"",'2018'!G179-E180+F180)</f>
         <v/>
@@ -14347,7 +14580,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G181" s="3" t="str">
         <f>IF(ISBLANK(A181),"",'2018'!G180-E181+F181)</f>
         <v/>
@@ -14357,7 +14590,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G182" s="3" t="str">
         <f>IF(ISBLANK(A182),"",'2018'!G181-E182+F182)</f>
         <v/>
@@ -14367,7 +14600,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G183" s="3" t="str">
         <f>IF(ISBLANK(A183),"",'2018'!G182-E183+F183)</f>
         <v/>
@@ -14377,7 +14610,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G184" s="3" t="str">
         <f>IF(ISBLANK(A184),"",'2018'!G183-E184+F184)</f>
         <v/>
@@ -14387,7 +14620,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G185" s="3" t="str">
         <f>IF(ISBLANK(A185),"",'2018'!G184-E185+F185)</f>
         <v/>
@@ -14397,7 +14630,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G186" s="3" t="str">
         <f>IF(ISBLANK(A186),"",'2018'!G185-E186+F186)</f>
         <v/>
@@ -14407,7 +14640,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G187" s="3" t="str">
         <f>IF(ISBLANK(A187),"",'2018'!G186-E187+F187)</f>
         <v/>
@@ -14417,7 +14650,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G188" s="3" t="str">
         <f>IF(ISBLANK(A188),"",'2018'!G187-E188+F188)</f>
         <v/>
@@ -14427,7 +14660,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G189" s="3" t="str">
         <f>IF(ISBLANK(A189),"",'2018'!G188-E189+F189)</f>
         <v/>
@@ -14437,7 +14670,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G190" s="3" t="str">
         <f>IF(ISBLANK(A190),"",'2018'!G189-E190+F190)</f>
         <v/>
@@ -14447,7 +14680,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G191" s="3" t="str">
         <f>IF(ISBLANK(A191),"",'2018'!G190-E191+F191)</f>
         <v/>
@@ -14457,7 +14690,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G192" s="3" t="str">
         <f>IF(ISBLANK(A192),"",'2018'!G191-E192+F192)</f>
         <v/>
@@ -14467,7 +14700,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G193" s="3" t="str">
         <f>IF(ISBLANK(A193),"",'2018'!G192-E193+F193)</f>
         <v/>
@@ -14477,7 +14710,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G194" s="3" t="str">
         <f>IF(ISBLANK(A194),"",'2018'!G193-E194+F194)</f>
         <v/>
@@ -14487,7 +14720,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G195" s="3" t="str">
         <f>IF(ISBLANK(A195),"",'2018'!G194-E195+F195)</f>
         <v/>
@@ -14497,7 +14730,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G196" s="3" t="str">
         <f>IF(ISBLANK(A196),"",'2018'!G195-E196+F196)</f>
         <v/>
@@ -14507,7 +14740,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G197" s="3" t="str">
         <f>IF(ISBLANK(A197),"",'2018'!G196-E197+F197)</f>
         <v/>
@@ -14517,7 +14750,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G198" s="3" t="str">
         <f>IF(ISBLANK(A198),"",'2018'!G197-E198+F198)</f>
         <v/>
@@ -14527,7 +14760,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G199" s="3" t="str">
         <f>IF(ISBLANK(A199),"",'2018'!G198-E199+F199)</f>
         <v/>
@@ -14537,7 +14770,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G200" s="3" t="str">
         <f>IF(ISBLANK(A200),"",'2018'!G199-E200+F200)</f>
         <v/>
@@ -14547,7 +14780,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G201" s="3" t="str">
         <f>IF(ISBLANK(A201),"",'2018'!G200-E201+F201)</f>
         <v/>
@@ -14557,7 +14790,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G202" s="3" t="str">
         <f>IF(ISBLANK(A202),"",'2018'!G201-E202+F202)</f>
         <v/>
@@ -14567,307 +14800,307 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G203" s="3" t="str">
         <f>IF(ISBLANK(A203),"",'2018'!G202-E203+F203)</f>
         <v/>
       </c>
       <c r="H203" s="3" t="str">
-        <f t="shared" ref="H203:H260" si="7">IF(ISBLANK(A203),"",IF(D203="C",H202-E203+F203,H202+F203))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G204" s="3" t="str">
         <f>IF(ISBLANK(A204),"",'2018'!G203-E204+F204)</f>
         <v/>
       </c>
       <c r="H204" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G205" s="3" t="str">
         <f>IF(ISBLANK(A205),"",'2018'!G204-E205+F205)</f>
         <v/>
       </c>
       <c r="H205" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G206" s="3" t="str">
         <f>IF(ISBLANK(A206),"",'2018'!G205-E206+F206)</f>
         <v/>
       </c>
       <c r="H206" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G207" s="3" t="str">
         <f>IF(ISBLANK(A207),"",'2018'!G206-E207+F207)</f>
         <v/>
       </c>
       <c r="H207" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G208" s="3" t="str">
         <f>IF(ISBLANK(A208),"",'2018'!G207-E208+F208)</f>
         <v/>
       </c>
       <c r="H208" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G209" s="3" t="str">
         <f>IF(ISBLANK(A209),"",'2018'!G208-E209+F209)</f>
         <v/>
       </c>
       <c r="H209" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G210" s="3" t="str">
         <f>IF(ISBLANK(A210),"",'2018'!G209-E210+F210)</f>
         <v/>
       </c>
       <c r="H210" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G211" s="3" t="str">
         <f>IF(ISBLANK(A211),"",'2018'!G210-E211+F211)</f>
         <v/>
       </c>
       <c r="H211" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G212" s="3" t="str">
         <f>IF(ISBLANK(A212),"",'2018'!G211-E212+F212)</f>
         <v/>
       </c>
       <c r="H212" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G213" s="3" t="str">
         <f>IF(ISBLANK(A213),"",'2018'!G212-E213+F213)</f>
         <v/>
       </c>
       <c r="H213" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G214" s="3" t="str">
         <f>IF(ISBLANK(A214),"",'2018'!G213-E214+F214)</f>
         <v/>
       </c>
       <c r="H214" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G215" s="3" t="str">
         <f>IF(ISBLANK(A215),"",'2018'!G214-E215+F215)</f>
         <v/>
       </c>
       <c r="H215" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G216" s="3" t="str">
         <f>IF(ISBLANK(A216),"",'2018'!G215-E216+F216)</f>
         <v/>
       </c>
       <c r="H216" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G217" s="3" t="str">
         <f>IF(ISBLANK(A217),"",'2018'!G216-E217+F217)</f>
         <v/>
       </c>
       <c r="H217" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G218" s="3" t="str">
         <f>IF(ISBLANK(A218),"",'2018'!G217-E218+F218)</f>
         <v/>
       </c>
       <c r="H218" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G219" s="3" t="str">
         <f>IF(ISBLANK(A219),"",'2018'!G218-E219+F219)</f>
         <v/>
       </c>
       <c r="H219" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G220" s="3" t="str">
         <f>IF(ISBLANK(A220),"",'2018'!G219-E220+F220)</f>
         <v/>
       </c>
       <c r="H220" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G221" s="3" t="str">
         <f>IF(ISBLANK(A221),"",'2018'!G220-E221+F221)</f>
         <v/>
       </c>
       <c r="H221" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G222" s="3" t="str">
         <f>IF(ISBLANK(A222),"",'2018'!G221-E222+F222)</f>
         <v/>
       </c>
       <c r="H222" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G223" s="3" t="str">
         <f>IF(ISBLANK(A223),"",'2018'!G222-E223+F223)</f>
         <v/>
       </c>
       <c r="H223" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G224" s="3" t="str">
         <f>IF(ISBLANK(A224),"",'2018'!G223-E224+F224)</f>
         <v/>
       </c>
       <c r="H224" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G225" s="3" t="str">
         <f>IF(ISBLANK(A225),"",'2018'!G224-E225+F225)</f>
         <v/>
       </c>
       <c r="H225" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G226" s="3" t="str">
         <f>IF(ISBLANK(A226),"",'2018'!G225-E226+F226)</f>
         <v/>
       </c>
       <c r="H226" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G227" s="3" t="str">
         <f>IF(ISBLANK(A227),"",'2018'!G226-E227+F227)</f>
         <v/>
       </c>
       <c r="H227" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G228" s="3" t="str">
         <f>IF(ISBLANK(A228),"",'2018'!G227-E228+F228)</f>
         <v/>
       </c>
       <c r="H228" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G229" s="3" t="str">
         <f>IF(ISBLANK(A229),"",'2018'!G228-E229+F229)</f>
         <v/>
       </c>
       <c r="H229" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G230" s="3" t="str">
         <f>IF(ISBLANK(A230),"",'2018'!G229-E230+F230)</f>
         <v/>
       </c>
       <c r="H230" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G231" s="3" t="str">
         <f>IF(ISBLANK(A231),"",'2018'!G230-E231+F231)</f>
         <v/>
       </c>
       <c r="H231" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G232" s="3" t="str">
         <f>IF(ISBLANK(A232),"",'2018'!G231-E232+F232)</f>
         <v/>
       </c>
       <c r="H232" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H232:H259" si="7">IF(ISBLANK(A232),"",IF(D232="C",H231-E232+F232,H231+F232))</f>
         <v/>
       </c>
     </row>
-    <row r="233" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G233" s="3" t="str">
         <f>IF(ISBLANK(A233),"",'2018'!G232-E233+F233)</f>
         <v/>
@@ -14877,7 +15110,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G234" s="3" t="str">
         <f>IF(ISBLANK(A234),"",'2018'!G233-E234+F234)</f>
         <v/>
@@ -14887,7 +15120,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G235" s="3" t="str">
         <f>IF(ISBLANK(A235),"",'2018'!G234-E235+F235)</f>
         <v/>
@@ -14897,7 +15130,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G236" s="3" t="str">
         <f>IF(ISBLANK(A236),"",'2018'!G235-E236+F236)</f>
         <v/>
@@ -14907,7 +15140,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G237" s="3" t="str">
         <f>IF(ISBLANK(A237),"",'2018'!G236-E237+F237)</f>
         <v/>
@@ -14917,7 +15150,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G238" s="3" t="str">
         <f>IF(ISBLANK(A238),"",'2018'!G237-E238+F238)</f>
         <v/>
@@ -14927,7 +15160,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G239" s="3" t="str">
         <f>IF(ISBLANK(A239),"",'2018'!G238-E239+F239)</f>
         <v/>
@@ -14937,7 +15170,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G240" s="3" t="str">
         <f>IF(ISBLANK(A240),"",'2018'!G239-E240+F240)</f>
         <v/>
@@ -14947,7 +15180,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G241" s="3" t="str">
         <f>IF(ISBLANK(A241),"",'2018'!G240-E241+F241)</f>
         <v/>
@@ -14957,7 +15190,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G242" s="3" t="str">
         <f>IF(ISBLANK(A242),"",'2018'!G241-E242+F242)</f>
         <v/>
@@ -14967,7 +15200,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G243" s="3" t="str">
         <f>IF(ISBLANK(A243),"",'2018'!G242-E243+F243)</f>
         <v/>
@@ -14977,7 +15210,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G244" s="3" t="str">
         <f>IF(ISBLANK(A244),"",'2018'!G243-E244+F244)</f>
         <v/>
@@ -14987,7 +15220,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G245" s="3" t="str">
         <f>IF(ISBLANK(A245),"",'2018'!G244-E245+F245)</f>
         <v/>
@@ -14997,7 +15230,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G246" s="3" t="str">
         <f>IF(ISBLANK(A246),"",'2018'!G245-E246+F246)</f>
         <v/>
@@ -15007,7 +15240,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G247" s="3" t="str">
         <f>IF(ISBLANK(A247),"",'2018'!G246-E247+F247)</f>
         <v/>
@@ -15017,7 +15250,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G248" s="3" t="str">
         <f>IF(ISBLANK(A248),"",'2018'!G247-E248+F248)</f>
         <v/>
@@ -15027,7 +15260,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G249" s="3" t="str">
         <f>IF(ISBLANK(A249),"",'2018'!G248-E249+F249)</f>
         <v/>
@@ -15037,7 +15270,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G250" s="3" t="str">
         <f>IF(ISBLANK(A250),"",'2018'!G249-E250+F250)</f>
         <v/>
@@ -15047,7 +15280,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G251" s="3" t="str">
         <f>IF(ISBLANK(A251),"",'2018'!G250-E251+F251)</f>
         <v/>
@@ -15057,7 +15290,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G252" s="3" t="str">
         <f>IF(ISBLANK(A252),"",'2018'!G251-E252+F252)</f>
         <v/>
@@ -15067,7 +15300,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G253" s="3" t="str">
         <f>IF(ISBLANK(A253),"",'2018'!G252-E253+F253)</f>
         <v/>
@@ -15077,7 +15310,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G254" s="3" t="str">
         <f>IF(ISBLANK(A254),"",'2018'!G253-E254+F254)</f>
         <v/>
@@ -15087,7 +15320,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G255" s="3" t="str">
         <f>IF(ISBLANK(A255),"",'2018'!G254-E255+F255)</f>
         <v/>
@@ -15097,7 +15330,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G256" s="3" t="str">
         <f>IF(ISBLANK(A256),"",'2018'!G255-E256+F256)</f>
         <v/>
@@ -15107,7 +15340,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G257" s="3" t="str">
         <f>IF(ISBLANK(A257),"",'2018'!G256-E257+F257)</f>
         <v/>
@@ -15117,7 +15350,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G258" s="3" t="str">
         <f>IF(ISBLANK(A258),"",'2018'!G257-E258+F258)</f>
         <v/>
@@ -15127,7 +15360,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G259" s="3" t="str">
         <f>IF(ISBLANK(A259),"",'2018'!G258-E259+F259)</f>
         <v/>
@@ -15137,2160 +15370,2144 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G260" s="3" t="str">
-        <f>IF(ISBLANK(A260),"",'2018'!G259-E260+F260)</f>
-        <v/>
-      </c>
-      <c r="H260" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G260" s="3"/>
+      <c r="H260" s="3"/>
+    </row>
+    <row r="261" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
     </row>
-    <row r="262" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
     </row>
-    <row r="263" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
     </row>
-    <row r="264" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
     </row>
-    <row r="265" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
     </row>
-    <row r="266" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
     </row>
-    <row r="267" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
     </row>
-    <row r="268" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
     </row>
-    <row r="269" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
     </row>
-    <row r="270" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
     </row>
-    <row r="271" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
     </row>
-    <row r="272" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
     </row>
-    <row r="273" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
     </row>
-    <row r="274" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
     </row>
-    <row r="275" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
     </row>
-    <row r="276" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
     </row>
-    <row r="277" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
     </row>
-    <row r="278" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
     </row>
-    <row r="279" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
     </row>
-    <row r="280" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
     </row>
-    <row r="281" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
     </row>
-    <row r="282" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
     </row>
-    <row r="283" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
     </row>
-    <row r="284" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
     </row>
-    <row r="285" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
     </row>
-    <row r="286" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
     </row>
-    <row r="287" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
     </row>
-    <row r="288" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
     </row>
-    <row r="289" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
     </row>
-    <row r="290" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
     </row>
-    <row r="291" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
     </row>
-    <row r="292" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
     </row>
-    <row r="293" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
     </row>
-    <row r="294" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
     </row>
-    <row r="295" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
     </row>
-    <row r="296" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
     </row>
-    <row r="297" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
     </row>
-    <row r="298" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
     </row>
-    <row r="299" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
     </row>
-    <row r="300" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
     </row>
-    <row r="301" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
     </row>
-    <row r="302" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
     </row>
-    <row r="303" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
     </row>
-    <row r="304" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
     </row>
-    <row r="305" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
     </row>
-    <row r="306" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
     </row>
-    <row r="307" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
     </row>
-    <row r="308" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
     </row>
-    <row r="309" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
     </row>
-    <row r="310" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
     </row>
-    <row r="311" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
     </row>
-    <row r="312" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
     </row>
-    <row r="313" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
     </row>
-    <row r="314" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
     </row>
-    <row r="315" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
     </row>
-    <row r="316" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
     </row>
-    <row r="317" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
     </row>
-    <row r="318" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
     </row>
-    <row r="319" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
     </row>
-    <row r="320" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
     </row>
-    <row r="321" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
     </row>
-    <row r="322" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G322" s="3"/>
       <c r="H322" s="3"/>
     </row>
-    <row r="323" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
     </row>
-    <row r="324" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G324" s="3"/>
       <c r="H324" s="3"/>
     </row>
-    <row r="325" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
     </row>
-    <row r="326" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G326" s="3"/>
       <c r="H326" s="3"/>
     </row>
-    <row r="327" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
     </row>
-    <row r="328" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G328" s="3"/>
       <c r="H328" s="3"/>
     </row>
-    <row r="329" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
     </row>
-    <row r="330" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
     </row>
-    <row r="331" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
     </row>
-    <row r="332" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G332" s="3"/>
       <c r="H332" s="3"/>
     </row>
-    <row r="333" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
     </row>
-    <row r="334" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
     </row>
-    <row r="335" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
     </row>
-    <row r="336" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
     </row>
-    <row r="337" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
     </row>
-    <row r="338" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
     </row>
-    <row r="339" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
     </row>
-    <row r="340" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
     </row>
-    <row r="341" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
     </row>
-    <row r="342" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
     </row>
-    <row r="343" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
     </row>
-    <row r="344" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
     </row>
-    <row r="345" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
     </row>
-    <row r="346" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
     </row>
-    <row r="347" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
     </row>
-    <row r="348" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
     </row>
-    <row r="349" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
     </row>
-    <row r="350" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
     </row>
-    <row r="351" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
     </row>
-    <row r="352" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
     </row>
-    <row r="353" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
     </row>
-    <row r="354" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
     </row>
-    <row r="355" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
     </row>
-    <row r="356" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
     </row>
-    <row r="357" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
     </row>
-    <row r="358" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
     </row>
-    <row r="359" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
     </row>
-    <row r="360" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
     </row>
-    <row r="361" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
     </row>
-    <row r="362" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
     </row>
-    <row r="363" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
     </row>
-    <row r="364" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
     </row>
-    <row r="365" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
     </row>
-    <row r="366" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
     </row>
-    <row r="367" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
     </row>
-    <row r="368" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
     </row>
-    <row r="369" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
     </row>
-    <row r="370" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
     </row>
-    <row r="371" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
     </row>
-    <row r="372" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
     </row>
-    <row r="373" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
     </row>
-    <row r="374" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
     </row>
-    <row r="375" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
     </row>
-    <row r="376" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
     </row>
-    <row r="377" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
     </row>
-    <row r="378" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
     </row>
-    <row r="379" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
     </row>
-    <row r="380" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
     </row>
-    <row r="381" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
     </row>
-    <row r="382" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
     </row>
-    <row r="383" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G383" s="3"/>
       <c r="H383" s="3"/>
     </row>
-    <row r="384" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
     </row>
-    <row r="385" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
     </row>
-    <row r="386" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
     </row>
-    <row r="387" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
     </row>
-    <row r="388" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
     </row>
-    <row r="389" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
     </row>
-    <row r="390" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
     </row>
-    <row r="391" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
     </row>
-    <row r="392" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
     </row>
-    <row r="393" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
     </row>
-    <row r="394" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
     </row>
-    <row r="395" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
     </row>
-    <row r="396" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
     </row>
-    <row r="397" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
     </row>
-    <row r="398" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
     </row>
-    <row r="399" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
     </row>
-    <row r="400" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
     </row>
-    <row r="401" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
     </row>
-    <row r="402" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
     </row>
-    <row r="403" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
     </row>
-    <row r="404" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
     </row>
-    <row r="405" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
     </row>
-    <row r="406" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
     </row>
-    <row r="407" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
     </row>
-    <row r="408" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
     </row>
-    <row r="409" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
     </row>
-    <row r="410" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
     </row>
-    <row r="411" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
     </row>
-    <row r="412" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
     </row>
-    <row r="413" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
     </row>
-    <row r="414" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
     </row>
-    <row r="415" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
     </row>
-    <row r="416" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
     </row>
-    <row r="417" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
     </row>
-    <row r="418" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
     </row>
-    <row r="419" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
     </row>
-    <row r="420" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
     </row>
-    <row r="421" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
     </row>
-    <row r="422" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
     </row>
-    <row r="423" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
     </row>
-    <row r="424" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
     </row>
-    <row r="425" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
     </row>
-    <row r="426" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
     </row>
-    <row r="427" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
     </row>
-    <row r="428" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
     </row>
-    <row r="429" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
     </row>
-    <row r="430" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
     </row>
-    <row r="431" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
     </row>
-    <row r="432" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G432" s="3"/>
       <c r="H432" s="3"/>
     </row>
-    <row r="433" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
     </row>
-    <row r="434" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G434" s="3"/>
       <c r="H434" s="3"/>
     </row>
-    <row r="435" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
     </row>
-    <row r="436" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G436" s="3"/>
       <c r="H436" s="3"/>
     </row>
-    <row r="437" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
     </row>
-    <row r="438" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G438" s="3"/>
       <c r="H438" s="3"/>
     </row>
-    <row r="439" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
     </row>
-    <row r="440" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G440" s="3"/>
       <c r="H440" s="3"/>
     </row>
-    <row r="441" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
     </row>
-    <row r="442" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
     </row>
-    <row r="443" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
     </row>
-    <row r="444" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G444" s="3"/>
       <c r="H444" s="3"/>
     </row>
-    <row r="445" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
     </row>
-    <row r="446" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
     </row>
-    <row r="447" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
     </row>
-    <row r="448" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G448" s="3"/>
       <c r="H448" s="3"/>
     </row>
-    <row r="449" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G449" s="3"/>
       <c r="H449" s="3"/>
     </row>
-    <row r="450" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G450" s="3"/>
       <c r="H450" s="3"/>
     </row>
-    <row r="451" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
     </row>
-    <row r="452" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G452" s="3"/>
       <c r="H452" s="3"/>
     </row>
-    <row r="453" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G453" s="3"/>
       <c r="H453" s="3"/>
     </row>
-    <row r="454" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G454" s="3"/>
       <c r="H454" s="3"/>
     </row>
-    <row r="455" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G455" s="3"/>
       <c r="H455" s="3"/>
     </row>
-    <row r="456" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G456" s="3"/>
       <c r="H456" s="3"/>
     </row>
-    <row r="457" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G457" s="3"/>
       <c r="H457" s="3"/>
     </row>
-    <row r="458" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G458" s="3"/>
       <c r="H458" s="3"/>
     </row>
-    <row r="459" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G459" s="3"/>
       <c r="H459" s="3"/>
     </row>
-    <row r="460" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G460" s="3"/>
       <c r="H460" s="3"/>
     </row>
-    <row r="461" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G461" s="3"/>
       <c r="H461" s="3"/>
     </row>
-    <row r="462" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G462" s="3"/>
       <c r="H462" s="3"/>
     </row>
-    <row r="463" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G463" s="3"/>
       <c r="H463" s="3"/>
     </row>
-    <row r="464" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G464" s="3"/>
       <c r="H464" s="3"/>
     </row>
-    <row r="465" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G465" s="3"/>
       <c r="H465" s="3"/>
     </row>
-    <row r="466" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G466" s="3"/>
       <c r="H466" s="3"/>
     </row>
-    <row r="467" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G467" s="3"/>
       <c r="H467" s="3"/>
     </row>
-    <row r="468" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G468" s="3"/>
       <c r="H468" s="3"/>
     </row>
-    <row r="469" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G469" s="3"/>
       <c r="H469" s="3"/>
     </row>
-    <row r="470" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G470" s="3"/>
       <c r="H470" s="3"/>
     </row>
-    <row r="471" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G471" s="3"/>
       <c r="H471" s="3"/>
     </row>
-    <row r="472" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G472" s="3"/>
       <c r="H472" s="3"/>
     </row>
-    <row r="473" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G473" s="3"/>
       <c r="H473" s="3"/>
     </row>
-    <row r="474" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G474" s="3"/>
       <c r="H474" s="3"/>
     </row>
-    <row r="475" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G475" s="3"/>
       <c r="H475" s="3"/>
     </row>
-    <row r="476" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G476" s="3"/>
       <c r="H476" s="3"/>
     </row>
-    <row r="477" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G477" s="3"/>
       <c r="H477" s="3"/>
     </row>
-    <row r="478" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G478" s="3"/>
       <c r="H478" s="3"/>
     </row>
-    <row r="479" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G479" s="3"/>
       <c r="H479" s="3"/>
     </row>
-    <row r="480" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G480" s="3"/>
       <c r="H480" s="3"/>
     </row>
-    <row r="481" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G481" s="3"/>
       <c r="H481" s="3"/>
     </row>
-    <row r="482" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G482" s="3"/>
       <c r="H482" s="3"/>
     </row>
-    <row r="483" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G483" s="3"/>
       <c r="H483" s="3"/>
     </row>
-    <row r="484" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G484" s="3"/>
       <c r="H484" s="3"/>
     </row>
-    <row r="485" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G485" s="3"/>
       <c r="H485" s="3"/>
     </row>
-    <row r="486" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G486" s="3"/>
       <c r="H486" s="3"/>
     </row>
-    <row r="487" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G487" s="3"/>
       <c r="H487" s="3"/>
     </row>
-    <row r="488" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G488" s="3"/>
       <c r="H488" s="3"/>
     </row>
-    <row r="489" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G489" s="3"/>
       <c r="H489" s="3"/>
     </row>
-    <row r="490" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G490" s="3"/>
       <c r="H490" s="3"/>
     </row>
-    <row r="491" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G491" s="3"/>
       <c r="H491" s="3"/>
     </row>
-    <row r="492" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G492" s="3"/>
       <c r="H492" s="3"/>
     </row>
-    <row r="493" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G493" s="3"/>
       <c r="H493" s="3"/>
     </row>
-    <row r="494" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G494" s="3"/>
       <c r="H494" s="3"/>
     </row>
-    <row r="495" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G495" s="3"/>
       <c r="H495" s="3"/>
     </row>
-    <row r="496" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G496" s="3"/>
       <c r="H496" s="3"/>
     </row>
-    <row r="497" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G497" s="3"/>
       <c r="H497" s="3"/>
     </row>
-    <row r="498" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G498" s="3"/>
       <c r="H498" s="3"/>
     </row>
-    <row r="499" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G499" s="3"/>
       <c r="H499" s="3"/>
     </row>
-    <row r="500" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G500" s="3"/>
       <c r="H500" s="3"/>
     </row>
-    <row r="501" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G501" s="3"/>
       <c r="H501" s="3"/>
     </row>
-    <row r="502" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G502" s="3"/>
       <c r="H502" s="3"/>
     </row>
-    <row r="503" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G503" s="3"/>
       <c r="H503" s="3"/>
     </row>
-    <row r="504" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G504" s="3"/>
       <c r="H504" s="3"/>
     </row>
-    <row r="505" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G505" s="3"/>
       <c r="H505" s="3"/>
     </row>
-    <row r="506" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G506" s="3"/>
       <c r="H506" s="3"/>
     </row>
-    <row r="507" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G507" s="3"/>
       <c r="H507" s="3"/>
     </row>
-    <row r="508" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G508" s="3"/>
       <c r="H508" s="3"/>
     </row>
-    <row r="509" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G509" s="3"/>
       <c r="H509" s="3"/>
     </row>
-    <row r="510" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G510" s="3"/>
       <c r="H510" s="3"/>
     </row>
-    <row r="511" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G511" s="3"/>
       <c r="H511" s="3"/>
     </row>
-    <row r="512" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G512" s="3"/>
       <c r="H512" s="3"/>
     </row>
-    <row r="513" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G513" s="3"/>
       <c r="H513" s="3"/>
     </row>
-    <row r="514" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G514" s="3"/>
       <c r="H514" s="3"/>
     </row>
-    <row r="515" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G515" s="3"/>
       <c r="H515" s="3"/>
     </row>
-    <row r="516" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G516" s="3"/>
       <c r="H516" s="3"/>
     </row>
-    <row r="517" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G517" s="3"/>
       <c r="H517" s="3"/>
     </row>
-    <row r="518" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G518" s="3"/>
       <c r="H518" s="3"/>
     </row>
-    <row r="519" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G519" s="3"/>
       <c r="H519" s="3"/>
     </row>
-    <row r="520" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G520" s="3"/>
       <c r="H520" s="3"/>
     </row>
-    <row r="521" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G521" s="3"/>
       <c r="H521" s="3"/>
     </row>
-    <row r="522" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G522" s="3"/>
       <c r="H522" s="3"/>
     </row>
-    <row r="523" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G523" s="3"/>
       <c r="H523" s="3"/>
     </row>
-    <row r="524" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G524" s="3"/>
       <c r="H524" s="3"/>
     </row>
-    <row r="525" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G525" s="3"/>
       <c r="H525" s="3"/>
     </row>
-    <row r="526" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G526" s="3"/>
       <c r="H526" s="3"/>
     </row>
-    <row r="527" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G527" s="3"/>
       <c r="H527" s="3"/>
     </row>
-    <row r="528" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G528" s="3"/>
       <c r="H528" s="3"/>
     </row>
-    <row r="529" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G529" s="3"/>
       <c r="H529" s="3"/>
     </row>
-    <row r="530" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G530" s="3"/>
       <c r="H530" s="3"/>
     </row>
-    <row r="531" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G531" s="3"/>
       <c r="H531" s="3"/>
     </row>
-    <row r="532" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G532" s="3"/>
       <c r="H532" s="3"/>
     </row>
-    <row r="533" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G533" s="3"/>
       <c r="H533" s="3"/>
     </row>
-    <row r="534" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G534" s="3"/>
       <c r="H534" s="3"/>
     </row>
-    <row r="535" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G535" s="3"/>
       <c r="H535" s="3"/>
     </row>
-    <row r="536" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G536" s="3"/>
       <c r="H536" s="3"/>
     </row>
-    <row r="537" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G537" s="3"/>
       <c r="H537" s="3"/>
     </row>
-    <row r="538" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G538" s="3"/>
       <c r="H538" s="3"/>
     </row>
-    <row r="539" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G539" s="3"/>
       <c r="H539" s="3"/>
     </row>
-    <row r="540" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G540" s="3"/>
       <c r="H540" s="3"/>
     </row>
-    <row r="541" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G541" s="3"/>
       <c r="H541" s="3"/>
     </row>
-    <row r="542" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G542" s="3"/>
       <c r="H542" s="3"/>
     </row>
-    <row r="543" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G543" s="3"/>
       <c r="H543" s="3"/>
     </row>
-    <row r="544" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G544" s="3"/>
       <c r="H544" s="3"/>
     </row>
-    <row r="545" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G545" s="3"/>
       <c r="H545" s="3"/>
     </row>
-    <row r="546" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G546" s="3"/>
       <c r="H546" s="3"/>
     </row>
-    <row r="547" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G547" s="3"/>
       <c r="H547" s="3"/>
     </row>
-    <row r="548" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G548" s="3"/>
       <c r="H548" s="3"/>
     </row>
-    <row r="549" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G549" s="3"/>
       <c r="H549" s="3"/>
     </row>
-    <row r="550" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G550" s="3"/>
       <c r="H550" s="3"/>
     </row>
-    <row r="551" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G551" s="3"/>
       <c r="H551" s="3"/>
     </row>
-    <row r="552" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G552" s="3"/>
       <c r="H552" s="3"/>
     </row>
-    <row r="553" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G553" s="3"/>
       <c r="H553" s="3"/>
     </row>
-    <row r="554" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G554" s="3"/>
       <c r="H554" s="3"/>
     </row>
-    <row r="555" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G555" s="3"/>
       <c r="H555" s="3"/>
     </row>
-    <row r="556" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G556" s="3"/>
       <c r="H556" s="3"/>
     </row>
-    <row r="557" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G557" s="3"/>
       <c r="H557" s="3"/>
     </row>
-    <row r="558" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G558" s="3"/>
       <c r="H558" s="3"/>
     </row>
-    <row r="559" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G559" s="3"/>
       <c r="H559" s="3"/>
     </row>
-    <row r="560" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G560" s="3"/>
       <c r="H560" s="3"/>
     </row>
-    <row r="561" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G561" s="3"/>
       <c r="H561" s="3"/>
     </row>
-    <row r="562" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G562" s="3"/>
       <c r="H562" s="3"/>
     </row>
-    <row r="563" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G563" s="3"/>
       <c r="H563" s="3"/>
     </row>
-    <row r="564" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G564" s="3"/>
       <c r="H564" s="3"/>
     </row>
-    <row r="565" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G565" s="3"/>
       <c r="H565" s="3"/>
     </row>
-    <row r="566" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G566" s="3"/>
       <c r="H566" s="3"/>
     </row>
-    <row r="567" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G567" s="3"/>
       <c r="H567" s="3"/>
     </row>
-    <row r="568" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G568" s="3"/>
       <c r="H568" s="3"/>
     </row>
-    <row r="569" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G569" s="3"/>
       <c r="H569" s="3"/>
     </row>
-    <row r="570" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G570" s="3"/>
       <c r="H570" s="3"/>
     </row>
-    <row r="571" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G571" s="3"/>
       <c r="H571" s="3"/>
     </row>
-    <row r="572" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G572" s="3"/>
       <c r="H572" s="3"/>
     </row>
-    <row r="573" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G573" s="3"/>
       <c r="H573" s="3"/>
     </row>
-    <row r="574" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G574" s="3"/>
       <c r="H574" s="3"/>
     </row>
-    <row r="575" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G575" s="3"/>
       <c r="H575" s="3"/>
     </row>
-    <row r="576" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G576" s="3"/>
       <c r="H576" s="3"/>
     </row>
-    <row r="577" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G577" s="3"/>
       <c r="H577" s="3"/>
     </row>
-    <row r="578" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G578" s="3"/>
       <c r="H578" s="3"/>
     </row>
-    <row r="579" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G579" s="3"/>
       <c r="H579" s="3"/>
     </row>
-    <row r="580" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G580" s="3"/>
       <c r="H580" s="3"/>
     </row>
-    <row r="581" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G581" s="3"/>
       <c r="H581" s="3"/>
     </row>
-    <row r="582" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G582" s="3"/>
       <c r="H582" s="3"/>
     </row>
-    <row r="583" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G583" s="3"/>
       <c r="H583" s="3"/>
     </row>
-    <row r="584" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G584" s="3"/>
       <c r="H584" s="3"/>
     </row>
-    <row r="585" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G585" s="3"/>
       <c r="H585" s="3"/>
     </row>
-    <row r="586" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G586" s="3"/>
       <c r="H586" s="3"/>
     </row>
-    <row r="587" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G587" s="3"/>
       <c r="H587" s="3"/>
     </row>
-    <row r="588" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G588" s="3"/>
       <c r="H588" s="3"/>
     </row>
-    <row r="589" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G589" s="3"/>
       <c r="H589" s="3"/>
     </row>
-    <row r="590" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G590" s="3"/>
       <c r="H590" s="3"/>
     </row>
-    <row r="591" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G591" s="3"/>
       <c r="H591" s="3"/>
     </row>
-    <row r="592" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G592" s="3"/>
       <c r="H592" s="3"/>
     </row>
-    <row r="593" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G593" s="3"/>
       <c r="H593" s="3"/>
     </row>
-    <row r="594" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G594" s="3"/>
       <c r="H594" s="3"/>
     </row>
-    <row r="595" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G595" s="3"/>
       <c r="H595" s="3"/>
     </row>
-    <row r="596" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G596" s="3"/>
       <c r="H596" s="3"/>
     </row>
-    <row r="597" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G597" s="3"/>
       <c r="H597" s="3"/>
     </row>
-    <row r="598" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G598" s="3"/>
       <c r="H598" s="3"/>
     </row>
-    <row r="599" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G599" s="3"/>
       <c r="H599" s="3"/>
     </row>
-    <row r="600" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G600" s="3"/>
       <c r="H600" s="3"/>
     </row>
-    <row r="601" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G601" s="3"/>
       <c r="H601" s="3"/>
     </row>
-    <row r="602" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G602" s="3"/>
       <c r="H602" s="3"/>
     </row>
-    <row r="603" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G603" s="3"/>
       <c r="H603" s="3"/>
     </row>
-    <row r="604" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G604" s="3"/>
       <c r="H604" s="3"/>
     </row>
-    <row r="605" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G605" s="3"/>
       <c r="H605" s="3"/>
     </row>
-    <row r="606" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G606" s="3"/>
       <c r="H606" s="3"/>
     </row>
-    <row r="607" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G607" s="3"/>
       <c r="H607" s="3"/>
     </row>
-    <row r="608" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G608" s="3"/>
       <c r="H608" s="3"/>
     </row>
-    <row r="609" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G609" s="3"/>
       <c r="H609" s="3"/>
     </row>
-    <row r="610" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G610" s="3"/>
       <c r="H610" s="3"/>
     </row>
-    <row r="611" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G611" s="3"/>
       <c r="H611" s="3"/>
     </row>
-    <row r="612" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G612" s="3"/>
       <c r="H612" s="3"/>
     </row>
-    <row r="613" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G613" s="3"/>
       <c r="H613" s="3"/>
     </row>
-    <row r="614" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G614" s="3"/>
       <c r="H614" s="3"/>
     </row>
-    <row r="615" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G615" s="3"/>
       <c r="H615" s="3"/>
     </row>
-    <row r="616" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G616" s="3"/>
       <c r="H616" s="3"/>
     </row>
-    <row r="617" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G617" s="3"/>
       <c r="H617" s="3"/>
     </row>
-    <row r="618" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G618" s="3"/>
       <c r="H618" s="3"/>
     </row>
-    <row r="619" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G619" s="3"/>
       <c r="H619" s="3"/>
     </row>
-    <row r="620" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G620" s="3"/>
       <c r="H620" s="3"/>
     </row>
-    <row r="621" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G621" s="3"/>
       <c r="H621" s="3"/>
     </row>
-    <row r="622" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G622" s="3"/>
       <c r="H622" s="3"/>
     </row>
-    <row r="623" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G623" s="3"/>
       <c r="H623" s="3"/>
     </row>
-    <row r="624" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G624" s="3"/>
       <c r="H624" s="3"/>
     </row>
-    <row r="625" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G625" s="3"/>
       <c r="H625" s="3"/>
     </row>
-    <row r="626" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G626" s="3"/>
       <c r="H626" s="3"/>
     </row>
-    <row r="627" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G627" s="3"/>
       <c r="H627" s="3"/>
     </row>
-    <row r="628" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G628" s="3"/>
       <c r="H628" s="3"/>
     </row>
-    <row r="629" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G629" s="3"/>
       <c r="H629" s="3"/>
     </row>
-    <row r="630" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G630" s="3"/>
       <c r="H630" s="3"/>
     </row>
-    <row r="631" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G631" s="3"/>
       <c r="H631" s="3"/>
     </row>
-    <row r="632" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G632" s="3"/>
       <c r="H632" s="3"/>
     </row>
-    <row r="633" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G633" s="3"/>
       <c r="H633" s="3"/>
     </row>
-    <row r="634" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G634" s="3"/>
       <c r="H634" s="3"/>
     </row>
-    <row r="635" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G635" s="3"/>
       <c r="H635" s="3"/>
     </row>
-    <row r="636" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G636" s="3"/>
       <c r="H636" s="3"/>
     </row>
-    <row r="637" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G637" s="3"/>
       <c r="H637" s="3"/>
     </row>
-    <row r="638" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G638" s="3"/>
       <c r="H638" s="3"/>
     </row>
-    <row r="639" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G639" s="3"/>
       <c r="H639" s="3"/>
     </row>
-    <row r="640" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G640" s="3"/>
       <c r="H640" s="3"/>
     </row>
-    <row r="641" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G641" s="3"/>
       <c r="H641" s="3"/>
     </row>
-    <row r="642" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G642" s="3"/>
       <c r="H642" s="3"/>
     </row>
-    <row r="643" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G643" s="3"/>
       <c r="H643" s="3"/>
     </row>
-    <row r="644" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G644" s="3"/>
       <c r="H644" s="3"/>
     </row>
-    <row r="645" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G645" s="3"/>
       <c r="H645" s="3"/>
     </row>
-    <row r="646" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G646" s="3"/>
       <c r="H646" s="3"/>
     </row>
-    <row r="647" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G647" s="3"/>
       <c r="H647" s="3"/>
     </row>
-    <row r="648" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G648" s="3"/>
       <c r="H648" s="3"/>
     </row>
-    <row r="649" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G649" s="3"/>
       <c r="H649" s="3"/>
     </row>
-    <row r="650" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G650" s="3"/>
       <c r="H650" s="3"/>
     </row>
-    <row r="651" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G651" s="3"/>
       <c r="H651" s="3"/>
     </row>
-    <row r="652" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G652" s="3"/>
       <c r="H652" s="3"/>
     </row>
-    <row r="653" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G653" s="3"/>
       <c r="H653" s="3"/>
     </row>
-    <row r="654" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G654" s="3"/>
       <c r="H654" s="3"/>
     </row>
-    <row r="655" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G655" s="3"/>
       <c r="H655" s="3"/>
     </row>
-    <row r="656" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G656" s="3"/>
       <c r="H656" s="3"/>
     </row>
-    <row r="657" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G657" s="3"/>
       <c r="H657" s="3"/>
     </row>
-    <row r="658" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G658" s="3"/>
       <c r="H658" s="3"/>
     </row>
-    <row r="659" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G659" s="3"/>
       <c r="H659" s="3"/>
     </row>
-    <row r="660" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G660" s="3"/>
       <c r="H660" s="3"/>
     </row>
-    <row r="661" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G661" s="3"/>
       <c r="H661" s="3"/>
     </row>
-    <row r="662" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G662" s="3"/>
       <c r="H662" s="3"/>
     </row>
-    <row r="663" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G663" s="3"/>
       <c r="H663" s="3"/>
     </row>
-    <row r="664" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G664" s="3"/>
       <c r="H664" s="3"/>
     </row>
-    <row r="665" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G665" s="3"/>
       <c r="H665" s="3"/>
     </row>
-    <row r="666" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G666" s="3"/>
       <c r="H666" s="3"/>
     </row>
-    <row r="667" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G667" s="3"/>
       <c r="H667" s="3"/>
     </row>
-    <row r="668" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G668" s="3"/>
       <c r="H668" s="3"/>
     </row>
-    <row r="669" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G669" s="3"/>
       <c r="H669" s="3"/>
     </row>
-    <row r="670" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G670" s="3"/>
       <c r="H670" s="3"/>
     </row>
-    <row r="671" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G671" s="3"/>
       <c r="H671" s="3"/>
     </row>
-    <row r="672" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G672" s="3"/>
       <c r="H672" s="3"/>
     </row>
-    <row r="673" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G673" s="3"/>
       <c r="H673" s="3"/>
     </row>
-    <row r="674" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G674" s="3"/>
       <c r="H674" s="3"/>
     </row>
-    <row r="675" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G675" s="3"/>
       <c r="H675" s="3"/>
     </row>
-    <row r="676" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G676" s="3"/>
       <c r="H676" s="3"/>
     </row>
-    <row r="677" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G677" s="3"/>
       <c r="H677" s="3"/>
     </row>
-    <row r="678" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G678" s="3"/>
       <c r="H678" s="3"/>
     </row>
-    <row r="679" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G679" s="3"/>
       <c r="H679" s="3"/>
     </row>
-    <row r="680" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G680" s="3"/>
       <c r="H680" s="3"/>
     </row>
-    <row r="681" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G681" s="3"/>
       <c r="H681" s="3"/>
     </row>
-    <row r="682" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G682" s="3"/>
       <c r="H682" s="3"/>
     </row>
-    <row r="683" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G683" s="3"/>
       <c r="H683" s="3"/>
     </row>
-    <row r="684" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G684" s="3"/>
       <c r="H684" s="3"/>
     </row>
-    <row r="685" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G685" s="3"/>
       <c r="H685" s="3"/>
     </row>
-    <row r="686" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G686" s="3"/>
       <c r="H686" s="3"/>
     </row>
-    <row r="687" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G687" s="3"/>
       <c r="H687" s="3"/>
     </row>
-    <row r="688" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G688" s="3"/>
       <c r="H688" s="3"/>
     </row>
-    <row r="689" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G689" s="3"/>
       <c r="H689" s="3"/>
     </row>
-    <row r="690" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G690" s="3"/>
       <c r="H690" s="3"/>
     </row>
-    <row r="691" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G691" s="3"/>
       <c r="H691" s="3"/>
     </row>
-    <row r="692" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G692" s="3"/>
       <c r="H692" s="3"/>
     </row>
-    <row r="693" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G693" s="3"/>
       <c r="H693" s="3"/>
     </row>
-    <row r="694" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G694" s="3"/>
       <c r="H694" s="3"/>
     </row>
-    <row r="695" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G695" s="3"/>
       <c r="H695" s="3"/>
     </row>
-    <row r="696" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G696" s="3"/>
       <c r="H696" s="3"/>
     </row>
-    <row r="697" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G697" s="3"/>
       <c r="H697" s="3"/>
     </row>
-    <row r="698" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G698" s="3"/>
       <c r="H698" s="3"/>
     </row>
-    <row r="699" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G699" s="3"/>
       <c r="H699" s="3"/>
     </row>
-    <row r="700" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G700" s="3"/>
       <c r="H700" s="3"/>
     </row>
-    <row r="701" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G701" s="3"/>
       <c r="H701" s="3"/>
     </row>
-    <row r="702" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G702" s="3"/>
       <c r="H702" s="3"/>
     </row>
-    <row r="703" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G703" s="3"/>
       <c r="H703" s="3"/>
     </row>
-    <row r="704" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G704" s="3"/>
       <c r="H704" s="3"/>
     </row>
-    <row r="705" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G705" s="3"/>
       <c r="H705" s="3"/>
     </row>
-    <row r="706" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G706" s="3"/>
       <c r="H706" s="3"/>
     </row>
-    <row r="707" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G707" s="3"/>
       <c r="H707" s="3"/>
     </row>
-    <row r="708" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G708" s="3"/>
       <c r="H708" s="3"/>
     </row>
-    <row r="709" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G709" s="3"/>
       <c r="H709" s="3"/>
     </row>
-    <row r="710" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G710" s="3"/>
       <c r="H710" s="3"/>
     </row>
-    <row r="711" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G711" s="3"/>
       <c r="H711" s="3"/>
     </row>
-    <row r="712" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G712" s="3"/>
       <c r="H712" s="3"/>
     </row>
-    <row r="713" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G713" s="3"/>
       <c r="H713" s="3"/>
     </row>
-    <row r="714" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G714" s="3"/>
       <c r="H714" s="3"/>
     </row>
-    <row r="715" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G715" s="3"/>
       <c r="H715" s="3"/>
     </row>
-    <row r="716" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G716" s="3"/>
       <c r="H716" s="3"/>
     </row>
-    <row r="717" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G717" s="3"/>
       <c r="H717" s="3"/>
     </row>
-    <row r="718" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G718" s="3"/>
       <c r="H718" s="3"/>
     </row>
-    <row r="719" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G719" s="3"/>
       <c r="H719" s="3"/>
     </row>
-    <row r="720" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G720" s="3"/>
       <c r="H720" s="3"/>
     </row>
-    <row r="721" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G721" s="3"/>
       <c r="H721" s="3"/>
     </row>
-    <row r="722" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G722" s="3"/>
       <c r="H722" s="3"/>
     </row>
-    <row r="723" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G723" s="3"/>
       <c r="H723" s="3"/>
     </row>
-    <row r="724" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G724" s="3"/>
       <c r="H724" s="3"/>
     </row>
-    <row r="725" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G725" s="3"/>
       <c r="H725" s="3"/>
     </row>
-    <row r="726" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G726" s="3"/>
       <c r="H726" s="3"/>
     </row>
-    <row r="727" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G727" s="3"/>
       <c r="H727" s="3"/>
     </row>
-    <row r="728" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G728" s="3"/>
       <c r="H728" s="3"/>
     </row>
-    <row r="729" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G729" s="3"/>
       <c r="H729" s="3"/>
     </row>
-    <row r="730" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G730" s="3"/>
       <c r="H730" s="3"/>
     </row>
-    <row r="731" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G731" s="3"/>
       <c r="H731" s="3"/>
     </row>
-    <row r="732" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G732" s="3"/>
       <c r="H732" s="3"/>
     </row>
-    <row r="733" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G733" s="3"/>
       <c r="H733" s="3"/>
     </row>
-    <row r="734" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G734" s="3"/>
       <c r="H734" s="3"/>
     </row>
-    <row r="735" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G735" s="3"/>
       <c r="H735" s="3"/>
     </row>
-    <row r="736" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G736" s="3"/>
       <c r="H736" s="3"/>
     </row>
-    <row r="737" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G737" s="3"/>
       <c r="H737" s="3"/>
     </row>
-    <row r="738" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G738" s="3"/>
       <c r="H738" s="3"/>
     </row>
-    <row r="739" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G739" s="3"/>
       <c r="H739" s="3"/>
     </row>
-    <row r="740" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G740" s="3"/>
       <c r="H740" s="3"/>
     </row>
-    <row r="741" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G741" s="3"/>
       <c r="H741" s="3"/>
     </row>
-    <row r="742" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G742" s="3"/>
       <c r="H742" s="3"/>
     </row>
-    <row r="743" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G743" s="3"/>
       <c r="H743" s="3"/>
     </row>
-    <row r="744" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G744" s="3"/>
       <c r="H744" s="3"/>
     </row>
-    <row r="745" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G745" s="3"/>
       <c r="H745" s="3"/>
     </row>
-    <row r="746" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G746" s="3"/>
       <c r="H746" s="3"/>
     </row>
-    <row r="747" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G747" s="3"/>
       <c r="H747" s="3"/>
     </row>
-    <row r="748" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G748" s="3"/>
       <c r="H748" s="3"/>
     </row>
-    <row r="749" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G749" s="3"/>
       <c r="H749" s="3"/>
     </row>
-    <row r="750" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G750" s="3"/>
       <c r="H750" s="3"/>
     </row>
-    <row r="751" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G751" s="3"/>
       <c r="H751" s="3"/>
     </row>
-    <row r="752" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G752" s="3"/>
       <c r="H752" s="3"/>
     </row>
-    <row r="753" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G753" s="3"/>
       <c r="H753" s="3"/>
     </row>
-    <row r="754" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G754" s="3"/>
       <c r="H754" s="3"/>
     </row>
-    <row r="755" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G755" s="3"/>
       <c r="H755" s="3"/>
     </row>
-    <row r="756" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G756" s="3"/>
       <c r="H756" s="3"/>
     </row>
-    <row r="757" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G757" s="3"/>
       <c r="H757" s="3"/>
     </row>
-    <row r="758" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G758" s="3"/>
       <c r="H758" s="3"/>
     </row>
-    <row r="759" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G759" s="3"/>
       <c r="H759" s="3"/>
     </row>
-    <row r="760" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G760" s="3"/>
       <c r="H760" s="3"/>
     </row>
-    <row r="761" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G761" s="3"/>
       <c r="H761" s="3"/>
     </row>
-    <row r="762" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G762" s="3"/>
       <c r="H762" s="3"/>
     </row>
-    <row r="763" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G763" s="3"/>
       <c r="H763" s="3"/>
     </row>
-    <row r="764" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G764" s="3"/>
       <c r="H764" s="3"/>
     </row>
-    <row r="765" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G765" s="3"/>
       <c r="H765" s="3"/>
     </row>
-    <row r="766" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G766" s="3"/>
       <c r="H766" s="3"/>
     </row>
-    <row r="767" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G767" s="3"/>
       <c r="H767" s="3"/>
     </row>
-    <row r="768" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G768" s="3"/>
       <c r="H768" s="3"/>
     </row>
-    <row r="769" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G769" s="3"/>
       <c r="H769" s="3"/>
     </row>
-    <row r="770" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G770" s="3"/>
       <c r="H770" s="3"/>
     </row>
-    <row r="771" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G771" s="3"/>
       <c r="H771" s="3"/>
     </row>
-    <row r="772" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G772" s="3"/>
       <c r="H772" s="3"/>
     </row>
-    <row r="773" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G773" s="3"/>
       <c r="H773" s="3"/>
     </row>
-    <row r="774" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G774" s="3"/>
       <c r="H774" s="3"/>
     </row>
-    <row r="775" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G775" s="3"/>
       <c r="H775" s="3"/>
     </row>
-    <row r="776" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G776" s="3"/>
       <c r="H776" s="3"/>
     </row>
-    <row r="777" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G777" s="3"/>
       <c r="H777" s="3"/>
     </row>
-    <row r="778" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G778" s="3"/>
       <c r="H778" s="3"/>
     </row>
-    <row r="779" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G779" s="3"/>
       <c r="H779" s="3"/>
     </row>
-    <row r="780" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G780" s="3"/>
       <c r="H780" s="3"/>
     </row>
-    <row r="781" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G781" s="3"/>
       <c r="H781" s="3"/>
     </row>
-    <row r="782" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G782" s="3"/>
       <c r="H782" s="3"/>
     </row>
-    <row r="783" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G783" s="3"/>
       <c r="H783" s="3"/>
     </row>
-    <row r="784" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G784" s="3"/>
       <c r="H784" s="3"/>
     </row>
-    <row r="785" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G785" s="3"/>
       <c r="H785" s="3"/>
     </row>
-    <row r="786" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G786" s="3"/>
       <c r="H786" s="3"/>
     </row>
-    <row r="787" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G787" s="3"/>
       <c r="H787" s="3"/>
     </row>
-    <row r="788" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G788" s="3"/>
       <c r="H788" s="3"/>
     </row>
-    <row r="789" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G789" s="3"/>
       <c r="H789" s="3"/>
     </row>
-    <row r="790" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G790" s="3"/>
       <c r="H790" s="3"/>
     </row>
-    <row r="791" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G791" s="3"/>
       <c r="H791" s="3"/>
     </row>
-    <row r="792" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G792" s="3"/>
       <c r="H792" s="3"/>
     </row>
-    <row r="793" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G793" s="3"/>
       <c r="H793" s="3"/>
     </row>
-    <row r="794" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="G794" s="3"/>
-      <c r="H794" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="E1:E794">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="E1:E793"/>
   <conditionalFormatting sqref="E1:E20 E23:E102 E104:E1048576">
     <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
       <formula>D1="c"</formula>
@@ -19090,8 +19307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19103,7 +19320,7 @@
     <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -20296,7 +20513,7 @@
         <v>713.9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>0</v>
       </c>

--- a/MIACADA Ledger.xlsx
+++ b/MIACADA Ledger.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="330" yWindow="735" windowWidth="11355" windowHeight="8250" tabRatio="657" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="330" yWindow="735" windowWidth="11355" windowHeight="8250" tabRatio="657" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,24 +25,26 @@
     <sheet name="2017" sheetId="6" r:id="rId11"/>
     <sheet name="2017 Summary" sheetId="14" state="hidden" r:id="rId12"/>
     <sheet name="2018" sheetId="5" r:id="rId13"/>
-    <sheet name="2018 Summary" sheetId="15" state="hidden" r:id="rId14"/>
-    <sheet name="2018 Summary Oct Board Meeting" sheetId="16" state="hidden" r:id="rId15"/>
+    <sheet name="2019" sheetId="17" r:id="rId14"/>
+    <sheet name="2018 Summary" sheetId="15" state="hidden" r:id="rId15"/>
+    <sheet name="2018 Summary Oct Board Meeting" sheetId="16" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'2017'!$E$1:$E$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'2018'!$E$1:$E$793</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'2019'!$E$1:$E$793</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId16"/>
-    <pivotCache cacheId="1" r:id="rId17"/>
-    <pivotCache cacheId="2" r:id="rId18"/>
+    <pivotCache cacheId="0" r:id="rId17"/>
+    <pivotCache cacheId="1" r:id="rId18"/>
+    <pivotCache cacheId="2" r:id="rId19"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="415">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -1271,7 +1273,22 @@
     <t>NACADA Region V Donation</t>
   </si>
   <si>
-    <t>Rachl Pawlowski, NACADA conference travel</t>
+    <t>Rachwl Pawlowski, NACADA conference travel</t>
+  </si>
+  <si>
+    <t>Region V Grant Winner Margaret MacKeverican</t>
+  </si>
+  <si>
+    <t>Region V Grant Winner Kayla Bottrell Harteg</t>
+  </si>
+  <si>
+    <t>Region V Grant Winner Mike Saldana</t>
+  </si>
+  <si>
+    <t>Region V Grant Winner Emily Reetz</t>
+  </si>
+  <si>
+    <t>Region V Grant Winner Danielle Flores Lopez</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1418,161 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="65">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1914,11 +2085,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="306121312"/>
-        <c:axId val="306121872"/>
+        <c:axId val="296934144"/>
+        <c:axId val="301018416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="306121312"/>
+        <c:axId val="296934144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,7 +2132,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306121872"/>
+        <c:crossAx val="301018416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1969,7 +2140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="306121872"/>
+        <c:axId val="301018416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2020,7 +2191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306121312"/>
+        <c:crossAx val="296934144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2283,11 +2454,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="306125232"/>
-        <c:axId val="306125792"/>
+        <c:axId val="301021776"/>
+        <c:axId val="301022336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="306125232"/>
+        <c:axId val="301021776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2330,7 +2501,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306125792"/>
+        <c:crossAx val="301022336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2338,7 +2509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="306125792"/>
+        <c:axId val="301022336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +2560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306125232"/>
+        <c:crossAx val="301021776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2524,7 +2695,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2574,7 +2744,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2612,9 +2781,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -2957,9 +3124,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3056,7 +3221,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3178,7 +3342,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3337,11 +3500,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="305532272"/>
-        <c:axId val="305532832"/>
+        <c:axId val="399710000"/>
+        <c:axId val="399710560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="305532272"/>
+        <c:axId val="399710000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3384,7 +3547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305532832"/>
+        <c:crossAx val="399710560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3392,7 +3555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="305532832"/>
+        <c:axId val="399710560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3443,7 +3606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305532272"/>
+        <c:crossAx val="399710000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3457,7 +3620,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6657,7 +6819,7 @@
     <dataField name="Sum of Cost" fld="0" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="42">
+    <format dxfId="64">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9812,10 +9974,10 @@
   </sheetData>
   <autoFilter ref="E1:E71"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="expression" dxfId="41" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="1" stopIfTrue="1">
       <formula>D1="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>NOT(ISBLANK(E1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11127,18 +11289,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E32">
-    <cfRule type="expression" dxfId="39" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="3" stopIfTrue="1">
       <formula>D2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="58" priority="4">
       <formula>NOT(ISBLANK(E2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E77">
-    <cfRule type="expression" dxfId="37" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="1" stopIfTrue="1">
       <formula>D40="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>NOT(ISBLANK(E40))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11151,8 +11313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11220,10 +11382,12 @@
       <c r="H2" s="3">
         <v>8446.41</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3">
+        <v>145</v>
+      </c>
       <c r="K2" s="3">
         <f>SUM(J2:J35)</f>
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="M2" s="3"/>
     </row>
@@ -11252,7 +11416,9 @@
         <f>IF(D3="C",H2-E3+F3,H2+F3)</f>
         <v>8321.41</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3">
+        <v>145</v>
+      </c>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -11271,7 +11437,7 @@
         <v>8335.67</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4" si="0">IF(D4="C",H3-E4+F4,H3+F4)</f>
+        <f>IF(D4="C",H3-E4+F4,H3+F4)</f>
         <v>8335.67</v>
       </c>
       <c r="J4" s="3"/>
@@ -11293,7 +11459,7 @@
         <v>8364.19</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" ref="H5:H10" si="1">IF(D5="C",H4-E5+F5,H4+F5)</f>
+        <f>IF(D5="C",H4-E5+F5,H4+F5)</f>
         <v>8364.19</v>
       </c>
       <c r="J5" s="3"/>
@@ -11315,7 +11481,7 @@
         <v>8406.9700000000012</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(D6="C",H5-E6+F6,H5+F6)</f>
         <v>8406.9700000000012</v>
       </c>
       <c r="J6" s="24"/>
@@ -11337,7 +11503,7 @@
         <v>8449.7500000000018</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(D7="C",H6-E7+F7,H6+F7)</f>
         <v>8449.7500000000018</v>
       </c>
       <c r="J7" s="3"/>
@@ -11358,7 +11524,7 @@
         <v>8478.2700000000023</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(D8="C",H7-E8+F8,H7+F8)</f>
         <v>8478.2700000000023</v>
       </c>
       <c r="M8" s="3"/>
@@ -11379,7 +11545,7 @@
         <v>8492.5300000000025</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(D9="C",H8-E9+F9,H8+F9)</f>
         <v>8492.5300000000025</v>
       </c>
     </row>
@@ -11405,7 +11571,7 @@
         <v>8098.4700000000021</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="1"/>
+        <f>IF(D10="C",H9-E10+F10,H9+F10)</f>
         <v>8098.4700000000021</v>
       </c>
       <c r="M10" s="3"/>
@@ -11425,7 +11591,7 @@
         <v>8112.7300000000023</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" ref="H11:H69" si="2">IF(D11="C",H10-E11+F11,H10+F11)</f>
+        <f t="shared" ref="H11:H69" si="0">IF(D11="C",H10-E11+F11,H10+F11)</f>
         <v>8112.7300000000023</v>
       </c>
       <c r="J11" s="3"/>
@@ -11446,7 +11612,7 @@
         <v>8141.2500000000027</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8141.2500000000027</v>
       </c>
     </row>
@@ -11471,7 +11637,7 @@
         <v>8047.8900000000031</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8047.8900000000031</v>
       </c>
       <c r="J13" s="23"/>
@@ -11499,7 +11665,7 @@
         <v>7807.7600000000029</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7807.7600000000029</v>
       </c>
       <c r="L14" s="3"/>
@@ -11519,7 +11685,7 @@
         <v>7822.0200000000032</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7822.0200000000032</v>
       </c>
     </row>
@@ -11538,7 +11704,7 @@
         <v>7836.2800000000034</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7836.2800000000034</v>
       </c>
     </row>
@@ -11557,7 +11723,7 @@
         <v>7851.2800000000034</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7851.2800000000034</v>
       </c>
     </row>
@@ -11576,7 +11742,7 @@
         <v>7865.5400000000036</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7865.5400000000036</v>
       </c>
     </row>
@@ -11595,7 +11761,7 @@
         <v>7879.8000000000038</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7879.8000000000038</v>
       </c>
     </row>
@@ -11620,7 +11786,7 @@
         <v>7324.390000000004</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7324.390000000004</v>
       </c>
     </row>
@@ -11639,7 +11805,7 @@
         <v>7338.6500000000042</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7338.6500000000042</v>
       </c>
     </row>
@@ -11658,7 +11824,7 @@
         <v>7352.9100000000044</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7352.9100000000044</v>
       </c>
     </row>
@@ -11677,7 +11843,7 @@
         <v>7415.7200000000048</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7415.7200000000048</v>
       </c>
       <c r="K23" s="3"/>
@@ -11697,7 +11863,7 @@
         <v>7589.5900000000047</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7589.5900000000047</v>
       </c>
     </row>
@@ -11716,7 +11882,7 @@
         <v>7652.4000000000051</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7652.4000000000051</v>
       </c>
     </row>
@@ -11741,7 +11907,7 @@
         <v>7512.4000000000051</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7512.4000000000051</v>
       </c>
     </row>
@@ -11766,7 +11932,7 @@
         <v>7412.4000000000051</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7412.4000000000051</v>
       </c>
     </row>
@@ -11791,7 +11957,7 @@
         <v>7272.4000000000051</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7272.4000000000051</v>
       </c>
     </row>
@@ -11810,7 +11976,7 @@
         <v>7335.2100000000055</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7335.2100000000055</v>
       </c>
     </row>
@@ -11829,7 +11995,7 @@
         <v>7769.1100000000051</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7769.1100000000051</v>
       </c>
     </row>
@@ -11848,7 +12014,7 @@
         <v>7783.3700000000053</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7783.3700000000053</v>
       </c>
     </row>
@@ -11867,7 +12033,7 @@
         <v>7966.0300000000052</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7966.0300000000052</v>
       </c>
     </row>
@@ -11886,7 +12052,7 @@
         <v>8057.3600000000051</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8057.3600000000051</v>
       </c>
     </row>
@@ -11905,7 +12071,7 @@
         <v>8085.8800000000056</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8085.8800000000056</v>
       </c>
     </row>
@@ -11927,7 +12093,7 @@
         <v>7945.8800000000056</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7945.8800000000056</v>
       </c>
     </row>
@@ -11946,7 +12112,7 @@
         <v>8071.2000000000053</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8071.2000000000053</v>
       </c>
     </row>
@@ -11965,7 +12131,7 @@
         <v>8182.2600000000057</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8182.2600000000057</v>
       </c>
     </row>
@@ -11984,7 +12150,7 @@
         <v>8196.5200000000059</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8196.5200000000059</v>
       </c>
     </row>
@@ -12009,7 +12175,7 @@
         <v>8131.5200000000059</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8131.5200000000059</v>
       </c>
     </row>
@@ -12028,7 +12194,7 @@
         <v>8174.3000000000056</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8174.3000000000056</v>
       </c>
     </row>
@@ -12047,7 +12213,7 @@
         <v>8237.110000000006</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8237.110000000006</v>
       </c>
     </row>
@@ -12066,7 +12232,7 @@
         <v>8407.110000000006</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8407.110000000006</v>
       </c>
     </row>
@@ -12085,7 +12251,7 @@
         <v>8469.9200000000055</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8469.9200000000055</v>
       </c>
     </row>
@@ -12104,7 +12270,7 @@
         <v>8595.5400000000063</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8595.5400000000063</v>
       </c>
     </row>
@@ -12123,7 +12289,7 @@
         <v>8735.4200000000055</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8735.4200000000055</v>
       </c>
     </row>
@@ -12142,7 +12308,7 @@
         <v>8846.1800000000057</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8846.1800000000057</v>
       </c>
     </row>
@@ -12161,7 +12327,7 @@
         <v>8923.2500000000055</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8923.2500000000055</v>
       </c>
     </row>
@@ -12180,7 +12346,7 @@
         <v>9238.2500000000055</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9238.2500000000055</v>
       </c>
     </row>
@@ -12199,7 +12365,7 @@
         <v>9252.5100000000057</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9252.5100000000057</v>
       </c>
     </row>
@@ -12218,7 +12384,7 @@
         <v>9315.3200000000052</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9315.3200000000052</v>
       </c>
     </row>
@@ -12237,7 +12403,7 @@
         <v>9467.940000000006</v>
       </c>
       <c r="H51" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9467.940000000006</v>
       </c>
     </row>
@@ -12256,7 +12422,7 @@
         <v>9796.2500000000055</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9796.2500000000055</v>
       </c>
     </row>
@@ -12275,7 +12441,7 @@
         <v>9936.1300000000047</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9936.1300000000047</v>
       </c>
     </row>
@@ -12294,7 +12460,7 @@
         <v>10313.910000000005</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10313.910000000005</v>
       </c>
     </row>
@@ -12313,7 +12479,7 @@
         <v>10565.150000000005</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10565.150000000005</v>
       </c>
     </row>
@@ -12332,7 +12498,7 @@
         <v>10627.960000000005</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10627.960000000005</v>
       </c>
     </row>
@@ -12351,7 +12517,7 @@
         <v>12592.960000000005</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>12592.960000000005</v>
       </c>
     </row>
@@ -12370,7 +12536,7 @@
         <v>12704.020000000004</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>12704.020000000004</v>
       </c>
     </row>
@@ -12395,7 +12561,7 @@
         <v>12454.020000000004</v>
       </c>
       <c r="H59" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>12454.020000000004</v>
       </c>
     </row>
@@ -12414,7 +12580,7 @@
         <v>13271.170000000004</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13271.170000000004</v>
       </c>
     </row>
@@ -12433,7 +12599,7 @@
         <v>13459.300000000003</v>
       </c>
       <c r="H61" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13459.300000000003</v>
       </c>
     </row>
@@ -12452,7 +12618,7 @@
         <v>14359.600000000002</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14359.600000000002</v>
       </c>
     </row>
@@ -12477,7 +12643,7 @@
         <v>14109.600000000002</v>
       </c>
       <c r="H63" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14109.600000000002</v>
       </c>
     </row>
@@ -12502,7 +12668,7 @@
         <v>13975.800000000003</v>
       </c>
       <c r="H64" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>13975.800000000003</v>
       </c>
     </row>
@@ -12521,7 +12687,7 @@
         <v>14052.870000000003</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14052.870000000003</v>
       </c>
     </row>
@@ -12540,7 +12706,7 @@
         <v>14366.620000000003</v>
       </c>
       <c r="H66" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14366.620000000003</v>
       </c>
     </row>
@@ -12559,7 +12725,7 @@
         <v>14792.650000000003</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14792.650000000003</v>
       </c>
     </row>
@@ -12578,7 +12744,7 @@
         <v>14855.160000000003</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14855.160000000003</v>
       </c>
     </row>
@@ -12603,7 +12769,7 @@
         <v>14778.360000000004</v>
       </c>
       <c r="H69" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14778.360000000004</v>
       </c>
     </row>
@@ -12641,7 +12807,7 @@
         <v>15072.080000000004</v>
       </c>
       <c r="H71" s="3">
-        <f t="shared" ref="H71:H102" si="3">IF(ISBLANK(A71),"",IF(D71="C",H70-E71+F71,H70+F71))</f>
+        <f t="shared" ref="H71:H102" si="1">IF(ISBLANK(A71),"",IF(D71="C",H70-E71+F71,H70+F71))</f>
         <v>15072.080000000004</v>
       </c>
     </row>
@@ -12666,7 +12832,7 @@
         <v>14612.080000000004</v>
       </c>
       <c r="H72" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14612.080000000004</v>
       </c>
     </row>
@@ -12691,7 +12857,7 @@
         <v>14547.080000000004</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14547.080000000004</v>
       </c>
     </row>
@@ -12716,7 +12882,7 @@
         <v>14407.080000000004</v>
       </c>
       <c r="H74" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14407.080000000004</v>
       </c>
     </row>
@@ -12735,7 +12901,7 @@
         <v>14720.830000000004</v>
       </c>
       <c r="H75" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14720.830000000004</v>
       </c>
     </row>
@@ -12754,7 +12920,7 @@
         <v>14909.260000000004</v>
       </c>
       <c r="H76" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14909.260000000004</v>
       </c>
     </row>
@@ -12773,7 +12939,7 @@
         <v>16232.550000000003</v>
       </c>
       <c r="H77" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16232.550000000003</v>
       </c>
     </row>
@@ -12792,7 +12958,7 @@
         <v>16357.870000000003</v>
       </c>
       <c r="H78" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16357.870000000003</v>
       </c>
     </row>
@@ -12811,7 +12977,7 @@
         <v>16747.870000000003</v>
       </c>
       <c r="H79" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16747.870000000003</v>
       </c>
     </row>
@@ -12836,7 +13002,7 @@
         <v>16697.870000000003</v>
       </c>
       <c r="H80" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16697.870000000003</v>
       </c>
     </row>
@@ -12861,7 +13027,7 @@
         <v>16141.940000000002</v>
       </c>
       <c r="H81" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16141.940000000002</v>
       </c>
     </row>
@@ -12880,7 +13046,7 @@
         <v>16460.86</v>
       </c>
       <c r="H82" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16460.86</v>
       </c>
     </row>
@@ -12899,7 +13065,7 @@
         <v>17480.86</v>
       </c>
       <c r="H83" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17480.86</v>
       </c>
     </row>
@@ -12918,7 +13084,7 @@
         <v>17795.53</v>
       </c>
       <c r="H84" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17795.53</v>
       </c>
     </row>
@@ -12937,7 +13103,7 @@
         <v>18235.82</v>
       </c>
       <c r="H85" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>18235.82</v>
       </c>
     </row>
@@ -12956,7 +13122,7 @@
         <v>18389.66</v>
       </c>
       <c r="H86" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>18389.66</v>
       </c>
     </row>
@@ -12981,7 +13147,7 @@
         <v>13139.66</v>
       </c>
       <c r="H87" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13139.66</v>
       </c>
     </row>
@@ -13006,7 +13172,7 @@
         <v>12539.66</v>
       </c>
       <c r="H88" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12539.66</v>
       </c>
     </row>
@@ -13031,7 +13197,7 @@
         <v>11782.85</v>
       </c>
       <c r="H89" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11782.85</v>
       </c>
     </row>
@@ -13056,7 +13222,7 @@
         <v>11582.85</v>
       </c>
       <c r="H90" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11582.85</v>
       </c>
     </row>
@@ -13081,7 +13247,7 @@
         <v>11532.85</v>
       </c>
       <c r="H91" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11532.85</v>
       </c>
     </row>
@@ -13100,7 +13266,7 @@
         <v>11575.630000000001</v>
       </c>
       <c r="H92" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11575.630000000001</v>
       </c>
     </row>
@@ -13119,7 +13285,7 @@
         <v>11589.890000000001</v>
       </c>
       <c r="H93" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11589.890000000001</v>
       </c>
     </row>
@@ -13138,7 +13304,7 @@
         <v>12109.890000000001</v>
       </c>
       <c r="H94" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12109.890000000001</v>
       </c>
     </row>
@@ -13163,7 +13329,7 @@
         <v>11609.890000000001</v>
       </c>
       <c r="H95" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11609.890000000001</v>
       </c>
     </row>
@@ -13182,7 +13348,7 @@
         <v>11624.150000000001</v>
       </c>
       <c r="H96" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11624.150000000001</v>
       </c>
     </row>
@@ -13201,7 +13367,7 @@
         <v>11638.410000000002</v>
       </c>
       <c r="H97" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11638.410000000002</v>
       </c>
     </row>
@@ -13220,7 +13386,7 @@
         <v>11652.670000000002</v>
       </c>
       <c r="H98" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11652.670000000002</v>
       </c>
     </row>
@@ -13239,7 +13405,7 @@
         <v>11666.930000000002</v>
       </c>
       <c r="H99" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11666.930000000002</v>
       </c>
     </row>
@@ -13258,7 +13424,7 @@
         <v>11681.190000000002</v>
       </c>
       <c r="H100" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11681.190000000002</v>
       </c>
     </row>
@@ -13277,7 +13443,7 @@
         <v>11695.450000000003</v>
       </c>
       <c r="H101" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11695.450000000003</v>
       </c>
     </row>
@@ -13296,7 +13462,7 @@
         <v>11709.710000000003</v>
       </c>
       <c r="H102" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11709.710000000003</v>
       </c>
     </row>
@@ -13321,7 +13487,7 @@
         <v>11609.710000000003</v>
       </c>
       <c r="H103" s="3">
-        <f t="shared" ref="H103" si="4">IF(ISBLANK(A103),"",IF(D103="C",H102-E103+F103,H102+F103))</f>
+        <f t="shared" ref="H103" si="2">IF(ISBLANK(A103),"",IF(D103="C",H102-E103+F103,H102+F103))</f>
         <v>11609.710000000003</v>
       </c>
     </row>
@@ -13340,7 +13506,7 @@
         <v>11623.970000000003</v>
       </c>
       <c r="H104" s="3">
-        <f t="shared" ref="H104:H167" si="5">IF(ISBLANK(A104),"",IF(D104="C",H103-E104+F104,H103+F104))</f>
+        <f>IF(ISBLANK(A104),"",IF(D104="C",H103-E104+F104,H103+F104))</f>
         <v>11623.970000000003</v>
       </c>
     </row>
@@ -13359,7 +13525,7 @@
         <v>11638.230000000003</v>
       </c>
       <c r="H105" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A105),"",IF(D105="C",H104-E105+F105,H104+F105))</f>
         <v>11638.230000000003</v>
       </c>
     </row>
@@ -13378,7 +13544,7 @@
         <v>11923.230000000003</v>
       </c>
       <c r="H106" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A106),"",IF(D106="C",H105-E106+F106,H105+F106))</f>
         <v>11923.230000000003</v>
       </c>
     </row>
@@ -13397,7 +13563,7 @@
         <v>11937.490000000003</v>
       </c>
       <c r="H107" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A107),"",IF(D107="C",H106-E107+F107,H106+F107))</f>
         <v>11937.490000000003</v>
       </c>
     </row>
@@ -13416,7 +13582,7 @@
         <v>11951.750000000004</v>
       </c>
       <c r="H108" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A108),"",IF(D108="C",H107-E108+F108,H107+F108))</f>
         <v>11951.750000000004</v>
       </c>
     </row>
@@ -13435,7 +13601,7 @@
         <v>12041.750000000004</v>
       </c>
       <c r="H109" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A109),"",IF(D109="C",H108-E109+F109,H108+F109))</f>
         <v>12041.750000000004</v>
       </c>
     </row>
@@ -13460,7 +13626,7 @@
         <v>10041.750000000004</v>
       </c>
       <c r="H110" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A110),"",IF(D110="C",H109-E110+F110,H109+F110))</f>
         <v>10041.750000000004</v>
       </c>
     </row>
@@ -13479,7 +13645,7 @@
         <v>10070.270000000004</v>
       </c>
       <c r="H111" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A111),"",IF(D111="C",H110-E111+F111,H110+F111))</f>
         <v>10070.270000000004</v>
       </c>
     </row>
@@ -13504,7 +13670,7 @@
         <v>9670.2700000000041</v>
       </c>
       <c r="H112" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A112),"",IF(D112="C",H111-E112+F112,H111+F112))</f>
         <v>9670.2700000000041</v>
       </c>
     </row>
@@ -13523,7 +13689,7 @@
         <v>9757.0500000000047</v>
       </c>
       <c r="H113" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A113),"",IF(D113="C",H112-E113+F113,H112+F113))</f>
         <v>9757.0500000000047</v>
       </c>
     </row>
@@ -13542,7 +13708,7 @@
         <v>9771.3100000000049</v>
       </c>
       <c r="H114" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A114),"",IF(D114="C",H113-E114+F114,H113+F114))</f>
         <v>9771.3100000000049</v>
       </c>
     </row>
@@ -13561,7 +13727,7 @@
         <v>9785.5700000000052</v>
       </c>
       <c r="H115" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A115),"",IF(D115="C",H114-E115+F115,H114+F115))</f>
         <v>9785.5700000000052</v>
       </c>
     </row>
@@ -13580,7 +13746,7 @@
         <v>9799.8300000000054</v>
       </c>
       <c r="H116" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A116),"",IF(D116="C",H115-E116+F116,H115+F116))</f>
         <v>9799.8300000000054</v>
       </c>
     </row>
@@ -13605,7 +13771,7 @@
         <v>9735.8300000000054</v>
       </c>
       <c r="H117" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A117),"",IF(D117="C",H116-E117+F117,H116+F117))</f>
         <v>9735.8300000000054</v>
       </c>
     </row>
@@ -13624,7 +13790,7 @@
         <v>9765.8300000000054</v>
       </c>
       <c r="H118" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A118),"",IF(D118="C",H117-E118+F118,H117+F118))</f>
         <v>9765.8300000000054</v>
       </c>
     </row>
@@ -13649,7 +13815,7 @@
         <v>9704.8300000000054</v>
       </c>
       <c r="H119" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A119),"",IF(D119="C",H118-E119+F119,H118+F119))</f>
         <v>9704.8300000000054</v>
       </c>
     </row>
@@ -13674,7 +13840,7 @@
         <v>9472.3800000000047</v>
       </c>
       <c r="H120" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A120),"",IF(D120="C",H119-E120+F120,H119+F120))</f>
         <v>9472.3800000000047</v>
       </c>
     </row>
@@ -13693,7 +13859,7 @@
         <v>9486.6400000000049</v>
       </c>
       <c r="H121" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A121),"",IF(D121="C",H120-E121+F121,H120+F121))</f>
         <v>9486.6400000000049</v>
       </c>
     </row>
@@ -13718,7 +13884,7 @@
         <v>9206.5400000000045</v>
       </c>
       <c r="H122" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A122),"",IF(D122="C",H121-E122+F122,H121+F122))</f>
         <v>9206.5400000000045</v>
       </c>
     </row>
@@ -13743,7 +13909,7 @@
         <v>8706.5400000000045</v>
       </c>
       <c r="H123" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A123),"",IF(D123="C",H122-E123+F123,H122+F123))</f>
         <v>8706.5400000000045</v>
       </c>
     </row>
@@ -13762,7 +13928,7 @@
         <v>8721.5400000000045</v>
       </c>
       <c r="H124" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A124),"",IF(D124="C",H123-E124+F124,H123+F124))</f>
         <v>8721.5400000000045</v>
       </c>
     </row>
@@ -13781,7 +13947,7 @@
         <v>8750.0600000000049</v>
       </c>
       <c r="H125" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A125),"",IF(D125="C",H124-E125+F125,H124+F125))</f>
         <v>8750.0600000000049</v>
       </c>
     </row>
@@ -13806,7 +13972,7 @@
         <v>8665.0600000000049</v>
       </c>
       <c r="H126" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A126),"",IF(D126="C",H125-E126+F126,H125+F126))</f>
         <v>8665.0600000000049</v>
       </c>
     </row>
@@ -13825,7 +13991,7 @@
         <v>8679.3200000000052</v>
       </c>
       <c r="H127" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A127),"",IF(D127="C",H126-E127+F127,H126+F127))</f>
         <v>8679.3200000000052</v>
       </c>
     </row>
@@ -13850,7 +14016,7 @@
         <v>8620.3200000000052</v>
       </c>
       <c r="H128" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A128),"",IF(D128="C",H127-E128+F128,H127+F128))</f>
         <v>8620.3200000000052</v>
       </c>
     </row>
@@ -13876,7 +14042,7 @@
         <v>7805.9200000000055</v>
       </c>
       <c r="H129" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A129),"",IF(D129="C",H128-E129+F129,H128+F129))</f>
         <v>7805.9200000000055</v>
       </c>
     </row>
@@ -13902,7 +14068,7 @@
         <v>7751.2500000000055</v>
       </c>
       <c r="H130" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A130),"",IF(D130="C",H129-E130+F130,H129+F130))</f>
         <v>7751.2500000000055</v>
       </c>
     </row>
@@ -13921,7 +14087,7 @@
         <v>7765.5100000000057</v>
       </c>
       <c r="H131" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A131),"",IF(D131="C",H130-E131+F131,H130+F131))</f>
         <v>7765.5100000000057</v>
       </c>
     </row>
@@ -13940,7 +14106,7 @@
         <v>7779.7700000000059</v>
       </c>
       <c r="H132" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A132),"",IF(D132="C",H131-E132+F132,H131+F132))</f>
         <v>7779.7700000000059</v>
       </c>
     </row>
@@ -13965,7 +14131,7 @@
         <v>7029.7700000000059</v>
       </c>
       <c r="H133" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A133),"",IF(D133="C",H132-E133+F133,H132+F133))</f>
         <v>7029.7700000000059</v>
       </c>
     </row>
@@ -13990,7 +14156,7 @@
         <v>6779.7700000000059</v>
       </c>
       <c r="H134" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A134),"",IF(D134="C",H133-E134+F134,H133+F134))</f>
         <v>6779.7700000000059</v>
       </c>
     </row>
@@ -14015,7 +14181,7 @@
         <v>6129.7700000000059</v>
       </c>
       <c r="H135" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A135),"",IF(D135="C",H134-E135+F135,H134+F135))</f>
         <v>6129.7700000000059</v>
       </c>
     </row>
@@ -14034,7 +14200,7 @@
         <v>6144.0300000000061</v>
       </c>
       <c r="H136" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A136),"",IF(D136="C",H135-E136+F136,H135+F136))</f>
         <v>6144.0300000000061</v>
       </c>
     </row>
@@ -14053,7 +14219,7 @@
         <v>6158.2900000000063</v>
       </c>
       <c r="H137" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A137),"",IF(D137="C",H136-E137+F137,H136+F137))</f>
         <v>6158.2900000000063</v>
       </c>
     </row>
@@ -14078,7 +14244,7 @@
         <v>6033.2900000000063</v>
       </c>
       <c r="H138" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A138),"",IF(D138="C",H137-E138+F138,H137+F138))</f>
         <v>6033.2900000000063</v>
       </c>
     </row>
@@ -14097,7 +14263,7 @@
         <v>6061.8100000000068</v>
       </c>
       <c r="H139" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A139),"",IF(D139="C",H138-E139+F139,H138+F139))</f>
         <v>6061.8100000000068</v>
       </c>
     </row>
@@ -14116,7 +14282,7 @@
         <v>6090.6400000000067</v>
       </c>
       <c r="H140" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A140),"",IF(D140="C",H139-E140+F140,H139+F140))</f>
         <v>6090.6400000000067</v>
       </c>
     </row>
@@ -14141,7 +14307,7 @@
         <v>5965.6400000000067</v>
       </c>
       <c r="H141" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A141),"",IF(D141="C",H140-E141+F141,H140+F141))</f>
         <v>5965.6400000000067</v>
       </c>
     </row>
@@ -14166,7 +14332,7 @@
         <v>5465.6400000000067</v>
       </c>
       <c r="H142" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A142),"",IF(D142="C",H141-E142+F142,H141+F142))</f>
         <v>5465.6400000000067</v>
       </c>
     </row>
@@ -14185,7 +14351,7 @@
         <v>5479.9000000000069</v>
       </c>
       <c r="H143" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A143),"",IF(D143="C",H142-E143+F143,H142+F143))</f>
         <v>5479.9000000000069</v>
       </c>
     </row>
@@ -14204,7 +14370,7 @@
         <v>5494.1600000000071</v>
       </c>
       <c r="H144" s="3">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A144),"",IF(D144="C",H143-E144+F144,H143+F144))</f>
         <v>5494.1600000000071</v>
       </c>
     </row>
@@ -14218,6 +14384,9 @@
       <c r="C145" s="20" t="s">
         <v>409</v>
       </c>
+      <c r="D145" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E145" s="3">
         <v>285.60000000000002</v>
       </c>
@@ -14226,107 +14395,177 @@
         <v>5208.5600000000068</v>
       </c>
       <c r="H145" s="3">
-        <f t="shared" si="5"/>
-        <v>5494.1600000000071</v>
+        <f>IF(ISBLANK(A145),"",IF(D145="C",H144-E145+F145,H144+F145))</f>
+        <v>5208.5600000000068</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G146" s="3" t="str">
+      <c r="A146" s="28">
+        <v>43790</v>
+      </c>
+      <c r="C146" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F146">
+        <v>14.26</v>
+      </c>
+      <c r="G146" s="3">
         <f>IF(ISBLANK(A146),"",'2018'!G145-E146+F146)</f>
-        <v/>
-      </c>
-      <c r="H146" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>5222.820000000007</v>
+      </c>
+      <c r="H146" s="3">
+        <f>IF(ISBLANK(A146),"",IF(D146="C",H145-E146+F146,H145+F146))</f>
+        <v>5222.820000000007</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G147" s="3" t="str">
+      <c r="A147" s="28">
+        <v>43792</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F147">
+        <v>14.26</v>
+      </c>
+      <c r="G147" s="3">
         <f>IF(ISBLANK(A147),"",'2018'!G146-E147+F147)</f>
-        <v/>
-      </c>
-      <c r="H147" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>5237.0800000000072</v>
+      </c>
+      <c r="H147" s="3">
+        <f>IF(ISBLANK(A147),"",IF(D147="C",H146-E147+F147,H146+F147))</f>
+        <v>5237.0800000000072</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G148" s="3" t="str">
+      <c r="A148" s="28">
+        <v>43804</v>
+      </c>
+      <c r="C148" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F148">
+        <v>87.09</v>
+      </c>
+      <c r="G148" s="3">
         <f>IF(ISBLANK(A148),"",'2018'!G147-E148+F148)</f>
-        <v/>
-      </c>
-      <c r="H148" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>5324.1700000000073</v>
+      </c>
+      <c r="H148" s="3">
+        <f>IF(ISBLANK(A148),"",IF(D148="C",H147-E148+F148,H147+F148))</f>
+        <v>5324.1700000000073</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G149" s="3" t="str">
+      <c r="A149" s="28">
+        <v>43811</v>
+      </c>
+      <c r="C149" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F149">
+        <v>14.26</v>
+      </c>
+      <c r="G149" s="3">
         <f>IF(ISBLANK(A149),"",'2018'!G148-E149+F149)</f>
-        <v/>
-      </c>
-      <c r="H149" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>5338.4300000000076</v>
+      </c>
+      <c r="H149" s="3">
+        <f>IF(ISBLANK(A149),"",IF(D149="C",H148-E149+F149,H148+F149))</f>
+        <v>5338.4300000000076</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G150" s="3" t="str">
+      <c r="A150" s="28">
+        <v>43818</v>
+      </c>
+      <c r="B150">
+        <v>1389</v>
+      </c>
+      <c r="C150" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="E150" s="3">
+        <v>145</v>
+      </c>
+      <c r="G150" s="3">
         <f>IF(ISBLANK(A150),"",'2018'!G149-E150+F150)</f>
-        <v/>
-      </c>
-      <c r="H150" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>5193.4300000000076</v>
+      </c>
+      <c r="H150" s="3">
+        <f>IF(ISBLANK(A150),"",IF(D150="C",H149-E150+F150,H149+F150))</f>
+        <v>5338.4300000000076</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G151" s="3" t="str">
+      <c r="A151" s="28">
+        <v>43818</v>
+      </c>
+      <c r="B151">
+        <v>1390</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="E151" s="3">
+        <v>145</v>
+      </c>
+      <c r="G151" s="3">
         <f>IF(ISBLANK(A151),"",'2018'!G150-E151+F151)</f>
-        <v/>
-      </c>
-      <c r="H151" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>5048.4300000000076</v>
+      </c>
+      <c r="H151" s="3">
+        <f>IF(ISBLANK(A151),"",IF(D151="C",H150-E151+F151,H150+F151))</f>
+        <v>5338.4300000000076</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="28"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="8"/>
       <c r="G152" s="3" t="str">
         <f>IF(ISBLANK(A152),"",'2018'!G151-E152+F152)</f>
         <v/>
       </c>
       <c r="H152" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A152),"",IF(D152="C",H151-E152+F152,H151+F152))</f>
         <v/>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="28"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="8"/>
       <c r="G153" s="3" t="str">
         <f>IF(ISBLANK(A153),"",'2018'!G152-E153+F153)</f>
         <v/>
       </c>
       <c r="H153" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A153),"",IF(D153="C",H152-E153+F153,H152+F153))</f>
         <v/>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="28"/>
+      <c r="C154" s="20"/>
       <c r="G154" s="3" t="str">
         <f>IF(ISBLANK(A154),"",'2018'!G153-E154+F154)</f>
         <v/>
       </c>
       <c r="H154" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A154),"",IF(D154="C",H153-E154+F154,H153+F154))</f>
         <v/>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="28"/>
+      <c r="C155" s="20"/>
       <c r="G155" s="3" t="str">
         <f>IF(ISBLANK(A155),"",'2018'!G154-E155+F155)</f>
         <v/>
       </c>
       <c r="H155" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A155),"",IF(D155="C",H154-E155+F155,H154+F155))</f>
         <v/>
       </c>
     </row>
@@ -14336,7 +14575,7 @@
         <v/>
       </c>
       <c r="H156" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A156),"",IF(D156="C",H155-E156+F156,H155+F156))</f>
         <v/>
       </c>
     </row>
@@ -14346,7 +14585,7 @@
         <v/>
       </c>
       <c r="H157" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A157),"",IF(D157="C",H156-E157+F157,H156+F157))</f>
         <v/>
       </c>
     </row>
@@ -14356,7 +14595,7 @@
         <v/>
       </c>
       <c r="H158" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A158),"",IF(D158="C",H157-E158+F158,H157+F158))</f>
         <v/>
       </c>
     </row>
@@ -14366,7 +14605,7 @@
         <v/>
       </c>
       <c r="H159" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A159),"",IF(D159="C",H158-E159+F159,H158+F159))</f>
         <v/>
       </c>
     </row>
@@ -14376,7 +14615,7 @@
         <v/>
       </c>
       <c r="H160" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A160),"",IF(D160="C",H159-E160+F160,H159+F160))</f>
         <v/>
       </c>
     </row>
@@ -14386,7 +14625,7 @@
         <v/>
       </c>
       <c r="H161" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A161),"",IF(D161="C",H160-E161+F161,H160+F161))</f>
         <v/>
       </c>
     </row>
@@ -14396,7 +14635,7 @@
         <v/>
       </c>
       <c r="H162" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A162),"",IF(D162="C",H161-E162+F162,H161+F162))</f>
         <v/>
       </c>
     </row>
@@ -14406,7 +14645,7 @@
         <v/>
       </c>
       <c r="H163" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A163),"",IF(D163="C",H162-E163+F163,H162+F163))</f>
         <v/>
       </c>
     </row>
@@ -14416,7 +14655,7 @@
         <v/>
       </c>
       <c r="H164" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A164),"",IF(D164="C",H163-E164+F164,H163+F164))</f>
         <v/>
       </c>
     </row>
@@ -14426,7 +14665,7 @@
         <v/>
       </c>
       <c r="H165" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A165),"",IF(D165="C",H164-E165+F165,H164+F165))</f>
         <v/>
       </c>
     </row>
@@ -14436,7 +14675,7 @@
         <v/>
       </c>
       <c r="H166" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A166),"",IF(D166="C",H165-E166+F166,H165+F166))</f>
         <v/>
       </c>
     </row>
@@ -14446,7 +14685,7 @@
         <v/>
       </c>
       <c r="H167" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK(A167),"",IF(D167="C",H166-E167+F167,H166+F167))</f>
         <v/>
       </c>
     </row>
@@ -14456,7 +14695,7 @@
         <v/>
       </c>
       <c r="H168" s="3" t="str">
-        <f t="shared" ref="H168:H231" si="6">IF(ISBLANK(A168),"",IF(D168="C",H167-E168+F168,H167+F168))</f>
+        <f t="shared" ref="H168:H231" si="3">IF(ISBLANK(A168),"",IF(D168="C",H167-E168+F168,H167+F168))</f>
         <v/>
       </c>
     </row>
@@ -14466,7 +14705,7 @@
         <v/>
       </c>
       <c r="H169" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14476,7 +14715,7 @@
         <v/>
       </c>
       <c r="H170" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14486,7 +14725,7 @@
         <v/>
       </c>
       <c r="H171" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14496,7 +14735,7 @@
         <v/>
       </c>
       <c r="H172" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14506,7 +14745,7 @@
         <v/>
       </c>
       <c r="H173" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14516,7 +14755,7 @@
         <v/>
       </c>
       <c r="H174" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14526,7 +14765,7 @@
         <v/>
       </c>
       <c r="H175" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14536,7 +14775,7 @@
         <v/>
       </c>
       <c r="H176" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14546,7 +14785,7 @@
         <v/>
       </c>
       <c r="H177" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14556,7 +14795,7 @@
         <v/>
       </c>
       <c r="H178" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14566,7 +14805,7 @@
         <v/>
       </c>
       <c r="H179" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14576,7 +14815,7 @@
         <v/>
       </c>
       <c r="H180" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14586,7 +14825,7 @@
         <v/>
       </c>
       <c r="H181" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14596,7 +14835,7 @@
         <v/>
       </c>
       <c r="H182" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14606,7 +14845,7 @@
         <v/>
       </c>
       <c r="H183" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14616,7 +14855,7 @@
         <v/>
       </c>
       <c r="H184" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14626,7 +14865,7 @@
         <v/>
       </c>
       <c r="H185" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14636,7 +14875,7 @@
         <v/>
       </c>
       <c r="H186" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14646,7 +14885,7 @@
         <v/>
       </c>
       <c r="H187" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14656,7 +14895,7 @@
         <v/>
       </c>
       <c r="H188" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14666,7 +14905,7 @@
         <v/>
       </c>
       <c r="H189" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14676,7 +14915,7 @@
         <v/>
       </c>
       <c r="H190" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14686,7 +14925,7 @@
         <v/>
       </c>
       <c r="H191" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14696,7 +14935,7 @@
         <v/>
       </c>
       <c r="H192" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14706,7 +14945,7 @@
         <v/>
       </c>
       <c r="H193" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14716,7 +14955,7 @@
         <v/>
       </c>
       <c r="H194" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14726,7 +14965,7 @@
         <v/>
       </c>
       <c r="H195" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14736,7 +14975,7 @@
         <v/>
       </c>
       <c r="H196" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14746,7 +14985,7 @@
         <v/>
       </c>
       <c r="H197" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14756,7 +14995,7 @@
         <v/>
       </c>
       <c r="H198" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14766,7 +15005,7 @@
         <v/>
       </c>
       <c r="H199" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14776,7 +15015,7 @@
         <v/>
       </c>
       <c r="H200" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14786,7 +15025,7 @@
         <v/>
       </c>
       <c r="H201" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14796,7 +15035,7 @@
         <v/>
       </c>
       <c r="H202" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14806,7 +15045,7 @@
         <v/>
       </c>
       <c r="H203" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14816,7 +15055,7 @@
         <v/>
       </c>
       <c r="H204" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14826,7 +15065,7 @@
         <v/>
       </c>
       <c r="H205" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14836,7 +15075,7 @@
         <v/>
       </c>
       <c r="H206" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14846,7 +15085,7 @@
         <v/>
       </c>
       <c r="H207" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14856,7 +15095,7 @@
         <v/>
       </c>
       <c r="H208" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14866,7 +15105,7 @@
         <v/>
       </c>
       <c r="H209" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14876,7 +15115,7 @@
         <v/>
       </c>
       <c r="H210" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14886,7 +15125,7 @@
         <v/>
       </c>
       <c r="H211" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14896,7 +15135,7 @@
         <v/>
       </c>
       <c r="H212" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14906,7 +15145,7 @@
         <v/>
       </c>
       <c r="H213" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14916,7 +15155,7 @@
         <v/>
       </c>
       <c r="H214" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14926,7 +15165,7 @@
         <v/>
       </c>
       <c r="H215" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14936,7 +15175,7 @@
         <v/>
       </c>
       <c r="H216" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14946,7 +15185,7 @@
         <v/>
       </c>
       <c r="H217" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14956,7 +15195,7 @@
         <v/>
       </c>
       <c r="H218" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14966,7 +15205,7 @@
         <v/>
       </c>
       <c r="H219" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14976,7 +15215,7 @@
         <v/>
       </c>
       <c r="H220" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14986,7 +15225,7 @@
         <v/>
       </c>
       <c r="H221" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14996,7 +15235,7 @@
         <v/>
       </c>
       <c r="H222" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15006,7 +15245,7 @@
         <v/>
       </c>
       <c r="H223" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15016,7 +15255,7 @@
         <v/>
       </c>
       <c r="H224" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15026,7 +15265,7 @@
         <v/>
       </c>
       <c r="H225" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15036,7 +15275,7 @@
         <v/>
       </c>
       <c r="H226" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15046,7 +15285,7 @@
         <v/>
       </c>
       <c r="H227" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15056,7 +15295,7 @@
         <v/>
       </c>
       <c r="H228" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15066,7 +15305,7 @@
         <v/>
       </c>
       <c r="H229" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15076,7 +15315,7 @@
         <v/>
       </c>
       <c r="H230" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15086,7 +15325,7 @@
         <v/>
       </c>
       <c r="H231" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15096,7 +15335,7 @@
         <v/>
       </c>
       <c r="H232" s="3" t="str">
-        <f t="shared" ref="H232:H259" si="7">IF(ISBLANK(A232),"",IF(D232="C",H231-E232+F232,H231+F232))</f>
+        <f t="shared" ref="H232:H259" si="4">IF(ISBLANK(A232),"",IF(D232="C",H231-E232+F232,H231+F232))</f>
         <v/>
       </c>
     </row>
@@ -15106,7 +15345,7 @@
         <v/>
       </c>
       <c r="H233" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15116,7 +15355,7 @@
         <v/>
       </c>
       <c r="H234" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15126,7 +15365,7 @@
         <v/>
       </c>
       <c r="H235" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15136,7 +15375,7 @@
         <v/>
       </c>
       <c r="H236" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15146,7 +15385,7 @@
         <v/>
       </c>
       <c r="H237" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15156,7 +15395,7 @@
         <v/>
       </c>
       <c r="H238" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15166,7 +15405,7 @@
         <v/>
       </c>
       <c r="H239" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15176,7 +15415,7 @@
         <v/>
       </c>
       <c r="H240" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15186,7 +15425,7 @@
         <v/>
       </c>
       <c r="H241" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15196,7 +15435,7 @@
         <v/>
       </c>
       <c r="H242" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15206,7 +15445,7 @@
         <v/>
       </c>
       <c r="H243" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15216,7 +15455,7 @@
         <v/>
       </c>
       <c r="H244" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15226,7 +15465,7 @@
         <v/>
       </c>
       <c r="H245" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15236,7 +15475,7 @@
         <v/>
       </c>
       <c r="H246" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15246,7 +15485,7 @@
         <v/>
       </c>
       <c r="H247" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15256,7 +15495,7 @@
         <v/>
       </c>
       <c r="H248" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15266,7 +15505,7 @@
         <v/>
       </c>
       <c r="H249" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15276,7 +15515,7 @@
         <v/>
       </c>
       <c r="H250" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15286,7 +15525,7 @@
         <v/>
       </c>
       <c r="H251" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15296,7 +15535,7 @@
         <v/>
       </c>
       <c r="H252" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15306,7 +15545,7 @@
         <v/>
       </c>
       <c r="H253" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15316,7 +15555,7 @@
         <v/>
       </c>
       <c r="H254" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15326,7 +15565,7 @@
         <v/>
       </c>
       <c r="H255" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15336,7 +15575,7 @@
         <v/>
       </c>
       <c r="H256" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15346,7 +15585,7 @@
         <v/>
       </c>
       <c r="H257" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15356,7 +15595,7 @@
         <v/>
       </c>
       <c r="H258" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15366,7 +15605,5319 @@
         <v/>
       </c>
       <c r="H259" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G260" s="3"/>
+      <c r="H260" s="3"/>
+    </row>
+    <row r="261" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G261" s="3"/>
+      <c r="H261" s="3"/>
+    </row>
+    <row r="262" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G262" s="3"/>
+      <c r="H262" s="3"/>
+    </row>
+    <row r="263" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G263" s="3"/>
+      <c r="H263" s="3"/>
+    </row>
+    <row r="264" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G264" s="3"/>
+      <c r="H264" s="3"/>
+    </row>
+    <row r="265" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G265" s="3"/>
+      <c r="H265" s="3"/>
+    </row>
+    <row r="266" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G266" s="3"/>
+      <c r="H266" s="3"/>
+    </row>
+    <row r="267" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G267" s="3"/>
+      <c r="H267" s="3"/>
+    </row>
+    <row r="268" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G268" s="3"/>
+      <c r="H268" s="3"/>
+    </row>
+    <row r="269" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G269" s="3"/>
+      <c r="H269" s="3"/>
+    </row>
+    <row r="270" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G270" s="3"/>
+      <c r="H270" s="3"/>
+    </row>
+    <row r="271" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G271" s="3"/>
+      <c r="H271" s="3"/>
+    </row>
+    <row r="272" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G272" s="3"/>
+      <c r="H272" s="3"/>
+    </row>
+    <row r="273" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G273" s="3"/>
+      <c r="H273" s="3"/>
+    </row>
+    <row r="274" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G274" s="3"/>
+      <c r="H274" s="3"/>
+    </row>
+    <row r="275" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G275" s="3"/>
+      <c r="H275" s="3"/>
+    </row>
+    <row r="276" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G276" s="3"/>
+      <c r="H276" s="3"/>
+    </row>
+    <row r="277" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G277" s="3"/>
+      <c r="H277" s="3"/>
+    </row>
+    <row r="278" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G278" s="3"/>
+      <c r="H278" s="3"/>
+    </row>
+    <row r="279" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G279" s="3"/>
+      <c r="H279" s="3"/>
+    </row>
+    <row r="280" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G280" s="3"/>
+      <c r="H280" s="3"/>
+    </row>
+    <row r="281" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G281" s="3"/>
+      <c r="H281" s="3"/>
+    </row>
+    <row r="282" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G282" s="3"/>
+      <c r="H282" s="3"/>
+    </row>
+    <row r="283" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G283" s="3"/>
+      <c r="H283" s="3"/>
+    </row>
+    <row r="284" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G284" s="3"/>
+      <c r="H284" s="3"/>
+    </row>
+    <row r="285" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G285" s="3"/>
+      <c r="H285" s="3"/>
+    </row>
+    <row r="286" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G286" s="3"/>
+      <c r="H286" s="3"/>
+    </row>
+    <row r="287" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G287" s="3"/>
+      <c r="H287" s="3"/>
+    </row>
+    <row r="288" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G288" s="3"/>
+      <c r="H288" s="3"/>
+    </row>
+    <row r="289" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G289" s="3"/>
+      <c r="H289" s="3"/>
+    </row>
+    <row r="290" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G290" s="3"/>
+      <c r="H290" s="3"/>
+    </row>
+    <row r="291" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G291" s="3"/>
+      <c r="H291" s="3"/>
+    </row>
+    <row r="292" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G292" s="3"/>
+      <c r="H292" s="3"/>
+    </row>
+    <row r="293" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G293" s="3"/>
+      <c r="H293" s="3"/>
+    </row>
+    <row r="294" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G294" s="3"/>
+      <c r="H294" s="3"/>
+    </row>
+    <row r="295" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G295" s="3"/>
+      <c r="H295" s="3"/>
+    </row>
+    <row r="296" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G296" s="3"/>
+      <c r="H296" s="3"/>
+    </row>
+    <row r="297" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G297" s="3"/>
+      <c r="H297" s="3"/>
+    </row>
+    <row r="298" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G298" s="3"/>
+      <c r="H298" s="3"/>
+    </row>
+    <row r="299" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G299" s="3"/>
+      <c r="H299" s="3"/>
+    </row>
+    <row r="300" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G300" s="3"/>
+      <c r="H300" s="3"/>
+    </row>
+    <row r="301" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G301" s="3"/>
+      <c r="H301" s="3"/>
+    </row>
+    <row r="302" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G302" s="3"/>
+      <c r="H302" s="3"/>
+    </row>
+    <row r="303" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G303" s="3"/>
+      <c r="H303" s="3"/>
+    </row>
+    <row r="304" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G304" s="3"/>
+      <c r="H304" s="3"/>
+    </row>
+    <row r="305" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G305" s="3"/>
+      <c r="H305" s="3"/>
+    </row>
+    <row r="306" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G306" s="3"/>
+      <c r="H306" s="3"/>
+    </row>
+    <row r="307" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G307" s="3"/>
+      <c r="H307" s="3"/>
+    </row>
+    <row r="308" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G308" s="3"/>
+      <c r="H308" s="3"/>
+    </row>
+    <row r="309" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G309" s="3"/>
+      <c r="H309" s="3"/>
+    </row>
+    <row r="310" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G310" s="3"/>
+      <c r="H310" s="3"/>
+    </row>
+    <row r="311" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G311" s="3"/>
+      <c r="H311" s="3"/>
+    </row>
+    <row r="312" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G312" s="3"/>
+      <c r="H312" s="3"/>
+    </row>
+    <row r="313" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G313" s="3"/>
+      <c r="H313" s="3"/>
+    </row>
+    <row r="314" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G314" s="3"/>
+      <c r="H314" s="3"/>
+    </row>
+    <row r="315" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G315" s="3"/>
+      <c r="H315" s="3"/>
+    </row>
+    <row r="316" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G316" s="3"/>
+      <c r="H316" s="3"/>
+    </row>
+    <row r="317" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G317" s="3"/>
+      <c r="H317" s="3"/>
+    </row>
+    <row r="318" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G318" s="3"/>
+      <c r="H318" s="3"/>
+    </row>
+    <row r="319" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G319" s="3"/>
+      <c r="H319" s="3"/>
+    </row>
+    <row r="320" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G320" s="3"/>
+      <c r="H320" s="3"/>
+    </row>
+    <row r="321" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G321" s="3"/>
+      <c r="H321" s="3"/>
+    </row>
+    <row r="322" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G322" s="3"/>
+      <c r="H322" s="3"/>
+    </row>
+    <row r="323" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G323" s="3"/>
+      <c r="H323" s="3"/>
+    </row>
+    <row r="324" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G324" s="3"/>
+      <c r="H324" s="3"/>
+    </row>
+    <row r="325" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G325" s="3"/>
+      <c r="H325" s="3"/>
+    </row>
+    <row r="326" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G326" s="3"/>
+      <c r="H326" s="3"/>
+    </row>
+    <row r="327" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G327" s="3"/>
+      <c r="H327" s="3"/>
+    </row>
+    <row r="328" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G328" s="3"/>
+      <c r="H328" s="3"/>
+    </row>
+    <row r="329" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G329" s="3"/>
+      <c r="H329" s="3"/>
+    </row>
+    <row r="330" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G330" s="3"/>
+      <c r="H330" s="3"/>
+    </row>
+    <row r="331" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G331" s="3"/>
+      <c r="H331" s="3"/>
+    </row>
+    <row r="332" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G332" s="3"/>
+      <c r="H332" s="3"/>
+    </row>
+    <row r="333" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G333" s="3"/>
+      <c r="H333" s="3"/>
+    </row>
+    <row r="334" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G334" s="3"/>
+      <c r="H334" s="3"/>
+    </row>
+    <row r="335" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G335" s="3"/>
+      <c r="H335" s="3"/>
+    </row>
+    <row r="336" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G336" s="3"/>
+      <c r="H336" s="3"/>
+    </row>
+    <row r="337" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G337" s="3"/>
+      <c r="H337" s="3"/>
+    </row>
+    <row r="338" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G338" s="3"/>
+      <c r="H338" s="3"/>
+    </row>
+    <row r="339" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G339" s="3"/>
+      <c r="H339" s="3"/>
+    </row>
+    <row r="340" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G340" s="3"/>
+      <c r="H340" s="3"/>
+    </row>
+    <row r="341" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G341" s="3"/>
+      <c r="H341" s="3"/>
+    </row>
+    <row r="342" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G342" s="3"/>
+      <c r="H342" s="3"/>
+    </row>
+    <row r="343" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G343" s="3"/>
+      <c r="H343" s="3"/>
+    </row>
+    <row r="344" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G344" s="3"/>
+      <c r="H344" s="3"/>
+    </row>
+    <row r="345" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G345" s="3"/>
+      <c r="H345" s="3"/>
+    </row>
+    <row r="346" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G346" s="3"/>
+      <c r="H346" s="3"/>
+    </row>
+    <row r="347" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G347" s="3"/>
+      <c r="H347" s="3"/>
+    </row>
+    <row r="348" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G348" s="3"/>
+      <c r="H348" s="3"/>
+    </row>
+    <row r="349" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G349" s="3"/>
+      <c r="H349" s="3"/>
+    </row>
+    <row r="350" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G350" s="3"/>
+      <c r="H350" s="3"/>
+    </row>
+    <row r="351" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G351" s="3"/>
+      <c r="H351" s="3"/>
+    </row>
+    <row r="352" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G352" s="3"/>
+      <c r="H352" s="3"/>
+    </row>
+    <row r="353" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G353" s="3"/>
+      <c r="H353" s="3"/>
+    </row>
+    <row r="354" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G354" s="3"/>
+      <c r="H354" s="3"/>
+    </row>
+    <row r="355" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G355" s="3"/>
+      <c r="H355" s="3"/>
+    </row>
+    <row r="356" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G356" s="3"/>
+      <c r="H356" s="3"/>
+    </row>
+    <row r="357" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G357" s="3"/>
+      <c r="H357" s="3"/>
+    </row>
+    <row r="358" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G358" s="3"/>
+      <c r="H358" s="3"/>
+    </row>
+    <row r="359" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G359" s="3"/>
+      <c r="H359" s="3"/>
+    </row>
+    <row r="360" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G360" s="3"/>
+      <c r="H360" s="3"/>
+    </row>
+    <row r="361" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G361" s="3"/>
+      <c r="H361" s="3"/>
+    </row>
+    <row r="362" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G362" s="3"/>
+      <c r="H362" s="3"/>
+    </row>
+    <row r="363" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G363" s="3"/>
+      <c r="H363" s="3"/>
+    </row>
+    <row r="364" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G364" s="3"/>
+      <c r="H364" s="3"/>
+    </row>
+    <row r="365" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G365" s="3"/>
+      <c r="H365" s="3"/>
+    </row>
+    <row r="366" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G366" s="3"/>
+      <c r="H366" s="3"/>
+    </row>
+    <row r="367" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G367" s="3"/>
+      <c r="H367" s="3"/>
+    </row>
+    <row r="368" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G368" s="3"/>
+      <c r="H368" s="3"/>
+    </row>
+    <row r="369" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G369" s="3"/>
+      <c r="H369" s="3"/>
+    </row>
+    <row r="370" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G370" s="3"/>
+      <c r="H370" s="3"/>
+    </row>
+    <row r="371" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G371" s="3"/>
+      <c r="H371" s="3"/>
+    </row>
+    <row r="372" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G372" s="3"/>
+      <c r="H372" s="3"/>
+    </row>
+    <row r="373" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G373" s="3"/>
+      <c r="H373" s="3"/>
+    </row>
+    <row r="374" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G374" s="3"/>
+      <c r="H374" s="3"/>
+    </row>
+    <row r="375" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G375" s="3"/>
+      <c r="H375" s="3"/>
+    </row>
+    <row r="376" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G376" s="3"/>
+      <c r="H376" s="3"/>
+    </row>
+    <row r="377" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G377" s="3"/>
+      <c r="H377" s="3"/>
+    </row>
+    <row r="378" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G378" s="3"/>
+      <c r="H378" s="3"/>
+    </row>
+    <row r="379" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G379" s="3"/>
+      <c r="H379" s="3"/>
+    </row>
+    <row r="380" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G380" s="3"/>
+      <c r="H380" s="3"/>
+    </row>
+    <row r="381" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G381" s="3"/>
+      <c r="H381" s="3"/>
+    </row>
+    <row r="382" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G382" s="3"/>
+      <c r="H382" s="3"/>
+    </row>
+    <row r="383" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G383" s="3"/>
+      <c r="H383" s="3"/>
+    </row>
+    <row r="384" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G384" s="3"/>
+      <c r="H384" s="3"/>
+    </row>
+    <row r="385" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G385" s="3"/>
+      <c r="H385" s="3"/>
+    </row>
+    <row r="386" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G386" s="3"/>
+      <c r="H386" s="3"/>
+    </row>
+    <row r="387" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G387" s="3"/>
+      <c r="H387" s="3"/>
+    </row>
+    <row r="388" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G388" s="3"/>
+      <c r="H388" s="3"/>
+    </row>
+    <row r="389" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G389" s="3"/>
+      <c r="H389" s="3"/>
+    </row>
+    <row r="390" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G390" s="3"/>
+      <c r="H390" s="3"/>
+    </row>
+    <row r="391" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G391" s="3"/>
+      <c r="H391" s="3"/>
+    </row>
+    <row r="392" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G392" s="3"/>
+      <c r="H392" s="3"/>
+    </row>
+    <row r="393" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G393" s="3"/>
+      <c r="H393" s="3"/>
+    </row>
+    <row r="394" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G394" s="3"/>
+      <c r="H394" s="3"/>
+    </row>
+    <row r="395" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G395" s="3"/>
+      <c r="H395" s="3"/>
+    </row>
+    <row r="396" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G396" s="3"/>
+      <c r="H396" s="3"/>
+    </row>
+    <row r="397" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G397" s="3"/>
+      <c r="H397" s="3"/>
+    </row>
+    <row r="398" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G398" s="3"/>
+      <c r="H398" s="3"/>
+    </row>
+    <row r="399" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G399" s="3"/>
+      <c r="H399" s="3"/>
+    </row>
+    <row r="400" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G400" s="3"/>
+      <c r="H400" s="3"/>
+    </row>
+    <row r="401" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G401" s="3"/>
+      <c r="H401" s="3"/>
+    </row>
+    <row r="402" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G402" s="3"/>
+      <c r="H402" s="3"/>
+    </row>
+    <row r="403" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G403" s="3"/>
+      <c r="H403" s="3"/>
+    </row>
+    <row r="404" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G404" s="3"/>
+      <c r="H404" s="3"/>
+    </row>
+    <row r="405" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G405" s="3"/>
+      <c r="H405" s="3"/>
+    </row>
+    <row r="406" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G406" s="3"/>
+      <c r="H406" s="3"/>
+    </row>
+    <row r="407" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G407" s="3"/>
+      <c r="H407" s="3"/>
+    </row>
+    <row r="408" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G408" s="3"/>
+      <c r="H408" s="3"/>
+    </row>
+    <row r="409" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G409" s="3"/>
+      <c r="H409" s="3"/>
+    </row>
+    <row r="410" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G410" s="3"/>
+      <c r="H410" s="3"/>
+    </row>
+    <row r="411" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G411" s="3"/>
+      <c r="H411" s="3"/>
+    </row>
+    <row r="412" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G412" s="3"/>
+      <c r="H412" s="3"/>
+    </row>
+    <row r="413" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G413" s="3"/>
+      <c r="H413" s="3"/>
+    </row>
+    <row r="414" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G414" s="3"/>
+      <c r="H414" s="3"/>
+    </row>
+    <row r="415" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G415" s="3"/>
+      <c r="H415" s="3"/>
+    </row>
+    <row r="416" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G416" s="3"/>
+      <c r="H416" s="3"/>
+    </row>
+    <row r="417" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G417" s="3"/>
+      <c r="H417" s="3"/>
+    </row>
+    <row r="418" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G418" s="3"/>
+      <c r="H418" s="3"/>
+    </row>
+    <row r="419" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G419" s="3"/>
+      <c r="H419" s="3"/>
+    </row>
+    <row r="420" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G420" s="3"/>
+      <c r="H420" s="3"/>
+    </row>
+    <row r="421" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G421" s="3"/>
+      <c r="H421" s="3"/>
+    </row>
+    <row r="422" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G422" s="3"/>
+      <c r="H422" s="3"/>
+    </row>
+    <row r="423" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G423" s="3"/>
+      <c r="H423" s="3"/>
+    </row>
+    <row r="424" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G424" s="3"/>
+      <c r="H424" s="3"/>
+    </row>
+    <row r="425" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G425" s="3"/>
+      <c r="H425" s="3"/>
+    </row>
+    <row r="426" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G426" s="3"/>
+      <c r="H426" s="3"/>
+    </row>
+    <row r="427" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G427" s="3"/>
+      <c r="H427" s="3"/>
+    </row>
+    <row r="428" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G428" s="3"/>
+      <c r="H428" s="3"/>
+    </row>
+    <row r="429" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G429" s="3"/>
+      <c r="H429" s="3"/>
+    </row>
+    <row r="430" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G430" s="3"/>
+      <c r="H430" s="3"/>
+    </row>
+    <row r="431" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G431" s="3"/>
+      <c r="H431" s="3"/>
+    </row>
+    <row r="432" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G432" s="3"/>
+      <c r="H432" s="3"/>
+    </row>
+    <row r="433" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G433" s="3"/>
+      <c r="H433" s="3"/>
+    </row>
+    <row r="434" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G434" s="3"/>
+      <c r="H434" s="3"/>
+    </row>
+    <row r="435" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G435" s="3"/>
+      <c r="H435" s="3"/>
+    </row>
+    <row r="436" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G436" s="3"/>
+      <c r="H436" s="3"/>
+    </row>
+    <row r="437" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G437" s="3"/>
+      <c r="H437" s="3"/>
+    </row>
+    <row r="438" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G438" s="3"/>
+      <c r="H438" s="3"/>
+    </row>
+    <row r="439" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G439" s="3"/>
+      <c r="H439" s="3"/>
+    </row>
+    <row r="440" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G440" s="3"/>
+      <c r="H440" s="3"/>
+    </row>
+    <row r="441" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G441" s="3"/>
+      <c r="H441" s="3"/>
+    </row>
+    <row r="442" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G442" s="3"/>
+      <c r="H442" s="3"/>
+    </row>
+    <row r="443" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G443" s="3"/>
+      <c r="H443" s="3"/>
+    </row>
+    <row r="444" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G444" s="3"/>
+      <c r="H444" s="3"/>
+    </row>
+    <row r="445" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G445" s="3"/>
+      <c r="H445" s="3"/>
+    </row>
+    <row r="446" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G446" s="3"/>
+      <c r="H446" s="3"/>
+    </row>
+    <row r="447" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G447" s="3"/>
+      <c r="H447" s="3"/>
+    </row>
+    <row r="448" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G448" s="3"/>
+      <c r="H448" s="3"/>
+    </row>
+    <row r="449" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G449" s="3"/>
+      <c r="H449" s="3"/>
+    </row>
+    <row r="450" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G450" s="3"/>
+      <c r="H450" s="3"/>
+    </row>
+    <row r="451" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G451" s="3"/>
+      <c r="H451" s="3"/>
+    </row>
+    <row r="452" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G452" s="3"/>
+      <c r="H452" s="3"/>
+    </row>
+    <row r="453" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G453" s="3"/>
+      <c r="H453" s="3"/>
+    </row>
+    <row r="454" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G454" s="3"/>
+      <c r="H454" s="3"/>
+    </row>
+    <row r="455" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G455" s="3"/>
+      <c r="H455" s="3"/>
+    </row>
+    <row r="456" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G456" s="3"/>
+      <c r="H456" s="3"/>
+    </row>
+    <row r="457" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G457" s="3"/>
+      <c r="H457" s="3"/>
+    </row>
+    <row r="458" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G458" s="3"/>
+      <c r="H458" s="3"/>
+    </row>
+    <row r="459" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G459" s="3"/>
+      <c r="H459" s="3"/>
+    </row>
+    <row r="460" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G460" s="3"/>
+      <c r="H460" s="3"/>
+    </row>
+    <row r="461" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G461" s="3"/>
+      <c r="H461" s="3"/>
+    </row>
+    <row r="462" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G462" s="3"/>
+      <c r="H462" s="3"/>
+    </row>
+    <row r="463" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G463" s="3"/>
+      <c r="H463" s="3"/>
+    </row>
+    <row r="464" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G464" s="3"/>
+      <c r="H464" s="3"/>
+    </row>
+    <row r="465" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G465" s="3"/>
+      <c r="H465" s="3"/>
+    </row>
+    <row r="466" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G466" s="3"/>
+      <c r="H466" s="3"/>
+    </row>
+    <row r="467" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G467" s="3"/>
+      <c r="H467" s="3"/>
+    </row>
+    <row r="468" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G468" s="3"/>
+      <c r="H468" s="3"/>
+    </row>
+    <row r="469" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G469" s="3"/>
+      <c r="H469" s="3"/>
+    </row>
+    <row r="470" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G470" s="3"/>
+      <c r="H470" s="3"/>
+    </row>
+    <row r="471" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G471" s="3"/>
+      <c r="H471" s="3"/>
+    </row>
+    <row r="472" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G472" s="3"/>
+      <c r="H472" s="3"/>
+    </row>
+    <row r="473" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G473" s="3"/>
+      <c r="H473" s="3"/>
+    </row>
+    <row r="474" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G474" s="3"/>
+      <c r="H474" s="3"/>
+    </row>
+    <row r="475" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G475" s="3"/>
+      <c r="H475" s="3"/>
+    </row>
+    <row r="476" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G476" s="3"/>
+      <c r="H476" s="3"/>
+    </row>
+    <row r="477" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G477" s="3"/>
+      <c r="H477" s="3"/>
+    </row>
+    <row r="478" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G478" s="3"/>
+      <c r="H478" s="3"/>
+    </row>
+    <row r="479" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G479" s="3"/>
+      <c r="H479" s="3"/>
+    </row>
+    <row r="480" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G480" s="3"/>
+      <c r="H480" s="3"/>
+    </row>
+    <row r="481" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G481" s="3"/>
+      <c r="H481" s="3"/>
+    </row>
+    <row r="482" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G482" s="3"/>
+      <c r="H482" s="3"/>
+    </row>
+    <row r="483" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G483" s="3"/>
+      <c r="H483" s="3"/>
+    </row>
+    <row r="484" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G484" s="3"/>
+      <c r="H484" s="3"/>
+    </row>
+    <row r="485" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G485" s="3"/>
+      <c r="H485" s="3"/>
+    </row>
+    <row r="486" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G486" s="3"/>
+      <c r="H486" s="3"/>
+    </row>
+    <row r="487" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G487" s="3"/>
+      <c r="H487" s="3"/>
+    </row>
+    <row r="488" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G488" s="3"/>
+      <c r="H488" s="3"/>
+    </row>
+    <row r="489" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G489" s="3"/>
+      <c r="H489" s="3"/>
+    </row>
+    <row r="490" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G490" s="3"/>
+      <c r="H490" s="3"/>
+    </row>
+    <row r="491" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G491" s="3"/>
+      <c r="H491" s="3"/>
+    </row>
+    <row r="492" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G492" s="3"/>
+      <c r="H492" s="3"/>
+    </row>
+    <row r="493" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G493" s="3"/>
+      <c r="H493" s="3"/>
+    </row>
+    <row r="494" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G494" s="3"/>
+      <c r="H494" s="3"/>
+    </row>
+    <row r="495" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G495" s="3"/>
+      <c r="H495" s="3"/>
+    </row>
+    <row r="496" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G496" s="3"/>
+      <c r="H496" s="3"/>
+    </row>
+    <row r="497" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G497" s="3"/>
+      <c r="H497" s="3"/>
+    </row>
+    <row r="498" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G498" s="3"/>
+      <c r="H498" s="3"/>
+    </row>
+    <row r="499" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G499" s="3"/>
+      <c r="H499" s="3"/>
+    </row>
+    <row r="500" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G500" s="3"/>
+      <c r="H500" s="3"/>
+    </row>
+    <row r="501" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G501" s="3"/>
+      <c r="H501" s="3"/>
+    </row>
+    <row r="502" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G502" s="3"/>
+      <c r="H502" s="3"/>
+    </row>
+    <row r="503" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G503" s="3"/>
+      <c r="H503" s="3"/>
+    </row>
+    <row r="504" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G504" s="3"/>
+      <c r="H504" s="3"/>
+    </row>
+    <row r="505" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G505" s="3"/>
+      <c r="H505" s="3"/>
+    </row>
+    <row r="506" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G506" s="3"/>
+      <c r="H506" s="3"/>
+    </row>
+    <row r="507" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G507" s="3"/>
+      <c r="H507" s="3"/>
+    </row>
+    <row r="508" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G508" s="3"/>
+      <c r="H508" s="3"/>
+    </row>
+    <row r="509" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G509" s="3"/>
+      <c r="H509" s="3"/>
+    </row>
+    <row r="510" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G510" s="3"/>
+      <c r="H510" s="3"/>
+    </row>
+    <row r="511" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G511" s="3"/>
+      <c r="H511" s="3"/>
+    </row>
+    <row r="512" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G512" s="3"/>
+      <c r="H512" s="3"/>
+    </row>
+    <row r="513" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G513" s="3"/>
+      <c r="H513" s="3"/>
+    </row>
+    <row r="514" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G514" s="3"/>
+      <c r="H514" s="3"/>
+    </row>
+    <row r="515" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G515" s="3"/>
+      <c r="H515" s="3"/>
+    </row>
+    <row r="516" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G516" s="3"/>
+      <c r="H516" s="3"/>
+    </row>
+    <row r="517" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G517" s="3"/>
+      <c r="H517" s="3"/>
+    </row>
+    <row r="518" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G518" s="3"/>
+      <c r="H518" s="3"/>
+    </row>
+    <row r="519" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G519" s="3"/>
+      <c r="H519" s="3"/>
+    </row>
+    <row r="520" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G520" s="3"/>
+      <c r="H520" s="3"/>
+    </row>
+    <row r="521" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G521" s="3"/>
+      <c r="H521" s="3"/>
+    </row>
+    <row r="522" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G522" s="3"/>
+      <c r="H522" s="3"/>
+    </row>
+    <row r="523" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G523" s="3"/>
+      <c r="H523" s="3"/>
+    </row>
+    <row r="524" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G524" s="3"/>
+      <c r="H524" s="3"/>
+    </row>
+    <row r="525" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G525" s="3"/>
+      <c r="H525" s="3"/>
+    </row>
+    <row r="526" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G526" s="3"/>
+      <c r="H526" s="3"/>
+    </row>
+    <row r="527" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G527" s="3"/>
+      <c r="H527" s="3"/>
+    </row>
+    <row r="528" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G528" s="3"/>
+      <c r="H528" s="3"/>
+    </row>
+    <row r="529" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G529" s="3"/>
+      <c r="H529" s="3"/>
+    </row>
+    <row r="530" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G530" s="3"/>
+      <c r="H530" s="3"/>
+    </row>
+    <row r="531" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G531" s="3"/>
+      <c r="H531" s="3"/>
+    </row>
+    <row r="532" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G532" s="3"/>
+      <c r="H532" s="3"/>
+    </row>
+    <row r="533" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G533" s="3"/>
+      <c r="H533" s="3"/>
+    </row>
+    <row r="534" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G534" s="3"/>
+      <c r="H534" s="3"/>
+    </row>
+    <row r="535" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G535" s="3"/>
+      <c r="H535" s="3"/>
+    </row>
+    <row r="536" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G536" s="3"/>
+      <c r="H536" s="3"/>
+    </row>
+    <row r="537" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G537" s="3"/>
+      <c r="H537" s="3"/>
+    </row>
+    <row r="538" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G538" s="3"/>
+      <c r="H538" s="3"/>
+    </row>
+    <row r="539" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G539" s="3"/>
+      <c r="H539" s="3"/>
+    </row>
+    <row r="540" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G540" s="3"/>
+      <c r="H540" s="3"/>
+    </row>
+    <row r="541" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G541" s="3"/>
+      <c r="H541" s="3"/>
+    </row>
+    <row r="542" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G542" s="3"/>
+      <c r="H542" s="3"/>
+    </row>
+    <row r="543" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G543" s="3"/>
+      <c r="H543" s="3"/>
+    </row>
+    <row r="544" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G544" s="3"/>
+      <c r="H544" s="3"/>
+    </row>
+    <row r="545" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G545" s="3"/>
+      <c r="H545" s="3"/>
+    </row>
+    <row r="546" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G546" s="3"/>
+      <c r="H546" s="3"/>
+    </row>
+    <row r="547" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G547" s="3"/>
+      <c r="H547" s="3"/>
+    </row>
+    <row r="548" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G548" s="3"/>
+      <c r="H548" s="3"/>
+    </row>
+    <row r="549" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G549" s="3"/>
+      <c r="H549" s="3"/>
+    </row>
+    <row r="550" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G550" s="3"/>
+      <c r="H550" s="3"/>
+    </row>
+    <row r="551" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G551" s="3"/>
+      <c r="H551" s="3"/>
+    </row>
+    <row r="552" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G552" s="3"/>
+      <c r="H552" s="3"/>
+    </row>
+    <row r="553" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G553" s="3"/>
+      <c r="H553" s="3"/>
+    </row>
+    <row r="554" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G554" s="3"/>
+      <c r="H554" s="3"/>
+    </row>
+    <row r="555" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G555" s="3"/>
+      <c r="H555" s="3"/>
+    </row>
+    <row r="556" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G556" s="3"/>
+      <c r="H556" s="3"/>
+    </row>
+    <row r="557" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G557" s="3"/>
+      <c r="H557" s="3"/>
+    </row>
+    <row r="558" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G558" s="3"/>
+      <c r="H558" s="3"/>
+    </row>
+    <row r="559" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G559" s="3"/>
+      <c r="H559" s="3"/>
+    </row>
+    <row r="560" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G560" s="3"/>
+      <c r="H560" s="3"/>
+    </row>
+    <row r="561" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G561" s="3"/>
+      <c r="H561" s="3"/>
+    </row>
+    <row r="562" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G562" s="3"/>
+      <c r="H562" s="3"/>
+    </row>
+    <row r="563" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G563" s="3"/>
+      <c r="H563" s="3"/>
+    </row>
+    <row r="564" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G564" s="3"/>
+      <c r="H564" s="3"/>
+    </row>
+    <row r="565" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G565" s="3"/>
+      <c r="H565" s="3"/>
+    </row>
+    <row r="566" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G566" s="3"/>
+      <c r="H566" s="3"/>
+    </row>
+    <row r="567" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G567" s="3"/>
+      <c r="H567" s="3"/>
+    </row>
+    <row r="568" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G568" s="3"/>
+      <c r="H568" s="3"/>
+    </row>
+    <row r="569" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G569" s="3"/>
+      <c r="H569" s="3"/>
+    </row>
+    <row r="570" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G570" s="3"/>
+      <c r="H570" s="3"/>
+    </row>
+    <row r="571" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G571" s="3"/>
+      <c r="H571" s="3"/>
+    </row>
+    <row r="572" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G572" s="3"/>
+      <c r="H572" s="3"/>
+    </row>
+    <row r="573" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G573" s="3"/>
+      <c r="H573" s="3"/>
+    </row>
+    <row r="574" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G574" s="3"/>
+      <c r="H574" s="3"/>
+    </row>
+    <row r="575" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G575" s="3"/>
+      <c r="H575" s="3"/>
+    </row>
+    <row r="576" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G576" s="3"/>
+      <c r="H576" s="3"/>
+    </row>
+    <row r="577" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G577" s="3"/>
+      <c r="H577" s="3"/>
+    </row>
+    <row r="578" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G578" s="3"/>
+      <c r="H578" s="3"/>
+    </row>
+    <row r="579" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G579" s="3"/>
+      <c r="H579" s="3"/>
+    </row>
+    <row r="580" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G580" s="3"/>
+      <c r="H580" s="3"/>
+    </row>
+    <row r="581" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G581" s="3"/>
+      <c r="H581" s="3"/>
+    </row>
+    <row r="582" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G582" s="3"/>
+      <c r="H582" s="3"/>
+    </row>
+    <row r="583" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G583" s="3"/>
+      <c r="H583" s="3"/>
+    </row>
+    <row r="584" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G584" s="3"/>
+      <c r="H584" s="3"/>
+    </row>
+    <row r="585" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G585" s="3"/>
+      <c r="H585" s="3"/>
+    </row>
+    <row r="586" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G586" s="3"/>
+      <c r="H586" s="3"/>
+    </row>
+    <row r="587" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G587" s="3"/>
+      <c r="H587" s="3"/>
+    </row>
+    <row r="588" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G588" s="3"/>
+      <c r="H588" s="3"/>
+    </row>
+    <row r="589" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G589" s="3"/>
+      <c r="H589" s="3"/>
+    </row>
+    <row r="590" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G590" s="3"/>
+      <c r="H590" s="3"/>
+    </row>
+    <row r="591" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G591" s="3"/>
+      <c r="H591" s="3"/>
+    </row>
+    <row r="592" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G592" s="3"/>
+      <c r="H592" s="3"/>
+    </row>
+    <row r="593" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G593" s="3"/>
+      <c r="H593" s="3"/>
+    </row>
+    <row r="594" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G594" s="3"/>
+      <c r="H594" s="3"/>
+    </row>
+    <row r="595" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G595" s="3"/>
+      <c r="H595" s="3"/>
+    </row>
+    <row r="596" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G596" s="3"/>
+      <c r="H596" s="3"/>
+    </row>
+    <row r="597" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G597" s="3"/>
+      <c r="H597" s="3"/>
+    </row>
+    <row r="598" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G598" s="3"/>
+      <c r="H598" s="3"/>
+    </row>
+    <row r="599" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G599" s="3"/>
+      <c r="H599" s="3"/>
+    </row>
+    <row r="600" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G600" s="3"/>
+      <c r="H600" s="3"/>
+    </row>
+    <row r="601" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G601" s="3"/>
+      <c r="H601" s="3"/>
+    </row>
+    <row r="602" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G602" s="3"/>
+      <c r="H602" s="3"/>
+    </row>
+    <row r="603" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G603" s="3"/>
+      <c r="H603" s="3"/>
+    </row>
+    <row r="604" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G604" s="3"/>
+      <c r="H604" s="3"/>
+    </row>
+    <row r="605" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G605" s="3"/>
+      <c r="H605" s="3"/>
+    </row>
+    <row r="606" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G606" s="3"/>
+      <c r="H606" s="3"/>
+    </row>
+    <row r="607" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G607" s="3"/>
+      <c r="H607" s="3"/>
+    </row>
+    <row r="608" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G608" s="3"/>
+      <c r="H608" s="3"/>
+    </row>
+    <row r="609" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G609" s="3"/>
+      <c r="H609" s="3"/>
+    </row>
+    <row r="610" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G610" s="3"/>
+      <c r="H610" s="3"/>
+    </row>
+    <row r="611" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G611" s="3"/>
+      <c r="H611" s="3"/>
+    </row>
+    <row r="612" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G612" s="3"/>
+      <c r="H612" s="3"/>
+    </row>
+    <row r="613" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G613" s="3"/>
+      <c r="H613" s="3"/>
+    </row>
+    <row r="614" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G614" s="3"/>
+      <c r="H614" s="3"/>
+    </row>
+    <row r="615" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G615" s="3"/>
+      <c r="H615" s="3"/>
+    </row>
+    <row r="616" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G616" s="3"/>
+      <c r="H616" s="3"/>
+    </row>
+    <row r="617" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G617" s="3"/>
+      <c r="H617" s="3"/>
+    </row>
+    <row r="618" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G618" s="3"/>
+      <c r="H618" s="3"/>
+    </row>
+    <row r="619" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G619" s="3"/>
+      <c r="H619" s="3"/>
+    </row>
+    <row r="620" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G620" s="3"/>
+      <c r="H620" s="3"/>
+    </row>
+    <row r="621" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G621" s="3"/>
+      <c r="H621" s="3"/>
+    </row>
+    <row r="622" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G622" s="3"/>
+      <c r="H622" s="3"/>
+    </row>
+    <row r="623" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G623" s="3"/>
+      <c r="H623" s="3"/>
+    </row>
+    <row r="624" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G624" s="3"/>
+      <c r="H624" s="3"/>
+    </row>
+    <row r="625" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G625" s="3"/>
+      <c r="H625" s="3"/>
+    </row>
+    <row r="626" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G626" s="3"/>
+      <c r="H626" s="3"/>
+    </row>
+    <row r="627" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G627" s="3"/>
+      <c r="H627" s="3"/>
+    </row>
+    <row r="628" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G628" s="3"/>
+      <c r="H628" s="3"/>
+    </row>
+    <row r="629" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G629" s="3"/>
+      <c r="H629" s="3"/>
+    </row>
+    <row r="630" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G630" s="3"/>
+      <c r="H630" s="3"/>
+    </row>
+    <row r="631" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G631" s="3"/>
+      <c r="H631" s="3"/>
+    </row>
+    <row r="632" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G632" s="3"/>
+      <c r="H632" s="3"/>
+    </row>
+    <row r="633" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G633" s="3"/>
+      <c r="H633" s="3"/>
+    </row>
+    <row r="634" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G634" s="3"/>
+      <c r="H634" s="3"/>
+    </row>
+    <row r="635" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G635" s="3"/>
+      <c r="H635" s="3"/>
+    </row>
+    <row r="636" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G636" s="3"/>
+      <c r="H636" s="3"/>
+    </row>
+    <row r="637" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G637" s="3"/>
+      <c r="H637" s="3"/>
+    </row>
+    <row r="638" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G638" s="3"/>
+      <c r="H638" s="3"/>
+    </row>
+    <row r="639" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G639" s="3"/>
+      <c r="H639" s="3"/>
+    </row>
+    <row r="640" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G640" s="3"/>
+      <c r="H640" s="3"/>
+    </row>
+    <row r="641" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G641" s="3"/>
+      <c r="H641" s="3"/>
+    </row>
+    <row r="642" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G642" s="3"/>
+      <c r="H642" s="3"/>
+    </row>
+    <row r="643" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G643" s="3"/>
+      <c r="H643" s="3"/>
+    </row>
+    <row r="644" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G644" s="3"/>
+      <c r="H644" s="3"/>
+    </row>
+    <row r="645" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G645" s="3"/>
+      <c r="H645" s="3"/>
+    </row>
+    <row r="646" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G646" s="3"/>
+      <c r="H646" s="3"/>
+    </row>
+    <row r="647" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G647" s="3"/>
+      <c r="H647" s="3"/>
+    </row>
+    <row r="648" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G648" s="3"/>
+      <c r="H648" s="3"/>
+    </row>
+    <row r="649" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G649" s="3"/>
+      <c r="H649" s="3"/>
+    </row>
+    <row r="650" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G650" s="3"/>
+      <c r="H650" s="3"/>
+    </row>
+    <row r="651" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G651" s="3"/>
+      <c r="H651" s="3"/>
+    </row>
+    <row r="652" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G652" s="3"/>
+      <c r="H652" s="3"/>
+    </row>
+    <row r="653" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G653" s="3"/>
+      <c r="H653" s="3"/>
+    </row>
+    <row r="654" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G654" s="3"/>
+      <c r="H654" s="3"/>
+    </row>
+    <row r="655" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G655" s="3"/>
+      <c r="H655" s="3"/>
+    </row>
+    <row r="656" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G656" s="3"/>
+      <c r="H656" s="3"/>
+    </row>
+    <row r="657" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G657" s="3"/>
+      <c r="H657" s="3"/>
+    </row>
+    <row r="658" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G658" s="3"/>
+      <c r="H658" s="3"/>
+    </row>
+    <row r="659" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G659" s="3"/>
+      <c r="H659" s="3"/>
+    </row>
+    <row r="660" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G660" s="3"/>
+      <c r="H660" s="3"/>
+    </row>
+    <row r="661" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G661" s="3"/>
+      <c r="H661" s="3"/>
+    </row>
+    <row r="662" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G662" s="3"/>
+      <c r="H662" s="3"/>
+    </row>
+    <row r="663" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G663" s="3"/>
+      <c r="H663" s="3"/>
+    </row>
+    <row r="664" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G664" s="3"/>
+      <c r="H664" s="3"/>
+    </row>
+    <row r="665" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G665" s="3"/>
+      <c r="H665" s="3"/>
+    </row>
+    <row r="666" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G666" s="3"/>
+      <c r="H666" s="3"/>
+    </row>
+    <row r="667" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G667" s="3"/>
+      <c r="H667" s="3"/>
+    </row>
+    <row r="668" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G668" s="3"/>
+      <c r="H668" s="3"/>
+    </row>
+    <row r="669" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G669" s="3"/>
+      <c r="H669" s="3"/>
+    </row>
+    <row r="670" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G670" s="3"/>
+      <c r="H670" s="3"/>
+    </row>
+    <row r="671" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G671" s="3"/>
+      <c r="H671" s="3"/>
+    </row>
+    <row r="672" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G672" s="3"/>
+      <c r="H672" s="3"/>
+    </row>
+    <row r="673" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G673" s="3"/>
+      <c r="H673" s="3"/>
+    </row>
+    <row r="674" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G674" s="3"/>
+      <c r="H674" s="3"/>
+    </row>
+    <row r="675" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G675" s="3"/>
+      <c r="H675" s="3"/>
+    </row>
+    <row r="676" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G676" s="3"/>
+      <c r="H676" s="3"/>
+    </row>
+    <row r="677" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G677" s="3"/>
+      <c r="H677" s="3"/>
+    </row>
+    <row r="678" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G678" s="3"/>
+      <c r="H678" s="3"/>
+    </row>
+    <row r="679" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G679" s="3"/>
+      <c r="H679" s="3"/>
+    </row>
+    <row r="680" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G680" s="3"/>
+      <c r="H680" s="3"/>
+    </row>
+    <row r="681" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G681" s="3"/>
+      <c r="H681" s="3"/>
+    </row>
+    <row r="682" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G682" s="3"/>
+      <c r="H682" s="3"/>
+    </row>
+    <row r="683" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G683" s="3"/>
+      <c r="H683" s="3"/>
+    </row>
+    <row r="684" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G684" s="3"/>
+      <c r="H684" s="3"/>
+    </row>
+    <row r="685" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G685" s="3"/>
+      <c r="H685" s="3"/>
+    </row>
+    <row r="686" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G686" s="3"/>
+      <c r="H686" s="3"/>
+    </row>
+    <row r="687" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G687" s="3"/>
+      <c r="H687" s="3"/>
+    </row>
+    <row r="688" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G688" s="3"/>
+      <c r="H688" s="3"/>
+    </row>
+    <row r="689" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G689" s="3"/>
+      <c r="H689" s="3"/>
+    </row>
+    <row r="690" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G690" s="3"/>
+      <c r="H690" s="3"/>
+    </row>
+    <row r="691" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G691" s="3"/>
+      <c r="H691" s="3"/>
+    </row>
+    <row r="692" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G692" s="3"/>
+      <c r="H692" s="3"/>
+    </row>
+    <row r="693" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G693" s="3"/>
+      <c r="H693" s="3"/>
+    </row>
+    <row r="694" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G694" s="3"/>
+      <c r="H694" s="3"/>
+    </row>
+    <row r="695" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G695" s="3"/>
+      <c r="H695" s="3"/>
+    </row>
+    <row r="696" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G696" s="3"/>
+      <c r="H696" s="3"/>
+    </row>
+    <row r="697" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G697" s="3"/>
+      <c r="H697" s="3"/>
+    </row>
+    <row r="698" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G698" s="3"/>
+      <c r="H698" s="3"/>
+    </row>
+    <row r="699" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G699" s="3"/>
+      <c r="H699" s="3"/>
+    </row>
+    <row r="700" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G700" s="3"/>
+      <c r="H700" s="3"/>
+    </row>
+    <row r="701" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G701" s="3"/>
+      <c r="H701" s="3"/>
+    </row>
+    <row r="702" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G702" s="3"/>
+      <c r="H702" s="3"/>
+    </row>
+    <row r="703" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G703" s="3"/>
+      <c r="H703" s="3"/>
+    </row>
+    <row r="704" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G704" s="3"/>
+      <c r="H704" s="3"/>
+    </row>
+    <row r="705" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G705" s="3"/>
+      <c r="H705" s="3"/>
+    </row>
+    <row r="706" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G706" s="3"/>
+      <c r="H706" s="3"/>
+    </row>
+    <row r="707" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G707" s="3"/>
+      <c r="H707" s="3"/>
+    </row>
+    <row r="708" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G708" s="3"/>
+      <c r="H708" s="3"/>
+    </row>
+    <row r="709" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G709" s="3"/>
+      <c r="H709" s="3"/>
+    </row>
+    <row r="710" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G710" s="3"/>
+      <c r="H710" s="3"/>
+    </row>
+    <row r="711" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G711" s="3"/>
+      <c r="H711" s="3"/>
+    </row>
+    <row r="712" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G712" s="3"/>
+      <c r="H712" s="3"/>
+    </row>
+    <row r="713" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G713" s="3"/>
+      <c r="H713" s="3"/>
+    </row>
+    <row r="714" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G714" s="3"/>
+      <c r="H714" s="3"/>
+    </row>
+    <row r="715" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G715" s="3"/>
+      <c r="H715" s="3"/>
+    </row>
+    <row r="716" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G716" s="3"/>
+      <c r="H716" s="3"/>
+    </row>
+    <row r="717" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G717" s="3"/>
+      <c r="H717" s="3"/>
+    </row>
+    <row r="718" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G718" s="3"/>
+      <c r="H718" s="3"/>
+    </row>
+    <row r="719" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G719" s="3"/>
+      <c r="H719" s="3"/>
+    </row>
+    <row r="720" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G720" s="3"/>
+      <c r="H720" s="3"/>
+    </row>
+    <row r="721" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G721" s="3"/>
+      <c r="H721" s="3"/>
+    </row>
+    <row r="722" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G722" s="3"/>
+      <c r="H722" s="3"/>
+    </row>
+    <row r="723" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G723" s="3"/>
+      <c r="H723" s="3"/>
+    </row>
+    <row r="724" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G724" s="3"/>
+      <c r="H724" s="3"/>
+    </row>
+    <row r="725" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G725" s="3"/>
+      <c r="H725" s="3"/>
+    </row>
+    <row r="726" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G726" s="3"/>
+      <c r="H726" s="3"/>
+    </row>
+    <row r="727" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G727" s="3"/>
+      <c r="H727" s="3"/>
+    </row>
+    <row r="728" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G728" s="3"/>
+      <c r="H728" s="3"/>
+    </row>
+    <row r="729" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G729" s="3"/>
+      <c r="H729" s="3"/>
+    </row>
+    <row r="730" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G730" s="3"/>
+      <c r="H730" s="3"/>
+    </row>
+    <row r="731" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G731" s="3"/>
+      <c r="H731" s="3"/>
+    </row>
+    <row r="732" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G732" s="3"/>
+      <c r="H732" s="3"/>
+    </row>
+    <row r="733" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G733" s="3"/>
+      <c r="H733" s="3"/>
+    </row>
+    <row r="734" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G734" s="3"/>
+      <c r="H734" s="3"/>
+    </row>
+    <row r="735" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G735" s="3"/>
+      <c r="H735" s="3"/>
+    </row>
+    <row r="736" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G736" s="3"/>
+      <c r="H736" s="3"/>
+    </row>
+    <row r="737" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G737" s="3"/>
+      <c r="H737" s="3"/>
+    </row>
+    <row r="738" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G738" s="3"/>
+      <c r="H738" s="3"/>
+    </row>
+    <row r="739" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G739" s="3"/>
+      <c r="H739" s="3"/>
+    </row>
+    <row r="740" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G740" s="3"/>
+      <c r="H740" s="3"/>
+    </row>
+    <row r="741" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G741" s="3"/>
+      <c r="H741" s="3"/>
+    </row>
+    <row r="742" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G742" s="3"/>
+      <c r="H742" s="3"/>
+    </row>
+    <row r="743" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G743" s="3"/>
+      <c r="H743" s="3"/>
+    </row>
+    <row r="744" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G744" s="3"/>
+      <c r="H744" s="3"/>
+    </row>
+    <row r="745" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G745" s="3"/>
+      <c r="H745" s="3"/>
+    </row>
+    <row r="746" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G746" s="3"/>
+      <c r="H746" s="3"/>
+    </row>
+    <row r="747" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G747" s="3"/>
+      <c r="H747" s="3"/>
+    </row>
+    <row r="748" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G748" s="3"/>
+      <c r="H748" s="3"/>
+    </row>
+    <row r="749" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G749" s="3"/>
+      <c r="H749" s="3"/>
+    </row>
+    <row r="750" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G750" s="3"/>
+      <c r="H750" s="3"/>
+    </row>
+    <row r="751" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G751" s="3"/>
+      <c r="H751" s="3"/>
+    </row>
+    <row r="752" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G752" s="3"/>
+      <c r="H752" s="3"/>
+    </row>
+    <row r="753" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G753" s="3"/>
+      <c r="H753" s="3"/>
+    </row>
+    <row r="754" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G754" s="3"/>
+      <c r="H754" s="3"/>
+    </row>
+    <row r="755" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G755" s="3"/>
+      <c r="H755" s="3"/>
+    </row>
+    <row r="756" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G756" s="3"/>
+      <c r="H756" s="3"/>
+    </row>
+    <row r="757" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G757" s="3"/>
+      <c r="H757" s="3"/>
+    </row>
+    <row r="758" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G758" s="3"/>
+      <c r="H758" s="3"/>
+    </row>
+    <row r="759" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G759" s="3"/>
+      <c r="H759" s="3"/>
+    </row>
+    <row r="760" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G760" s="3"/>
+      <c r="H760" s="3"/>
+    </row>
+    <row r="761" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G761" s="3"/>
+      <c r="H761" s="3"/>
+    </row>
+    <row r="762" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G762" s="3"/>
+      <c r="H762" s="3"/>
+    </row>
+    <row r="763" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G763" s="3"/>
+      <c r="H763" s="3"/>
+    </row>
+    <row r="764" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G764" s="3"/>
+      <c r="H764" s="3"/>
+    </row>
+    <row r="765" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G765" s="3"/>
+      <c r="H765" s="3"/>
+    </row>
+    <row r="766" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G766" s="3"/>
+      <c r="H766" s="3"/>
+    </row>
+    <row r="767" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G767" s="3"/>
+      <c r="H767" s="3"/>
+    </row>
+    <row r="768" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G768" s="3"/>
+      <c r="H768" s="3"/>
+    </row>
+    <row r="769" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G769" s="3"/>
+      <c r="H769" s="3"/>
+    </row>
+    <row r="770" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G770" s="3"/>
+      <c r="H770" s="3"/>
+    </row>
+    <row r="771" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G771" s="3"/>
+      <c r="H771" s="3"/>
+    </row>
+    <row r="772" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G772" s="3"/>
+      <c r="H772" s="3"/>
+    </row>
+    <row r="773" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G773" s="3"/>
+      <c r="H773" s="3"/>
+    </row>
+    <row r="774" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G774" s="3"/>
+      <c r="H774" s="3"/>
+    </row>
+    <row r="775" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G775" s="3"/>
+      <c r="H775" s="3"/>
+    </row>
+    <row r="776" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G776" s="3"/>
+      <c r="H776" s="3"/>
+    </row>
+    <row r="777" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G777" s="3"/>
+      <c r="H777" s="3"/>
+    </row>
+    <row r="778" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G778" s="3"/>
+      <c r="H778" s="3"/>
+    </row>
+    <row r="779" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G779" s="3"/>
+      <c r="H779" s="3"/>
+    </row>
+    <row r="780" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G780" s="3"/>
+      <c r="H780" s="3"/>
+    </row>
+    <row r="781" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G781" s="3"/>
+      <c r="H781" s="3"/>
+    </row>
+    <row r="782" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G782" s="3"/>
+      <c r="H782" s="3"/>
+    </row>
+    <row r="783" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G783" s="3"/>
+      <c r="H783" s="3"/>
+    </row>
+    <row r="784" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G784" s="3"/>
+      <c r="H784" s="3"/>
+    </row>
+    <row r="785" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G785" s="3"/>
+      <c r="H785" s="3"/>
+    </row>
+    <row r="786" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G786" s="3"/>
+      <c r="H786" s="3"/>
+    </row>
+    <row r="787" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G787" s="3"/>
+      <c r="H787" s="3"/>
+    </row>
+    <row r="788" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G788" s="3"/>
+      <c r="H788" s="3"/>
+    </row>
+    <row r="789" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G789" s="3"/>
+      <c r="H789" s="3"/>
+    </row>
+    <row r="790" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G790" s="3"/>
+      <c r="H790" s="3"/>
+    </row>
+    <row r="791" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G791" s="3"/>
+      <c r="H791" s="3"/>
+    </row>
+    <row r="792" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G792" s="3"/>
+      <c r="H792" s="3"/>
+    </row>
+    <row r="793" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G793" s="3"/>
+      <c r="H793" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="E1:E793"/>
+  <conditionalFormatting sqref="E1:E20 E23:E102 E104:E1048576">
+    <cfRule type="expression" dxfId="55" priority="19" stopIfTrue="1">
+      <formula>D1="c"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="20">
+      <formula>NOT(ISBLANK(E1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M4">
+    <cfRule type="expression" dxfId="53" priority="17" stopIfTrue="1">
+      <formula>L2="c"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="18">
+      <formula>NOT(ISBLANK(M2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="expression" dxfId="51" priority="15" stopIfTrue="1">
+      <formula>L5="c"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="16">
+      <formula>NOT(ISBLANK(M5))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="49" priority="13" stopIfTrue="1">
+      <formula>E14="c"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="14">
+      <formula>NOT(ISBLANK(F14))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J4">
+    <cfRule type="expression" dxfId="47" priority="11" stopIfTrue="1">
+      <formula>I2="c"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="12">
+      <formula>NOT(ISBLANK(J2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="expression" dxfId="45" priority="9" stopIfTrue="1">
+      <formula>I5="c"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="10">
+      <formula>NOT(ISBLANK(J5))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="expression" dxfId="43" priority="7" stopIfTrue="1">
+      <formula>I6="c"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="8">
+      <formula>NOT(ISBLANK(J6))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="expression" dxfId="41" priority="5" stopIfTrue="1">
+      <formula>I7="c"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="6">
+      <formula>NOT(ISBLANK(J7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:E22">
+    <cfRule type="expression" dxfId="39" priority="3" stopIfTrue="1">
+      <formula>D21="c"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="4">
+      <formula>NOT(ISBLANK(E21))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="expression" dxfId="37" priority="1" stopIfTrue="1">
+      <formula>D103="c"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="2">
+      <formula>NOT(ISBLANK(E103))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M793"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="58.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="22">
+        <v>43469</v>
+      </c>
+      <c r="B2">
+        <v>1391</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3">
+        <v>145</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
+        <f>'2018'!G151</f>
+        <v>5048.4300000000076</v>
+      </c>
+      <c r="H2" s="3">
+        <f>'2018'!H151-E2</f>
+        <v>5193.4300000000076</v>
+      </c>
+      <c r="J2" s="3">
+        <v>145</v>
+      </c>
+      <c r="K2" s="3">
+        <f>SUM(J2:J35)</f>
+        <v>145</v>
+      </c>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="22">
+        <v>43472</v>
+      </c>
+      <c r="B3">
+        <v>1392</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3">
+        <v>145</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <f>G2-E3+F3</f>
+        <v>4903.4300000000076</v>
+      </c>
+      <c r="H3" s="3">
+        <f>IF(D3="C",H2-E3+F3,H2+F3)</f>
+        <v>5048.4300000000076</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="22">
+        <v>43472</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="F4" s="3">
+        <v>14.26</v>
+      </c>
+      <c r="G4" s="3">
+        <f>'2019'!G3-E4+F4</f>
+        <v>4917.6900000000078</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H67" si="0">IF(D4="C",H3-E4+F4,H3+F4)</f>
+        <v>5062.6900000000078</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
+        <v>43479</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="F5" s="3">
+        <v>14.26</v>
+      </c>
+      <c r="G5" s="3">
+        <f>'2019'!G4-E5+F5</f>
+        <v>4931.950000000008</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>5076.950000000008</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
+        <v>43480</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="F6" s="3">
+        <v>14.26</v>
+      </c>
+      <c r="G6" s="3">
+        <f>'2019'!G5-E6+F6</f>
+        <v>4946.2100000000082</v>
+      </c>
+      <c r="H6" s="3">
+        <f>IF(D6="C",H5-E6+F6,H5+F6)</f>
+        <v>5091.2100000000082</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
+        <v>43482</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="F7" s="3">
+        <v>14.26</v>
+      </c>
+      <c r="G7" s="3">
+        <f>'2019'!G6-E7+F7</f>
+        <v>4960.4700000000084</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>5105.4700000000084</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
+        <v>43487</v>
+      </c>
+      <c r="B8">
+        <v>1393</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="3">
+        <v>145</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <f>'2019'!G7-E8+F8</f>
+        <v>4815.4700000000084</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>5105.4700000000084</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="22"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="8"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="str">
+        <f>IF(ISBLANK(A9),"",'2019'!G8-E9+F9)</f>
+        <v/>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f>IF(ISBLANK(A9),"",IF(D9="C",H8-E9+F9,H8+F9))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="8"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="str">
+        <f>IF(ISBLANK(A10),"",'2019'!G9-E10+F10)</f>
+        <v/>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f t="shared" ref="H10:H73" si="1">IF(ISBLANK(A10),"",IF(D10="C",H9-E10+F10,H9+F10))</f>
+        <v/>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="C11" s="20"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="str">
+        <f>IF(ISBLANK(A11),"",'2019'!G10-E11+F11)</f>
+        <v/>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="28"/>
+      <c r="C12" s="20"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="str">
+        <f>IF(ISBLANK(A12),"",'2019'!G11-E12+F12)</f>
+        <v/>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="8"/>
+      <c r="G13" s="3" t="str">
+        <f>IF(ISBLANK(A13),"",'2019'!G12-E13+F13)</f>
+        <v/>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="8"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="str">
+        <f>IF(ISBLANK(A14),"",'2019'!G13-E14+F14)</f>
+        <v/>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="28"/>
+      <c r="C15" s="20"/>
+      <c r="G15" s="3" t="str">
+        <f>IF(ISBLANK(A15),"",'2019'!G14-E15+F15)</f>
+        <v/>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="C16" s="20"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="str">
+        <f>IF(ISBLANK(A16),"",'2019'!G15-E16+F16)</f>
+        <v/>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="C17" s="20"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="str">
+        <f>IF(ISBLANK(A17),"",'2019'!G16-E17+F17)</f>
+        <v/>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="C18" s="20"/>
+      <c r="G18" s="3" t="str">
+        <f>IF(ISBLANK(A18),"",'2019'!G17-E18+F18)</f>
+        <v/>
+      </c>
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="C19" s="20"/>
+      <c r="G19" s="3" t="str">
+        <f>IF(ISBLANK(A19),"",'2019'!G18-E19+F19)</f>
+        <v/>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="28"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="8"/>
+      <c r="G20" s="3" t="str">
+        <f>IF(ISBLANK(A20),"",'2019'!G19-E20+F20)</f>
+        <v/>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="28"/>
+      <c r="C21" s="20"/>
+      <c r="G21" s="3" t="str">
+        <f>IF(ISBLANK(A21),"",'2019'!G20-E21+F21)</f>
+        <v/>
+      </c>
+      <c r="H21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="C22" s="20"/>
+      <c r="G22" s="3" t="str">
+        <f>IF(ISBLANK(A22),"",'2019'!G21-E22+F22)</f>
+        <v/>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="C23" s="20"/>
+      <c r="G23" s="3" t="str">
+        <f>IF(ISBLANK(A23),"",'2019'!G22-E23+F23)</f>
+        <v/>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+      <c r="C24" s="20"/>
+      <c r="G24" s="3" t="str">
+        <f>IF(ISBLANK(A24),"",'2019'!G23-E24+F24)</f>
+        <v/>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="28"/>
+      <c r="C25" s="20"/>
+      <c r="G25" s="3" t="str">
+        <f>IF(ISBLANK(A25),"",'2019'!G24-E25+F25)</f>
+        <v/>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="28"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="8"/>
+      <c r="G26" s="3" t="str">
+        <f>IF(ISBLANK(A26),"",'2019'!G25-E26+F26)</f>
+        <v/>
+      </c>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="8"/>
+      <c r="G27" s="3" t="str">
+        <f>IF(ISBLANK(A27),"",'2019'!G26-E27+F27)</f>
+        <v/>
+      </c>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="8"/>
+      <c r="G28" s="3" t="str">
+        <f>IF(ISBLANK(A28),"",'2019'!G27-E28+F28)</f>
+        <v/>
+      </c>
+      <c r="H28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+      <c r="C29" s="20"/>
+      <c r="G29" s="3" t="str">
+        <f>IF(ISBLANK(A29),"",'2019'!G28-E29+F29)</f>
+        <v/>
+      </c>
+      <c r="H29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="28"/>
+      <c r="C30" s="20"/>
+      <c r="G30" s="3" t="str">
+        <f>IF(ISBLANK(A30),"",'2019'!G29-E30+F30)</f>
+        <v/>
+      </c>
+      <c r="H30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="28"/>
+      <c r="C31" s="20"/>
+      <c r="G31" s="3" t="str">
+        <f>IF(ISBLANK(A31),"",'2019'!G30-E31+F31)</f>
+        <v/>
+      </c>
+      <c r="H31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="28"/>
+      <c r="C32" s="20"/>
+      <c r="G32" s="3" t="str">
+        <f>IF(ISBLANK(A32),"",'2019'!G31-E32+F32)</f>
+        <v/>
+      </c>
+      <c r="H32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="28"/>
+      <c r="C33" s="20"/>
+      <c r="G33" s="3" t="str">
+        <f>IF(ISBLANK(A33),"",'2019'!G32-E33+F33)</f>
+        <v/>
+      </c>
+      <c r="H33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+      <c r="C34" s="20"/>
+      <c r="G34" s="3" t="str">
+        <f>IF(ISBLANK(A34),"",'2019'!G33-E34+F34)</f>
+        <v/>
+      </c>
+      <c r="H34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="28"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="G35" s="3" t="str">
+        <f>IF(ISBLANK(A35),"",'2019'!G34-E35+F35)</f>
+        <v/>
+      </c>
+      <c r="H35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="28"/>
+      <c r="C36" s="20"/>
+      <c r="G36" s="3" t="str">
+        <f>IF(ISBLANK(A36),"",'2019'!G35-E36+F36)</f>
+        <v/>
+      </c>
+      <c r="H36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="28"/>
+      <c r="C37" s="20"/>
+      <c r="G37" s="3" t="str">
+        <f>IF(ISBLANK(A37),"",'2019'!G36-E37+F37)</f>
+        <v/>
+      </c>
+      <c r="H37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="28"/>
+      <c r="C38" s="20"/>
+      <c r="G38" s="3" t="str">
+        <f>IF(ISBLANK(A38),"",'2019'!G37-E38+F38)</f>
+        <v/>
+      </c>
+      <c r="H38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="28"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="G39" s="3" t="str">
+        <f>IF(ISBLANK(A39),"",'2019'!G38-E39+F39)</f>
+        <v/>
+      </c>
+      <c r="H39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="28"/>
+      <c r="C40" s="20"/>
+      <c r="G40" s="3" t="str">
+        <f>IF(ISBLANK(A40),"",'2019'!G39-E40+F40)</f>
+        <v/>
+      </c>
+      <c r="H40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="28"/>
+      <c r="C41" s="20"/>
+      <c r="G41" s="3" t="str">
+        <f>IF(ISBLANK(A41),"",'2019'!G40-E41+F41)</f>
+        <v/>
+      </c>
+      <c r="H41" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="28"/>
+      <c r="C42" s="20"/>
+      <c r="G42" s="3" t="str">
+        <f>IF(ISBLANK(A42),"",'2019'!G41-E42+F42)</f>
+        <v/>
+      </c>
+      <c r="H42" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="28"/>
+      <c r="C43" s="20"/>
+      <c r="G43" s="3" t="str">
+        <f>IF(ISBLANK(A43),"",'2019'!G42-E43+F43)</f>
+        <v/>
+      </c>
+      <c r="H43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="C44" s="20"/>
+      <c r="G44" s="3" t="str">
+        <f>IF(ISBLANK(A44),"",'2019'!G43-E44+F44)</f>
+        <v/>
+      </c>
+      <c r="H44" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
+      <c r="C45" s="20"/>
+      <c r="G45" s="3" t="str">
+        <f>IF(ISBLANK(A45),"",'2019'!G44-E45+F45)</f>
+        <v/>
+      </c>
+      <c r="H45" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+      <c r="C46" s="20"/>
+      <c r="G46" s="3" t="str">
+        <f>IF(ISBLANK(A46),"",'2019'!G45-E46+F46)</f>
+        <v/>
+      </c>
+      <c r="H46" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="C47" s="20"/>
+      <c r="G47" s="3" t="str">
+        <f>IF(ISBLANK(A47),"",'2019'!G46-E47+F47)</f>
+        <v/>
+      </c>
+      <c r="H47" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="C48" s="20"/>
+      <c r="G48" s="3" t="str">
+        <f>IF(ISBLANK(A48),"",'2019'!G47-E48+F48)</f>
+        <v/>
+      </c>
+      <c r="H48" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="C49" s="20"/>
+      <c r="G49" s="3" t="str">
+        <f>IF(ISBLANK(A49),"",'2019'!G48-E49+F49)</f>
+        <v/>
+      </c>
+      <c r="H49" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="C50" s="20"/>
+      <c r="G50" s="3" t="str">
+        <f>IF(ISBLANK(A50),"",'2019'!G49-E50+F50)</f>
+        <v/>
+      </c>
+      <c r="H50" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="C51" s="20"/>
+      <c r="G51" s="3" t="str">
+        <f>IF(ISBLANK(A51),"",'2019'!G50-E51+F51)</f>
+        <v/>
+      </c>
+      <c r="H51" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="28"/>
+      <c r="C52" s="20"/>
+      <c r="G52" s="3" t="str">
+        <f>IF(ISBLANK(A52),"",'2019'!G51-E52+F52)</f>
+        <v/>
+      </c>
+      <c r="H52" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="28"/>
+      <c r="C53" s="20"/>
+      <c r="G53" s="3" t="str">
+        <f>IF(ISBLANK(A53),"",'2019'!G52-E53+F53)</f>
+        <v/>
+      </c>
+      <c r="H53" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
+      <c r="C54" s="20"/>
+      <c r="G54" s="3" t="str">
+        <f>IF(ISBLANK(A54),"",'2019'!G53-E54+F54)</f>
+        <v/>
+      </c>
+      <c r="H54" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="28"/>
+      <c r="C55" s="20"/>
+      <c r="G55" s="3" t="str">
+        <f>IF(ISBLANK(A55),"",'2019'!G54-E55+F55)</f>
+        <v/>
+      </c>
+      <c r="H55" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="28"/>
+      <c r="C56" s="20"/>
+      <c r="G56" s="3" t="str">
+        <f>IF(ISBLANK(A56),"",'2019'!G55-E56+F56)</f>
+        <v/>
+      </c>
+      <c r="H56" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="28"/>
+      <c r="C57" s="20"/>
+      <c r="G57" s="3" t="str">
+        <f>IF(ISBLANK(A57),"",'2019'!G56-E57+F57)</f>
+        <v/>
+      </c>
+      <c r="H57" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="28"/>
+      <c r="C58" s="20"/>
+      <c r="G58" s="3" t="str">
+        <f>IF(ISBLANK(A58),"",'2019'!G57-E58+F58)</f>
+        <v/>
+      </c>
+      <c r="H58" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="28"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="8"/>
+      <c r="G59" s="3" t="str">
+        <f>IF(ISBLANK(A59),"",'2019'!G58-E59+F59)</f>
+        <v/>
+      </c>
+      <c r="H59" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
+      <c r="C60" s="20"/>
+      <c r="G60" s="3" t="str">
+        <f>IF(ISBLANK(A60),"",'2019'!G59-E60+F60)</f>
+        <v/>
+      </c>
+      <c r="H60" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="28"/>
+      <c r="C61" s="20"/>
+      <c r="G61" s="3" t="str">
+        <f>IF(ISBLANK(A61),"",'2019'!G60-E61+F61)</f>
+        <v/>
+      </c>
+      <c r="H61" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="22"/>
+      <c r="C62" s="20"/>
+      <c r="G62" s="3" t="str">
+        <f>IF(ISBLANK(A62),"",'2019'!G61-E62+F62)</f>
+        <v/>
+      </c>
+      <c r="H62" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="22"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="8"/>
+      <c r="G63" s="3" t="str">
+        <f>IF(ISBLANK(A63),"",'2019'!G62-E63+F63)</f>
+        <v/>
+      </c>
+      <c r="H63" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="22"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="8"/>
+      <c r="G64" s="3" t="str">
+        <f>IF(ISBLANK(A64),"",'2019'!G63-E64+F64)</f>
+        <v/>
+      </c>
+      <c r="H64" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="28"/>
+      <c r="C65" s="20"/>
+      <c r="G65" s="3" t="str">
+        <f>IF(ISBLANK(A65),"",'2019'!G64-E65+F65)</f>
+        <v/>
+      </c>
+      <c r="H65" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="28"/>
+      <c r="C66" s="20"/>
+      <c r="G66" s="3" t="str">
+        <f>IF(ISBLANK(A66),"",'2019'!G65-E66+F66)</f>
+        <v/>
+      </c>
+      <c r="H66" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="28"/>
+      <c r="C67" s="20"/>
+      <c r="G67" s="3" t="str">
+        <f>IF(ISBLANK(A67),"",'2019'!G66-E67+F67)</f>
+        <v/>
+      </c>
+      <c r="H67" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="28"/>
+      <c r="C68" s="20"/>
+      <c r="G68" s="3" t="str">
+        <f>IF(ISBLANK(A68),"",'2019'!G67-E68+F68)</f>
+        <v/>
+      </c>
+      <c r="H68" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="28"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="8"/>
+      <c r="G69" s="3" t="str">
+        <f>IF(ISBLANK(A69),"",'2019'!G68-E69+F69)</f>
+        <v/>
+      </c>
+      <c r="H69" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="28"/>
+      <c r="C70" s="20"/>
+      <c r="G70" s="3" t="str">
+        <f>IF(ISBLANK(A70),"",'2019'!G69-E70+F70)</f>
+        <v/>
+      </c>
+      <c r="H70" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="28"/>
+      <c r="C71" s="20"/>
+      <c r="G71" s="3" t="str">
+        <f>IF(ISBLANK(A71),"",'2019'!G70-E71+F71)</f>
+        <v/>
+      </c>
+      <c r="H71" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="28"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="8"/>
+      <c r="G72" s="3" t="str">
+        <f>IF(ISBLANK(A72),"",'2019'!G71-E72+F72)</f>
+        <v/>
+      </c>
+      <c r="H72" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="28"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="8"/>
+      <c r="G73" s="3" t="str">
+        <f>IF(ISBLANK(A73),"",'2019'!G72-E73+F73)</f>
+        <v/>
+      </c>
+      <c r="H73" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="28"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="8"/>
+      <c r="G74" s="3" t="str">
+        <f>IF(ISBLANK(A74),"",'2019'!G73-E74+F74)</f>
+        <v/>
+      </c>
+      <c r="H74" s="3" t="str">
+        <f t="shared" ref="H74:H137" si="2">IF(ISBLANK(A74),"",IF(D74="C",H73-E74+F74,H73+F74))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="28"/>
+      <c r="C75" s="20"/>
+      <c r="G75" s="3" t="str">
+        <f>IF(ISBLANK(A75),"",'2019'!G74-E75+F75)</f>
+        <v/>
+      </c>
+      <c r="H75" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="28"/>
+      <c r="C76" s="20"/>
+      <c r="G76" s="3" t="str">
+        <f>IF(ISBLANK(A76),"",'2019'!G75-E76+F76)</f>
+        <v/>
+      </c>
+      <c r="H76" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="28"/>
+      <c r="C77" s="20"/>
+      <c r="G77" s="3" t="str">
+        <f>IF(ISBLANK(A77),"",'2019'!G76-E77+F77)</f>
+        <v/>
+      </c>
+      <c r="H77" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="28"/>
+      <c r="C78" s="20"/>
+      <c r="G78" s="3" t="str">
+        <f>IF(ISBLANK(A78),"",'2019'!G77-E78+F78)</f>
+        <v/>
+      </c>
+      <c r="H78" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="28"/>
+      <c r="C79" s="20"/>
+      <c r="G79" s="3" t="str">
+        <f>IF(ISBLANK(A79),"",'2019'!G78-E79+F79)</f>
+        <v/>
+      </c>
+      <c r="H79" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="28"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="8"/>
+      <c r="G80" s="3" t="str">
+        <f>IF(ISBLANK(A80),"",'2019'!G79-E80+F80)</f>
+        <v/>
+      </c>
+      <c r="H80" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="28"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="8"/>
+      <c r="G81" s="3" t="str">
+        <f>IF(ISBLANK(A81),"",'2019'!G80-E81+F81)</f>
+        <v/>
+      </c>
+      <c r="H81" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="28"/>
+      <c r="C82" s="20"/>
+      <c r="G82" s="3" t="str">
+        <f>IF(ISBLANK(A82),"",'2019'!G81-E82+F82)</f>
+        <v/>
+      </c>
+      <c r="H82" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="28"/>
+      <c r="C83" s="20"/>
+      <c r="G83" s="3" t="str">
+        <f>IF(ISBLANK(A83),"",'2019'!G82-E83+F83)</f>
+        <v/>
+      </c>
+      <c r="H83" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="28"/>
+      <c r="C84" s="20"/>
+      <c r="G84" s="3" t="str">
+        <f>IF(ISBLANK(A84),"",'2019'!G83-E84+F84)</f>
+        <v/>
+      </c>
+      <c r="H84" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="28"/>
+      <c r="C85" s="20"/>
+      <c r="G85" s="3" t="str">
+        <f>IF(ISBLANK(A85),"",'2019'!G84-E85+F85)</f>
+        <v/>
+      </c>
+      <c r="H85" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="28"/>
+      <c r="C86" s="20"/>
+      <c r="G86" s="3" t="str">
+        <f>IF(ISBLANK(A86),"",'2019'!G85-E86+F86)</f>
+        <v/>
+      </c>
+      <c r="H86" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="28"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="8"/>
+      <c r="G87" s="3" t="str">
+        <f>IF(ISBLANK(A87),"",'2019'!G86-E87+F87)</f>
+        <v/>
+      </c>
+      <c r="H87" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="28"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="8"/>
+      <c r="G88" s="3" t="str">
+        <f>IF(ISBLANK(A88),"",'2019'!G87-E88+F88)</f>
+        <v/>
+      </c>
+      <c r="H88" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="28"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="8"/>
+      <c r="G89" s="3" t="str">
+        <f>IF(ISBLANK(A89),"",'2019'!G88-E89+F89)</f>
+        <v/>
+      </c>
+      <c r="H89" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="28"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="8"/>
+      <c r="G90" s="3" t="str">
+        <f>IF(ISBLANK(A90),"",'2019'!G89-E90+F90)</f>
+        <v/>
+      </c>
+      <c r="H90" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="28"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="8"/>
+      <c r="G91" s="3" t="str">
+        <f>IF(ISBLANK(A91),"",'2019'!G90-E91+F91)</f>
+        <v/>
+      </c>
+      <c r="H91" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="28"/>
+      <c r="C92" s="20"/>
+      <c r="G92" s="3" t="str">
+        <f>IF(ISBLANK(A92),"",'2019'!G91-E92+F92)</f>
+        <v/>
+      </c>
+      <c r="H92" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="28"/>
+      <c r="C93" s="20"/>
+      <c r="G93" s="3" t="str">
+        <f>IF(ISBLANK(A93),"",'2019'!G92-E93+F93)</f>
+        <v/>
+      </c>
+      <c r="H93" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="28"/>
+      <c r="C94" s="20"/>
+      <c r="G94" s="3" t="str">
+        <f>IF(ISBLANK(A94),"",'2019'!G93-E94+F94)</f>
+        <v/>
+      </c>
+      <c r="H94" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="28"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="8"/>
+      <c r="G95" s="3" t="str">
+        <f>IF(ISBLANK(A95),"",'2019'!G94-E95+F95)</f>
+        <v/>
+      </c>
+      <c r="H95" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="28"/>
+      <c r="C96" s="20"/>
+      <c r="G96" s="3" t="str">
+        <f>IF(ISBLANK(A96),"",'2019'!G95-E96+F96)</f>
+        <v/>
+      </c>
+      <c r="H96" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="28"/>
+      <c r="C97" s="20"/>
+      <c r="G97" s="3" t="str">
+        <f>IF(ISBLANK(A97),"",'2019'!G96-E97+F97)</f>
+        <v/>
+      </c>
+      <c r="H97" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="28"/>
+      <c r="C98" s="20"/>
+      <c r="G98" s="3" t="str">
+        <f>IF(ISBLANK(A98),"",'2019'!G97-E98+F98)</f>
+        <v/>
+      </c>
+      <c r="H98" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="28"/>
+      <c r="C99" s="20"/>
+      <c r="G99" s="3" t="str">
+        <f>IF(ISBLANK(A99),"",'2019'!G98-E99+F99)</f>
+        <v/>
+      </c>
+      <c r="H99" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="28"/>
+      <c r="C100" s="20"/>
+      <c r="G100" s="3" t="str">
+        <f>IF(ISBLANK(A100),"",'2019'!G99-E100+F100)</f>
+        <v/>
+      </c>
+      <c r="H100" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="28"/>
+      <c r="C101" s="20"/>
+      <c r="G101" s="3" t="str">
+        <f>IF(ISBLANK(A101),"",'2019'!G100-E101+F101)</f>
+        <v/>
+      </c>
+      <c r="H101" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="28"/>
+      <c r="C102" s="20"/>
+      <c r="G102" s="3" t="str">
+        <f>IF(ISBLANK(A102),"",'2019'!G101-E102+F102)</f>
+        <v/>
+      </c>
+      <c r="H102" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="28"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="8"/>
+      <c r="G103" s="3" t="str">
+        <f>IF(ISBLANK(A103),"",'2019'!G102-E103+F103)</f>
+        <v/>
+      </c>
+      <c r="H103" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="28"/>
+      <c r="C104" s="20"/>
+      <c r="G104" s="3" t="str">
+        <f>IF(ISBLANK(A104),"",'2019'!G103-E104+F104)</f>
+        <v/>
+      </c>
+      <c r="H104" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="28"/>
+      <c r="C105" s="20"/>
+      <c r="G105" s="3" t="str">
+        <f>IF(ISBLANK(A105),"",'2019'!G104-E105+F105)</f>
+        <v/>
+      </c>
+      <c r="H105" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="28"/>
+      <c r="C106" s="20"/>
+      <c r="G106" s="3" t="str">
+        <f>IF(ISBLANK(A106),"",'2019'!G105-E106+F106)</f>
+        <v/>
+      </c>
+      <c r="H106" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="28"/>
+      <c r="C107" s="20"/>
+      <c r="G107" s="3" t="str">
+        <f>IF(ISBLANK(A107),"",'2019'!G106-E107+F107)</f>
+        <v/>
+      </c>
+      <c r="H107" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="28"/>
+      <c r="C108" s="20"/>
+      <c r="G108" s="3" t="str">
+        <f>IF(ISBLANK(A108),"",'2019'!G107-E108+F108)</f>
+        <v/>
+      </c>
+      <c r="H108" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="28"/>
+      <c r="C109" s="20"/>
+      <c r="G109" s="3" t="str">
+        <f>IF(ISBLANK(A109),"",'2019'!G108-E109+F109)</f>
+        <v/>
+      </c>
+      <c r="H109" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="28"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="8"/>
+      <c r="G110" s="3" t="str">
+        <f>IF(ISBLANK(A110),"",'2019'!G109-E110+F110)</f>
+        <v/>
+      </c>
+      <c r="H110" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="28"/>
+      <c r="C111" s="20"/>
+      <c r="G111" s="3" t="str">
+        <f>IF(ISBLANK(A111),"",'2019'!G110-E111+F111)</f>
+        <v/>
+      </c>
+      <c r="H111" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="28"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="8"/>
+      <c r="G112" s="3" t="str">
+        <f>IF(ISBLANK(A112),"",'2019'!G111-E112+F112)</f>
+        <v/>
+      </c>
+      <c r="H112" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="28"/>
+      <c r="C113" s="20"/>
+      <c r="G113" s="3" t="str">
+        <f>IF(ISBLANK(A113),"",'2019'!G112-E113+F113)</f>
+        <v/>
+      </c>
+      <c r="H113" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="28"/>
+      <c r="C114" s="20"/>
+      <c r="G114" s="3" t="str">
+        <f>IF(ISBLANK(A114),"",'2019'!G113-E114+F114)</f>
+        <v/>
+      </c>
+      <c r="H114" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="28"/>
+      <c r="C115" s="20"/>
+      <c r="G115" s="3" t="str">
+        <f>IF(ISBLANK(A115),"",'2019'!G114-E115+F115)</f>
+        <v/>
+      </c>
+      <c r="H115" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="28"/>
+      <c r="C116" s="20"/>
+      <c r="G116" s="3" t="str">
+        <f>IF(ISBLANK(A116),"",'2019'!G115-E116+F116)</f>
+        <v/>
+      </c>
+      <c r="H116" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="28"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="8"/>
+      <c r="G117" s="3" t="str">
+        <f>IF(ISBLANK(A117),"",'2019'!G116-E117+F117)</f>
+        <v/>
+      </c>
+      <c r="H117" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="28"/>
+      <c r="C118" s="20"/>
+      <c r="G118" s="3" t="str">
+        <f>IF(ISBLANK(A118),"",'2019'!G117-E118+F118)</f>
+        <v/>
+      </c>
+      <c r="H118" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="28"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="8"/>
+      <c r="G119" s="3" t="str">
+        <f>IF(ISBLANK(A119),"",'2019'!G118-E119+F119)</f>
+        <v/>
+      </c>
+      <c r="H119" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="28"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="8"/>
+      <c r="G120" s="3" t="str">
+        <f>IF(ISBLANK(A120),"",'2019'!G119-E120+F120)</f>
+        <v/>
+      </c>
+      <c r="H120" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="28"/>
+      <c r="C121" s="20"/>
+      <c r="G121" s="3" t="str">
+        <f>IF(ISBLANK(A121),"",'2019'!G120-E121+F121)</f>
+        <v/>
+      </c>
+      <c r="H121" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="28"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="8"/>
+      <c r="G122" s="3" t="str">
+        <f>IF(ISBLANK(A122),"",'2019'!G121-E122+F122)</f>
+        <v/>
+      </c>
+      <c r="H122" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="28"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="8"/>
+      <c r="G123" s="3" t="str">
+        <f>IF(ISBLANK(A123),"",'2019'!G122-E123+F123)</f>
+        <v/>
+      </c>
+      <c r="H123" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="28"/>
+      <c r="C124" s="20"/>
+      <c r="G124" s="3" t="str">
+        <f>IF(ISBLANK(A124),"",'2019'!G123-E124+F124)</f>
+        <v/>
+      </c>
+      <c r="H124" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="28"/>
+      <c r="C125" s="20"/>
+      <c r="G125" s="3" t="str">
+        <f>IF(ISBLANK(A125),"",'2019'!G124-E125+F125)</f>
+        <v/>
+      </c>
+      <c r="H125" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="28"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="8"/>
+      <c r="G126" s="3" t="str">
+        <f>IF(ISBLANK(A126),"",'2019'!G125-E126+F126)</f>
+        <v/>
+      </c>
+      <c r="H126" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="28"/>
+      <c r="C127" s="20"/>
+      <c r="G127" s="3" t="str">
+        <f>IF(ISBLANK(A127),"",'2019'!G126-E127+F127)</f>
+        <v/>
+      </c>
+      <c r="H127" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="28"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="8"/>
+      <c r="G128" s="3" t="str">
+        <f>IF(ISBLANK(A128),"",'2019'!G127-E128+F128)</f>
+        <v/>
+      </c>
+      <c r="H128" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="28"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="3" t="str">
+        <f>IF(ISBLANK(A129),"",'2019'!G128-E129+F129)</f>
+        <v/>
+      </c>
+      <c r="H129" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="28"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="3" t="str">
+        <f>IF(ISBLANK(A130),"",'2019'!G129-E130+F130)</f>
+        <v/>
+      </c>
+      <c r="H130" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="28"/>
+      <c r="C131" s="20"/>
+      <c r="G131" s="3" t="str">
+        <f>IF(ISBLANK(A131),"",'2019'!G130-E131+F131)</f>
+        <v/>
+      </c>
+      <c r="H131" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="28"/>
+      <c r="C132" s="20"/>
+      <c r="G132" s="3" t="str">
+        <f>IF(ISBLANK(A132),"",'2019'!G131-E132+F132)</f>
+        <v/>
+      </c>
+      <c r="H132" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="28"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="8"/>
+      <c r="G133" s="3" t="str">
+        <f>IF(ISBLANK(A133),"",'2019'!G132-E133+F133)</f>
+        <v/>
+      </c>
+      <c r="H133" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="28"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="8"/>
+      <c r="G134" s="3" t="str">
+        <f>IF(ISBLANK(A134),"",'2019'!G133-E134+F134)</f>
+        <v/>
+      </c>
+      <c r="H134" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="28"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="8"/>
+      <c r="G135" s="3" t="str">
+        <f>IF(ISBLANK(A135),"",'2019'!G134-E135+F135)</f>
+        <v/>
+      </c>
+      <c r="H135" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="28"/>
+      <c r="C136" s="20"/>
+      <c r="G136" s="3" t="str">
+        <f>IF(ISBLANK(A136),"",'2019'!G135-E136+F136)</f>
+        <v/>
+      </c>
+      <c r="H136" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="28"/>
+      <c r="C137" s="20"/>
+      <c r="G137" s="3" t="str">
+        <f>IF(ISBLANK(A137),"",'2019'!G136-E137+F137)</f>
+        <v/>
+      </c>
+      <c r="H137" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="28"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="8"/>
+      <c r="G138" s="3" t="str">
+        <f>IF(ISBLANK(A138),"",'2019'!G137-E138+F138)</f>
+        <v/>
+      </c>
+      <c r="H138" s="3" t="str">
+        <f t="shared" ref="H138:H201" si="3">IF(ISBLANK(A138),"",IF(D138="C",H137-E138+F138,H137+F138))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="28"/>
+      <c r="C139" s="20"/>
+      <c r="G139" s="3" t="str">
+        <f>IF(ISBLANK(A139),"",'2019'!G138-E139+F139)</f>
+        <v/>
+      </c>
+      <c r="H139" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="28"/>
+      <c r="C140" s="20"/>
+      <c r="G140" s="3" t="str">
+        <f>IF(ISBLANK(A140),"",'2019'!G139-E140+F140)</f>
+        <v/>
+      </c>
+      <c r="H140" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="28"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="8"/>
+      <c r="G141" s="3" t="str">
+        <f>IF(ISBLANK(A141),"",'2019'!G140-E141+F141)</f>
+        <v/>
+      </c>
+      <c r="H141" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="28"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="8"/>
+      <c r="G142" s="3" t="str">
+        <f>IF(ISBLANK(A142),"",'2019'!G141-E142+F142)</f>
+        <v/>
+      </c>
+      <c r="H142" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="28"/>
+      <c r="C143" s="20"/>
+      <c r="G143" s="3" t="str">
+        <f>IF(ISBLANK(A143),"",'2019'!G142-E143+F143)</f>
+        <v/>
+      </c>
+      <c r="H143" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="28"/>
+      <c r="C144" s="20"/>
+      <c r="G144" s="3" t="str">
+        <f>IF(ISBLANK(A144),"",'2019'!G143-E144+F144)</f>
+        <v/>
+      </c>
+      <c r="H144" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="28"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="8"/>
+      <c r="G145" s="3" t="str">
+        <f>IF(ISBLANK(A145),"",'2019'!G144-E145+F145)</f>
+        <v/>
+      </c>
+      <c r="H145" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="28"/>
+      <c r="C146" s="20"/>
+      <c r="G146" s="3" t="str">
+        <f>IF(ISBLANK(A146),"",'2019'!G145-E146+F146)</f>
+        <v/>
+      </c>
+      <c r="H146" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="28"/>
+      <c r="C147" s="20"/>
+      <c r="G147" s="3" t="str">
+        <f>IF(ISBLANK(A147),"",'2019'!G146-E147+F147)</f>
+        <v/>
+      </c>
+      <c r="H147" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="28"/>
+      <c r="C148" s="20"/>
+      <c r="G148" s="3" t="str">
+        <f>IF(ISBLANK(A148),"",'2019'!G147-E148+F148)</f>
+        <v/>
+      </c>
+      <c r="H148" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="28"/>
+      <c r="C149" s="20"/>
+      <c r="G149" s="3" t="str">
+        <f>IF(ISBLANK(A149),"",'2019'!G148-E149+F149)</f>
+        <v/>
+      </c>
+      <c r="H149" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="28"/>
+      <c r="C150" s="20"/>
+      <c r="G150" s="3" t="str">
+        <f>IF(ISBLANK(A150),"",'2019'!G149-E150+F150)</f>
+        <v/>
+      </c>
+      <c r="H150" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="28"/>
+      <c r="C151" s="20"/>
+      <c r="G151" s="3" t="str">
+        <f>IF(ISBLANK(A151),"",'2019'!G150-E151+F151)</f>
+        <v/>
+      </c>
+      <c r="H151" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="28"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="8"/>
+      <c r="G152" s="3" t="str">
+        <f>IF(ISBLANK(A152),"",'2019'!G151-E152+F152)</f>
+        <v/>
+      </c>
+      <c r="H152" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="28"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="8"/>
+      <c r="G153" s="3" t="str">
+        <f>IF(ISBLANK(A153),"",'2019'!G152-E153+F153)</f>
+        <v/>
+      </c>
+      <c r="H153" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="28"/>
+      <c r="C154" s="20"/>
+      <c r="G154" s="3" t="str">
+        <f>IF(ISBLANK(A154),"",'2019'!G153-E154+F154)</f>
+        <v/>
+      </c>
+      <c r="H154" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="28"/>
+      <c r="C155" s="20"/>
+      <c r="G155" s="3" t="str">
+        <f>IF(ISBLANK(A155),"",'2019'!G154-E155+F155)</f>
+        <v/>
+      </c>
+      <c r="H155" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G156" s="3" t="str">
+        <f>IF(ISBLANK(A156),"",'2019'!G155-E156+F156)</f>
+        <v/>
+      </c>
+      <c r="H156" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G157" s="3" t="str">
+        <f>IF(ISBLANK(A157),"",'2019'!G156-E157+F157)</f>
+        <v/>
+      </c>
+      <c r="H157" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G158" s="3" t="str">
+        <f>IF(ISBLANK(A158),"",'2019'!G157-E158+F158)</f>
+        <v/>
+      </c>
+      <c r="H158" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G159" s="3" t="str">
+        <f>IF(ISBLANK(A159),"",'2019'!G158-E159+F159)</f>
+        <v/>
+      </c>
+      <c r="H159" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G160" s="3" t="str">
+        <f>IF(ISBLANK(A160),"",'2019'!G159-E160+F160)</f>
+        <v/>
+      </c>
+      <c r="H160" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G161" s="3" t="str">
+        <f>IF(ISBLANK(A161),"",'2019'!G160-E161+F161)</f>
+        <v/>
+      </c>
+      <c r="H161" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G162" s="3" t="str">
+        <f>IF(ISBLANK(A162),"",'2019'!G161-E162+F162)</f>
+        <v/>
+      </c>
+      <c r="H162" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G163" s="3" t="str">
+        <f>IF(ISBLANK(A163),"",'2019'!G162-E163+F163)</f>
+        <v/>
+      </c>
+      <c r="H163" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G164" s="3" t="str">
+        <f>IF(ISBLANK(A164),"",'2019'!G163-E164+F164)</f>
+        <v/>
+      </c>
+      <c r="H164" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G165" s="3" t="str">
+        <f>IF(ISBLANK(A165),"",'2019'!G164-E165+F165)</f>
+        <v/>
+      </c>
+      <c r="H165" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G166" s="3" t="str">
+        <f>IF(ISBLANK(A166),"",'2019'!G165-E166+F166)</f>
+        <v/>
+      </c>
+      <c r="H166" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G167" s="3" t="str">
+        <f>IF(ISBLANK(A167),"",'2019'!G166-E167+F167)</f>
+        <v/>
+      </c>
+      <c r="H167" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G168" s="3" t="str">
+        <f>IF(ISBLANK(A168),"",'2019'!G167-E168+F168)</f>
+        <v/>
+      </c>
+      <c r="H168" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G169" s="3" t="str">
+        <f>IF(ISBLANK(A169),"",'2019'!G168-E169+F169)</f>
+        <v/>
+      </c>
+      <c r="H169" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G170" s="3" t="str">
+        <f>IF(ISBLANK(A170),"",'2019'!G169-E170+F170)</f>
+        <v/>
+      </c>
+      <c r="H170" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G171" s="3" t="str">
+        <f>IF(ISBLANK(A171),"",'2019'!G170-E171+F171)</f>
+        <v/>
+      </c>
+      <c r="H171" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G172" s="3" t="str">
+        <f>IF(ISBLANK(A172),"",'2019'!G171-E172+F172)</f>
+        <v/>
+      </c>
+      <c r="H172" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G173" s="3" t="str">
+        <f>IF(ISBLANK(A173),"",'2019'!G172-E173+F173)</f>
+        <v/>
+      </c>
+      <c r="H173" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G174" s="3" t="str">
+        <f>IF(ISBLANK(A174),"",'2019'!G173-E174+F174)</f>
+        <v/>
+      </c>
+      <c r="H174" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G175" s="3" t="str">
+        <f>IF(ISBLANK(A175),"",'2019'!G174-E175+F175)</f>
+        <v/>
+      </c>
+      <c r="H175" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G176" s="3" t="str">
+        <f>IF(ISBLANK(A176),"",'2019'!G175-E176+F176)</f>
+        <v/>
+      </c>
+      <c r="H176" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G177" s="3" t="str">
+        <f>IF(ISBLANK(A177),"",'2019'!G176-E177+F177)</f>
+        <v/>
+      </c>
+      <c r="H177" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G178" s="3" t="str">
+        <f>IF(ISBLANK(A178),"",'2019'!G177-E178+F178)</f>
+        <v/>
+      </c>
+      <c r="H178" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G179" s="3" t="str">
+        <f>IF(ISBLANK(A179),"",'2019'!G178-E179+F179)</f>
+        <v/>
+      </c>
+      <c r="H179" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G180" s="3" t="str">
+        <f>IF(ISBLANK(A180),"",'2019'!G179-E180+F180)</f>
+        <v/>
+      </c>
+      <c r="H180" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G181" s="3" t="str">
+        <f>IF(ISBLANK(A181),"",'2019'!G180-E181+F181)</f>
+        <v/>
+      </c>
+      <c r="H181" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G182" s="3" t="str">
+        <f>IF(ISBLANK(A182),"",'2019'!G181-E182+F182)</f>
+        <v/>
+      </c>
+      <c r="H182" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G183" s="3" t="str">
+        <f>IF(ISBLANK(A183),"",'2019'!G182-E183+F183)</f>
+        <v/>
+      </c>
+      <c r="H183" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G184" s="3" t="str">
+        <f>IF(ISBLANK(A184),"",'2019'!G183-E184+F184)</f>
+        <v/>
+      </c>
+      <c r="H184" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G185" s="3" t="str">
+        <f>IF(ISBLANK(A185),"",'2019'!G184-E185+F185)</f>
+        <v/>
+      </c>
+      <c r="H185" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G186" s="3" t="str">
+        <f>IF(ISBLANK(A186),"",'2019'!G185-E186+F186)</f>
+        <v/>
+      </c>
+      <c r="H186" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G187" s="3" t="str">
+        <f>IF(ISBLANK(A187),"",'2019'!G186-E187+F187)</f>
+        <v/>
+      </c>
+      <c r="H187" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G188" s="3" t="str">
+        <f>IF(ISBLANK(A188),"",'2019'!G187-E188+F188)</f>
+        <v/>
+      </c>
+      <c r="H188" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G189" s="3" t="str">
+        <f>IF(ISBLANK(A189),"",'2019'!G188-E189+F189)</f>
+        <v/>
+      </c>
+      <c r="H189" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G190" s="3" t="str">
+        <f>IF(ISBLANK(A190),"",'2019'!G189-E190+F190)</f>
+        <v/>
+      </c>
+      <c r="H190" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G191" s="3" t="str">
+        <f>IF(ISBLANK(A191),"",'2019'!G190-E191+F191)</f>
+        <v/>
+      </c>
+      <c r="H191" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G192" s="3" t="str">
+        <f>IF(ISBLANK(A192),"",'2019'!G191-E192+F192)</f>
+        <v/>
+      </c>
+      <c r="H192" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G193" s="3" t="str">
+        <f>IF(ISBLANK(A193),"",'2019'!G192-E193+F193)</f>
+        <v/>
+      </c>
+      <c r="H193" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G194" s="3" t="str">
+        <f>IF(ISBLANK(A194),"",'2019'!G193-E194+F194)</f>
+        <v/>
+      </c>
+      <c r="H194" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G195" s="3" t="str">
+        <f>IF(ISBLANK(A195),"",'2019'!G194-E195+F195)</f>
+        <v/>
+      </c>
+      <c r="H195" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G196" s="3" t="str">
+        <f>IF(ISBLANK(A196),"",'2019'!G195-E196+F196)</f>
+        <v/>
+      </c>
+      <c r="H196" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G197" s="3" t="str">
+        <f>IF(ISBLANK(A197),"",'2019'!G196-E197+F197)</f>
+        <v/>
+      </c>
+      <c r="H197" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G198" s="3" t="str">
+        <f>IF(ISBLANK(A198),"",'2019'!G197-E198+F198)</f>
+        <v/>
+      </c>
+      <c r="H198" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G199" s="3" t="str">
+        <f>IF(ISBLANK(A199),"",'2019'!G198-E199+F199)</f>
+        <v/>
+      </c>
+      <c r="H199" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G200" s="3" t="str">
+        <f>IF(ISBLANK(A200),"",'2019'!G199-E200+F200)</f>
+        <v/>
+      </c>
+      <c r="H200" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G201" s="3" t="str">
+        <f>IF(ISBLANK(A201),"",'2019'!G200-E201+F201)</f>
+        <v/>
+      </c>
+      <c r="H201" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G202" s="3" t="str">
+        <f>IF(ISBLANK(A202),"",'2019'!G201-E202+F202)</f>
+        <v/>
+      </c>
+      <c r="H202" s="3" t="str">
+        <f t="shared" ref="H202:H259" si="4">IF(ISBLANK(A202),"",IF(D202="C",H201-E202+F202,H201+F202))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G203" s="3" t="str">
+        <f>IF(ISBLANK(A203),"",'2019'!G202-E203+F203)</f>
+        <v/>
+      </c>
+      <c r="H203" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G204" s="3" t="str">
+        <f>IF(ISBLANK(A204),"",'2019'!G203-E204+F204)</f>
+        <v/>
+      </c>
+      <c r="H204" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G205" s="3" t="str">
+        <f>IF(ISBLANK(A205),"",'2019'!G204-E205+F205)</f>
+        <v/>
+      </c>
+      <c r="H205" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G206" s="3" t="str">
+        <f>IF(ISBLANK(A206),"",'2019'!G205-E206+F206)</f>
+        <v/>
+      </c>
+      <c r="H206" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G207" s="3" t="str">
+        <f>IF(ISBLANK(A207),"",'2019'!G206-E207+F207)</f>
+        <v/>
+      </c>
+      <c r="H207" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G208" s="3" t="str">
+        <f>IF(ISBLANK(A208),"",'2019'!G207-E208+F208)</f>
+        <v/>
+      </c>
+      <c r="H208" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G209" s="3" t="str">
+        <f>IF(ISBLANK(A209),"",'2019'!G208-E209+F209)</f>
+        <v/>
+      </c>
+      <c r="H209" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G210" s="3" t="str">
+        <f>IF(ISBLANK(A210),"",'2019'!G209-E210+F210)</f>
+        <v/>
+      </c>
+      <c r="H210" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G211" s="3" t="str">
+        <f>IF(ISBLANK(A211),"",'2019'!G210-E211+F211)</f>
+        <v/>
+      </c>
+      <c r="H211" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G212" s="3" t="str">
+        <f>IF(ISBLANK(A212),"",'2019'!G211-E212+F212)</f>
+        <v/>
+      </c>
+      <c r="H212" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G213" s="3" t="str">
+        <f>IF(ISBLANK(A213),"",'2019'!G212-E213+F213)</f>
+        <v/>
+      </c>
+      <c r="H213" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G214" s="3" t="str">
+        <f>IF(ISBLANK(A214),"",'2019'!G213-E214+F214)</f>
+        <v/>
+      </c>
+      <c r="H214" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G215" s="3" t="str">
+        <f>IF(ISBLANK(A215),"",'2019'!G214-E215+F215)</f>
+        <v/>
+      </c>
+      <c r="H215" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G216" s="3" t="str">
+        <f>IF(ISBLANK(A216),"",'2019'!G215-E216+F216)</f>
+        <v/>
+      </c>
+      <c r="H216" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G217" s="3" t="str">
+        <f>IF(ISBLANK(A217),"",'2019'!G216-E217+F217)</f>
+        <v/>
+      </c>
+      <c r="H217" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G218" s="3" t="str">
+        <f>IF(ISBLANK(A218),"",'2019'!G217-E218+F218)</f>
+        <v/>
+      </c>
+      <c r="H218" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G219" s="3" t="str">
+        <f>IF(ISBLANK(A219),"",'2019'!G218-E219+F219)</f>
+        <v/>
+      </c>
+      <c r="H219" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G220" s="3" t="str">
+        <f>IF(ISBLANK(A220),"",'2019'!G219-E220+F220)</f>
+        <v/>
+      </c>
+      <c r="H220" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G221" s="3" t="str">
+        <f>IF(ISBLANK(A221),"",'2019'!G220-E221+F221)</f>
+        <v/>
+      </c>
+      <c r="H221" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G222" s="3" t="str">
+        <f>IF(ISBLANK(A222),"",'2019'!G221-E222+F222)</f>
+        <v/>
+      </c>
+      <c r="H222" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G223" s="3" t="str">
+        <f>IF(ISBLANK(A223),"",'2019'!G222-E223+F223)</f>
+        <v/>
+      </c>
+      <c r="H223" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G224" s="3" t="str">
+        <f>IF(ISBLANK(A224),"",'2019'!G223-E224+F224)</f>
+        <v/>
+      </c>
+      <c r="H224" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G225" s="3" t="str">
+        <f>IF(ISBLANK(A225),"",'2019'!G224-E225+F225)</f>
+        <v/>
+      </c>
+      <c r="H225" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G226" s="3" t="str">
+        <f>IF(ISBLANK(A226),"",'2019'!G225-E226+F226)</f>
+        <v/>
+      </c>
+      <c r="H226" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G227" s="3" t="str">
+        <f>IF(ISBLANK(A227),"",'2019'!G226-E227+F227)</f>
+        <v/>
+      </c>
+      <c r="H227" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G228" s="3" t="str">
+        <f>IF(ISBLANK(A228),"",'2019'!G227-E228+F228)</f>
+        <v/>
+      </c>
+      <c r="H228" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G229" s="3" t="str">
+        <f>IF(ISBLANK(A229),"",'2019'!G228-E229+F229)</f>
+        <v/>
+      </c>
+      <c r="H229" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G230" s="3" t="str">
+        <f>IF(ISBLANK(A230),"",'2019'!G229-E230+F230)</f>
+        <v/>
+      </c>
+      <c r="H230" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G231" s="3" t="str">
+        <f>IF(ISBLANK(A231),"",'2019'!G230-E231+F231)</f>
+        <v/>
+      </c>
+      <c r="H231" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G232" s="3" t="str">
+        <f>IF(ISBLANK(A232),"",'2019'!G231-E232+F232)</f>
+        <v/>
+      </c>
+      <c r="H232" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G233" s="3" t="str">
+        <f>IF(ISBLANK(A233),"",'2019'!G232-E233+F233)</f>
+        <v/>
+      </c>
+      <c r="H233" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G234" s="3" t="str">
+        <f>IF(ISBLANK(A234),"",'2019'!G233-E234+F234)</f>
+        <v/>
+      </c>
+      <c r="H234" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G235" s="3" t="str">
+        <f>IF(ISBLANK(A235),"",'2019'!G234-E235+F235)</f>
+        <v/>
+      </c>
+      <c r="H235" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G236" s="3" t="str">
+        <f>IF(ISBLANK(A236),"",'2019'!G235-E236+F236)</f>
+        <v/>
+      </c>
+      <c r="H236" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G237" s="3" t="str">
+        <f>IF(ISBLANK(A237),"",'2019'!G236-E237+F237)</f>
+        <v/>
+      </c>
+      <c r="H237" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G238" s="3" t="str">
+        <f>IF(ISBLANK(A238),"",'2019'!G237-E238+F238)</f>
+        <v/>
+      </c>
+      <c r="H238" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G239" s="3" t="str">
+        <f>IF(ISBLANK(A239),"",'2019'!G238-E239+F239)</f>
+        <v/>
+      </c>
+      <c r="H239" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G240" s="3" t="str">
+        <f>IF(ISBLANK(A240),"",'2019'!G239-E240+F240)</f>
+        <v/>
+      </c>
+      <c r="H240" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G241" s="3" t="str">
+        <f>IF(ISBLANK(A241),"",'2019'!G240-E241+F241)</f>
+        <v/>
+      </c>
+      <c r="H241" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G242" s="3" t="str">
+        <f>IF(ISBLANK(A242),"",'2019'!G241-E242+F242)</f>
+        <v/>
+      </c>
+      <c r="H242" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G243" s="3" t="str">
+        <f>IF(ISBLANK(A243),"",'2019'!G242-E243+F243)</f>
+        <v/>
+      </c>
+      <c r="H243" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G244" s="3" t="str">
+        <f>IF(ISBLANK(A244),"",'2019'!G243-E244+F244)</f>
+        <v/>
+      </c>
+      <c r="H244" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G245" s="3" t="str">
+        <f>IF(ISBLANK(A245),"",'2019'!G244-E245+F245)</f>
+        <v/>
+      </c>
+      <c r="H245" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G246" s="3" t="str">
+        <f>IF(ISBLANK(A246),"",'2019'!G245-E246+F246)</f>
+        <v/>
+      </c>
+      <c r="H246" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G247" s="3" t="str">
+        <f>IF(ISBLANK(A247),"",'2019'!G246-E247+F247)</f>
+        <v/>
+      </c>
+      <c r="H247" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G248" s="3" t="str">
+        <f>IF(ISBLANK(A248),"",'2019'!G247-E248+F248)</f>
+        <v/>
+      </c>
+      <c r="H248" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G249" s="3" t="str">
+        <f>IF(ISBLANK(A249),"",'2019'!G248-E249+F249)</f>
+        <v/>
+      </c>
+      <c r="H249" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G250" s="3" t="str">
+        <f>IF(ISBLANK(A250),"",'2019'!G249-E250+F250)</f>
+        <v/>
+      </c>
+      <c r="H250" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G251" s="3" t="str">
+        <f>IF(ISBLANK(A251),"",'2019'!G250-E251+F251)</f>
+        <v/>
+      </c>
+      <c r="H251" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G252" s="3" t="str">
+        <f>IF(ISBLANK(A252),"",'2019'!G251-E252+F252)</f>
+        <v/>
+      </c>
+      <c r="H252" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G253" s="3" t="str">
+        <f>IF(ISBLANK(A253),"",'2019'!G252-E253+F253)</f>
+        <v/>
+      </c>
+      <c r="H253" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G254" s="3" t="str">
+        <f>IF(ISBLANK(A254),"",'2019'!G253-E254+F254)</f>
+        <v/>
+      </c>
+      <c r="H254" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G255" s="3" t="str">
+        <f>IF(ISBLANK(A255),"",'2019'!G254-E255+F255)</f>
+        <v/>
+      </c>
+      <c r="H255" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G256" s="3" t="str">
+        <f>IF(ISBLANK(A256),"",'2019'!G255-E256+F256)</f>
+        <v/>
+      </c>
+      <c r="H256" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G257" s="3" t="str">
+        <f>IF(ISBLANK(A257),"",'2019'!G256-E257+F257)</f>
+        <v/>
+      </c>
+      <c r="H257" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G258" s="3" t="str">
+        <f>IF(ISBLANK(A258),"",'2019'!G257-E258+F258)</f>
+        <v/>
+      </c>
+      <c r="H258" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G259" s="3" t="str">
+        <f>IF(ISBLANK(A259),"",'2019'!G258-E259+F259)</f>
+        <v/>
+      </c>
+      <c r="H259" s="3" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -17592,7 +23143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J129"/>
   <sheetViews>
@@ -19303,7 +24854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K163"/>
   <sheetViews>

--- a/MIACADA Ledger.xlsx
+++ b/MIACADA Ledger.xlsx
@@ -1418,63 +1418,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="63">
     <dxf>
       <fill>
         <patternFill>
@@ -1870,6 +1814,48 @@
     <dxf>
       <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2085,11 +2071,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="296934144"/>
-        <c:axId val="301018416"/>
+        <c:axId val="301778896"/>
+        <c:axId val="301780576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="296934144"/>
+        <c:axId val="301778896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2132,7 +2118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301018416"/>
+        <c:crossAx val="301780576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2140,7 +2126,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301018416"/>
+        <c:axId val="301780576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,7 +2177,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296934144"/>
+        <c:crossAx val="301778896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2454,11 +2440,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="301021776"/>
-        <c:axId val="301022336"/>
+        <c:axId val="405809536"/>
+        <c:axId val="303049616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="301021776"/>
+        <c:axId val="405809536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2501,7 +2487,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301022336"/>
+        <c:crossAx val="303049616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2509,7 +2495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301022336"/>
+        <c:axId val="303049616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,7 +2546,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301021776"/>
+        <c:crossAx val="405809536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3500,11 +3486,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="399710000"/>
-        <c:axId val="399710560"/>
+        <c:axId val="417223440"/>
+        <c:axId val="417224000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="399710000"/>
+        <c:axId val="417223440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3547,7 +3533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399710560"/>
+        <c:crossAx val="417224000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3555,7 +3541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399710560"/>
+        <c:axId val="417224000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3606,7 +3592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399710000"/>
+        <c:crossAx val="417223440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6819,7 +6805,7 @@
     <dataField name="Sum of Cost" fld="0" baseField="0" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="64">
+    <format dxfId="56">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9974,10 +9960,10 @@
   </sheetData>
   <autoFilter ref="E1:E71"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="expression" dxfId="61" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="1" stopIfTrue="1">
       <formula>D1="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="2">
+    <cfRule type="expression" dxfId="61" priority="2">
       <formula>NOT(ISBLANK(E1))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11289,18 +11275,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E32">
-    <cfRule type="expression" dxfId="59" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="3" stopIfTrue="1">
       <formula>D2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="4">
+    <cfRule type="expression" dxfId="59" priority="4">
       <formula>NOT(ISBLANK(E2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E77">
-    <cfRule type="expression" dxfId="57" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="1" stopIfTrue="1">
       <formula>D40="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="57" priority="2">
       <formula>NOT(ISBLANK(E40))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11413,7 +11399,7 @@
         <v>8321.41</v>
       </c>
       <c r="H3" s="3">
-        <f>IF(D3="C",H2-E3+F3,H2+F3)</f>
+        <f t="shared" ref="H3:H10" si="0">IF(D3="C",H2-E3+F3,H2+F3)</f>
         <v>8321.41</v>
       </c>
       <c r="J3" s="3">
@@ -11437,7 +11423,7 @@
         <v>8335.67</v>
       </c>
       <c r="H4" s="3">
-        <f>IF(D4="C",H3-E4+F4,H3+F4)</f>
+        <f t="shared" si="0"/>
         <v>8335.67</v>
       </c>
       <c r="J4" s="3"/>
@@ -11459,7 +11445,7 @@
         <v>8364.19</v>
       </c>
       <c r="H5" s="3">
-        <f>IF(D5="C",H4-E5+F5,H4+F5)</f>
+        <f t="shared" si="0"/>
         <v>8364.19</v>
       </c>
       <c r="J5" s="3"/>
@@ -11481,7 +11467,7 @@
         <v>8406.9700000000012</v>
       </c>
       <c r="H6" s="3">
-        <f>IF(D6="C",H5-E6+F6,H5+F6)</f>
+        <f t="shared" si="0"/>
         <v>8406.9700000000012</v>
       </c>
       <c r="J6" s="24"/>
@@ -11503,7 +11489,7 @@
         <v>8449.7500000000018</v>
       </c>
       <c r="H7" s="3">
-        <f>IF(D7="C",H6-E7+F7,H6+F7)</f>
+        <f t="shared" si="0"/>
         <v>8449.7500000000018</v>
       </c>
       <c r="J7" s="3"/>
@@ -11524,7 +11510,7 @@
         <v>8478.2700000000023</v>
       </c>
       <c r="H8" s="3">
-        <f>IF(D8="C",H7-E8+F8,H7+F8)</f>
+        <f t="shared" si="0"/>
         <v>8478.2700000000023</v>
       </c>
       <c r="M8" s="3"/>
@@ -11545,7 +11531,7 @@
         <v>8492.5300000000025</v>
       </c>
       <c r="H9" s="3">
-        <f>IF(D9="C",H8-E9+F9,H8+F9)</f>
+        <f t="shared" si="0"/>
         <v>8492.5300000000025</v>
       </c>
     </row>
@@ -11571,7 +11557,7 @@
         <v>8098.4700000000021</v>
       </c>
       <c r="H10" s="3">
-        <f>IF(D10="C",H9-E10+F10,H9+F10)</f>
+        <f t="shared" si="0"/>
         <v>8098.4700000000021</v>
       </c>
       <c r="M10" s="3"/>
@@ -11591,7 +11577,7 @@
         <v>8112.7300000000023</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" ref="H11:H69" si="0">IF(D11="C",H10-E11+F11,H10+F11)</f>
+        <f t="shared" ref="H11:H69" si="1">IF(D11="C",H10-E11+F11,H10+F11)</f>
         <v>8112.7300000000023</v>
       </c>
       <c r="J11" s="3"/>
@@ -11612,7 +11598,7 @@
         <v>8141.2500000000027</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8141.2500000000027</v>
       </c>
     </row>
@@ -11637,7 +11623,7 @@
         <v>8047.8900000000031</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8047.8900000000031</v>
       </c>
       <c r="J13" s="23"/>
@@ -11665,7 +11651,7 @@
         <v>7807.7600000000029</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7807.7600000000029</v>
       </c>
       <c r="L14" s="3"/>
@@ -11685,7 +11671,7 @@
         <v>7822.0200000000032</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7822.0200000000032</v>
       </c>
     </row>
@@ -11704,7 +11690,7 @@
         <v>7836.2800000000034</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7836.2800000000034</v>
       </c>
     </row>
@@ -11723,7 +11709,7 @@
         <v>7851.2800000000034</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7851.2800000000034</v>
       </c>
     </row>
@@ -11742,7 +11728,7 @@
         <v>7865.5400000000036</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7865.5400000000036</v>
       </c>
     </row>
@@ -11761,7 +11747,7 @@
         <v>7879.8000000000038</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7879.8000000000038</v>
       </c>
     </row>
@@ -11786,7 +11772,7 @@
         <v>7324.390000000004</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7324.390000000004</v>
       </c>
     </row>
@@ -11805,7 +11791,7 @@
         <v>7338.6500000000042</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7338.6500000000042</v>
       </c>
     </row>
@@ -11824,7 +11810,7 @@
         <v>7352.9100000000044</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7352.9100000000044</v>
       </c>
     </row>
@@ -11843,7 +11829,7 @@
         <v>7415.7200000000048</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7415.7200000000048</v>
       </c>
       <c r="K23" s="3"/>
@@ -11863,7 +11849,7 @@
         <v>7589.5900000000047</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7589.5900000000047</v>
       </c>
     </row>
@@ -11882,7 +11868,7 @@
         <v>7652.4000000000051</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7652.4000000000051</v>
       </c>
     </row>
@@ -11907,7 +11893,7 @@
         <v>7512.4000000000051</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7512.4000000000051</v>
       </c>
     </row>
@@ -11932,7 +11918,7 @@
         <v>7412.4000000000051</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7412.4000000000051</v>
       </c>
     </row>
@@ -11957,7 +11943,7 @@
         <v>7272.4000000000051</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7272.4000000000051</v>
       </c>
     </row>
@@ -11976,7 +11962,7 @@
         <v>7335.2100000000055</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7335.2100000000055</v>
       </c>
     </row>
@@ -11995,7 +11981,7 @@
         <v>7769.1100000000051</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7769.1100000000051</v>
       </c>
     </row>
@@ -12014,7 +12000,7 @@
         <v>7783.3700000000053</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7783.3700000000053</v>
       </c>
     </row>
@@ -12033,7 +12019,7 @@
         <v>7966.0300000000052</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7966.0300000000052</v>
       </c>
     </row>
@@ -12052,7 +12038,7 @@
         <v>8057.3600000000051</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8057.3600000000051</v>
       </c>
     </row>
@@ -12071,7 +12057,7 @@
         <v>8085.8800000000056</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8085.8800000000056</v>
       </c>
     </row>
@@ -12093,7 +12079,7 @@
         <v>7945.8800000000056</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7945.8800000000056</v>
       </c>
     </row>
@@ -12112,7 +12098,7 @@
         <v>8071.2000000000053</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8071.2000000000053</v>
       </c>
     </row>
@@ -12131,7 +12117,7 @@
         <v>8182.2600000000057</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8182.2600000000057</v>
       </c>
     </row>
@@ -12150,7 +12136,7 @@
         <v>8196.5200000000059</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8196.5200000000059</v>
       </c>
     </row>
@@ -12175,7 +12161,7 @@
         <v>8131.5200000000059</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8131.5200000000059</v>
       </c>
     </row>
@@ -12194,7 +12180,7 @@
         <v>8174.3000000000056</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8174.3000000000056</v>
       </c>
     </row>
@@ -12213,7 +12199,7 @@
         <v>8237.110000000006</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8237.110000000006</v>
       </c>
     </row>
@@ -12232,7 +12218,7 @@
         <v>8407.110000000006</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8407.110000000006</v>
       </c>
     </row>
@@ -12251,7 +12237,7 @@
         <v>8469.9200000000055</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8469.9200000000055</v>
       </c>
     </row>
@@ -12270,7 +12256,7 @@
         <v>8595.5400000000063</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8595.5400000000063</v>
       </c>
     </row>
@@ -12289,7 +12275,7 @@
         <v>8735.4200000000055</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8735.4200000000055</v>
       </c>
     </row>
@@ -12308,7 +12294,7 @@
         <v>8846.1800000000057</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8846.1800000000057</v>
       </c>
     </row>
@@ -12327,7 +12313,7 @@
         <v>8923.2500000000055</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8923.2500000000055</v>
       </c>
     </row>
@@ -12346,7 +12332,7 @@
         <v>9238.2500000000055</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9238.2500000000055</v>
       </c>
     </row>
@@ -12365,7 +12351,7 @@
         <v>9252.5100000000057</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9252.5100000000057</v>
       </c>
     </row>
@@ -12384,7 +12370,7 @@
         <v>9315.3200000000052</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9315.3200000000052</v>
       </c>
     </row>
@@ -12403,7 +12389,7 @@
         <v>9467.940000000006</v>
       </c>
       <c r="H51" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9467.940000000006</v>
       </c>
     </row>
@@ -12422,7 +12408,7 @@
         <v>9796.2500000000055</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9796.2500000000055</v>
       </c>
     </row>
@@ -12441,7 +12427,7 @@
         <v>9936.1300000000047</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9936.1300000000047</v>
       </c>
     </row>
@@ -12460,7 +12446,7 @@
         <v>10313.910000000005</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10313.910000000005</v>
       </c>
     </row>
@@ -12479,7 +12465,7 @@
         <v>10565.150000000005</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10565.150000000005</v>
       </c>
     </row>
@@ -12498,7 +12484,7 @@
         <v>10627.960000000005</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10627.960000000005</v>
       </c>
     </row>
@@ -12517,7 +12503,7 @@
         <v>12592.960000000005</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12592.960000000005</v>
       </c>
     </row>
@@ -12536,7 +12522,7 @@
         <v>12704.020000000004</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12704.020000000004</v>
       </c>
     </row>
@@ -12561,7 +12547,7 @@
         <v>12454.020000000004</v>
       </c>
       <c r="H59" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12454.020000000004</v>
       </c>
     </row>
@@ -12580,7 +12566,7 @@
         <v>13271.170000000004</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13271.170000000004</v>
       </c>
     </row>
@@ -12599,7 +12585,7 @@
         <v>13459.300000000003</v>
       </c>
       <c r="H61" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13459.300000000003</v>
       </c>
     </row>
@@ -12618,7 +12604,7 @@
         <v>14359.600000000002</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14359.600000000002</v>
       </c>
     </row>
@@ -12643,7 +12629,7 @@
         <v>14109.600000000002</v>
       </c>
       <c r="H63" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14109.600000000002</v>
       </c>
     </row>
@@ -12668,7 +12654,7 @@
         <v>13975.800000000003</v>
       </c>
       <c r="H64" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13975.800000000003</v>
       </c>
     </row>
@@ -12687,7 +12673,7 @@
         <v>14052.870000000003</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14052.870000000003</v>
       </c>
     </row>
@@ -12706,7 +12692,7 @@
         <v>14366.620000000003</v>
       </c>
       <c r="H66" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14366.620000000003</v>
       </c>
     </row>
@@ -12725,7 +12711,7 @@
         <v>14792.650000000003</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14792.650000000003</v>
       </c>
     </row>
@@ -12744,7 +12730,7 @@
         <v>14855.160000000003</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14855.160000000003</v>
       </c>
     </row>
@@ -12769,7 +12755,7 @@
         <v>14778.360000000004</v>
       </c>
       <c r="H69" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14778.360000000004</v>
       </c>
     </row>
@@ -12807,7 +12793,7 @@
         <v>15072.080000000004</v>
       </c>
       <c r="H71" s="3">
-        <f t="shared" ref="H71:H102" si="1">IF(ISBLANK(A71),"",IF(D71="C",H70-E71+F71,H70+F71))</f>
+        <f t="shared" ref="H71:H102" si="2">IF(ISBLANK(A71),"",IF(D71="C",H70-E71+F71,H70+F71))</f>
         <v>15072.080000000004</v>
       </c>
     </row>
@@ -12832,7 +12818,7 @@
         <v>14612.080000000004</v>
       </c>
       <c r="H72" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14612.080000000004</v>
       </c>
     </row>
@@ -12857,7 +12843,7 @@
         <v>14547.080000000004</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14547.080000000004</v>
       </c>
     </row>
@@ -12882,7 +12868,7 @@
         <v>14407.080000000004</v>
       </c>
       <c r="H74" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14407.080000000004</v>
       </c>
     </row>
@@ -12901,7 +12887,7 @@
         <v>14720.830000000004</v>
       </c>
       <c r="H75" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14720.830000000004</v>
       </c>
     </row>
@@ -12920,7 +12906,7 @@
         <v>14909.260000000004</v>
       </c>
       <c r="H76" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14909.260000000004</v>
       </c>
     </row>
@@ -12939,7 +12925,7 @@
         <v>16232.550000000003</v>
       </c>
       <c r="H77" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16232.550000000003</v>
       </c>
     </row>
@@ -12958,7 +12944,7 @@
         <v>16357.870000000003</v>
       </c>
       <c r="H78" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16357.870000000003</v>
       </c>
     </row>
@@ -12977,7 +12963,7 @@
         <v>16747.870000000003</v>
       </c>
       <c r="H79" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16747.870000000003</v>
       </c>
     </row>
@@ -13002,7 +12988,7 @@
         <v>16697.870000000003</v>
       </c>
       <c r="H80" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16697.870000000003</v>
       </c>
     </row>
@@ -13027,7 +13013,7 @@
         <v>16141.940000000002</v>
       </c>
       <c r="H81" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16141.940000000002</v>
       </c>
     </row>
@@ -13046,7 +13032,7 @@
         <v>16460.86</v>
       </c>
       <c r="H82" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16460.86</v>
       </c>
     </row>
@@ -13065,7 +13051,7 @@
         <v>17480.86</v>
       </c>
       <c r="H83" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17480.86</v>
       </c>
     </row>
@@ -13084,7 +13070,7 @@
         <v>17795.53</v>
       </c>
       <c r="H84" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17795.53</v>
       </c>
     </row>
@@ -13103,7 +13089,7 @@
         <v>18235.82</v>
       </c>
       <c r="H85" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18235.82</v>
       </c>
     </row>
@@ -13122,7 +13108,7 @@
         <v>18389.66</v>
       </c>
       <c r="H86" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18389.66</v>
       </c>
     </row>
@@ -13147,7 +13133,7 @@
         <v>13139.66</v>
       </c>
       <c r="H87" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13139.66</v>
       </c>
     </row>
@@ -13172,7 +13158,7 @@
         <v>12539.66</v>
       </c>
       <c r="H88" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12539.66</v>
       </c>
     </row>
@@ -13197,7 +13183,7 @@
         <v>11782.85</v>
       </c>
       <c r="H89" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11782.85</v>
       </c>
     </row>
@@ -13222,7 +13208,7 @@
         <v>11582.85</v>
       </c>
       <c r="H90" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11582.85</v>
       </c>
     </row>
@@ -13247,7 +13233,7 @@
         <v>11532.85</v>
       </c>
       <c r="H91" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11532.85</v>
       </c>
     </row>
@@ -13266,7 +13252,7 @@
         <v>11575.630000000001</v>
       </c>
       <c r="H92" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11575.630000000001</v>
       </c>
     </row>
@@ -13285,7 +13271,7 @@
         <v>11589.890000000001</v>
       </c>
       <c r="H93" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11589.890000000001</v>
       </c>
     </row>
@@ -13304,7 +13290,7 @@
         <v>12109.890000000001</v>
       </c>
       <c r="H94" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12109.890000000001</v>
       </c>
     </row>
@@ -13329,7 +13315,7 @@
         <v>11609.890000000001</v>
       </c>
       <c r="H95" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11609.890000000001</v>
       </c>
     </row>
@@ -13348,7 +13334,7 @@
         <v>11624.150000000001</v>
       </c>
       <c r="H96" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11624.150000000001</v>
       </c>
     </row>
@@ -13367,7 +13353,7 @@
         <v>11638.410000000002</v>
       </c>
       <c r="H97" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11638.410000000002</v>
       </c>
     </row>
@@ -13386,7 +13372,7 @@
         <v>11652.670000000002</v>
       </c>
       <c r="H98" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11652.670000000002</v>
       </c>
     </row>
@@ -13405,7 +13391,7 @@
         <v>11666.930000000002</v>
       </c>
       <c r="H99" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11666.930000000002</v>
       </c>
     </row>
@@ -13424,7 +13410,7 @@
         <v>11681.190000000002</v>
       </c>
       <c r="H100" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11681.190000000002</v>
       </c>
     </row>
@@ -13443,7 +13429,7 @@
         <v>11695.450000000003</v>
       </c>
       <c r="H101" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11695.450000000003</v>
       </c>
     </row>
@@ -13462,7 +13448,7 @@
         <v>11709.710000000003</v>
       </c>
       <c r="H102" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11709.710000000003</v>
       </c>
     </row>
@@ -13487,7 +13473,7 @@
         <v>11609.710000000003</v>
       </c>
       <c r="H103" s="3">
-        <f t="shared" ref="H103" si="2">IF(ISBLANK(A103),"",IF(D103="C",H102-E103+F103,H102+F103))</f>
+        <f t="shared" ref="H103" si="3">IF(ISBLANK(A103),"",IF(D103="C",H102-E103+F103,H102+F103))</f>
         <v>11609.710000000003</v>
       </c>
     </row>
@@ -13506,7 +13492,7 @@
         <v>11623.970000000003</v>
       </c>
       <c r="H104" s="3">
-        <f>IF(ISBLANK(A104),"",IF(D104="C",H103-E104+F104,H103+F104))</f>
+        <f t="shared" ref="H104:H135" si="4">IF(ISBLANK(A104),"",IF(D104="C",H103-E104+F104,H103+F104))</f>
         <v>11623.970000000003</v>
       </c>
     </row>
@@ -13525,7 +13511,7 @@
         <v>11638.230000000003</v>
       </c>
       <c r="H105" s="3">
-        <f>IF(ISBLANK(A105),"",IF(D105="C",H104-E105+F105,H104+F105))</f>
+        <f t="shared" si="4"/>
         <v>11638.230000000003</v>
       </c>
     </row>
@@ -13544,7 +13530,7 @@
         <v>11923.230000000003</v>
       </c>
       <c r="H106" s="3">
-        <f>IF(ISBLANK(A106),"",IF(D106="C",H105-E106+F106,H105+F106))</f>
+        <f t="shared" si="4"/>
         <v>11923.230000000003</v>
       </c>
     </row>
@@ -13563,7 +13549,7 @@
         <v>11937.490000000003</v>
       </c>
       <c r="H107" s="3">
-        <f>IF(ISBLANK(A107),"",IF(D107="C",H106-E107+F107,H106+F107))</f>
+        <f t="shared" si="4"/>
         <v>11937.490000000003</v>
       </c>
     </row>
@@ -13582,7 +13568,7 @@
         <v>11951.750000000004</v>
       </c>
       <c r="H108" s="3">
-        <f>IF(ISBLANK(A108),"",IF(D108="C",H107-E108+F108,H107+F108))</f>
+        <f t="shared" si="4"/>
         <v>11951.750000000004</v>
       </c>
     </row>
@@ -13601,7 +13587,7 @@
         <v>12041.750000000004</v>
       </c>
       <c r="H109" s="3">
-        <f>IF(ISBLANK(A109),"",IF(D109="C",H108-E109+F109,H108+F109))</f>
+        <f t="shared" si="4"/>
         <v>12041.750000000004</v>
       </c>
     </row>
@@ -13626,7 +13612,7 @@
         <v>10041.750000000004</v>
       </c>
       <c r="H110" s="3">
-        <f>IF(ISBLANK(A110),"",IF(D110="C",H109-E110+F110,H109+F110))</f>
+        <f t="shared" si="4"/>
         <v>10041.750000000004</v>
       </c>
     </row>
@@ -13645,7 +13631,7 @@
         <v>10070.270000000004</v>
       </c>
       <c r="H111" s="3">
-        <f>IF(ISBLANK(A111),"",IF(D111="C",H110-E111+F111,H110+F111))</f>
+        <f t="shared" si="4"/>
         <v>10070.270000000004</v>
       </c>
     </row>
@@ -13670,7 +13656,7 @@
         <v>9670.2700000000041</v>
       </c>
       <c r="H112" s="3">
-        <f>IF(ISBLANK(A112),"",IF(D112="C",H111-E112+F112,H111+F112))</f>
+        <f t="shared" si="4"/>
         <v>9670.2700000000041</v>
       </c>
     </row>
@@ -13689,7 +13675,7 @@
         <v>9757.0500000000047</v>
       </c>
       <c r="H113" s="3">
-        <f>IF(ISBLANK(A113),"",IF(D113="C",H112-E113+F113,H112+F113))</f>
+        <f t="shared" si="4"/>
         <v>9757.0500000000047</v>
       </c>
     </row>
@@ -13708,7 +13694,7 @@
         <v>9771.3100000000049</v>
       </c>
       <c r="H114" s="3">
-        <f>IF(ISBLANK(A114),"",IF(D114="C",H113-E114+F114,H113+F114))</f>
+        <f t="shared" si="4"/>
         <v>9771.3100000000049</v>
       </c>
     </row>
@@ -13727,7 +13713,7 @@
         <v>9785.5700000000052</v>
       </c>
       <c r="H115" s="3">
-        <f>IF(ISBLANK(A115),"",IF(D115="C",H114-E115+F115,H114+F115))</f>
+        <f t="shared" si="4"/>
         <v>9785.5700000000052</v>
       </c>
     </row>
@@ -13746,7 +13732,7 @@
         <v>9799.8300000000054</v>
       </c>
       <c r="H116" s="3">
-        <f>IF(ISBLANK(A116),"",IF(D116="C",H115-E116+F116,H115+F116))</f>
+        <f t="shared" si="4"/>
         <v>9799.8300000000054</v>
       </c>
     </row>
@@ -13771,7 +13757,7 @@
         <v>9735.8300000000054</v>
       </c>
       <c r="H117" s="3">
-        <f>IF(ISBLANK(A117),"",IF(D117="C",H116-E117+F117,H116+F117))</f>
+        <f t="shared" si="4"/>
         <v>9735.8300000000054</v>
       </c>
     </row>
@@ -13790,7 +13776,7 @@
         <v>9765.8300000000054</v>
       </c>
       <c r="H118" s="3">
-        <f>IF(ISBLANK(A118),"",IF(D118="C",H117-E118+F118,H117+F118))</f>
+        <f t="shared" si="4"/>
         <v>9765.8300000000054</v>
       </c>
     </row>
@@ -13815,7 +13801,7 @@
         <v>9704.8300000000054</v>
       </c>
       <c r="H119" s="3">
-        <f>IF(ISBLANK(A119),"",IF(D119="C",H118-E119+F119,H118+F119))</f>
+        <f t="shared" si="4"/>
         <v>9704.8300000000054</v>
       </c>
     </row>
@@ -13840,7 +13826,7 @@
         <v>9472.3800000000047</v>
       </c>
       <c r="H120" s="3">
-        <f>IF(ISBLANK(A120),"",IF(D120="C",H119-E120+F120,H119+F120))</f>
+        <f t="shared" si="4"/>
         <v>9472.3800000000047</v>
       </c>
     </row>
@@ -13859,7 +13845,7 @@
         <v>9486.6400000000049</v>
       </c>
       <c r="H121" s="3">
-        <f>IF(ISBLANK(A121),"",IF(D121="C",H120-E121+F121,H120+F121))</f>
+        <f t="shared" si="4"/>
         <v>9486.6400000000049</v>
       </c>
     </row>
@@ -13884,7 +13870,7 @@
         <v>9206.5400000000045</v>
       </c>
       <c r="H122" s="3">
-        <f>IF(ISBLANK(A122),"",IF(D122="C",H121-E122+F122,H121+F122))</f>
+        <f t="shared" si="4"/>
         <v>9206.5400000000045</v>
       </c>
     </row>
@@ -13909,7 +13895,7 @@
         <v>8706.5400000000045</v>
       </c>
       <c r="H123" s="3">
-        <f>IF(ISBLANK(A123),"",IF(D123="C",H122-E123+F123,H122+F123))</f>
+        <f t="shared" si="4"/>
         <v>8706.5400000000045</v>
       </c>
     </row>
@@ -13928,7 +13914,7 @@
         <v>8721.5400000000045</v>
       </c>
       <c r="H124" s="3">
-        <f>IF(ISBLANK(A124),"",IF(D124="C",H123-E124+F124,H123+F124))</f>
+        <f t="shared" si="4"/>
         <v>8721.5400000000045</v>
       </c>
     </row>
@@ -13947,7 +13933,7 @@
         <v>8750.0600000000049</v>
       </c>
       <c r="H125" s="3">
-        <f>IF(ISBLANK(A125),"",IF(D125="C",H124-E125+F125,H124+F125))</f>
+        <f t="shared" si="4"/>
         <v>8750.0600000000049</v>
       </c>
     </row>
@@ -13972,7 +13958,7 @@
         <v>8665.0600000000049</v>
       </c>
       <c r="H126" s="3">
-        <f>IF(ISBLANK(A126),"",IF(D126="C",H125-E126+F126,H125+F126))</f>
+        <f t="shared" si="4"/>
         <v>8665.0600000000049</v>
       </c>
     </row>
@@ -13991,7 +13977,7 @@
         <v>8679.3200000000052</v>
       </c>
       <c r="H127" s="3">
-        <f>IF(ISBLANK(A127),"",IF(D127="C",H126-E127+F127,H126+F127))</f>
+        <f t="shared" si="4"/>
         <v>8679.3200000000052</v>
       </c>
     </row>
@@ -14016,7 +14002,7 @@
         <v>8620.3200000000052</v>
       </c>
       <c r="H128" s="3">
-        <f>IF(ISBLANK(A128),"",IF(D128="C",H127-E128+F128,H127+F128))</f>
+        <f t="shared" si="4"/>
         <v>8620.3200000000052</v>
       </c>
     </row>
@@ -14042,7 +14028,7 @@
         <v>7805.9200000000055</v>
       </c>
       <c r="H129" s="3">
-        <f>IF(ISBLANK(A129),"",IF(D129="C",H128-E129+F129,H128+F129))</f>
+        <f t="shared" si="4"/>
         <v>7805.9200000000055</v>
       </c>
     </row>
@@ -14068,7 +14054,7 @@
         <v>7751.2500000000055</v>
       </c>
       <c r="H130" s="3">
-        <f>IF(ISBLANK(A130),"",IF(D130="C",H129-E130+F130,H129+F130))</f>
+        <f t="shared" si="4"/>
         <v>7751.2500000000055</v>
       </c>
     </row>
@@ -14087,7 +14073,7 @@
         <v>7765.5100000000057</v>
       </c>
       <c r="H131" s="3">
-        <f>IF(ISBLANK(A131),"",IF(D131="C",H130-E131+F131,H130+F131))</f>
+        <f t="shared" si="4"/>
         <v>7765.5100000000057</v>
       </c>
     </row>
@@ -14106,7 +14092,7 @@
         <v>7779.7700000000059</v>
       </c>
       <c r="H132" s="3">
-        <f>IF(ISBLANK(A132),"",IF(D132="C",H131-E132+F132,H131+F132))</f>
+        <f t="shared" si="4"/>
         <v>7779.7700000000059</v>
       </c>
     </row>
@@ -14131,7 +14117,7 @@
         <v>7029.7700000000059</v>
       </c>
       <c r="H133" s="3">
-        <f>IF(ISBLANK(A133),"",IF(D133="C",H132-E133+F133,H132+F133))</f>
+        <f t="shared" si="4"/>
         <v>7029.7700000000059</v>
       </c>
     </row>
@@ -14156,7 +14142,7 @@
         <v>6779.7700000000059</v>
       </c>
       <c r="H134" s="3">
-        <f>IF(ISBLANK(A134),"",IF(D134="C",H133-E134+F134,H133+F134))</f>
+        <f t="shared" si="4"/>
         <v>6779.7700000000059</v>
       </c>
     </row>
@@ -14181,7 +14167,7 @@
         <v>6129.7700000000059</v>
       </c>
       <c r="H135" s="3">
-        <f>IF(ISBLANK(A135),"",IF(D135="C",H134-E135+F135,H134+F135))</f>
+        <f t="shared" si="4"/>
         <v>6129.7700000000059</v>
       </c>
     </row>
@@ -14200,7 +14186,7 @@
         <v>6144.0300000000061</v>
       </c>
       <c r="H136" s="3">
-        <f>IF(ISBLANK(A136),"",IF(D136="C",H135-E136+F136,H135+F136))</f>
+        <f t="shared" ref="H136:H167" si="5">IF(ISBLANK(A136),"",IF(D136="C",H135-E136+F136,H135+F136))</f>
         <v>6144.0300000000061</v>
       </c>
     </row>
@@ -14219,7 +14205,7 @@
         <v>6158.2900000000063</v>
       </c>
       <c r="H137" s="3">
-        <f>IF(ISBLANK(A137),"",IF(D137="C",H136-E137+F137,H136+F137))</f>
+        <f t="shared" si="5"/>
         <v>6158.2900000000063</v>
       </c>
     </row>
@@ -14244,7 +14230,7 @@
         <v>6033.2900000000063</v>
       </c>
       <c r="H138" s="3">
-        <f>IF(ISBLANK(A138),"",IF(D138="C",H137-E138+F138,H137+F138))</f>
+        <f t="shared" si="5"/>
         <v>6033.2900000000063</v>
       </c>
     </row>
@@ -14263,7 +14249,7 @@
         <v>6061.8100000000068</v>
       </c>
       <c r="H139" s="3">
-        <f>IF(ISBLANK(A139),"",IF(D139="C",H138-E139+F139,H138+F139))</f>
+        <f t="shared" si="5"/>
         <v>6061.8100000000068</v>
       </c>
     </row>
@@ -14282,7 +14268,7 @@
         <v>6090.6400000000067</v>
       </c>
       <c r="H140" s="3">
-        <f>IF(ISBLANK(A140),"",IF(D140="C",H139-E140+F140,H139+F140))</f>
+        <f t="shared" si="5"/>
         <v>6090.6400000000067</v>
       </c>
     </row>
@@ -14307,7 +14293,7 @@
         <v>5965.6400000000067</v>
       </c>
       <c r="H141" s="3">
-        <f>IF(ISBLANK(A141),"",IF(D141="C",H140-E141+F141,H140+F141))</f>
+        <f t="shared" si="5"/>
         <v>5965.6400000000067</v>
       </c>
     </row>
@@ -14332,7 +14318,7 @@
         <v>5465.6400000000067</v>
       </c>
       <c r="H142" s="3">
-        <f>IF(ISBLANK(A142),"",IF(D142="C",H141-E142+F142,H141+F142))</f>
+        <f t="shared" si="5"/>
         <v>5465.6400000000067</v>
       </c>
     </row>
@@ -14351,7 +14337,7 @@
         <v>5479.9000000000069</v>
       </c>
       <c r="H143" s="3">
-        <f>IF(ISBLANK(A143),"",IF(D143="C",H142-E143+F143,H142+F143))</f>
+        <f t="shared" si="5"/>
         <v>5479.9000000000069</v>
       </c>
     </row>
@@ -14370,7 +14356,7 @@
         <v>5494.1600000000071</v>
       </c>
       <c r="H144" s="3">
-        <f>IF(ISBLANK(A144),"",IF(D144="C",H143-E144+F144,H143+F144))</f>
+        <f t="shared" si="5"/>
         <v>5494.1600000000071</v>
       </c>
     </row>
@@ -14395,7 +14381,7 @@
         <v>5208.5600000000068</v>
       </c>
       <c r="H145" s="3">
-        <f>IF(ISBLANK(A145),"",IF(D145="C",H144-E145+F145,H144+F145))</f>
+        <f t="shared" si="5"/>
         <v>5208.5600000000068</v>
       </c>
     </row>
@@ -14414,7 +14400,7 @@
         <v>5222.820000000007</v>
       </c>
       <c r="H146" s="3">
-        <f>IF(ISBLANK(A146),"",IF(D146="C",H145-E146+F146,H145+F146))</f>
+        <f t="shared" si="5"/>
         <v>5222.820000000007</v>
       </c>
     </row>
@@ -14433,7 +14419,7 @@
         <v>5237.0800000000072</v>
       </c>
       <c r="H147" s="3">
-        <f>IF(ISBLANK(A147),"",IF(D147="C",H146-E147+F147,H146+F147))</f>
+        <f t="shared" si="5"/>
         <v>5237.0800000000072</v>
       </c>
     </row>
@@ -14452,7 +14438,7 @@
         <v>5324.1700000000073</v>
       </c>
       <c r="H148" s="3">
-        <f>IF(ISBLANK(A148),"",IF(D148="C",H147-E148+F148,H147+F148))</f>
+        <f t="shared" si="5"/>
         <v>5324.1700000000073</v>
       </c>
     </row>
@@ -14471,7 +14457,7 @@
         <v>5338.4300000000076</v>
       </c>
       <c r="H149" s="3">
-        <f>IF(ISBLANK(A149),"",IF(D149="C",H148-E149+F149,H148+F149))</f>
+        <f t="shared" si="5"/>
         <v>5338.4300000000076</v>
       </c>
     </row>
@@ -14493,7 +14479,7 @@
         <v>5193.4300000000076</v>
       </c>
       <c r="H150" s="3">
-        <f>IF(ISBLANK(A150),"",IF(D150="C",H149-E150+F150,H149+F150))</f>
+        <f t="shared" si="5"/>
         <v>5338.4300000000076</v>
       </c>
     </row>
@@ -14515,7 +14501,7 @@
         <v>5048.4300000000076</v>
       </c>
       <c r="H151" s="3">
-        <f>IF(ISBLANK(A151),"",IF(D151="C",H150-E151+F151,H150+F151))</f>
+        <f t="shared" si="5"/>
         <v>5338.4300000000076</v>
       </c>
     </row>
@@ -14528,7 +14514,7 @@
         <v/>
       </c>
       <c r="H152" s="3" t="str">
-        <f>IF(ISBLANK(A152),"",IF(D152="C",H151-E152+F152,H151+F152))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -14541,7 +14527,7 @@
         <v/>
       </c>
       <c r="H153" s="3" t="str">
-        <f>IF(ISBLANK(A153),"",IF(D153="C",H152-E153+F153,H152+F153))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -14553,7 +14539,7 @@
         <v/>
       </c>
       <c r="H154" s="3" t="str">
-        <f>IF(ISBLANK(A154),"",IF(D154="C",H153-E154+F154,H153+F154))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -14565,7 +14551,7 @@
         <v/>
       </c>
       <c r="H155" s="3" t="str">
-        <f>IF(ISBLANK(A155),"",IF(D155="C",H154-E155+F155,H154+F155))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -14575,7 +14561,7 @@
         <v/>
       </c>
       <c r="H156" s="3" t="str">
-        <f>IF(ISBLANK(A156),"",IF(D156="C",H155-E156+F156,H155+F156))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -14585,7 +14571,7 @@
         <v/>
       </c>
       <c r="H157" s="3" t="str">
-        <f>IF(ISBLANK(A157),"",IF(D157="C",H156-E157+F157,H156+F157))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -14595,7 +14581,7 @@
         <v/>
       </c>
       <c r="H158" s="3" t="str">
-        <f>IF(ISBLANK(A158),"",IF(D158="C",H157-E158+F158,H157+F158))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -14605,7 +14591,7 @@
         <v/>
       </c>
       <c r="H159" s="3" t="str">
-        <f>IF(ISBLANK(A159),"",IF(D159="C",H158-E159+F159,H158+F159))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -14615,7 +14601,7 @@
         <v/>
       </c>
       <c r="H160" s="3" t="str">
-        <f>IF(ISBLANK(A160),"",IF(D160="C",H159-E160+F160,H159+F160))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -14625,7 +14611,7 @@
         <v/>
       </c>
       <c r="H161" s="3" t="str">
-        <f>IF(ISBLANK(A161),"",IF(D161="C",H160-E161+F161,H160+F161))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -14635,7 +14621,7 @@
         <v/>
       </c>
       <c r="H162" s="3" t="str">
-        <f>IF(ISBLANK(A162),"",IF(D162="C",H161-E162+F162,H161+F162))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -14645,7 +14631,7 @@
         <v/>
       </c>
       <c r="H163" s="3" t="str">
-        <f>IF(ISBLANK(A163),"",IF(D163="C",H162-E163+F163,H162+F163))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -14655,7 +14641,7 @@
         <v/>
       </c>
       <c r="H164" s="3" t="str">
-        <f>IF(ISBLANK(A164),"",IF(D164="C",H163-E164+F164,H163+F164))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -14665,7 +14651,7 @@
         <v/>
       </c>
       <c r="H165" s="3" t="str">
-        <f>IF(ISBLANK(A165),"",IF(D165="C",H164-E165+F165,H164+F165))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -14675,7 +14661,7 @@
         <v/>
       </c>
       <c r="H166" s="3" t="str">
-        <f>IF(ISBLANK(A166),"",IF(D166="C",H165-E166+F166,H165+F166))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -14685,7 +14671,7 @@
         <v/>
       </c>
       <c r="H167" s="3" t="str">
-        <f>IF(ISBLANK(A167),"",IF(D167="C",H166-E167+F167,H166+F167))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -14695,7 +14681,7 @@
         <v/>
       </c>
       <c r="H168" s="3" t="str">
-        <f t="shared" ref="H168:H231" si="3">IF(ISBLANK(A168),"",IF(D168="C",H167-E168+F168,H167+F168))</f>
+        <f t="shared" ref="H168:H231" si="6">IF(ISBLANK(A168),"",IF(D168="C",H167-E168+F168,H167+F168))</f>
         <v/>
       </c>
     </row>
@@ -14705,7 +14691,7 @@
         <v/>
       </c>
       <c r="H169" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14715,7 +14701,7 @@
         <v/>
       </c>
       <c r="H170" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14725,7 +14711,7 @@
         <v/>
       </c>
       <c r="H171" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14735,7 +14721,7 @@
         <v/>
       </c>
       <c r="H172" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14745,7 +14731,7 @@
         <v/>
       </c>
       <c r="H173" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14755,7 +14741,7 @@
         <v/>
       </c>
       <c r="H174" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14765,7 +14751,7 @@
         <v/>
       </c>
       <c r="H175" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14775,7 +14761,7 @@
         <v/>
       </c>
       <c r="H176" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14785,7 +14771,7 @@
         <v/>
       </c>
       <c r="H177" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14795,7 +14781,7 @@
         <v/>
       </c>
       <c r="H178" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14805,7 +14791,7 @@
         <v/>
       </c>
       <c r="H179" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14815,7 +14801,7 @@
         <v/>
       </c>
       <c r="H180" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14825,7 +14811,7 @@
         <v/>
       </c>
       <c r="H181" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14835,7 +14821,7 @@
         <v/>
       </c>
       <c r="H182" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14845,7 +14831,7 @@
         <v/>
       </c>
       <c r="H183" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14855,7 +14841,7 @@
         <v/>
       </c>
       <c r="H184" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14865,7 +14851,7 @@
         <v/>
       </c>
       <c r="H185" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14875,7 +14861,7 @@
         <v/>
       </c>
       <c r="H186" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14885,7 +14871,7 @@
         <v/>
       </c>
       <c r="H187" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14895,7 +14881,7 @@
         <v/>
       </c>
       <c r="H188" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14905,7 +14891,7 @@
         <v/>
       </c>
       <c r="H189" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14915,7 +14901,7 @@
         <v/>
       </c>
       <c r="H190" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14925,7 +14911,7 @@
         <v/>
       </c>
       <c r="H191" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14935,7 +14921,7 @@
         <v/>
       </c>
       <c r="H192" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14945,7 +14931,7 @@
         <v/>
       </c>
       <c r="H193" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14955,7 +14941,7 @@
         <v/>
       </c>
       <c r="H194" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14965,7 +14951,7 @@
         <v/>
       </c>
       <c r="H195" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14975,7 +14961,7 @@
         <v/>
       </c>
       <c r="H196" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14985,7 +14971,7 @@
         <v/>
       </c>
       <c r="H197" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -14995,7 +14981,7 @@
         <v/>
       </c>
       <c r="H198" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15005,7 +14991,7 @@
         <v/>
       </c>
       <c r="H199" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15015,7 +15001,7 @@
         <v/>
       </c>
       <c r="H200" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15025,7 +15011,7 @@
         <v/>
       </c>
       <c r="H201" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15035,7 +15021,7 @@
         <v/>
       </c>
       <c r="H202" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15045,7 +15031,7 @@
         <v/>
       </c>
       <c r="H203" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15055,7 +15041,7 @@
         <v/>
       </c>
       <c r="H204" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15065,7 +15051,7 @@
         <v/>
       </c>
       <c r="H205" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15075,7 +15061,7 @@
         <v/>
       </c>
       <c r="H206" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15085,7 +15071,7 @@
         <v/>
       </c>
       <c r="H207" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15095,7 +15081,7 @@
         <v/>
       </c>
       <c r="H208" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15105,7 +15091,7 @@
         <v/>
       </c>
       <c r="H209" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15115,7 +15101,7 @@
         <v/>
       </c>
       <c r="H210" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15125,7 +15111,7 @@
         <v/>
       </c>
       <c r="H211" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15135,7 +15121,7 @@
         <v/>
       </c>
       <c r="H212" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15145,7 +15131,7 @@
         <v/>
       </c>
       <c r="H213" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15155,7 +15141,7 @@
         <v/>
       </c>
       <c r="H214" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15165,7 +15151,7 @@
         <v/>
       </c>
       <c r="H215" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15175,7 +15161,7 @@
         <v/>
       </c>
       <c r="H216" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15185,7 +15171,7 @@
         <v/>
       </c>
       <c r="H217" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15195,7 +15181,7 @@
         <v/>
       </c>
       <c r="H218" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15205,7 +15191,7 @@
         <v/>
       </c>
       <c r="H219" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15215,7 +15201,7 @@
         <v/>
       </c>
       <c r="H220" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15225,7 +15211,7 @@
         <v/>
       </c>
       <c r="H221" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15235,7 +15221,7 @@
         <v/>
       </c>
       <c r="H222" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15245,7 +15231,7 @@
         <v/>
       </c>
       <c r="H223" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15255,7 +15241,7 @@
         <v/>
       </c>
       <c r="H224" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15265,7 +15251,7 @@
         <v/>
       </c>
       <c r="H225" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15275,7 +15261,7 @@
         <v/>
       </c>
       <c r="H226" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15285,7 +15271,7 @@
         <v/>
       </c>
       <c r="H227" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15295,7 +15281,7 @@
         <v/>
       </c>
       <c r="H228" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15305,7 +15291,7 @@
         <v/>
       </c>
       <c r="H229" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15315,7 +15301,7 @@
         <v/>
       </c>
       <c r="H230" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15325,7 +15311,7 @@
         <v/>
       </c>
       <c r="H231" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -15335,7 +15321,7 @@
         <v/>
       </c>
       <c r="H232" s="3" t="str">
-        <f t="shared" ref="H232:H259" si="4">IF(ISBLANK(A232),"",IF(D232="C",H231-E232+F232,H231+F232))</f>
+        <f t="shared" ref="H232:H259" si="7">IF(ISBLANK(A232),"",IF(D232="C",H231-E232+F232,H231+F232))</f>
         <v/>
       </c>
     </row>
@@ -15345,7 +15331,7 @@
         <v/>
       </c>
       <c r="H233" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15355,7 +15341,7 @@
         <v/>
       </c>
       <c r="H234" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15365,7 +15351,7 @@
         <v/>
       </c>
       <c r="H235" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15375,7 +15361,7 @@
         <v/>
       </c>
       <c r="H236" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15385,7 +15371,7 @@
         <v/>
       </c>
       <c r="H237" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15395,7 +15381,7 @@
         <v/>
       </c>
       <c r="H238" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15405,7 +15391,7 @@
         <v/>
       </c>
       <c r="H239" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15415,7 +15401,7 @@
         <v/>
       </c>
       <c r="H240" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15425,7 +15411,7 @@
         <v/>
       </c>
       <c r="H241" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15435,7 +15421,7 @@
         <v/>
       </c>
       <c r="H242" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15445,7 +15431,7 @@
         <v/>
       </c>
       <c r="H243" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15455,7 +15441,7 @@
         <v/>
       </c>
       <c r="H244" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15465,7 +15451,7 @@
         <v/>
       </c>
       <c r="H245" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15475,7 +15461,7 @@
         <v/>
       </c>
       <c r="H246" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15485,7 +15471,7 @@
         <v/>
       </c>
       <c r="H247" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15495,7 +15481,7 @@
         <v/>
       </c>
       <c r="H248" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15505,7 +15491,7 @@
         <v/>
       </c>
       <c r="H249" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15515,7 +15501,7 @@
         <v/>
       </c>
       <c r="H250" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15525,7 +15511,7 @@
         <v/>
       </c>
       <c r="H251" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15535,7 +15521,7 @@
         <v/>
       </c>
       <c r="H252" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15545,7 +15531,7 @@
         <v/>
       </c>
       <c r="H253" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15555,7 +15541,7 @@
         <v/>
       </c>
       <c r="H254" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15565,7 +15551,7 @@
         <v/>
       </c>
       <c r="H255" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15575,7 +15561,7 @@
         <v/>
       </c>
       <c r="H256" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15585,7 +15571,7 @@
         <v/>
       </c>
       <c r="H257" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15595,7 +15581,7 @@
         <v/>
       </c>
       <c r="H258" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15605,7 +15591,7 @@
         <v/>
       </c>
       <c r="H259" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -17836,7 +17822,7 @@
   <dimension ref="A1:M793"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17899,8 +17885,8 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3">
-        <f>'2018'!G151</f>
-        <v>5048.4300000000076</v>
+        <f>'2018'!G151-E2</f>
+        <v>4903.4300000000076</v>
       </c>
       <c r="H2" s="3">
         <f>'2018'!H151-E2</f>
@@ -17934,7 +17920,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3">
         <f>G2-E3+F3</f>
-        <v>4903.4300000000076</v>
+        <v>4758.4300000000076</v>
       </c>
       <c r="H3" s="3">
         <f>IF(D3="C",H2-E3+F3,H2+F3)</f>
@@ -17956,10 +17942,10 @@
       </c>
       <c r="G4" s="3">
         <f>'2019'!G3-E4+F4</f>
-        <v>4917.6900000000078</v>
+        <v>4772.6900000000078</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H67" si="0">IF(D4="C",H3-E4+F4,H3+F4)</f>
+        <f t="shared" ref="H4:H8" si="0">IF(D4="C",H3-E4+F4,H3+F4)</f>
         <v>5062.6900000000078</v>
       </c>
       <c r="J4" s="3"/>
@@ -17978,7 +17964,7 @@
       </c>
       <c r="G5" s="3">
         <f>'2019'!G4-E5+F5</f>
-        <v>4931.950000000008</v>
+        <v>4786.950000000008</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
@@ -18000,7 +17986,7 @@
       </c>
       <c r="G6" s="3">
         <f>'2019'!G5-E6+F6</f>
-        <v>4946.2100000000082</v>
+        <v>4801.2100000000082</v>
       </c>
       <c r="H6" s="3">
         <f>IF(D6="C",H5-E6+F6,H5+F6)</f>
@@ -18022,7 +18008,7 @@
       </c>
       <c r="G7" s="3">
         <f>'2019'!G6-E7+F7</f>
-        <v>4960.4700000000084</v>
+        <v>4815.4700000000084</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
@@ -18047,7 +18033,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3">
         <f>'2019'!G7-E8+F8</f>
-        <v>4815.4700000000084</v>
+        <v>4670.4700000000084</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>

--- a/MIACADA Ledger.xlsx
+++ b/MIACADA Ledger.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="330" yWindow="735" windowWidth="11355" windowHeight="8250" tabRatio="657" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="330" yWindow="735" windowWidth="11355" windowHeight="8250" tabRatio="657" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="2008" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="2009" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="2010" sheetId="13" state="hidden" r:id="rId4"/>
-    <sheet name="2011" sheetId="12" state="hidden" r:id="rId5"/>
-    <sheet name="2012" sheetId="11" state="hidden" r:id="rId6"/>
-    <sheet name="2013" sheetId="10" state="hidden" r:id="rId7"/>
-    <sheet name="2014" sheetId="9" state="hidden" r:id="rId8"/>
-    <sheet name="2015" sheetId="8" state="hidden" r:id="rId9"/>
-    <sheet name="2016" sheetId="7" state="hidden" r:id="rId10"/>
+    <sheet name="2011" sheetId="12" r:id="rId5"/>
+    <sheet name="2012" sheetId="11" r:id="rId6"/>
+    <sheet name="2013" sheetId="10" r:id="rId7"/>
+    <sheet name="2014" sheetId="9" r:id="rId8"/>
+    <sheet name="2015" sheetId="8" r:id="rId9"/>
+    <sheet name="2016" sheetId="7" r:id="rId10"/>
     <sheet name="2017" sheetId="6" r:id="rId11"/>
     <sheet name="2017 Summary" sheetId="14" state="hidden" r:id="rId12"/>
     <sheet name="2018" sheetId="5" r:id="rId13"/>
@@ -31,8 +31,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'2017'!$E$1:$E$71</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'2018'!$E$1:$E$793</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'2019'!$E$1:$E$793</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'2018'!$A$1:$H$793</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'2019'!$A$1:$H$793</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="422">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -1289,6 +1289,27 @@
   </si>
   <si>
     <t>Region V Grant Winner Danielle Flores Lopez</t>
+  </si>
+  <si>
+    <t>MPG Promotions, giveaways</t>
+  </si>
+  <si>
+    <t>Sharita Williamson, Region V Grant Winnter</t>
+  </si>
+  <si>
+    <t>Jessica Cheriez, Region V Grant Winnter</t>
+  </si>
+  <si>
+    <t>Georgina Main, awards</t>
+  </si>
+  <si>
+    <t>Wayne State, webinar</t>
+  </si>
+  <si>
+    <t>Central Michigan, webinar</t>
+  </si>
+  <si>
+    <t>Meaghan Cole, best of MIACADA Region V reimbursement</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1413,6 +1434,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2071,11 +2093,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="301778896"/>
-        <c:axId val="301780576"/>
+        <c:axId val="302715456"/>
+        <c:axId val="302717136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="301778896"/>
+        <c:axId val="302715456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,7 +2140,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301780576"/>
+        <c:crossAx val="302717136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2126,7 +2148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301780576"/>
+        <c:axId val="302717136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,7 +2199,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301778896"/>
+        <c:crossAx val="302715456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2440,11 +2462,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="405809536"/>
-        <c:axId val="303049616"/>
+        <c:axId val="302721056"/>
+        <c:axId val="394505792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="405809536"/>
+        <c:axId val="302721056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,7 +2509,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303049616"/>
+        <c:crossAx val="394505792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2495,7 +2517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303049616"/>
+        <c:axId val="394505792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,7 +2568,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405809536"/>
+        <c:crossAx val="302721056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3486,11 +3508,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="417223440"/>
-        <c:axId val="417224000"/>
+        <c:axId val="394510272"/>
+        <c:axId val="394510832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="417223440"/>
+        <c:axId val="394510272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3533,7 +3555,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417224000"/>
+        <c:crossAx val="394510832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3541,7 +3563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="417224000"/>
+        <c:axId val="394510832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3592,7 +3614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417223440"/>
+        <c:crossAx val="394510272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7540,13 +7562,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:IV53"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8614,8 +8640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11297,10 +11323,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M793"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="H149" sqref="H149"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11407,7 +11434,7 @@
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>43116</v>
       </c>
@@ -11429,7 +11456,7 @@
       <c r="J4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>43117</v>
       </c>
@@ -11451,7 +11478,7 @@
       <c r="J5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>43118</v>
       </c>
@@ -11473,7 +11500,7 @@
       <c r="J6" s="24"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <v>43119</v>
       </c>
@@ -11494,7 +11521,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>43122</v>
       </c>
@@ -11515,7 +11542,7 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>43123</v>
       </c>
@@ -11562,7 +11589,7 @@
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>43124</v>
       </c>
@@ -11583,7 +11610,7 @@
       <c r="J11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28">
         <v>43125</v>
       </c>
@@ -11656,7 +11683,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28">
         <v>43131</v>
       </c>
@@ -11675,7 +11702,7 @@
         <v>7822.0200000000032</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28">
         <v>43133</v>
       </c>
@@ -11694,7 +11721,7 @@
         <v>7836.2800000000034</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="28">
         <v>43144</v>
       </c>
@@ -11713,7 +11740,7 @@
         <v>7851.2800000000034</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28">
         <v>43145</v>
       </c>
@@ -11732,7 +11759,7 @@
         <v>7865.5400000000036</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28">
         <v>43147</v>
       </c>
@@ -11776,7 +11803,7 @@
         <v>7324.390000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28">
         <v>43152</v>
       </c>
@@ -11795,7 +11822,7 @@
         <v>7338.6500000000042</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28">
         <v>43154</v>
       </c>
@@ -11814,7 +11841,7 @@
         <v>7352.9100000000044</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28">
         <v>43164</v>
       </c>
@@ -11834,7 +11861,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28">
         <v>43165</v>
       </c>
@@ -11853,7 +11880,7 @@
         <v>7589.5900000000047</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28">
         <v>43166</v>
       </c>
@@ -11947,7 +11974,7 @@
         <v>7272.4000000000051</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28">
         <v>43171</v>
       </c>
@@ -11966,7 +11993,7 @@
         <v>7335.2100000000055</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28">
         <v>43172</v>
       </c>
@@ -11985,7 +12012,7 @@
         <v>7769.1100000000051</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28">
         <v>43174</v>
       </c>
@@ -12004,7 +12031,7 @@
         <v>7783.3700000000053</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28">
         <v>43175</v>
       </c>
@@ -12023,7 +12050,7 @@
         <v>7966.0300000000052</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28">
         <v>43178</v>
       </c>
@@ -12042,7 +12069,7 @@
         <v>8057.3600000000051</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28">
         <v>43178</v>
       </c>
@@ -12065,6 +12092,9 @@
       <c r="A35" s="28">
         <v>43178</v>
       </c>
+      <c r="B35">
+        <v>1353</v>
+      </c>
       <c r="C35" s="8" t="s">
         <v>362</v>
       </c>
@@ -12083,7 +12113,7 @@
         <v>7945.8800000000056</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28">
         <v>43180</v>
       </c>
@@ -12102,7 +12132,7 @@
         <v>8071.2000000000053</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28">
         <v>43181</v>
       </c>
@@ -12121,7 +12151,7 @@
         <v>8182.2600000000057</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28">
         <v>43182</v>
       </c>
@@ -12165,7 +12195,7 @@
         <v>8131.5200000000059</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28">
         <v>43185</v>
       </c>
@@ -12184,7 +12214,7 @@
         <v>8174.3000000000056</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28">
         <v>43185</v>
       </c>
@@ -12203,7 +12233,7 @@
         <v>8237.110000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28">
         <v>43185</v>
       </c>
@@ -12222,7 +12252,7 @@
         <v>8407.110000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="28">
         <v>43186</v>
       </c>
@@ -12241,7 +12271,7 @@
         <v>8469.9200000000055</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28">
         <v>43187</v>
       </c>
@@ -12260,7 +12290,7 @@
         <v>8595.5400000000063</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="28">
         <v>43188</v>
       </c>
@@ -12279,7 +12309,7 @@
         <v>8735.4200000000055</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="28">
         <v>43189</v>
       </c>
@@ -12298,7 +12328,7 @@
         <v>8846.1800000000057</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="28">
         <v>43192</v>
       </c>
@@ -12317,7 +12347,7 @@
         <v>8923.2500000000055</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="28">
         <v>43195</v>
       </c>
@@ -12336,7 +12366,7 @@
         <v>9238.2500000000055</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28">
         <v>43199</v>
       </c>
@@ -12355,7 +12385,7 @@
         <v>9252.5100000000057</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28">
         <v>43201</v>
       </c>
@@ -12374,7 +12404,7 @@
         <v>9315.3200000000052</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="28">
         <v>43202</v>
       </c>
@@ -12393,7 +12423,7 @@
         <v>9467.940000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="28">
         <v>43203</v>
       </c>
@@ -12412,7 +12442,7 @@
         <v>9796.2500000000055</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="28">
         <v>43206</v>
       </c>
@@ -12431,7 +12461,7 @@
         <v>9936.1300000000047</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="28">
         <v>43209</v>
       </c>
@@ -12450,7 +12480,7 @@
         <v>10313.910000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="28">
         <v>43210</v>
       </c>
@@ -12469,7 +12499,7 @@
         <v>10565.150000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="28">
         <v>43213</v>
       </c>
@@ -12488,7 +12518,7 @@
         <v>10627.960000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="28">
         <v>43213</v>
       </c>
@@ -12507,7 +12537,7 @@
         <v>12592.960000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28">
         <v>43214</v>
       </c>
@@ -12551,7 +12581,7 @@
         <v>12454.020000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="28">
         <v>43215</v>
       </c>
@@ -12570,7 +12600,7 @@
         <v>13271.170000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="28">
         <v>43216</v>
       </c>
@@ -12589,7 +12619,7 @@
         <v>13459.300000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="22">
         <v>43217</v>
       </c>
@@ -12658,7 +12688,7 @@
         <v>13975.800000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="28">
         <v>43220</v>
       </c>
@@ -12677,7 +12707,7 @@
         <v>14052.870000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="28">
         <v>43222</v>
       </c>
@@ -12696,7 +12726,7 @@
         <v>14366.620000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="28">
         <v>43223</v>
       </c>
@@ -12715,7 +12745,7 @@
         <v>14792.650000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="28">
         <v>43224</v>
       </c>
@@ -12759,7 +12789,7 @@
         <v>14778.360000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="28">
         <v>43227</v>
       </c>
@@ -12778,7 +12808,7 @@
         <v>14889.420000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="28">
         <v>43227</v>
       </c>
@@ -12872,7 +12902,7 @@
         <v>14407.080000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="28">
         <v>43229</v>
       </c>
@@ -12891,7 +12921,7 @@
         <v>14720.830000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28">
         <v>43231</v>
       </c>
@@ -12910,7 +12940,7 @@
         <v>14909.260000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="28">
         <v>43234</v>
       </c>
@@ -12929,7 +12959,7 @@
         <v>16232.550000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="28">
         <v>43234</v>
       </c>
@@ -12948,7 +12978,7 @@
         <v>16357.870000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="28">
         <v>43235</v>
       </c>
@@ -13017,7 +13047,7 @@
         <v>16141.940000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="28">
         <v>43236</v>
       </c>
@@ -13036,7 +13066,7 @@
         <v>16460.86</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="28">
         <v>43236</v>
       </c>
@@ -13055,7 +13085,7 @@
         <v>17480.86</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="28">
         <v>43237</v>
       </c>
@@ -13074,7 +13104,7 @@
         <v>17795.53</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="28">
         <v>43238</v>
       </c>
@@ -13093,7 +13123,7 @@
         <v>18235.82</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="28">
         <v>43241</v>
       </c>
@@ -13237,7 +13267,7 @@
         <v>11532.85</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="28">
         <v>43245</v>
       </c>
@@ -13256,7 +13286,7 @@
         <v>11575.630000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="28">
         <v>43249</v>
       </c>
@@ -13275,7 +13305,7 @@
         <v>11589.890000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="28">
         <v>43249</v>
       </c>
@@ -13319,7 +13349,7 @@
         <v>11609.890000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="28">
         <v>43251</v>
       </c>
@@ -13338,7 +13368,7 @@
         <v>11624.150000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="28">
         <v>43252</v>
       </c>
@@ -13357,7 +13387,7 @@
         <v>11638.410000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="28">
         <v>43255</v>
       </c>
@@ -13376,7 +13406,7 @@
         <v>11652.670000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="28">
         <v>43256</v>
       </c>
@@ -13395,7 +13425,7 @@
         <v>11666.930000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="28">
         <v>43262</v>
       </c>
@@ -13414,7 +13444,7 @@
         <v>11681.190000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="28">
         <v>43266</v>
       </c>
@@ -13433,7 +13463,7 @@
         <v>11695.450000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="28">
         <v>43273</v>
       </c>
@@ -13477,7 +13507,7 @@
         <v>11609.710000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="28">
         <v>43278</v>
       </c>
@@ -13496,7 +13526,7 @@
         <v>11623.970000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="28">
         <v>43279</v>
       </c>
@@ -13515,7 +13545,7 @@
         <v>11638.230000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="28">
         <v>43279</v>
       </c>
@@ -13534,7 +13564,7 @@
         <v>11923.230000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="28">
         <v>43283</v>
       </c>
@@ -13553,7 +13583,7 @@
         <v>11937.490000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="28">
         <v>43286</v>
       </c>
@@ -13572,7 +13602,7 @@
         <v>11951.750000000004</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="28">
         <v>43299</v>
       </c>
@@ -13616,7 +13646,7 @@
         <v>10041.750000000004</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="28">
         <v>43307</v>
       </c>
@@ -13660,7 +13690,7 @@
         <v>9670.2700000000041</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="28">
         <v>43313</v>
       </c>
@@ -13679,7 +13709,7 @@
         <v>9757.0500000000047</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="28">
         <v>43314</v>
       </c>
@@ -13698,7 +13728,7 @@
         <v>9771.3100000000049</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="28">
         <v>43320</v>
       </c>
@@ -13717,7 +13747,7 @@
         <v>9785.5700000000052</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="28">
         <v>43325</v>
       </c>
@@ -13761,7 +13791,7 @@
         <v>9735.8300000000054</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="28">
         <v>43327</v>
       </c>
@@ -13830,7 +13860,7 @@
         <v>9472.3800000000047</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="28">
         <v>43336</v>
       </c>
@@ -13899,7 +13929,7 @@
         <v>8706.5400000000045</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="28">
         <v>43342</v>
       </c>
@@ -13918,7 +13948,7 @@
         <v>8721.5400000000045</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="28">
         <v>43347</v>
       </c>
@@ -13962,7 +13992,7 @@
         <v>8665.0600000000049</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="28">
         <v>43349</v>
       </c>
@@ -14058,7 +14088,7 @@
         <v>7751.2500000000055</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="28">
         <v>43357</v>
       </c>
@@ -14077,7 +14107,7 @@
         <v>7765.5100000000057</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="28">
         <v>43367</v>
       </c>
@@ -14171,7 +14201,7 @@
         <v>6129.7700000000059</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="28">
         <v>43374</v>
       </c>
@@ -14190,7 +14220,7 @@
         <v>6144.0300000000061</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="28">
         <v>43374</v>
       </c>
@@ -14234,7 +14264,7 @@
         <v>6033.2900000000063</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="28">
         <v>43385</v>
       </c>
@@ -14253,7 +14283,7 @@
         <v>6061.8100000000068</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="28">
         <v>43397</v>
       </c>
@@ -14322,7 +14352,7 @@
         <v>5465.6400000000067</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="28">
         <v>43402</v>
       </c>
@@ -14341,7 +14371,7 @@
         <v>5479.9000000000069</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="28">
         <v>43403</v>
       </c>
@@ -14385,7 +14415,7 @@
         <v>5208.5600000000068</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="28">
         <v>43790</v>
       </c>
@@ -14404,7 +14434,7 @@
         <v>5222.820000000007</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="28">
         <v>43792</v>
       </c>
@@ -14423,7 +14453,7 @@
         <v>5237.0800000000072</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="28">
         <v>43804</v>
       </c>
@@ -14442,7 +14472,7 @@
         <v>5324.1700000000073</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="28">
         <v>43811</v>
       </c>
@@ -14471,6 +14501,9 @@
       <c r="C150" s="20" t="s">
         <v>410</v>
       </c>
+      <c r="D150" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E150" s="3">
         <v>145</v>
       </c>
@@ -14480,7 +14513,7 @@
       </c>
       <c r="H150" s="3">
         <f t="shared" si="5"/>
-        <v>5338.4300000000076</v>
+        <v>5193.4300000000076</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -14493,6 +14526,9 @@
       <c r="C151" s="20" t="s">
         <v>411</v>
       </c>
+      <c r="D151" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E151" s="3">
         <v>145</v>
       </c>
@@ -14502,10 +14538,10 @@
       </c>
       <c r="H151" s="3">
         <f t="shared" si="5"/>
-        <v>5338.4300000000076</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5048.4300000000076</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="28"/>
       <c r="C152" s="20"/>
       <c r="D152" s="8"/>
@@ -14518,7 +14554,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="28"/>
       <c r="C153" s="20"/>
       <c r="D153" s="8"/>
@@ -14531,7 +14567,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="28"/>
       <c r="C154" s="20"/>
       <c r="G154" s="3" t="str">
@@ -14543,7 +14579,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="28"/>
       <c r="C155" s="20"/>
       <c r="G155" s="3" t="str">
@@ -14555,7 +14591,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G156" s="3" t="str">
         <f>IF(ISBLANK(A156),"",'2018'!G155-E156+F156)</f>
         <v/>
@@ -14565,7 +14601,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G157" s="3" t="str">
         <f>IF(ISBLANK(A157),"",'2018'!G156-E157+F157)</f>
         <v/>
@@ -14575,7 +14611,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G158" s="3" t="str">
         <f>IF(ISBLANK(A158),"",'2018'!G157-E158+F158)</f>
         <v/>
@@ -14585,7 +14621,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G159" s="3" t="str">
         <f>IF(ISBLANK(A159),"",'2018'!G158-E159+F159)</f>
         <v/>
@@ -14595,7 +14631,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G160" s="3" t="str">
         <f>IF(ISBLANK(A160),"",'2018'!G159-E160+F160)</f>
         <v/>
@@ -14605,7 +14641,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G161" s="3" t="str">
         <f>IF(ISBLANK(A161),"",'2018'!G160-E161+F161)</f>
         <v/>
@@ -14615,7 +14651,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G162" s="3" t="str">
         <f>IF(ISBLANK(A162),"",'2018'!G161-E162+F162)</f>
         <v/>
@@ -14625,7 +14661,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G163" s="3" t="str">
         <f>IF(ISBLANK(A163),"",'2018'!G162-E163+F163)</f>
         <v/>
@@ -14635,7 +14671,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G164" s="3" t="str">
         <f>IF(ISBLANK(A164),"",'2018'!G163-E164+F164)</f>
         <v/>
@@ -14645,7 +14681,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G165" s="3" t="str">
         <f>IF(ISBLANK(A165),"",'2018'!G164-E165+F165)</f>
         <v/>
@@ -14655,7 +14691,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G166" s="3" t="str">
         <f>IF(ISBLANK(A166),"",'2018'!G165-E166+F166)</f>
         <v/>
@@ -14665,7 +14701,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G167" s="3" t="str">
         <f>IF(ISBLANK(A167),"",'2018'!G166-E167+F167)</f>
         <v/>
@@ -14675,7 +14711,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G168" s="3" t="str">
         <f>IF(ISBLANK(A168),"",'2018'!G167-E168+F168)</f>
         <v/>
@@ -14685,7 +14721,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G169" s="3" t="str">
         <f>IF(ISBLANK(A169),"",'2018'!G168-E169+F169)</f>
         <v/>
@@ -14695,7 +14731,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G170" s="3" t="str">
         <f>IF(ISBLANK(A170),"",'2018'!G169-E170+F170)</f>
         <v/>
@@ -14705,7 +14741,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G171" s="3" t="str">
         <f>IF(ISBLANK(A171),"",'2018'!G170-E171+F171)</f>
         <v/>
@@ -14715,7 +14751,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G172" s="3" t="str">
         <f>IF(ISBLANK(A172),"",'2018'!G171-E172+F172)</f>
         <v/>
@@ -14725,7 +14761,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G173" s="3" t="str">
         <f>IF(ISBLANK(A173),"",'2018'!G172-E173+F173)</f>
         <v/>
@@ -14735,7 +14771,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G174" s="3" t="str">
         <f>IF(ISBLANK(A174),"",'2018'!G173-E174+F174)</f>
         <v/>
@@ -14745,7 +14781,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G175" s="3" t="str">
         <f>IF(ISBLANK(A175),"",'2018'!G174-E175+F175)</f>
         <v/>
@@ -14755,7 +14791,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G176" s="3" t="str">
         <f>IF(ISBLANK(A176),"",'2018'!G175-E176+F176)</f>
         <v/>
@@ -14765,7 +14801,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G177" s="3" t="str">
         <f>IF(ISBLANK(A177),"",'2018'!G176-E177+F177)</f>
         <v/>
@@ -14775,7 +14811,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G178" s="3" t="str">
         <f>IF(ISBLANK(A178),"",'2018'!G177-E178+F178)</f>
         <v/>
@@ -14785,7 +14821,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G179" s="3" t="str">
         <f>IF(ISBLANK(A179),"",'2018'!G178-E179+F179)</f>
         <v/>
@@ -14795,7 +14831,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G180" s="3" t="str">
         <f>IF(ISBLANK(A180),"",'2018'!G179-E180+F180)</f>
         <v/>
@@ -14805,7 +14841,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G181" s="3" t="str">
         <f>IF(ISBLANK(A181),"",'2018'!G180-E181+F181)</f>
         <v/>
@@ -14815,7 +14851,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G182" s="3" t="str">
         <f>IF(ISBLANK(A182),"",'2018'!G181-E182+F182)</f>
         <v/>
@@ -14825,7 +14861,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G183" s="3" t="str">
         <f>IF(ISBLANK(A183),"",'2018'!G182-E183+F183)</f>
         <v/>
@@ -14835,7 +14871,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G184" s="3" t="str">
         <f>IF(ISBLANK(A184),"",'2018'!G183-E184+F184)</f>
         <v/>
@@ -14845,7 +14881,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G185" s="3" t="str">
         <f>IF(ISBLANK(A185),"",'2018'!G184-E185+F185)</f>
         <v/>
@@ -14855,7 +14891,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G186" s="3" t="str">
         <f>IF(ISBLANK(A186),"",'2018'!G185-E186+F186)</f>
         <v/>
@@ -14865,7 +14901,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G187" s="3" t="str">
         <f>IF(ISBLANK(A187),"",'2018'!G186-E187+F187)</f>
         <v/>
@@ -14875,7 +14911,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G188" s="3" t="str">
         <f>IF(ISBLANK(A188),"",'2018'!G187-E188+F188)</f>
         <v/>
@@ -14885,7 +14921,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G189" s="3" t="str">
         <f>IF(ISBLANK(A189),"",'2018'!G188-E189+F189)</f>
         <v/>
@@ -14895,7 +14931,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G190" s="3" t="str">
         <f>IF(ISBLANK(A190),"",'2018'!G189-E190+F190)</f>
         <v/>
@@ -14905,7 +14941,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G191" s="3" t="str">
         <f>IF(ISBLANK(A191),"",'2018'!G190-E191+F191)</f>
         <v/>
@@ -14915,7 +14951,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G192" s="3" t="str">
         <f>IF(ISBLANK(A192),"",'2018'!G191-E192+F192)</f>
         <v/>
@@ -14925,7 +14961,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G193" s="3" t="str">
         <f>IF(ISBLANK(A193),"",'2018'!G192-E193+F193)</f>
         <v/>
@@ -14935,7 +14971,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G194" s="3" t="str">
         <f>IF(ISBLANK(A194),"",'2018'!G193-E194+F194)</f>
         <v/>
@@ -14945,7 +14981,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G195" s="3" t="str">
         <f>IF(ISBLANK(A195),"",'2018'!G194-E195+F195)</f>
         <v/>
@@ -14955,7 +14991,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G196" s="3" t="str">
         <f>IF(ISBLANK(A196),"",'2018'!G195-E196+F196)</f>
         <v/>
@@ -14965,7 +15001,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G197" s="3" t="str">
         <f>IF(ISBLANK(A197),"",'2018'!G196-E197+F197)</f>
         <v/>
@@ -14975,7 +15011,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G198" s="3" t="str">
         <f>IF(ISBLANK(A198),"",'2018'!G197-E198+F198)</f>
         <v/>
@@ -14985,7 +15021,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G199" s="3" t="str">
         <f>IF(ISBLANK(A199),"",'2018'!G198-E199+F199)</f>
         <v/>
@@ -14995,7 +15031,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G200" s="3" t="str">
         <f>IF(ISBLANK(A200),"",'2018'!G199-E200+F200)</f>
         <v/>
@@ -15005,7 +15041,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G201" s="3" t="str">
         <f>IF(ISBLANK(A201),"",'2018'!G200-E201+F201)</f>
         <v/>
@@ -15015,7 +15051,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G202" s="3" t="str">
         <f>IF(ISBLANK(A202),"",'2018'!G201-E202+F202)</f>
         <v/>
@@ -15025,7 +15061,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G203" s="3" t="str">
         <f>IF(ISBLANK(A203),"",'2018'!G202-E203+F203)</f>
         <v/>
@@ -15035,7 +15071,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G204" s="3" t="str">
         <f>IF(ISBLANK(A204),"",'2018'!G203-E204+F204)</f>
         <v/>
@@ -15045,7 +15081,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G205" s="3" t="str">
         <f>IF(ISBLANK(A205),"",'2018'!G204-E205+F205)</f>
         <v/>
@@ -15055,7 +15091,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G206" s="3" t="str">
         <f>IF(ISBLANK(A206),"",'2018'!G205-E206+F206)</f>
         <v/>
@@ -15065,7 +15101,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G207" s="3" t="str">
         <f>IF(ISBLANK(A207),"",'2018'!G206-E207+F207)</f>
         <v/>
@@ -15075,7 +15111,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G208" s="3" t="str">
         <f>IF(ISBLANK(A208),"",'2018'!G207-E208+F208)</f>
         <v/>
@@ -15085,7 +15121,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G209" s="3" t="str">
         <f>IF(ISBLANK(A209),"",'2018'!G208-E209+F209)</f>
         <v/>
@@ -15095,7 +15131,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G210" s="3" t="str">
         <f>IF(ISBLANK(A210),"",'2018'!G209-E210+F210)</f>
         <v/>
@@ -15105,7 +15141,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G211" s="3" t="str">
         <f>IF(ISBLANK(A211),"",'2018'!G210-E211+F211)</f>
         <v/>
@@ -15115,7 +15151,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G212" s="3" t="str">
         <f>IF(ISBLANK(A212),"",'2018'!G211-E212+F212)</f>
         <v/>
@@ -15125,7 +15161,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G213" s="3" t="str">
         <f>IF(ISBLANK(A213),"",'2018'!G212-E213+F213)</f>
         <v/>
@@ -15135,7 +15171,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G214" s="3" t="str">
         <f>IF(ISBLANK(A214),"",'2018'!G213-E214+F214)</f>
         <v/>
@@ -15145,7 +15181,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G215" s="3" t="str">
         <f>IF(ISBLANK(A215),"",'2018'!G214-E215+F215)</f>
         <v/>
@@ -15155,7 +15191,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G216" s="3" t="str">
         <f>IF(ISBLANK(A216),"",'2018'!G215-E216+F216)</f>
         <v/>
@@ -15165,7 +15201,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G217" s="3" t="str">
         <f>IF(ISBLANK(A217),"",'2018'!G216-E217+F217)</f>
         <v/>
@@ -15175,7 +15211,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G218" s="3" t="str">
         <f>IF(ISBLANK(A218),"",'2018'!G217-E218+F218)</f>
         <v/>
@@ -15185,7 +15221,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G219" s="3" t="str">
         <f>IF(ISBLANK(A219),"",'2018'!G218-E219+F219)</f>
         <v/>
@@ -15195,7 +15231,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G220" s="3" t="str">
         <f>IF(ISBLANK(A220),"",'2018'!G219-E220+F220)</f>
         <v/>
@@ -15205,7 +15241,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G221" s="3" t="str">
         <f>IF(ISBLANK(A221),"",'2018'!G220-E221+F221)</f>
         <v/>
@@ -15215,7 +15251,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G222" s="3" t="str">
         <f>IF(ISBLANK(A222),"",'2018'!G221-E222+F222)</f>
         <v/>
@@ -15225,7 +15261,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G223" s="3" t="str">
         <f>IF(ISBLANK(A223),"",'2018'!G222-E223+F223)</f>
         <v/>
@@ -15235,7 +15271,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G224" s="3" t="str">
         <f>IF(ISBLANK(A224),"",'2018'!G223-E224+F224)</f>
         <v/>
@@ -15245,7 +15281,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G225" s="3" t="str">
         <f>IF(ISBLANK(A225),"",'2018'!G224-E225+F225)</f>
         <v/>
@@ -15255,7 +15291,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G226" s="3" t="str">
         <f>IF(ISBLANK(A226),"",'2018'!G225-E226+F226)</f>
         <v/>
@@ -15265,7 +15301,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G227" s="3" t="str">
         <f>IF(ISBLANK(A227),"",'2018'!G226-E227+F227)</f>
         <v/>
@@ -15275,7 +15311,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G228" s="3" t="str">
         <f>IF(ISBLANK(A228),"",'2018'!G227-E228+F228)</f>
         <v/>
@@ -15285,7 +15321,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G229" s="3" t="str">
         <f>IF(ISBLANK(A229),"",'2018'!G228-E229+F229)</f>
         <v/>
@@ -15295,7 +15331,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G230" s="3" t="str">
         <f>IF(ISBLANK(A230),"",'2018'!G229-E230+F230)</f>
         <v/>
@@ -15305,7 +15341,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G231" s="3" t="str">
         <f>IF(ISBLANK(A231),"",'2018'!G230-E231+F231)</f>
         <v/>
@@ -15315,7 +15351,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G232" s="3" t="str">
         <f>IF(ISBLANK(A232),"",'2018'!G231-E232+F232)</f>
         <v/>
@@ -15325,7 +15361,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G233" s="3" t="str">
         <f>IF(ISBLANK(A233),"",'2018'!G232-E233+F233)</f>
         <v/>
@@ -15335,7 +15371,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G234" s="3" t="str">
         <f>IF(ISBLANK(A234),"",'2018'!G233-E234+F234)</f>
         <v/>
@@ -15345,7 +15381,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G235" s="3" t="str">
         <f>IF(ISBLANK(A235),"",'2018'!G234-E235+F235)</f>
         <v/>
@@ -15355,7 +15391,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G236" s="3" t="str">
         <f>IF(ISBLANK(A236),"",'2018'!G235-E236+F236)</f>
         <v/>
@@ -15365,7 +15401,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G237" s="3" t="str">
         <f>IF(ISBLANK(A237),"",'2018'!G236-E237+F237)</f>
         <v/>
@@ -15375,7 +15411,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G238" s="3" t="str">
         <f>IF(ISBLANK(A238),"",'2018'!G237-E238+F238)</f>
         <v/>
@@ -15385,7 +15421,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G239" s="3" t="str">
         <f>IF(ISBLANK(A239),"",'2018'!G238-E239+F239)</f>
         <v/>
@@ -15395,7 +15431,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G240" s="3" t="str">
         <f>IF(ISBLANK(A240),"",'2018'!G239-E240+F240)</f>
         <v/>
@@ -15405,7 +15441,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G241" s="3" t="str">
         <f>IF(ISBLANK(A241),"",'2018'!G240-E241+F241)</f>
         <v/>
@@ -15415,7 +15451,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G242" s="3" t="str">
         <f>IF(ISBLANK(A242),"",'2018'!G241-E242+F242)</f>
         <v/>
@@ -15425,7 +15461,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G243" s="3" t="str">
         <f>IF(ISBLANK(A243),"",'2018'!G242-E243+F243)</f>
         <v/>
@@ -15435,7 +15471,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G244" s="3" t="str">
         <f>IF(ISBLANK(A244),"",'2018'!G243-E244+F244)</f>
         <v/>
@@ -15445,7 +15481,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G245" s="3" t="str">
         <f>IF(ISBLANK(A245),"",'2018'!G244-E245+F245)</f>
         <v/>
@@ -15455,7 +15491,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G246" s="3" t="str">
         <f>IF(ISBLANK(A246),"",'2018'!G245-E246+F246)</f>
         <v/>
@@ -15465,7 +15501,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G247" s="3" t="str">
         <f>IF(ISBLANK(A247),"",'2018'!G246-E247+F247)</f>
         <v/>
@@ -15475,7 +15511,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G248" s="3" t="str">
         <f>IF(ISBLANK(A248),"",'2018'!G247-E248+F248)</f>
         <v/>
@@ -15485,7 +15521,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G249" s="3" t="str">
         <f>IF(ISBLANK(A249),"",'2018'!G248-E249+F249)</f>
         <v/>
@@ -15495,7 +15531,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G250" s="3" t="str">
         <f>IF(ISBLANK(A250),"",'2018'!G249-E250+F250)</f>
         <v/>
@@ -15505,7 +15541,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G251" s="3" t="str">
         <f>IF(ISBLANK(A251),"",'2018'!G250-E251+F251)</f>
         <v/>
@@ -15515,7 +15551,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G252" s="3" t="str">
         <f>IF(ISBLANK(A252),"",'2018'!G251-E252+F252)</f>
         <v/>
@@ -15525,7 +15561,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G253" s="3" t="str">
         <f>IF(ISBLANK(A253),"",'2018'!G252-E253+F253)</f>
         <v/>
@@ -15535,7 +15571,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G254" s="3" t="str">
         <f>IF(ISBLANK(A254),"",'2018'!G253-E254+F254)</f>
         <v/>
@@ -15545,7 +15581,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G255" s="3" t="str">
         <f>IF(ISBLANK(A255),"",'2018'!G254-E255+F255)</f>
         <v/>
@@ -15555,7 +15591,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G256" s="3" t="str">
         <f>IF(ISBLANK(A256),"",'2018'!G255-E256+F256)</f>
         <v/>
@@ -15565,7 +15601,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G257" s="3" t="str">
         <f>IF(ISBLANK(A257),"",'2018'!G256-E257+F257)</f>
         <v/>
@@ -15575,7 +15611,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G258" s="3" t="str">
         <f>IF(ISBLANK(A258),"",'2018'!G257-E258+F258)</f>
         <v/>
@@ -15585,7 +15621,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G259" s="3" t="str">
         <f>IF(ISBLANK(A259),"",'2018'!G258-E259+F259)</f>
         <v/>
@@ -15595,2144 +15631,2150 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
     </row>
-    <row r="261" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
     </row>
-    <row r="262" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
     </row>
-    <row r="263" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
     </row>
-    <row r="264" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
     </row>
-    <row r="265" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
     </row>
-    <row r="266" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
     </row>
-    <row r="267" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
     </row>
-    <row r="268" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
     </row>
-    <row r="269" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
     </row>
-    <row r="270" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
     </row>
-    <row r="271" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
     </row>
-    <row r="272" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
     </row>
-    <row r="273" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
     </row>
-    <row r="274" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
     </row>
-    <row r="275" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
     </row>
-    <row r="276" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
     </row>
-    <row r="277" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
     </row>
-    <row r="278" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
     </row>
-    <row r="279" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
     </row>
-    <row r="280" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
     </row>
-    <row r="281" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
     </row>
-    <row r="282" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
     </row>
-    <row r="283" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
     </row>
-    <row r="284" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
     </row>
-    <row r="285" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
     </row>
-    <row r="286" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
     </row>
-    <row r="287" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
     </row>
-    <row r="288" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
     </row>
-    <row r="289" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
     </row>
-    <row r="290" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
     </row>
-    <row r="291" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
     </row>
-    <row r="292" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
     </row>
-    <row r="293" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
     </row>
-    <row r="294" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
     </row>
-    <row r="295" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
     </row>
-    <row r="296" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
     </row>
-    <row r="297" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
     </row>
-    <row r="298" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
     </row>
-    <row r="299" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
     </row>
-    <row r="300" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
     </row>
-    <row r="301" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
     </row>
-    <row r="302" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
     </row>
-    <row r="303" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
     </row>
-    <row r="304" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
     </row>
-    <row r="305" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
     </row>
-    <row r="306" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
     </row>
-    <row r="307" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
     </row>
-    <row r="308" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
     </row>
-    <row r="309" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
     </row>
-    <row r="310" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
     </row>
-    <row r="311" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
     </row>
-    <row r="312" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
     </row>
-    <row r="313" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
     </row>
-    <row r="314" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
     </row>
-    <row r="315" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
     </row>
-    <row r="316" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
     </row>
-    <row r="317" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
     </row>
-    <row r="318" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
     </row>
-    <row r="319" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
     </row>
-    <row r="320" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
     </row>
-    <row r="321" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
     </row>
-    <row r="322" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G322" s="3"/>
       <c r="H322" s="3"/>
     </row>
-    <row r="323" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
     </row>
-    <row r="324" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G324" s="3"/>
       <c r="H324" s="3"/>
     </row>
-    <row r="325" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
     </row>
-    <row r="326" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G326" s="3"/>
       <c r="H326" s="3"/>
     </row>
-    <row r="327" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
     </row>
-    <row r="328" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G328" s="3"/>
       <c r="H328" s="3"/>
     </row>
-    <row r="329" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
     </row>
-    <row r="330" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
     </row>
-    <row r="331" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
     </row>
-    <row r="332" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G332" s="3"/>
       <c r="H332" s="3"/>
     </row>
-    <row r="333" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
     </row>
-    <row r="334" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
     </row>
-    <row r="335" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
     </row>
-    <row r="336" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
     </row>
-    <row r="337" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
     </row>
-    <row r="338" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
     </row>
-    <row r="339" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
     </row>
-    <row r="340" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
     </row>
-    <row r="341" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
     </row>
-    <row r="342" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
     </row>
-    <row r="343" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
     </row>
-    <row r="344" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
     </row>
-    <row r="345" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
     </row>
-    <row r="346" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
     </row>
-    <row r="347" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
     </row>
-    <row r="348" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
     </row>
-    <row r="349" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
     </row>
-    <row r="350" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
     </row>
-    <row r="351" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
     </row>
-    <row r="352" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
     </row>
-    <row r="353" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
     </row>
-    <row r="354" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
     </row>
-    <row r="355" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
     </row>
-    <row r="356" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
     </row>
-    <row r="357" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
     </row>
-    <row r="358" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
     </row>
-    <row r="359" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
     </row>
-    <row r="360" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
     </row>
-    <row r="361" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
     </row>
-    <row r="362" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
     </row>
-    <row r="363" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
     </row>
-    <row r="364" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
     </row>
-    <row r="365" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
     </row>
-    <row r="366" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
     </row>
-    <row r="367" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
     </row>
-    <row r="368" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
     </row>
-    <row r="369" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
     </row>
-    <row r="370" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
     </row>
-    <row r="371" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
     </row>
-    <row r="372" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
     </row>
-    <row r="373" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
     </row>
-    <row r="374" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
     </row>
-    <row r="375" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
     </row>
-    <row r="376" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
     </row>
-    <row r="377" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
     </row>
-    <row r="378" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
     </row>
-    <row r="379" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
     </row>
-    <row r="380" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
     </row>
-    <row r="381" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
     </row>
-    <row r="382" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
     </row>
-    <row r="383" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G383" s="3"/>
       <c r="H383" s="3"/>
     </row>
-    <row r="384" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
     </row>
-    <row r="385" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
     </row>
-    <row r="386" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
     </row>
-    <row r="387" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
     </row>
-    <row r="388" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
     </row>
-    <row r="389" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
     </row>
-    <row r="390" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
     </row>
-    <row r="391" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
     </row>
-    <row r="392" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
     </row>
-    <row r="393" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
     </row>
-    <row r="394" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
     </row>
-    <row r="395" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
     </row>
-    <row r="396" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
     </row>
-    <row r="397" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
     </row>
-    <row r="398" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
     </row>
-    <row r="399" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
     </row>
-    <row r="400" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
     </row>
-    <row r="401" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
     </row>
-    <row r="402" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
     </row>
-    <row r="403" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
     </row>
-    <row r="404" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
     </row>
-    <row r="405" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
     </row>
-    <row r="406" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
     </row>
-    <row r="407" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
     </row>
-    <row r="408" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
     </row>
-    <row r="409" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
     </row>
-    <row r="410" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
     </row>
-    <row r="411" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
     </row>
-    <row r="412" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="412" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
     </row>
-    <row r="413" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
     </row>
-    <row r="414" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
     </row>
-    <row r="415" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
     </row>
-    <row r="416" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
     </row>
-    <row r="417" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
     </row>
-    <row r="418" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
     </row>
-    <row r="419" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
     </row>
-    <row r="420" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
     </row>
-    <row r="421" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
     </row>
-    <row r="422" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
     </row>
-    <row r="423" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
     </row>
-    <row r="424" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
     </row>
-    <row r="425" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
     </row>
-    <row r="426" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
     </row>
-    <row r="427" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
     </row>
-    <row r="428" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
     </row>
-    <row r="429" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
     </row>
-    <row r="430" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
     </row>
-    <row r="431" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
     </row>
-    <row r="432" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G432" s="3"/>
       <c r="H432" s="3"/>
     </row>
-    <row r="433" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
     </row>
-    <row r="434" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="434" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G434" s="3"/>
       <c r="H434" s="3"/>
     </row>
-    <row r="435" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="435" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
     </row>
-    <row r="436" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="436" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G436" s="3"/>
       <c r="H436" s="3"/>
     </row>
-    <row r="437" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="437" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
     </row>
-    <row r="438" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G438" s="3"/>
       <c r="H438" s="3"/>
     </row>
-    <row r="439" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="439" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
     </row>
-    <row r="440" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G440" s="3"/>
       <c r="H440" s="3"/>
     </row>
-    <row r="441" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="441" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
     </row>
-    <row r="442" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="442" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
     </row>
-    <row r="443" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
     </row>
-    <row r="444" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="444" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G444" s="3"/>
       <c r="H444" s="3"/>
     </row>
-    <row r="445" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="445" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
     </row>
-    <row r="446" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="446" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
     </row>
-    <row r="447" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
     </row>
-    <row r="448" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G448" s="3"/>
       <c r="H448" s="3"/>
     </row>
-    <row r="449" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G449" s="3"/>
       <c r="H449" s="3"/>
     </row>
-    <row r="450" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="450" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G450" s="3"/>
       <c r="H450" s="3"/>
     </row>
-    <row r="451" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="451" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
     </row>
-    <row r="452" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="452" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G452" s="3"/>
       <c r="H452" s="3"/>
     </row>
-    <row r="453" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="453" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G453" s="3"/>
       <c r="H453" s="3"/>
     </row>
-    <row r="454" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="454" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G454" s="3"/>
       <c r="H454" s="3"/>
     </row>
-    <row r="455" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G455" s="3"/>
       <c r="H455" s="3"/>
     </row>
-    <row r="456" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="456" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G456" s="3"/>
       <c r="H456" s="3"/>
     </row>
-    <row r="457" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="457" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G457" s="3"/>
       <c r="H457" s="3"/>
     </row>
-    <row r="458" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="458" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G458" s="3"/>
       <c r="H458" s="3"/>
     </row>
-    <row r="459" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="459" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G459" s="3"/>
       <c r="H459" s="3"/>
     </row>
-    <row r="460" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="460" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G460" s="3"/>
       <c r="H460" s="3"/>
     </row>
-    <row r="461" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G461" s="3"/>
       <c r="H461" s="3"/>
     </row>
-    <row r="462" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G462" s="3"/>
       <c r="H462" s="3"/>
     </row>
-    <row r="463" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="463" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G463" s="3"/>
       <c r="H463" s="3"/>
     </row>
-    <row r="464" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="464" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G464" s="3"/>
       <c r="H464" s="3"/>
     </row>
-    <row r="465" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="465" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G465" s="3"/>
       <c r="H465" s="3"/>
     </row>
-    <row r="466" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="466" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G466" s="3"/>
       <c r="H466" s="3"/>
     </row>
-    <row r="467" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G467" s="3"/>
       <c r="H467" s="3"/>
     </row>
-    <row r="468" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G468" s="3"/>
       <c r="H468" s="3"/>
     </row>
-    <row r="469" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G469" s="3"/>
       <c r="H469" s="3"/>
     </row>
-    <row r="470" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G470" s="3"/>
       <c r="H470" s="3"/>
     </row>
-    <row r="471" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G471" s="3"/>
       <c r="H471" s="3"/>
     </row>
-    <row r="472" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G472" s="3"/>
       <c r="H472" s="3"/>
     </row>
-    <row r="473" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G473" s="3"/>
       <c r="H473" s="3"/>
     </row>
-    <row r="474" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G474" s="3"/>
       <c r="H474" s="3"/>
     </row>
-    <row r="475" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G475" s="3"/>
       <c r="H475" s="3"/>
     </row>
-    <row r="476" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G476" s="3"/>
       <c r="H476" s="3"/>
     </row>
-    <row r="477" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G477" s="3"/>
       <c r="H477" s="3"/>
     </row>
-    <row r="478" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G478" s="3"/>
       <c r="H478" s="3"/>
     </row>
-    <row r="479" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G479" s="3"/>
       <c r="H479" s="3"/>
     </row>
-    <row r="480" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G480" s="3"/>
       <c r="H480" s="3"/>
     </row>
-    <row r="481" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="481" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G481" s="3"/>
       <c r="H481" s="3"/>
     </row>
-    <row r="482" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="482" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G482" s="3"/>
       <c r="H482" s="3"/>
     </row>
-    <row r="483" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="483" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G483" s="3"/>
       <c r="H483" s="3"/>
     </row>
-    <row r="484" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="484" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G484" s="3"/>
       <c r="H484" s="3"/>
     </row>
-    <row r="485" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="485" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G485" s="3"/>
       <c r="H485" s="3"/>
     </row>
-    <row r="486" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="486" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G486" s="3"/>
       <c r="H486" s="3"/>
     </row>
-    <row r="487" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="487" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G487" s="3"/>
       <c r="H487" s="3"/>
     </row>
-    <row r="488" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="488" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G488" s="3"/>
       <c r="H488" s="3"/>
     </row>
-    <row r="489" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="489" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G489" s="3"/>
       <c r="H489" s="3"/>
     </row>
-    <row r="490" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="490" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G490" s="3"/>
       <c r="H490" s="3"/>
     </row>
-    <row r="491" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="491" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G491" s="3"/>
       <c r="H491" s="3"/>
     </row>
-    <row r="492" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="492" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G492" s="3"/>
       <c r="H492" s="3"/>
     </row>
-    <row r="493" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="493" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G493" s="3"/>
       <c r="H493" s="3"/>
     </row>
-    <row r="494" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="494" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G494" s="3"/>
       <c r="H494" s="3"/>
     </row>
-    <row r="495" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="495" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G495" s="3"/>
       <c r="H495" s="3"/>
     </row>
-    <row r="496" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="496" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G496" s="3"/>
       <c r="H496" s="3"/>
     </row>
-    <row r="497" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G497" s="3"/>
       <c r="H497" s="3"/>
     </row>
-    <row r="498" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="498" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G498" s="3"/>
       <c r="H498" s="3"/>
     </row>
-    <row r="499" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="499" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G499" s="3"/>
       <c r="H499" s="3"/>
     </row>
-    <row r="500" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G500" s="3"/>
       <c r="H500" s="3"/>
     </row>
-    <row r="501" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="501" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G501" s="3"/>
       <c r="H501" s="3"/>
     </row>
-    <row r="502" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="502" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G502" s="3"/>
       <c r="H502" s="3"/>
     </row>
-    <row r="503" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="503" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G503" s="3"/>
       <c r="H503" s="3"/>
     </row>
-    <row r="504" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="504" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G504" s="3"/>
       <c r="H504" s="3"/>
     </row>
-    <row r="505" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="505" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G505" s="3"/>
       <c r="H505" s="3"/>
     </row>
-    <row r="506" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="506" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G506" s="3"/>
       <c r="H506" s="3"/>
     </row>
-    <row r="507" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="507" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G507" s="3"/>
       <c r="H507" s="3"/>
     </row>
-    <row r="508" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="508" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G508" s="3"/>
       <c r="H508" s="3"/>
     </row>
-    <row r="509" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="509" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G509" s="3"/>
       <c r="H509" s="3"/>
     </row>
-    <row r="510" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="510" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G510" s="3"/>
       <c r="H510" s="3"/>
     </row>
-    <row r="511" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="511" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G511" s="3"/>
       <c r="H511" s="3"/>
     </row>
-    <row r="512" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="512" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G512" s="3"/>
       <c r="H512" s="3"/>
     </row>
-    <row r="513" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="513" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G513" s="3"/>
       <c r="H513" s="3"/>
     </row>
-    <row r="514" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="514" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G514" s="3"/>
       <c r="H514" s="3"/>
     </row>
-    <row r="515" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="515" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G515" s="3"/>
       <c r="H515" s="3"/>
     </row>
-    <row r="516" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="516" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G516" s="3"/>
       <c r="H516" s="3"/>
     </row>
-    <row r="517" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="517" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G517" s="3"/>
       <c r="H517" s="3"/>
     </row>
-    <row r="518" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="518" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G518" s="3"/>
       <c r="H518" s="3"/>
     </row>
-    <row r="519" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="519" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G519" s="3"/>
       <c r="H519" s="3"/>
     </row>
-    <row r="520" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="520" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G520" s="3"/>
       <c r="H520" s="3"/>
     </row>
-    <row r="521" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="521" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G521" s="3"/>
       <c r="H521" s="3"/>
     </row>
-    <row r="522" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="522" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G522" s="3"/>
       <c r="H522" s="3"/>
     </row>
-    <row r="523" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="523" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G523" s="3"/>
       <c r="H523" s="3"/>
     </row>
-    <row r="524" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="524" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G524" s="3"/>
       <c r="H524" s="3"/>
     </row>
-    <row r="525" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="525" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G525" s="3"/>
       <c r="H525" s="3"/>
     </row>
-    <row r="526" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="526" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G526" s="3"/>
       <c r="H526" s="3"/>
     </row>
-    <row r="527" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="527" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G527" s="3"/>
       <c r="H527" s="3"/>
     </row>
-    <row r="528" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="528" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G528" s="3"/>
       <c r="H528" s="3"/>
     </row>
-    <row r="529" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="529" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G529" s="3"/>
       <c r="H529" s="3"/>
     </row>
-    <row r="530" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="530" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G530" s="3"/>
       <c r="H530" s="3"/>
     </row>
-    <row r="531" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="531" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G531" s="3"/>
       <c r="H531" s="3"/>
     </row>
-    <row r="532" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="532" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G532" s="3"/>
       <c r="H532" s="3"/>
     </row>
-    <row r="533" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="533" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G533" s="3"/>
       <c r="H533" s="3"/>
     </row>
-    <row r="534" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="534" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G534" s="3"/>
       <c r="H534" s="3"/>
     </row>
-    <row r="535" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="535" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G535" s="3"/>
       <c r="H535" s="3"/>
     </row>
-    <row r="536" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="536" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G536" s="3"/>
       <c r="H536" s="3"/>
     </row>
-    <row r="537" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="537" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G537" s="3"/>
       <c r="H537" s="3"/>
     </row>
-    <row r="538" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="538" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G538" s="3"/>
       <c r="H538" s="3"/>
     </row>
-    <row r="539" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="539" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G539" s="3"/>
       <c r="H539" s="3"/>
     </row>
-    <row r="540" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="540" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G540" s="3"/>
       <c r="H540" s="3"/>
     </row>
-    <row r="541" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="541" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G541" s="3"/>
       <c r="H541" s="3"/>
     </row>
-    <row r="542" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="542" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G542" s="3"/>
       <c r="H542" s="3"/>
     </row>
-    <row r="543" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="543" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G543" s="3"/>
       <c r="H543" s="3"/>
     </row>
-    <row r="544" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="544" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G544" s="3"/>
       <c r="H544" s="3"/>
     </row>
-    <row r="545" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="545" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G545" s="3"/>
       <c r="H545" s="3"/>
     </row>
-    <row r="546" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="546" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G546" s="3"/>
       <c r="H546" s="3"/>
     </row>
-    <row r="547" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="547" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G547" s="3"/>
       <c r="H547" s="3"/>
     </row>
-    <row r="548" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="548" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G548" s="3"/>
       <c r="H548" s="3"/>
     </row>
-    <row r="549" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="549" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G549" s="3"/>
       <c r="H549" s="3"/>
     </row>
-    <row r="550" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="550" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G550" s="3"/>
       <c r="H550" s="3"/>
     </row>
-    <row r="551" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="551" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G551" s="3"/>
       <c r="H551" s="3"/>
     </row>
-    <row r="552" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="552" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G552" s="3"/>
       <c r="H552" s="3"/>
     </row>
-    <row r="553" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="553" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G553" s="3"/>
       <c r="H553" s="3"/>
     </row>
-    <row r="554" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="554" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G554" s="3"/>
       <c r="H554" s="3"/>
     </row>
-    <row r="555" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="555" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G555" s="3"/>
       <c r="H555" s="3"/>
     </row>
-    <row r="556" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="556" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G556" s="3"/>
       <c r="H556" s="3"/>
     </row>
-    <row r="557" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="557" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G557" s="3"/>
       <c r="H557" s="3"/>
     </row>
-    <row r="558" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="558" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G558" s="3"/>
       <c r="H558" s="3"/>
     </row>
-    <row r="559" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="559" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G559" s="3"/>
       <c r="H559" s="3"/>
     </row>
-    <row r="560" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="560" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G560" s="3"/>
       <c r="H560" s="3"/>
     </row>
-    <row r="561" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="561" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G561" s="3"/>
       <c r="H561" s="3"/>
     </row>
-    <row r="562" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="562" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G562" s="3"/>
       <c r="H562" s="3"/>
     </row>
-    <row r="563" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="563" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G563" s="3"/>
       <c r="H563" s="3"/>
     </row>
-    <row r="564" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="564" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G564" s="3"/>
       <c r="H564" s="3"/>
     </row>
-    <row r="565" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="565" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G565" s="3"/>
       <c r="H565" s="3"/>
     </row>
-    <row r="566" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="566" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G566" s="3"/>
       <c r="H566" s="3"/>
     </row>
-    <row r="567" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="567" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G567" s="3"/>
       <c r="H567" s="3"/>
     </row>
-    <row r="568" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="568" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G568" s="3"/>
       <c r="H568" s="3"/>
     </row>
-    <row r="569" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="569" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G569" s="3"/>
       <c r="H569" s="3"/>
     </row>
-    <row r="570" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="570" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G570" s="3"/>
       <c r="H570" s="3"/>
     </row>
-    <row r="571" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="571" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G571" s="3"/>
       <c r="H571" s="3"/>
     </row>
-    <row r="572" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="572" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G572" s="3"/>
       <c r="H572" s="3"/>
     </row>
-    <row r="573" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="573" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G573" s="3"/>
       <c r="H573" s="3"/>
     </row>
-    <row r="574" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="574" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G574" s="3"/>
       <c r="H574" s="3"/>
     </row>
-    <row r="575" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="575" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G575" s="3"/>
       <c r="H575" s="3"/>
     </row>
-    <row r="576" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="576" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G576" s="3"/>
       <c r="H576" s="3"/>
     </row>
-    <row r="577" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="577" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G577" s="3"/>
       <c r="H577" s="3"/>
     </row>
-    <row r="578" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="578" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G578" s="3"/>
       <c r="H578" s="3"/>
     </row>
-    <row r="579" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="579" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G579" s="3"/>
       <c r="H579" s="3"/>
     </row>
-    <row r="580" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="580" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G580" s="3"/>
       <c r="H580" s="3"/>
     </row>
-    <row r="581" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="581" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G581" s="3"/>
       <c r="H581" s="3"/>
     </row>
-    <row r="582" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="582" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G582" s="3"/>
       <c r="H582" s="3"/>
     </row>
-    <row r="583" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="583" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G583" s="3"/>
       <c r="H583" s="3"/>
     </row>
-    <row r="584" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="584" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G584" s="3"/>
       <c r="H584" s="3"/>
     </row>
-    <row r="585" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="585" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G585" s="3"/>
       <c r="H585" s="3"/>
     </row>
-    <row r="586" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="586" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G586" s="3"/>
       <c r="H586" s="3"/>
     </row>
-    <row r="587" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="587" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G587" s="3"/>
       <c r="H587" s="3"/>
     </row>
-    <row r="588" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="588" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G588" s="3"/>
       <c r="H588" s="3"/>
     </row>
-    <row r="589" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="589" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G589" s="3"/>
       <c r="H589" s="3"/>
     </row>
-    <row r="590" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="590" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G590" s="3"/>
       <c r="H590" s="3"/>
     </row>
-    <row r="591" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="591" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G591" s="3"/>
       <c r="H591" s="3"/>
     </row>
-    <row r="592" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="592" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G592" s="3"/>
       <c r="H592" s="3"/>
     </row>
-    <row r="593" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="593" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G593" s="3"/>
       <c r="H593" s="3"/>
     </row>
-    <row r="594" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="594" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G594" s="3"/>
       <c r="H594" s="3"/>
     </row>
-    <row r="595" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="595" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G595" s="3"/>
       <c r="H595" s="3"/>
     </row>
-    <row r="596" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="596" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G596" s="3"/>
       <c r="H596" s="3"/>
     </row>
-    <row r="597" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="597" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G597" s="3"/>
       <c r="H597" s="3"/>
     </row>
-    <row r="598" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="598" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G598" s="3"/>
       <c r="H598" s="3"/>
     </row>
-    <row r="599" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="599" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G599" s="3"/>
       <c r="H599" s="3"/>
     </row>
-    <row r="600" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="600" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G600" s="3"/>
       <c r="H600" s="3"/>
     </row>
-    <row r="601" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="601" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G601" s="3"/>
       <c r="H601" s="3"/>
     </row>
-    <row r="602" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="602" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G602" s="3"/>
       <c r="H602" s="3"/>
     </row>
-    <row r="603" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="603" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G603" s="3"/>
       <c r="H603" s="3"/>
     </row>
-    <row r="604" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="604" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G604" s="3"/>
       <c r="H604" s="3"/>
     </row>
-    <row r="605" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="605" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G605" s="3"/>
       <c r="H605" s="3"/>
     </row>
-    <row r="606" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="606" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G606" s="3"/>
       <c r="H606" s="3"/>
     </row>
-    <row r="607" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="607" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G607" s="3"/>
       <c r="H607" s="3"/>
     </row>
-    <row r="608" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="608" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G608" s="3"/>
       <c r="H608" s="3"/>
     </row>
-    <row r="609" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="609" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G609" s="3"/>
       <c r="H609" s="3"/>
     </row>
-    <row r="610" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="610" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G610" s="3"/>
       <c r="H610" s="3"/>
     </row>
-    <row r="611" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="611" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G611" s="3"/>
       <c r="H611" s="3"/>
     </row>
-    <row r="612" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="612" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G612" s="3"/>
       <c r="H612" s="3"/>
     </row>
-    <row r="613" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="613" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G613" s="3"/>
       <c r="H613" s="3"/>
     </row>
-    <row r="614" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="614" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G614" s="3"/>
       <c r="H614" s="3"/>
     </row>
-    <row r="615" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="615" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G615" s="3"/>
       <c r="H615" s="3"/>
     </row>
-    <row r="616" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="616" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G616" s="3"/>
       <c r="H616" s="3"/>
     </row>
-    <row r="617" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="617" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G617" s="3"/>
       <c r="H617" s="3"/>
     </row>
-    <row r="618" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="618" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G618" s="3"/>
       <c r="H618" s="3"/>
     </row>
-    <row r="619" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="619" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G619" s="3"/>
       <c r="H619" s="3"/>
     </row>
-    <row r="620" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="620" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G620" s="3"/>
       <c r="H620" s="3"/>
     </row>
-    <row r="621" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="621" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G621" s="3"/>
       <c r="H621" s="3"/>
     </row>
-    <row r="622" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="622" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G622" s="3"/>
       <c r="H622" s="3"/>
     </row>
-    <row r="623" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="623" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G623" s="3"/>
       <c r="H623" s="3"/>
     </row>
-    <row r="624" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="624" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G624" s="3"/>
       <c r="H624" s="3"/>
     </row>
-    <row r="625" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="625" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G625" s="3"/>
       <c r="H625" s="3"/>
     </row>
-    <row r="626" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="626" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G626" s="3"/>
       <c r="H626" s="3"/>
     </row>
-    <row r="627" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="627" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G627" s="3"/>
       <c r="H627" s="3"/>
     </row>
-    <row r="628" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="628" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G628" s="3"/>
       <c r="H628" s="3"/>
     </row>
-    <row r="629" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="629" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G629" s="3"/>
       <c r="H629" s="3"/>
     </row>
-    <row r="630" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="630" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G630" s="3"/>
       <c r="H630" s="3"/>
     </row>
-    <row r="631" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="631" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G631" s="3"/>
       <c r="H631" s="3"/>
     </row>
-    <row r="632" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="632" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G632" s="3"/>
       <c r="H632" s="3"/>
     </row>
-    <row r="633" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="633" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G633" s="3"/>
       <c r="H633" s="3"/>
     </row>
-    <row r="634" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="634" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G634" s="3"/>
       <c r="H634" s="3"/>
     </row>
-    <row r="635" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="635" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G635" s="3"/>
       <c r="H635" s="3"/>
     </row>
-    <row r="636" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="636" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G636" s="3"/>
       <c r="H636" s="3"/>
     </row>
-    <row r="637" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="637" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G637" s="3"/>
       <c r="H637" s="3"/>
     </row>
-    <row r="638" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="638" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G638" s="3"/>
       <c r="H638" s="3"/>
     </row>
-    <row r="639" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="639" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G639" s="3"/>
       <c r="H639" s="3"/>
     </row>
-    <row r="640" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="640" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G640" s="3"/>
       <c r="H640" s="3"/>
     </row>
-    <row r="641" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="641" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G641" s="3"/>
       <c r="H641" s="3"/>
     </row>
-    <row r="642" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="642" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G642" s="3"/>
       <c r="H642" s="3"/>
     </row>
-    <row r="643" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="643" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G643" s="3"/>
       <c r="H643" s="3"/>
     </row>
-    <row r="644" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="644" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G644" s="3"/>
       <c r="H644" s="3"/>
     </row>
-    <row r="645" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="645" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G645" s="3"/>
       <c r="H645" s="3"/>
     </row>
-    <row r="646" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="646" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G646" s="3"/>
       <c r="H646" s="3"/>
     </row>
-    <row r="647" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="647" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G647" s="3"/>
       <c r="H647" s="3"/>
     </row>
-    <row r="648" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="648" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G648" s="3"/>
       <c r="H648" s="3"/>
     </row>
-    <row r="649" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="649" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G649" s="3"/>
       <c r="H649" s="3"/>
     </row>
-    <row r="650" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="650" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G650" s="3"/>
       <c r="H650" s="3"/>
     </row>
-    <row r="651" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="651" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G651" s="3"/>
       <c r="H651" s="3"/>
     </row>
-    <row r="652" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="652" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G652" s="3"/>
       <c r="H652" s="3"/>
     </row>
-    <row r="653" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="653" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G653" s="3"/>
       <c r="H653" s="3"/>
     </row>
-    <row r="654" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="654" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G654" s="3"/>
       <c r="H654" s="3"/>
     </row>
-    <row r="655" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="655" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G655" s="3"/>
       <c r="H655" s="3"/>
     </row>
-    <row r="656" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="656" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G656" s="3"/>
       <c r="H656" s="3"/>
     </row>
-    <row r="657" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="657" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G657" s="3"/>
       <c r="H657" s="3"/>
     </row>
-    <row r="658" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="658" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G658" s="3"/>
       <c r="H658" s="3"/>
     </row>
-    <row r="659" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="659" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G659" s="3"/>
       <c r="H659" s="3"/>
     </row>
-    <row r="660" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="660" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G660" s="3"/>
       <c r="H660" s="3"/>
     </row>
-    <row r="661" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="661" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G661" s="3"/>
       <c r="H661" s="3"/>
     </row>
-    <row r="662" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="662" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G662" s="3"/>
       <c r="H662" s="3"/>
     </row>
-    <row r="663" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="663" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G663" s="3"/>
       <c r="H663" s="3"/>
     </row>
-    <row r="664" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="664" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G664" s="3"/>
       <c r="H664" s="3"/>
     </row>
-    <row r="665" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="665" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G665" s="3"/>
       <c r="H665" s="3"/>
     </row>
-    <row r="666" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="666" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G666" s="3"/>
       <c r="H666" s="3"/>
     </row>
-    <row r="667" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="667" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G667" s="3"/>
       <c r="H667" s="3"/>
     </row>
-    <row r="668" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="668" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G668" s="3"/>
       <c r="H668" s="3"/>
     </row>
-    <row r="669" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="669" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G669" s="3"/>
       <c r="H669" s="3"/>
     </row>
-    <row r="670" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="670" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G670" s="3"/>
       <c r="H670" s="3"/>
     </row>
-    <row r="671" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="671" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G671" s="3"/>
       <c r="H671" s="3"/>
     </row>
-    <row r="672" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="672" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G672" s="3"/>
       <c r="H672" s="3"/>
     </row>
-    <row r="673" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="673" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G673" s="3"/>
       <c r="H673" s="3"/>
     </row>
-    <row r="674" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="674" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G674" s="3"/>
       <c r="H674" s="3"/>
     </row>
-    <row r="675" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="675" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G675" s="3"/>
       <c r="H675" s="3"/>
     </row>
-    <row r="676" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="676" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G676" s="3"/>
       <c r="H676" s="3"/>
     </row>
-    <row r="677" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="677" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G677" s="3"/>
       <c r="H677" s="3"/>
     </row>
-    <row r="678" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="678" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G678" s="3"/>
       <c r="H678" s="3"/>
     </row>
-    <row r="679" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="679" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G679" s="3"/>
       <c r="H679" s="3"/>
     </row>
-    <row r="680" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="680" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G680" s="3"/>
       <c r="H680" s="3"/>
     </row>
-    <row r="681" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="681" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G681" s="3"/>
       <c r="H681" s="3"/>
     </row>
-    <row r="682" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="682" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G682" s="3"/>
       <c r="H682" s="3"/>
     </row>
-    <row r="683" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="683" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G683" s="3"/>
       <c r="H683" s="3"/>
     </row>
-    <row r="684" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="684" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G684" s="3"/>
       <c r="H684" s="3"/>
     </row>
-    <row r="685" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="685" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G685" s="3"/>
       <c r="H685" s="3"/>
     </row>
-    <row r="686" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="686" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G686" s="3"/>
       <c r="H686" s="3"/>
     </row>
-    <row r="687" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="687" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G687" s="3"/>
       <c r="H687" s="3"/>
     </row>
-    <row r="688" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="688" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G688" s="3"/>
       <c r="H688" s="3"/>
     </row>
-    <row r="689" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="689" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G689" s="3"/>
       <c r="H689" s="3"/>
     </row>
-    <row r="690" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="690" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G690" s="3"/>
       <c r="H690" s="3"/>
     </row>
-    <row r="691" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="691" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G691" s="3"/>
       <c r="H691" s="3"/>
     </row>
-    <row r="692" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="692" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G692" s="3"/>
       <c r="H692" s="3"/>
     </row>
-    <row r="693" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="693" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G693" s="3"/>
       <c r="H693" s="3"/>
     </row>
-    <row r="694" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="694" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G694" s="3"/>
       <c r="H694" s="3"/>
     </row>
-    <row r="695" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="695" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G695" s="3"/>
       <c r="H695" s="3"/>
     </row>
-    <row r="696" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="696" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G696" s="3"/>
       <c r="H696" s="3"/>
     </row>
-    <row r="697" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="697" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G697" s="3"/>
       <c r="H697" s="3"/>
     </row>
-    <row r="698" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="698" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G698" s="3"/>
       <c r="H698" s="3"/>
     </row>
-    <row r="699" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="699" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G699" s="3"/>
       <c r="H699" s="3"/>
     </row>
-    <row r="700" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="700" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G700" s="3"/>
       <c r="H700" s="3"/>
     </row>
-    <row r="701" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="701" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G701" s="3"/>
       <c r="H701" s="3"/>
     </row>
-    <row r="702" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="702" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G702" s="3"/>
       <c r="H702" s="3"/>
     </row>
-    <row r="703" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="703" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G703" s="3"/>
       <c r="H703" s="3"/>
     </row>
-    <row r="704" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="704" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G704" s="3"/>
       <c r="H704" s="3"/>
     </row>
-    <row r="705" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="705" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G705" s="3"/>
       <c r="H705" s="3"/>
     </row>
-    <row r="706" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="706" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G706" s="3"/>
       <c r="H706" s="3"/>
     </row>
-    <row r="707" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="707" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G707" s="3"/>
       <c r="H707" s="3"/>
     </row>
-    <row r="708" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="708" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G708" s="3"/>
       <c r="H708" s="3"/>
     </row>
-    <row r="709" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="709" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G709" s="3"/>
       <c r="H709" s="3"/>
     </row>
-    <row r="710" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="710" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G710" s="3"/>
       <c r="H710" s="3"/>
     </row>
-    <row r="711" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="711" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G711" s="3"/>
       <c r="H711" s="3"/>
     </row>
-    <row r="712" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="712" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G712" s="3"/>
       <c r="H712" s="3"/>
     </row>
-    <row r="713" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="713" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G713" s="3"/>
       <c r="H713" s="3"/>
     </row>
-    <row r="714" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="714" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G714" s="3"/>
       <c r="H714" s="3"/>
     </row>
-    <row r="715" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="715" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G715" s="3"/>
       <c r="H715" s="3"/>
     </row>
-    <row r="716" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="716" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G716" s="3"/>
       <c r="H716" s="3"/>
     </row>
-    <row r="717" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="717" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G717" s="3"/>
       <c r="H717" s="3"/>
     </row>
-    <row r="718" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="718" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G718" s="3"/>
       <c r="H718" s="3"/>
     </row>
-    <row r="719" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="719" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G719" s="3"/>
       <c r="H719" s="3"/>
     </row>
-    <row r="720" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="720" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G720" s="3"/>
       <c r="H720" s="3"/>
     </row>
-    <row r="721" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="721" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G721" s="3"/>
       <c r="H721" s="3"/>
     </row>
-    <row r="722" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="722" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G722" s="3"/>
       <c r="H722" s="3"/>
     </row>
-    <row r="723" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="723" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G723" s="3"/>
       <c r="H723" s="3"/>
     </row>
-    <row r="724" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="724" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G724" s="3"/>
       <c r="H724" s="3"/>
     </row>
-    <row r="725" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="725" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G725" s="3"/>
       <c r="H725" s="3"/>
     </row>
-    <row r="726" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="726" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G726" s="3"/>
       <c r="H726" s="3"/>
     </row>
-    <row r="727" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="727" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G727" s="3"/>
       <c r="H727" s="3"/>
     </row>
-    <row r="728" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="728" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G728" s="3"/>
       <c r="H728" s="3"/>
     </row>
-    <row r="729" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="729" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G729" s="3"/>
       <c r="H729" s="3"/>
     </row>
-    <row r="730" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="730" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G730" s="3"/>
       <c r="H730" s="3"/>
     </row>
-    <row r="731" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="731" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G731" s="3"/>
       <c r="H731" s="3"/>
     </row>
-    <row r="732" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="732" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G732" s="3"/>
       <c r="H732" s="3"/>
     </row>
-    <row r="733" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="733" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G733" s="3"/>
       <c r="H733" s="3"/>
     </row>
-    <row r="734" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="734" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G734" s="3"/>
       <c r="H734" s="3"/>
     </row>
-    <row r="735" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="735" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G735" s="3"/>
       <c r="H735" s="3"/>
     </row>
-    <row r="736" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="736" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G736" s="3"/>
       <c r="H736" s="3"/>
     </row>
-    <row r="737" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="737" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G737" s="3"/>
       <c r="H737" s="3"/>
     </row>
-    <row r="738" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="738" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G738" s="3"/>
       <c r="H738" s="3"/>
     </row>
-    <row r="739" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="739" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G739" s="3"/>
       <c r="H739" s="3"/>
     </row>
-    <row r="740" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="740" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G740" s="3"/>
       <c r="H740" s="3"/>
     </row>
-    <row r="741" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="741" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G741" s="3"/>
       <c r="H741" s="3"/>
     </row>
-    <row r="742" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="742" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G742" s="3"/>
       <c r="H742" s="3"/>
     </row>
-    <row r="743" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="743" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G743" s="3"/>
       <c r="H743" s="3"/>
     </row>
-    <row r="744" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="744" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G744" s="3"/>
       <c r="H744" s="3"/>
     </row>
-    <row r="745" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="745" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G745" s="3"/>
       <c r="H745" s="3"/>
     </row>
-    <row r="746" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="746" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G746" s="3"/>
       <c r="H746" s="3"/>
     </row>
-    <row r="747" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="747" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G747" s="3"/>
       <c r="H747" s="3"/>
     </row>
-    <row r="748" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="748" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G748" s="3"/>
       <c r="H748" s="3"/>
     </row>
-    <row r="749" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="749" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G749" s="3"/>
       <c r="H749" s="3"/>
     </row>
-    <row r="750" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="750" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G750" s="3"/>
       <c r="H750" s="3"/>
     </row>
-    <row r="751" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="751" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G751" s="3"/>
       <c r="H751" s="3"/>
     </row>
-    <row r="752" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="752" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G752" s="3"/>
       <c r="H752" s="3"/>
     </row>
-    <row r="753" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="753" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G753" s="3"/>
       <c r="H753" s="3"/>
     </row>
-    <row r="754" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="754" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G754" s="3"/>
       <c r="H754" s="3"/>
     </row>
-    <row r="755" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="755" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G755" s="3"/>
       <c r="H755" s="3"/>
     </row>
-    <row r="756" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="756" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G756" s="3"/>
       <c r="H756" s="3"/>
     </row>
-    <row r="757" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="757" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G757" s="3"/>
       <c r="H757" s="3"/>
     </row>
-    <row r="758" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="758" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G758" s="3"/>
       <c r="H758" s="3"/>
     </row>
-    <row r="759" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="759" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G759" s="3"/>
       <c r="H759" s="3"/>
     </row>
-    <row r="760" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="760" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G760" s="3"/>
       <c r="H760" s="3"/>
     </row>
-    <row r="761" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="761" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G761" s="3"/>
       <c r="H761" s="3"/>
     </row>
-    <row r="762" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="762" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G762" s="3"/>
       <c r="H762" s="3"/>
     </row>
-    <row r="763" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="763" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G763" s="3"/>
       <c r="H763" s="3"/>
     </row>
-    <row r="764" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="764" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G764" s="3"/>
       <c r="H764" s="3"/>
     </row>
-    <row r="765" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="765" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G765" s="3"/>
       <c r="H765" s="3"/>
     </row>
-    <row r="766" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="766" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G766" s="3"/>
       <c r="H766" s="3"/>
     </row>
-    <row r="767" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="767" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G767" s="3"/>
       <c r="H767" s="3"/>
     </row>
-    <row r="768" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="768" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G768" s="3"/>
       <c r="H768" s="3"/>
     </row>
-    <row r="769" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="769" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G769" s="3"/>
       <c r="H769" s="3"/>
     </row>
-    <row r="770" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="770" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G770" s="3"/>
       <c r="H770" s="3"/>
     </row>
-    <row r="771" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="771" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G771" s="3"/>
       <c r="H771" s="3"/>
     </row>
-    <row r="772" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="772" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G772" s="3"/>
       <c r="H772" s="3"/>
     </row>
-    <row r="773" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="773" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G773" s="3"/>
       <c r="H773" s="3"/>
     </row>
-    <row r="774" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="774" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G774" s="3"/>
       <c r="H774" s="3"/>
     </row>
-    <row r="775" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="775" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G775" s="3"/>
       <c r="H775" s="3"/>
     </row>
-    <row r="776" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="776" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G776" s="3"/>
       <c r="H776" s="3"/>
     </row>
-    <row r="777" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="777" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G777" s="3"/>
       <c r="H777" s="3"/>
     </row>
-    <row r="778" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="778" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G778" s="3"/>
       <c r="H778" s="3"/>
     </row>
-    <row r="779" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="779" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G779" s="3"/>
       <c r="H779" s="3"/>
     </row>
-    <row r="780" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="780" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G780" s="3"/>
       <c r="H780" s="3"/>
     </row>
-    <row r="781" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="781" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G781" s="3"/>
       <c r="H781" s="3"/>
     </row>
-    <row r="782" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="782" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G782" s="3"/>
       <c r="H782" s="3"/>
     </row>
-    <row r="783" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="783" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G783" s="3"/>
       <c r="H783" s="3"/>
     </row>
-    <row r="784" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="784" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G784" s="3"/>
       <c r="H784" s="3"/>
     </row>
-    <row r="785" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="785" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G785" s="3"/>
       <c r="H785" s="3"/>
     </row>
-    <row r="786" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="786" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G786" s="3"/>
       <c r="H786" s="3"/>
     </row>
-    <row r="787" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="787" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G787" s="3"/>
       <c r="H787" s="3"/>
     </row>
-    <row r="788" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="788" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G788" s="3"/>
       <c r="H788" s="3"/>
     </row>
-    <row r="789" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="789" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G789" s="3"/>
       <c r="H789" s="3"/>
     </row>
-    <row r="790" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="790" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G790" s="3"/>
       <c r="H790" s="3"/>
     </row>
-    <row r="791" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="791" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G791" s="3"/>
       <c r="H791" s="3"/>
     </row>
-    <row r="792" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="792" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G792" s="3"/>
       <c r="H792" s="3"/>
     </row>
-    <row r="793" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="793" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="G793" s="3"/>
       <c r="H793" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E793"/>
+  <autoFilter ref="A1:H793">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="E1:E20 E23:E102 E104:E1048576">
     <cfRule type="expression" dxfId="55" priority="19" stopIfTrue="1">
       <formula>D1="c"</formula>
@@ -17821,8 +17863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M793"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17890,7 +17932,7 @@
       </c>
       <c r="H2" s="3">
         <f>'2018'!H151-E2</f>
-        <v>5193.4300000000076</v>
+        <v>4903.4300000000076</v>
       </c>
       <c r="J2" s="3">
         <v>145</v>
@@ -17924,7 +17966,7 @@
       </c>
       <c r="H3" s="3">
         <f>IF(D3="C",H2-E3+F3,H2+F3)</f>
-        <v>5048.4300000000076</v>
+        <v>4758.4300000000076</v>
       </c>
       <c r="J3" s="3"/>
       <c r="M3" s="3"/>
@@ -17946,7 +17988,7 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4:H8" si="0">IF(D4="C",H3-E4+F4,H3+F4)</f>
-        <v>5062.6900000000078</v>
+        <v>4772.6900000000078</v>
       </c>
       <c r="J4" s="3"/>
       <c r="M4" s="3"/>
@@ -17968,7 +18010,7 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>5076.950000000008</v>
+        <v>4786.950000000008</v>
       </c>
       <c r="J5" s="3"/>
       <c r="M5" s="3"/>
@@ -17990,7 +18032,7 @@
       </c>
       <c r="H6" s="3">
         <f>IF(D6="C",H5-E6+F6,H5+F6)</f>
-        <v>5091.2100000000082</v>
+        <v>4801.2100000000082</v>
       </c>
       <c r="J6" s="24"/>
       <c r="M6" s="3"/>
@@ -18012,7 +18054,7 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>5105.4700000000084</v>
+        <v>4815.4700000000084</v>
       </c>
       <c r="J7" s="3"/>
     </row>
@@ -18026,7 +18068,9 @@
       <c r="C8" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E8" s="3">
         <v>145</v>
       </c>
@@ -18037,488 +18081,795 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>5105.4700000000084</v>
+        <v>4670.4700000000084</v>
       </c>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="22">
+        <v>43488</v>
+      </c>
+      <c r="B9">
+        <v>1394</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3">
+        <v>500</v>
+      </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3" t="str">
+      <c r="G9" s="3">
         <f>IF(ISBLANK(A9),"",'2019'!G8-E9+F9)</f>
-        <v/>
-      </c>
-      <c r="H9" s="3" t="str">
+        <v>4170.4700000000084</v>
+      </c>
+      <c r="H9" s="3">
         <f>IF(ISBLANK(A9),"",IF(D9="C",H8-E9+F9,H8+F9))</f>
-        <v/>
+        <v>4170.4700000000084</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="22">
+        <v>43489</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="D10" s="8"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="str">
+      <c r="F10" s="3">
+        <v>14.26</v>
+      </c>
+      <c r="G10" s="3">
         <f>IF(ISBLANK(A10),"",'2019'!G9-E10+F10)</f>
-        <v/>
-      </c>
-      <c r="H10" s="3" t="str">
+        <v>4184.7300000000087</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" ref="H10:H73" si="1">IF(ISBLANK(A10),"",IF(D10="C",H9-E10+F10,H9+F10))</f>
-        <v/>
+        <v>4184.7300000000087</v>
       </c>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="C11" s="20"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="str">
+      <c r="A11" s="22">
+        <v>43490</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="3">
+        <v>14.26</v>
+      </c>
+      <c r="G11" s="3">
         <f>IF(ISBLANK(A11),"",'2019'!G10-E11+F11)</f>
-        <v/>
-      </c>
-      <c r="H11" s="3" t="str">
+        <v>4198.9900000000089</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>4198.9900000000089</v>
       </c>
       <c r="J11" s="3"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="28">
+        <v>43494</v>
+      </c>
+      <c r="B12">
+        <v>1395</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3">
+        <v>528.23</v>
+      </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3" t="str">
+      <c r="G12" s="3">
         <f>IF(ISBLANK(A12),"",'2019'!G11-E12+F12)</f>
-        <v/>
-      </c>
-      <c r="H12" s="3" t="str">
+        <v>3670.7600000000089</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3670.7600000000089</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="28">
+        <v>43496</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="D13" s="8"/>
-      <c r="G13" s="3" t="str">
+      <c r="F13">
+        <v>128.34</v>
+      </c>
+      <c r="G13" s="3">
         <f>IF(ISBLANK(A13),"",'2019'!G12-E13+F13)</f>
-        <v/>
-      </c>
-      <c r="H13" s="3" t="str">
+        <v>3799.100000000009</v>
+      </c>
+      <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3799.100000000009</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="28">
+        <v>43497</v>
+      </c>
+      <c r="B14">
+        <v>1396</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1574.33</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3" t="str">
+      <c r="G14" s="3">
         <f>IF(ISBLANK(A14),"",'2019'!G13-E14+F14)</f>
-        <v/>
-      </c>
-      <c r="H14" s="3" t="str">
+        <v>2224.7700000000091</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2224.7700000000091</v>
       </c>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="C15" s="20"/>
-      <c r="G15" s="3" t="str">
+      <c r="A15" s="28">
+        <v>43497</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="F15" s="9">
+        <v>57.04</v>
+      </c>
+      <c r="G15" s="3">
         <f>IF(ISBLANK(A15),"",'2019'!G14-E15+F15)</f>
-        <v/>
-      </c>
-      <c r="H15" s="3" t="str">
+        <v>2281.810000000009</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2281.810000000009</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="C16" s="20"/>
+      <c r="A16" s="28">
+        <v>43497</v>
+      </c>
+      <c r="B16">
+        <v>1397</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3">
+        <v>145</v>
+      </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3" t="str">
+      <c r="G16" s="3">
         <f>IF(ISBLANK(A16),"",'2019'!G15-E16+F16)</f>
-        <v/>
-      </c>
-      <c r="H16" s="3" t="str">
+        <v>2136.810000000009</v>
+      </c>
+      <c r="H16" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2136.810000000009</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="C17" s="20"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="str">
+      <c r="A17" s="28">
+        <v>43500</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="3">
+        <v>42.78</v>
+      </c>
+      <c r="G17" s="3">
         <f>IF(ISBLANK(A17),"",'2019'!G16-E17+F17)</f>
-        <v/>
-      </c>
-      <c r="H17" s="3" t="str">
+        <v>2179.5900000000092</v>
+      </c>
+      <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2179.5900000000092</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="C18" s="20"/>
-      <c r="G18" s="3" t="str">
+      <c r="A18" s="28">
+        <v>43500</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18">
+        <v>128.34</v>
+      </c>
+      <c r="G18" s="3">
         <f>IF(ISBLANK(A18),"",'2019'!G17-E18+F18)</f>
-        <v/>
-      </c>
-      <c r="H18" s="3" t="str">
+        <v>2307.9300000000094</v>
+      </c>
+      <c r="H18" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2307.9300000000094</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="C19" s="20"/>
-      <c r="G19" s="3" t="str">
+      <c r="A19" s="28">
+        <v>43502</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19">
+        <v>85.56</v>
+      </c>
+      <c r="G19" s="3">
         <f>IF(ISBLANK(A19),"",'2019'!G18-E19+F19)</f>
-        <v/>
-      </c>
-      <c r="H19" s="3" t="str">
+        <v>2393.4900000000093</v>
+      </c>
+      <c r="H19" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2393.4900000000093</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="C20" s="20"/>
+      <c r="A20" s="28">
+        <v>43503</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="D20" s="8"/>
-      <c r="G20" s="3" t="str">
+      <c r="F20">
+        <v>57.04</v>
+      </c>
+      <c r="G20" s="3">
         <f>IF(ISBLANK(A20),"",'2019'!G19-E20+F20)</f>
-        <v/>
-      </c>
-      <c r="H20" s="3" t="str">
+        <v>2450.5300000000093</v>
+      </c>
+      <c r="H20" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2450.5300000000093</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="C21" s="20"/>
-      <c r="G21" s="3" t="str">
+      <c r="A21" s="28">
+        <v>43504</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F21">
+        <v>42.78</v>
+      </c>
+      <c r="G21" s="3">
         <f>IF(ISBLANK(A21),"",'2019'!G20-E21+F21)</f>
-        <v/>
-      </c>
-      <c r="H21" s="3" t="str">
+        <v>2493.3100000000095</v>
+      </c>
+      <c r="H21" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2493.3100000000095</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="C22" s="20"/>
-      <c r="G22" s="3" t="str">
+      <c r="A22" s="28">
+        <v>43507</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F22">
+        <v>42.78</v>
+      </c>
+      <c r="G22" s="3">
         <f>IF(ISBLANK(A22),"",'2019'!G21-E22+F22)</f>
-        <v/>
-      </c>
-      <c r="H22" s="3" t="str">
+        <v>2536.0900000000097</v>
+      </c>
+      <c r="H22" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2536.0900000000097</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="C23" s="20"/>
-      <c r="G23" s="3" t="str">
+      <c r="A23" s="28">
+        <v>43507</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F23">
+        <v>42.78</v>
+      </c>
+      <c r="G23" s="3">
         <f>IF(ISBLANK(A23),"",'2019'!G22-E23+F23)</f>
-        <v/>
-      </c>
-      <c r="H23" s="3" t="str">
+        <v>2578.8700000000099</v>
+      </c>
+      <c r="H23" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2578.8700000000099</v>
       </c>
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="C24" s="20"/>
-      <c r="G24" s="3" t="str">
+      <c r="A24" s="28">
+        <v>43508</v>
+      </c>
+      <c r="B24">
+        <v>1399</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="E24" s="3">
+        <v>145</v>
+      </c>
+      <c r="G24" s="3">
         <f>IF(ISBLANK(A24),"",'2019'!G23-E24+F24)</f>
-        <v/>
-      </c>
-      <c r="H24" s="3" t="str">
+        <v>2433.8700000000099</v>
+      </c>
+      <c r="H24" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2578.8700000000099</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="C25" s="20"/>
-      <c r="G25" s="3" t="str">
+      <c r="A25" s="28">
+        <v>43510</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25">
+        <v>14.26</v>
+      </c>
+      <c r="G25" s="3">
         <f>IF(ISBLANK(A25),"",'2019'!G24-E25+F25)</f>
-        <v/>
-      </c>
-      <c r="H25" s="3" t="str">
+        <v>2448.1300000000101</v>
+      </c>
+      <c r="H25" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2593.1300000000101</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="28">
+        <v>43515</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="D26" s="8"/>
-      <c r="G26" s="3" t="str">
+      <c r="F26">
+        <v>14.26</v>
+      </c>
+      <c r="G26" s="3">
         <f>IF(ISBLANK(A26),"",'2019'!G25-E26+F26)</f>
-        <v/>
-      </c>
-      <c r="H26" s="3" t="str">
+        <v>2462.3900000000103</v>
+      </c>
+      <c r="H26" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2607.3900000000103</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="C27" s="20"/>
+      <c r="A27" s="28">
+        <v>43517</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="D27" s="8"/>
-      <c r="G27" s="3" t="str">
+      <c r="F27">
+        <v>14.26</v>
+      </c>
+      <c r="G27" s="3">
         <f>IF(ISBLANK(A27),"",'2019'!G26-E27+F27)</f>
-        <v/>
-      </c>
-      <c r="H27" s="3" t="str">
+        <v>2476.6500000000106</v>
+      </c>
+      <c r="H27" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2621.6500000000106</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="C28" s="20"/>
+      <c r="A28" s="28">
+        <v>43518</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="D28" s="8"/>
-      <c r="G28" s="3" t="str">
+      <c r="F28">
+        <v>14.26</v>
+      </c>
+      <c r="G28" s="3">
         <f>IF(ISBLANK(A28),"",'2019'!G27-E28+F28)</f>
-        <v/>
-      </c>
-      <c r="H28" s="3" t="str">
+        <v>2490.9100000000108</v>
+      </c>
+      <c r="H28" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2635.9100000000108</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="C29" s="20"/>
-      <c r="G29" s="3" t="str">
+      <c r="A29" s="28">
+        <v>43521</v>
+      </c>
+      <c r="B29">
+        <v>1400</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="3">
+        <v>132.69999999999999</v>
+      </c>
+      <c r="G29" s="3">
         <f>IF(ISBLANK(A29),"",'2019'!G28-E29+F29)</f>
-        <v/>
-      </c>
-      <c r="H29" s="3" t="str">
+        <v>2358.210000000011</v>
+      </c>
+      <c r="H29" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2503.210000000011</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="C30" s="20"/>
-      <c r="G30" s="3" t="str">
+      <c r="A30" s="33">
+        <v>43524</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F30">
+        <v>57.04</v>
+      </c>
+      <c r="G30" s="3">
         <f>IF(ISBLANK(A30),"",'2019'!G29-E30+F30)</f>
-        <v/>
-      </c>
-      <c r="H30" s="3" t="str">
+        <v>2415.2500000000109</v>
+      </c>
+      <c r="H30" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2560.2500000000109</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="C31" s="20"/>
-      <c r="G31" s="3" t="str">
+      <c r="A31" s="28">
+        <v>43525</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F31">
+        <v>14.26</v>
+      </c>
+      <c r="G31" s="3">
         <f>IF(ISBLANK(A31),"",'2019'!G30-E31+F31)</f>
-        <v/>
-      </c>
-      <c r="H31" s="3" t="str">
+        <v>2429.5100000000111</v>
+      </c>
+      <c r="H31" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2574.5100000000111</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="C32" s="20"/>
-      <c r="G32" s="3" t="str">
+      <c r="A32" s="28">
+        <v>43528</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F32">
+        <v>28.22</v>
+      </c>
+      <c r="G32" s="3">
         <f>IF(ISBLANK(A32),"",'2019'!G31-E32+F32)</f>
-        <v/>
-      </c>
-      <c r="H32" s="3" t="str">
+        <v>2457.7300000000109</v>
+      </c>
+      <c r="H32" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2602.7300000000109</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="C33" s="20"/>
-      <c r="G33" s="3" t="str">
+      <c r="A33" s="28">
+        <v>43528</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F33">
+        <v>85.56</v>
+      </c>
+      <c r="G33" s="3">
         <f>IF(ISBLANK(A33),"",'2019'!G32-E33+F33)</f>
-        <v/>
-      </c>
-      <c r="H33" s="3" t="str">
+        <v>2543.2900000000109</v>
+      </c>
+      <c r="H33" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2688.2900000000109</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="C34" s="20"/>
-      <c r="G34" s="3" t="str">
+      <c r="A34" s="28">
+        <v>43529</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F34">
+        <v>14.26</v>
+      </c>
+      <c r="G34" s="3">
         <f>IF(ISBLANK(A34),"",'2019'!G33-E34+F34)</f>
-        <v/>
-      </c>
-      <c r="H34" s="3" t="str">
+        <v>2557.5500000000111</v>
+      </c>
+      <c r="H34" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2702.5500000000111</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="C35" s="8"/>
+      <c r="A35" s="28">
+        <v>43529</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="D35" s="8"/>
-      <c r="G35" s="3" t="str">
+      <c r="F35">
+        <v>57.04</v>
+      </c>
+      <c r="G35" s="3">
         <f>IF(ISBLANK(A35),"",'2019'!G34-E35+F35)</f>
-        <v/>
-      </c>
-      <c r="H35" s="3" t="str">
+        <v>2614.5900000000111</v>
+      </c>
+      <c r="H35" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2759.5900000000111</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="C36" s="20"/>
-      <c r="G36" s="3" t="str">
+      <c r="A36" s="28">
+        <v>43530</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F36">
+        <v>28.52</v>
+      </c>
+      <c r="G36" s="3">
         <f>IF(ISBLANK(A36),"",'2019'!G35-E36+F36)</f>
-        <v/>
-      </c>
-      <c r="H36" s="3" t="str">
+        <v>2643.110000000011</v>
+      </c>
+      <c r="H36" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>2788.110000000011</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="C37" s="20"/>
-      <c r="G37" s="3" t="str">
+      <c r="A37" s="28">
+        <v>43531</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F37">
+        <v>465</v>
+      </c>
+      <c r="G37" s="3">
         <f>IF(ISBLANK(A37),"",'2019'!G36-E37+F37)</f>
-        <v/>
-      </c>
-      <c r="H37" s="3" t="str">
+        <v>3108.110000000011</v>
+      </c>
+      <c r="H37" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3253.110000000011</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="C38" s="20"/>
-      <c r="G38" s="3" t="str">
+      <c r="A38" s="28">
+        <v>43532</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F38">
+        <v>14.26</v>
+      </c>
+      <c r="G38" s="3">
         <f>IF(ISBLANK(A38),"",'2019'!G37-E38+F38)</f>
-        <v/>
-      </c>
-      <c r="H38" s="3" t="str">
+        <v>3122.3700000000113</v>
+      </c>
+      <c r="H38" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3267.3700000000113</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="C39" s="8"/>
+      <c r="A39" s="28">
+        <v>43532</v>
+      </c>
+      <c r="B39">
+        <v>1401</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>419</v>
+      </c>
       <c r="D39" s="8"/>
-      <c r="G39" s="3" t="str">
+      <c r="E39" s="3">
+        <v>125</v>
+      </c>
+      <c r="G39" s="3">
         <f>IF(ISBLANK(A39),"",'2019'!G38-E39+F39)</f>
-        <v/>
-      </c>
-      <c r="H39" s="3" t="str">
+        <v>2997.3700000000113</v>
+      </c>
+      <c r="H39" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3267.3700000000113</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
-      <c r="C40" s="20"/>
-      <c r="G40" s="3" t="str">
+      <c r="A40" s="28">
+        <v>43536</v>
+      </c>
+      <c r="B40">
+        <v>1402</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="E40" s="3">
+        <v>125</v>
+      </c>
+      <c r="G40" s="3">
         <f>IF(ISBLANK(A40),"",'2019'!G39-E40+F40)</f>
-        <v/>
-      </c>
-      <c r="H40" s="3" t="str">
+        <v>2872.3700000000113</v>
+      </c>
+      <c r="H40" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3267.3700000000113</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
-      <c r="C41" s="20"/>
-      <c r="G41" s="3" t="str">
+      <c r="A41" s="28">
+        <v>43536</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F41">
+        <v>14.26</v>
+      </c>
+      <c r="G41" s="3">
         <f>IF(ISBLANK(A41),"",'2019'!G40-E41+F41)</f>
-        <v/>
-      </c>
-      <c r="H41" s="3" t="str">
+        <v>2886.6300000000115</v>
+      </c>
+      <c r="H41" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3281.6300000000115</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
-      <c r="C42" s="20"/>
-      <c r="G42" s="3" t="str">
+      <c r="A42" s="28">
+        <v>43537</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F42">
+        <v>14.26</v>
+      </c>
+      <c r="G42" s="3">
         <f>IF(ISBLANK(A42),"",'2019'!G41-E42+F42)</f>
-        <v/>
-      </c>
-      <c r="H42" s="3" t="str">
+        <v>2900.8900000000117</v>
+      </c>
+      <c r="H42" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3295.8900000000117</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
-      <c r="C43" s="20"/>
-      <c r="G43" s="3" t="str">
+      <c r="A43" s="28">
+        <v>43538</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F43">
+        <v>14.26</v>
+      </c>
+      <c r="G43" s="3">
         <f>IF(ISBLANK(A43),"",'2019'!G42-E43+F43)</f>
-        <v/>
-      </c>
-      <c r="H43" s="3" t="str">
+        <v>2915.1500000000119</v>
+      </c>
+      <c r="H43" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3310.1500000000119</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
-      <c r="C44" s="20"/>
-      <c r="G44" s="3" t="str">
+      <c r="A44" s="28">
+        <v>43542</v>
+      </c>
+      <c r="B44">
+        <v>1403</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="3">
+        <v>17.84</v>
+      </c>
+      <c r="G44" s="3">
         <f>IF(ISBLANK(A44),"",'2019'!G43-E44+F44)</f>
-        <v/>
-      </c>
-      <c r="H44" s="3" t="str">
+        <v>2897.3100000000118</v>
+      </c>
+      <c r="H44" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3292.3100000000118</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
-      <c r="C45" s="20"/>
-      <c r="G45" s="3" t="str">
+      <c r="A45" s="28">
+        <v>43549</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F45">
+        <v>14.26</v>
+      </c>
+      <c r="G45" s="3">
         <f>IF(ISBLANK(A45),"",'2019'!G44-E45+F45)</f>
-        <v/>
-      </c>
-      <c r="H45" s="3" t="str">
+        <v>2911.570000000012</v>
+      </c>
+      <c r="H45" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3306.570000000012</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="C46" s="20"/>
-      <c r="G46" s="3" t="str">
+      <c r="A46" s="28">
+        <v>43558</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F46">
+        <v>14.26</v>
+      </c>
+      <c r="G46" s="3">
         <f>IF(ISBLANK(A46),"",'2019'!G45-E46+F46)</f>
-        <v/>
-      </c>
-      <c r="H46" s="3" t="str">
+        <v>2925.8300000000122</v>
+      </c>
+      <c r="H46" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3320.8300000000122</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -23044,7 +23395,7 @@
       <c r="H793" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E793"/>
+  <autoFilter ref="A1:H793"/>
   <conditionalFormatting sqref="E1:E20 E23:E102 E104:E1048576">
     <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
       <formula>D1="c"</formula>
@@ -23069,7 +23420,7 @@
       <formula>NOT(ISBLANK(M5))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+  <conditionalFormatting sqref="F14:F15">
     <cfRule type="expression" dxfId="29" priority="13" stopIfTrue="1">
       <formula>E14="c"</formula>
     </cfRule>
@@ -29202,13 +29553,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:IV45"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="61" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -30131,13 +30485,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:IV47"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -31099,13 +31456,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:IV56"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -32215,12 +32576,15 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:IV52"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="48.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -33263,13 +33627,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:IV73"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>

--- a/MIACADA Ledger.xlsx
+++ b/MIACADA Ledger.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="330" yWindow="735" windowWidth="11355" windowHeight="8250" tabRatio="657" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="330" yWindow="735" windowWidth="11355" windowHeight="8250" tabRatio="657" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="1" state="hidden" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="424">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -1310,6 +1310,12 @@
   </si>
   <si>
     <t>Meaghan Cole, best of MIACADA Region V reimbursement</t>
+  </si>
+  <si>
+    <t>Steve Farver, best of MIACADA Region V reimbursement</t>
+  </si>
+  <si>
+    <t>Presdentation reimbursement Region V attendance</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1446,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="64">
     <dxf>
       <fill>
         <patternFill>
@@ -1878,6 +1884,14 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC4D79B"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2093,11 +2107,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="302715456"/>
-        <c:axId val="302717136"/>
+        <c:axId val="225764240"/>
+        <c:axId val="225765920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="302715456"/>
+        <c:axId val="225764240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,7 +2154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302717136"/>
+        <c:crossAx val="225765920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2148,7 +2162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="302717136"/>
+        <c:axId val="225765920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2199,7 +2213,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302715456"/>
+        <c:crossAx val="225764240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2462,11 +2476,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="302721056"/>
-        <c:axId val="394505792"/>
+        <c:axId val="225769840"/>
+        <c:axId val="225770400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="302721056"/>
+        <c:axId val="225769840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,7 +2523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394505792"/>
+        <c:crossAx val="225770400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2517,7 +2531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394505792"/>
+        <c:axId val="225770400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2568,7 +2582,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302721056"/>
+        <c:crossAx val="225769840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3508,11 +3522,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="394510272"/>
-        <c:axId val="394510832"/>
+        <c:axId val="418160928"/>
+        <c:axId val="418161488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="394510272"/>
+        <c:axId val="418160928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3555,7 +3569,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394510832"/>
+        <c:crossAx val="418161488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3563,7 +3577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394510832"/>
+        <c:axId val="418161488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3614,7 +3628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394510272"/>
+        <c:crossAx val="418160928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7562,8 +7576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8638,10 +8652,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8674,7 +8689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42738</v>
       </c>
@@ -8752,7 +8767,7 @@
         <v>4398.66</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42767</v>
       </c>
@@ -8767,7 +8782,7 @@
         <v>4484.22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>42768</v>
       </c>
@@ -8845,7 +8860,7 @@
         <v>4204.22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>42795</v>
       </c>
@@ -8902,7 +8917,7 @@
         <v>3914.04</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>42808</v>
       </c>
@@ -8959,7 +8974,7 @@
         <v>6469.02</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>42829</v>
       </c>
@@ -9016,7 +9031,7 @@
         <v>9824.15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>42852</v>
       </c>
@@ -9052,7 +9067,7 @@
         <v>12934.15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>42857</v>
       </c>
@@ -9172,7 +9187,7 @@
         <v>16170.44</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>42887</v>
       </c>
@@ -9229,7 +9244,7 @@
         <v>20040.349999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>42894</v>
       </c>
@@ -9349,7 +9364,7 @@
         <v>11619.36</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>42921</v>
       </c>
@@ -9364,7 +9379,7 @@
         <v>11805.66</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>42948</v>
       </c>
@@ -9379,7 +9394,7 @@
         <v>11876.96</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>42964</v>
       </c>
@@ -9457,7 +9472,7 @@
         <v>11321.96</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42983</v>
       </c>
@@ -9535,7 +9550,7 @@
         <v>9571.9599999999991</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>42999</v>
       </c>
@@ -9550,7 +9565,7 @@
         <v>9651.9599999999991</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43000</v>
       </c>
@@ -9565,7 +9580,7 @@
         <v>9666.9599999999991</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43019</v>
       </c>
@@ -9581,7 +9596,7 @@
         <v>9695.48</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43026</v>
       </c>
@@ -9641,7 +9656,7 @@
         <v>9139.0399999999991</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43031</v>
       </c>
@@ -9657,7 +9672,7 @@
         <v>9153.2999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43034</v>
       </c>
@@ -9673,7 +9688,7 @@
         <v>9167.56</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43038</v>
       </c>
@@ -9711,7 +9726,7 @@
         <v>9056.82</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43049</v>
       </c>
@@ -9728,7 +9743,7 @@
       </c>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43053</v>
       </c>
@@ -9744,7 +9759,7 @@
         <v>9085.34</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43055</v>
       </c>
@@ -9760,7 +9775,7 @@
         <v>9113.86</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43055</v>
       </c>
@@ -9776,7 +9791,7 @@
         <v>9613.86</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>43056</v>
       </c>
@@ -9792,7 +9807,7 @@
         <v>9628.1200000000008</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43059</v>
       </c>
@@ -9808,7 +9823,7 @@
         <v>9642.380000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43061</v>
       </c>
@@ -9824,7 +9839,7 @@
         <v>9656.6400000000012</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>43073</v>
       </c>
@@ -9840,7 +9855,7 @@
         <v>9670.9000000000015</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>43074</v>
       </c>
@@ -9901,7 +9916,7 @@
       </c>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>43082</v>
       </c>
@@ -9919,7 +9934,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>43084</v>
       </c>
@@ -9984,7 +9999,11 @@
       <c r="L71" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E71"/>
+  <autoFilter ref="E1:E71">
+    <filterColumn colId="0">
+      <colorFilter dxfId="63"/>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="expression" dxfId="62" priority="1" stopIfTrue="1">
       <formula>D1="c"</formula>
@@ -11323,11 +11342,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11434,7 +11452,7 @@
       </c>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>43116</v>
       </c>
@@ -11456,7 +11474,7 @@
       <c r="J4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>43117</v>
       </c>
@@ -11478,7 +11496,7 @@
       <c r="J5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>43118</v>
       </c>
@@ -11500,7 +11518,7 @@
       <c r="J6" s="24"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <v>43119</v>
       </c>
@@ -11521,7 +11539,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>43122</v>
       </c>
@@ -11542,7 +11560,7 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>43123</v>
       </c>
@@ -11589,7 +11607,7 @@
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>43124</v>
       </c>
@@ -11610,7 +11628,7 @@
       <c r="J11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="28">
         <v>43125</v>
       </c>
@@ -11683,7 +11701,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="28">
         <v>43131</v>
       </c>
@@ -11702,7 +11720,7 @@
         <v>7822.0200000000032</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="28">
         <v>43133</v>
       </c>
@@ -11721,7 +11739,7 @@
         <v>7836.2800000000034</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="28">
         <v>43144</v>
       </c>
@@ -11740,7 +11758,7 @@
         <v>7851.2800000000034</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="28">
         <v>43145</v>
       </c>
@@ -11759,7 +11777,7 @@
         <v>7865.5400000000036</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="28">
         <v>43147</v>
       </c>
@@ -11803,7 +11821,7 @@
         <v>7324.390000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="28">
         <v>43152</v>
       </c>
@@ -11822,7 +11840,7 @@
         <v>7338.6500000000042</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="28">
         <v>43154</v>
       </c>
@@ -11841,7 +11859,7 @@
         <v>7352.9100000000044</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="28">
         <v>43164</v>
       </c>
@@ -11861,7 +11879,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="28">
         <v>43165</v>
       </c>
@@ -11880,7 +11898,7 @@
         <v>7589.5900000000047</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="28">
         <v>43166</v>
       </c>
@@ -11974,7 +11992,7 @@
         <v>7272.4000000000051</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="28">
         <v>43171</v>
       </c>
@@ -11993,7 +12011,7 @@
         <v>7335.2100000000055</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="28">
         <v>43172</v>
       </c>
@@ -12012,7 +12030,7 @@
         <v>7769.1100000000051</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="28">
         <v>43174</v>
       </c>
@@ -12031,7 +12049,7 @@
         <v>7783.3700000000053</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="28">
         <v>43175</v>
       </c>
@@ -12050,7 +12068,7 @@
         <v>7966.0300000000052</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="28">
         <v>43178</v>
       </c>
@@ -12069,7 +12087,7 @@
         <v>8057.3600000000051</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="28">
         <v>43178</v>
       </c>
@@ -12113,7 +12131,7 @@
         <v>7945.8800000000056</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="28">
         <v>43180</v>
       </c>
@@ -12132,7 +12150,7 @@
         <v>8071.2000000000053</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="28">
         <v>43181</v>
       </c>
@@ -12151,7 +12169,7 @@
         <v>8182.2600000000057</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="28">
         <v>43182</v>
       </c>
@@ -12195,7 +12213,7 @@
         <v>8131.5200000000059</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="28">
         <v>43185</v>
       </c>
@@ -12214,7 +12232,7 @@
         <v>8174.3000000000056</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="28">
         <v>43185</v>
       </c>
@@ -12233,7 +12251,7 @@
         <v>8237.110000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="28">
         <v>43185</v>
       </c>
@@ -12252,7 +12270,7 @@
         <v>8407.110000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="28">
         <v>43186</v>
       </c>
@@ -12271,7 +12289,7 @@
         <v>8469.9200000000055</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="28">
         <v>43187</v>
       </c>
@@ -12290,7 +12308,7 @@
         <v>8595.5400000000063</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="28">
         <v>43188</v>
       </c>
@@ -12309,7 +12327,7 @@
         <v>8735.4200000000055</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="28">
         <v>43189</v>
       </c>
@@ -12328,7 +12346,7 @@
         <v>8846.1800000000057</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="28">
         <v>43192</v>
       </c>
@@ -12347,7 +12365,7 @@
         <v>8923.2500000000055</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="28">
         <v>43195</v>
       </c>
@@ -12366,7 +12384,7 @@
         <v>9238.2500000000055</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="28">
         <v>43199</v>
       </c>
@@ -12385,7 +12403,7 @@
         <v>9252.5100000000057</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="28">
         <v>43201</v>
       </c>
@@ -12404,7 +12422,7 @@
         <v>9315.3200000000052</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="28">
         <v>43202</v>
       </c>
@@ -12423,7 +12441,7 @@
         <v>9467.940000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="28">
         <v>43203</v>
       </c>
@@ -12442,7 +12460,7 @@
         <v>9796.2500000000055</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="28">
         <v>43206</v>
       </c>
@@ -12461,7 +12479,7 @@
         <v>9936.1300000000047</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="28">
         <v>43209</v>
       </c>
@@ -12480,7 +12498,7 @@
         <v>10313.910000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="28">
         <v>43210</v>
       </c>
@@ -12499,7 +12517,7 @@
         <v>10565.150000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="28">
         <v>43213</v>
       </c>
@@ -12518,7 +12536,7 @@
         <v>10627.960000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="28">
         <v>43213</v>
       </c>
@@ -12537,7 +12555,7 @@
         <v>12592.960000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="28">
         <v>43214</v>
       </c>
@@ -12581,7 +12599,7 @@
         <v>12454.020000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="28">
         <v>43215</v>
       </c>
@@ -12600,7 +12618,7 @@
         <v>13271.170000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="28">
         <v>43216</v>
       </c>
@@ -12619,7 +12637,7 @@
         <v>13459.300000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="22">
         <v>43217</v>
       </c>
@@ -12688,7 +12706,7 @@
         <v>13975.800000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="28">
         <v>43220</v>
       </c>
@@ -12707,7 +12725,7 @@
         <v>14052.870000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="28">
         <v>43222</v>
       </c>
@@ -12726,7 +12744,7 @@
         <v>14366.620000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="28">
         <v>43223</v>
       </c>
@@ -12745,7 +12763,7 @@
         <v>14792.650000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="28">
         <v>43224</v>
       </c>
@@ -12789,7 +12807,7 @@
         <v>14778.360000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="28">
         <v>43227</v>
       </c>
@@ -12808,7 +12826,7 @@
         <v>14889.420000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="28">
         <v>43227</v>
       </c>
@@ -12902,7 +12920,7 @@
         <v>14407.080000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="28">
         <v>43229</v>
       </c>
@@ -12921,7 +12939,7 @@
         <v>14720.830000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="28">
         <v>43231</v>
       </c>
@@ -12940,7 +12958,7 @@
         <v>14909.260000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="28">
         <v>43234</v>
       </c>
@@ -12959,7 +12977,7 @@
         <v>16232.550000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="28">
         <v>43234</v>
       </c>
@@ -12978,7 +12996,7 @@
         <v>16357.870000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="28">
         <v>43235</v>
       </c>
@@ -13047,7 +13065,7 @@
         <v>16141.940000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="28">
         <v>43236</v>
       </c>
@@ -13066,7 +13084,7 @@
         <v>16460.86</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="28">
         <v>43236</v>
       </c>
@@ -13085,7 +13103,7 @@
         <v>17480.86</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="28">
         <v>43237</v>
       </c>
@@ -13104,7 +13122,7 @@
         <v>17795.53</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="28">
         <v>43238</v>
       </c>
@@ -13123,7 +13141,7 @@
         <v>18235.82</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="28">
         <v>43241</v>
       </c>
@@ -13267,7 +13285,7 @@
         <v>11532.85</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="28">
         <v>43245</v>
       </c>
@@ -13286,7 +13304,7 @@
         <v>11575.630000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="28">
         <v>43249</v>
       </c>
@@ -13305,7 +13323,7 @@
         <v>11589.890000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="28">
         <v>43249</v>
       </c>
@@ -13349,7 +13367,7 @@
         <v>11609.890000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="28">
         <v>43251</v>
       </c>
@@ -13368,7 +13386,7 @@
         <v>11624.150000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="28">
         <v>43252</v>
       </c>
@@ -13387,7 +13405,7 @@
         <v>11638.410000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="28">
         <v>43255</v>
       </c>
@@ -13406,7 +13424,7 @@
         <v>11652.670000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="28">
         <v>43256</v>
       </c>
@@ -13425,7 +13443,7 @@
         <v>11666.930000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="28">
         <v>43262</v>
       </c>
@@ -13444,7 +13462,7 @@
         <v>11681.190000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="28">
         <v>43266</v>
       </c>
@@ -13463,7 +13481,7 @@
         <v>11695.450000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="28">
         <v>43273</v>
       </c>
@@ -13507,7 +13525,7 @@
         <v>11609.710000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="28">
         <v>43278</v>
       </c>
@@ -13526,7 +13544,7 @@
         <v>11623.970000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="28">
         <v>43279</v>
       </c>
@@ -13545,7 +13563,7 @@
         <v>11638.230000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="28">
         <v>43279</v>
       </c>
@@ -13564,7 +13582,7 @@
         <v>11923.230000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="28">
         <v>43283</v>
       </c>
@@ -13583,7 +13601,7 @@
         <v>11937.490000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="28">
         <v>43286</v>
       </c>
@@ -13602,7 +13620,7 @@
         <v>11951.750000000004</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="28">
         <v>43299</v>
       </c>
@@ -13646,7 +13664,7 @@
         <v>10041.750000000004</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="28">
         <v>43307</v>
       </c>
@@ -13690,7 +13708,7 @@
         <v>9670.2700000000041</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="28">
         <v>43313</v>
       </c>
@@ -13709,7 +13727,7 @@
         <v>9757.0500000000047</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="28">
         <v>43314</v>
       </c>
@@ -13728,7 +13746,7 @@
         <v>9771.3100000000049</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="28">
         <v>43320</v>
       </c>
@@ -13747,7 +13765,7 @@
         <v>9785.5700000000052</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="28">
         <v>43325</v>
       </c>
@@ -13791,7 +13809,7 @@
         <v>9735.8300000000054</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="28">
         <v>43327</v>
       </c>
@@ -13860,7 +13878,7 @@
         <v>9472.3800000000047</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="28">
         <v>43336</v>
       </c>
@@ -13929,7 +13947,7 @@
         <v>8706.5400000000045</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="28">
         <v>43342</v>
       </c>
@@ -13948,7 +13966,7 @@
         <v>8721.5400000000045</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="28">
         <v>43347</v>
       </c>
@@ -13992,7 +14010,7 @@
         <v>8665.0600000000049</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="28">
         <v>43349</v>
       </c>
@@ -14088,7 +14106,7 @@
         <v>7751.2500000000055</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="28">
         <v>43357</v>
       </c>
@@ -14107,7 +14125,7 @@
         <v>7765.5100000000057</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="28">
         <v>43367</v>
       </c>
@@ -14201,7 +14219,7 @@
         <v>6129.7700000000059</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="28">
         <v>43374</v>
       </c>
@@ -14220,7 +14238,7 @@
         <v>6144.0300000000061</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="28">
         <v>43374</v>
       </c>
@@ -14264,7 +14282,7 @@
         <v>6033.2900000000063</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="28">
         <v>43385</v>
       </c>
@@ -14283,7 +14301,7 @@
         <v>6061.8100000000068</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="28">
         <v>43397</v>
       </c>
@@ -14352,7 +14370,7 @@
         <v>5465.6400000000067</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="28">
         <v>43402</v>
       </c>
@@ -14371,7 +14389,7 @@
         <v>5479.9000000000069</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="28">
         <v>43403</v>
       </c>
@@ -14415,7 +14433,7 @@
         <v>5208.5600000000068</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="28">
         <v>43790</v>
       </c>
@@ -14434,7 +14452,7 @@
         <v>5222.820000000007</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="28">
         <v>43792</v>
       </c>
@@ -14453,7 +14471,7 @@
         <v>5237.0800000000072</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="28">
         <v>43804</v>
       </c>
@@ -14472,7 +14490,7 @@
         <v>5324.1700000000073</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="28">
         <v>43811</v>
       </c>
@@ -14541,7 +14559,7 @@
         <v>5048.4300000000076</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="28"/>
       <c r="C152" s="20"/>
       <c r="D152" s="8"/>
@@ -14554,7 +14572,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="28"/>
       <c r="C153" s="20"/>
       <c r="D153" s="8"/>
@@ -14567,7 +14585,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="28"/>
       <c r="C154" s="20"/>
       <c r="G154" s="3" t="str">
@@ -14579,7 +14597,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="28"/>
       <c r="C155" s="20"/>
       <c r="G155" s="3" t="str">
@@ -14591,7 +14609,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G156" s="3" t="str">
         <f>IF(ISBLANK(A156),"",'2018'!G155-E156+F156)</f>
         <v/>
@@ -14601,7 +14619,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G157" s="3" t="str">
         <f>IF(ISBLANK(A157),"",'2018'!G156-E157+F157)</f>
         <v/>
@@ -14611,7 +14629,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G158" s="3" t="str">
         <f>IF(ISBLANK(A158),"",'2018'!G157-E158+F158)</f>
         <v/>
@@ -14621,7 +14639,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G159" s="3" t="str">
         <f>IF(ISBLANK(A159),"",'2018'!G158-E159+F159)</f>
         <v/>
@@ -14631,7 +14649,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G160" s="3" t="str">
         <f>IF(ISBLANK(A160),"",'2018'!G159-E160+F160)</f>
         <v/>
@@ -14641,7 +14659,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G161" s="3" t="str">
         <f>IF(ISBLANK(A161),"",'2018'!G160-E161+F161)</f>
         <v/>
@@ -14651,7 +14669,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G162" s="3" t="str">
         <f>IF(ISBLANK(A162),"",'2018'!G161-E162+F162)</f>
         <v/>
@@ -14661,7 +14679,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G163" s="3" t="str">
         <f>IF(ISBLANK(A163),"",'2018'!G162-E163+F163)</f>
         <v/>
@@ -14671,7 +14689,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G164" s="3" t="str">
         <f>IF(ISBLANK(A164),"",'2018'!G163-E164+F164)</f>
         <v/>
@@ -14681,7 +14699,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G165" s="3" t="str">
         <f>IF(ISBLANK(A165),"",'2018'!G164-E165+F165)</f>
         <v/>
@@ -14691,7 +14709,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G166" s="3" t="str">
         <f>IF(ISBLANK(A166),"",'2018'!G165-E166+F166)</f>
         <v/>
@@ -14701,7 +14719,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G167" s="3" t="str">
         <f>IF(ISBLANK(A167),"",'2018'!G166-E167+F167)</f>
         <v/>
@@ -14711,7 +14729,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G168" s="3" t="str">
         <f>IF(ISBLANK(A168),"",'2018'!G167-E168+F168)</f>
         <v/>
@@ -14721,7 +14739,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G169" s="3" t="str">
         <f>IF(ISBLANK(A169),"",'2018'!G168-E169+F169)</f>
         <v/>
@@ -14731,7 +14749,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G170" s="3" t="str">
         <f>IF(ISBLANK(A170),"",'2018'!G169-E170+F170)</f>
         <v/>
@@ -14741,7 +14759,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G171" s="3" t="str">
         <f>IF(ISBLANK(A171),"",'2018'!G170-E171+F171)</f>
         <v/>
@@ -14751,7 +14769,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G172" s="3" t="str">
         <f>IF(ISBLANK(A172),"",'2018'!G171-E172+F172)</f>
         <v/>
@@ -14761,7 +14779,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G173" s="3" t="str">
         <f>IF(ISBLANK(A173),"",'2018'!G172-E173+F173)</f>
         <v/>
@@ -14771,7 +14789,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G174" s="3" t="str">
         <f>IF(ISBLANK(A174),"",'2018'!G173-E174+F174)</f>
         <v/>
@@ -14781,7 +14799,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G175" s="3" t="str">
         <f>IF(ISBLANK(A175),"",'2018'!G174-E175+F175)</f>
         <v/>
@@ -14791,7 +14809,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G176" s="3" t="str">
         <f>IF(ISBLANK(A176),"",'2018'!G175-E176+F176)</f>
         <v/>
@@ -14801,7 +14819,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G177" s="3" t="str">
         <f>IF(ISBLANK(A177),"",'2018'!G176-E177+F177)</f>
         <v/>
@@ -14811,7 +14829,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G178" s="3" t="str">
         <f>IF(ISBLANK(A178),"",'2018'!G177-E178+F178)</f>
         <v/>
@@ -14821,7 +14839,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G179" s="3" t="str">
         <f>IF(ISBLANK(A179),"",'2018'!G178-E179+F179)</f>
         <v/>
@@ -14831,7 +14849,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G180" s="3" t="str">
         <f>IF(ISBLANK(A180),"",'2018'!G179-E180+F180)</f>
         <v/>
@@ -14841,7 +14859,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G181" s="3" t="str">
         <f>IF(ISBLANK(A181),"",'2018'!G180-E181+F181)</f>
         <v/>
@@ -14851,7 +14869,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G182" s="3" t="str">
         <f>IF(ISBLANK(A182),"",'2018'!G181-E182+F182)</f>
         <v/>
@@ -14861,7 +14879,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G183" s="3" t="str">
         <f>IF(ISBLANK(A183),"",'2018'!G182-E183+F183)</f>
         <v/>
@@ -14871,7 +14889,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G184" s="3" t="str">
         <f>IF(ISBLANK(A184),"",'2018'!G183-E184+F184)</f>
         <v/>
@@ -14881,7 +14899,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G185" s="3" t="str">
         <f>IF(ISBLANK(A185),"",'2018'!G184-E185+F185)</f>
         <v/>
@@ -14891,7 +14909,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G186" s="3" t="str">
         <f>IF(ISBLANK(A186),"",'2018'!G185-E186+F186)</f>
         <v/>
@@ -14901,7 +14919,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G187" s="3" t="str">
         <f>IF(ISBLANK(A187),"",'2018'!G186-E187+F187)</f>
         <v/>
@@ -14911,7 +14929,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G188" s="3" t="str">
         <f>IF(ISBLANK(A188),"",'2018'!G187-E188+F188)</f>
         <v/>
@@ -14921,7 +14939,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G189" s="3" t="str">
         <f>IF(ISBLANK(A189),"",'2018'!G188-E189+F189)</f>
         <v/>
@@ -14931,7 +14949,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G190" s="3" t="str">
         <f>IF(ISBLANK(A190),"",'2018'!G189-E190+F190)</f>
         <v/>
@@ -14941,7 +14959,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G191" s="3" t="str">
         <f>IF(ISBLANK(A191),"",'2018'!G190-E191+F191)</f>
         <v/>
@@ -14951,7 +14969,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G192" s="3" t="str">
         <f>IF(ISBLANK(A192),"",'2018'!G191-E192+F192)</f>
         <v/>
@@ -14961,7 +14979,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G193" s="3" t="str">
         <f>IF(ISBLANK(A193),"",'2018'!G192-E193+F193)</f>
         <v/>
@@ -14971,7 +14989,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G194" s="3" t="str">
         <f>IF(ISBLANK(A194),"",'2018'!G193-E194+F194)</f>
         <v/>
@@ -14981,7 +14999,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G195" s="3" t="str">
         <f>IF(ISBLANK(A195),"",'2018'!G194-E195+F195)</f>
         <v/>
@@ -14991,7 +15009,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G196" s="3" t="str">
         <f>IF(ISBLANK(A196),"",'2018'!G195-E196+F196)</f>
         <v/>
@@ -15001,7 +15019,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G197" s="3" t="str">
         <f>IF(ISBLANK(A197),"",'2018'!G196-E197+F197)</f>
         <v/>
@@ -15011,7 +15029,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G198" s="3" t="str">
         <f>IF(ISBLANK(A198),"",'2018'!G197-E198+F198)</f>
         <v/>
@@ -15021,7 +15039,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G199" s="3" t="str">
         <f>IF(ISBLANK(A199),"",'2018'!G198-E199+F199)</f>
         <v/>
@@ -15031,7 +15049,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G200" s="3" t="str">
         <f>IF(ISBLANK(A200),"",'2018'!G199-E200+F200)</f>
         <v/>
@@ -15041,7 +15059,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G201" s="3" t="str">
         <f>IF(ISBLANK(A201),"",'2018'!G200-E201+F201)</f>
         <v/>
@@ -15051,7 +15069,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G202" s="3" t="str">
         <f>IF(ISBLANK(A202),"",'2018'!G201-E202+F202)</f>
         <v/>
@@ -15061,7 +15079,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G203" s="3" t="str">
         <f>IF(ISBLANK(A203),"",'2018'!G202-E203+F203)</f>
         <v/>
@@ -15071,7 +15089,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G204" s="3" t="str">
         <f>IF(ISBLANK(A204),"",'2018'!G203-E204+F204)</f>
         <v/>
@@ -15081,7 +15099,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G205" s="3" t="str">
         <f>IF(ISBLANK(A205),"",'2018'!G204-E205+F205)</f>
         <v/>
@@ -15091,7 +15109,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G206" s="3" t="str">
         <f>IF(ISBLANK(A206),"",'2018'!G205-E206+F206)</f>
         <v/>
@@ -15101,7 +15119,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G207" s="3" t="str">
         <f>IF(ISBLANK(A207),"",'2018'!G206-E207+F207)</f>
         <v/>
@@ -15111,7 +15129,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G208" s="3" t="str">
         <f>IF(ISBLANK(A208),"",'2018'!G207-E208+F208)</f>
         <v/>
@@ -15121,7 +15139,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G209" s="3" t="str">
         <f>IF(ISBLANK(A209),"",'2018'!G208-E209+F209)</f>
         <v/>
@@ -15131,7 +15149,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G210" s="3" t="str">
         <f>IF(ISBLANK(A210),"",'2018'!G209-E210+F210)</f>
         <v/>
@@ -15141,7 +15159,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G211" s="3" t="str">
         <f>IF(ISBLANK(A211),"",'2018'!G210-E211+F211)</f>
         <v/>
@@ -15151,7 +15169,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G212" s="3" t="str">
         <f>IF(ISBLANK(A212),"",'2018'!G211-E212+F212)</f>
         <v/>
@@ -15161,7 +15179,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G213" s="3" t="str">
         <f>IF(ISBLANK(A213),"",'2018'!G212-E213+F213)</f>
         <v/>
@@ -15171,7 +15189,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G214" s="3" t="str">
         <f>IF(ISBLANK(A214),"",'2018'!G213-E214+F214)</f>
         <v/>
@@ -15181,7 +15199,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G215" s="3" t="str">
         <f>IF(ISBLANK(A215),"",'2018'!G214-E215+F215)</f>
         <v/>
@@ -15191,7 +15209,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G216" s="3" t="str">
         <f>IF(ISBLANK(A216),"",'2018'!G215-E216+F216)</f>
         <v/>
@@ -15201,7 +15219,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G217" s="3" t="str">
         <f>IF(ISBLANK(A217),"",'2018'!G216-E217+F217)</f>
         <v/>
@@ -15211,7 +15229,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G218" s="3" t="str">
         <f>IF(ISBLANK(A218),"",'2018'!G217-E218+F218)</f>
         <v/>
@@ -15221,7 +15239,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G219" s="3" t="str">
         <f>IF(ISBLANK(A219),"",'2018'!G218-E219+F219)</f>
         <v/>
@@ -15231,7 +15249,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G220" s="3" t="str">
         <f>IF(ISBLANK(A220),"",'2018'!G219-E220+F220)</f>
         <v/>
@@ -15241,7 +15259,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G221" s="3" t="str">
         <f>IF(ISBLANK(A221),"",'2018'!G220-E221+F221)</f>
         <v/>
@@ -15251,7 +15269,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G222" s="3" t="str">
         <f>IF(ISBLANK(A222),"",'2018'!G221-E222+F222)</f>
         <v/>
@@ -15261,7 +15279,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G223" s="3" t="str">
         <f>IF(ISBLANK(A223),"",'2018'!G222-E223+F223)</f>
         <v/>
@@ -15271,7 +15289,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G224" s="3" t="str">
         <f>IF(ISBLANK(A224),"",'2018'!G223-E224+F224)</f>
         <v/>
@@ -15281,7 +15299,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G225" s="3" t="str">
         <f>IF(ISBLANK(A225),"",'2018'!G224-E225+F225)</f>
         <v/>
@@ -15291,7 +15309,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G226" s="3" t="str">
         <f>IF(ISBLANK(A226),"",'2018'!G225-E226+F226)</f>
         <v/>
@@ -15301,7 +15319,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G227" s="3" t="str">
         <f>IF(ISBLANK(A227),"",'2018'!G226-E227+F227)</f>
         <v/>
@@ -15311,7 +15329,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G228" s="3" t="str">
         <f>IF(ISBLANK(A228),"",'2018'!G227-E228+F228)</f>
         <v/>
@@ -15321,7 +15339,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G229" s="3" t="str">
         <f>IF(ISBLANK(A229),"",'2018'!G228-E229+F229)</f>
         <v/>
@@ -15331,7 +15349,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G230" s="3" t="str">
         <f>IF(ISBLANK(A230),"",'2018'!G229-E230+F230)</f>
         <v/>
@@ -15341,7 +15359,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G231" s="3" t="str">
         <f>IF(ISBLANK(A231),"",'2018'!G230-E231+F231)</f>
         <v/>
@@ -15351,7 +15369,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G232" s="3" t="str">
         <f>IF(ISBLANK(A232),"",'2018'!G231-E232+F232)</f>
         <v/>
@@ -15361,7 +15379,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G233" s="3" t="str">
         <f>IF(ISBLANK(A233),"",'2018'!G232-E233+F233)</f>
         <v/>
@@ -15371,7 +15389,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G234" s="3" t="str">
         <f>IF(ISBLANK(A234),"",'2018'!G233-E234+F234)</f>
         <v/>
@@ -15381,7 +15399,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G235" s="3" t="str">
         <f>IF(ISBLANK(A235),"",'2018'!G234-E235+F235)</f>
         <v/>
@@ -15391,7 +15409,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G236" s="3" t="str">
         <f>IF(ISBLANK(A236),"",'2018'!G235-E236+F236)</f>
         <v/>
@@ -15401,7 +15419,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G237" s="3" t="str">
         <f>IF(ISBLANK(A237),"",'2018'!G236-E237+F237)</f>
         <v/>
@@ -15411,7 +15429,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G238" s="3" t="str">
         <f>IF(ISBLANK(A238),"",'2018'!G237-E238+F238)</f>
         <v/>
@@ -15421,7 +15439,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G239" s="3" t="str">
         <f>IF(ISBLANK(A239),"",'2018'!G238-E239+F239)</f>
         <v/>
@@ -15431,7 +15449,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G240" s="3" t="str">
         <f>IF(ISBLANK(A240),"",'2018'!G239-E240+F240)</f>
         <v/>
@@ -15441,7 +15459,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G241" s="3" t="str">
         <f>IF(ISBLANK(A241),"",'2018'!G240-E241+F241)</f>
         <v/>
@@ -15451,7 +15469,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G242" s="3" t="str">
         <f>IF(ISBLANK(A242),"",'2018'!G241-E242+F242)</f>
         <v/>
@@ -15461,7 +15479,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G243" s="3" t="str">
         <f>IF(ISBLANK(A243),"",'2018'!G242-E243+F243)</f>
         <v/>
@@ -15471,7 +15489,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G244" s="3" t="str">
         <f>IF(ISBLANK(A244),"",'2018'!G243-E244+F244)</f>
         <v/>
@@ -15481,7 +15499,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G245" s="3" t="str">
         <f>IF(ISBLANK(A245),"",'2018'!G244-E245+F245)</f>
         <v/>
@@ -15491,7 +15509,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G246" s="3" t="str">
         <f>IF(ISBLANK(A246),"",'2018'!G245-E246+F246)</f>
         <v/>
@@ -15501,7 +15519,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G247" s="3" t="str">
         <f>IF(ISBLANK(A247),"",'2018'!G246-E247+F247)</f>
         <v/>
@@ -15511,7 +15529,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G248" s="3" t="str">
         <f>IF(ISBLANK(A248),"",'2018'!G247-E248+F248)</f>
         <v/>
@@ -15521,7 +15539,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G249" s="3" t="str">
         <f>IF(ISBLANK(A249),"",'2018'!G248-E249+F249)</f>
         <v/>
@@ -15531,7 +15549,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G250" s="3" t="str">
         <f>IF(ISBLANK(A250),"",'2018'!G249-E250+F250)</f>
         <v/>
@@ -15541,7 +15559,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G251" s="3" t="str">
         <f>IF(ISBLANK(A251),"",'2018'!G250-E251+F251)</f>
         <v/>
@@ -15551,7 +15569,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G252" s="3" t="str">
         <f>IF(ISBLANK(A252),"",'2018'!G251-E252+F252)</f>
         <v/>
@@ -15561,7 +15579,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G253" s="3" t="str">
         <f>IF(ISBLANK(A253),"",'2018'!G252-E253+F253)</f>
         <v/>
@@ -15571,7 +15589,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G254" s="3" t="str">
         <f>IF(ISBLANK(A254),"",'2018'!G253-E254+F254)</f>
         <v/>
@@ -15581,7 +15599,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G255" s="3" t="str">
         <f>IF(ISBLANK(A255),"",'2018'!G254-E255+F255)</f>
         <v/>
@@ -15591,7 +15609,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G256" s="3" t="str">
         <f>IF(ISBLANK(A256),"",'2018'!G255-E256+F256)</f>
         <v/>
@@ -15601,7 +15619,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G257" s="3" t="str">
         <f>IF(ISBLANK(A257),"",'2018'!G256-E257+F257)</f>
         <v/>
@@ -15611,7 +15629,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G258" s="3" t="str">
         <f>IF(ISBLANK(A258),"",'2018'!G257-E258+F258)</f>
         <v/>
@@ -15621,7 +15639,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G259" s="3" t="str">
         <f>IF(ISBLANK(A259),"",'2018'!G258-E259+F259)</f>
         <v/>
@@ -15631,2150 +15649,2144 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
     </row>
-    <row r="261" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
     </row>
-    <row r="262" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
     </row>
-    <row r="263" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
     </row>
-    <row r="264" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
     </row>
-    <row r="265" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
     </row>
-    <row r="266" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
     </row>
-    <row r="267" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
     </row>
-    <row r="268" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
     </row>
-    <row r="269" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
     </row>
-    <row r="270" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
     </row>
-    <row r="271" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
     </row>
-    <row r="272" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
     </row>
-    <row r="273" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
     </row>
-    <row r="274" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
     </row>
-    <row r="275" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
     </row>
-    <row r="276" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
     </row>
-    <row r="277" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
     </row>
-    <row r="278" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
     </row>
-    <row r="279" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
     </row>
-    <row r="280" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
     </row>
-    <row r="281" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
     </row>
-    <row r="282" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
     </row>
-    <row r="283" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
     </row>
-    <row r="284" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
     </row>
-    <row r="285" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
     </row>
-    <row r="286" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
     </row>
-    <row r="287" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
     </row>
-    <row r="288" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
     </row>
-    <row r="289" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
     </row>
-    <row r="290" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
     </row>
-    <row r="291" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
     </row>
-    <row r="292" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
     </row>
-    <row r="293" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
     </row>
-    <row r="294" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
     </row>
-    <row r="295" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
     </row>
-    <row r="296" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
     </row>
-    <row r="297" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
     </row>
-    <row r="298" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
     </row>
-    <row r="299" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
     </row>
-    <row r="300" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
     </row>
-    <row r="301" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
     </row>
-    <row r="302" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
     </row>
-    <row r="303" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
     </row>
-    <row r="304" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
     </row>
-    <row r="305" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
     </row>
-    <row r="306" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
     </row>
-    <row r="307" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
     </row>
-    <row r="308" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
     </row>
-    <row r="309" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
     </row>
-    <row r="310" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
     </row>
-    <row r="311" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
     </row>
-    <row r="312" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
     </row>
-    <row r="313" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
     </row>
-    <row r="314" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
     </row>
-    <row r="315" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
     </row>
-    <row r="316" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
     </row>
-    <row r="317" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
     </row>
-    <row r="318" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
     </row>
-    <row r="319" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
     </row>
-    <row r="320" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
     </row>
-    <row r="321" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
     </row>
-    <row r="322" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G322" s="3"/>
       <c r="H322" s="3"/>
     </row>
-    <row r="323" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
     </row>
-    <row r="324" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G324" s="3"/>
       <c r="H324" s="3"/>
     </row>
-    <row r="325" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
     </row>
-    <row r="326" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G326" s="3"/>
       <c r="H326" s="3"/>
     </row>
-    <row r="327" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
     </row>
-    <row r="328" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G328" s="3"/>
       <c r="H328" s="3"/>
     </row>
-    <row r="329" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
     </row>
-    <row r="330" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
     </row>
-    <row r="331" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
     </row>
-    <row r="332" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G332" s="3"/>
       <c r="H332" s="3"/>
     </row>
-    <row r="333" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
     </row>
-    <row r="334" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
     </row>
-    <row r="335" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
     </row>
-    <row r="336" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
     </row>
-    <row r="337" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
     </row>
-    <row r="338" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
     </row>
-    <row r="339" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
     </row>
-    <row r="340" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
     </row>
-    <row r="341" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
     </row>
-    <row r="342" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
     </row>
-    <row r="343" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
     </row>
-    <row r="344" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
     </row>
-    <row r="345" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
     </row>
-    <row r="346" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
     </row>
-    <row r="347" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
     </row>
-    <row r="348" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
     </row>
-    <row r="349" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
     </row>
-    <row r="350" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
     </row>
-    <row r="351" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
     </row>
-    <row r="352" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
     </row>
-    <row r="353" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
     </row>
-    <row r="354" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
     </row>
-    <row r="355" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
     </row>
-    <row r="356" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
     </row>
-    <row r="357" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
     </row>
-    <row r="358" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
     </row>
-    <row r="359" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
     </row>
-    <row r="360" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
     </row>
-    <row r="361" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
     </row>
-    <row r="362" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
     </row>
-    <row r="363" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
     </row>
-    <row r="364" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
     </row>
-    <row r="365" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
     </row>
-    <row r="366" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
     </row>
-    <row r="367" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
     </row>
-    <row r="368" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
     </row>
-    <row r="369" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
     </row>
-    <row r="370" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
     </row>
-    <row r="371" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
     </row>
-    <row r="372" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
     </row>
-    <row r="373" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
     </row>
-    <row r="374" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
     </row>
-    <row r="375" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
     </row>
-    <row r="376" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
     </row>
-    <row r="377" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
     </row>
-    <row r="378" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
     </row>
-    <row r="379" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
     </row>
-    <row r="380" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
     </row>
-    <row r="381" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
     </row>
-    <row r="382" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
     </row>
-    <row r="383" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G383" s="3"/>
       <c r="H383" s="3"/>
     </row>
-    <row r="384" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
     </row>
-    <row r="385" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
     </row>
-    <row r="386" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
     </row>
-    <row r="387" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
     </row>
-    <row r="388" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
     </row>
-    <row r="389" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
     </row>
-    <row r="390" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
     </row>
-    <row r="391" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
     </row>
-    <row r="392" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
     </row>
-    <row r="393" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
     </row>
-    <row r="394" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
     </row>
-    <row r="395" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
     </row>
-    <row r="396" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
     </row>
-    <row r="397" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
     </row>
-    <row r="398" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
     </row>
-    <row r="399" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
     </row>
-    <row r="400" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
     </row>
-    <row r="401" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
     </row>
-    <row r="402" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
     </row>
-    <row r="403" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
     </row>
-    <row r="404" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
     </row>
-    <row r="405" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
     </row>
-    <row r="406" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
     </row>
-    <row r="407" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
     </row>
-    <row r="408" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
     </row>
-    <row r="409" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
     </row>
-    <row r="410" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
     </row>
-    <row r="411" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
     </row>
-    <row r="412" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
     </row>
-    <row r="413" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
     </row>
-    <row r="414" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
     </row>
-    <row r="415" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
     </row>
-    <row r="416" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
     </row>
-    <row r="417" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
     </row>
-    <row r="418" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
     </row>
-    <row r="419" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
     </row>
-    <row r="420" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
     </row>
-    <row r="421" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
     </row>
-    <row r="422" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
     </row>
-    <row r="423" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
     </row>
-    <row r="424" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
     </row>
-    <row r="425" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
     </row>
-    <row r="426" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
     </row>
-    <row r="427" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
     </row>
-    <row r="428" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
     </row>
-    <row r="429" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
     </row>
-    <row r="430" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
     </row>
-    <row r="431" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
     </row>
-    <row r="432" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G432" s="3"/>
       <c r="H432" s="3"/>
     </row>
-    <row r="433" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
     </row>
-    <row r="434" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G434" s="3"/>
       <c r="H434" s="3"/>
     </row>
-    <row r="435" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
     </row>
-    <row r="436" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G436" s="3"/>
       <c r="H436" s="3"/>
     </row>
-    <row r="437" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
     </row>
-    <row r="438" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G438" s="3"/>
       <c r="H438" s="3"/>
     </row>
-    <row r="439" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
     </row>
-    <row r="440" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G440" s="3"/>
       <c r="H440" s="3"/>
     </row>
-    <row r="441" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
     </row>
-    <row r="442" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
     </row>
-    <row r="443" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
     </row>
-    <row r="444" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G444" s="3"/>
       <c r="H444" s="3"/>
     </row>
-    <row r="445" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
     </row>
-    <row r="446" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
     </row>
-    <row r="447" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
     </row>
-    <row r="448" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G448" s="3"/>
       <c r="H448" s="3"/>
     </row>
-    <row r="449" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G449" s="3"/>
       <c r="H449" s="3"/>
     </row>
-    <row r="450" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G450" s="3"/>
       <c r="H450" s="3"/>
     </row>
-    <row r="451" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
     </row>
-    <row r="452" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G452" s="3"/>
       <c r="H452" s="3"/>
     </row>
-    <row r="453" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G453" s="3"/>
       <c r="H453" s="3"/>
     </row>
-    <row r="454" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G454" s="3"/>
       <c r="H454" s="3"/>
     </row>
-    <row r="455" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G455" s="3"/>
       <c r="H455" s="3"/>
     </row>
-    <row r="456" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G456" s="3"/>
       <c r="H456" s="3"/>
     </row>
-    <row r="457" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G457" s="3"/>
       <c r="H457" s="3"/>
     </row>
-    <row r="458" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G458" s="3"/>
       <c r="H458" s="3"/>
     </row>
-    <row r="459" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G459" s="3"/>
       <c r="H459" s="3"/>
     </row>
-    <row r="460" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G460" s="3"/>
       <c r="H460" s="3"/>
     </row>
-    <row r="461" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G461" s="3"/>
       <c r="H461" s="3"/>
     </row>
-    <row r="462" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G462" s="3"/>
       <c r="H462" s="3"/>
     </row>
-    <row r="463" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G463" s="3"/>
       <c r="H463" s="3"/>
     </row>
-    <row r="464" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G464" s="3"/>
       <c r="H464" s="3"/>
     </row>
-    <row r="465" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G465" s="3"/>
       <c r="H465" s="3"/>
     </row>
-    <row r="466" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G466" s="3"/>
       <c r="H466" s="3"/>
     </row>
-    <row r="467" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G467" s="3"/>
       <c r="H467" s="3"/>
     </row>
-    <row r="468" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G468" s="3"/>
       <c r="H468" s="3"/>
     </row>
-    <row r="469" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G469" s="3"/>
       <c r="H469" s="3"/>
     </row>
-    <row r="470" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G470" s="3"/>
       <c r="H470" s="3"/>
     </row>
-    <row r="471" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G471" s="3"/>
       <c r="H471" s="3"/>
     </row>
-    <row r="472" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G472" s="3"/>
       <c r="H472" s="3"/>
     </row>
-    <row r="473" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G473" s="3"/>
       <c r="H473" s="3"/>
     </row>
-    <row r="474" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G474" s="3"/>
       <c r="H474" s="3"/>
     </row>
-    <row r="475" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G475" s="3"/>
       <c r="H475" s="3"/>
     </row>
-    <row r="476" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G476" s="3"/>
       <c r="H476" s="3"/>
     </row>
-    <row r="477" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G477" s="3"/>
       <c r="H477" s="3"/>
     </row>
-    <row r="478" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G478" s="3"/>
       <c r="H478" s="3"/>
     </row>
-    <row r="479" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G479" s="3"/>
       <c r="H479" s="3"/>
     </row>
-    <row r="480" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G480" s="3"/>
       <c r="H480" s="3"/>
     </row>
-    <row r="481" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G481" s="3"/>
       <c r="H481" s="3"/>
     </row>
-    <row r="482" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G482" s="3"/>
       <c r="H482" s="3"/>
     </row>
-    <row r="483" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G483" s="3"/>
       <c r="H483" s="3"/>
     </row>
-    <row r="484" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G484" s="3"/>
       <c r="H484" s="3"/>
     </row>
-    <row r="485" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G485" s="3"/>
       <c r="H485" s="3"/>
     </row>
-    <row r="486" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G486" s="3"/>
       <c r="H486" s="3"/>
     </row>
-    <row r="487" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G487" s="3"/>
       <c r="H487" s="3"/>
     </row>
-    <row r="488" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G488" s="3"/>
       <c r="H488" s="3"/>
     </row>
-    <row r="489" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G489" s="3"/>
       <c r="H489" s="3"/>
     </row>
-    <row r="490" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G490" s="3"/>
       <c r="H490" s="3"/>
     </row>
-    <row r="491" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G491" s="3"/>
       <c r="H491" s="3"/>
     </row>
-    <row r="492" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G492" s="3"/>
       <c r="H492" s="3"/>
     </row>
-    <row r="493" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G493" s="3"/>
       <c r="H493" s="3"/>
     </row>
-    <row r="494" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G494" s="3"/>
       <c r="H494" s="3"/>
     </row>
-    <row r="495" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G495" s="3"/>
       <c r="H495" s="3"/>
     </row>
-    <row r="496" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G496" s="3"/>
       <c r="H496" s="3"/>
     </row>
-    <row r="497" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G497" s="3"/>
       <c r="H497" s="3"/>
     </row>
-    <row r="498" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G498" s="3"/>
       <c r="H498" s="3"/>
     </row>
-    <row r="499" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G499" s="3"/>
       <c r="H499" s="3"/>
     </row>
-    <row r="500" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G500" s="3"/>
       <c r="H500" s="3"/>
     </row>
-    <row r="501" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G501" s="3"/>
       <c r="H501" s="3"/>
     </row>
-    <row r="502" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G502" s="3"/>
       <c r="H502" s="3"/>
     </row>
-    <row r="503" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G503" s="3"/>
       <c r="H503" s="3"/>
     </row>
-    <row r="504" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G504" s="3"/>
       <c r="H504" s="3"/>
     </row>
-    <row r="505" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G505" s="3"/>
       <c r="H505" s="3"/>
     </row>
-    <row r="506" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G506" s="3"/>
       <c r="H506" s="3"/>
     </row>
-    <row r="507" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G507" s="3"/>
       <c r="H507" s="3"/>
     </row>
-    <row r="508" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G508" s="3"/>
       <c r="H508" s="3"/>
     </row>
-    <row r="509" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G509" s="3"/>
       <c r="H509" s="3"/>
     </row>
-    <row r="510" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G510" s="3"/>
       <c r="H510" s="3"/>
     </row>
-    <row r="511" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G511" s="3"/>
       <c r="H511" s="3"/>
     </row>
-    <row r="512" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G512" s="3"/>
       <c r="H512" s="3"/>
     </row>
-    <row r="513" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G513" s="3"/>
       <c r="H513" s="3"/>
     </row>
-    <row r="514" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G514" s="3"/>
       <c r="H514" s="3"/>
     </row>
-    <row r="515" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G515" s="3"/>
       <c r="H515" s="3"/>
     </row>
-    <row r="516" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G516" s="3"/>
       <c r="H516" s="3"/>
     </row>
-    <row r="517" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G517" s="3"/>
       <c r="H517" s="3"/>
     </row>
-    <row r="518" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G518" s="3"/>
       <c r="H518" s="3"/>
     </row>
-    <row r="519" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G519" s="3"/>
       <c r="H519" s="3"/>
     </row>
-    <row r="520" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G520" s="3"/>
       <c r="H520" s="3"/>
     </row>
-    <row r="521" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G521" s="3"/>
       <c r="H521" s="3"/>
     </row>
-    <row r="522" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G522" s="3"/>
       <c r="H522" s="3"/>
     </row>
-    <row r="523" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G523" s="3"/>
       <c r="H523" s="3"/>
     </row>
-    <row r="524" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G524" s="3"/>
       <c r="H524" s="3"/>
     </row>
-    <row r="525" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G525" s="3"/>
       <c r="H525" s="3"/>
     </row>
-    <row r="526" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G526" s="3"/>
       <c r="H526" s="3"/>
     </row>
-    <row r="527" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G527" s="3"/>
       <c r="H527" s="3"/>
     </row>
-    <row r="528" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G528" s="3"/>
       <c r="H528" s="3"/>
     </row>
-    <row r="529" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G529" s="3"/>
       <c r="H529" s="3"/>
     </row>
-    <row r="530" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G530" s="3"/>
       <c r="H530" s="3"/>
     </row>
-    <row r="531" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G531" s="3"/>
       <c r="H531" s="3"/>
     </row>
-    <row r="532" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G532" s="3"/>
       <c r="H532" s="3"/>
     </row>
-    <row r="533" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G533" s="3"/>
       <c r="H533" s="3"/>
     </row>
-    <row r="534" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G534" s="3"/>
       <c r="H534" s="3"/>
     </row>
-    <row r="535" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G535" s="3"/>
       <c r="H535" s="3"/>
     </row>
-    <row r="536" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G536" s="3"/>
       <c r="H536" s="3"/>
     </row>
-    <row r="537" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G537" s="3"/>
       <c r="H537" s="3"/>
     </row>
-    <row r="538" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G538" s="3"/>
       <c r="H538" s="3"/>
     </row>
-    <row r="539" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G539" s="3"/>
       <c r="H539" s="3"/>
     </row>
-    <row r="540" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G540" s="3"/>
       <c r="H540" s="3"/>
     </row>
-    <row r="541" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G541" s="3"/>
       <c r="H541" s="3"/>
     </row>
-    <row r="542" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G542" s="3"/>
       <c r="H542" s="3"/>
     </row>
-    <row r="543" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G543" s="3"/>
       <c r="H543" s="3"/>
     </row>
-    <row r="544" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G544" s="3"/>
       <c r="H544" s="3"/>
     </row>
-    <row r="545" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G545" s="3"/>
       <c r="H545" s="3"/>
     </row>
-    <row r="546" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G546" s="3"/>
       <c r="H546" s="3"/>
     </row>
-    <row r="547" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G547" s="3"/>
       <c r="H547" s="3"/>
     </row>
-    <row r="548" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G548" s="3"/>
       <c r="H548" s="3"/>
     </row>
-    <row r="549" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G549" s="3"/>
       <c r="H549" s="3"/>
     </row>
-    <row r="550" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G550" s="3"/>
       <c r="H550" s="3"/>
     </row>
-    <row r="551" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G551" s="3"/>
       <c r="H551" s="3"/>
     </row>
-    <row r="552" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G552" s="3"/>
       <c r="H552" s="3"/>
     </row>
-    <row r="553" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G553" s="3"/>
       <c r="H553" s="3"/>
     </row>
-    <row r="554" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G554" s="3"/>
       <c r="H554" s="3"/>
     </row>
-    <row r="555" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G555" s="3"/>
       <c r="H555" s="3"/>
     </row>
-    <row r="556" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G556" s="3"/>
       <c r="H556" s="3"/>
     </row>
-    <row r="557" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G557" s="3"/>
       <c r="H557" s="3"/>
     </row>
-    <row r="558" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G558" s="3"/>
       <c r="H558" s="3"/>
     </row>
-    <row r="559" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G559" s="3"/>
       <c r="H559" s="3"/>
     </row>
-    <row r="560" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G560" s="3"/>
       <c r="H560" s="3"/>
     </row>
-    <row r="561" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G561" s="3"/>
       <c r="H561" s="3"/>
     </row>
-    <row r="562" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G562" s="3"/>
       <c r="H562" s="3"/>
     </row>
-    <row r="563" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G563" s="3"/>
       <c r="H563" s="3"/>
     </row>
-    <row r="564" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G564" s="3"/>
       <c r="H564" s="3"/>
     </row>
-    <row r="565" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G565" s="3"/>
       <c r="H565" s="3"/>
     </row>
-    <row r="566" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G566" s="3"/>
       <c r="H566" s="3"/>
     </row>
-    <row r="567" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G567" s="3"/>
       <c r="H567" s="3"/>
     </row>
-    <row r="568" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G568" s="3"/>
       <c r="H568" s="3"/>
     </row>
-    <row r="569" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G569" s="3"/>
       <c r="H569" s="3"/>
     </row>
-    <row r="570" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G570" s="3"/>
       <c r="H570" s="3"/>
     </row>
-    <row r="571" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G571" s="3"/>
       <c r="H571" s="3"/>
     </row>
-    <row r="572" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G572" s="3"/>
       <c r="H572" s="3"/>
     </row>
-    <row r="573" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G573" s="3"/>
       <c r="H573" s="3"/>
     </row>
-    <row r="574" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G574" s="3"/>
       <c r="H574" s="3"/>
     </row>
-    <row r="575" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G575" s="3"/>
       <c r="H575" s="3"/>
     </row>
-    <row r="576" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G576" s="3"/>
       <c r="H576" s="3"/>
     </row>
-    <row r="577" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G577" s="3"/>
       <c r="H577" s="3"/>
     </row>
-    <row r="578" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G578" s="3"/>
       <c r="H578" s="3"/>
     </row>
-    <row r="579" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G579" s="3"/>
       <c r="H579" s="3"/>
     </row>
-    <row r="580" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G580" s="3"/>
       <c r="H580" s="3"/>
     </row>
-    <row r="581" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G581" s="3"/>
       <c r="H581" s="3"/>
     </row>
-    <row r="582" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G582" s="3"/>
       <c r="H582" s="3"/>
     </row>
-    <row r="583" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G583" s="3"/>
       <c r="H583" s="3"/>
     </row>
-    <row r="584" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G584" s="3"/>
       <c r="H584" s="3"/>
     </row>
-    <row r="585" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G585" s="3"/>
       <c r="H585" s="3"/>
     </row>
-    <row r="586" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G586" s="3"/>
       <c r="H586" s="3"/>
     </row>
-    <row r="587" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G587" s="3"/>
       <c r="H587" s="3"/>
     </row>
-    <row r="588" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G588" s="3"/>
       <c r="H588" s="3"/>
     </row>
-    <row r="589" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G589" s="3"/>
       <c r="H589" s="3"/>
     </row>
-    <row r="590" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G590" s="3"/>
       <c r="H590" s="3"/>
     </row>
-    <row r="591" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G591" s="3"/>
       <c r="H591" s="3"/>
     </row>
-    <row r="592" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G592" s="3"/>
       <c r="H592" s="3"/>
     </row>
-    <row r="593" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G593" s="3"/>
       <c r="H593" s="3"/>
     </row>
-    <row r="594" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G594" s="3"/>
       <c r="H594" s="3"/>
     </row>
-    <row r="595" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G595" s="3"/>
       <c r="H595" s="3"/>
     </row>
-    <row r="596" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G596" s="3"/>
       <c r="H596" s="3"/>
     </row>
-    <row r="597" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G597" s="3"/>
       <c r="H597" s="3"/>
     </row>
-    <row r="598" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G598" s="3"/>
       <c r="H598" s="3"/>
     </row>
-    <row r="599" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G599" s="3"/>
       <c r="H599" s="3"/>
     </row>
-    <row r="600" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G600" s="3"/>
       <c r="H600" s="3"/>
     </row>
-    <row r="601" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G601" s="3"/>
       <c r="H601" s="3"/>
     </row>
-    <row r="602" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G602" s="3"/>
       <c r="H602" s="3"/>
     </row>
-    <row r="603" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G603" s="3"/>
       <c r="H603" s="3"/>
     </row>
-    <row r="604" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G604" s="3"/>
       <c r="H604" s="3"/>
     </row>
-    <row r="605" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G605" s="3"/>
       <c r="H605" s="3"/>
     </row>
-    <row r="606" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G606" s="3"/>
       <c r="H606" s="3"/>
     </row>
-    <row r="607" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G607" s="3"/>
       <c r="H607" s="3"/>
     </row>
-    <row r="608" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G608" s="3"/>
       <c r="H608" s="3"/>
     </row>
-    <row r="609" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G609" s="3"/>
       <c r="H609" s="3"/>
     </row>
-    <row r="610" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G610" s="3"/>
       <c r="H610" s="3"/>
     </row>
-    <row r="611" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G611" s="3"/>
       <c r="H611" s="3"/>
     </row>
-    <row r="612" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G612" s="3"/>
       <c r="H612" s="3"/>
     </row>
-    <row r="613" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G613" s="3"/>
       <c r="H613" s="3"/>
     </row>
-    <row r="614" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G614" s="3"/>
       <c r="H614" s="3"/>
     </row>
-    <row r="615" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G615" s="3"/>
       <c r="H615" s="3"/>
     </row>
-    <row r="616" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G616" s="3"/>
       <c r="H616" s="3"/>
     </row>
-    <row r="617" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G617" s="3"/>
       <c r="H617" s="3"/>
     </row>
-    <row r="618" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G618" s="3"/>
       <c r="H618" s="3"/>
     </row>
-    <row r="619" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G619" s="3"/>
       <c r="H619" s="3"/>
     </row>
-    <row r="620" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G620" s="3"/>
       <c r="H620" s="3"/>
     </row>
-    <row r="621" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G621" s="3"/>
       <c r="H621" s="3"/>
     </row>
-    <row r="622" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G622" s="3"/>
       <c r="H622" s="3"/>
     </row>
-    <row r="623" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G623" s="3"/>
       <c r="H623" s="3"/>
     </row>
-    <row r="624" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G624" s="3"/>
       <c r="H624" s="3"/>
     </row>
-    <row r="625" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G625" s="3"/>
       <c r="H625" s="3"/>
     </row>
-    <row r="626" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G626" s="3"/>
       <c r="H626" s="3"/>
     </row>
-    <row r="627" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G627" s="3"/>
       <c r="H627" s="3"/>
     </row>
-    <row r="628" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G628" s="3"/>
       <c r="H628" s="3"/>
     </row>
-    <row r="629" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G629" s="3"/>
       <c r="H629" s="3"/>
     </row>
-    <row r="630" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G630" s="3"/>
       <c r="H630" s="3"/>
     </row>
-    <row r="631" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G631" s="3"/>
       <c r="H631" s="3"/>
     </row>
-    <row r="632" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G632" s="3"/>
       <c r="H632" s="3"/>
     </row>
-    <row r="633" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G633" s="3"/>
       <c r="H633" s="3"/>
     </row>
-    <row r="634" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G634" s="3"/>
       <c r="H634" s="3"/>
     </row>
-    <row r="635" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G635" s="3"/>
       <c r="H635" s="3"/>
     </row>
-    <row r="636" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G636" s="3"/>
       <c r="H636" s="3"/>
     </row>
-    <row r="637" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G637" s="3"/>
       <c r="H637" s="3"/>
     </row>
-    <row r="638" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G638" s="3"/>
       <c r="H638" s="3"/>
     </row>
-    <row r="639" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G639" s="3"/>
       <c r="H639" s="3"/>
     </row>
-    <row r="640" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G640" s="3"/>
       <c r="H640" s="3"/>
     </row>
-    <row r="641" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G641" s="3"/>
       <c r="H641" s="3"/>
     </row>
-    <row r="642" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G642" s="3"/>
       <c r="H642" s="3"/>
     </row>
-    <row r="643" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G643" s="3"/>
       <c r="H643" s="3"/>
     </row>
-    <row r="644" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G644" s="3"/>
       <c r="H644" s="3"/>
     </row>
-    <row r="645" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G645" s="3"/>
       <c r="H645" s="3"/>
     </row>
-    <row r="646" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G646" s="3"/>
       <c r="H646" s="3"/>
     </row>
-    <row r="647" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G647" s="3"/>
       <c r="H647" s="3"/>
     </row>
-    <row r="648" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G648" s="3"/>
       <c r="H648" s="3"/>
     </row>
-    <row r="649" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G649" s="3"/>
       <c r="H649" s="3"/>
     </row>
-    <row r="650" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G650" s="3"/>
       <c r="H650" s="3"/>
     </row>
-    <row r="651" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G651" s="3"/>
       <c r="H651" s="3"/>
     </row>
-    <row r="652" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G652" s="3"/>
       <c r="H652" s="3"/>
     </row>
-    <row r="653" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G653" s="3"/>
       <c r="H653" s="3"/>
     </row>
-    <row r="654" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G654" s="3"/>
       <c r="H654" s="3"/>
     </row>
-    <row r="655" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G655" s="3"/>
       <c r="H655" s="3"/>
     </row>
-    <row r="656" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G656" s="3"/>
       <c r="H656" s="3"/>
     </row>
-    <row r="657" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G657" s="3"/>
       <c r="H657" s="3"/>
     </row>
-    <row r="658" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G658" s="3"/>
       <c r="H658" s="3"/>
     </row>
-    <row r="659" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G659" s="3"/>
       <c r="H659" s="3"/>
     </row>
-    <row r="660" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G660" s="3"/>
       <c r="H660" s="3"/>
     </row>
-    <row r="661" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G661" s="3"/>
       <c r="H661" s="3"/>
     </row>
-    <row r="662" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G662" s="3"/>
       <c r="H662" s="3"/>
     </row>
-    <row r="663" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G663" s="3"/>
       <c r="H663" s="3"/>
     </row>
-    <row r="664" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G664" s="3"/>
       <c r="H664" s="3"/>
     </row>
-    <row r="665" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G665" s="3"/>
       <c r="H665" s="3"/>
     </row>
-    <row r="666" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G666" s="3"/>
       <c r="H666" s="3"/>
     </row>
-    <row r="667" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G667" s="3"/>
       <c r="H667" s="3"/>
     </row>
-    <row r="668" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G668" s="3"/>
       <c r="H668" s="3"/>
     </row>
-    <row r="669" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G669" s="3"/>
       <c r="H669" s="3"/>
     </row>
-    <row r="670" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G670" s="3"/>
       <c r="H670" s="3"/>
     </row>
-    <row r="671" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G671" s="3"/>
       <c r="H671" s="3"/>
     </row>
-    <row r="672" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G672" s="3"/>
       <c r="H672" s="3"/>
     </row>
-    <row r="673" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G673" s="3"/>
       <c r="H673" s="3"/>
     </row>
-    <row r="674" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G674" s="3"/>
       <c r="H674" s="3"/>
     </row>
-    <row r="675" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G675" s="3"/>
       <c r="H675" s="3"/>
     </row>
-    <row r="676" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G676" s="3"/>
       <c r="H676" s="3"/>
     </row>
-    <row r="677" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G677" s="3"/>
       <c r="H677" s="3"/>
     </row>
-    <row r="678" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G678" s="3"/>
       <c r="H678" s="3"/>
     </row>
-    <row r="679" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G679" s="3"/>
       <c r="H679" s="3"/>
     </row>
-    <row r="680" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G680" s="3"/>
       <c r="H680" s="3"/>
     </row>
-    <row r="681" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G681" s="3"/>
       <c r="H681" s="3"/>
     </row>
-    <row r="682" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G682" s="3"/>
       <c r="H682" s="3"/>
     </row>
-    <row r="683" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G683" s="3"/>
       <c r="H683" s="3"/>
     </row>
-    <row r="684" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G684" s="3"/>
       <c r="H684" s="3"/>
     </row>
-    <row r="685" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G685" s="3"/>
       <c r="H685" s="3"/>
     </row>
-    <row r="686" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G686" s="3"/>
       <c r="H686" s="3"/>
     </row>
-    <row r="687" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G687" s="3"/>
       <c r="H687" s="3"/>
     </row>
-    <row r="688" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G688" s="3"/>
       <c r="H688" s="3"/>
     </row>
-    <row r="689" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G689" s="3"/>
       <c r="H689" s="3"/>
     </row>
-    <row r="690" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G690" s="3"/>
       <c r="H690" s="3"/>
     </row>
-    <row r="691" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G691" s="3"/>
       <c r="H691" s="3"/>
     </row>
-    <row r="692" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G692" s="3"/>
       <c r="H692" s="3"/>
     </row>
-    <row r="693" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G693" s="3"/>
       <c r="H693" s="3"/>
     </row>
-    <row r="694" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G694" s="3"/>
       <c r="H694" s="3"/>
     </row>
-    <row r="695" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G695" s="3"/>
       <c r="H695" s="3"/>
     </row>
-    <row r="696" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G696" s="3"/>
       <c r="H696" s="3"/>
     </row>
-    <row r="697" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G697" s="3"/>
       <c r="H697" s="3"/>
     </row>
-    <row r="698" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G698" s="3"/>
       <c r="H698" s="3"/>
     </row>
-    <row r="699" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G699" s="3"/>
       <c r="H699" s="3"/>
     </row>
-    <row r="700" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G700" s="3"/>
       <c r="H700" s="3"/>
     </row>
-    <row r="701" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G701" s="3"/>
       <c r="H701" s="3"/>
     </row>
-    <row r="702" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G702" s="3"/>
       <c r="H702" s="3"/>
     </row>
-    <row r="703" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G703" s="3"/>
       <c r="H703" s="3"/>
     </row>
-    <row r="704" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G704" s="3"/>
       <c r="H704" s="3"/>
     </row>
-    <row r="705" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G705" s="3"/>
       <c r="H705" s="3"/>
     </row>
-    <row r="706" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G706" s="3"/>
       <c r="H706" s="3"/>
     </row>
-    <row r="707" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G707" s="3"/>
       <c r="H707" s="3"/>
     </row>
-    <row r="708" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G708" s="3"/>
       <c r="H708" s="3"/>
     </row>
-    <row r="709" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G709" s="3"/>
       <c r="H709" s="3"/>
     </row>
-    <row r="710" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G710" s="3"/>
       <c r="H710" s="3"/>
     </row>
-    <row r="711" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G711" s="3"/>
       <c r="H711" s="3"/>
     </row>
-    <row r="712" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G712" s="3"/>
       <c r="H712" s="3"/>
     </row>
-    <row r="713" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G713" s="3"/>
       <c r="H713" s="3"/>
     </row>
-    <row r="714" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G714" s="3"/>
       <c r="H714" s="3"/>
     </row>
-    <row r="715" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G715" s="3"/>
       <c r="H715" s="3"/>
     </row>
-    <row r="716" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G716" s="3"/>
       <c r="H716" s="3"/>
     </row>
-    <row r="717" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G717" s="3"/>
       <c r="H717" s="3"/>
     </row>
-    <row r="718" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G718" s="3"/>
       <c r="H718" s="3"/>
     </row>
-    <row r="719" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G719" s="3"/>
       <c r="H719" s="3"/>
     </row>
-    <row r="720" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G720" s="3"/>
       <c r="H720" s="3"/>
     </row>
-    <row r="721" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G721" s="3"/>
       <c r="H721" s="3"/>
     </row>
-    <row r="722" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G722" s="3"/>
       <c r="H722" s="3"/>
     </row>
-    <row r="723" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G723" s="3"/>
       <c r="H723" s="3"/>
     </row>
-    <row r="724" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G724" s="3"/>
       <c r="H724" s="3"/>
     </row>
-    <row r="725" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G725" s="3"/>
       <c r="H725" s="3"/>
     </row>
-    <row r="726" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G726" s="3"/>
       <c r="H726" s="3"/>
     </row>
-    <row r="727" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G727" s="3"/>
       <c r="H727" s="3"/>
     </row>
-    <row r="728" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G728" s="3"/>
       <c r="H728" s="3"/>
     </row>
-    <row r="729" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G729" s="3"/>
       <c r="H729" s="3"/>
     </row>
-    <row r="730" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G730" s="3"/>
       <c r="H730" s="3"/>
     </row>
-    <row r="731" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G731" s="3"/>
       <c r="H731" s="3"/>
     </row>
-    <row r="732" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G732" s="3"/>
       <c r="H732" s="3"/>
     </row>
-    <row r="733" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G733" s="3"/>
       <c r="H733" s="3"/>
     </row>
-    <row r="734" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G734" s="3"/>
       <c r="H734" s="3"/>
     </row>
-    <row r="735" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G735" s="3"/>
       <c r="H735" s="3"/>
     </row>
-    <row r="736" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G736" s="3"/>
       <c r="H736" s="3"/>
     </row>
-    <row r="737" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G737" s="3"/>
       <c r="H737" s="3"/>
     </row>
-    <row r="738" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G738" s="3"/>
       <c r="H738" s="3"/>
     </row>
-    <row r="739" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G739" s="3"/>
       <c r="H739" s="3"/>
     </row>
-    <row r="740" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G740" s="3"/>
       <c r="H740" s="3"/>
     </row>
-    <row r="741" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G741" s="3"/>
       <c r="H741" s="3"/>
     </row>
-    <row r="742" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G742" s="3"/>
       <c r="H742" s="3"/>
     </row>
-    <row r="743" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G743" s="3"/>
       <c r="H743" s="3"/>
     </row>
-    <row r="744" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G744" s="3"/>
       <c r="H744" s="3"/>
     </row>
-    <row r="745" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G745" s="3"/>
       <c r="H745" s="3"/>
     </row>
-    <row r="746" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G746" s="3"/>
       <c r="H746" s="3"/>
     </row>
-    <row r="747" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G747" s="3"/>
       <c r="H747" s="3"/>
     </row>
-    <row r="748" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G748" s="3"/>
       <c r="H748" s="3"/>
     </row>
-    <row r="749" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G749" s="3"/>
       <c r="H749" s="3"/>
     </row>
-    <row r="750" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G750" s="3"/>
       <c r="H750" s="3"/>
     </row>
-    <row r="751" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G751" s="3"/>
       <c r="H751" s="3"/>
     </row>
-    <row r="752" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G752" s="3"/>
       <c r="H752" s="3"/>
     </row>
-    <row r="753" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G753" s="3"/>
       <c r="H753" s="3"/>
     </row>
-    <row r="754" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G754" s="3"/>
       <c r="H754" s="3"/>
     </row>
-    <row r="755" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G755" s="3"/>
       <c r="H755" s="3"/>
     </row>
-    <row r="756" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G756" s="3"/>
       <c r="H756" s="3"/>
     </row>
-    <row r="757" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G757" s="3"/>
       <c r="H757" s="3"/>
     </row>
-    <row r="758" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G758" s="3"/>
       <c r="H758" s="3"/>
     </row>
-    <row r="759" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G759" s="3"/>
       <c r="H759" s="3"/>
     </row>
-    <row r="760" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G760" s="3"/>
       <c r="H760" s="3"/>
     </row>
-    <row r="761" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G761" s="3"/>
       <c r="H761" s="3"/>
     </row>
-    <row r="762" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G762" s="3"/>
       <c r="H762" s="3"/>
     </row>
-    <row r="763" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G763" s="3"/>
       <c r="H763" s="3"/>
     </row>
-    <row r="764" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G764" s="3"/>
       <c r="H764" s="3"/>
     </row>
-    <row r="765" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G765" s="3"/>
       <c r="H765" s="3"/>
     </row>
-    <row r="766" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G766" s="3"/>
       <c r="H766" s="3"/>
     </row>
-    <row r="767" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G767" s="3"/>
       <c r="H767" s="3"/>
     </row>
-    <row r="768" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G768" s="3"/>
       <c r="H768" s="3"/>
     </row>
-    <row r="769" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G769" s="3"/>
       <c r="H769" s="3"/>
     </row>
-    <row r="770" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G770" s="3"/>
       <c r="H770" s="3"/>
     </row>
-    <row r="771" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G771" s="3"/>
       <c r="H771" s="3"/>
     </row>
-    <row r="772" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G772" s="3"/>
       <c r="H772" s="3"/>
     </row>
-    <row r="773" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G773" s="3"/>
       <c r="H773" s="3"/>
     </row>
-    <row r="774" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G774" s="3"/>
       <c r="H774" s="3"/>
     </row>
-    <row r="775" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G775" s="3"/>
       <c r="H775" s="3"/>
     </row>
-    <row r="776" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G776" s="3"/>
       <c r="H776" s="3"/>
     </row>
-    <row r="777" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G777" s="3"/>
       <c r="H777" s="3"/>
     </row>
-    <row r="778" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G778" s="3"/>
       <c r="H778" s="3"/>
     </row>
-    <row r="779" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G779" s="3"/>
       <c r="H779" s="3"/>
     </row>
-    <row r="780" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G780" s="3"/>
       <c r="H780" s="3"/>
     </row>
-    <row r="781" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G781" s="3"/>
       <c r="H781" s="3"/>
     </row>
-    <row r="782" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G782" s="3"/>
       <c r="H782" s="3"/>
     </row>
-    <row r="783" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G783" s="3"/>
       <c r="H783" s="3"/>
     </row>
-    <row r="784" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G784" s="3"/>
       <c r="H784" s="3"/>
     </row>
-    <row r="785" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G785" s="3"/>
       <c r="H785" s="3"/>
     </row>
-    <row r="786" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G786" s="3"/>
       <c r="H786" s="3"/>
     </row>
-    <row r="787" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G787" s="3"/>
       <c r="H787" s="3"/>
     </row>
-    <row r="788" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G788" s="3"/>
       <c r="H788" s="3"/>
     </row>
-    <row r="789" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G789" s="3"/>
       <c r="H789" s="3"/>
     </row>
-    <row r="790" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G790" s="3"/>
       <c r="H790" s="3"/>
     </row>
-    <row r="791" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G791" s="3"/>
       <c r="H791" s="3"/>
     </row>
-    <row r="792" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G792" s="3"/>
       <c r="H792" s="3"/>
     </row>
-    <row r="793" spans="7:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G793" s="3"/>
       <c r="H793" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H793">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H793"/>
   <conditionalFormatting sqref="E1:E20 E23:E102 E104:E1048576">
     <cfRule type="expression" dxfId="55" priority="19" stopIfTrue="1">
       <formula>D1="c"</formula>
@@ -17863,8 +17875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M793"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18717,7 +18729,9 @@
       <c r="C39" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E39" s="3">
         <v>125</v>
       </c>
@@ -18727,7 +18741,7 @@
       </c>
       <c r="H39" s="3">
         <f t="shared" si="1"/>
-        <v>3267.3700000000113</v>
+        <v>3142.3700000000113</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -18740,6 +18754,9 @@
       <c r="C40" s="20" t="s">
         <v>420</v>
       </c>
+      <c r="D40" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E40" s="3">
         <v>125</v>
       </c>
@@ -18749,7 +18766,7 @@
       </c>
       <c r="H40" s="3">
         <f t="shared" si="1"/>
-        <v>3267.3700000000113</v>
+        <v>3017.3700000000113</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -18768,7 +18785,7 @@
       </c>
       <c r="H41" s="3">
         <f t="shared" si="1"/>
-        <v>3281.6300000000115</v>
+        <v>3031.6300000000115</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -18787,7 +18804,7 @@
       </c>
       <c r="H42" s="3">
         <f t="shared" si="1"/>
-        <v>3295.8900000000117</v>
+        <v>3045.8900000000117</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -18806,7 +18823,7 @@
       </c>
       <c r="H43" s="3">
         <f t="shared" si="1"/>
-        <v>3310.1500000000119</v>
+        <v>3060.1500000000119</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -18831,7 +18848,7 @@
       </c>
       <c r="H44" s="3">
         <f t="shared" si="1"/>
-        <v>3292.3100000000118</v>
+        <v>3042.3100000000118</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -18850,7 +18867,7 @@
       </c>
       <c r="H45" s="3">
         <f t="shared" si="1"/>
-        <v>3306.570000000012</v>
+        <v>3056.570000000012</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -18869,139 +18886,234 @@
       </c>
       <c r="H46" s="3">
         <f t="shared" si="1"/>
-        <v>3320.8300000000122</v>
+        <v>3070.8300000000122</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
-      <c r="C47" s="20"/>
-      <c r="G47" s="3" t="str">
+      <c r="A47" s="28">
+        <v>43559</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F47">
+        <v>105</v>
+      </c>
+      <c r="G47" s="3">
         <f>IF(ISBLANK(A47),"",'2019'!G46-E47+F47)</f>
-        <v/>
-      </c>
-      <c r="H47" s="3" t="str">
+        <v>3030.8300000000122</v>
+      </c>
+      <c r="H47" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3175.8300000000122</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
-      <c r="C48" s="20"/>
-      <c r="G48" s="3" t="str">
+      <c r="A48" s="28">
+        <v>43563</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F48">
+        <v>570</v>
+      </c>
+      <c r="G48" s="3">
         <f>IF(ISBLANK(A48),"",'2019'!G47-E48+F48)</f>
-        <v/>
-      </c>
-      <c r="H48" s="3" t="str">
+        <v>3600.8300000000122</v>
+      </c>
+      <c r="H48" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3745.8300000000122</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
-      <c r="C49" s="20"/>
-      <c r="G49" s="3" t="str">
+      <c r="A49" s="28">
+        <v>43564</v>
+      </c>
+      <c r="B49">
+        <v>1404</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="3">
+        <v>37.47</v>
+      </c>
+      <c r="G49" s="3">
         <f>IF(ISBLANK(A49),"",'2019'!G48-E49+F49)</f>
-        <v/>
-      </c>
-      <c r="H49" s="3" t="str">
+        <v>3563.3600000000124</v>
+      </c>
+      <c r="H49" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3708.3600000000124</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
-      <c r="C50" s="20"/>
-      <c r="G50" s="3" t="str">
+      <c r="A50" s="28">
+        <v>43564</v>
+      </c>
+      <c r="B50">
+        <v>1405</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="3">
+        <v>145</v>
+      </c>
+      <c r="G50" s="3">
         <f>IF(ISBLANK(A50),"",'2019'!G49-E50+F50)</f>
-        <v/>
-      </c>
-      <c r="H50" s="3" t="str">
+        <v>3418.3600000000124</v>
+      </c>
+      <c r="H50" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3563.3600000000124</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
-      <c r="C51" s="20"/>
-      <c r="G51" s="3" t="str">
+      <c r="A51" s="28">
+        <v>43572</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F51">
+        <v>14.26</v>
+      </c>
+      <c r="G51" s="3">
         <f>IF(ISBLANK(A51),"",'2019'!G50-E51+F51)</f>
-        <v/>
-      </c>
-      <c r="H51" s="3" t="str">
+        <v>3432.6200000000126</v>
+      </c>
+      <c r="H51" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3577.6200000000126</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="28"/>
-      <c r="C52" s="20"/>
-      <c r="G52" s="3" t="str">
+      <c r="A52" s="28">
+        <v>43573</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F52">
+        <v>14.26</v>
+      </c>
+      <c r="G52" s="3">
         <f>IF(ISBLANK(A52),"",'2019'!G51-E52+F52)</f>
-        <v/>
-      </c>
-      <c r="H52" s="3" t="str">
+        <v>3446.8800000000128</v>
+      </c>
+      <c r="H52" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3591.8800000000128</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
-      <c r="C53" s="20"/>
-      <c r="G53" s="3" t="str">
+      <c r="A53" s="28">
+        <v>43574</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F53">
+        <v>28.52</v>
+      </c>
+      <c r="G53" s="3">
         <f>IF(ISBLANK(A53),"",'2019'!G52-E53+F53)</f>
-        <v/>
-      </c>
-      <c r="H53" s="3" t="str">
+        <v>3475.4000000000128</v>
+      </c>
+      <c r="H53" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3620.4000000000128</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
-      <c r="C54" s="20"/>
-      <c r="G54" s="3" t="str">
+      <c r="A54" s="28">
+        <v>43577</v>
+      </c>
+      <c r="B54">
+        <v>1406</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="3">
+        <v>500</v>
+      </c>
+      <c r="G54" s="3">
         <f>IF(ISBLANK(A54),"",'2019'!G53-E54+F54)</f>
-        <v/>
-      </c>
-      <c r="H54" s="3" t="str">
+        <v>2975.4000000000128</v>
+      </c>
+      <c r="H54" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3120.4000000000128</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
-      <c r="C55" s="20"/>
-      <c r="G55" s="3" t="str">
+      <c r="A55" s="28">
+        <v>43579</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F55">
+        <v>57.04</v>
+      </c>
+      <c r="G55" s="3">
         <f>IF(ISBLANK(A55),"",'2019'!G54-E55+F55)</f>
-        <v/>
-      </c>
-      <c r="H55" s="3" t="str">
+        <v>3032.4400000000128</v>
+      </c>
+      <c r="H55" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3177.4400000000128</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="28"/>
-      <c r="C56" s="20"/>
-      <c r="G56" s="3" t="str">
+      <c r="A56" s="28">
+        <v>43586</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F56">
+        <v>43.39</v>
+      </c>
+      <c r="G56" s="3">
         <f>IF(ISBLANK(A56),"",'2019'!G55-E56+F56)</f>
-        <v/>
-      </c>
-      <c r="H56" s="3" t="str">
+        <v>3075.8300000000127</v>
+      </c>
+      <c r="H56" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3220.8300000000127</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="28"/>
-      <c r="C57" s="20"/>
-      <c r="G57" s="3" t="str">
+      <c r="A57" s="28">
+        <v>43602</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F57">
+        <v>14.26</v>
+      </c>
+      <c r="G57" s="3">
         <f>IF(ISBLANK(A57),"",'2019'!G56-E57+F57)</f>
-        <v/>
-      </c>
-      <c r="H57" s="3" t="str">
+        <v>3090.0900000000129</v>
+      </c>
+      <c r="H57" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3235.0900000000129</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">

--- a/MIACADA Ledger.xlsx
+++ b/MIACADA Ledger.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="424">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -2107,11 +2107,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="225764240"/>
-        <c:axId val="225765920"/>
+        <c:axId val="300342752"/>
+        <c:axId val="300344992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="225764240"/>
+        <c:axId val="300342752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,7 +2154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225765920"/>
+        <c:crossAx val="300344992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2162,7 +2162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225765920"/>
+        <c:axId val="300344992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2213,7 +2213,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225764240"/>
+        <c:crossAx val="300342752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2476,11 +2476,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="225769840"/>
-        <c:axId val="225770400"/>
+        <c:axId val="393773312"/>
+        <c:axId val="393773872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="225769840"/>
+        <c:axId val="393773312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2523,7 +2523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225770400"/>
+        <c:crossAx val="393773872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2531,7 +2531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225770400"/>
+        <c:axId val="393773872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2582,7 +2582,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225769840"/>
+        <c:crossAx val="393773312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3522,11 +3522,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="418160928"/>
-        <c:axId val="418161488"/>
+        <c:axId val="417349440"/>
+        <c:axId val="417350000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="418160928"/>
+        <c:axId val="417349440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3569,7 +3569,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418161488"/>
+        <c:crossAx val="417350000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3577,7 +3577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="418161488"/>
+        <c:axId val="417350000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3628,7 +3628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418160928"/>
+        <c:crossAx val="417349440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17875,8 +17875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19117,28 +19117,42 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="28"/>
-      <c r="C58" s="20"/>
-      <c r="G58" s="3" t="str">
+      <c r="A58" s="28">
+        <v>43607</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F58">
+        <v>188.43</v>
+      </c>
+      <c r="G58" s="3">
         <f>IF(ISBLANK(A58),"",'2019'!G57-E58+F58)</f>
-        <v/>
-      </c>
-      <c r="H58" s="3" t="str">
+        <v>3278.5200000000127</v>
+      </c>
+      <c r="H58" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3423.5200000000127</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
-      <c r="C59" s="20"/>
+      <c r="A59" s="28">
+        <v>43607</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="D59" s="8"/>
-      <c r="G59" s="3" t="str">
+      <c r="F59">
+        <v>14.26</v>
+      </c>
+      <c r="G59" s="3">
         <f>IF(ISBLANK(A59),"",'2019'!G58-E59+F59)</f>
-        <v/>
-      </c>
-      <c r="H59" s="3" t="str">
+        <v>3292.7800000000129</v>
+      </c>
+      <c r="H59" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3437.7800000000129</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">

--- a/MIACADA Ledger.xlsx
+++ b/MIACADA Ledger.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="424">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -2107,11 +2107,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="300342752"/>
-        <c:axId val="300344992"/>
+        <c:axId val="301831040"/>
+        <c:axId val="301832720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="300342752"/>
+        <c:axId val="301831040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,7 +2154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300344992"/>
+        <c:crossAx val="301832720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2162,7 +2162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="300344992"/>
+        <c:axId val="301832720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2213,7 +2213,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300342752"/>
+        <c:crossAx val="301831040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2476,11 +2476,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="393773312"/>
-        <c:axId val="393773872"/>
+        <c:axId val="301836640"/>
+        <c:axId val="303362320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="393773312"/>
+        <c:axId val="301836640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2523,7 +2523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393773872"/>
+        <c:crossAx val="303362320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2531,7 +2531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393773872"/>
+        <c:axId val="303362320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2582,7 +2582,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393773312"/>
+        <c:crossAx val="301836640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3522,11 +3522,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="417349440"/>
-        <c:axId val="417350000"/>
+        <c:axId val="393985808"/>
+        <c:axId val="393986368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="417349440"/>
+        <c:axId val="393985808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3569,7 +3569,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417350000"/>
+        <c:crossAx val="393986368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3577,7 +3577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="417350000"/>
+        <c:axId val="393986368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3628,7 +3628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417349440"/>
+        <c:crossAx val="393985808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17875,8 +17875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19156,201 +19156,313 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
-      <c r="C60" s="20"/>
-      <c r="G60" s="3" t="str">
+      <c r="A60" s="28">
+        <v>43609</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F60">
+        <v>14.26</v>
+      </c>
+      <c r="G60" s="3">
         <f>IF(ISBLANK(A60),"",'2019'!G59-E60+F60)</f>
-        <v/>
-      </c>
-      <c r="H60" s="3" t="str">
+        <v>3307.0400000000132</v>
+      </c>
+      <c r="H60" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3452.0400000000132</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
-      <c r="C61" s="20"/>
-      <c r="G61" s="3" t="str">
+      <c r="A61" s="28">
+        <v>43613</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F61">
+        <v>14.26</v>
+      </c>
+      <c r="G61" s="3">
         <f>IF(ISBLANK(A61),"",'2019'!G60-E61+F61)</f>
-        <v/>
-      </c>
-      <c r="H61" s="3" t="str">
+        <v>3321.3000000000134</v>
+      </c>
+      <c r="H61" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3466.3000000000134</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="22"/>
-      <c r="C62" s="20"/>
-      <c r="G62" s="3" t="str">
+      <c r="A62" s="22">
+        <v>43614</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F62" s="8">
+        <v>14.26</v>
+      </c>
+      <c r="G62" s="3">
         <f>IF(ISBLANK(A62),"",'2019'!G61-E62+F62)</f>
-        <v/>
-      </c>
-      <c r="H62" s="3" t="str">
+        <v>3335.5600000000136</v>
+      </c>
+      <c r="H62" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3480.5600000000136</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
-      <c r="C63" s="20"/>
+      <c r="A63" s="22">
+        <v>43619</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="D63" s="8"/>
-      <c r="G63" s="3" t="str">
+      <c r="F63" s="8">
+        <v>14.26</v>
+      </c>
+      <c r="G63" s="3">
         <f>IF(ISBLANK(A63),"",'2019'!G62-E63+F63)</f>
-        <v/>
-      </c>
-      <c r="H63" s="3" t="str">
+        <v>3349.8200000000138</v>
+      </c>
+      <c r="H63" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3494.8200000000138</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
-      <c r="C64" s="20"/>
+      <c r="A64" s="22">
+        <v>43620</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="D64" s="8"/>
-      <c r="G64" s="3" t="str">
+      <c r="F64" s="8">
+        <v>14.26</v>
+      </c>
+      <c r="G64" s="3">
         <f>IF(ISBLANK(A64),"",'2019'!G63-E64+F64)</f>
-        <v/>
-      </c>
-      <c r="H64" s="3" t="str">
+        <v>3364.080000000014</v>
+      </c>
+      <c r="H64" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3509.080000000014</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
-      <c r="C65" s="20"/>
-      <c r="G65" s="3" t="str">
+      <c r="A65" s="28">
+        <v>43622</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F65" s="8">
+        <v>14.26</v>
+      </c>
+      <c r="G65" s="3">
         <f>IF(ISBLANK(A65),"",'2019'!G64-E65+F65)</f>
-        <v/>
-      </c>
-      <c r="H65" s="3" t="str">
+        <v>3378.3400000000142</v>
+      </c>
+      <c r="H65" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3523.3400000000142</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="28"/>
-      <c r="C66" s="20"/>
-      <c r="G66" s="3" t="str">
+      <c r="A66" s="28">
+        <v>43629</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F66" s="8">
+        <v>180</v>
+      </c>
+      <c r="G66" s="3">
         <f>IF(ISBLANK(A66),"",'2019'!G65-E66+F66)</f>
-        <v/>
-      </c>
-      <c r="H66" s="3" t="str">
+        <v>3558.3400000000142</v>
+      </c>
+      <c r="H66" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3703.3400000000142</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="28"/>
-      <c r="C67" s="20"/>
-      <c r="G67" s="3" t="str">
+      <c r="A67" s="28">
+        <v>43636</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F67" s="8">
+        <v>42.78</v>
+      </c>
+      <c r="G67" s="3">
         <f>IF(ISBLANK(A67),"",'2019'!G66-E67+F67)</f>
-        <v/>
-      </c>
-      <c r="H67" s="3" t="str">
+        <v>3601.1200000000144</v>
+      </c>
+      <c r="H67" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3746.1200000000144</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="28"/>
-      <c r="C68" s="20"/>
-      <c r="G68" s="3" t="str">
+      <c r="A68" s="28">
+        <v>43637</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F68" s="8">
+        <v>28.52</v>
+      </c>
+      <c r="G68" s="3">
         <f>IF(ISBLANK(A68),"",'2019'!G67-E68+F68)</f>
-        <v/>
-      </c>
-      <c r="H68" s="3" t="str">
+        <v>3629.6400000000144</v>
+      </c>
+      <c r="H68" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3774.6400000000144</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="28"/>
-      <c r="C69" s="20"/>
+      <c r="A69" s="28">
+        <v>43640</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="D69" s="8"/>
-      <c r="G69" s="3" t="str">
+      <c r="F69" s="8">
+        <v>14.26</v>
+      </c>
+      <c r="G69" s="3">
         <f>IF(ISBLANK(A69),"",'2019'!G68-E69+F69)</f>
-        <v/>
-      </c>
-      <c r="H69" s="3" t="str">
+        <v>3643.9000000000146</v>
+      </c>
+      <c r="H69" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3788.9000000000146</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="28"/>
-      <c r="C70" s="20"/>
-      <c r="G70" s="3" t="str">
+      <c r="A70" s="28">
+        <v>43641</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F70" s="8">
+        <v>28.52</v>
+      </c>
+      <c r="G70" s="3">
         <f>IF(ISBLANK(A70),"",'2019'!G69-E70+F70)</f>
-        <v/>
-      </c>
-      <c r="H70" s="3" t="str">
+        <v>3672.4200000000146</v>
+      </c>
+      <c r="H70" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3817.4200000000146</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="28"/>
-      <c r="C71" s="20"/>
-      <c r="G71" s="3" t="str">
+      <c r="A71" s="28">
+        <v>43643</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F71" s="8">
+        <v>14.26</v>
+      </c>
+      <c r="G71" s="3">
         <f>IF(ISBLANK(A71),"",'2019'!G70-E71+F71)</f>
-        <v/>
-      </c>
-      <c r="H71" s="3" t="str">
+        <v>3686.6800000000148</v>
+      </c>
+      <c r="H71" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3831.6800000000148</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="28"/>
-      <c r="C72" s="20"/>
+      <c r="A72" s="28">
+        <v>43647</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="D72" s="8"/>
-      <c r="G72" s="3" t="str">
+      <c r="F72" s="8">
+        <v>14.26</v>
+      </c>
+      <c r="G72" s="3">
         <f>IF(ISBLANK(A72),"",'2019'!G71-E72+F72)</f>
-        <v/>
-      </c>
-      <c r="H72" s="3" t="str">
+        <v>3700.9400000000151</v>
+      </c>
+      <c r="H72" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3845.9400000000151</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="28"/>
-      <c r="C73" s="20"/>
+      <c r="A73" s="28">
+        <v>43648</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="D73" s="8"/>
-      <c r="G73" s="3" t="str">
+      <c r="F73" s="8">
+        <v>105</v>
+      </c>
+      <c r="G73" s="3">
         <f>IF(ISBLANK(A73),"",'2019'!G72-E73+F73)</f>
-        <v/>
-      </c>
-      <c r="H73" s="3" t="str">
+        <v>3805.9400000000151</v>
+      </c>
+      <c r="H73" s="3">
         <f t="shared" si="1"/>
-        <v/>
+        <v>3950.9400000000151</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="28"/>
-      <c r="C74" s="20"/>
+      <c r="A74" s="28">
+        <v>43655</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="D74" s="8"/>
-      <c r="G74" s="3" t="str">
+      <c r="F74" s="8">
+        <v>19.12</v>
+      </c>
+      <c r="G74" s="3">
         <f>IF(ISBLANK(A74),"",'2019'!G73-E74+F74)</f>
-        <v/>
-      </c>
-      <c r="H74" s="3" t="str">
+        <v>3825.060000000015</v>
+      </c>
+      <c r="H74" s="3">
         <f t="shared" ref="H74:H137" si="2">IF(ISBLANK(A74),"",IF(D74="C",H73-E74+F74,H73+F74))</f>
-        <v/>
+        <v>3970.060000000015</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="28"/>
-      <c r="C75" s="20"/>
-      <c r="G75" s="3" t="str">
+      <c r="A75" s="28">
+        <v>43656</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F75" s="8">
+        <v>19.12</v>
+      </c>
+      <c r="G75" s="3">
         <f>IF(ISBLANK(A75),"",'2019'!G74-E75+F75)</f>
-        <v/>
-      </c>
-      <c r="H75" s="3" t="str">
+        <v>3844.1800000000148</v>
+      </c>
+      <c r="H75" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3989.1800000000148</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">

--- a/MIACADA Ledger.xlsx
+++ b/MIACADA Ledger.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admcches\Documents\GitHub\MIACADA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.wayne.edu\Users\bb0667\Documents\Stuff\MIACADA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="330" yWindow="735" windowWidth="11355" windowHeight="8250" tabRatio="657" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27480" windowHeight="11490" tabRatio="657" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="1" state="hidden" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="434">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -1316,6 +1316,36 @@
   </si>
   <si>
     <t>Presdentation reimbursement Region V attendance</t>
+  </si>
+  <si>
+    <t>Kaelee Setffens Mini Grant</t>
+  </si>
+  <si>
+    <t>Steve Farver Mini Grant</t>
+  </si>
+  <si>
+    <t>Katie Hannah Mini Grant</t>
+  </si>
+  <si>
+    <t>Danielle Flores Lopez Mini Grant</t>
+  </si>
+  <si>
+    <t>Adam McChesney board meeting lunch</t>
+  </si>
+  <si>
+    <t>NACADA allied membership fee</t>
+  </si>
+  <si>
+    <t>Voided check</t>
+  </si>
+  <si>
+    <t>Roberta Rea Oakland University webinar site</t>
+  </si>
+  <si>
+    <t>Ferris State University webinar site</t>
+  </si>
+  <si>
+    <t>Western Michigan University webinar site</t>
   </si>
 </sst>
 </file>
@@ -2096,6 +2126,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F008-42C1-ACE7-C7ABD97C0C10}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2107,11 +2142,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="301831040"/>
-        <c:axId val="301832720"/>
+        <c:axId val="191365856"/>
+        <c:axId val="191366416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="301831040"/>
+        <c:axId val="191365856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,7 +2189,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301832720"/>
+        <c:crossAx val="191366416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2162,7 +2197,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301832720"/>
+        <c:axId val="191366416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2213,7 +2248,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301831040"/>
+        <c:crossAx val="191365856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2290,7 +2325,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -2465,6 +2500,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D0C-44EC-A276-F67EA34506FB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2476,11 +2516,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="301836640"/>
-        <c:axId val="303362320"/>
+        <c:axId val="191370336"/>
+        <c:axId val="191370896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="301836640"/>
+        <c:axId val="191370336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2523,7 +2563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303362320"/>
+        <c:crossAx val="191370896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2531,7 +2571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303362320"/>
+        <c:axId val="191370896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2582,7 +2622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301836640"/>
+        <c:crossAx val="191370336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2659,7 +2699,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -2802,7 +2842,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -2966,6 +3006,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8ABD-4B3B-95C0-0D50DEE3A54A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2981,6 +3026,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8ABD-4B3B-95C0-0D50DEE3A54A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2996,6 +3046,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8ABD-4B3B-95C0-0D50DEE3A54A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3011,6 +3066,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8ABD-4B3B-95C0-0D50DEE3A54A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3026,6 +3086,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8ABD-4B3B-95C0-0D50DEE3A54A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3041,6 +3106,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-8ABD-4B3B-95C0-0D50DEE3A54A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -3058,6 +3128,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-8ABD-4B3B-95C0-0D50DEE3A54A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -3075,6 +3150,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-8ABD-4B3B-95C0-0D50DEE3A54A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -3092,6 +3172,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-8ABD-4B3B-95C0-0D50DEE3A54A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3220,6 +3305,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-8ABD-4B3B-95C0-0D50DEE3A54A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="bestFit"/>
@@ -3306,7 +3396,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -3512,6 +3602,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3B8-4E37-9F4F-41E33DA4E243}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3522,11 +3617,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="393985808"/>
-        <c:axId val="393986368"/>
+        <c:axId val="308813104"/>
+        <c:axId val="308813664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="393985808"/>
+        <c:axId val="308813104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3569,7 +3664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393986368"/>
+        <c:crossAx val="308813664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3577,7 +3672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393986368"/>
+        <c:axId val="308813664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3628,7 +3723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393985808"/>
+        <c:crossAx val="308813104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3705,7 +3800,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -5926,7 +6021,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5961,7 +6062,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5996,7 +6103,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6026,7 +6139,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6879,6 +6998,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
@@ -6955,6 +7077,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -7157,6 +7282,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -11344,8 +11472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M793"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11411,7 +11539,8 @@
         <v>8446.41</v>
       </c>
       <c r="H2" s="3">
-        <v>8446.41</v>
+        <f>8446.41-74.09</f>
+        <v>8372.32</v>
       </c>
       <c r="J2" s="3">
         <v>145</v>
@@ -11445,7 +11574,7 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H10" si="0">IF(D3="C",H2-E3+F3,H2+F3)</f>
-        <v>8321.41</v>
+        <v>8247.32</v>
       </c>
       <c r="J3" s="3">
         <v>145</v>
@@ -11469,7 +11598,7 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>8335.67</v>
+        <v>8261.58</v>
       </c>
       <c r="J4" s="3"/>
       <c r="M4" s="3"/>
@@ -11491,7 +11620,7 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>8364.19</v>
+        <v>8290.1</v>
       </c>
       <c r="J5" s="3"/>
       <c r="M5" s="3"/>
@@ -11513,7 +11642,7 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>8406.9700000000012</v>
+        <v>8332.880000000001</v>
       </c>
       <c r="J6" s="24"/>
       <c r="M6" s="3"/>
@@ -11535,7 +11664,7 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>8449.7500000000018</v>
+        <v>8375.6600000000017</v>
       </c>
       <c r="J7" s="3"/>
     </row>
@@ -11556,7 +11685,7 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>8478.2700000000023</v>
+        <v>8404.1800000000021</v>
       </c>
       <c r="M8" s="3"/>
     </row>
@@ -11577,7 +11706,7 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>8492.5300000000025</v>
+        <v>8418.4400000000023</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -11603,7 +11732,7 @@
       </c>
       <c r="H10" s="3">
         <f t="shared" si="0"/>
-        <v>8098.4700000000021</v>
+        <v>8024.3800000000019</v>
       </c>
       <c r="M10" s="3"/>
     </row>
@@ -11623,7 +11752,7 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" ref="H11:H69" si="1">IF(D11="C",H10-E11+F11,H10+F11)</f>
-        <v>8112.7300000000023</v>
+        <v>8038.6400000000021</v>
       </c>
       <c r="J11" s="3"/>
       <c r="M11" s="3"/>
@@ -11644,7 +11773,7 @@
       </c>
       <c r="H12" s="3">
         <f t="shared" si="1"/>
-        <v>8141.2500000000027</v>
+        <v>8067.1600000000026</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -11669,7 +11798,7 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v>8047.8900000000031</v>
+        <v>7973.8000000000029</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
@@ -11697,7 +11826,7 @@
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>7807.7600000000029</v>
+        <v>7733.6700000000028</v>
       </c>
       <c r="L14" s="3"/>
     </row>
@@ -11717,7 +11846,7 @@
       </c>
       <c r="H15" s="3">
         <f t="shared" si="1"/>
-        <v>7822.0200000000032</v>
+        <v>7747.930000000003</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -11736,7 +11865,7 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" si="1"/>
-        <v>7836.2800000000034</v>
+        <v>7762.1900000000032</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -11755,7 +11884,7 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v>7851.2800000000034</v>
+        <v>7777.1900000000032</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -11774,7 +11903,7 @@
       </c>
       <c r="H18" s="3">
         <f t="shared" si="1"/>
-        <v>7865.5400000000036</v>
+        <v>7791.4500000000035</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -11793,7 +11922,7 @@
       </c>
       <c r="H19" s="3">
         <f t="shared" si="1"/>
-        <v>7879.8000000000038</v>
+        <v>7805.7100000000037</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -11818,7 +11947,7 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" si="1"/>
-        <v>7324.390000000004</v>
+        <v>7250.3000000000038</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -11837,7 +11966,7 @@
       </c>
       <c r="H21" s="3">
         <f t="shared" si="1"/>
-        <v>7338.6500000000042</v>
+        <v>7264.560000000004</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -11856,7 +11985,7 @@
       </c>
       <c r="H22" s="3">
         <f t="shared" si="1"/>
-        <v>7352.9100000000044</v>
+        <v>7278.8200000000043</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -11875,7 +12004,7 @@
       </c>
       <c r="H23" s="3">
         <f t="shared" si="1"/>
-        <v>7415.7200000000048</v>
+        <v>7341.6300000000047</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -11895,7 +12024,7 @@
       </c>
       <c r="H24" s="3">
         <f t="shared" si="1"/>
-        <v>7589.5900000000047</v>
+        <v>7515.5000000000045</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -11914,7 +12043,7 @@
       </c>
       <c r="H25" s="3">
         <f t="shared" si="1"/>
-        <v>7652.4000000000051</v>
+        <v>7578.3100000000049</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -11939,7 +12068,7 @@
       </c>
       <c r="H26" s="3">
         <f t="shared" si="1"/>
-        <v>7512.4000000000051</v>
+        <v>7438.3100000000049</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -11964,7 +12093,7 @@
       </c>
       <c r="H27" s="3">
         <f t="shared" si="1"/>
-        <v>7412.4000000000051</v>
+        <v>7338.3100000000049</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -11989,7 +12118,7 @@
       </c>
       <c r="H28" s="3">
         <f t="shared" si="1"/>
-        <v>7272.4000000000051</v>
+        <v>7198.3100000000049</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -12008,7 +12137,7 @@
       </c>
       <c r="H29" s="3">
         <f t="shared" si="1"/>
-        <v>7335.2100000000055</v>
+        <v>7261.1200000000053</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -12027,7 +12156,7 @@
       </c>
       <c r="H30" s="3">
         <f t="shared" si="1"/>
-        <v>7769.1100000000051</v>
+        <v>7695.020000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -12046,7 +12175,7 @@
       </c>
       <c r="H31" s="3">
         <f t="shared" si="1"/>
-        <v>7783.3700000000053</v>
+        <v>7709.2800000000052</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -12065,7 +12194,7 @@
       </c>
       <c r="H32" s="3">
         <f t="shared" si="1"/>
-        <v>7966.0300000000052</v>
+        <v>7891.9400000000051</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -12084,7 +12213,7 @@
       </c>
       <c r="H33" s="3">
         <f t="shared" si="1"/>
-        <v>8057.3600000000051</v>
+        <v>7983.270000000005</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -12103,7 +12232,7 @@
       </c>
       <c r="H34" s="3">
         <f t="shared" si="1"/>
-        <v>8085.8800000000056</v>
+        <v>8011.7900000000054</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -12128,7 +12257,7 @@
       </c>
       <c r="H35" s="3">
         <f t="shared" si="1"/>
-        <v>7945.8800000000056</v>
+        <v>7871.7900000000054</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -12147,7 +12276,7 @@
       </c>
       <c r="H36" s="3">
         <f t="shared" si="1"/>
-        <v>8071.2000000000053</v>
+        <v>7997.1100000000051</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -12166,7 +12295,7 @@
       </c>
       <c r="H37" s="3">
         <f t="shared" si="1"/>
-        <v>8182.2600000000057</v>
+        <v>8108.1700000000055</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -12185,7 +12314,7 @@
       </c>
       <c r="H38" s="3">
         <f t="shared" si="1"/>
-        <v>8196.5200000000059</v>
+        <v>8122.4300000000057</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -12210,7 +12339,7 @@
       </c>
       <c r="H39" s="3">
         <f t="shared" si="1"/>
-        <v>8131.5200000000059</v>
+        <v>8057.4300000000057</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -12229,7 +12358,7 @@
       </c>
       <c r="H40" s="3">
         <f t="shared" si="1"/>
-        <v>8174.3000000000056</v>
+        <v>8100.2100000000055</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -12248,7 +12377,7 @@
       </c>
       <c r="H41" s="3">
         <f t="shared" si="1"/>
-        <v>8237.110000000006</v>
+        <v>8163.0200000000059</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -12267,7 +12396,7 @@
       </c>
       <c r="H42" s="3">
         <f t="shared" si="1"/>
-        <v>8407.110000000006</v>
+        <v>8333.0200000000059</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -12286,7 +12415,7 @@
       </c>
       <c r="H43" s="3">
         <f t="shared" si="1"/>
-        <v>8469.9200000000055</v>
+        <v>8395.8300000000054</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -12305,7 +12434,7 @@
       </c>
       <c r="H44" s="3">
         <f t="shared" si="1"/>
-        <v>8595.5400000000063</v>
+        <v>8521.4500000000062</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -12324,7 +12453,7 @@
       </c>
       <c r="H45" s="3">
         <f t="shared" si="1"/>
-        <v>8735.4200000000055</v>
+        <v>8661.3300000000054</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -12343,7 +12472,7 @@
       </c>
       <c r="H46" s="3">
         <f t="shared" si="1"/>
-        <v>8846.1800000000057</v>
+        <v>8772.0900000000056</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -12362,7 +12491,7 @@
       </c>
       <c r="H47" s="3">
         <f t="shared" si="1"/>
-        <v>8923.2500000000055</v>
+        <v>8849.1600000000053</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -12381,7 +12510,7 @@
       </c>
       <c r="H48" s="3">
         <f t="shared" si="1"/>
-        <v>9238.2500000000055</v>
+        <v>9164.1600000000053</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -12400,7 +12529,7 @@
       </c>
       <c r="H49" s="3">
         <f t="shared" si="1"/>
-        <v>9252.5100000000057</v>
+        <v>9178.4200000000055</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -12419,7 +12548,7 @@
       </c>
       <c r="H50" s="3">
         <f t="shared" si="1"/>
-        <v>9315.3200000000052</v>
+        <v>9241.230000000005</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -12438,7 +12567,7 @@
       </c>
       <c r="H51" s="3">
         <f t="shared" si="1"/>
-        <v>9467.940000000006</v>
+        <v>9393.8500000000058</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -12457,7 +12586,7 @@
       </c>
       <c r="H52" s="3">
         <f t="shared" si="1"/>
-        <v>9796.2500000000055</v>
+        <v>9722.1600000000053</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -12476,7 +12605,7 @@
       </c>
       <c r="H53" s="3">
         <f t="shared" si="1"/>
-        <v>9936.1300000000047</v>
+        <v>9862.0400000000045</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -12495,7 +12624,7 @@
       </c>
       <c r="H54" s="3">
         <f t="shared" si="1"/>
-        <v>10313.910000000005</v>
+        <v>10239.820000000005</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -12514,7 +12643,7 @@
       </c>
       <c r="H55" s="3">
         <f t="shared" si="1"/>
-        <v>10565.150000000005</v>
+        <v>10491.060000000005</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -12533,7 +12662,7 @@
       </c>
       <c r="H56" s="3">
         <f t="shared" si="1"/>
-        <v>10627.960000000005</v>
+        <v>10553.870000000004</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -12552,7 +12681,7 @@
       </c>
       <c r="H57" s="3">
         <f t="shared" si="1"/>
-        <v>12592.960000000005</v>
+        <v>12518.870000000004</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -12571,7 +12700,7 @@
       </c>
       <c r="H58" s="3">
         <f t="shared" si="1"/>
-        <v>12704.020000000004</v>
+        <v>12629.930000000004</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -12596,7 +12725,7 @@
       </c>
       <c r="H59" s="3">
         <f t="shared" si="1"/>
-        <v>12454.020000000004</v>
+        <v>12379.930000000004</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -12615,7 +12744,7 @@
       </c>
       <c r="H60" s="3">
         <f t="shared" si="1"/>
-        <v>13271.170000000004</v>
+        <v>13197.080000000004</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -12634,7 +12763,7 @@
       </c>
       <c r="H61" s="3">
         <f t="shared" si="1"/>
-        <v>13459.300000000003</v>
+        <v>13385.210000000003</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -12653,7 +12782,7 @@
       </c>
       <c r="H62" s="3">
         <f t="shared" si="1"/>
-        <v>14359.600000000002</v>
+        <v>14285.510000000002</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -12678,7 +12807,7 @@
       </c>
       <c r="H63" s="3">
         <f t="shared" si="1"/>
-        <v>14109.600000000002</v>
+        <v>14035.510000000002</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -12703,7 +12832,7 @@
       </c>
       <c r="H64" s="3">
         <f t="shared" si="1"/>
-        <v>13975.800000000003</v>
+        <v>13901.710000000003</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -12722,7 +12851,7 @@
       </c>
       <c r="H65" s="3">
         <f t="shared" si="1"/>
-        <v>14052.870000000003</v>
+        <v>13978.780000000002</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -12741,7 +12870,7 @@
       </c>
       <c r="H66" s="3">
         <f t="shared" si="1"/>
-        <v>14366.620000000003</v>
+        <v>14292.530000000002</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -12760,7 +12889,7 @@
       </c>
       <c r="H67" s="3">
         <f t="shared" si="1"/>
-        <v>14792.650000000003</v>
+        <v>14718.560000000003</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -12779,7 +12908,7 @@
       </c>
       <c r="H68" s="3">
         <f t="shared" si="1"/>
-        <v>14855.160000000003</v>
+        <v>14781.070000000003</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -12804,7 +12933,7 @@
       </c>
       <c r="H69" s="3">
         <f t="shared" si="1"/>
-        <v>14778.360000000004</v>
+        <v>14704.270000000004</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -12823,7 +12952,7 @@
       </c>
       <c r="H70" s="3">
         <f>IF(ISBLANK(A70),"",IF(D70="C",H69-E70+F70,H69+F70))</f>
-        <v>14889.420000000004</v>
+        <v>14815.330000000004</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -12842,7 +12971,7 @@
       </c>
       <c r="H71" s="3">
         <f t="shared" ref="H71:H102" si="2">IF(ISBLANK(A71),"",IF(D71="C",H70-E71+F71,H70+F71))</f>
-        <v>15072.080000000004</v>
+        <v>14997.990000000003</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -12867,7 +12996,7 @@
       </c>
       <c r="H72" s="3">
         <f t="shared" si="2"/>
-        <v>14612.080000000004</v>
+        <v>14537.990000000003</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -12892,7 +13021,7 @@
       </c>
       <c r="H73" s="3">
         <f t="shared" si="2"/>
-        <v>14547.080000000004</v>
+        <v>14472.990000000003</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -12917,7 +13046,7 @@
       </c>
       <c r="H74" s="3">
         <f t="shared" si="2"/>
-        <v>14407.080000000004</v>
+        <v>14332.990000000003</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -12936,7 +13065,7 @@
       </c>
       <c r="H75" s="3">
         <f t="shared" si="2"/>
-        <v>14720.830000000004</v>
+        <v>14646.740000000003</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -12955,7 +13084,7 @@
       </c>
       <c r="H76" s="3">
         <f t="shared" si="2"/>
-        <v>14909.260000000004</v>
+        <v>14835.170000000004</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -12974,7 +13103,7 @@
       </c>
       <c r="H77" s="3">
         <f t="shared" si="2"/>
-        <v>16232.550000000003</v>
+        <v>16158.460000000003</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -12993,7 +13122,7 @@
       </c>
       <c r="H78" s="3">
         <f t="shared" si="2"/>
-        <v>16357.870000000003</v>
+        <v>16283.780000000002</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -13012,7 +13141,7 @@
       </c>
       <c r="H79" s="3">
         <f t="shared" si="2"/>
-        <v>16747.870000000003</v>
+        <v>16673.780000000002</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -13037,7 +13166,7 @@
       </c>
       <c r="H80" s="3">
         <f t="shared" si="2"/>
-        <v>16697.870000000003</v>
+        <v>16623.780000000002</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -13062,7 +13191,7 @@
       </c>
       <c r="H81" s="3">
         <f t="shared" si="2"/>
-        <v>16141.940000000002</v>
+        <v>16067.850000000002</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -13081,7 +13210,7 @@
       </c>
       <c r="H82" s="3">
         <f t="shared" si="2"/>
-        <v>16460.86</v>
+        <v>16386.77</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -13100,7 +13229,7 @@
       </c>
       <c r="H83" s="3">
         <f t="shared" si="2"/>
-        <v>17480.86</v>
+        <v>17406.77</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -13119,7 +13248,7 @@
       </c>
       <c r="H84" s="3">
         <f t="shared" si="2"/>
-        <v>17795.53</v>
+        <v>17721.439999999999</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -13138,7 +13267,7 @@
       </c>
       <c r="H85" s="3">
         <f t="shared" si="2"/>
-        <v>18235.82</v>
+        <v>18161.73</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -13157,7 +13286,7 @@
       </c>
       <c r="H86" s="3">
         <f t="shared" si="2"/>
-        <v>18389.66</v>
+        <v>18315.57</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -13182,7 +13311,7 @@
       </c>
       <c r="H87" s="3">
         <f t="shared" si="2"/>
-        <v>13139.66</v>
+        <v>13065.57</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -13207,7 +13336,7 @@
       </c>
       <c r="H88" s="3">
         <f t="shared" si="2"/>
-        <v>12539.66</v>
+        <v>12465.57</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -13232,7 +13361,7 @@
       </c>
       <c r="H89" s="3">
         <f t="shared" si="2"/>
-        <v>11782.85</v>
+        <v>11708.76</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -13257,7 +13386,7 @@
       </c>
       <c r="H90" s="3">
         <f t="shared" si="2"/>
-        <v>11582.85</v>
+        <v>11508.76</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -13282,7 +13411,7 @@
       </c>
       <c r="H91" s="3">
         <f t="shared" si="2"/>
-        <v>11532.85</v>
+        <v>11458.76</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -13301,7 +13430,7 @@
       </c>
       <c r="H92" s="3">
         <f t="shared" si="2"/>
-        <v>11575.630000000001</v>
+        <v>11501.54</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -13320,7 +13449,7 @@
       </c>
       <c r="H93" s="3">
         <f t="shared" si="2"/>
-        <v>11589.890000000001</v>
+        <v>11515.800000000001</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -13339,7 +13468,7 @@
       </c>
       <c r="H94" s="3">
         <f t="shared" si="2"/>
-        <v>12109.890000000001</v>
+        <v>12035.800000000001</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -13364,7 +13493,7 @@
       </c>
       <c r="H95" s="3">
         <f t="shared" si="2"/>
-        <v>11609.890000000001</v>
+        <v>11535.800000000001</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -13383,7 +13512,7 @@
       </c>
       <c r="H96" s="3">
         <f t="shared" si="2"/>
-        <v>11624.150000000001</v>
+        <v>11550.060000000001</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -13402,7 +13531,7 @@
       </c>
       <c r="H97" s="3">
         <f t="shared" si="2"/>
-        <v>11638.410000000002</v>
+        <v>11564.320000000002</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -13421,7 +13550,7 @@
       </c>
       <c r="H98" s="3">
         <f t="shared" si="2"/>
-        <v>11652.670000000002</v>
+        <v>11578.580000000002</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -13440,7 +13569,7 @@
       </c>
       <c r="H99" s="3">
         <f t="shared" si="2"/>
-        <v>11666.930000000002</v>
+        <v>11592.840000000002</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -13459,7 +13588,7 @@
       </c>
       <c r="H100" s="3">
         <f t="shared" si="2"/>
-        <v>11681.190000000002</v>
+        <v>11607.100000000002</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -13478,7 +13607,7 @@
       </c>
       <c r="H101" s="3">
         <f t="shared" si="2"/>
-        <v>11695.450000000003</v>
+        <v>11621.360000000002</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -13497,7 +13626,7 @@
       </c>
       <c r="H102" s="3">
         <f t="shared" si="2"/>
-        <v>11709.710000000003</v>
+        <v>11635.620000000003</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -13522,7 +13651,7 @@
       </c>
       <c r="H103" s="3">
         <f t="shared" ref="H103" si="3">IF(ISBLANK(A103),"",IF(D103="C",H102-E103+F103,H102+F103))</f>
-        <v>11609.710000000003</v>
+        <v>11535.620000000003</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -13541,7 +13670,7 @@
       </c>
       <c r="H104" s="3">
         <f t="shared" ref="H104:H135" si="4">IF(ISBLANK(A104),"",IF(D104="C",H103-E104+F104,H103+F104))</f>
-        <v>11623.970000000003</v>
+        <v>11549.880000000003</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -13560,7 +13689,7 @@
       </c>
       <c r="H105" s="3">
         <f t="shared" si="4"/>
-        <v>11638.230000000003</v>
+        <v>11564.140000000003</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -13579,7 +13708,7 @@
       </c>
       <c r="H106" s="3">
         <f t="shared" si="4"/>
-        <v>11923.230000000003</v>
+        <v>11849.140000000003</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -13598,7 +13727,7 @@
       </c>
       <c r="H107" s="3">
         <f t="shared" si="4"/>
-        <v>11937.490000000003</v>
+        <v>11863.400000000003</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -13617,7 +13746,7 @@
       </c>
       <c r="H108" s="3">
         <f t="shared" si="4"/>
-        <v>11951.750000000004</v>
+        <v>11877.660000000003</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -13636,7 +13765,7 @@
       </c>
       <c r="H109" s="3">
         <f t="shared" si="4"/>
-        <v>12041.750000000004</v>
+        <v>11967.660000000003</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -13661,7 +13790,7 @@
       </c>
       <c r="H110" s="3">
         <f t="shared" si="4"/>
-        <v>10041.750000000004</v>
+        <v>9967.6600000000035</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -13680,7 +13809,7 @@
       </c>
       <c r="H111" s="3">
         <f t="shared" si="4"/>
-        <v>10070.270000000004</v>
+        <v>9996.1800000000039</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -13705,7 +13834,7 @@
       </c>
       <c r="H112" s="3">
         <f t="shared" si="4"/>
-        <v>9670.2700000000041</v>
+        <v>9596.1800000000039</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -13724,7 +13853,7 @@
       </c>
       <c r="H113" s="3">
         <f t="shared" si="4"/>
-        <v>9757.0500000000047</v>
+        <v>9682.9600000000046</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -13743,7 +13872,7 @@
       </c>
       <c r="H114" s="3">
         <f t="shared" si="4"/>
-        <v>9771.3100000000049</v>
+        <v>9697.2200000000048</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -13762,7 +13891,7 @@
       </c>
       <c r="H115" s="3">
         <f t="shared" si="4"/>
-        <v>9785.5700000000052</v>
+        <v>9711.480000000005</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -13781,7 +13910,7 @@
       </c>
       <c r="H116" s="3">
         <f t="shared" si="4"/>
-        <v>9799.8300000000054</v>
+        <v>9725.7400000000052</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -13806,7 +13935,7 @@
       </c>
       <c r="H117" s="3">
         <f t="shared" si="4"/>
-        <v>9735.8300000000054</v>
+        <v>9661.7400000000052</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -13825,7 +13954,7 @@
       </c>
       <c r="H118" s="3">
         <f t="shared" si="4"/>
-        <v>9765.8300000000054</v>
+        <v>9691.7400000000052</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -13850,7 +13979,7 @@
       </c>
       <c r="H119" s="3">
         <f t="shared" si="4"/>
-        <v>9704.8300000000054</v>
+        <v>9630.7400000000052</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -13875,7 +14004,7 @@
       </c>
       <c r="H120" s="3">
         <f t="shared" si="4"/>
-        <v>9472.3800000000047</v>
+        <v>9398.2900000000045</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -13894,7 +14023,7 @@
       </c>
       <c r="H121" s="3">
         <f t="shared" si="4"/>
-        <v>9486.6400000000049</v>
+        <v>9412.5500000000047</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -13919,7 +14048,7 @@
       </c>
       <c r="H122" s="3">
         <f t="shared" si="4"/>
-        <v>9206.5400000000045</v>
+        <v>9132.4500000000044</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -13944,7 +14073,7 @@
       </c>
       <c r="H123" s="3">
         <f t="shared" si="4"/>
-        <v>8706.5400000000045</v>
+        <v>8632.4500000000044</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -13963,7 +14092,7 @@
       </c>
       <c r="H124" s="3">
         <f t="shared" si="4"/>
-        <v>8721.5400000000045</v>
+        <v>8647.4500000000044</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -13982,7 +14111,7 @@
       </c>
       <c r="H125" s="3">
         <f t="shared" si="4"/>
-        <v>8750.0600000000049</v>
+        <v>8675.9700000000048</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -14007,7 +14136,7 @@
       </c>
       <c r="H126" s="3">
         <f t="shared" si="4"/>
-        <v>8665.0600000000049</v>
+        <v>8590.9700000000048</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -14026,7 +14155,7 @@
       </c>
       <c r="H127" s="3">
         <f t="shared" si="4"/>
-        <v>8679.3200000000052</v>
+        <v>8605.230000000005</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -14051,7 +14180,7 @@
       </c>
       <c r="H128" s="3">
         <f t="shared" si="4"/>
-        <v>8620.3200000000052</v>
+        <v>8546.230000000005</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -14077,7 +14206,7 @@
       </c>
       <c r="H129" s="3">
         <f t="shared" si="4"/>
-        <v>7805.9200000000055</v>
+        <v>7731.8300000000054</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -14103,7 +14232,7 @@
       </c>
       <c r="H130" s="3">
         <f t="shared" si="4"/>
-        <v>7751.2500000000055</v>
+        <v>7677.1600000000053</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -14122,7 +14251,7 @@
       </c>
       <c r="H131" s="3">
         <f t="shared" si="4"/>
-        <v>7765.5100000000057</v>
+        <v>7691.4200000000055</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -14141,7 +14270,7 @@
       </c>
       <c r="H132" s="3">
         <f t="shared" si="4"/>
-        <v>7779.7700000000059</v>
+        <v>7705.6800000000057</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -14166,7 +14295,7 @@
       </c>
       <c r="H133" s="3">
         <f t="shared" si="4"/>
-        <v>7029.7700000000059</v>
+        <v>6955.6800000000057</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -14191,7 +14320,7 @@
       </c>
       <c r="H134" s="3">
         <f t="shared" si="4"/>
-        <v>6779.7700000000059</v>
+        <v>6705.6800000000057</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -14216,7 +14345,7 @@
       </c>
       <c r="H135" s="3">
         <f t="shared" si="4"/>
-        <v>6129.7700000000059</v>
+        <v>6055.6800000000057</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -14235,7 +14364,7 @@
       </c>
       <c r="H136" s="3">
         <f t="shared" ref="H136:H167" si="5">IF(ISBLANK(A136),"",IF(D136="C",H135-E136+F136,H135+F136))</f>
-        <v>6144.0300000000061</v>
+        <v>6069.940000000006</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -14254,7 +14383,7 @@
       </c>
       <c r="H137" s="3">
         <f t="shared" si="5"/>
-        <v>6158.2900000000063</v>
+        <v>6084.2000000000062</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -14279,7 +14408,7 @@
       </c>
       <c r="H138" s="3">
         <f t="shared" si="5"/>
-        <v>6033.2900000000063</v>
+        <v>5959.2000000000062</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -14298,7 +14427,7 @@
       </c>
       <c r="H139" s="3">
         <f t="shared" si="5"/>
-        <v>6061.8100000000068</v>
+        <v>5987.7200000000066</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -14317,7 +14446,7 @@
       </c>
       <c r="H140" s="3">
         <f t="shared" si="5"/>
-        <v>6090.6400000000067</v>
+        <v>6016.5500000000065</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -14342,7 +14471,7 @@
       </c>
       <c r="H141" s="3">
         <f t="shared" si="5"/>
-        <v>5965.6400000000067</v>
+        <v>5891.5500000000065</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -14367,7 +14496,7 @@
       </c>
       <c r="H142" s="3">
         <f t="shared" si="5"/>
-        <v>5465.6400000000067</v>
+        <v>5391.5500000000065</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -14386,7 +14515,7 @@
       </c>
       <c r="H143" s="3">
         <f t="shared" si="5"/>
-        <v>5479.9000000000069</v>
+        <v>5405.8100000000068</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -14405,7 +14534,7 @@
       </c>
       <c r="H144" s="3">
         <f t="shared" si="5"/>
-        <v>5494.1600000000071</v>
+        <v>5420.070000000007</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -14430,7 +14559,7 @@
       </c>
       <c r="H145" s="3">
         <f t="shared" si="5"/>
-        <v>5208.5600000000068</v>
+        <v>5134.4700000000066</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -14449,7 +14578,7 @@
       </c>
       <c r="H146" s="3">
         <f t="shared" si="5"/>
-        <v>5222.820000000007</v>
+        <v>5148.7300000000068</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -14468,7 +14597,7 @@
       </c>
       <c r="H147" s="3">
         <f t="shared" si="5"/>
-        <v>5237.0800000000072</v>
+        <v>5162.9900000000071</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -14487,7 +14616,7 @@
       </c>
       <c r="H148" s="3">
         <f t="shared" si="5"/>
-        <v>5324.1700000000073</v>
+        <v>5250.0800000000072</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -14506,7 +14635,7 @@
       </c>
       <c r="H149" s="3">
         <f t="shared" si="5"/>
-        <v>5338.4300000000076</v>
+        <v>5264.3400000000074</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -14531,7 +14660,7 @@
       </c>
       <c r="H150" s="3">
         <f t="shared" si="5"/>
-        <v>5193.4300000000076</v>
+        <v>5119.3400000000074</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -14555,8 +14684,8 @@
         <v>5048.4300000000076</v>
       </c>
       <c r="H151" s="3">
-        <f t="shared" si="5"/>
-        <v>5048.4300000000076</v>
+        <f>IF(ISBLANK(A151),"",IF(D151="C",H150-E151+F151,H150+F151))</f>
+        <v>4974.3400000000074</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -17875,8 +18004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17944,14 +18073,14 @@
       </c>
       <c r="H2" s="3">
         <f>'2018'!H151-E2</f>
-        <v>4903.4300000000076</v>
+        <v>4829.3400000000074</v>
       </c>
       <c r="J2" s="3">
         <v>145</v>
       </c>
       <c r="K2" s="3">
         <f>SUM(J2:J35)</f>
-        <v>145</v>
+        <v>395</v>
       </c>
       <c r="M2" s="3"/>
     </row>
@@ -17978,9 +18107,11 @@
       </c>
       <c r="H3" s="3">
         <f>IF(D3="C",H2-E3+F3,H2+F3)</f>
-        <v>4758.4300000000076</v>
-      </c>
-      <c r="J3" s="3"/>
+        <v>4684.3400000000074</v>
+      </c>
+      <c r="J3" s="3">
+        <v>125</v>
+      </c>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -18000,9 +18131,11 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4:H8" si="0">IF(D4="C",H3-E4+F4,H3+F4)</f>
-        <v>4772.6900000000078</v>
-      </c>
-      <c r="J4" s="3"/>
+        <v>4698.6000000000076</v>
+      </c>
+      <c r="J4" s="3">
+        <v>125</v>
+      </c>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -18022,7 +18155,7 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>4786.950000000008</v>
+        <v>4712.8600000000079</v>
       </c>
       <c r="J5" s="3"/>
       <c r="M5" s="3"/>
@@ -18044,7 +18177,7 @@
       </c>
       <c r="H6" s="3">
         <f>IF(D6="C",H5-E6+F6,H5+F6)</f>
-        <v>4801.2100000000082</v>
+        <v>4727.1200000000081</v>
       </c>
       <c r="J6" s="24"/>
       <c r="M6" s="3"/>
@@ -18066,7 +18199,7 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>4815.4700000000084</v>
+        <v>4741.3800000000083</v>
       </c>
       <c r="J7" s="3"/>
     </row>
@@ -18093,7 +18226,7 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>4670.4700000000084</v>
+        <v>4596.3800000000083</v>
       </c>
       <c r="M8" s="3"/>
     </row>
@@ -18120,7 +18253,7 @@
       </c>
       <c r="H9" s="3">
         <f>IF(ISBLANK(A9),"",IF(D9="C",H8-E9+F9,H8+F9))</f>
-        <v>4170.4700000000084</v>
+        <v>4096.3800000000083</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -18140,7 +18273,7 @@
       </c>
       <c r="H10" s="3">
         <f t="shared" ref="H10:H73" si="1">IF(ISBLANK(A10),"",IF(D10="C",H9-E10+F10,H9+F10))</f>
-        <v>4184.7300000000087</v>
+        <v>4110.6400000000085</v>
       </c>
       <c r="M10" s="3"/>
     </row>
@@ -18160,7 +18293,7 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>4198.9900000000089</v>
+        <v>4124.9000000000087</v>
       </c>
       <c r="J11" s="3"/>
       <c r="M11" s="3"/>
@@ -18188,7 +18321,7 @@
       </c>
       <c r="H12" s="3">
         <f t="shared" si="1"/>
-        <v>3670.7600000000089</v>
+        <v>3596.6700000000087</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -18208,7 +18341,7 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v>3799.100000000009</v>
+        <v>3725.0100000000089</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
@@ -18236,7 +18369,7 @@
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>2224.7700000000091</v>
+        <v>2150.6800000000089</v>
       </c>
       <c r="L14" s="3"/>
     </row>
@@ -18257,7 +18390,7 @@
       </c>
       <c r="H15" s="3">
         <f t="shared" si="1"/>
-        <v>2281.810000000009</v>
+        <v>2207.7200000000089</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -18283,7 +18416,7 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" si="1"/>
-        <v>2136.810000000009</v>
+        <v>2062.7200000000089</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -18302,7 +18435,7 @@
       </c>
       <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v>2179.5900000000092</v>
+        <v>2105.5000000000091</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -18321,7 +18454,7 @@
       </c>
       <c r="H18" s="3">
         <f t="shared" si="1"/>
-        <v>2307.9300000000094</v>
+        <v>2233.8400000000092</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -18340,7 +18473,7 @@
       </c>
       <c r="H19" s="3">
         <f t="shared" si="1"/>
-        <v>2393.4900000000093</v>
+        <v>2319.4000000000092</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -18360,7 +18493,7 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" si="1"/>
-        <v>2450.5300000000093</v>
+        <v>2376.4400000000091</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -18379,7 +18512,7 @@
       </c>
       <c r="H21" s="3">
         <f t="shared" si="1"/>
-        <v>2493.3100000000095</v>
+        <v>2419.2200000000093</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -18398,7 +18531,7 @@
       </c>
       <c r="H22" s="3">
         <f t="shared" si="1"/>
-        <v>2536.0900000000097</v>
+        <v>2462.0000000000095</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -18417,7 +18550,7 @@
       </c>
       <c r="H23" s="3">
         <f t="shared" si="1"/>
-        <v>2578.8700000000099</v>
+        <v>2504.7800000000097</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -18440,7 +18573,7 @@
       </c>
       <c r="H24" s="3">
         <f t="shared" si="1"/>
-        <v>2578.8700000000099</v>
+        <v>2504.7800000000097</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -18459,7 +18592,7 @@
       </c>
       <c r="H25" s="3">
         <f t="shared" si="1"/>
-        <v>2593.1300000000101</v>
+        <v>2519.04000000001</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -18479,7 +18612,7 @@
       </c>
       <c r="H26" s="3">
         <f t="shared" si="1"/>
-        <v>2607.3900000000103</v>
+        <v>2533.3000000000102</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -18499,7 +18632,7 @@
       </c>
       <c r="H27" s="3">
         <f t="shared" si="1"/>
-        <v>2621.6500000000106</v>
+        <v>2547.5600000000104</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -18519,7 +18652,7 @@
       </c>
       <c r="H28" s="3">
         <f t="shared" si="1"/>
-        <v>2635.9100000000108</v>
+        <v>2561.8200000000106</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -18544,7 +18677,7 @@
       </c>
       <c r="H29" s="3">
         <f t="shared" si="1"/>
-        <v>2503.210000000011</v>
+        <v>2429.1200000000108</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -18563,7 +18696,7 @@
       </c>
       <c r="H30" s="3">
         <f t="shared" si="1"/>
-        <v>2560.2500000000109</v>
+        <v>2486.1600000000108</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -18582,7 +18715,7 @@
       </c>
       <c r="H31" s="3">
         <f t="shared" si="1"/>
-        <v>2574.5100000000111</v>
+        <v>2500.420000000011</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -18601,7 +18734,7 @@
       </c>
       <c r="H32" s="3">
         <f t="shared" si="1"/>
-        <v>2602.7300000000109</v>
+        <v>2528.6400000000108</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -18620,7 +18753,7 @@
       </c>
       <c r="H33" s="3">
         <f t="shared" si="1"/>
-        <v>2688.2900000000109</v>
+        <v>2614.2000000000107</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -18639,7 +18772,7 @@
       </c>
       <c r="H34" s="3">
         <f t="shared" si="1"/>
-        <v>2702.5500000000111</v>
+        <v>2628.460000000011</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -18659,7 +18792,7 @@
       </c>
       <c r="H35" s="3">
         <f t="shared" si="1"/>
-        <v>2759.5900000000111</v>
+        <v>2685.5000000000109</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -18678,7 +18811,7 @@
       </c>
       <c r="H36" s="3">
         <f t="shared" si="1"/>
-        <v>2788.110000000011</v>
+        <v>2714.0200000000109</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -18697,7 +18830,7 @@
       </c>
       <c r="H37" s="3">
         <f t="shared" si="1"/>
-        <v>3253.110000000011</v>
+        <v>3179.0200000000109</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -18716,7 +18849,7 @@
       </c>
       <c r="H38" s="3">
         <f t="shared" si="1"/>
-        <v>3267.3700000000113</v>
+        <v>3193.2800000000111</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -18741,7 +18874,7 @@
       </c>
       <c r="H39" s="3">
         <f t="shared" si="1"/>
-        <v>3142.3700000000113</v>
+        <v>3068.2800000000111</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -18766,7 +18899,7 @@
       </c>
       <c r="H40" s="3">
         <f t="shared" si="1"/>
-        <v>3017.3700000000113</v>
+        <v>2943.2800000000111</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -18785,7 +18918,7 @@
       </c>
       <c r="H41" s="3">
         <f t="shared" si="1"/>
-        <v>3031.6300000000115</v>
+        <v>2957.5400000000113</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -18804,7 +18937,7 @@
       </c>
       <c r="H42" s="3">
         <f t="shared" si="1"/>
-        <v>3045.8900000000117</v>
+        <v>2971.8000000000116</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -18823,7 +18956,7 @@
       </c>
       <c r="H43" s="3">
         <f t="shared" si="1"/>
-        <v>3060.1500000000119</v>
+        <v>2986.0600000000118</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -18848,7 +18981,7 @@
       </c>
       <c r="H44" s="3">
         <f t="shared" si="1"/>
-        <v>3042.3100000000118</v>
+        <v>2968.2200000000116</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -18867,7 +19000,7 @@
       </c>
       <c r="H45" s="3">
         <f t="shared" si="1"/>
-        <v>3056.570000000012</v>
+        <v>2982.4800000000118</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -18886,7 +19019,7 @@
       </c>
       <c r="H46" s="3">
         <f t="shared" si="1"/>
-        <v>3070.8300000000122</v>
+        <v>2996.7400000000121</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -18905,7 +19038,7 @@
       </c>
       <c r="H47" s="3">
         <f t="shared" si="1"/>
-        <v>3175.8300000000122</v>
+        <v>3101.7400000000121</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -18924,7 +19057,7 @@
       </c>
       <c r="H48" s="3">
         <f t="shared" si="1"/>
-        <v>3745.8300000000122</v>
+        <v>3671.7400000000121</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -18949,7 +19082,7 @@
       </c>
       <c r="H49" s="3">
         <f t="shared" si="1"/>
-        <v>3708.3600000000124</v>
+        <v>3634.2700000000123</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -18974,7 +19107,7 @@
       </c>
       <c r="H50" s="3">
         <f t="shared" si="1"/>
-        <v>3563.3600000000124</v>
+        <v>3489.2700000000123</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -18993,7 +19126,7 @@
       </c>
       <c r="H51" s="3">
         <f t="shared" si="1"/>
-        <v>3577.6200000000126</v>
+        <v>3503.5300000000125</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -19012,7 +19145,7 @@
       </c>
       <c r="H52" s="3">
         <f t="shared" si="1"/>
-        <v>3591.8800000000128</v>
+        <v>3517.7900000000127</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -19031,7 +19164,7 @@
       </c>
       <c r="H53" s="3">
         <f t="shared" si="1"/>
-        <v>3620.4000000000128</v>
+        <v>3546.3100000000127</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -19056,7 +19189,7 @@
       </c>
       <c r="H54" s="3">
         <f t="shared" si="1"/>
-        <v>3120.4000000000128</v>
+        <v>3046.3100000000127</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -19075,7 +19208,7 @@
       </c>
       <c r="H55" s="3">
         <f t="shared" si="1"/>
-        <v>3177.4400000000128</v>
+        <v>3103.3500000000126</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -19094,7 +19227,7 @@
       </c>
       <c r="H56" s="3">
         <f t="shared" si="1"/>
-        <v>3220.8300000000127</v>
+        <v>3146.7400000000125</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -19113,7 +19246,7 @@
       </c>
       <c r="H57" s="3">
         <f t="shared" si="1"/>
-        <v>3235.0900000000129</v>
+        <v>3161.0000000000127</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -19132,7 +19265,7 @@
       </c>
       <c r="H58" s="3">
         <f t="shared" si="1"/>
-        <v>3423.5200000000127</v>
+        <v>3349.4300000000126</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -19152,7 +19285,7 @@
       </c>
       <c r="H59" s="3">
         <f t="shared" si="1"/>
-        <v>3437.7800000000129</v>
+        <v>3363.6900000000128</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -19171,7 +19304,7 @@
       </c>
       <c r="H60" s="3">
         <f t="shared" si="1"/>
-        <v>3452.0400000000132</v>
+        <v>3377.950000000013</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -19190,7 +19323,7 @@
       </c>
       <c r="H61" s="3">
         <f t="shared" si="1"/>
-        <v>3466.3000000000134</v>
+        <v>3392.2100000000132</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -19209,7 +19342,7 @@
       </c>
       <c r="H62" s="3">
         <f t="shared" si="1"/>
-        <v>3480.5600000000136</v>
+        <v>3406.4700000000134</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -19229,7 +19362,7 @@
       </c>
       <c r="H63" s="3">
         <f t="shared" si="1"/>
-        <v>3494.8200000000138</v>
+        <v>3420.7300000000137</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -19249,7 +19382,7 @@
       </c>
       <c r="H64" s="3">
         <f t="shared" si="1"/>
-        <v>3509.080000000014</v>
+        <v>3434.9900000000139</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -19268,7 +19401,7 @@
       </c>
       <c r="H65" s="3">
         <f t="shared" si="1"/>
-        <v>3523.3400000000142</v>
+        <v>3449.2500000000141</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -19287,7 +19420,7 @@
       </c>
       <c r="H66" s="3">
         <f t="shared" si="1"/>
-        <v>3703.3400000000142</v>
+        <v>3629.2500000000141</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -19306,7 +19439,7 @@
       </c>
       <c r="H67" s="3">
         <f t="shared" si="1"/>
-        <v>3746.1200000000144</v>
+        <v>3672.0300000000143</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -19325,7 +19458,7 @@
       </c>
       <c r="H68" s="3">
         <f t="shared" si="1"/>
-        <v>3774.6400000000144</v>
+        <v>3700.5500000000143</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -19345,7 +19478,7 @@
       </c>
       <c r="H69" s="3">
         <f t="shared" si="1"/>
-        <v>3788.9000000000146</v>
+        <v>3714.8100000000145</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -19364,7 +19497,7 @@
       </c>
       <c r="H70" s="3">
         <f t="shared" si="1"/>
-        <v>3817.4200000000146</v>
+        <v>3743.3300000000145</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -19383,7 +19516,7 @@
       </c>
       <c r="H71" s="3">
         <f t="shared" si="1"/>
-        <v>3831.6800000000148</v>
+        <v>3757.5900000000147</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -19403,7 +19536,7 @@
       </c>
       <c r="H72" s="3">
         <f t="shared" si="1"/>
-        <v>3845.9400000000151</v>
+        <v>3771.8500000000149</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -19423,7 +19556,7 @@
       </c>
       <c r="H73" s="3">
         <f t="shared" si="1"/>
-        <v>3950.9400000000151</v>
+        <v>3876.8500000000149</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -19443,7 +19576,7 @@
       </c>
       <c r="H74" s="3">
         <f t="shared" ref="H74:H137" si="2">IF(ISBLANK(A74),"",IF(D74="C",H73-E74+F74,H73+F74))</f>
-        <v>3970.060000000015</v>
+        <v>3895.9700000000148</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -19462,339 +19595,574 @@
       </c>
       <c r="H75" s="3">
         <f t="shared" si="2"/>
-        <v>3989.1800000000148</v>
+        <v>3915.0900000000147</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="28"/>
-      <c r="C76" s="20"/>
-      <c r="G76" s="3" t="str">
+      <c r="A76" s="28">
+        <v>43669</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F76" s="8">
+        <v>140</v>
+      </c>
+      <c r="G76" s="3">
         <f>IF(ISBLANK(A76),"",'2019'!G75-E76+F76)</f>
-        <v/>
-      </c>
-      <c r="H76" s="3" t="str">
+        <v>3984.1800000000148</v>
+      </c>
+      <c r="H76" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>4055.0900000000147</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="28"/>
-      <c r="C77" s="20"/>
-      <c r="G77" s="3" t="str">
+      <c r="A77" s="28">
+        <v>43669</v>
+      </c>
+      <c r="B77">
+        <v>1407</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="3">
+        <v>100</v>
+      </c>
+      <c r="G77" s="3">
         <f>IF(ISBLANK(A77),"",'2019'!G76-E77+F77)</f>
-        <v/>
-      </c>
-      <c r="H77" s="3" t="str">
+        <v>3884.1800000000148</v>
+      </c>
+      <c r="H77" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3955.0900000000147</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="28"/>
-      <c r="C78" s="20"/>
-      <c r="G78" s="3" t="str">
+      <c r="A78" s="28">
+        <v>43669</v>
+      </c>
+      <c r="B78">
+        <v>1408</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="3">
+        <v>91</v>
+      </c>
+      <c r="G78" s="3">
         <f>IF(ISBLANK(A78),"",'2019'!G77-E78+F78)</f>
-        <v/>
-      </c>
-      <c r="H78" s="3" t="str">
+        <v>3793.1800000000148</v>
+      </c>
+      <c r="H78" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3864.0900000000147</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="28"/>
-      <c r="C79" s="20"/>
-      <c r="G79" s="3" t="str">
+      <c r="A79" s="28">
+        <v>43669</v>
+      </c>
+      <c r="B79">
+        <v>1409</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="3">
+        <v>91</v>
+      </c>
+      <c r="G79" s="3">
         <f>IF(ISBLANK(A79),"",'2019'!G78-E79+F79)</f>
-        <v/>
-      </c>
-      <c r="H79" s="3" t="str">
+        <v>3702.1800000000148</v>
+      </c>
+      <c r="H79" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3773.0900000000147</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="28"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="8"/>
-      <c r="G80" s="3" t="str">
+      <c r="A80" s="28">
+        <v>43670</v>
+      </c>
+      <c r="B80">
+        <v>1410</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="3">
+        <v>85</v>
+      </c>
+      <c r="G80" s="3">
         <f>IF(ISBLANK(A80),"",'2019'!G79-E80+F80)</f>
-        <v/>
-      </c>
-      <c r="H80" s="3" t="str">
+        <v>3617.1800000000148</v>
+      </c>
+      <c r="H80" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3688.0900000000147</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="28"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="8"/>
-      <c r="G81" s="3" t="str">
+      <c r="A81" s="28">
+        <v>43676</v>
+      </c>
+      <c r="B81">
+        <v>1411</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="3">
+        <v>336.41</v>
+      </c>
+      <c r="G81" s="3">
         <f>IF(ISBLANK(A81),"",'2019'!G80-E81+F81)</f>
-        <v/>
-      </c>
-      <c r="H81" s="3" t="str">
+        <v>3280.770000000015</v>
+      </c>
+      <c r="H81" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3351.6800000000148</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="28"/>
-      <c r="C82" s="20"/>
-      <c r="G82" s="3" t="str">
+      <c r="A82" s="28">
+        <v>43676</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F82">
+        <v>19.12</v>
+      </c>
+      <c r="G82" s="3">
         <f>IF(ISBLANK(A82),"",'2019'!G81-E82+F82)</f>
-        <v/>
-      </c>
-      <c r="H82" s="3" t="str">
+        <v>3299.8900000000149</v>
+      </c>
+      <c r="H82" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3370.8000000000147</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="28"/>
-      <c r="C83" s="20"/>
-      <c r="G83" s="3" t="str">
+      <c r="A83" s="28">
+        <v>43677</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F83">
+        <v>19.12</v>
+      </c>
+      <c r="G83" s="3">
         <f>IF(ISBLANK(A83),"",'2019'!G82-E83+F83)</f>
-        <v/>
-      </c>
-      <c r="H83" s="3" t="str">
+        <v>3319.0100000000148</v>
+      </c>
+      <c r="H83" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3389.9200000000146</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="28"/>
-      <c r="C84" s="20"/>
-      <c r="G84" s="3" t="str">
+      <c r="A84" s="28">
+        <v>43679</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F84">
+        <v>19.12</v>
+      </c>
+      <c r="G84" s="3">
         <f>IF(ISBLANK(A84),"",'2019'!G83-E84+F84)</f>
-        <v/>
-      </c>
-      <c r="H84" s="3" t="str">
+        <v>3338.1300000000147</v>
+      </c>
+      <c r="H84" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3409.0400000000145</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="28"/>
-      <c r="C85" s="20"/>
-      <c r="G85" s="3" t="str">
+      <c r="A85" s="28">
+        <v>43683</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F85">
+        <v>152.96</v>
+      </c>
+      <c r="G85" s="3">
         <f>IF(ISBLANK(A85),"",'2019'!G84-E85+F85)</f>
-        <v/>
-      </c>
-      <c r="H85" s="3" t="str">
+        <v>3491.0900000000147</v>
+      </c>
+      <c r="H85" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3562.0000000000146</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="28"/>
-      <c r="C86" s="20"/>
-      <c r="G86" s="3" t="str">
+      <c r="A86" s="28">
+        <v>43691</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F86">
+        <v>19.12</v>
+      </c>
+      <c r="G86" s="3">
         <f>IF(ISBLANK(A86),"",'2019'!G85-E86+F86)</f>
-        <v/>
-      </c>
-      <c r="H86" s="3" t="str">
+        <v>3510.2100000000146</v>
+      </c>
+      <c r="H86" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3581.1200000000144</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="28"/>
-      <c r="C87" s="20"/>
+      <c r="A87" s="28">
+        <v>43692</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="D87" s="8"/>
-      <c r="G87" s="3" t="str">
+      <c r="F87">
+        <v>19.12</v>
+      </c>
+      <c r="G87" s="3">
         <f>IF(ISBLANK(A87),"",'2019'!G86-E87+F87)</f>
-        <v/>
-      </c>
-      <c r="H87" s="3" t="str">
+        <v>3529.3300000000145</v>
+      </c>
+      <c r="H87" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3600.2400000000143</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="28"/>
-      <c r="C88" s="20"/>
+      <c r="A88" s="28">
+        <v>43699</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="D88" s="8"/>
-      <c r="G88" s="3" t="str">
+      <c r="F88">
+        <v>19.12</v>
+      </c>
+      <c r="G88" s="3">
         <f>IF(ISBLANK(A88),"",'2019'!G87-E88+F88)</f>
-        <v/>
-      </c>
-      <c r="H88" s="3" t="str">
+        <v>3548.4500000000144</v>
+      </c>
+      <c r="H88" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3619.3600000000142</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="28"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="8"/>
-      <c r="G89" s="3" t="str">
+      <c r="A89" s="28">
+        <v>43700</v>
+      </c>
+      <c r="B89">
+        <v>1412</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="3">
+        <v>85</v>
+      </c>
+      <c r="G89" s="3">
         <f>IF(ISBLANK(A89),"",'2019'!G88-E89+F89)</f>
-        <v/>
-      </c>
-      <c r="H89" s="3" t="str">
+        <v>3463.4500000000144</v>
+      </c>
+      <c r="H89" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3534.3600000000142</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="28"/>
-      <c r="C90" s="20"/>
+      <c r="A90" s="28">
+        <v>43706</v>
+      </c>
+      <c r="B90">
+        <v>1413</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>430</v>
+      </c>
       <c r="D90" s="8"/>
-      <c r="G90" s="3" t="str">
+      <c r="G90" s="3">
         <f>IF(ISBLANK(A90),"",'2019'!G89-E90+F90)</f>
-        <v/>
-      </c>
-      <c r="H90" s="3" t="str">
+        <v>3463.4500000000144</v>
+      </c>
+      <c r="H90" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3534.3600000000142</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="28"/>
-      <c r="C91" s="20"/>
+      <c r="A91" s="28">
+        <v>43706</v>
+      </c>
+      <c r="B91">
+        <v>1414</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>431</v>
+      </c>
       <c r="D91" s="8"/>
-      <c r="G91" s="3" t="str">
+      <c r="E91" s="3">
+        <v>125</v>
+      </c>
+      <c r="G91" s="3">
         <f>IF(ISBLANK(A91),"",'2019'!G90-E91+F91)</f>
-        <v/>
-      </c>
-      <c r="H91" s="3" t="str">
+        <v>3338.4500000000144</v>
+      </c>
+      <c r="H91" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3534.3600000000142</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="28"/>
-      <c r="C92" s="20"/>
-      <c r="G92" s="3" t="str">
+      <c r="A92" s="28">
+        <v>43724</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F92">
+        <v>115.92</v>
+      </c>
+      <c r="G92" s="3">
         <f>IF(ISBLANK(A92),"",'2019'!G91-E92+F92)</f>
-        <v/>
-      </c>
-      <c r="H92" s="3" t="str">
+        <v>3454.3700000000144</v>
+      </c>
+      <c r="H92" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3650.2800000000143</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="28"/>
-      <c r="C93" s="20"/>
-      <c r="G93" s="3" t="str">
+      <c r="A93" s="28">
+        <v>43725</v>
+      </c>
+      <c r="B93">
+        <v>1415</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="3">
+        <v>125</v>
+      </c>
+      <c r="G93" s="3">
         <f>IF(ISBLANK(A93),"",'2019'!G92-E93+F93)</f>
-        <v/>
-      </c>
-      <c r="H93" s="3" t="str">
+        <v>3329.3700000000144</v>
+      </c>
+      <c r="H93" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3525.2800000000143</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="28"/>
-      <c r="C94" s="20"/>
-      <c r="G94" s="3" t="str">
+      <c r="A94" s="28">
+        <v>43726</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F94">
+        <v>524.04</v>
+      </c>
+      <c r="G94" s="3">
         <f>IF(ISBLANK(A94),"",'2019'!G93-E94+F94)</f>
-        <v/>
-      </c>
-      <c r="H94" s="3" t="str">
+        <v>3853.4100000000144</v>
+      </c>
+      <c r="H94" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>4049.3200000000143</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="28"/>
-      <c r="C95" s="20"/>
+      <c r="A95" s="28">
+        <v>43731</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="D95" s="8"/>
-      <c r="G95" s="3" t="str">
+      <c r="F95">
+        <v>19.12</v>
+      </c>
+      <c r="G95" s="3">
         <f>IF(ISBLANK(A95),"",'2019'!G94-E95+F95)</f>
-        <v/>
-      </c>
-      <c r="H95" s="3" t="str">
+        <v>3872.5300000000143</v>
+      </c>
+      <c r="H95" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>4068.4400000000142</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="28"/>
-      <c r="C96" s="20"/>
-      <c r="G96" s="3" t="str">
+      <c r="A96" s="28">
+        <v>43734</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="F96">
+        <v>20</v>
+      </c>
+      <c r="G96" s="3">
         <f>IF(ISBLANK(A96),"",'2019'!G95-E96+F96)</f>
-        <v/>
-      </c>
-      <c r="H96" s="3" t="str">
+        <v>3892.5300000000143</v>
+      </c>
+      <c r="H96" s="3">
         <f t="shared" si="2"/>
-        <v/>
+        <v>4088.4400000000142</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="28"/>
-      <c r="C97" s="20"/>
-      <c r="G97" s="3" t="str">
+      <c r="A97" s="28">
+        <v>43735</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F97">
+        <v>19.12</v>
+      </c>
+      <c r="G97" s="3">
         <f>IF(ISBLANK(A97),"",'2019'!G96-E97+F97)</f>
-        <v/>
-      </c>
-      <c r="H97" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>3911.6500000000142</v>
+      </c>
+      <c r="H97" s="3">
+        <f t="shared" ref="H97:H104" si="3">IF(ISBLANK(A97),"",IF(D97="C",H96-E97+F97,H96+F97))</f>
+        <v>4107.560000000014</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="28"/>
-      <c r="C98" s="20"/>
-      <c r="G98" s="3" t="str">
+      <c r="A98" s="28">
+        <v>43739</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F98">
+        <v>38.54</v>
+      </c>
+      <c r="G98" s="3">
         <f>IF(ISBLANK(A98),"",'2019'!G97-E98+F98)</f>
-        <v/>
-      </c>
-      <c r="H98" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>3950.1900000000142</v>
+      </c>
+      <c r="H98" s="3">
+        <f t="shared" si="3"/>
+        <v>4146.100000000014</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="28"/>
-      <c r="C99" s="20"/>
-      <c r="G99" s="3" t="str">
+      <c r="A99" s="28">
+        <v>43747</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F99">
+        <v>19.12</v>
+      </c>
+      <c r="G99" s="3">
         <f>IF(ISBLANK(A99),"",'2019'!G98-E99+F99)</f>
-        <v/>
-      </c>
-      <c r="H99" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>3969.310000000014</v>
+      </c>
+      <c r="H99" s="3">
+        <f t="shared" si="3"/>
+        <v>4165.2200000000139</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="28"/>
-      <c r="C100" s="20"/>
-      <c r="G100" s="3" t="str">
+      <c r="A100" s="28">
+        <v>43748</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F100">
+        <v>19.12</v>
+      </c>
+      <c r="G100" s="3">
         <f>IF(ISBLANK(A100),"",'2019'!G99-E100+F100)</f>
-        <v/>
-      </c>
-      <c r="H100" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>3988.4300000000139</v>
+      </c>
+      <c r="H100" s="3">
+        <f t="shared" si="3"/>
+        <v>4184.3400000000138</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="28"/>
-      <c r="C101" s="20"/>
-      <c r="G101" s="3" t="str">
+      <c r="A101" s="28">
+        <v>43753</v>
+      </c>
+      <c r="B101">
+        <v>1416</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="E101" s="3">
+        <v>125</v>
+      </c>
+      <c r="G101" s="3">
         <f>IF(ISBLANK(A101),"",'2019'!G100-E101+F101)</f>
-        <v/>
-      </c>
-      <c r="H101" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>3863.4300000000139</v>
+      </c>
+      <c r="H101" s="3">
+        <f t="shared" si="3"/>
+        <v>4184.3400000000138</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="28"/>
-      <c r="C102" s="20"/>
-      <c r="G102" s="3" t="str">
+      <c r="A102" s="28">
+        <v>43761</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="F102">
+        <v>19.12</v>
+      </c>
+      <c r="G102" s="3">
         <f>IF(ISBLANK(A102),"",'2019'!G101-E102+F102)</f>
-        <v/>
-      </c>
-      <c r="H102" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>3882.5500000000138</v>
+      </c>
+      <c r="H102" s="3">
+        <f t="shared" si="3"/>
+        <v>4203.4600000000137</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -19806,7 +20174,7 @@
         <v/>
       </c>
       <c r="H103" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -19818,7 +20186,7 @@
         <v/>
       </c>
       <c r="H104" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -20243,7 +20611,7 @@
         <v/>
       </c>
       <c r="H138" s="3" t="str">
-        <f t="shared" ref="H138:H201" si="3">IF(ISBLANK(A138),"",IF(D138="C",H137-E138+F138,H137+F138))</f>
+        <f t="shared" ref="H138:H201" si="4">IF(ISBLANK(A138),"",IF(D138="C",H137-E138+F138,H137+F138))</f>
         <v/>
       </c>
     </row>
@@ -20255,7 +20623,7 @@
         <v/>
       </c>
       <c r="H139" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20267,7 +20635,7 @@
         <v/>
       </c>
       <c r="H140" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20280,7 +20648,7 @@
         <v/>
       </c>
       <c r="H141" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20293,7 +20661,7 @@
         <v/>
       </c>
       <c r="H142" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20305,7 +20673,7 @@
         <v/>
       </c>
       <c r="H143" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20317,7 +20685,7 @@
         <v/>
       </c>
       <c r="H144" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20330,7 +20698,7 @@
         <v/>
       </c>
       <c r="H145" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20342,7 +20710,7 @@
         <v/>
       </c>
       <c r="H146" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20354,7 +20722,7 @@
         <v/>
       </c>
       <c r="H147" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20366,7 +20734,7 @@
         <v/>
       </c>
       <c r="H148" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20378,7 +20746,7 @@
         <v/>
       </c>
       <c r="H149" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20390,7 +20758,7 @@
         <v/>
       </c>
       <c r="H150" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20402,7 +20770,7 @@
         <v/>
       </c>
       <c r="H151" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20415,7 +20783,7 @@
         <v/>
       </c>
       <c r="H152" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20428,7 +20796,7 @@
         <v/>
       </c>
       <c r="H153" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20440,7 +20808,7 @@
         <v/>
       </c>
       <c r="H154" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20452,7 +20820,7 @@
         <v/>
       </c>
       <c r="H155" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20462,7 +20830,7 @@
         <v/>
       </c>
       <c r="H156" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20472,7 +20840,7 @@
         <v/>
       </c>
       <c r="H157" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20482,7 +20850,7 @@
         <v/>
       </c>
       <c r="H158" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20492,7 +20860,7 @@
         <v/>
       </c>
       <c r="H159" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20502,7 +20870,7 @@
         <v/>
       </c>
       <c r="H160" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20512,7 +20880,7 @@
         <v/>
       </c>
       <c r="H161" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20522,7 +20890,7 @@
         <v/>
       </c>
       <c r="H162" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20532,7 +20900,7 @@
         <v/>
       </c>
       <c r="H163" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20542,7 +20910,7 @@
         <v/>
       </c>
       <c r="H164" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20552,7 +20920,7 @@
         <v/>
       </c>
       <c r="H165" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20562,7 +20930,7 @@
         <v/>
       </c>
       <c r="H166" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20572,7 +20940,7 @@
         <v/>
       </c>
       <c r="H167" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20582,7 +20950,7 @@
         <v/>
       </c>
       <c r="H168" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20592,7 +20960,7 @@
         <v/>
       </c>
       <c r="H169" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20602,7 +20970,7 @@
         <v/>
       </c>
       <c r="H170" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20612,7 +20980,7 @@
         <v/>
       </c>
       <c r="H171" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20622,7 +20990,7 @@
         <v/>
       </c>
       <c r="H172" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20632,7 +21000,7 @@
         <v/>
       </c>
       <c r="H173" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20642,7 +21010,7 @@
         <v/>
       </c>
       <c r="H174" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20652,7 +21020,7 @@
         <v/>
       </c>
       <c r="H175" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20662,7 +21030,7 @@
         <v/>
       </c>
       <c r="H176" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20672,7 +21040,7 @@
         <v/>
       </c>
       <c r="H177" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20682,7 +21050,7 @@
         <v/>
       </c>
       <c r="H178" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20692,7 +21060,7 @@
         <v/>
       </c>
       <c r="H179" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20702,7 +21070,7 @@
         <v/>
       </c>
       <c r="H180" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20712,7 +21080,7 @@
         <v/>
       </c>
       <c r="H181" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20722,7 +21090,7 @@
         <v/>
       </c>
       <c r="H182" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20732,7 +21100,7 @@
         <v/>
       </c>
       <c r="H183" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20742,7 +21110,7 @@
         <v/>
       </c>
       <c r="H184" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20752,7 +21120,7 @@
         <v/>
       </c>
       <c r="H185" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20762,7 +21130,7 @@
         <v/>
       </c>
       <c r="H186" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20772,7 +21140,7 @@
         <v/>
       </c>
       <c r="H187" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20782,7 +21150,7 @@
         <v/>
       </c>
       <c r="H188" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20792,7 +21160,7 @@
         <v/>
       </c>
       <c r="H189" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20802,7 +21170,7 @@
         <v/>
       </c>
       <c r="H190" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20812,7 +21180,7 @@
         <v/>
       </c>
       <c r="H191" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20822,7 +21190,7 @@
         <v/>
       </c>
       <c r="H192" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20832,7 +21200,7 @@
         <v/>
       </c>
       <c r="H193" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20842,7 +21210,7 @@
         <v/>
       </c>
       <c r="H194" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20852,7 +21220,7 @@
         <v/>
       </c>
       <c r="H195" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20862,7 +21230,7 @@
         <v/>
       </c>
       <c r="H196" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20872,7 +21240,7 @@
         <v/>
       </c>
       <c r="H197" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20882,7 +21250,7 @@
         <v/>
       </c>
       <c r="H198" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20892,7 +21260,7 @@
         <v/>
       </c>
       <c r="H199" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20902,7 +21270,7 @@
         <v/>
       </c>
       <c r="H200" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20912,7 +21280,7 @@
         <v/>
       </c>
       <c r="H201" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -20922,7 +21290,7 @@
         <v/>
       </c>
       <c r="H202" s="3" t="str">
-        <f t="shared" ref="H202:H259" si="4">IF(ISBLANK(A202),"",IF(D202="C",H201-E202+F202,H201+F202))</f>
+        <f t="shared" ref="H202:H259" si="5">IF(ISBLANK(A202),"",IF(D202="C",H201-E202+F202,H201+F202))</f>
         <v/>
       </c>
     </row>
@@ -20932,7 +21300,7 @@
         <v/>
       </c>
       <c r="H203" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -20942,7 +21310,7 @@
         <v/>
       </c>
       <c r="H204" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -20952,7 +21320,7 @@
         <v/>
       </c>
       <c r="H205" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -20962,7 +21330,7 @@
         <v/>
       </c>
       <c r="H206" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -20972,7 +21340,7 @@
         <v/>
       </c>
       <c r="H207" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -20982,7 +21350,7 @@
         <v/>
       </c>
       <c r="H208" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -20992,7 +21360,7 @@
         <v/>
       </c>
       <c r="H209" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21002,7 +21370,7 @@
         <v/>
       </c>
       <c r="H210" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21012,7 +21380,7 @@
         <v/>
       </c>
       <c r="H211" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21022,7 +21390,7 @@
         <v/>
       </c>
       <c r="H212" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21032,7 +21400,7 @@
         <v/>
       </c>
       <c r="H213" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21042,7 +21410,7 @@
         <v/>
       </c>
       <c r="H214" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21052,7 +21420,7 @@
         <v/>
       </c>
       <c r="H215" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21062,7 +21430,7 @@
         <v/>
       </c>
       <c r="H216" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21072,7 +21440,7 @@
         <v/>
       </c>
       <c r="H217" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21082,7 +21450,7 @@
         <v/>
       </c>
       <c r="H218" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21092,7 +21460,7 @@
         <v/>
       </c>
       <c r="H219" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21102,7 +21470,7 @@
         <v/>
       </c>
       <c r="H220" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21112,7 +21480,7 @@
         <v/>
       </c>
       <c r="H221" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21122,7 +21490,7 @@
         <v/>
       </c>
       <c r="H222" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21132,7 +21500,7 @@
         <v/>
       </c>
       <c r="H223" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21142,7 +21510,7 @@
         <v/>
       </c>
       <c r="H224" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21152,7 +21520,7 @@
         <v/>
       </c>
       <c r="H225" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21162,7 +21530,7 @@
         <v/>
       </c>
       <c r="H226" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21172,7 +21540,7 @@
         <v/>
       </c>
       <c r="H227" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21182,7 +21550,7 @@
         <v/>
       </c>
       <c r="H228" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21192,7 +21560,7 @@
         <v/>
       </c>
       <c r="H229" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21202,7 +21570,7 @@
         <v/>
       </c>
       <c r="H230" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21212,7 +21580,7 @@
         <v/>
       </c>
       <c r="H231" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21222,7 +21590,7 @@
         <v/>
       </c>
       <c r="H232" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21232,7 +21600,7 @@
         <v/>
       </c>
       <c r="H233" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21242,7 +21610,7 @@
         <v/>
       </c>
       <c r="H234" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21252,7 +21620,7 @@
         <v/>
       </c>
       <c r="H235" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21262,7 +21630,7 @@
         <v/>
       </c>
       <c r="H236" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21272,7 +21640,7 @@
         <v/>
       </c>
       <c r="H237" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21282,7 +21650,7 @@
         <v/>
       </c>
       <c r="H238" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21292,7 +21660,7 @@
         <v/>
       </c>
       <c r="H239" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21302,7 +21670,7 @@
         <v/>
       </c>
       <c r="H240" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21312,7 +21680,7 @@
         <v/>
       </c>
       <c r="H241" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21322,7 +21690,7 @@
         <v/>
       </c>
       <c r="H242" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21332,7 +21700,7 @@
         <v/>
       </c>
       <c r="H243" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21342,7 +21710,7 @@
         <v/>
       </c>
       <c r="H244" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21352,7 +21720,7 @@
         <v/>
       </c>
       <c r="H245" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21362,7 +21730,7 @@
         <v/>
       </c>
       <c r="H246" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21372,7 +21740,7 @@
         <v/>
       </c>
       <c r="H247" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21382,7 +21750,7 @@
         <v/>
       </c>
       <c r="H248" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21392,7 +21760,7 @@
         <v/>
       </c>
       <c r="H249" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21402,7 +21770,7 @@
         <v/>
       </c>
       <c r="H250" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21412,7 +21780,7 @@
         <v/>
       </c>
       <c r="H251" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21422,7 +21790,7 @@
         <v/>
       </c>
       <c r="H252" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21432,7 +21800,7 @@
         <v/>
       </c>
       <c r="H253" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21442,7 +21810,7 @@
         <v/>
       </c>
       <c r="H254" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21452,7 +21820,7 @@
         <v/>
       </c>
       <c r="H255" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21462,7 +21830,7 @@
         <v/>
       </c>
       <c r="H256" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21472,7 +21840,7 @@
         <v/>
       </c>
       <c r="H257" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21482,7 +21850,7 @@
         <v/>
       </c>
       <c r="H258" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -21492,7 +21860,7 @@
         <v/>
       </c>
       <c r="H259" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -23634,84 +24002,84 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H793"/>
-  <conditionalFormatting sqref="E1:E20 E23:E102 E104:E1048576">
-    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
+  <conditionalFormatting sqref="E1:E20 E104:E1048576 E102 E23:E100">
+    <cfRule type="expression" dxfId="35" priority="21" stopIfTrue="1">
       <formula>D1="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="20">
+    <cfRule type="expression" dxfId="34" priority="22">
       <formula>NOT(ISBLANK(E1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M4">
-    <cfRule type="expression" dxfId="33" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="19" stopIfTrue="1">
       <formula>L2="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="18">
+    <cfRule type="expression" dxfId="32" priority="20">
       <formula>NOT(ISBLANK(M2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="31" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="17" stopIfTrue="1">
       <formula>L5="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="16">
+    <cfRule type="expression" dxfId="30" priority="18">
       <formula>NOT(ISBLANK(M5))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
+  <conditionalFormatting sqref="J2:J4">
     <cfRule type="expression" dxfId="29" priority="13" stopIfTrue="1">
-      <formula>E14="c"</formula>
+      <formula>I2="c"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="14">
-      <formula>NOT(ISBLANK(F14))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J4">
-    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
-      <formula>I2="c"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="12">
       <formula>NOT(ISBLANK(J2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="25" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
       <formula>I5="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="10">
+    <cfRule type="expression" dxfId="26" priority="12">
       <formula>NOT(ISBLANK(J5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="9" stopIfTrue="1">
       <formula>I6="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="24" priority="10">
       <formula>NOT(ISBLANK(J6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="21" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
       <formula>I7="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="6">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>NOT(ISBLANK(J7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E22">
-    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="5" stopIfTrue="1">
       <formula>D21="c"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="20" priority="6">
       <formula>NOT(ISBLANK(E21))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="3" stopIfTrue="1">
       <formula>D103="c"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="18" priority="4">
+      <formula>NOT(ISBLANK(E103))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+      <formula>D101="c"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="16" priority="2">
-      <formula>NOT(ISBLANK(E103))</formula>
+      <formula>NOT(ISBLANK(E101))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
